--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B8C6E5-6377-4D69-9873-30904BF23662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E45A4D-5297-4CED-B39B-D74D79368C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="508">
   <si>
     <t>USAF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1931,6 +1931,15 @@
   </si>
   <si>
     <t>室韦镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东亚之外
+分区用Z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2513,9 +2522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
   <dimension ref="A1:T152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="J129" sqref="J129"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4947,8 +4954,8 @@
       <c r="T51" s="11"/>
     </row>
     <row r="52" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A52" s="7" t="s">
-        <v>43</v>
+      <c r="A52" s="15" t="s">
+        <v>268</v>
       </c>
       <c r="B52" s="26" t="s">
         <v>488</v>
@@ -4959,153 +4966,147 @@
       <c r="D52" s="29">
         <v>51</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
+      <c r="E52" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
       <c r="I52" s="8">
-        <v>31137</v>
-      </c>
-      <c r="J52" s="7">
+        <v>30781</v>
+      </c>
+      <c r="J52" s="15">
         <v>99999</v>
       </c>
-      <c r="K52" s="11"/>
+      <c r="K52" s="16"/>
       <c r="L52" s="21">
-        <v>56.283333300000002</v>
+        <v>52.75</v>
       </c>
       <c r="M52" s="21">
-        <v>131.1333333</v>
+        <v>120.0333333</v>
       </c>
       <c r="N52" s="20">
-        <v>850</v>
+        <v>370</v>
       </c>
       <c r="O52" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="P52" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>345</v>
+        <v>238</v>
+      </c>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="15" t="s">
+        <v>399</v>
       </c>
       <c r="R52" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="S52" s="7" t="s">
-        <v>481</v>
+        <v>410</v>
+      </c>
+      <c r="S52" s="15" t="s">
+        <v>483</v>
       </c>
       <c r="T52" s="11"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A53" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C53" s="26">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D53" s="29">
         <v>52</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="8">
-        <v>24688</v>
+        <v>36535</v>
       </c>
       <c r="J53" s="7">
         <v>99999</v>
       </c>
       <c r="K53" s="11"/>
       <c r="L53" s="21">
-        <v>63.25</v>
+        <v>48.75</v>
       </c>
       <c r="M53" s="21">
-        <v>143.15</v>
+        <v>82.366666600000002</v>
       </c>
       <c r="N53" s="20">
-        <v>741</v>
-      </c>
-      <c r="O53" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="P53" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>343</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="O53" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="7"/>
       <c r="R53" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S53" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="T53" s="11"/>
     </row>
-    <row r="54" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A54" s="15" t="s">
-        <v>268</v>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A54" s="7" t="s">
+        <v>395</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C54" s="26">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D54" s="29">
         <v>53</v>
       </c>
-      <c r="E54" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
+      <c r="E54" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
       <c r="I54" s="8">
-        <v>30781</v>
-      </c>
-      <c r="J54" s="15">
+        <v>47005</v>
+      </c>
+      <c r="J54" s="7">
         <v>99999</v>
       </c>
-      <c r="K54" s="16"/>
+      <c r="K54" s="11"/>
       <c r="L54" s="21">
-        <v>52.75</v>
+        <v>41.816666599999998</v>
       </c>
       <c r="M54" s="21">
-        <v>120.0333333</v>
+        <v>128.30000000000001</v>
       </c>
       <c r="N54" s="20">
-        <v>370</v>
+        <v>1381</v>
       </c>
       <c r="O54" s="24" t="s">
-        <v>238</v>
+        <v>396</v>
       </c>
       <c r="P54" s="9"/>
-      <c r="Q54" s="15" t="s">
-        <v>399</v>
+      <c r="Q54" s="7" t="s">
+        <v>397</v>
       </c>
       <c r="R54" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="S54" s="15" t="s">
-        <v>483</v>
+      <c r="S54" s="7" t="s">
+        <v>487</v>
       </c>
       <c r="T54" s="11"/>
     </row>
-    <row r="55" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A55" s="7" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C55" s="26">
         <v>1</v>
@@ -5114,50 +5115,52 @@
         <v>54</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="H55" s="7"/>
       <c r="I55" s="8">
-        <v>38875</v>
+        <v>54342</v>
       </c>
       <c r="J55" s="7">
         <v>99999</v>
       </c>
       <c r="K55" s="11"/>
-      <c r="L55" s="21">
-        <v>39.016666600000001</v>
-      </c>
-      <c r="M55" s="21">
-        <v>73.55</v>
-      </c>
-      <c r="N55" s="20">
-        <v>3940</v>
-      </c>
-      <c r="O55" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P55" s="9" t="s">
-        <v>412</v>
-      </c>
+      <c r="L55" s="19">
+        <v>41.732500000000002</v>
+      </c>
+      <c r="M55" s="19">
+        <v>123.51</v>
+      </c>
+      <c r="N55" s="22">
+        <v>51</v>
+      </c>
+      <c r="O55" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="P55" s="9"/>
       <c r="Q55" s="7" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="R55" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S55" s="7" t="s">
-        <v>484</v>
+        <v>424</v>
       </c>
       <c r="T55" s="11"/>
     </row>
-    <row r="56" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A56" s="7" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C56" s="26">
         <v>2</v>
@@ -5166,50 +5169,50 @@
         <v>55</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="H56" s="7"/>
       <c r="I56" s="8">
-        <v>38358</v>
+        <v>54252</v>
       </c>
       <c r="J56" s="7">
         <v>99999</v>
       </c>
       <c r="K56" s="11"/>
-      <c r="L56" s="21">
-        <v>42.15</v>
-      </c>
-      <c r="M56" s="21">
-        <v>73.983000000000004</v>
-      </c>
-      <c r="N56" s="20">
-        <v>2092</v>
-      </c>
-      <c r="O56" s="14" t="s">
-        <v>54</v>
+      <c r="L56" s="19">
+        <v>42.740299999999998</v>
+      </c>
+      <c r="M56" s="19">
+        <v>124.7406</v>
+      </c>
+      <c r="N56" s="22">
+        <v>196.1</v>
+      </c>
+      <c r="O56" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="P56" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="R56" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="S56" s="7" t="s">
-        <v>485</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="R56" s="10"/>
+      <c r="S56" s="7"/>
       <c r="T56" s="11"/>
     </row>
-    <row r="57" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A57" s="7" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C57" s="26">
         <v>3</v>
@@ -5218,46 +5221,52 @@
         <v>56</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="H57" s="7"/>
       <c r="I57" s="8">
-        <v>36535</v>
+        <v>54161</v>
       </c>
       <c r="J57" s="7">
         <v>99999</v>
       </c>
       <c r="K57" s="11"/>
-      <c r="L57" s="21">
-        <v>48.75</v>
-      </c>
-      <c r="M57" s="21">
-        <v>82.366666600000002</v>
-      </c>
-      <c r="N57" s="20">
-        <v>512</v>
-      </c>
-      <c r="O57" s="14" t="s">
-        <v>47</v>
+      <c r="L57" s="19">
+        <v>43.891399999999997</v>
+      </c>
+      <c r="M57" s="19">
+        <v>125.2317</v>
+      </c>
+      <c r="N57" s="22">
+        <v>236.8</v>
+      </c>
+      <c r="O57" s="24" t="s">
+        <v>215</v>
       </c>
       <c r="P57" s="9"/>
-      <c r="Q57" s="7"/>
+      <c r="Q57" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="R57" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S57" s="7" t="s">
-        <v>486</v>
+        <v>425</v>
       </c>
       <c r="T57" s="11"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
-        <v>395</v>
+        <v>3</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C58" s="26">
         <v>4</v>
@@ -5266,39 +5275,45 @@
         <v>57</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="H58" s="7"/>
       <c r="I58" s="8">
-        <v>47005</v>
+        <v>54273</v>
       </c>
       <c r="J58" s="7">
         <v>99999</v>
       </c>
       <c r="K58" s="11"/>
-      <c r="L58" s="21">
-        <v>41.816666599999998</v>
-      </c>
-      <c r="M58" s="21">
-        <v>128.30000000000001</v>
-      </c>
-      <c r="N58" s="20">
-        <v>1381</v>
+      <c r="L58" s="19">
+        <v>42.978299999999997</v>
+      </c>
+      <c r="M58" s="19">
+        <v>126.7597</v>
+      </c>
+      <c r="N58" s="22">
+        <v>263.3</v>
       </c>
       <c r="O58" s="24" t="s">
-        <v>396</v>
-      </c>
-      <c r="P58" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="P58" s="9" t="s">
+        <v>412</v>
+      </c>
       <c r="Q58" s="7" t="s">
-        <v>397</v>
+        <v>282</v>
       </c>
       <c r="R58" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="S58" s="7" t="s">
-        <v>487</v>
+        <v>426</v>
       </c>
       <c r="T58" s="11"/>
     </row>
@@ -5310,49 +5325,51 @@
         <v>490</v>
       </c>
       <c r="C59" s="26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D59" s="29">
         <v>58</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>216</v>
+        <v>95</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="8">
-        <v>54342</v>
+        <v>50953</v>
       </c>
       <c r="J59" s="7">
         <v>99999</v>
       </c>
       <c r="K59" s="11"/>
       <c r="L59" s="19">
-        <v>41.732500000000002</v>
+        <v>45.934199999999997</v>
       </c>
       <c r="M59" s="19">
-        <v>123.51</v>
+        <v>126.58110000000001</v>
       </c>
       <c r="N59" s="22">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="O59" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="P59" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="P59" s="9" t="s">
+        <v>412</v>
+      </c>
       <c r="Q59" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="R59" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S59" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="T59" s="11"/>
     </row>
@@ -5364,51 +5381,51 @@
         <v>490</v>
       </c>
       <c r="C60" s="26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D60" s="29">
         <v>59</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="8">
-        <v>54252</v>
+        <v>50673</v>
       </c>
       <c r="J60" s="7">
         <v>99999</v>
       </c>
       <c r="K60" s="11"/>
       <c r="L60" s="19">
-        <v>42.740299999999998</v>
+        <v>48.887799999999999</v>
       </c>
       <c r="M60" s="19">
-        <v>124.7406</v>
+        <v>130.4117</v>
       </c>
       <c r="N60" s="22">
-        <v>196.1</v>
+        <v>90</v>
       </c>
       <c r="O60" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P60" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="R60" s="10"/>
       <c r="S60" s="7"/>
       <c r="T60" s="11"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A61" s="7" t="s">
         <v>3</v>
       </c>
@@ -5416,53 +5433,53 @@
         <v>490</v>
       </c>
       <c r="C61" s="26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D61" s="29">
         <v>60</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>203</v>
+        <v>55</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>214</v>
+        <v>62</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="8">
-        <v>54161</v>
+        <v>50353</v>
       </c>
       <c r="J61" s="7">
         <v>99999</v>
       </c>
       <c r="K61" s="11"/>
       <c r="L61" s="19">
-        <v>43.891399999999997</v>
+        <v>51.726100000000002</v>
       </c>
       <c r="M61" s="19">
-        <v>125.2317</v>
+        <v>126.63890000000001</v>
       </c>
       <c r="N61" s="22">
-        <v>236.8</v>
+        <v>173.9</v>
       </c>
       <c r="O61" s="24" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="P61" s="9"/>
       <c r="Q61" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="R61" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S61" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="T61" s="11"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A62" s="7" t="s">
         <v>3</v>
       </c>
@@ -5470,55 +5487,49 @@
         <v>490</v>
       </c>
       <c r="C62" s="26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D62" s="29">
         <v>61</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="8">
-        <v>54273</v>
+        <v>50246</v>
       </c>
       <c r="J62" s="7">
         <v>99999</v>
       </c>
       <c r="K62" s="11"/>
       <c r="L62" s="19">
-        <v>42.978299999999997</v>
+        <v>52.348100000000002</v>
       </c>
       <c r="M62" s="19">
-        <v>126.7597</v>
+        <v>124.7169</v>
       </c>
       <c r="N62" s="22">
-        <v>263.3</v>
+        <v>359.4</v>
       </c>
       <c r="O62" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="P62" s="9" t="s">
-        <v>412</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P62" s="9"/>
       <c r="Q62" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="R62" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="S62" s="7" t="s">
-        <v>426</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="R62" s="10"/>
+      <c r="S62" s="7"/>
       <c r="T62" s="11"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A63" s="7" t="s">
         <v>3</v>
       </c>
@@ -5526,7 +5537,7 @@
         <v>490</v>
       </c>
       <c r="C63" s="26">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D63" s="29">
         <v>62</v>
@@ -5535,46 +5546,40 @@
         <v>56</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="8">
-        <v>50953</v>
+        <v>50247</v>
       </c>
       <c r="J63" s="7">
         <v>99999</v>
       </c>
       <c r="K63" s="11"/>
       <c r="L63" s="19">
-        <v>45.934199999999997</v>
+        <v>52.036099999999998</v>
       </c>
       <c r="M63" s="19">
-        <v>126.58110000000001</v>
+        <v>123.5722</v>
       </c>
       <c r="N63" s="22">
-        <v>115</v>
+        <v>514.5</v>
       </c>
       <c r="O63" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="P63" s="9" t="s">
-        <v>412</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="P63" s="9"/>
       <c r="Q63" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="R63" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="S63" s="7" t="s">
-        <v>427</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="R63" s="10"/>
+      <c r="S63" s="7"/>
       <c r="T63" s="11"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A64" s="7" t="s">
         <v>3</v>
       </c>
@@ -5582,7 +5587,7 @@
         <v>490</v>
       </c>
       <c r="C64" s="26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D64" s="29">
         <v>63</v>
@@ -5591,39 +5596,43 @@
         <v>56</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="8">
-        <v>50673</v>
+        <v>50136</v>
       </c>
       <c r="J64" s="7">
         <v>99999</v>
       </c>
       <c r="K64" s="11"/>
       <c r="L64" s="19">
-        <v>48.887799999999999</v>
+        <v>52.974400000000003</v>
       </c>
       <c r="M64" s="19">
-        <v>130.4117</v>
+        <v>122.51309999999999</v>
       </c>
       <c r="N64" s="22">
-        <v>90</v>
+        <v>433.9</v>
       </c>
       <c r="O64" s="24" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="P64" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="R64" s="10"/>
-      <c r="S64" s="7"/>
+        <v>291</v>
+      </c>
+      <c r="R64" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="S64" s="7" t="s">
+        <v>429</v>
+      </c>
       <c r="T64" s="11"/>
     </row>
     <row r="65" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
@@ -5634,7 +5643,7 @@
         <v>490</v>
       </c>
       <c r="C65" s="26">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D65" s="29">
         <v>64</v>
@@ -5646,41 +5655,37 @@
         <v>55</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="8">
-        <v>50353</v>
+        <v>50137</v>
       </c>
       <c r="J65" s="7">
         <v>99999</v>
       </c>
       <c r="K65" s="11"/>
       <c r="L65" s="19">
-        <v>51.726100000000002</v>
+        <v>53.468899999999998</v>
       </c>
       <c r="M65" s="19">
-        <v>126.63890000000001</v>
+        <v>122.36190000000001</v>
       </c>
       <c r="N65" s="22">
-        <v>173.9</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="O65" s="24" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="P65" s="9"/>
       <c r="Q65" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="R65" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="S65" s="7" t="s">
-        <v>428</v>
-      </c>
+      <c r="R65" s="10"/>
+      <c r="S65" s="7"/>
       <c r="T65" s="11"/>
     </row>
-    <row r="66" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
         <v>3</v>
       </c>
@@ -5688,49 +5693,51 @@
         <v>490</v>
       </c>
       <c r="C66" s="26">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D66" s="29">
         <v>65</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="8">
-        <v>50246</v>
+        <v>50431</v>
       </c>
       <c r="J66" s="7">
         <v>99999</v>
       </c>
       <c r="K66" s="11"/>
       <c r="L66" s="19">
-        <v>52.348100000000002</v>
+        <v>50.782800000000002</v>
       </c>
       <c r="M66" s="19">
-        <v>124.7169</v>
+        <v>121.51300000000001</v>
       </c>
       <c r="N66" s="22">
-        <v>359.4</v>
+        <v>716.7</v>
       </c>
       <c r="O66" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="P66" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="P66" s="9" t="s">
+        <v>412</v>
+      </c>
       <c r="Q66" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="R66" s="10"/>
       <c r="S66" s="7"/>
       <c r="T66" s="11"/>
     </row>
-    <row r="67" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
         <v>3</v>
       </c>
@@ -5738,49 +5745,55 @@
         <v>490</v>
       </c>
       <c r="C67" s="26">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="29">
         <v>66</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="8">
-        <v>50247</v>
+        <v>50434</v>
       </c>
       <c r="J67" s="7">
         <v>99999</v>
       </c>
       <c r="K67" s="11"/>
       <c r="L67" s="19">
-        <v>52.036099999999998</v>
+        <v>50.478099999999998</v>
       </c>
       <c r="M67" s="19">
-        <v>123.5722</v>
+        <v>121.6867</v>
       </c>
       <c r="N67" s="22">
-        <v>514.5</v>
+        <v>734.8</v>
       </c>
       <c r="O67" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="P67" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="P67" s="9" t="s">
+        <v>412</v>
+      </c>
       <c r="Q67" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="R67" s="10"/>
-      <c r="S67" s="7"/>
+      <c r="R67" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="S67" s="7" t="s">
+        <v>430</v>
+      </c>
       <c r="T67" s="11"/>
     </row>
-    <row r="68" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
         <v>3</v>
       </c>
@@ -5788,55 +5801,49 @@
         <v>490</v>
       </c>
       <c r="C68" s="26">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D68" s="29">
         <v>67</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="8">
-        <v>50136</v>
+        <v>50425</v>
       </c>
       <c r="J68" s="7">
         <v>99999</v>
       </c>
       <c r="K68" s="11"/>
       <c r="L68" s="19">
-        <v>52.974400000000003</v>
+        <v>50.236899999999999</v>
       </c>
       <c r="M68" s="19">
-        <v>122.51309999999999</v>
+        <v>120.16719999999999</v>
       </c>
       <c r="N68" s="22">
-        <v>433.9</v>
+        <v>581.4</v>
       </c>
       <c r="O68" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="P68" s="9" t="s">
-        <v>412</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="P68" s="9"/>
       <c r="Q68" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="R68" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="S68" s="7" t="s">
-        <v>429</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="R68" s="10"/>
+      <c r="S68" s="7"/>
       <c r="T68" s="11"/>
     </row>
-    <row r="69" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A69" s="7" t="s">
         <v>3</v>
       </c>
@@ -5844,43 +5851,43 @@
         <v>490</v>
       </c>
       <c r="C69" s="26">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D69" s="29">
         <v>68</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="8">
-        <v>50137</v>
+        <v>50524</v>
       </c>
       <c r="J69" s="7">
         <v>99999</v>
       </c>
       <c r="K69" s="11"/>
       <c r="L69" s="19">
-        <v>53.468899999999998</v>
+        <v>49.3414</v>
       </c>
       <c r="M69" s="19">
-        <v>122.36190000000001</v>
+        <v>119.4569</v>
       </c>
       <c r="N69" s="22">
-        <v>291.60000000000002</v>
+        <v>597.4</v>
       </c>
       <c r="O69" s="24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P69" s="9"/>
       <c r="Q69" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="R69" s="10"/>
       <c r="S69" s="7"/>
@@ -5894,7 +5901,7 @@
         <v>490</v>
       </c>
       <c r="C70" s="26">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D70" s="29">
         <v>69</v>
@@ -5906,39 +5913,41 @@
         <v>58</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="8">
-        <v>50431</v>
+        <v>50527</v>
       </c>
       <c r="J70" s="7">
         <v>99999</v>
       </c>
       <c r="K70" s="11"/>
       <c r="L70" s="19">
-        <v>50.782800000000002</v>
+        <v>49.25</v>
       </c>
       <c r="M70" s="19">
-        <v>121.51300000000001</v>
+        <v>119.7003</v>
       </c>
       <c r="N70" s="22">
-        <v>716.7</v>
+        <v>649.70000000000005</v>
       </c>
       <c r="O70" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="P70" s="9" t="s">
-        <v>412</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="P70" s="9"/>
       <c r="Q70" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="R70" s="10"/>
-      <c r="S70" s="7"/>
+        <v>294</v>
+      </c>
+      <c r="R70" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="S70" s="7" t="s">
+        <v>431</v>
+      </c>
       <c r="T70" s="11"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A71" s="7" t="s">
         <v>3</v>
       </c>
@@ -5946,7 +5955,7 @@
         <v>490</v>
       </c>
       <c r="C71" s="26">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D71" s="29">
         <v>70</v>
@@ -5958,40 +5967,34 @@
         <v>58</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="8">
-        <v>50434</v>
+        <v>50525</v>
       </c>
       <c r="J71" s="7">
         <v>99999</v>
       </c>
       <c r="K71" s="11"/>
       <c r="L71" s="19">
-        <v>50.478099999999998</v>
+        <v>49.132800000000003</v>
       </c>
       <c r="M71" s="19">
-        <v>121.6867</v>
+        <v>119.7419</v>
       </c>
       <c r="N71" s="22">
-        <v>734.8</v>
+        <v>617.29999999999995</v>
       </c>
       <c r="O71" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="P71" s="9" t="s">
-        <v>412</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="P71" s="9"/>
       <c r="Q71" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="R71" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="S71" s="7" t="s">
-        <v>430</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="R71" s="10"/>
+      <c r="S71" s="7"/>
       <c r="T71" s="11"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.4">
@@ -6002,7 +6005,7 @@
         <v>490</v>
       </c>
       <c r="C72" s="26">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D72" s="29">
         <v>71</v>
@@ -6014,31 +6017,31 @@
         <v>58</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="8">
-        <v>50425</v>
+        <v>50526</v>
       </c>
       <c r="J72" s="7">
         <v>99999</v>
       </c>
       <c r="K72" s="11"/>
       <c r="L72" s="19">
-        <v>50.236899999999999</v>
+        <v>49.283099999999997</v>
       </c>
       <c r="M72" s="19">
-        <v>120.16719999999999</v>
+        <v>120.6878</v>
       </c>
       <c r="N72" s="22">
-        <v>581.4</v>
+        <v>654.9</v>
       </c>
       <c r="O72" s="24" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="P72" s="9"/>
       <c r="Q72" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="R72" s="10"/>
       <c r="S72" s="7"/>
@@ -6052,7 +6055,7 @@
         <v>490</v>
       </c>
       <c r="C73" s="26">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D73" s="29">
         <v>72</v>
@@ -6061,37 +6064,41 @@
         <v>57</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="8">
-        <v>50524</v>
+        <v>50727</v>
       </c>
       <c r="J73" s="7">
         <v>99999</v>
       </c>
       <c r="K73" s="11"/>
       <c r="L73" s="19">
-        <v>49.3414</v>
+        <v>47.180799999999998</v>
       </c>
       <c r="M73" s="19">
-        <v>119.4569</v>
+        <v>119.9344</v>
       </c>
       <c r="N73" s="22">
-        <v>597.4</v>
+        <v>997</v>
       </c>
       <c r="O73" s="24" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="P73" s="9"/>
       <c r="Q73" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="R73" s="10"/>
-      <c r="S73" s="7"/>
+        <v>288</v>
+      </c>
+      <c r="R73" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="S73" s="7" t="s">
+        <v>432</v>
+      </c>
       <c r="T73" s="11"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.4">
@@ -6102,53 +6109,49 @@
         <v>490</v>
       </c>
       <c r="C74" s="26">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D74" s="29">
         <v>73</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="8">
-        <v>50527</v>
+        <v>53392</v>
       </c>
       <c r="J74" s="7">
         <v>99999</v>
       </c>
       <c r="K74" s="11"/>
       <c r="L74" s="19">
-        <v>49.25</v>
+        <v>41.86</v>
       </c>
       <c r="M74" s="19">
-        <v>119.7003</v>
+        <v>114.5603</v>
       </c>
       <c r="N74" s="22">
-        <v>649.70000000000005</v>
+        <v>1434.5</v>
       </c>
       <c r="O74" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="R74" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="S74" s="7" t="s">
-        <v>431</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="P74" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="7"/>
       <c r="T74" s="11"/>
     </row>
-    <row r="75" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A75" s="7" t="s">
         <v>3</v>
       </c>
@@ -6156,49 +6159,51 @@
         <v>490</v>
       </c>
       <c r="C75" s="26">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D75" s="29">
         <v>74</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="8">
-        <v>50525</v>
+        <v>55294</v>
       </c>
       <c r="J75" s="7">
         <v>99999</v>
       </c>
       <c r="K75" s="11"/>
       <c r="L75" s="19">
-        <v>49.132800000000003</v>
+        <v>32.269399999999997</v>
       </c>
       <c r="M75" s="19">
-        <v>119.7419</v>
+        <v>91.679400000000001</v>
       </c>
       <c r="N75" s="22">
-        <v>617.29999999999995</v>
+        <v>4686</v>
       </c>
       <c r="O75" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="P75" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="P75" s="9" t="s">
+        <v>412</v>
+      </c>
       <c r="Q75" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="R75" s="10"/>
       <c r="S75" s="7"/>
       <c r="T75" s="11"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A76" s="7" t="s">
         <v>3</v>
       </c>
@@ -6206,49 +6211,51 @@
         <v>490</v>
       </c>
       <c r="C76" s="26">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D76" s="29">
         <v>75</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="8">
-        <v>50526</v>
+        <v>56034</v>
       </c>
       <c r="J76" s="7">
         <v>99999</v>
       </c>
       <c r="K76" s="11"/>
       <c r="L76" s="19">
-        <v>49.283099999999997</v>
+        <v>33.805300000000003</v>
       </c>
       <c r="M76" s="19">
-        <v>120.6878</v>
+        <v>97.137799999999999</v>
       </c>
       <c r="N76" s="22">
-        <v>654.9</v>
+        <v>4415.6000000000004</v>
       </c>
       <c r="O76" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="P76" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="P76" s="9" t="s">
+        <v>412</v>
+      </c>
       <c r="Q76" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R76" s="10"/>
       <c r="S76" s="7"/>
       <c r="T76" s="11"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A77" s="7" t="s">
         <v>3</v>
       </c>
@@ -6256,53 +6263,55 @@
         <v>490</v>
       </c>
       <c r="C77" s="26">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D77" s="29">
         <v>76</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="8">
-        <v>50727</v>
+        <v>52908</v>
       </c>
       <c r="J77" s="7">
         <v>99999</v>
       </c>
       <c r="K77" s="11"/>
       <c r="L77" s="19">
-        <v>47.180799999999998</v>
+        <v>35.215800000000002</v>
       </c>
       <c r="M77" s="19">
-        <v>119.9344</v>
+        <v>93.080799999999996</v>
       </c>
       <c r="N77" s="22">
-        <v>997</v>
+        <v>4612</v>
       </c>
       <c r="O77" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="P77" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="P77" s="9" t="s">
+        <v>412</v>
+      </c>
       <c r="Q77" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="R77" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S77" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="T77" s="11"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A78" s="7" t="s">
         <v>3</v>
       </c>
@@ -6310,49 +6319,55 @@
         <v>490</v>
       </c>
       <c r="C78" s="26">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D78" s="29">
         <v>77</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>98</v>
+        <v>271</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="8">
-        <v>53392</v>
+        <v>52323</v>
       </c>
       <c r="J78" s="7">
         <v>99999</v>
       </c>
       <c r="K78" s="11"/>
       <c r="L78" s="19">
-        <v>41.86</v>
+        <v>41.804699999999997</v>
       </c>
       <c r="M78" s="19">
-        <v>114.5603</v>
+        <v>97.031899999999993</v>
       </c>
       <c r="N78" s="22">
-        <v>1434.5</v>
+        <v>1773.7</v>
       </c>
       <c r="O78" s="24" t="s">
-        <v>21</v>
+        <v>269</v>
       </c>
       <c r="P78" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="10"/>
-      <c r="S78" s="7"/>
+      <c r="Q78" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="R78" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="S78" s="7" t="s">
+        <v>434</v>
+      </c>
       <c r="T78" s="11"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A79" s="7" t="s">
         <v>3</v>
       </c>
@@ -6360,51 +6375,51 @@
         <v>490</v>
       </c>
       <c r="C79" s="26">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D79" s="29">
         <v>78</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="8">
-        <v>55294</v>
+        <v>52101</v>
       </c>
       <c r="J79" s="7">
         <v>99999</v>
       </c>
       <c r="K79" s="11"/>
       <c r="L79" s="19">
-        <v>32.269399999999997</v>
+        <v>43.594999999999999</v>
       </c>
       <c r="M79" s="19">
-        <v>91.679400000000001</v>
+        <v>93.045000000000002</v>
       </c>
       <c r="N79" s="22">
-        <v>4686</v>
+        <v>1679.2</v>
       </c>
       <c r="O79" s="24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P79" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R79" s="10"/>
       <c r="S79" s="7"/>
       <c r="T79" s="11"/>
     </row>
-    <row r="80" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A80" s="7" t="s">
         <v>3</v>
       </c>
@@ -6412,51 +6427,51 @@
         <v>490</v>
       </c>
       <c r="C80" s="26">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D80" s="29">
         <v>79</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="8">
-        <v>56034</v>
+        <v>51186</v>
       </c>
       <c r="J80" s="7">
         <v>99999</v>
       </c>
       <c r="K80" s="11"/>
       <c r="L80" s="19">
-        <v>33.805300000000003</v>
+        <v>46.664999999999999</v>
       </c>
       <c r="M80" s="19">
-        <v>97.137799999999999</v>
+        <v>90.377799999999993</v>
       </c>
       <c r="N80" s="22">
-        <v>4415.6000000000004</v>
+        <v>1219.0999999999999</v>
       </c>
       <c r="O80" s="24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P80" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="R80" s="10"/>
       <c r="S80" s="7"/>
       <c r="T80" s="11"/>
     </row>
-    <row r="81" spans="1:20" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="7" t="s">
         <v>3</v>
       </c>
@@ -6464,55 +6479,55 @@
         <v>490</v>
       </c>
       <c r="C81" s="26">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D81" s="29">
         <v>80</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H81" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="I81" s="8">
-        <v>52908</v>
+        <v>51076</v>
       </c>
       <c r="J81" s="7">
         <v>99999</v>
       </c>
       <c r="K81" s="11"/>
       <c r="L81" s="19">
-        <v>35.215800000000002</v>
+        <v>47.741100000000003</v>
       </c>
       <c r="M81" s="19">
-        <v>93.080799999999996</v>
+        <v>88.071100000000001</v>
       </c>
       <c r="N81" s="22">
-        <v>4612</v>
+        <v>734.8</v>
       </c>
       <c r="O81" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="P81" s="9" t="s">
-        <v>412</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="P81" s="9"/>
       <c r="Q81" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="R81" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S81" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="T81" s="11"/>
     </row>
-    <row r="82" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A82" s="7" t="s">
         <v>3</v>
       </c>
@@ -6520,55 +6535,55 @@
         <v>490</v>
       </c>
       <c r="C82" s="26">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D82" s="29">
         <v>81</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>271</v>
+        <v>111</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="8">
-        <v>52323</v>
+        <v>51573</v>
       </c>
       <c r="J82" s="7">
         <v>99999</v>
       </c>
       <c r="K82" s="11"/>
       <c r="L82" s="19">
-        <v>41.804699999999997</v>
+        <v>42.950299999999999</v>
       </c>
       <c r="M82" s="19">
-        <v>97.031899999999993</v>
+        <v>89.230800000000002</v>
       </c>
       <c r="N82" s="22">
-        <v>1773.7</v>
+        <v>39</v>
       </c>
       <c r="O82" s="24" t="s">
-        <v>269</v>
+        <v>416</v>
       </c>
       <c r="P82" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="R82" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S82" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="T82" s="11"/>
     </row>
-    <row r="83" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A83" s="7" t="s">
         <v>3</v>
       </c>
@@ -6576,7 +6591,7 @@
         <v>490</v>
       </c>
       <c r="C83" s="26">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D83" s="29">
         <v>82</v>
@@ -6585,42 +6600,46 @@
         <v>70</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="8">
-        <v>52101</v>
+        <v>51463</v>
       </c>
       <c r="J83" s="7">
         <v>99999</v>
       </c>
       <c r="K83" s="11"/>
       <c r="L83" s="19">
-        <v>43.594999999999999</v>
+        <v>43.789200000000001</v>
       </c>
       <c r="M83" s="19">
-        <v>93.045000000000002</v>
+        <v>87.645799999999994</v>
       </c>
       <c r="N83" s="22">
-        <v>1679.2</v>
+        <v>935</v>
       </c>
       <c r="O83" s="24" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P83" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="R83" s="10"/>
-      <c r="S83" s="7"/>
+        <v>300</v>
+      </c>
+      <c r="R83" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="S83" s="7" t="s">
+        <v>437</v>
+      </c>
       <c r="T83" s="11"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A84" s="7" t="s">
         <v>3</v>
       </c>
@@ -6628,7 +6647,7 @@
         <v>490</v>
       </c>
       <c r="C84" s="26">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D84" s="29">
         <v>83</v>
@@ -6637,42 +6656,46 @@
         <v>70</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="8">
-        <v>51186</v>
+        <v>51542</v>
       </c>
       <c r="J84" s="7">
         <v>99999</v>
       </c>
       <c r="K84" s="11"/>
       <c r="L84" s="19">
-        <v>46.664999999999999</v>
+        <v>43.0336</v>
       </c>
       <c r="M84" s="19">
-        <v>90.377799999999993</v>
+        <v>84.149199999999993</v>
       </c>
       <c r="N84" s="22">
-        <v>1219.0999999999999</v>
+        <v>2459.1</v>
       </c>
       <c r="O84" s="24" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P84" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="R84" s="10"/>
-      <c r="S84" s="7"/>
+        <v>301</v>
+      </c>
+      <c r="R84" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="S84" s="7" t="s">
+        <v>438</v>
+      </c>
       <c r="T84" s="11"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A85" s="7" t="s">
         <v>3</v>
       </c>
@@ -6680,7 +6703,7 @@
         <v>490</v>
       </c>
       <c r="C85" s="26">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D85" s="29">
         <v>84</v>
@@ -6689,43 +6712,39 @@
         <v>70</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>106</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="H85" s="7"/>
       <c r="I85" s="8">
-        <v>51076</v>
+        <v>51437</v>
       </c>
       <c r="J85" s="7">
         <v>99999</v>
       </c>
       <c r="K85" s="11"/>
       <c r="L85" s="19">
-        <v>47.741100000000003</v>
+        <v>43.1417</v>
       </c>
       <c r="M85" s="19">
-        <v>88.071100000000001</v>
+        <v>81.125600000000006</v>
       </c>
       <c r="N85" s="22">
-        <v>734.8</v>
+        <v>1850.8</v>
       </c>
       <c r="O85" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="P85" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="P85" s="9" t="s">
+        <v>412</v>
+      </c>
       <c r="Q85" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="R85" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="S85" s="7" t="s">
-        <v>435</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="R85" s="10"/>
+      <c r="S85" s="7"/>
       <c r="T85" s="11"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.4">
@@ -6736,51 +6755,51 @@
         <v>490</v>
       </c>
       <c r="C86" s="26">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D86" s="29">
         <v>85</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="8">
-        <v>51573</v>
+        <v>53463</v>
       </c>
       <c r="J86" s="7">
         <v>99999</v>
       </c>
       <c r="K86" s="11"/>
       <c r="L86" s="19">
-        <v>42.950299999999999</v>
+        <v>40.855800000000002</v>
       </c>
       <c r="M86" s="19">
-        <v>89.230800000000002</v>
+        <v>111.5714</v>
       </c>
       <c r="N86" s="22">
-        <v>39</v>
+        <v>1153.5</v>
       </c>
       <c r="O86" s="24" t="s">
-        <v>416</v>
+        <v>22</v>
       </c>
       <c r="P86" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="R86" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S86" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="T86" s="11"/>
     </row>
@@ -6792,55 +6811,51 @@
         <v>490</v>
       </c>
       <c r="C87" s="26">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D87" s="29">
         <v>86</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>103</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="F87" s="7"/>
       <c r="G87" s="7" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="8">
-        <v>51463</v>
+        <v>54511</v>
       </c>
       <c r="J87" s="7">
         <v>99999</v>
       </c>
       <c r="K87" s="11"/>
       <c r="L87" s="19">
-        <v>43.789200000000001</v>
+        <v>39.806100000000001</v>
       </c>
       <c r="M87" s="19">
-        <v>87.645799999999994</v>
+        <v>116.46939999999999</v>
       </c>
       <c r="N87" s="22">
-        <v>935</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="O87" s="24" t="s">
-        <v>24</v>
+        <v>188</v>
       </c>
       <c r="P87" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q87" s="7" t="s">
-        <v>300</v>
-      </c>
+      <c r="Q87" s="7"/>
       <c r="R87" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S87" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="T87" s="11"/>
     </row>
-    <row r="88" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A88" s="7" t="s">
         <v>3</v>
       </c>
@@ -6848,55 +6863,47 @@
         <v>490</v>
       </c>
       <c r="C88" s="26">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D88" s="29">
         <v>87</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>101</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="F88" s="7"/>
       <c r="G88" s="7" t="s">
-        <v>102</v>
+        <v>407</v>
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="8">
-        <v>51542</v>
+        <v>54517</v>
       </c>
       <c r="J88" s="7">
         <v>99999</v>
       </c>
       <c r="K88" s="11"/>
       <c r="L88" s="19">
-        <v>43.0336</v>
+        <v>39.0747</v>
       </c>
       <c r="M88" s="19">
-        <v>84.149199999999993</v>
+        <v>117.20610000000001</v>
       </c>
       <c r="N88" s="22">
-        <v>2459.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O88" s="24" t="s">
-        <v>23</v>
+        <v>491</v>
       </c>
       <c r="P88" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q88" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="R88" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="S88" s="7" t="s">
-        <v>438</v>
-      </c>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="10"/>
+      <c r="S88" s="7"/>
       <c r="T88" s="11"/>
     </row>
-    <row r="89" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A89" s="7" t="s">
         <v>3</v>
       </c>
@@ -6904,48 +6911,52 @@
         <v>490</v>
       </c>
       <c r="C89" s="26">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D89" s="29">
         <v>88</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>71</v>
+        <v>202</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="8">
-        <v>51437</v>
+        <v>53614</v>
       </c>
       <c r="J89" s="7">
         <v>99999</v>
       </c>
       <c r="K89" s="11"/>
       <c r="L89" s="19">
-        <v>43.1417</v>
+        <v>38.471400000000003</v>
       </c>
       <c r="M89" s="19">
-        <v>81.125600000000006</v>
+        <v>106.20780000000001</v>
       </c>
       <c r="N89" s="22">
-        <v>1850.8</v>
+        <v>1111.5999999999999</v>
       </c>
       <c r="O89" s="24" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="P89" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="R89" s="10"/>
-      <c r="S89" s="7"/>
+        <v>303</v>
+      </c>
+      <c r="R89" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="S89" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="T89" s="11"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.4">
@@ -6956,51 +6967,49 @@
         <v>490</v>
       </c>
       <c r="C90" s="26">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D90" s="29">
         <v>89</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="8">
-        <v>53463</v>
+        <v>53698</v>
       </c>
       <c r="J90" s="7">
         <v>99999</v>
       </c>
       <c r="K90" s="11"/>
       <c r="L90" s="19">
-        <v>40.855800000000002</v>
+        <v>38.0197</v>
       </c>
       <c r="M90" s="19">
-        <v>111.5714</v>
+        <v>114.3989</v>
       </c>
       <c r="N90" s="22">
-        <v>1153.5</v>
+        <v>89.3</v>
       </c>
       <c r="O90" s="24" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="P90" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q90" s="7" t="s">
-        <v>302</v>
-      </c>
+      <c r="Q90" s="7"/>
       <c r="R90" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S90" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="T90" s="11"/>
     </row>
@@ -7012,47 +7021,51 @@
         <v>490</v>
       </c>
       <c r="C91" s="26">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D91" s="29">
         <v>90</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F91" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="G91" s="7" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="8">
-        <v>54511</v>
+        <v>53772</v>
       </c>
       <c r="J91" s="7">
         <v>99999</v>
       </c>
       <c r="K91" s="11"/>
       <c r="L91" s="19">
-        <v>39.806100000000001</v>
+        <v>37.620600000000003</v>
       </c>
       <c r="M91" s="19">
-        <v>116.46939999999999</v>
+        <v>112.57640000000001</v>
       </c>
       <c r="N91" s="22">
-        <v>32.799999999999997</v>
+        <v>776.3</v>
       </c>
       <c r="O91" s="24" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="P91" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q91" s="7"/>
+      <c r="Q91" s="7" t="s">
+        <v>304</v>
+      </c>
       <c r="R91" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S91" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="T91" s="11"/>
     </row>
@@ -7064,44 +7077,52 @@
         <v>490</v>
       </c>
       <c r="C92" s="26">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D92" s="29">
         <v>91</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F92" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="G92" s="7" t="s">
-        <v>407</v>
+        <v>178</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="8">
-        <v>54517</v>
+        <v>52866</v>
       </c>
       <c r="J92" s="7">
         <v>99999</v>
       </c>
       <c r="K92" s="11"/>
       <c r="L92" s="19">
-        <v>39.0747</v>
+        <v>36.664400000000001</v>
       </c>
       <c r="M92" s="19">
-        <v>117.20610000000001</v>
+        <v>101.73309999999999</v>
       </c>
       <c r="N92" s="22">
-        <v>2.2000000000000002</v>
+        <v>2434.1999999999998</v>
       </c>
       <c r="O92" s="24" t="s">
-        <v>491</v>
+        <v>179</v>
       </c>
       <c r="P92" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="10"/>
-      <c r="S92" s="7"/>
+      <c r="Q92" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="R92" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="S92" s="7" t="s">
+        <v>444</v>
+      </c>
       <c r="T92" s="11"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.4">
@@ -7112,51 +7133,51 @@
         <v>490</v>
       </c>
       <c r="C93" s="26">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D93" s="29">
         <v>92</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="8">
-        <v>53614</v>
+        <v>54823</v>
       </c>
       <c r="J93" s="7">
         <v>99999</v>
       </c>
       <c r="K93" s="11"/>
       <c r="L93" s="19">
-        <v>38.471400000000003</v>
+        <v>36.601900000000001</v>
       </c>
       <c r="M93" s="19">
-        <v>106.20780000000001</v>
+        <v>117.0081</v>
       </c>
       <c r="N93" s="22">
-        <v>1111.5999999999999</v>
+        <v>170.3</v>
       </c>
       <c r="O93" s="24" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="P93" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="R93" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S93" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="T93" s="11"/>
     </row>
@@ -7168,49 +7189,51 @@
         <v>490</v>
       </c>
       <c r="C94" s="26">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D94" s="29">
         <v>93</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="8">
-        <v>53698</v>
+        <v>57083</v>
       </c>
       <c r="J94" s="7">
         <v>99999</v>
       </c>
       <c r="K94" s="11"/>
       <c r="L94" s="19">
-        <v>38.0197</v>
+        <v>34.706400000000002</v>
       </c>
       <c r="M94" s="19">
-        <v>114.3989</v>
+        <v>113.6628</v>
       </c>
       <c r="N94" s="22">
-        <v>89.3</v>
+        <v>110.4</v>
       </c>
       <c r="O94" s="24" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="P94" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q94" s="7"/>
+      <c r="Q94" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="R94" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S94" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="T94" s="11"/>
     </row>
@@ -7222,53 +7245,55 @@
         <v>490</v>
       </c>
       <c r="C95" s="26">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D95" s="29">
         <v>94</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="8">
-        <v>53772</v>
+        <v>57131</v>
       </c>
       <c r="J95" s="7">
         <v>99999</v>
       </c>
       <c r="K95" s="11"/>
       <c r="L95" s="19">
-        <v>37.620600000000003</v>
+        <v>34.433300000000003</v>
       </c>
       <c r="M95" s="19">
-        <v>112.57640000000001</v>
+        <v>108.9667</v>
       </c>
       <c r="N95" s="22">
-        <v>776.3</v>
+        <v>410</v>
       </c>
       <c r="O95" s="24" t="s">
-        <v>167</v>
+        <v>494</v>
       </c>
       <c r="P95" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="R95" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S95" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="T95" s="11"/>
+        <v>447</v>
+      </c>
+      <c r="T95" s="11" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A96" s="7" t="s">
@@ -7278,51 +7303,51 @@
         <v>490</v>
       </c>
       <c r="C96" s="26">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D96" s="29">
         <v>95</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="8">
-        <v>52866</v>
+        <v>57245</v>
       </c>
       <c r="J96" s="7">
         <v>99999</v>
       </c>
       <c r="K96" s="11"/>
       <c r="L96" s="19">
-        <v>36.664400000000001</v>
+        <v>32.693100000000001</v>
       </c>
       <c r="M96" s="19">
-        <v>101.73309999999999</v>
+        <v>109.04170000000001</v>
       </c>
       <c r="N96" s="22">
-        <v>2434.1999999999998</v>
+        <v>290.8</v>
       </c>
       <c r="O96" s="24" t="s">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="P96" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="R96" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S96" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="T96" s="11"/>
     </row>
@@ -7334,51 +7359,51 @@
         <v>490</v>
       </c>
       <c r="C97" s="26">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D97" s="29">
         <v>96</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="8">
-        <v>54823</v>
+        <v>57687</v>
       </c>
       <c r="J97" s="7">
         <v>99999</v>
       </c>
       <c r="K97" s="11"/>
       <c r="L97" s="19">
-        <v>36.601900000000001</v>
+        <v>28.108599999999999</v>
       </c>
       <c r="M97" s="19">
-        <v>117.0081</v>
+        <v>112.7864</v>
       </c>
       <c r="N97" s="22">
-        <v>170.3</v>
+        <v>114</v>
       </c>
       <c r="O97" s="24" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="P97" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="R97" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S97" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="T97" s="11"/>
     </row>
@@ -7390,51 +7415,51 @@
         <v>490</v>
       </c>
       <c r="C98" s="26">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D98" s="29">
         <v>97</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="8">
-        <v>57083</v>
+        <v>58606</v>
       </c>
       <c r="J98" s="7">
         <v>99999</v>
       </c>
       <c r="K98" s="11"/>
       <c r="L98" s="19">
-        <v>34.706400000000002</v>
+        <v>28.59</v>
       </c>
       <c r="M98" s="19">
-        <v>113.6628</v>
+        <v>115.9014</v>
       </c>
       <c r="N98" s="22">
-        <v>110.4</v>
+        <v>47.2</v>
       </c>
       <c r="O98" s="24" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="P98" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="R98" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S98" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="T98" s="11"/>
     </row>
@@ -7446,55 +7471,53 @@
         <v>490</v>
       </c>
       <c r="C99" s="26">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D99" s="29">
         <v>98</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="8">
-        <v>57131</v>
+        <v>57494</v>
       </c>
       <c r="J99" s="7">
         <v>99999</v>
       </c>
       <c r="K99" s="11"/>
       <c r="L99" s="19">
-        <v>34.433300000000003</v>
+        <v>30.597799999999999</v>
       </c>
       <c r="M99" s="19">
-        <v>108.9667</v>
+        <v>114.0506</v>
       </c>
       <c r="N99" s="22">
-        <v>410</v>
+        <v>23.6</v>
       </c>
       <c r="O99" s="24" t="s">
-        <v>494</v>
+        <v>168</v>
       </c>
       <c r="P99" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="R99" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S99" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="T99" s="11" t="s">
-        <v>496</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="T99" s="11"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A100" s="7" t="s">
@@ -7504,51 +7527,51 @@
         <v>490</v>
       </c>
       <c r="C100" s="26">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D100" s="29">
         <v>99</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="8">
-        <v>57245</v>
+        <v>58321</v>
       </c>
       <c r="J100" s="7">
         <v>99999</v>
       </c>
       <c r="K100" s="11"/>
       <c r="L100" s="19">
-        <v>32.693100000000001</v>
+        <v>31.9556</v>
       </c>
       <c r="M100" s="19">
-        <v>109.04170000000001</v>
+        <v>117.05719999999999</v>
       </c>
       <c r="N100" s="22">
-        <v>290.8</v>
+        <v>49.8</v>
       </c>
       <c r="O100" s="24" t="s">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="P100" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="R100" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S100" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="T100" s="11"/>
     </row>
@@ -7560,51 +7583,51 @@
         <v>490</v>
       </c>
       <c r="C101" s="26">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D101" s="29">
         <v>100</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="8">
-        <v>57687</v>
+        <v>58238</v>
       </c>
       <c r="J101" s="7">
         <v>99999</v>
       </c>
       <c r="K101" s="11"/>
       <c r="L101" s="19">
-        <v>28.108599999999999</v>
+        <v>31.931699999999999</v>
       </c>
       <c r="M101" s="19">
-        <v>112.7864</v>
+        <v>118.8997</v>
       </c>
       <c r="N101" s="22">
-        <v>114</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="O101" s="24" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="P101" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="R101" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S101" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="T101" s="11"/>
     </row>
@@ -7616,51 +7639,51 @@
         <v>490</v>
       </c>
       <c r="C102" s="26">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D102" s="29">
         <v>101</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="H102" s="7"/>
       <c r="I102" s="8">
-        <v>58606</v>
+        <v>58457</v>
       </c>
       <c r="J102" s="7">
         <v>99999</v>
       </c>
       <c r="K102" s="11"/>
       <c r="L102" s="19">
-        <v>28.59</v>
+        <v>30.2258</v>
       </c>
       <c r="M102" s="19">
-        <v>115.9014</v>
+        <v>120.1647</v>
       </c>
       <c r="N102" s="22">
-        <v>47.2</v>
+        <v>42.1</v>
       </c>
       <c r="O102" s="24" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="P102" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="R102" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S102" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="T102" s="11"/>
     </row>
@@ -7672,51 +7695,51 @@
         <v>490</v>
       </c>
       <c r="C103" s="26">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D103" s="29">
         <v>102</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="8">
-        <v>57494</v>
+        <v>58646</v>
       </c>
       <c r="J103" s="7">
         <v>99999</v>
       </c>
       <c r="K103" s="11"/>
       <c r="L103" s="19">
-        <v>30.597799999999999</v>
+        <v>28.394400000000001</v>
       </c>
       <c r="M103" s="19">
-        <v>114.0506</v>
+        <v>119.85420000000001</v>
       </c>
       <c r="N103" s="22">
-        <v>23.6</v>
+        <v>144.5</v>
       </c>
       <c r="O103" s="24" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="P103" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q103" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="R103" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S103" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="T103" s="11"/>
     </row>
@@ -7728,51 +7751,51 @@
         <v>490</v>
       </c>
       <c r="C104" s="26">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D104" s="29">
         <v>103</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="8">
-        <v>58321</v>
+        <v>58847</v>
       </c>
       <c r="J104" s="7">
         <v>99999</v>
       </c>
       <c r="K104" s="11"/>
       <c r="L104" s="19">
-        <v>31.9556</v>
+        <v>26.077500000000001</v>
       </c>
       <c r="M104" s="19">
-        <v>117.05719999999999</v>
+        <v>119.2894</v>
       </c>
       <c r="N104" s="22">
-        <v>49.8</v>
+        <v>84.1</v>
       </c>
       <c r="O104" s="24" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="P104" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q104" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="R104" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S104" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="T104" s="11"/>
     </row>
@@ -7784,51 +7807,51 @@
         <v>490</v>
       </c>
       <c r="C105" s="26">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D105" s="29">
         <v>104</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="8">
-        <v>58238</v>
+        <v>59287</v>
       </c>
       <c r="J105" s="7">
         <v>99999</v>
       </c>
       <c r="K105" s="11"/>
       <c r="L105" s="19">
-        <v>31.931699999999999</v>
+        <v>23.21</v>
       </c>
       <c r="M105" s="19">
-        <v>118.8997</v>
+        <v>113.48220000000001</v>
       </c>
       <c r="N105" s="22">
-        <v>33.200000000000003</v>
+        <v>70.7</v>
       </c>
       <c r="O105" s="24" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="P105" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q105" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="R105" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S105" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="T105" s="11"/>
     </row>
@@ -7840,51 +7863,49 @@
         <v>490</v>
       </c>
       <c r="C106" s="26">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D106" s="29">
         <v>105</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="8">
-        <v>58457</v>
+        <v>59948</v>
       </c>
       <c r="J106" s="7">
         <v>99999</v>
       </c>
       <c r="K106" s="11"/>
       <c r="L106" s="19">
-        <v>30.2258</v>
+        <v>18.216699999999999</v>
       </c>
       <c r="M106" s="19">
-        <v>120.1647</v>
+        <v>109.58329999999999</v>
       </c>
       <c r="N106" s="22">
-        <v>42.1</v>
+        <v>419.4</v>
       </c>
       <c r="O106" s="24" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="P106" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q106" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="Q106" s="7"/>
       <c r="R106" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S106" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="T106" s="11"/>
     </row>
@@ -7896,51 +7917,49 @@
         <v>490</v>
       </c>
       <c r="C107" s="26">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D107" s="29">
         <v>106</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="8">
-        <v>58646</v>
+        <v>59838</v>
       </c>
       <c r="J107" s="7">
         <v>99999</v>
       </c>
       <c r="K107" s="11"/>
       <c r="L107" s="19">
-        <v>28.394400000000001</v>
+        <v>19.094200000000001</v>
       </c>
       <c r="M107" s="19">
-        <v>119.85420000000001</v>
+        <v>108.6217</v>
       </c>
       <c r="N107" s="22">
-        <v>144.5</v>
+        <v>6.1</v>
       </c>
       <c r="O107" s="24" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="P107" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q107" s="7" t="s">
-        <v>314</v>
-      </c>
+      <c r="Q107" s="7"/>
       <c r="R107" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S107" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="T107" s="11"/>
     </row>
@@ -7952,55 +7971,55 @@
         <v>490</v>
       </c>
       <c r="C108" s="26">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D108" s="29">
         <v>107</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="8">
-        <v>58847</v>
+        <v>59431</v>
       </c>
       <c r="J108" s="7">
         <v>99999</v>
       </c>
       <c r="K108" s="11"/>
       <c r="L108" s="19">
-        <v>26.077500000000001</v>
+        <v>22.783899999999999</v>
       </c>
       <c r="M108" s="19">
-        <v>119.2894</v>
+        <v>108.5472</v>
       </c>
       <c r="N108" s="22">
-        <v>84.1</v>
+        <v>152.1</v>
       </c>
       <c r="O108" s="24" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="P108" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q108" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="R108" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S108" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="T108" s="11"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A109" s="7" t="s">
         <v>3</v>
       </c>
@@ -8008,51 +8027,51 @@
         <v>490</v>
       </c>
       <c r="C109" s="26">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D109" s="29">
         <v>108</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="8">
-        <v>59287</v>
+        <v>56966</v>
       </c>
       <c r="J109" s="7">
         <v>99999</v>
       </c>
       <c r="K109" s="11"/>
       <c r="L109" s="19">
-        <v>23.21</v>
+        <v>23.632200000000001</v>
       </c>
       <c r="M109" s="19">
-        <v>113.48220000000001</v>
+        <v>101.9683</v>
       </c>
       <c r="N109" s="22">
-        <v>70.7</v>
+        <v>506.8</v>
       </c>
       <c r="O109" s="24" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="P109" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q109" s="7" t="s">
-        <v>316</v>
+        <v>35</v>
       </c>
       <c r="R109" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S109" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="T109" s="11"/>
     </row>
@@ -8064,49 +8083,51 @@
         <v>490</v>
       </c>
       <c r="C110" s="26">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D110" s="29">
         <v>109</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="8">
-        <v>59948</v>
+        <v>56778</v>
       </c>
       <c r="J110" s="7">
         <v>99999</v>
       </c>
       <c r="K110" s="11"/>
       <c r="L110" s="19">
-        <v>18.216699999999999</v>
+        <v>25.0078</v>
       </c>
       <c r="M110" s="19">
-        <v>109.58329999999999</v>
+        <v>102.65309999999999</v>
       </c>
       <c r="N110" s="22">
-        <v>419.4</v>
+        <v>1888.1</v>
       </c>
       <c r="O110" s="24" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="P110" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q110" s="7"/>
+      <c r="Q110" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="R110" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S110" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="T110" s="11"/>
     </row>
@@ -8118,53 +8139,55 @@
         <v>490</v>
       </c>
       <c r="C111" s="26">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D111" s="29">
         <v>110</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="8">
-        <v>59838</v>
+        <v>57816</v>
       </c>
       <c r="J111" s="7">
         <v>99999</v>
       </c>
       <c r="K111" s="11"/>
       <c r="L111" s="19">
-        <v>19.094200000000001</v>
+        <v>26.589700000000001</v>
       </c>
       <c r="M111" s="19">
-        <v>108.6217</v>
+        <v>106.72750000000001</v>
       </c>
       <c r="N111" s="22">
-        <v>6.1</v>
+        <v>1227.3</v>
       </c>
       <c r="O111" s="24" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="P111" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q111" s="7"/>
+      <c r="Q111" s="7" t="s">
+        <v>319</v>
+      </c>
       <c r="R111" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S111" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="T111" s="11"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A112" s="7" t="s">
         <v>3</v>
       </c>
@@ -8172,55 +8195,53 @@
         <v>490</v>
       </c>
       <c r="C112" s="26">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D112" s="29">
         <v>111</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>194</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="F112" s="7"/>
       <c r="G112" s="7" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="8">
-        <v>59431</v>
+        <v>57516</v>
       </c>
       <c r="J112" s="7">
         <v>99999</v>
       </c>
       <c r="K112" s="11"/>
       <c r="L112" s="19">
-        <v>22.783899999999999</v>
+        <v>29.604700000000001</v>
       </c>
       <c r="M112" s="19">
-        <v>108.5472</v>
+        <v>106.4042</v>
       </c>
       <c r="N112" s="22">
-        <v>152.1</v>
+        <v>542.1</v>
       </c>
       <c r="O112" s="24" t="s">
-        <v>196</v>
+        <v>492</v>
       </c>
       <c r="P112" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q112" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="R112" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S112" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="T112" s="11"/>
     </row>
-    <row r="113" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A113" s="7" t="s">
         <v>3</v>
       </c>
@@ -8228,51 +8249,51 @@
         <v>490</v>
       </c>
       <c r="C113" s="26">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D113" s="29">
         <v>112</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="8">
-        <v>56966</v>
+        <v>57503</v>
       </c>
       <c r="J113" s="7">
         <v>99999</v>
       </c>
       <c r="K113" s="11"/>
       <c r="L113" s="19">
-        <v>23.632200000000001</v>
+        <v>29.619700000000002</v>
       </c>
       <c r="M113" s="19">
-        <v>101.9683</v>
+        <v>105.1186</v>
       </c>
       <c r="N113" s="22">
-        <v>506.8</v>
+        <v>349.9</v>
       </c>
       <c r="O113" s="24" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P113" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q113" s="7" t="s">
-        <v>35</v>
+        <v>321</v>
       </c>
       <c r="R113" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S113" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="T113" s="11"/>
     </row>
@@ -8284,53 +8305,55 @@
         <v>490</v>
       </c>
       <c r="C114" s="26">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D114" s="29">
         <v>113</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="8">
-        <v>56778</v>
+        <v>56187</v>
       </c>
       <c r="J114" s="7">
         <v>99999</v>
       </c>
       <c r="K114" s="11"/>
       <c r="L114" s="19">
-        <v>25.0078</v>
+        <v>30.748899999999999</v>
       </c>
       <c r="M114" s="19">
-        <v>102.65309999999999</v>
+        <v>103.861</v>
       </c>
       <c r="N114" s="22">
-        <v>1888.1</v>
+        <v>547.70000000000005</v>
       </c>
       <c r="O114" s="24" t="s">
-        <v>185</v>
+        <v>493</v>
       </c>
       <c r="P114" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q114" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="R114" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S114" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="T114" s="11"/>
+        <v>466</v>
+      </c>
+      <c r="T114" s="11" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A115" s="7" t="s">
@@ -8340,55 +8363,55 @@
         <v>490</v>
       </c>
       <c r="C115" s="26">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D115" s="29">
         <v>114</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="H115" s="7"/>
       <c r="I115" s="8">
-        <v>57816</v>
+        <v>55591</v>
       </c>
       <c r="J115" s="7">
         <v>99999</v>
       </c>
       <c r="K115" s="11"/>
       <c r="L115" s="19">
-        <v>26.589700000000001</v>
+        <v>29.6586</v>
       </c>
       <c r="M115" s="19">
-        <v>106.72750000000001</v>
+        <v>91.135300000000001</v>
       </c>
       <c r="N115" s="22">
-        <v>1227.3</v>
+        <v>3648.7</v>
       </c>
       <c r="O115" s="24" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P115" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q115" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="R115" s="10" t="s">
         <v>409</v>
       </c>
       <c r="S115" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="T115" s="11"/>
     </row>
-    <row r="116" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A116" s="7" t="s">
         <v>3</v>
       </c>
@@ -8396,50 +8419,48 @@
         <v>490</v>
       </c>
       <c r="C116" s="26">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D116" s="29">
         <v>115</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F116" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="G116" s="7" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="8">
-        <v>57516</v>
+        <v>52267</v>
       </c>
       <c r="J116" s="7">
         <v>99999</v>
       </c>
       <c r="K116" s="11"/>
       <c r="L116" s="19">
-        <v>29.604700000000001</v>
+        <v>41.956899999999997</v>
       </c>
       <c r="M116" s="19">
-        <v>106.4042</v>
+        <v>101.0611</v>
       </c>
       <c r="N116" s="22">
-        <v>542.1</v>
+        <v>939</v>
       </c>
       <c r="O116" s="24" t="s">
-        <v>492</v>
+        <v>38</v>
       </c>
       <c r="P116" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q116" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="R116" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="S116" s="7" t="s">
-        <v>464</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="R116" s="10"/>
+      <c r="S116" s="7"/>
       <c r="T116" s="11"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.4">
@@ -8450,52 +8471,46 @@
         <v>490</v>
       </c>
       <c r="C117" s="26">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D117" s="29">
         <v>116</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="8">
-        <v>57503</v>
+        <v>53478</v>
       </c>
       <c r="J117" s="7">
         <v>99999</v>
       </c>
       <c r="K117" s="11"/>
       <c r="L117" s="19">
-        <v>29.619700000000002</v>
+        <v>39.994199999999999</v>
       </c>
       <c r="M117" s="19">
-        <v>105.1186</v>
+        <v>112.4603</v>
       </c>
       <c r="N117" s="22">
-        <v>349.9</v>
+        <v>1345.8</v>
       </c>
       <c r="O117" s="24" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="P117" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q117" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="R117" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="S117" s="7" t="s">
-        <v>465</v>
-      </c>
+      <c r="Q117" s="7"/>
+      <c r="R117" s="10"/>
+      <c r="S117" s="7"/>
       <c r="T117" s="11"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.4">
@@ -8506,55 +8521,47 @@
         <v>490</v>
       </c>
       <c r="C118" s="26">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D118" s="29">
         <v>117</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>139</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="F118" s="7"/>
       <c r="G118" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="H118" s="7"/>
       <c r="I118" s="8">
-        <v>56187</v>
+        <v>58367</v>
       </c>
       <c r="J118" s="7">
         <v>99999</v>
       </c>
       <c r="K118" s="11"/>
       <c r="L118" s="19">
-        <v>30.748899999999999</v>
+        <v>31.1922</v>
       </c>
       <c r="M118" s="19">
-        <v>103.861</v>
+        <v>121.43170000000001</v>
       </c>
       <c r="N118" s="22">
-        <v>547.70000000000005</v>
+        <v>2</v>
       </c>
       <c r="O118" s="24" t="s">
-        <v>493</v>
+        <v>169</v>
       </c>
       <c r="P118" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q118" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="R118" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="S118" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="T118" s="11" t="s">
-        <v>497</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="R118" s="10"/>
+      <c r="S118" s="7"/>
+      <c r="T118" s="11"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A119" s="7" t="s">
@@ -8564,52 +8571,48 @@
         <v>490</v>
       </c>
       <c r="C119" s="26">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D119" s="29">
         <v>118</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>211</v>
+        <v>34</v>
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="8">
-        <v>55591</v>
+        <v>58826</v>
       </c>
       <c r="J119" s="7">
         <v>99999</v>
       </c>
       <c r="K119" s="11"/>
       <c r="L119" s="19">
-        <v>29.6586</v>
+        <v>26.391100000000002</v>
       </c>
       <c r="M119" s="19">
-        <v>91.135300000000001</v>
+        <v>117.8069</v>
       </c>
       <c r="N119" s="22">
-        <v>3648.7</v>
+        <v>120.7</v>
       </c>
       <c r="O119" s="24" t="s">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="P119" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q119" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="R119" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="S119" s="7" t="s">
-        <v>467</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="R119" s="10"/>
+      <c r="S119" s="7"/>
       <c r="T119" s="11"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.4">
@@ -8620,45 +8623,45 @@
         <v>490</v>
       </c>
       <c r="C120" s="26">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D120" s="29">
         <v>119</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="H120" s="7"/>
       <c r="I120" s="8">
-        <v>52267</v>
+        <v>58637</v>
       </c>
       <c r="J120" s="7">
         <v>99999</v>
       </c>
       <c r="K120" s="11"/>
       <c r="L120" s="19">
-        <v>41.956899999999997</v>
+        <v>28.442799999999998</v>
       </c>
       <c r="M120" s="19">
-        <v>101.0611</v>
+        <v>117.97669999999999</v>
       </c>
       <c r="N120" s="22">
-        <v>939</v>
+        <v>118.5</v>
       </c>
       <c r="O120" s="24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P120" s="9" t="s">
         <v>412</v>
       </c>
       <c r="Q120" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="R120" s="10"/>
       <c r="S120" s="7"/>
@@ -8672,99 +8675,105 @@
         <v>490</v>
       </c>
       <c r="C121" s="26">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D121" s="29">
         <v>120</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="8">
-        <v>53478</v>
+        <v>57778</v>
       </c>
       <c r="J121" s="7">
         <v>99999</v>
       </c>
       <c r="K121" s="11"/>
       <c r="L121" s="19">
-        <v>39.994199999999999</v>
+        <v>27.052499999999998</v>
       </c>
       <c r="M121" s="19">
-        <v>112.4603</v>
+        <v>112.9847</v>
       </c>
       <c r="N121" s="22">
-        <v>1345.8</v>
+        <v>109.4</v>
       </c>
       <c r="O121" s="24" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="P121" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q121" s="7"/>
+      <c r="Q121" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="R121" s="10"/>
       <c r="S121" s="7"/>
       <c r="T121" s="11"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B122" s="26" t="s">
         <v>490</v>
       </c>
       <c r="C122" s="26">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D122" s="29">
         <v>121</v>
       </c>
-      <c r="E122" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H122" s="7"/>
+      <c r="E122" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="F122" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="G122" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H122" s="15"/>
       <c r="I122" s="8">
-        <v>58367</v>
-      </c>
-      <c r="J122" s="7">
+        <v>52889</v>
+      </c>
+      <c r="J122" s="15">
         <v>99999</v>
       </c>
-      <c r="K122" s="11"/>
-      <c r="L122" s="19">
-        <v>31.1922</v>
-      </c>
-      <c r="M122" s="19">
-        <v>121.43170000000001</v>
-      </c>
-      <c r="N122" s="22">
-        <v>2</v>
-      </c>
-      <c r="O122" s="24" t="s">
-        <v>169</v>
+      <c r="K122" s="16"/>
+      <c r="L122" s="21">
+        <v>36.043900000000001</v>
+      </c>
+      <c r="M122" s="21">
+        <v>103.87779999999999</v>
+      </c>
+      <c r="N122" s="20">
+        <v>1517.2</v>
+      </c>
+      <c r="O122" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="P122" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q122" s="7" t="s">
-        <v>311</v>
+      <c r="Q122" s="15" t="s">
+        <v>307</v>
       </c>
       <c r="R122" s="10"/>
-      <c r="S122" s="7"/>
-      <c r="T122" s="11"/>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S122" s="15"/>
+      <c r="T122" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A123" s="7" t="s">
         <v>3</v>
       </c>
@@ -8772,51 +8781,49 @@
         <v>490</v>
       </c>
       <c r="C123" s="26">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D123" s="29">
         <v>122</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="H123" s="7"/>
       <c r="I123" s="8">
-        <v>58826</v>
+        <v>50341</v>
       </c>
       <c r="J123" s="7">
         <v>99999</v>
       </c>
       <c r="K123" s="11"/>
       <c r="L123" s="19">
-        <v>26.391100000000002</v>
+        <v>51.683300000000003</v>
       </c>
       <c r="M123" s="19">
-        <v>117.8069</v>
-      </c>
-      <c r="N123" s="22">
-        <v>120.7</v>
+        <v>123.61669999999999</v>
+      </c>
+      <c r="N123" s="20">
+        <v>654</v>
       </c>
       <c r="O123" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="P123" s="9" t="s">
-        <v>412</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="P123" s="9"/>
       <c r="Q123" s="7" t="s">
-        <v>326</v>
+        <v>394</v>
       </c>
       <c r="R123" s="10"/>
       <c r="S123" s="7"/>
       <c r="T123" s="11"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A124" s="7" t="s">
         <v>3</v>
       </c>
@@ -8824,45 +8831,39 @@
         <v>490</v>
       </c>
       <c r="C124" s="26">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D124" s="29">
         <v>123</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="H124" s="7"/>
-      <c r="I124" s="8">
-        <v>58637</v>
-      </c>
-      <c r="J124" s="7">
-        <v>99999</v>
-      </c>
+      <c r="I124" s="8"/>
+      <c r="J124" s="7"/>
       <c r="K124" s="11"/>
-      <c r="L124" s="19">
-        <v>28.442799999999998</v>
-      </c>
-      <c r="M124" s="19">
-        <v>117.97669999999999</v>
-      </c>
-      <c r="N124" s="22">
-        <v>118.5</v>
+      <c r="L124" s="21">
+        <v>52.839700000000001</v>
+      </c>
+      <c r="M124" s="21">
+        <v>123.17140000000001</v>
+      </c>
+      <c r="N124" s="20">
+        <v>508</v>
       </c>
       <c r="O124" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="P124" s="9" t="s">
-        <v>412</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="P124" s="9"/>
       <c r="Q124" s="7" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="R124" s="10"/>
       <c r="S124" s="7"/>
@@ -8876,105 +8877,89 @@
         <v>490</v>
       </c>
       <c r="C125" s="26">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D125" s="29">
         <v>124</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H125" s="7"/>
-      <c r="I125" s="8">
-        <v>57778</v>
-      </c>
-      <c r="J125" s="7">
-        <v>99999</v>
-      </c>
-      <c r="K125" s="11"/>
-      <c r="L125" s="19">
-        <v>27.052499999999998</v>
-      </c>
-      <c r="M125" s="19">
-        <v>112.9847</v>
-      </c>
-      <c r="N125" s="22">
-        <v>109.4</v>
+        <v>67</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="I125" s="8"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="L125" s="21">
+        <v>51.3264</v>
+      </c>
+      <c r="M125" s="21">
+        <v>119.8869</v>
+      </c>
+      <c r="N125" s="20">
+        <v>496.2</v>
       </c>
       <c r="O125" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="P125" s="9" t="s">
-        <v>412</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="P125" s="9"/>
       <c r="Q125" s="7" t="s">
-        <v>328</v>
+        <v>504</v>
       </c>
       <c r="R125" s="10"/>
       <c r="S125" s="7"/>
       <c r="T125" s="11"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A126" s="15" t="s">
+      <c r="A126" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B126" s="26" t="s">
         <v>490</v>
       </c>
       <c r="C126" s="26">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D126" s="29">
         <v>125</v>
       </c>
-      <c r="E126" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F126" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="G126" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="8">
-        <v>52889</v>
-      </c>
-      <c r="J126" s="15">
-        <v>99999</v>
-      </c>
-      <c r="K126" s="16"/>
-      <c r="L126" s="21">
-        <v>36.043900000000001</v>
-      </c>
-      <c r="M126" s="21">
-        <v>103.87779999999999</v>
-      </c>
-      <c r="N126" s="20">
-        <v>1517.2</v>
-      </c>
-      <c r="O126" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="P126" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q126" s="15" t="s">
-        <v>307</v>
+      <c r="E126" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H126" s="7"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="21"/>
+      <c r="M126" s="21"/>
+      <c r="N126" s="20"/>
+      <c r="O126" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="P126" s="9"/>
+      <c r="Q126" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="R126" s="10"/>
-      <c r="S126" s="15"/>
-      <c r="T126" s="11" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="S126" s="7"/>
+      <c r="T126" s="11"/>
+    </row>
+    <row r="127" spans="1:20" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A127" s="7" t="s">
         <v>3</v>
       </c>
@@ -8982,49 +8967,41 @@
         <v>490</v>
       </c>
       <c r="C127" s="26">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D127" s="29">
         <v>126</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H127" s="7"/>
-      <c r="I127" s="8">
-        <v>50341</v>
-      </c>
-      <c r="J127" s="7">
-        <v>99999</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="I127" s="8"/>
+      <c r="J127" s="7"/>
       <c r="K127" s="11"/>
-      <c r="L127" s="19">
-        <v>51.683300000000003</v>
-      </c>
-      <c r="M127" s="19">
-        <v>123.61669999999999</v>
-      </c>
-      <c r="N127" s="20">
-        <v>654</v>
-      </c>
+      <c r="L127" s="21"/>
+      <c r="M127" s="21"/>
+      <c r="N127" s="20"/>
       <c r="O127" s="24" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="P127" s="9"/>
       <c r="Q127" s="7" t="s">
-        <v>394</v>
+        <v>298</v>
       </c>
       <c r="R127" s="10"/>
       <c r="S127" s="7"/>
       <c r="T127" s="11"/>
     </row>
-    <row r="128" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A128" s="7" t="s">
         <v>3</v>
       </c>
@@ -9032,45 +9009,49 @@
         <v>490</v>
       </c>
       <c r="C128" s="26">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D128" s="29">
         <v>127</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H128" s="7"/>
+        <v>388</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>389</v>
+      </c>
       <c r="I128" s="8"/>
       <c r="J128" s="7"/>
-      <c r="K128" s="11"/>
+      <c r="K128" s="11" t="s">
+        <v>403</v>
+      </c>
       <c r="L128" s="21">
-        <v>52.839700000000001</v>
+        <v>47.027200000000001</v>
       </c>
       <c r="M128" s="21">
-        <v>123.17140000000001</v>
+        <v>89.797499999999999</v>
       </c>
       <c r="N128" s="20">
-        <v>508</v>
+        <v>1333</v>
       </c>
       <c r="O128" s="24" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="P128" s="9"/>
       <c r="Q128" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="R128" s="10"/>
       <c r="S128" s="7"/>
       <c r="T128" s="11"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A129" s="7" t="s">
         <v>3</v>
       </c>
@@ -9078,228 +9059,258 @@
         <v>490</v>
       </c>
       <c r="C129" s="26">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D129" s="29">
         <v>128</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>505</v>
+        <v>390</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="7"/>
       <c r="K129" s="11" t="s">
-        <v>502</v>
+        <v>404</v>
       </c>
       <c r="L129" s="21">
-        <v>51.3264</v>
+        <v>42.828800000000001</v>
       </c>
       <c r="M129" s="21">
-        <v>119.8869</v>
+        <v>83.716099999999997</v>
       </c>
       <c r="N129" s="20">
-        <v>496.2</v>
+        <v>2465</v>
       </c>
       <c r="O129" s="24" t="s">
-        <v>503</v>
+        <v>390</v>
       </c>
       <c r="P129" s="9"/>
       <c r="Q129" s="7" t="s">
-        <v>504</v>
+        <v>301</v>
       </c>
       <c r="R129" s="10"/>
       <c r="S129" s="7"/>
       <c r="T129" s="11"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A130" s="7" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="C130" s="26">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="D130" s="29">
         <v>129</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>29</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
       <c r="H130" s="7"/>
-      <c r="I130" s="8"/>
-      <c r="J130" s="7"/>
+      <c r="I130" s="8">
+        <v>31137</v>
+      </c>
+      <c r="J130" s="7">
+        <v>99999</v>
+      </c>
       <c r="K130" s="11"/>
-      <c r="L130" s="21"/>
-      <c r="M130" s="21"/>
-      <c r="N130" s="20"/>
+      <c r="L130" s="21">
+        <v>56.283333300000002</v>
+      </c>
+      <c r="M130" s="21">
+        <v>131.1333333</v>
+      </c>
+      <c r="N130" s="20">
+        <v>850</v>
+      </c>
       <c r="O130" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="P130" s="9"/>
+        <v>344</v>
+      </c>
+      <c r="P130" s="9" t="s">
+        <v>412</v>
+      </c>
       <c r="Q130" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="R130" s="10"/>
-      <c r="S130" s="7"/>
-      <c r="T130" s="11"/>
-    </row>
-    <row r="131" spans="1:20" ht="41.65" x14ac:dyDescent="0.4">
+        <v>345</v>
+      </c>
+      <c r="R130" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="S130" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="T130" s="11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A131" s="7" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="C131" s="26">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D131" s="29">
         <v>130</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="I131" s="8"/>
-      <c r="J131" s="7"/>
+        <v>160</v>
+      </c>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="8">
+        <v>24688</v>
+      </c>
+      <c r="J131" s="7">
+        <v>99999</v>
+      </c>
       <c r="K131" s="11"/>
-      <c r="L131" s="21"/>
-      <c r="M131" s="21"/>
-      <c r="N131" s="20"/>
+      <c r="L131" s="21">
+        <v>63.25</v>
+      </c>
+      <c r="M131" s="21">
+        <v>143.15</v>
+      </c>
+      <c r="N131" s="20">
+        <v>741</v>
+      </c>
       <c r="O131" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="P131" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="P131" s="9" t="s">
+        <v>412</v>
+      </c>
       <c r="Q131" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="R131" s="10"/>
-      <c r="S131" s="7"/>
-      <c r="T131" s="11"/>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.4">
+        <v>343</v>
+      </c>
+      <c r="R131" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="S131" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="T131" s="11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A132" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B132" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="C132" s="26">
         <v>3</v>
-      </c>
-      <c r="B132" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="C132" s="26">
-        <v>74</v>
       </c>
       <c r="D132" s="29">
         <v>131</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="I132" s="8"/>
-      <c r="J132" s="7"/>
-      <c r="K132" s="11" t="s">
-        <v>403</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="8">
+        <v>38875</v>
+      </c>
+      <c r="J132" s="7">
+        <v>99999</v>
+      </c>
+      <c r="K132" s="11"/>
       <c r="L132" s="21">
-        <v>47.027200000000001</v>
+        <v>39.016666600000001</v>
       </c>
       <c r="M132" s="21">
-        <v>89.797499999999999</v>
+        <v>73.55</v>
       </c>
       <c r="N132" s="20">
-        <v>1333</v>
-      </c>
-      <c r="O132" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="P132" s="9"/>
+        <v>3940</v>
+      </c>
+      <c r="O132" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P132" s="9" t="s">
+        <v>412</v>
+      </c>
       <c r="Q132" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="R132" s="10"/>
-      <c r="S132" s="7"/>
+        <v>341</v>
+      </c>
+      <c r="R132" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="S132" s="7" t="s">
+        <v>484</v>
+      </c>
       <c r="T132" s="11"/>
     </row>
     <row r="133" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A133" s="7" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="C133" s="26">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="D133" s="29">
         <v>132</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H133" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="I133" s="8"/>
-      <c r="J133" s="7"/>
-      <c r="K133" s="11" t="s">
-        <v>404</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="8">
+        <v>38358</v>
+      </c>
+      <c r="J133" s="7">
+        <v>99999</v>
+      </c>
+      <c r="K133" s="11"/>
       <c r="L133" s="21">
-        <v>42.828800000000001</v>
+        <v>42.15</v>
       </c>
       <c r="M133" s="21">
-        <v>83.716099999999997</v>
+        <v>73.983000000000004</v>
       </c>
       <c r="N133" s="20">
-        <v>2465</v>
-      </c>
-      <c r="O133" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="P133" s="9"/>
+        <v>2092</v>
+      </c>
+      <c r="O133" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="P133" s="9" t="s">
+        <v>412</v>
+      </c>
       <c r="Q133" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="R133" s="10"/>
-      <c r="S133" s="7"/>
+        <v>300</v>
+      </c>
+      <c r="R133" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="S133" s="7" t="s">
+        <v>485</v>
+      </c>
       <c r="T133" s="11"/>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.4">
@@ -9721,7 +9732,7 @@
       <c r="T152" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1mzJdnPQSR8WP3ncEK/wz0lxmtYg+1hYqnH3zdXyDn4xic59RgTRDmpCKBK0XM5TNnXsy896OoyI59B/4mj2SA==" saltValue="SquCSnSmYn0lc8Bk5QtiaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="r3KvAZsAz7ptCPbBiV6NAKl/A0tRyKuc8Z5UuIez7ZCfzIhGPwr0hAtAE9+Hbk0Mt1WKTL2JZgQNZGBb04Sikg==" saltValue="V5B6dy8tj/EK/84IiNwXqA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T133">
     <sortCondition ref="B2:B133"/>
     <sortCondition ref="C2:C133"/>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E45A4D-5297-4CED-B39B-D74D79368C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D04988-55DF-4ABE-9659-BDFC27AC56C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="514">
   <si>
     <t>USAF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1851,9 +1851,6 @@
     <t>Karakul,_Tajikistan</t>
   </si>
   <si>
-    <t>Suusamyr</t>
-  </si>
-  <si>
     <t>Kokpekty</t>
   </si>
   <si>
@@ -1940,6 +1937,34 @@
   <si>
     <t>东亚之外
 分区用Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加拿大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤里卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>努纳武特地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃尔斯米尔岛、北冰洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非人类聚居地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eureka_(airport)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suusamyr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2522,7 +2547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
   <dimension ref="A1:T152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2550,13 +2577,13 @@
         <v>272</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>65</v>
@@ -2604,7 +2631,7 @@
         <v>417</v>
       </c>
       <c r="T1" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.4">
@@ -4300,7 +4327,7 @@
         <v>268</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C39" s="26">
         <v>1</v>
@@ -4350,7 +4377,7 @@
         <v>268</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C40" s="26">
         <v>2</v>
@@ -4400,7 +4427,7 @@
         <v>268</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C41" s="26">
         <v>3</v>
@@ -4452,7 +4479,7 @@
         <v>268</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C42" s="26">
         <v>4</v>
@@ -4502,7 +4529,7 @@
         <v>268</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C43" s="26">
         <v>5</v>
@@ -4552,7 +4579,7 @@
         <v>268</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C44" s="26">
         <v>6</v>
@@ -4602,7 +4629,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C45" s="26">
         <v>7</v>
@@ -4652,7 +4679,7 @@
         <v>268</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C46" s="26">
         <v>8</v>
@@ -4702,7 +4729,7 @@
         <v>268</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C47" s="26">
         <v>9</v>
@@ -4754,7 +4781,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C48" s="26">
         <v>10</v>
@@ -4804,7 +4831,7 @@
         <v>268</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C49" s="26">
         <v>11</v>
@@ -4856,7 +4883,7 @@
         <v>268</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C50" s="26">
         <v>12</v>
@@ -4906,7 +4933,7 @@
         <v>268</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C51" s="26">
         <v>13</v>
@@ -4958,7 +4985,7 @@
         <v>268</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C52" s="26">
         <v>14</v>
@@ -5008,7 +5035,7 @@
         <v>46</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C53" s="26">
         <v>1</v>
@@ -5047,7 +5074,7 @@
         <v>409</v>
       </c>
       <c r="S53" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="T53" s="11"/>
     </row>
@@ -5056,7 +5083,7 @@
         <v>395</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C54" s="26">
         <v>2</v>
@@ -5097,7 +5124,7 @@
         <v>410</v>
       </c>
       <c r="S54" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="T54" s="11"/>
     </row>
@@ -5106,7 +5133,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C55" s="26">
         <v>1</v>
@@ -5160,7 +5187,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C56" s="26">
         <v>2</v>
@@ -5212,7 +5239,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C57" s="26">
         <v>3</v>
@@ -5266,7 +5293,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C58" s="26">
         <v>4</v>
@@ -5322,7 +5349,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C59" s="26">
         <v>5</v>
@@ -5378,7 +5405,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C60" s="26">
         <v>6</v>
@@ -5430,7 +5457,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C61" s="26">
         <v>7</v>
@@ -5484,7 +5511,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C62" s="26">
         <v>8</v>
@@ -5534,7 +5561,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C63" s="26">
         <v>9</v>
@@ -5584,7 +5611,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C64" s="26">
         <v>10</v>
@@ -5640,7 +5667,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C65" s="26">
         <v>11</v>
@@ -5690,7 +5717,7 @@
         <v>3</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C66" s="26">
         <v>12</v>
@@ -5742,7 +5769,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C67" s="26">
         <v>13</v>
@@ -5798,7 +5825,7 @@
         <v>3</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C68" s="26">
         <v>14</v>
@@ -5848,7 +5875,7 @@
         <v>3</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C69" s="26">
         <v>15</v>
@@ -5898,7 +5925,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C70" s="26">
         <v>16</v>
@@ -5952,7 +5979,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C71" s="26">
         <v>17</v>
@@ -6002,7 +6029,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C72" s="26">
         <v>18</v>
@@ -6052,7 +6079,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C73" s="26">
         <v>19</v>
@@ -6106,7 +6133,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C74" s="26">
         <v>20</v>
@@ -6156,7 +6183,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C75" s="26">
         <v>21</v>
@@ -6208,7 +6235,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C76" s="26">
         <v>22</v>
@@ -6260,7 +6287,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C77" s="26">
         <v>23</v>
@@ -6316,7 +6343,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C78" s="26">
         <v>24</v>
@@ -6372,7 +6399,7 @@
         <v>3</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C79" s="26">
         <v>25</v>
@@ -6424,7 +6451,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C80" s="26">
         <v>26</v>
@@ -6476,7 +6503,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C81" s="26">
         <v>27</v>
@@ -6532,7 +6559,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C82" s="26">
         <v>28</v>
@@ -6588,7 +6615,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C83" s="26">
         <v>29</v>
@@ -6644,7 +6671,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C84" s="26">
         <v>30</v>
@@ -6700,7 +6727,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C85" s="26">
         <v>31</v>
@@ -6752,7 +6779,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C86" s="26">
         <v>32</v>
@@ -6808,7 +6835,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C87" s="26">
         <v>33</v>
@@ -6860,7 +6887,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C88" s="26">
         <v>34</v>
@@ -6893,7 +6920,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="O88" s="24" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="P88" s="9" t="s">
         <v>412</v>
@@ -6908,7 +6935,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C89" s="26">
         <v>35</v>
@@ -6964,7 +6991,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C90" s="26">
         <v>36</v>
@@ -7018,7 +7045,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C91" s="26">
         <v>37</v>
@@ -7074,7 +7101,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C92" s="26">
         <v>38</v>
@@ -7130,7 +7157,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C93" s="26">
         <v>39</v>
@@ -7186,7 +7213,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C94" s="26">
         <v>40</v>
@@ -7242,7 +7269,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C95" s="26">
         <v>41</v>
@@ -7277,7 +7304,7 @@
         <v>410</v>
       </c>
       <c r="O95" s="24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="P95" s="9" t="s">
         <v>412</v>
@@ -7292,7 +7319,7 @@
         <v>447</v>
       </c>
       <c r="T95" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.4">
@@ -7300,7 +7327,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C96" s="26">
         <v>42</v>
@@ -7356,7 +7383,7 @@
         <v>3</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C97" s="26">
         <v>43</v>
@@ -7412,7 +7439,7 @@
         <v>3</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C98" s="26">
         <v>44</v>
@@ -7468,7 +7495,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C99" s="26">
         <v>45</v>
@@ -7524,7 +7551,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C100" s="26">
         <v>46</v>
@@ -7580,7 +7607,7 @@
         <v>3</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C101" s="26">
         <v>47</v>
@@ -7636,7 +7663,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C102" s="26">
         <v>48</v>
@@ -7692,7 +7719,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C103" s="26">
         <v>49</v>
@@ -7748,7 +7775,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C104" s="26">
         <v>50</v>
@@ -7804,7 +7831,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C105" s="26">
         <v>51</v>
@@ -7860,7 +7887,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C106" s="26">
         <v>52</v>
@@ -7914,7 +7941,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C107" s="26">
         <v>53</v>
@@ -7968,7 +7995,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C108" s="26">
         <v>54</v>
@@ -8024,7 +8051,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C109" s="26">
         <v>55</v>
@@ -8080,7 +8107,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C110" s="26">
         <v>56</v>
@@ -8136,7 +8163,7 @@
         <v>3</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C111" s="26">
         <v>57</v>
@@ -8192,7 +8219,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C112" s="26">
         <v>58</v>
@@ -8225,7 +8252,7 @@
         <v>542.1</v>
       </c>
       <c r="O112" s="24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="P112" s="9" t="s">
         <v>412</v>
@@ -8246,7 +8273,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C113" s="26">
         <v>59</v>
@@ -8302,7 +8329,7 @@
         <v>3</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C114" s="26">
         <v>60</v>
@@ -8337,7 +8364,7 @@
         <v>547.70000000000005</v>
       </c>
       <c r="O114" s="24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="P114" s="9" t="s">
         <v>412</v>
@@ -8352,7 +8379,7 @@
         <v>466</v>
       </c>
       <c r="T114" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.4">
@@ -8360,7 +8387,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C115" s="26">
         <v>61</v>
@@ -8416,7 +8443,7 @@
         <v>3</v>
       </c>
       <c r="B116" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C116" s="26">
         <v>62</v>
@@ -8468,7 +8495,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C117" s="26">
         <v>63</v>
@@ -8518,7 +8545,7 @@
         <v>3</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C118" s="26">
         <v>64</v>
@@ -8568,7 +8595,7 @@
         <v>3</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C119" s="26">
         <v>65</v>
@@ -8620,7 +8647,7 @@
         <v>3</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C120" s="26">
         <v>66</v>
@@ -8672,7 +8699,7 @@
         <v>3</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C121" s="26">
         <v>67</v>
@@ -8724,7 +8751,7 @@
         <v>3</v>
       </c>
       <c r="B122" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C122" s="26">
         <v>68</v>
@@ -8770,7 +8797,7 @@
       <c r="R122" s="10"/>
       <c r="S122" s="15"/>
       <c r="T122" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="123" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
@@ -8778,7 +8805,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C123" s="26">
         <v>69</v>
@@ -8828,7 +8855,7 @@
         <v>3</v>
       </c>
       <c r="B124" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C124" s="26">
         <v>70</v>
@@ -8874,7 +8901,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C125" s="26">
         <v>71</v>
@@ -8892,12 +8919,12 @@
         <v>67</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="7"/>
       <c r="K125" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L125" s="21">
         <v>51.3264</v>
@@ -8909,11 +8936,11 @@
         <v>496.2</v>
       </c>
       <c r="O125" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P125" s="9"/>
       <c r="Q125" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R125" s="10"/>
       <c r="S125" s="7"/>
@@ -8924,7 +8951,7 @@
         <v>3</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C126" s="26">
         <v>72</v>
@@ -8964,7 +8991,7 @@
         <v>3</v>
       </c>
       <c r="B127" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C127" s="26">
         <v>73</v>
@@ -9006,7 +9033,7 @@
         <v>3</v>
       </c>
       <c r="B128" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C128" s="26">
         <v>74</v>
@@ -9056,7 +9083,7 @@
         <v>3</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C129" s="26">
         <v>75</v>
@@ -9106,7 +9133,7 @@
         <v>43</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C130" s="26">
         <v>1</v>
@@ -9139,9 +9166,7 @@
       <c r="O130" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="P130" s="9" t="s">
-        <v>412</v>
-      </c>
+      <c r="P130" s="9"/>
       <c r="Q130" s="7" t="s">
         <v>345</v>
       </c>
@@ -9152,7 +9177,7 @@
         <v>481</v>
       </c>
       <c r="T130" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="131" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
@@ -9160,7 +9185,7 @@
         <v>43</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C131" s="26">
         <v>2</v>
@@ -9193,9 +9218,7 @@
       <c r="O131" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="P131" s="9" t="s">
-        <v>412</v>
-      </c>
+      <c r="P131" s="9"/>
       <c r="Q131" s="7" t="s">
         <v>343</v>
       </c>
@@ -9206,7 +9229,7 @@
         <v>482</v>
       </c>
       <c r="T131" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="132" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
@@ -9214,7 +9237,7 @@
         <v>48</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C132" s="26">
         <v>3</v>
@@ -9247,9 +9270,7 @@
       <c r="O132" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="P132" s="9" t="s">
-        <v>412</v>
-      </c>
+      <c r="P132" s="9"/>
       <c r="Q132" s="7" t="s">
         <v>341</v>
       </c>
@@ -9266,7 +9287,7 @@
         <v>53</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C133" s="26">
         <v>4</v>
@@ -9299,9 +9320,7 @@
       <c r="O133" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="P133" s="9" t="s">
-        <v>412</v>
-      </c>
+      <c r="P133" s="9"/>
       <c r="Q133" s="7" t="s">
         <v>300</v>
       </c>
@@ -9309,31 +9328,61 @@
         <v>409</v>
       </c>
       <c r="S133" s="7" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
       <c r="T133" s="11"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A134" s="15"/>
-      <c r="B134" s="26"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="29"/>
-      <c r="E134" s="15"/>
+    <row r="134" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A134" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="B134" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C134" s="26">
+        <v>5</v>
+      </c>
+      <c r="D134" s="29">
+        <v>133</v>
+      </c>
+      <c r="E134" s="15" t="s">
+        <v>509</v>
+      </c>
       <c r="F134" s="15"/>
       <c r="G134" s="15"/>
       <c r="H134" s="15"/>
-      <c r="I134" s="8"/>
-      <c r="J134" s="15"/>
+      <c r="I134" s="8">
+        <v>71917</v>
+      </c>
+      <c r="J134" s="15">
+        <v>99999</v>
+      </c>
       <c r="K134" s="16"/>
-      <c r="L134" s="21"/>
-      <c r="M134" s="21"/>
-      <c r="N134" s="20"/>
-      <c r="O134" s="24"/>
+      <c r="L134" s="21">
+        <v>79.983333299999998</v>
+      </c>
+      <c r="M134" s="21">
+        <v>-85.933333300000001</v>
+      </c>
+      <c r="N134" s="20">
+        <v>10</v>
+      </c>
+      <c r="O134" s="24" t="s">
+        <v>508</v>
+      </c>
       <c r="P134" s="9"/>
-      <c r="Q134" s="15"/>
-      <c r="R134" s="10"/>
-      <c r="S134" s="15"/>
-      <c r="T134" s="11"/>
+      <c r="Q134" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="R134" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="S134" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="T134" s="11" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A135" s="15"/>
@@ -9732,7 +9781,7 @@
       <c r="T152" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="r3KvAZsAz7ptCPbBiV6NAKl/A0tRyKuc8Z5UuIez7ZCfzIhGPwr0hAtAE9+Hbk0Mt1WKTL2JZgQNZGBb04Sikg==" saltValue="V5B6dy8tj/EK/84IiNwXqA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mk+IaGoBAJqVJT0z/x2UBnvDy/P6OlA34ESWsC13KX1BbGYdeQiW38kE1/ZYWo3wh9xHjrymEdynfBdWLsR7Ig==" saltValue="ZhoMerdq56oRT7zFSM5cjg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T133">
     <sortCondition ref="B2:B133"/>
     <sortCondition ref="C2:C133"/>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D04988-55DF-4ABE-9659-BDFC27AC56C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FC258F-A847-4859-A760-974AE594A1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="535">
   <si>
     <t>USAF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1956,15 +1956,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>非人类聚居地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Eureka_(airport)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Suusamyr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>育空堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>育空河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yukon_(airport)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格陵兰</t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t>顶峰营</t>
+  </si>
+  <si>
+    <t>格陵兰冰盖高原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是人类聚居区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新罕布什尔州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华盛顿山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mount_Washington_(AWS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿拉斯加州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挪威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芬马克郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡拉绍克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芬马克高原、卡拉什河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Karasjok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Murgab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穆尔加布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕米尔高原</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1972,9 +2052,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="0####"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -2132,7 +2213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2222,6 +2303,9 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2548,7 +2632,7 @@
   <dimension ref="A1:T152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -9328,7 +9412,7 @@
         <v>409</v>
       </c>
       <c r="S133" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="T133" s="11"/>
     </row>
@@ -9378,120 +9462,260 @@
         <v>410</v>
       </c>
       <c r="S134" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="T134" s="11" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A135" s="15"/>
-      <c r="B135" s="26"/>
-      <c r="C135" s="26"/>
-      <c r="D135" s="29"/>
-      <c r="E135" s="15"/>
+      <c r="A135" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="B135" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C135" s="26">
+        <v>6</v>
+      </c>
+      <c r="D135" s="29">
+        <v>134</v>
+      </c>
+      <c r="E135" s="15" t="s">
+        <v>526</v>
+      </c>
       <c r="F135" s="15"/>
       <c r="G135" s="15"/>
       <c r="H135" s="15"/>
-      <c r="I135" s="8"/>
-      <c r="J135" s="15"/>
+      <c r="I135" s="8">
+        <v>70194</v>
+      </c>
+      <c r="J135" s="15">
+        <v>99999</v>
+      </c>
       <c r="K135" s="16"/>
-      <c r="L135" s="21"/>
-      <c r="M135" s="21"/>
-      <c r="N135" s="20"/>
-      <c r="O135" s="24"/>
+      <c r="L135" s="21">
+        <v>66.566999999999993</v>
+      </c>
+      <c r="M135" s="21">
+        <v>-145.267</v>
+      </c>
+      <c r="N135" s="20">
+        <v>135</v>
+      </c>
+      <c r="O135" s="24" t="s">
+        <v>514</v>
+      </c>
       <c r="P135" s="9"/>
-      <c r="Q135" s="15"/>
-      <c r="R135" s="10"/>
-      <c r="S135" s="15"/>
+      <c r="Q135" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="R135" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="S135" s="15" t="s">
+        <v>517</v>
+      </c>
       <c r="T135" s="11"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A136" s="15"/>
-      <c r="B136" s="26"/>
-      <c r="C136" s="26"/>
-      <c r="D136" s="29"/>
-      <c r="E136" s="15"/>
+    <row r="136" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A136" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="B136" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C136" s="26">
+        <v>7</v>
+      </c>
+      <c r="D136" s="29">
+        <v>135</v>
+      </c>
+      <c r="E136" s="15" t="s">
+        <v>523</v>
+      </c>
       <c r="F136" s="15"/>
       <c r="G136" s="15"/>
       <c r="H136" s="15"/>
-      <c r="I136" s="8"/>
-      <c r="J136" s="15"/>
+      <c r="I136" s="8">
+        <v>72613</v>
+      </c>
+      <c r="J136" s="15">
+        <v>99999</v>
+      </c>
       <c r="K136" s="16"/>
-      <c r="L136" s="21"/>
-      <c r="M136" s="21"/>
-      <c r="N136" s="20"/>
-      <c r="O136" s="24"/>
+      <c r="L136" s="21">
+        <v>44.267000000000003</v>
+      </c>
+      <c r="M136" s="21">
+        <v>-71.3</v>
+      </c>
+      <c r="N136" s="20">
+        <v>1910</v>
+      </c>
+      <c r="O136" s="24" t="s">
+        <v>524</v>
+      </c>
       <c r="P136" s="9"/>
       <c r="Q136" s="15"/>
-      <c r="R136" s="10"/>
-      <c r="S136" s="15"/>
-      <c r="T136" s="11"/>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A137" s="15"/>
-      <c r="B137" s="26"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="29"/>
-      <c r="E137" s="15"/>
+      <c r="R136" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="S136" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="T136" s="11" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A137" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="B137" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="C137" s="26">
+        <v>8</v>
+      </c>
+      <c r="D137" s="29">
+        <v>136</v>
+      </c>
+      <c r="E137" s="15" t="s">
+        <v>518</v>
+      </c>
       <c r="F137" s="15"/>
       <c r="G137" s="15"/>
       <c r="H137" s="15"/>
-      <c r="I137" s="8"/>
-      <c r="J137" s="15"/>
+      <c r="I137" s="30">
+        <v>4419</v>
+      </c>
+      <c r="J137" s="15">
+        <v>99999</v>
+      </c>
       <c r="K137" s="16"/>
-      <c r="L137" s="21"/>
-      <c r="M137" s="21"/>
-      <c r="N137" s="20"/>
-      <c r="O137" s="24"/>
+      <c r="L137" s="21">
+        <v>72.572778</v>
+      </c>
+      <c r="M137" s="21">
+        <v>-38.470278</v>
+      </c>
+      <c r="N137" s="20">
+        <v>3204</v>
+      </c>
+      <c r="O137" s="24" t="s">
+        <v>520</v>
+      </c>
       <c r="P137" s="9"/>
-      <c r="Q137" s="15"/>
-      <c r="R137" s="10"/>
+      <c r="Q137" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="R137" s="10" t="s">
+        <v>410</v>
+      </c>
       <c r="S137" s="15"/>
-      <c r="T137" s="11"/>
+      <c r="T137" s="11" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A138" s="15"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="26"/>
-      <c r="D138" s="29"/>
-      <c r="E138" s="15"/>
+      <c r="A138" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="B138" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C138" s="26">
+        <v>9</v>
+      </c>
+      <c r="D138" s="29">
+        <v>137</v>
+      </c>
+      <c r="E138" s="15" t="s">
+        <v>528</v>
+      </c>
       <c r="F138" s="15"/>
       <c r="G138" s="15"/>
       <c r="H138" s="15"/>
-      <c r="I138" s="8"/>
-      <c r="J138" s="15"/>
+      <c r="I138" s="30">
+        <v>1065</v>
+      </c>
+      <c r="J138" s="15">
+        <v>99999</v>
+      </c>
       <c r="K138" s="16"/>
-      <c r="L138" s="21"/>
-      <c r="M138" s="21"/>
-      <c r="N138" s="20"/>
-      <c r="O138" s="24"/>
+      <c r="L138" s="21">
+        <v>69.466666599999996</v>
+      </c>
+      <c r="M138" s="21">
+        <v>25.516666600000001</v>
+      </c>
+      <c r="N138" s="20">
+        <v>133</v>
+      </c>
+      <c r="O138" s="24" t="s">
+        <v>529</v>
+      </c>
       <c r="P138" s="9"/>
-      <c r="Q138" s="15"/>
-      <c r="R138" s="10"/>
-      <c r="S138" s="15"/>
+      <c r="Q138" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="R138" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="S138" s="15" t="s">
+        <v>531</v>
+      </c>
       <c r="T138" s="11"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A139" s="15"/>
-      <c r="B139" s="26"/>
-      <c r="C139" s="26"/>
-      <c r="D139" s="29"/>
-      <c r="E139" s="15"/>
+    <row r="139" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A139" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B139" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C139" s="26">
+        <v>10</v>
+      </c>
+      <c r="D139" s="29">
+        <v>138</v>
+      </c>
+      <c r="E139" s="15" t="s">
+        <v>230</v>
+      </c>
       <c r="F139" s="15"/>
       <c r="G139" s="15"/>
       <c r="H139" s="15"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="15"/>
+      <c r="I139" s="8">
+        <v>38878</v>
+      </c>
+      <c r="J139" s="15">
+        <v>99999</v>
+      </c>
       <c r="K139" s="16"/>
-      <c r="L139" s="21"/>
-      <c r="M139" s="21"/>
-      <c r="N139" s="20"/>
-      <c r="O139" s="24"/>
+      <c r="L139" s="21">
+        <v>38.166666599999999</v>
+      </c>
+      <c r="M139" s="21">
+        <v>73.966666599999996</v>
+      </c>
+      <c r="N139" s="20">
+        <v>3576</v>
+      </c>
+      <c r="O139" s="24" t="s">
+        <v>533</v>
+      </c>
       <c r="P139" s="9"/>
-      <c r="Q139" s="15"/>
-      <c r="R139" s="10"/>
-      <c r="S139" s="15"/>
+      <c r="Q139" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="R139" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="S139" s="15" t="s">
+        <v>532</v>
+      </c>
       <c r="T139" s="11"/>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.4">
@@ -9781,13 +10005,13 @@
       <c r="T152" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mk+IaGoBAJqVJT0z/x2UBnvDy/P6OlA34ESWsC13KX1BbGYdeQiW38kE1/ZYWo3wh9xHjrymEdynfBdWLsR7Ig==" saltValue="ZhoMerdq56oRT7zFSM5cjg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T133">
-    <sortCondition ref="B2:B133"/>
-    <sortCondition ref="C2:C133"/>
-    <sortCondition ref="E2:E133"/>
-    <sortCondition ref="F2:F133"/>
-    <sortCondition ref="G2:G133"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0RycxlrEb4EUw43xbZk2nPUUcJQ8b165SyZ23iOZSdWhQ3T76AYaiZ6XIXZwAki0OYQup09jQTbBqF5c4t1zeA==" saltValue="EUhGQ4DlY9iTKXZXmBnN2A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T139">
+    <sortCondition ref="B2:B139"/>
+    <sortCondition ref="C2:C139"/>
+    <sortCondition ref="E2:E139"/>
+    <sortCondition ref="F2:F139"/>
+    <sortCondition ref="G2:G139"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:T152">

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FC258F-A847-4859-A760-974AE594A1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872CBDE8-2015-4609-A2B8-14C47C996B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="537">
   <si>
     <t>USAF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1996,10 +1996,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不是人类聚居区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新罕布什尔州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2045,6 +2041,18 @@
   </si>
   <si>
     <t>帕米尔高原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2547</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非定居点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定榜制图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2055,7 +2063,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
-    <numFmt numFmtId="179" formatCode="0####"/>
+    <numFmt numFmtId="178" formatCode="0####"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -2213,7 +2221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2304,8 +2312,17 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2629,34 +2646,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
-  <dimension ref="A1:T152"/>
+  <dimension ref="A1:U152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.59765625" style="1" customWidth="1"/>
     <col min="2" max="4" width="4.59765625" style="27" customWidth="1"/>
-    <col min="5" max="6" width="10.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.59765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.59765625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.59765625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.59765625" style="12" customWidth="1"/>
-    <col min="12" max="13" width="9.59765625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.59765625" style="13" customWidth="1"/>
-    <col min="15" max="15" width="14.59765625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="4.59765625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="20.59765625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.59765625" style="25" customWidth="1"/>
-    <col min="19" max="19" width="20.59765625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.59765625" style="12" customWidth="1"/>
-    <col min="21" max="16384" width="9.06640625" style="1"/>
+    <col min="5" max="5" width="4.59765625" style="33" customWidth="1"/>
+    <col min="6" max="7" width="10.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.59765625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="6.59765625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.59765625" style="12" customWidth="1"/>
+    <col min="13" max="14" width="9.59765625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.59765625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="14.59765625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="4.59765625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="20.59765625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.59765625" style="25" customWidth="1"/>
+    <col min="20" max="20" width="20.59765625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.59765625" style="12" customWidth="1"/>
+    <col min="22" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>272</v>
       </c>
@@ -2669,56 +2687,59 @@
       <c r="D1" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="P1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>267</v>
       </c>
@@ -2731,40 +2752,43 @@
       <c r="D2" s="29">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="32">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="11">
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="11">
         <v>211</v>
       </c>
-      <c r="L2" s="19">
+      <c r="M2" s="19">
         <v>50.476387000000003</v>
       </c>
-      <c r="M2" s="19">
+      <c r="N2" s="19">
         <v>93.600830000000002</v>
       </c>
-      <c r="N2" s="20">
+      <c r="O2" s="20">
         <v>799</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="P2" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="11"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S2" s="10"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>267</v>
       </c>
@@ -2777,40 +2801,43 @@
       <c r="D3" s="29">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="32">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="11">
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="11">
         <v>828</v>
       </c>
-      <c r="L3" s="21">
+      <c r="M3" s="21">
         <v>49.905966669999998</v>
       </c>
-      <c r="M3" s="21">
+      <c r="N3" s="21">
         <v>93.789572219999997</v>
       </c>
-      <c r="N3" s="20">
+      <c r="O3" s="20">
         <v>997</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="P3" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="11"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S3" s="10"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="11"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>267</v>
       </c>
@@ -2823,40 +2850,43 @@
       <c r="D4" s="29">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="32">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="11">
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="11">
         <v>687</v>
       </c>
-      <c r="L4" s="21">
+      <c r="M4" s="21">
         <v>49.655124999999998</v>
       </c>
-      <c r="M4" s="21">
+      <c r="N4" s="21">
         <v>95.789450000000002</v>
       </c>
-      <c r="N4" s="20">
+      <c r="O4" s="20">
         <v>1286</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="P4" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="R4" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="11"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S4" s="10"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="11"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>267</v>
       </c>
@@ -2869,40 +2899,43 @@
       <c r="D5" s="29">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="32">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="11">
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="11">
         <v>274</v>
       </c>
-      <c r="L5" s="19">
+      <c r="M5" s="19">
         <v>47.209609999999998</v>
       </c>
-      <c r="M5" s="19">
+      <c r="N5" s="19">
         <v>97.604699999999994</v>
       </c>
-      <c r="N5" s="20">
+      <c r="O5" s="20">
         <v>2156</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="P5" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="Q5" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="R5" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="11"/>
-    </row>
-    <row r="6" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="S5" s="10"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="11"/>
+    </row>
+    <row r="6" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>267</v>
       </c>
@@ -2915,40 +2948,43 @@
       <c r="D6" s="29">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="32">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="11">
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="11">
         <v>893</v>
       </c>
-      <c r="L6" s="21">
+      <c r="M6" s="21">
         <v>51.356372219999997</v>
       </c>
-      <c r="M6" s="21">
+      <c r="N6" s="21">
         <v>99.344038889999993</v>
       </c>
-      <c r="N6" s="20">
+      <c r="O6" s="20">
         <v>1546</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="P6" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="Q6" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="R6" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="R6" s="10"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="11"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S6" s="10"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="11"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>267</v>
       </c>
@@ -2961,40 +2997,43 @@
       <c r="D7" s="29">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="32">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="11">
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="11">
         <v>243</v>
       </c>
-      <c r="L7" s="19">
+      <c r="M7" s="19">
         <v>49.748916600000001</v>
       </c>
-      <c r="M7" s="19">
+      <c r="N7" s="19">
         <v>106.661469</v>
       </c>
-      <c r="N7" s="20">
+      <c r="O7" s="20">
         <v>675</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="P7" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="Q7" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="R7" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="11"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S7" s="10"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="11"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>267</v>
       </c>
@@ -3007,46 +3046,49 @@
       <c r="D8" s="29">
         <v>7</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="32">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="8">
+      <c r="I8" s="7"/>
+      <c r="J8" s="8">
         <v>44212</v>
       </c>
-      <c r="J8" s="7">
+      <c r="K8" s="7">
         <v>99999</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="19">
+      <c r="L8" s="11"/>
+      <c r="M8" s="19">
         <v>49.971620000000001</v>
       </c>
-      <c r="M8" s="19">
+      <c r="N8" s="19">
         <v>92.077960000000004</v>
       </c>
-      <c r="N8" s="20">
+      <c r="O8" s="20">
         <v>937</v>
       </c>
-      <c r="O8" s="24" t="s">
+      <c r="P8" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="Q8" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="R8" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="R8" s="10" t="s">
+      <c r="S8" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="T8" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="T8" s="11"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U8" s="11"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>267</v>
       </c>
@@ -3059,46 +3101,49 @@
       <c r="D9" s="29">
         <v>8</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="32">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="8">
+      <c r="I9" s="7"/>
+      <c r="J9" s="8">
         <v>44221</v>
       </c>
-      <c r="J9" s="7">
+      <c r="K9" s="7">
         <v>99999</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="19">
+      <c r="L9" s="11"/>
+      <c r="M9" s="19">
         <v>49.700499999999998</v>
       </c>
-      <c r="M9" s="19">
+      <c r="N9" s="19">
         <v>96.363399999999999</v>
       </c>
-      <c r="N9" s="20">
+      <c r="O9" s="20">
         <v>1424</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="P9" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="Q9" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="R9" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="S9" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="T9" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U9" s="11"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>267</v>
       </c>
@@ -3111,46 +3156,49 @@
       <c r="D10" s="29">
         <v>9</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="32">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="8">
+      <c r="I10" s="7"/>
+      <c r="J10" s="8">
         <v>44224</v>
       </c>
-      <c r="J10" s="7">
+      <c r="K10" s="7">
         <v>99999</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="19">
+      <c r="L10" s="11"/>
+      <c r="M10" s="19">
         <v>48.747999999999998</v>
       </c>
-      <c r="M10" s="19">
+      <c r="N10" s="19">
         <v>96.004249999999999</v>
       </c>
-      <c r="N10" s="20">
+      <c r="O10" s="20">
         <v>1931</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="P10" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="Q10" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="R10" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="S10" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="T10" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U10" s="11"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>267</v>
       </c>
@@ -3163,46 +3211,49 @@
       <c r="D11" s="29">
         <v>10</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="32">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="8">
+      <c r="I11" s="7"/>
+      <c r="J11" s="8">
         <v>44225</v>
       </c>
-      <c r="J11" s="7">
+      <c r="K11" s="7">
         <v>99999</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="19">
+      <c r="L11" s="11"/>
+      <c r="M11" s="19">
         <v>48.763053900000003</v>
       </c>
-      <c r="M11" s="19">
+      <c r="N11" s="19">
         <v>98.266199999999998</v>
       </c>
-      <c r="N11" s="20">
+      <c r="O11" s="20">
         <v>1726</v>
       </c>
-      <c r="O11" s="24" t="s">
+      <c r="P11" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="Q11" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="R11" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="R11" s="10" t="s">
+      <c r="S11" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="T11" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="T11" s="11"/>
-    </row>
-    <row r="12" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U11" s="11"/>
+    </row>
+    <row r="12" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>267</v>
       </c>
@@ -3215,46 +3266,49 @@
       <c r="D12" s="29">
         <v>11</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="32">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="8">
+      <c r="I12" s="7"/>
+      <c r="J12" s="8">
         <v>44203</v>
       </c>
-      <c r="J12" s="7">
+      <c r="K12" s="7">
         <v>99999</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="19">
+      <c r="L12" s="11"/>
+      <c r="M12" s="19">
         <v>51.113950000000003</v>
       </c>
-      <c r="M12" s="19">
+      <c r="N12" s="19">
         <v>99.668563800000001</v>
       </c>
-      <c r="N12" s="20">
+      <c r="O12" s="20">
         <v>1585</v>
       </c>
-      <c r="O12" s="24" t="s">
+      <c r="P12" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="Q12" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="R12" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="R12" s="10" t="s">
+      <c r="S12" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S12" s="7" t="s">
+      <c r="T12" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="T12" s="11"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U12" s="11"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>267</v>
       </c>
@@ -3267,46 +3321,49 @@
       <c r="D13" s="29">
         <v>12</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="32">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="8">
+      <c r="I13" s="7"/>
+      <c r="J13" s="8">
         <v>44292</v>
       </c>
-      <c r="J13" s="7">
+      <c r="K13" s="7">
         <v>99999</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="19">
+      <c r="L13" s="11"/>
+      <c r="M13" s="19">
         <v>47.918445599999998</v>
       </c>
-      <c r="M13" s="19">
+      <c r="N13" s="19">
         <v>106.848343</v>
       </c>
-      <c r="N13" s="20">
+      <c r="O13" s="20">
         <v>1304</v>
       </c>
-      <c r="O13" s="24" t="s">
+      <c r="P13" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="Q13" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="R13" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="R13" s="10" t="s">
+      <c r="S13" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S13" s="7" t="s">
+      <c r="T13" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="T13" s="11"/>
-    </row>
-    <row r="14" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U13" s="11"/>
+    </row>
+    <row r="14" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>267</v>
       </c>
@@ -3319,38 +3376,39 @@
       <c r="D14" s="29">
         <v>13</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="32"/>
+      <c r="F14" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="11">
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="11">
         <v>546</v>
       </c>
-      <c r="L14" s="21">
+      <c r="M14" s="21">
         <v>47.227308333333298</v>
       </c>
-      <c r="M14" s="21">
+      <c r="N14" s="21">
         <v>98.573644444444398</v>
       </c>
-      <c r="N14" s="20">
+      <c r="O14" s="20">
         <v>2422</v>
       </c>
-      <c r="O14" s="24" t="s">
+      <c r="P14" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="9"/>
+      <c r="R14" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="R14" s="10"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="11"/>
-    </row>
-    <row r="15" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="S14" s="10"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="11"/>
+    </row>
+    <row r="15" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>367</v>
       </c>
@@ -3363,38 +3421,39 @@
       <c r="D15" s="29">
         <v>14</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="32"/>
+      <c r="F15" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="11">
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="11">
         <v>276</v>
       </c>
-      <c r="L15" s="19">
+      <c r="M15" s="19">
         <v>47.016469999999998</v>
       </c>
-      <c r="M15" s="19">
+      <c r="N15" s="19">
         <v>99.479550000000003</v>
       </c>
-      <c r="N15" s="20">
+      <c r="O15" s="20">
         <v>2034</v>
       </c>
-      <c r="O15" s="24" t="s">
+      <c r="P15" s="24" t="s">
         <v>387</v>
       </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" s="9"/>
+      <c r="R15" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="11"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S15" s="10"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="11"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>267</v>
       </c>
@@ -3407,38 +3466,39 @@
       <c r="D16" s="29">
         <v>15</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="11">
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="11">
         <v>864</v>
       </c>
-      <c r="L16" s="19">
+      <c r="M16" s="19">
         <v>48.332500000000003</v>
       </c>
-      <c r="M16" s="19">
+      <c r="N16" s="19">
         <v>92.634159999999994</v>
       </c>
-      <c r="N16" s="20">
+      <c r="O16" s="20">
         <v>1166</v>
       </c>
-      <c r="O16" s="24" t="s">
+      <c r="P16" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="7" t="s">
+      <c r="Q16" s="9"/>
+      <c r="R16" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="R16" s="10"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="11"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S16" s="10"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="11"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
         <v>267</v>
       </c>
@@ -3451,38 +3511,39 @@
       <c r="D17" s="29">
         <v>16</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="32"/>
+      <c r="F17" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="11">
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="11">
         <v>863</v>
       </c>
-      <c r="L17" s="21">
+      <c r="M17" s="21">
         <v>48.501372222222201</v>
       </c>
-      <c r="M17" s="21">
+      <c r="N17" s="21">
         <v>91.448158333333296</v>
       </c>
-      <c r="N17" s="20">
+      <c r="O17" s="20">
         <v>1262</v>
       </c>
-      <c r="O17" s="24" t="s">
+      <c r="P17" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="7" t="s">
+      <c r="Q17" s="9"/>
+      <c r="R17" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="R17" s="10"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="11"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S17" s="10"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="11"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>267</v>
       </c>
@@ -3495,38 +3556,39 @@
       <c r="D18" s="29">
         <v>17</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="32"/>
+      <c r="F18" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="11">
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="11">
         <v>271</v>
       </c>
-      <c r="L18" s="19">
+      <c r="M18" s="19">
         <v>46.590800000000002</v>
       </c>
-      <c r="M18" s="19">
+      <c r="N18" s="19">
         <v>93.272199999999998</v>
       </c>
-      <c r="N18" s="20">
+      <c r="O18" s="20">
         <v>1716</v>
       </c>
-      <c r="O18" s="24" t="s">
+      <c r="P18" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="7" t="s">
+      <c r="Q18" s="9"/>
+      <c r="R18" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="R18" s="10"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="11"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S18" s="10"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="11"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>367</v>
       </c>
@@ -3539,36 +3601,37 @@
       <c r="D19" s="29">
         <v>18</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="32"/>
+      <c r="F19" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="11">
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="11">
         <v>889</v>
       </c>
-      <c r="L19" s="21">
+      <c r="M19" s="21">
         <v>49.597225000000002</v>
       </c>
-      <c r="M19" s="21">
+      <c r="N19" s="21">
         <v>98.695800000000006</v>
       </c>
-      <c r="N19" s="20">
+      <c r="O19" s="20">
         <v>1805</v>
       </c>
-      <c r="O19" s="24" t="s">
+      <c r="P19" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="11"/>
-    </row>
-    <row r="20" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="Q19" s="9"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="11"/>
+    </row>
+    <row r="20" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>367</v>
       </c>
@@ -3581,38 +3644,39 @@
       <c r="D20" s="29">
         <v>19</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="32"/>
+      <c r="F20" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="11">
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="11">
         <v>887</v>
       </c>
-      <c r="L20" s="21">
+      <c r="M20" s="21">
         <v>50.677022222222199</v>
       </c>
-      <c r="M20" s="21">
+      <c r="N20" s="21">
         <v>99.226799999999997</v>
       </c>
-      <c r="N20" s="20">
+      <c r="O20" s="20">
         <v>1687</v>
       </c>
-      <c r="O20" s="24" t="s">
+      <c r="P20" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="7" t="s">
+      <c r="Q20" s="9"/>
+      <c r="R20" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="R20" s="10"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="11"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S20" s="10"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="11"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>367</v>
       </c>
@@ -3625,38 +3689,39 @@
       <c r="D21" s="29">
         <v>20</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="32"/>
+      <c r="F21" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="11">
+      <c r="I21" s="7"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="11">
         <v>774</v>
       </c>
-      <c r="L21" s="21">
+      <c r="M21" s="21">
         <v>50.069886111111103</v>
       </c>
-      <c r="M21" s="21">
+      <c r="N21" s="21">
         <v>105.884363888888</v>
       </c>
-      <c r="N21" s="20">
+      <c r="O21" s="20">
         <v>632</v>
       </c>
-      <c r="O21" s="24" t="s">
+      <c r="P21" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="7" t="s">
+      <c r="Q21" s="9"/>
+      <c r="R21" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="R21" s="10"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="11"/>
-    </row>
-    <row r="22" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="S21" s="10"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="11"/>
+    </row>
+    <row r="22" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
         <v>267</v>
       </c>
@@ -3669,38 +3734,39 @@
       <c r="D22" s="29">
         <v>21</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="32"/>
+      <c r="F22" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="11">
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="11">
         <v>827</v>
       </c>
-      <c r="L22" s="21">
+      <c r="M22" s="21">
         <v>50.610586111111097</v>
       </c>
-      <c r="M22" s="21">
+      <c r="N22" s="21">
         <v>92.402124999999998</v>
       </c>
-      <c r="N22" s="20">
+      <c r="O22" s="20">
         <v>859</v>
       </c>
-      <c r="O22" s="24" t="s">
+      <c r="P22" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="7" t="s">
+      <c r="Q22" s="9"/>
+      <c r="R22" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="R22" s="10"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="11"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S22" s="10"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="11"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>267</v>
       </c>
@@ -3713,38 +3779,39 @@
       <c r="D23" s="29">
         <v>22</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="32"/>
+      <c r="F23" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="11">
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="11">
         <v>201</v>
       </c>
-      <c r="L23" s="19">
+      <c r="M23" s="19">
         <v>49.72889</v>
       </c>
-      <c r="M23" s="19">
+      <c r="N23" s="19">
         <v>93.268609999999995</v>
       </c>
-      <c r="N23" s="20">
+      <c r="O23" s="20">
         <v>1393</v>
       </c>
-      <c r="O23" s="24" t="s">
+      <c r="P23" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="7" t="s">
+      <c r="Q23" s="9"/>
+      <c r="R23" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="R23" s="10"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="11"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S23" s="10"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="11"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>367</v>
       </c>
@@ -3757,38 +3824,39 @@
       <c r="D24" s="29">
         <v>23</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="32"/>
+      <c r="F24" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="11">
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="11">
         <v>215</v>
       </c>
-      <c r="L24" s="21">
+      <c r="M24" s="21">
         <v>49.104990000000001</v>
       </c>
-      <c r="M24" s="21">
+      <c r="N24" s="21">
         <v>91.726190000000003</v>
       </c>
-      <c r="N24" s="20">
+      <c r="O24" s="20">
         <v>1593</v>
       </c>
-      <c r="O24" s="24" t="s">
+      <c r="P24" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="7" t="s">
+      <c r="Q24" s="9"/>
+      <c r="R24" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="R24" s="10"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="11"/>
-    </row>
-    <row r="25" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="S24" s="10"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="11"/>
+    </row>
+    <row r="25" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
         <v>267</v>
       </c>
@@ -3801,38 +3869,39 @@
       <c r="D25" s="29">
         <v>24</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="32"/>
+      <c r="F25" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="11">
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="11">
         <v>834</v>
       </c>
-      <c r="L25" s="21">
+      <c r="M25" s="21">
         <v>50.339719444444398</v>
       </c>
-      <c r="M25" s="21">
+      <c r="N25" s="21">
         <v>91.604813888888799</v>
       </c>
-      <c r="N25" s="20">
+      <c r="O25" s="20">
         <v>1142</v>
       </c>
-      <c r="O25" s="24" t="s">
+      <c r="P25" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="7" t="s">
+      <c r="Q25" s="9"/>
+      <c r="R25" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="R25" s="10"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="11"/>
-    </row>
-    <row r="26" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="S25" s="10"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="11"/>
+    </row>
+    <row r="26" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
         <v>267</v>
       </c>
@@ -3845,38 +3914,39 @@
       <c r="D26" s="29">
         <v>25</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="32"/>
+      <c r="F26" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="11">
+      <c r="I26" s="7"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="11">
         <v>836</v>
       </c>
-      <c r="L26" s="21">
+      <c r="M26" s="21">
         <v>50.097880555555498</v>
       </c>
-      <c r="M26" s="21">
+      <c r="N26" s="21">
         <v>91.676269444444401</v>
       </c>
-      <c r="N26" s="20">
+      <c r="O26" s="20">
         <v>1212</v>
       </c>
-      <c r="O26" s="24" t="s">
+      <c r="P26" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="7" t="s">
+      <c r="Q26" s="9"/>
+      <c r="R26" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="R26" s="10"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="11"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S26" s="10"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="11"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
         <v>267</v>
       </c>
@@ -3889,42 +3959,43 @@
       <c r="D27" s="29">
         <v>26</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="32"/>
+      <c r="F27" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="8">
+      <c r="I27" s="7"/>
+      <c r="J27" s="8">
         <v>44213</v>
       </c>
-      <c r="J27" s="7">
+      <c r="K27" s="7">
         <v>99999</v>
       </c>
-      <c r="K27" s="11">
+      <c r="L27" s="11">
         <v>213</v>
       </c>
-      <c r="L27" s="19">
+      <c r="M27" s="19">
         <v>49.658639999999998</v>
       </c>
-      <c r="M27" s="19">
+      <c r="N27" s="19">
         <v>94.404060000000001</v>
       </c>
-      <c r="N27" s="20">
+      <c r="O27" s="20">
         <v>1233</v>
       </c>
-      <c r="O27" s="24" t="s">
+      <c r="P27" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="7" t="s">
+      <c r="Q27" s="9"/>
+      <c r="R27" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="R27" s="10"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="11"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S27" s="10"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="11"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
         <v>267</v>
       </c>
@@ -3937,38 +4008,39 @@
       <c r="D28" s="29">
         <v>27</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="32"/>
+      <c r="F28" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="11">
+      <c r="I28" s="7"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="11">
         <v>216</v>
       </c>
-      <c r="L28" s="19">
+      <c r="M28" s="19">
         <v>48.821666700000002</v>
       </c>
-      <c r="M28" s="19">
+      <c r="N28" s="19">
         <v>93.103059999999999</v>
       </c>
-      <c r="N28" s="20">
+      <c r="O28" s="20">
         <v>1045</v>
       </c>
-      <c r="O28" s="24" t="s">
+      <c r="P28" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="7" t="s">
+      <c r="Q28" s="9"/>
+      <c r="R28" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="R28" s="10"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="11"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S28" s="10"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="11"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
         <v>267</v>
       </c>
@@ -3981,38 +4053,39 @@
       <c r="D29" s="29">
         <v>28</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="32"/>
+      <c r="F29" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="11">
+      <c r="I29" s="7"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="11">
         <v>677</v>
       </c>
-      <c r="L29" s="21">
+      <c r="M29" s="21">
         <v>49.373166666666599</v>
       </c>
-      <c r="M29" s="21">
+      <c r="N29" s="21">
         <v>96.414816666666596</v>
       </c>
-      <c r="N29" s="20">
+      <c r="O29" s="20">
         <v>1858</v>
       </c>
-      <c r="O29" s="24" t="s">
+      <c r="P29" s="24" t="s">
         <v>364</v>
       </c>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="7" t="s">
+      <c r="Q29" s="9"/>
+      <c r="R29" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="R29" s="10"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="11"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S29" s="10"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="11"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
         <v>267</v>
       </c>
@@ -4025,38 +4098,39 @@
       <c r="D30" s="29">
         <v>29</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="32"/>
+      <c r="F30" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="11">
+      <c r="I30" s="7"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="11">
         <v>680</v>
       </c>
-      <c r="L30" s="21">
+      <c r="M30" s="21">
         <v>48.721816666666598</v>
       </c>
-      <c r="M30" s="21">
+      <c r="N30" s="21">
         <v>98.794905555555502</v>
       </c>
-      <c r="N30" s="20">
+      <c r="O30" s="20">
         <v>1656</v>
       </c>
-      <c r="O30" s="24" t="s">
+      <c r="P30" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="7" t="s">
+      <c r="Q30" s="9"/>
+      <c r="R30" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="R30" s="10"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="11"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S30" s="10"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="11"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
         <v>267</v>
       </c>
@@ -4069,38 +4143,39 @@
       <c r="D31" s="29">
         <v>30</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="32"/>
+      <c r="F31" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="11">
+      <c r="I31" s="7"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="11">
         <v>220</v>
       </c>
-      <c r="L31" s="19">
+      <c r="M31" s="19">
         <v>48.870530000000002</v>
       </c>
-      <c r="M31" s="19">
+      <c r="N31" s="19">
         <v>96.961585999999997</v>
       </c>
-      <c r="N31" s="20">
+      <c r="O31" s="20">
         <v>1851</v>
       </c>
-      <c r="O31" s="24" t="s">
+      <c r="P31" s="24" t="s">
         <v>361</v>
       </c>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="7" t="s">
+      <c r="Q31" s="9"/>
+      <c r="R31" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="R31" s="10"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="11"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S31" s="10"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="11"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
         <v>267</v>
       </c>
@@ -4113,38 +4188,39 @@
       <c r="D32" s="29">
         <v>31</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="32"/>
+      <c r="F32" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="11">
+      <c r="I32" s="7"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="11">
         <v>683</v>
       </c>
-      <c r="L32" s="21">
+      <c r="M32" s="21">
         <v>48.589822222222203</v>
       </c>
-      <c r="M32" s="21">
+      <c r="N32" s="21">
         <v>95.435675000000003</v>
       </c>
-      <c r="N32" s="20">
+      <c r="O32" s="20">
         <v>1569</v>
       </c>
-      <c r="O32" s="24" t="s">
+      <c r="P32" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="7" t="s">
+      <c r="Q32" s="9"/>
+      <c r="R32" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="R32" s="10"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="11"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S32" s="10"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="11"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
         <v>267</v>
       </c>
@@ -4157,38 +4233,39 @@
       <c r="D33" s="29">
         <v>32</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="32"/>
+      <c r="F33" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="11">
+      <c r="I33" s="7"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="11">
         <v>686</v>
       </c>
-      <c r="L33" s="21">
+      <c r="M33" s="21">
         <v>48.646230555555498</v>
       </c>
-      <c r="M33" s="21">
+      <c r="N33" s="21">
         <v>97.612224999999995</v>
       </c>
-      <c r="N33" s="20">
+      <c r="O33" s="20">
         <v>1811</v>
       </c>
-      <c r="O33" s="24" t="s">
+      <c r="P33" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="7" t="s">
+      <c r="Q33" s="9"/>
+      <c r="R33" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="R33" s="10"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="11"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S33" s="10"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="11"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
         <v>267</v>
       </c>
@@ -4201,38 +4278,39 @@
       <c r="D34" s="29">
         <v>33</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="32"/>
+      <c r="F34" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="11">
+      <c r="I34" s="7"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="11">
         <v>685</v>
       </c>
-      <c r="L34" s="21">
+      <c r="M34" s="21">
         <v>48.982269444444398</v>
       </c>
-      <c r="M34" s="21">
+      <c r="N34" s="21">
         <v>96.544311111111099</v>
       </c>
-      <c r="N34" s="20">
+      <c r="O34" s="20">
         <v>1776</v>
       </c>
-      <c r="O34" s="24" t="s">
+      <c r="P34" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="7" t="s">
+      <c r="Q34" s="9"/>
+      <c r="R34" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="R34" s="10"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="11"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S34" s="10"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="11"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
         <v>267</v>
       </c>
@@ -4245,36 +4323,37 @@
       <c r="D35" s="29">
         <v>34</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="32"/>
+      <c r="F35" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="11">
+      <c r="I35" s="7"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="11">
         <v>688</v>
       </c>
-      <c r="L35" s="21">
+      <c r="M35" s="21">
         <v>48.511452777777698</v>
       </c>
-      <c r="M35" s="21">
+      <c r="N35" s="21">
         <v>94.292058333333301</v>
       </c>
-      <c r="N35" s="20">
+      <c r="O35" s="20">
         <v>1271</v>
       </c>
-      <c r="O35" s="24" t="s">
+      <c r="P35" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="11"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="Q35" s="9"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="11"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
         <v>267</v>
       </c>
@@ -4287,38 +4366,39 @@
       <c r="D36" s="29">
         <v>35</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="32"/>
+      <c r="F36" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="11">
+      <c r="I36" s="7"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="11">
         <v>693</v>
       </c>
-      <c r="L36" s="21">
+      <c r="M36" s="21">
         <v>48.116247222222199</v>
       </c>
-      <c r="M36" s="21">
+      <c r="N36" s="21">
         <v>96.767511111111105</v>
       </c>
-      <c r="N36" s="20">
+      <c r="O36" s="20">
         <v>2113</v>
       </c>
-      <c r="O36" s="24" t="s">
+      <c r="P36" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="7" t="s">
+      <c r="Q36" s="9"/>
+      <c r="R36" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="R36" s="10"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="11"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S36" s="10"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="11"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
         <v>267</v>
       </c>
@@ -4331,38 +4411,39 @@
       <c r="D37" s="29">
         <v>36</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="32"/>
+      <c r="F37" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="11">
+      <c r="I37" s="7"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="11">
         <v>679</v>
       </c>
-      <c r="L37" s="21">
+      <c r="M37" s="21">
         <v>48.219799999999999</v>
       </c>
-      <c r="M37" s="21">
+      <c r="N37" s="21">
         <v>97.376130555555505</v>
       </c>
-      <c r="N37" s="20">
+      <c r="O37" s="20">
         <v>1963</v>
       </c>
-      <c r="O37" s="24" t="s">
+      <c r="P37" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="7" t="s">
+      <c r="Q37" s="9"/>
+      <c r="R37" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="R37" s="10"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="11"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S37" s="10"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="11"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
         <v>267</v>
       </c>
@@ -4375,38 +4456,39 @@
       <c r="D38" s="29">
         <v>37</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="32"/>
+      <c r="F38" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="11">
+      <c r="I38" s="7"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="11">
         <v>692</v>
       </c>
-      <c r="L38" s="19">
+      <c r="M38" s="19">
         <v>47.727004999999998</v>
       </c>
-      <c r="M38" s="19">
+      <c r="N38" s="19">
         <v>96.847539999999995</v>
       </c>
-      <c r="N38" s="20">
+      <c r="O38" s="20">
         <v>1777</v>
       </c>
-      <c r="O38" s="24" t="s">
+      <c r="P38" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="7" t="s">
+      <c r="Q38" s="9"/>
+      <c r="R38" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="R38" s="10"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="11"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S38" s="10"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="11"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
         <v>268</v>
       </c>
@@ -4419,44 +4501,47 @@
       <c r="D39" s="29">
         <v>38</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="32">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="8">
+      <c r="I39" s="7"/>
+      <c r="J39" s="8">
         <v>31702</v>
       </c>
-      <c r="J39" s="7">
+      <c r="K39" s="7">
         <v>99999</v>
       </c>
-      <c r="K39" s="11"/>
-      <c r="L39" s="21">
+      <c r="L39" s="11"/>
+      <c r="M39" s="21">
         <v>49</v>
       </c>
-      <c r="M39" s="21">
+      <c r="N39" s="21">
         <v>131.08333329999999</v>
       </c>
-      <c r="N39" s="20">
+      <c r="O39" s="20">
         <v>257</v>
       </c>
-      <c r="O39" s="24" t="s">
+      <c r="P39" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="7" t="s">
+      <c r="Q39" s="9"/>
+      <c r="R39" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="R39" s="10" t="s">
+      <c r="S39" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S39" s="7" t="s">
+      <c r="T39" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="T39" s="11"/>
-    </row>
-    <row r="40" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U39" s="11"/>
+    </row>
+    <row r="40" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
         <v>268</v>
       </c>
@@ -4469,44 +4554,47 @@
       <c r="D40" s="29">
         <v>39</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="32">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="8">
+      <c r="I40" s="7"/>
+      <c r="J40" s="8">
         <v>31532</v>
       </c>
-      <c r="J40" s="7">
+      <c r="K40" s="7">
         <v>99999</v>
       </c>
-      <c r="K40" s="11"/>
-      <c r="L40" s="21">
+      <c r="L40" s="11"/>
+      <c r="M40" s="21">
         <v>50.866666600000002</v>
       </c>
-      <c r="M40" s="21">
+      <c r="N40" s="21">
         <v>132.25</v>
       </c>
-      <c r="N40" s="20">
+      <c r="O40" s="20">
         <v>272</v>
       </c>
-      <c r="O40" s="24" t="s">
+      <c r="P40" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="7" t="s">
+      <c r="Q40" s="9"/>
+      <c r="R40" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="R40" s="10" t="s">
+      <c r="S40" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S40" s="7" t="s">
+      <c r="T40" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="T40" s="11"/>
-    </row>
-    <row r="41" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U40" s="11"/>
+    </row>
+    <row r="41" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
         <v>268</v>
       </c>
@@ -4519,46 +4607,49 @@
       <c r="D41" s="29">
         <v>40</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="32">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="8">
+      <c r="I41" s="7"/>
+      <c r="J41" s="8">
         <v>31478</v>
       </c>
-      <c r="J41" s="7">
+      <c r="K41" s="7">
         <v>99999</v>
       </c>
-      <c r="K41" s="11"/>
-      <c r="L41" s="21">
+      <c r="L41" s="11"/>
+      <c r="M41" s="21">
         <v>52.266666600000001</v>
       </c>
-      <c r="M41" s="21">
+      <c r="N41" s="21">
         <v>133.9833333</v>
       </c>
-      <c r="N41" s="20">
+      <c r="O41" s="20">
         <v>902</v>
       </c>
-      <c r="O41" s="24" t="s">
+      <c r="P41" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="P41" s="9" t="s">
+      <c r="Q41" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q41" s="7" t="s">
+      <c r="R41" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="R41" s="10" t="s">
+      <c r="S41" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S41" s="7" t="s">
+      <c r="T41" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="T41" s="11"/>
-    </row>
-    <row r="42" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U41" s="11"/>
+    </row>
+    <row r="42" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
         <v>268</v>
       </c>
@@ -4571,44 +4662,47 @@
       <c r="D42" s="29">
         <v>41</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="32">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="8">
+      <c r="I42" s="7"/>
+      <c r="J42" s="8">
         <v>31329</v>
       </c>
-      <c r="J42" s="7">
+      <c r="K42" s="7">
         <v>99999</v>
       </c>
-      <c r="K42" s="11"/>
-      <c r="L42" s="21">
+      <c r="L42" s="11"/>
+      <c r="M42" s="21">
         <v>53.066666699999999</v>
       </c>
-      <c r="M42" s="21">
+      <c r="N42" s="21">
         <v>132.93333329999999</v>
       </c>
-      <c r="N42" s="20">
+      <c r="O42" s="20">
         <v>543</v>
       </c>
-      <c r="O42" s="24" t="s">
+      <c r="P42" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="7" t="s">
+      <c r="Q42" s="9"/>
+      <c r="R42" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="R42" s="10" t="s">
+      <c r="S42" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S42" s="7" t="s">
+      <c r="T42" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="T42" s="11"/>
-    </row>
-    <row r="43" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U42" s="11"/>
+    </row>
+    <row r="43" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
         <v>268</v>
       </c>
@@ -4621,44 +4715,47 @@
       <c r="D43" s="29">
         <v>42</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="32">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="8">
+      <c r="I43" s="7"/>
+      <c r="J43" s="8">
         <v>31348</v>
       </c>
-      <c r="J43" s="7">
+      <c r="K43" s="7">
         <v>99999</v>
       </c>
-      <c r="K43" s="11"/>
-      <c r="L43" s="21">
+      <c r="L43" s="11"/>
+      <c r="M43" s="21">
         <v>53.05</v>
       </c>
-      <c r="M43" s="21">
+      <c r="N43" s="21">
         <v>136.03333330000001</v>
       </c>
-      <c r="N43" s="20">
+      <c r="O43" s="20">
         <v>153</v>
       </c>
-      <c r="O43" s="24" t="s">
+      <c r="P43" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="7" t="s">
+      <c r="Q43" s="9"/>
+      <c r="R43" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="R43" s="10" t="s">
+      <c r="S43" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S43" s="7" t="s">
+      <c r="T43" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="T43" s="11"/>
-    </row>
-    <row r="44" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U43" s="11"/>
+    </row>
+    <row r="44" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
         <v>268</v>
       </c>
@@ -4671,44 +4768,47 @@
       <c r="D44" s="29">
         <v>43</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="32">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="8">
+      <c r="I44" s="7"/>
+      <c r="J44" s="8">
         <v>30673</v>
       </c>
-      <c r="J44" s="7">
+      <c r="K44" s="7">
         <v>99999</v>
       </c>
-      <c r="K44" s="11"/>
-      <c r="L44" s="21">
+      <c r="L44" s="11"/>
+      <c r="M44" s="21">
         <v>53.75</v>
       </c>
-      <c r="M44" s="21">
+      <c r="N44" s="21">
         <v>119.7333333</v>
       </c>
-      <c r="N44" s="20">
+      <c r="O44" s="20">
         <v>625</v>
       </c>
-      <c r="O44" s="24" t="s">
+      <c r="P44" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="7" t="s">
+      <c r="Q44" s="9"/>
+      <c r="R44" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="R44" s="10" t="s">
+      <c r="S44" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S44" s="7" t="s">
+      <c r="T44" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="T44" s="11"/>
-    </row>
-    <row r="45" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U44" s="11"/>
+    </row>
+    <row r="45" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
         <v>43</v>
       </c>
@@ -4721,44 +4821,49 @@
       <c r="D45" s="29">
         <v>44</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="32">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
-      <c r="I45" s="8">
+      <c r="I45" s="7"/>
+      <c r="J45" s="8">
         <v>30664</v>
       </c>
-      <c r="J45" s="7">
+      <c r="K45" s="7">
         <v>99999</v>
       </c>
-      <c r="K45" s="11"/>
-      <c r="L45" s="21">
+      <c r="L45" s="11"/>
+      <c r="M45" s="21">
         <v>53.533333300000002</v>
       </c>
-      <c r="M45" s="21">
+      <c r="N45" s="21">
         <v>115.6166666</v>
       </c>
-      <c r="N45" s="20">
+      <c r="O45" s="20">
         <v>811</v>
       </c>
-      <c r="O45" s="24" t="s">
+      <c r="P45" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="7" t="s">
+      <c r="Q45" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="R45" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="R45" s="10" t="s">
+      <c r="S45" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S45" s="7" t="s">
+      <c r="T45" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="T45" s="11"/>
-    </row>
-    <row r="46" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U45" s="11"/>
+    </row>
+    <row r="46" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
         <v>268</v>
       </c>
@@ -4771,44 +4876,47 @@
       <c r="D46" s="29">
         <v>45</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="32">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="8">
+      <c r="I46" s="7"/>
+      <c r="J46" s="8">
         <v>30636</v>
       </c>
-      <c r="J46" s="7">
+      <c r="K46" s="7">
         <v>99999</v>
       </c>
-      <c r="K46" s="11"/>
-      <c r="L46" s="21">
+      <c r="L46" s="11"/>
+      <c r="M46" s="21">
         <v>53.616666600000002</v>
       </c>
-      <c r="M46" s="21">
+      <c r="N46" s="21">
         <v>109.6333333</v>
       </c>
-      <c r="N46" s="20">
+      <c r="O46" s="20">
         <v>489</v>
       </c>
-      <c r="O46" s="24" t="s">
+      <c r="P46" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="7" t="s">
+      <c r="Q46" s="9"/>
+      <c r="R46" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="R46" s="10" t="s">
+      <c r="S46" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S46" s="7" t="s">
+      <c r="T46" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="T46" s="11"/>
-    </row>
-    <row r="47" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U46" s="11"/>
+    </row>
+    <row r="47" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
         <v>268</v>
       </c>
@@ -4821,46 +4929,49 @@
       <c r="D47" s="29">
         <v>46</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="32">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
-      <c r="I47" s="8">
+      <c r="I47" s="7"/>
+      <c r="J47" s="8">
         <v>30622</v>
       </c>
-      <c r="J47" s="7">
+      <c r="K47" s="7">
         <v>99999</v>
       </c>
-      <c r="K47" s="11"/>
-      <c r="L47" s="21">
+      <c r="L47" s="11"/>
+      <c r="M47" s="21">
         <v>53.966666600000003</v>
       </c>
-      <c r="M47" s="21">
+      <c r="N47" s="21">
         <v>105.9</v>
       </c>
-      <c r="N47" s="20">
+      <c r="O47" s="20">
         <v>533</v>
       </c>
-      <c r="O47" s="24" t="s">
+      <c r="P47" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="P47" s="9" t="s">
+      <c r="Q47" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q47" s="7" t="s">
+      <c r="R47" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="R47" s="10" t="s">
+      <c r="S47" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S47" s="7" t="s">
+      <c r="T47" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="T47" s="11"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U47" s="11"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
         <v>43</v>
       </c>
@@ -4873,44 +4984,47 @@
       <c r="D48" s="29">
         <v>47</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="32">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="8">
+      <c r="I48" s="7"/>
+      <c r="J48" s="8">
         <v>36104</v>
       </c>
-      <c r="J48" s="7">
+      <c r="K48" s="7">
         <v>99999</v>
       </c>
-      <c r="K48" s="11"/>
-      <c r="L48" s="21">
+      <c r="L48" s="11"/>
+      <c r="M48" s="21">
         <v>51.483333299999998</v>
       </c>
-      <c r="M48" s="21">
+      <c r="N48" s="21">
         <v>95.583333300000007</v>
       </c>
-      <c r="N48" s="20">
+      <c r="O48" s="20">
         <v>705.8</v>
       </c>
-      <c r="O48" s="24" t="s">
+      <c r="P48" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="7" t="s">
+      <c r="Q48" s="9"/>
+      <c r="R48" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="R48" s="10" t="s">
+      <c r="S48" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S48" s="7" t="s">
+      <c r="T48" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="T48" s="11"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U48" s="11"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A49" s="7" t="s">
         <v>268</v>
       </c>
@@ -4923,46 +5037,49 @@
       <c r="D49" s="29">
         <v>48</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="32">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="8">
+      <c r="I49" s="7"/>
+      <c r="J49" s="8">
         <v>36096</v>
       </c>
-      <c r="J49" s="7">
+      <c r="K49" s="7">
         <v>99999</v>
       </c>
-      <c r="K49" s="11"/>
-      <c r="L49" s="21">
+      <c r="L49" s="11"/>
+      <c r="M49" s="21">
         <v>51.716666600000003</v>
       </c>
-      <c r="M49" s="21">
+      <c r="N49" s="21">
         <v>94.5</v>
       </c>
-      <c r="N49" s="20">
+      <c r="O49" s="20">
         <v>628</v>
       </c>
-      <c r="O49" s="24" t="s">
+      <c r="P49" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="P49" s="9" t="s">
+      <c r="Q49" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q49" s="7" t="s">
+      <c r="R49" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="R49" s="10" t="s">
+      <c r="S49" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S49" s="7" t="s">
+      <c r="T49" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="T49" s="11"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U49" s="11"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
         <v>268</v>
       </c>
@@ -4975,44 +5092,47 @@
       <c r="D50" s="29">
         <v>49</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="32">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="8">
+      <c r="I50" s="7"/>
+      <c r="J50" s="8">
         <v>36307</v>
       </c>
-      <c r="J50" s="7">
+      <c r="K50" s="7">
         <v>99999</v>
       </c>
-      <c r="K50" s="11"/>
-      <c r="L50" s="21">
+      <c r="L50" s="11"/>
+      <c r="M50" s="21">
         <v>50.25</v>
       </c>
-      <c r="M50" s="21">
+      <c r="N50" s="21">
         <v>95.166666599999999</v>
       </c>
-      <c r="N50" s="20">
+      <c r="O50" s="20">
         <v>1100</v>
       </c>
-      <c r="O50" s="24" t="s">
+      <c r="P50" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="7" t="s">
+      <c r="Q50" s="9"/>
+      <c r="R50" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="R50" s="10" t="s">
+      <c r="S50" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S50" s="7" t="s">
+      <c r="T50" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="T50" s="11"/>
-    </row>
-    <row r="51" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U50" s="11"/>
+    </row>
+    <row r="51" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
         <v>268</v>
       </c>
@@ -5025,46 +5145,49 @@
       <c r="D51" s="29">
         <v>50</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="32">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-      <c r="I51" s="8">
+      <c r="I51" s="7"/>
+      <c r="J51" s="8">
         <v>36259</v>
       </c>
-      <c r="J51" s="7">
+      <c r="K51" s="7">
         <v>99999</v>
       </c>
-      <c r="K51" s="11"/>
-      <c r="L51" s="21">
+      <c r="L51" s="11"/>
+      <c r="M51" s="21">
         <v>50.016666600000001</v>
       </c>
-      <c r="M51" s="21">
+      <c r="N51" s="21">
         <v>88.683333300000001</v>
       </c>
-      <c r="N51" s="20">
+      <c r="O51" s="20">
         <v>1759</v>
       </c>
-      <c r="O51" s="24" t="s">
+      <c r="P51" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="P51" s="9" t="s">
+      <c r="Q51" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q51" s="7" t="s">
+      <c r="R51" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="R51" s="10" t="s">
+      <c r="S51" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S51" s="7" t="s">
+      <c r="T51" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="T51" s="11"/>
-    </row>
-    <row r="52" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U51" s="11"/>
+    </row>
+    <row r="52" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A52" s="15" t="s">
         <v>268</v>
       </c>
@@ -5077,44 +5200,45 @@
       <c r="D52" s="29">
         <v>51</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="32"/>
+      <c r="F52" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F52" s="15"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
-      <c r="I52" s="8">
+      <c r="I52" s="15"/>
+      <c r="J52" s="8">
         <v>30781</v>
       </c>
-      <c r="J52" s="15">
+      <c r="K52" s="15">
         <v>99999</v>
       </c>
-      <c r="K52" s="16"/>
-      <c r="L52" s="21">
+      <c r="L52" s="16"/>
+      <c r="M52" s="21">
         <v>52.75</v>
       </c>
-      <c r="M52" s="21">
+      <c r="N52" s="21">
         <v>120.0333333</v>
       </c>
-      <c r="N52" s="20">
+      <c r="O52" s="20">
         <v>370</v>
       </c>
-      <c r="O52" s="24" t="s">
+      <c r="P52" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="15" t="s">
+      <c r="Q52" s="9"/>
+      <c r="R52" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="R52" s="10" t="s">
+      <c r="S52" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="S52" s="15" t="s">
+      <c r="T52" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="T52" s="11"/>
-    </row>
-    <row r="53" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U52" s="11"/>
+    </row>
+    <row r="53" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A53" s="7" t="s">
         <v>46</v>
       </c>
@@ -5127,42 +5251,45 @@
       <c r="D53" s="29">
         <v>52</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="32">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
-      <c r="I53" s="8">
+      <c r="I53" s="7"/>
+      <c r="J53" s="8">
         <v>36535</v>
       </c>
-      <c r="J53" s="7">
+      <c r="K53" s="7">
         <v>99999</v>
       </c>
-      <c r="K53" s="11"/>
-      <c r="L53" s="21">
+      <c r="L53" s="11"/>
+      <c r="M53" s="21">
         <v>48.75</v>
       </c>
-      <c r="M53" s="21">
+      <c r="N53" s="21">
         <v>82.366666600000002</v>
       </c>
-      <c r="N53" s="20">
+      <c r="O53" s="20">
         <v>512</v>
       </c>
-      <c r="O53" s="14" t="s">
+      <c r="P53" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="10" t="s">
+      <c r="Q53" s="9"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S53" s="7" t="s">
+      <c r="T53" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="T53" s="11"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U53" s="11"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A54" s="7" t="s">
         <v>395</v>
       </c>
@@ -5175,44 +5302,47 @@
       <c r="D54" s="29">
         <v>53</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="32">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
-      <c r="I54" s="8">
+      <c r="I54" s="7"/>
+      <c r="J54" s="8">
         <v>47005</v>
       </c>
-      <c r="J54" s="7">
+      <c r="K54" s="7">
         <v>99999</v>
       </c>
-      <c r="K54" s="11"/>
-      <c r="L54" s="21">
+      <c r="L54" s="11"/>
+      <c r="M54" s="21">
         <v>41.816666599999998</v>
       </c>
-      <c r="M54" s="21">
+      <c r="N54" s="21">
         <v>128.30000000000001</v>
       </c>
-      <c r="N54" s="20">
+      <c r="O54" s="20">
         <v>1381</v>
       </c>
-      <c r="O54" s="24" t="s">
+      <c r="P54" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="7" t="s">
+      <c r="Q54" s="9"/>
+      <c r="R54" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="R54" s="10" t="s">
+      <c r="S54" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="S54" s="7" t="s">
+      <c r="T54" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="T54" s="11"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U54" s="11"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A55" s="7" t="s">
         <v>3</v>
       </c>
@@ -5225,48 +5355,49 @@
       <c r="D55" s="29">
         <v>54</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="32"/>
+      <c r="F55" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="H55" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H55" s="7"/>
-      <c r="I55" s="8">
+      <c r="I55" s="7"/>
+      <c r="J55" s="8">
         <v>54342</v>
       </c>
-      <c r="J55" s="7">
+      <c r="K55" s="7">
         <v>99999</v>
       </c>
-      <c r="K55" s="11"/>
-      <c r="L55" s="19">
+      <c r="L55" s="11"/>
+      <c r="M55" s="19">
         <v>41.732500000000002</v>
       </c>
-      <c r="M55" s="19">
+      <c r="N55" s="19">
         <v>123.51</v>
       </c>
-      <c r="N55" s="22">
+      <c r="O55" s="22">
         <v>51</v>
       </c>
-      <c r="O55" s="24" t="s">
+      <c r="P55" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="7" t="s">
+      <c r="Q55" s="9"/>
+      <c r="R55" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="R55" s="10" t="s">
+      <c r="S55" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S55" s="7" t="s">
+      <c r="T55" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="T55" s="11"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U55" s="11"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A56" s="7" t="s">
         <v>3</v>
       </c>
@@ -5279,46 +5410,49 @@
       <c r="D56" s="29">
         <v>55</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="32">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="H56" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H56" s="7"/>
-      <c r="I56" s="8">
+      <c r="I56" s="7"/>
+      <c r="J56" s="8">
         <v>54252</v>
       </c>
-      <c r="J56" s="7">
+      <c r="K56" s="7">
         <v>99999</v>
       </c>
-      <c r="K56" s="11"/>
-      <c r="L56" s="19">
+      <c r="L56" s="11"/>
+      <c r="M56" s="19">
         <v>42.740299999999998</v>
       </c>
-      <c r="M56" s="19">
+      <c r="N56" s="19">
         <v>124.7406</v>
       </c>
-      <c r="N56" s="22">
+      <c r="O56" s="22">
         <v>196.1</v>
       </c>
-      <c r="O56" s="24" t="s">
+      <c r="P56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P56" s="9" t="s">
+      <c r="Q56" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q56" s="7" t="s">
+      <c r="R56" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="R56" s="10"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="11"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S56" s="10"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="11"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A57" s="7" t="s">
         <v>3</v>
       </c>
@@ -5331,48 +5465,49 @@
       <c r="D57" s="29">
         <v>56</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="32"/>
+      <c r="F57" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="G57" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="H57" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="8">
+      <c r="I57" s="7"/>
+      <c r="J57" s="8">
         <v>54161</v>
       </c>
-      <c r="J57" s="7">
+      <c r="K57" s="7">
         <v>99999</v>
       </c>
-      <c r="K57" s="11"/>
-      <c r="L57" s="19">
+      <c r="L57" s="11"/>
+      <c r="M57" s="19">
         <v>43.891399999999997</v>
       </c>
-      <c r="M57" s="19">
+      <c r="N57" s="19">
         <v>125.2317</v>
       </c>
-      <c r="N57" s="22">
+      <c r="O57" s="22">
         <v>236.8</v>
       </c>
-      <c r="O57" s="24" t="s">
+      <c r="P57" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="7" t="s">
+      <c r="Q57" s="9"/>
+      <c r="R57" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="R57" s="10" t="s">
+      <c r="S57" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S57" s="7" t="s">
+      <c r="T57" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="T57" s="11"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U57" s="11"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
         <v>3</v>
       </c>
@@ -5385,50 +5520,53 @@
       <c r="D58" s="29">
         <v>57</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="32">
+        <v>0</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="G58" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="H58" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="8">
+      <c r="I58" s="7"/>
+      <c r="J58" s="8">
         <v>54273</v>
       </c>
-      <c r="J58" s="7">
+      <c r="K58" s="7">
         <v>99999</v>
       </c>
-      <c r="K58" s="11"/>
-      <c r="L58" s="19">
+      <c r="L58" s="11"/>
+      <c r="M58" s="19">
         <v>42.978299999999997</v>
       </c>
-      <c r="M58" s="19">
+      <c r="N58" s="19">
         <v>126.7597</v>
       </c>
-      <c r="N58" s="22">
+      <c r="O58" s="22">
         <v>263.3</v>
       </c>
-      <c r="O58" s="24" t="s">
+      <c r="P58" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="P58" s="9" t="s">
+      <c r="Q58" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q58" s="7" t="s">
+      <c r="R58" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="R58" s="10" t="s">
+      <c r="S58" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S58" s="7" t="s">
+      <c r="T58" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="T58" s="11"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U58" s="11"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A59" s="7" t="s">
         <v>3</v>
       </c>
@@ -5441,50 +5579,53 @@
       <c r="D59" s="29">
         <v>58</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="32">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="G59" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="H59" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H59" s="7"/>
-      <c r="I59" s="8">
+      <c r="I59" s="7"/>
+      <c r="J59" s="8">
         <v>50953</v>
       </c>
-      <c r="J59" s="7">
+      <c r="K59" s="7">
         <v>99999</v>
       </c>
-      <c r="K59" s="11"/>
-      <c r="L59" s="19">
+      <c r="L59" s="11"/>
+      <c r="M59" s="19">
         <v>45.934199999999997</v>
       </c>
-      <c r="M59" s="19">
+      <c r="N59" s="19">
         <v>126.58110000000001</v>
       </c>
-      <c r="N59" s="22">
+      <c r="O59" s="22">
         <v>115</v>
       </c>
-      <c r="O59" s="24" t="s">
+      <c r="P59" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="P59" s="9" t="s">
+      <c r="Q59" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q59" s="7" t="s">
+      <c r="R59" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="R59" s="10" t="s">
+      <c r="S59" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S59" s="7" t="s">
+      <c r="T59" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="T59" s="11"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U59" s="11"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A60" s="7" t="s">
         <v>3</v>
       </c>
@@ -5497,46 +5638,49 @@
       <c r="D60" s="29">
         <v>59</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="32">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="G60" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="H60" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H60" s="7"/>
-      <c r="I60" s="8">
+      <c r="I60" s="7"/>
+      <c r="J60" s="8">
         <v>50673</v>
       </c>
-      <c r="J60" s="7">
+      <c r="K60" s="7">
         <v>99999</v>
       </c>
-      <c r="K60" s="11"/>
-      <c r="L60" s="19">
+      <c r="L60" s="11"/>
+      <c r="M60" s="19">
         <v>48.887799999999999</v>
       </c>
-      <c r="M60" s="19">
+      <c r="N60" s="19">
         <v>130.4117</v>
       </c>
-      <c r="N60" s="22">
+      <c r="O60" s="22">
         <v>90</v>
       </c>
-      <c r="O60" s="24" t="s">
+      <c r="P60" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="P60" s="9" t="s">
+      <c r="Q60" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q60" s="7" t="s">
+      <c r="R60" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="R60" s="10"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="11"/>
-    </row>
-    <row r="61" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="S60" s="10"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="11"/>
+    </row>
+    <row r="61" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A61" s="7" t="s">
         <v>3</v>
       </c>
@@ -5549,48 +5693,51 @@
       <c r="D61" s="29">
         <v>60</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="32">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="G61" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="H61" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="8">
+      <c r="I61" s="7"/>
+      <c r="J61" s="8">
         <v>50353</v>
       </c>
-      <c r="J61" s="7">
+      <c r="K61" s="7">
         <v>99999</v>
       </c>
-      <c r="K61" s="11"/>
-      <c r="L61" s="19">
+      <c r="L61" s="11"/>
+      <c r="M61" s="19">
         <v>51.726100000000002</v>
       </c>
-      <c r="M61" s="19">
+      <c r="N61" s="19">
         <v>126.63890000000001</v>
       </c>
-      <c r="N61" s="22">
+      <c r="O61" s="22">
         <v>173.9</v>
       </c>
-      <c r="O61" s="24" t="s">
+      <c r="P61" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="7" t="s">
+      <c r="Q61" s="9"/>
+      <c r="R61" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="R61" s="10" t="s">
+      <c r="S61" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S61" s="7" t="s">
+      <c r="T61" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="T61" s="11"/>
-    </row>
-    <row r="62" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U61" s="11"/>
+    </row>
+    <row r="62" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A62" s="7" t="s">
         <v>3</v>
       </c>
@@ -5603,44 +5750,47 @@
       <c r="D62" s="29">
         <v>61</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="32">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="G62" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="H62" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H62" s="7"/>
-      <c r="I62" s="8">
+      <c r="I62" s="7"/>
+      <c r="J62" s="8">
         <v>50246</v>
       </c>
-      <c r="J62" s="7">
+      <c r="K62" s="7">
         <v>99999</v>
       </c>
-      <c r="K62" s="11"/>
-      <c r="L62" s="19">
+      <c r="L62" s="11"/>
+      <c r="M62" s="19">
         <v>52.348100000000002</v>
       </c>
-      <c r="M62" s="19">
+      <c r="N62" s="19">
         <v>124.7169</v>
       </c>
-      <c r="N62" s="22">
+      <c r="O62" s="22">
         <v>359.4</v>
       </c>
-      <c r="O62" s="24" t="s">
+      <c r="P62" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="7" t="s">
+      <c r="Q62" s="9"/>
+      <c r="R62" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="R62" s="10"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="11"/>
-    </row>
-    <row r="63" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="S62" s="10"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="11"/>
+    </row>
+    <row r="63" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A63" s="7" t="s">
         <v>3</v>
       </c>
@@ -5653,44 +5803,47 @@
       <c r="D63" s="29">
         <v>62</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="32">
+        <v>0</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="G63" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="H63" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="8">
+      <c r="I63" s="7"/>
+      <c r="J63" s="8">
         <v>50247</v>
       </c>
-      <c r="J63" s="7">
+      <c r="K63" s="7">
         <v>99999</v>
       </c>
-      <c r="K63" s="11"/>
-      <c r="L63" s="19">
+      <c r="L63" s="11"/>
+      <c r="M63" s="19">
         <v>52.036099999999998</v>
       </c>
-      <c r="M63" s="19">
+      <c r="N63" s="19">
         <v>123.5722</v>
       </c>
-      <c r="N63" s="22">
+      <c r="O63" s="22">
         <v>514.5</v>
       </c>
-      <c r="O63" s="24" t="s">
+      <c r="P63" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="7" t="s">
+      <c r="Q63" s="9"/>
+      <c r="R63" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="R63" s="10"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="11"/>
-    </row>
-    <row r="64" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="S63" s="10"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="11"/>
+    </row>
+    <row r="64" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A64" s="7" t="s">
         <v>3</v>
       </c>
@@ -5703,50 +5856,53 @@
       <c r="D64" s="29">
         <v>63</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="32">
+        <v>0</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="G64" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="H64" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H64" s="7"/>
-      <c r="I64" s="8">
+      <c r="I64" s="7"/>
+      <c r="J64" s="8">
         <v>50136</v>
       </c>
-      <c r="J64" s="7">
+      <c r="K64" s="7">
         <v>99999</v>
       </c>
-      <c r="K64" s="11"/>
-      <c r="L64" s="19">
+      <c r="L64" s="11"/>
+      <c r="M64" s="19">
         <v>52.974400000000003</v>
       </c>
-      <c r="M64" s="19">
+      <c r="N64" s="19">
         <v>122.51309999999999</v>
       </c>
-      <c r="N64" s="22">
+      <c r="O64" s="22">
         <v>433.9</v>
       </c>
-      <c r="O64" s="24" t="s">
+      <c r="P64" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="P64" s="9" t="s">
+      <c r="Q64" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q64" s="7" t="s">
+      <c r="R64" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="R64" s="10" t="s">
+      <c r="S64" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S64" s="7" t="s">
+      <c r="T64" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="T64" s="11"/>
-    </row>
-    <row r="65" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U64" s="11"/>
+    </row>
+    <row r="65" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A65" s="7" t="s">
         <v>3</v>
       </c>
@@ -5759,44 +5915,47 @@
       <c r="D65" s="29">
         <v>64</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="32">
+        <v>0</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H65" s="7"/>
-      <c r="I65" s="8">
+      <c r="I65" s="7"/>
+      <c r="J65" s="8">
         <v>50137</v>
       </c>
-      <c r="J65" s="7">
+      <c r="K65" s="7">
         <v>99999</v>
       </c>
-      <c r="K65" s="11"/>
-      <c r="L65" s="19">
+      <c r="L65" s="11"/>
+      <c r="M65" s="19">
         <v>53.468899999999998</v>
       </c>
-      <c r="M65" s="19">
+      <c r="N65" s="19">
         <v>122.36190000000001</v>
       </c>
-      <c r="N65" s="22">
+      <c r="O65" s="22">
         <v>291.60000000000002</v>
       </c>
-      <c r="O65" s="24" t="s">
+      <c r="P65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="7" t="s">
+      <c r="Q65" s="9"/>
+      <c r="R65" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="R65" s="10"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="11"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S65" s="10"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="11"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
         <v>3</v>
       </c>
@@ -5809,46 +5968,49 @@
       <c r="D66" s="29">
         <v>65</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="32">
+        <v>0</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="G66" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="H66" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H66" s="7"/>
-      <c r="I66" s="8">
+      <c r="I66" s="7"/>
+      <c r="J66" s="8">
         <v>50431</v>
       </c>
-      <c r="J66" s="7">
+      <c r="K66" s="7">
         <v>99999</v>
       </c>
-      <c r="K66" s="11"/>
-      <c r="L66" s="19">
+      <c r="L66" s="11"/>
+      <c r="M66" s="19">
         <v>50.782800000000002</v>
       </c>
-      <c r="M66" s="19">
+      <c r="N66" s="19">
         <v>121.51300000000001</v>
       </c>
-      <c r="N66" s="22">
+      <c r="O66" s="22">
         <v>716.7</v>
       </c>
-      <c r="O66" s="24" t="s">
+      <c r="P66" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="P66" s="9" t="s">
+      <c r="Q66" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q66" s="7" t="s">
+      <c r="R66" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="R66" s="10"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="11"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S66" s="10"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="11"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
         <v>3</v>
       </c>
@@ -5861,50 +6023,53 @@
       <c r="D67" s="29">
         <v>66</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="32">
+        <v>0</v>
+      </c>
+      <c r="F67" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="G67" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="H67" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H67" s="7"/>
-      <c r="I67" s="8">
+      <c r="I67" s="7"/>
+      <c r="J67" s="8">
         <v>50434</v>
       </c>
-      <c r="J67" s="7">
+      <c r="K67" s="7">
         <v>99999</v>
       </c>
-      <c r="K67" s="11"/>
-      <c r="L67" s="19">
+      <c r="L67" s="11"/>
+      <c r="M67" s="19">
         <v>50.478099999999998</v>
       </c>
-      <c r="M67" s="19">
+      <c r="N67" s="19">
         <v>121.6867</v>
       </c>
-      <c r="N67" s="22">
+      <c r="O67" s="22">
         <v>734.8</v>
       </c>
-      <c r="O67" s="24" t="s">
+      <c r="P67" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="P67" s="9" t="s">
+      <c r="Q67" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q67" s="7" t="s">
+      <c r="R67" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="R67" s="10" t="s">
+      <c r="S67" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S67" s="7" t="s">
+      <c r="T67" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="T67" s="11"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U67" s="11"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
         <v>3</v>
       </c>
@@ -5917,44 +6082,47 @@
       <c r="D68" s="29">
         <v>67</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="32">
+        <v>0</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="G68" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="H68" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H68" s="7"/>
-      <c r="I68" s="8">
+      <c r="I68" s="7"/>
+      <c r="J68" s="8">
         <v>50425</v>
       </c>
-      <c r="J68" s="7">
+      <c r="K68" s="7">
         <v>99999</v>
       </c>
-      <c r="K68" s="11"/>
-      <c r="L68" s="19">
+      <c r="L68" s="11"/>
+      <c r="M68" s="19">
         <v>50.236899999999999</v>
       </c>
-      <c r="M68" s="19">
+      <c r="N68" s="19">
         <v>120.16719999999999</v>
       </c>
-      <c r="N68" s="22">
+      <c r="O68" s="22">
         <v>581.4</v>
       </c>
-      <c r="O68" s="24" t="s">
+      <c r="P68" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="7" t="s">
+      <c r="Q68" s="9"/>
+      <c r="R68" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="R68" s="10"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="11"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S68" s="10"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="11"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A69" s="7" t="s">
         <v>3</v>
       </c>
@@ -5967,44 +6135,45 @@
       <c r="D69" s="29">
         <v>68</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="32"/>
+      <c r="F69" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="G69" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="H69" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H69" s="7"/>
-      <c r="I69" s="8">
+      <c r="I69" s="7"/>
+      <c r="J69" s="8">
         <v>50524</v>
       </c>
-      <c r="J69" s="7">
+      <c r="K69" s="7">
         <v>99999</v>
       </c>
-      <c r="K69" s="11"/>
-      <c r="L69" s="19">
+      <c r="L69" s="11"/>
+      <c r="M69" s="19">
         <v>49.3414</v>
       </c>
-      <c r="M69" s="19">
+      <c r="N69" s="19">
         <v>119.4569</v>
       </c>
-      <c r="N69" s="22">
+      <c r="O69" s="22">
         <v>597.4</v>
       </c>
-      <c r="O69" s="24" t="s">
+      <c r="P69" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="7" t="s">
+      <c r="Q69" s="9"/>
+      <c r="R69" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="R69" s="10"/>
-      <c r="S69" s="7"/>
-      <c r="T69" s="11"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S69" s="10"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="11"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A70" s="7" t="s">
         <v>3</v>
       </c>
@@ -6017,48 +6186,51 @@
       <c r="D70" s="29">
         <v>69</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="32">
+        <v>0</v>
+      </c>
+      <c r="F70" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="G70" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="H70" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H70" s="7"/>
-      <c r="I70" s="8">
+      <c r="I70" s="7"/>
+      <c r="J70" s="8">
         <v>50527</v>
       </c>
-      <c r="J70" s="7">
+      <c r="K70" s="7">
         <v>99999</v>
       </c>
-      <c r="K70" s="11"/>
-      <c r="L70" s="19">
+      <c r="L70" s="11"/>
+      <c r="M70" s="19">
         <v>49.25</v>
       </c>
-      <c r="M70" s="19">
+      <c r="N70" s="19">
         <v>119.7003</v>
       </c>
-      <c r="N70" s="22">
+      <c r="O70" s="22">
         <v>649.70000000000005</v>
       </c>
-      <c r="O70" s="24" t="s">
+      <c r="P70" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="7" t="s">
+      <c r="Q70" s="9"/>
+      <c r="R70" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="R70" s="10" t="s">
+      <c r="S70" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S70" s="7" t="s">
+      <c r="T70" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="T70" s="11"/>
-    </row>
-    <row r="71" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U70" s="11"/>
+    </row>
+    <row r="71" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A71" s="7" t="s">
         <v>3</v>
       </c>
@@ -6071,44 +6243,45 @@
       <c r="D71" s="29">
         <v>70</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="32"/>
+      <c r="F71" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="G71" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="H71" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H71" s="7"/>
-      <c r="I71" s="8">
+      <c r="I71" s="7"/>
+      <c r="J71" s="8">
         <v>50525</v>
       </c>
-      <c r="J71" s="7">
+      <c r="K71" s="7">
         <v>99999</v>
       </c>
-      <c r="K71" s="11"/>
-      <c r="L71" s="19">
+      <c r="L71" s="11"/>
+      <c r="M71" s="19">
         <v>49.132800000000003</v>
       </c>
-      <c r="M71" s="19">
+      <c r="N71" s="19">
         <v>119.7419</v>
       </c>
-      <c r="N71" s="22">
+      <c r="O71" s="22">
         <v>617.29999999999995</v>
       </c>
-      <c r="O71" s="24" t="s">
+      <c r="P71" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="7" t="s">
+      <c r="Q71" s="9"/>
+      <c r="R71" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="R71" s="10"/>
-      <c r="S71" s="7"/>
-      <c r="T71" s="11"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S71" s="10"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="11"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A72" s="7" t="s">
         <v>3</v>
       </c>
@@ -6121,44 +6294,47 @@
       <c r="D72" s="29">
         <v>71</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="32">
+        <v>0</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="G72" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="H72" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H72" s="7"/>
-      <c r="I72" s="8">
+      <c r="I72" s="7"/>
+      <c r="J72" s="8">
         <v>50526</v>
       </c>
-      <c r="J72" s="7">
+      <c r="K72" s="7">
         <v>99999</v>
       </c>
-      <c r="K72" s="11"/>
-      <c r="L72" s="19">
+      <c r="L72" s="11"/>
+      <c r="M72" s="19">
         <v>49.283099999999997</v>
       </c>
-      <c r="M72" s="19">
+      <c r="N72" s="19">
         <v>120.6878</v>
       </c>
-      <c r="N72" s="22">
+      <c r="O72" s="22">
         <v>654.9</v>
       </c>
-      <c r="O72" s="24" t="s">
+      <c r="P72" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="7" t="s">
+      <c r="Q72" s="9"/>
+      <c r="R72" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="R72" s="10"/>
-      <c r="S72" s="7"/>
-      <c r="T72" s="11"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S72" s="10"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="11"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A73" s="7" t="s">
         <v>3</v>
       </c>
@@ -6171,48 +6347,51 @@
       <c r="D73" s="29">
         <v>72</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="32">
+        <v>0</v>
+      </c>
+      <c r="F73" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="G73" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="H73" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H73" s="7"/>
-      <c r="I73" s="8">
+      <c r="I73" s="7"/>
+      <c r="J73" s="8">
         <v>50727</v>
       </c>
-      <c r="J73" s="7">
+      <c r="K73" s="7">
         <v>99999</v>
       </c>
-      <c r="K73" s="11"/>
-      <c r="L73" s="19">
+      <c r="L73" s="11"/>
+      <c r="M73" s="19">
         <v>47.180799999999998</v>
       </c>
-      <c r="M73" s="19">
+      <c r="N73" s="19">
         <v>119.9344</v>
       </c>
-      <c r="N73" s="22">
+      <c r="O73" s="22">
         <v>997</v>
       </c>
-      <c r="O73" s="24" t="s">
+      <c r="P73" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="7" t="s">
+      <c r="Q73" s="9"/>
+      <c r="R73" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="R73" s="10" t="s">
+      <c r="S73" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S73" s="7" t="s">
+      <c r="T73" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="T73" s="11"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U73" s="11"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A74" s="7" t="s">
         <v>3</v>
       </c>
@@ -6225,44 +6404,47 @@
       <c r="D74" s="29">
         <v>73</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="32">
+        <v>0</v>
+      </c>
+      <c r="F74" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="H74" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H74" s="7"/>
-      <c r="I74" s="8">
+      <c r="I74" s="7"/>
+      <c r="J74" s="8">
         <v>53392</v>
       </c>
-      <c r="J74" s="7">
+      <c r="K74" s="7">
         <v>99999</v>
       </c>
-      <c r="K74" s="11"/>
-      <c r="L74" s="19">
+      <c r="L74" s="11"/>
+      <c r="M74" s="19">
         <v>41.86</v>
       </c>
-      <c r="M74" s="19">
+      <c r="N74" s="19">
         <v>114.5603</v>
       </c>
-      <c r="N74" s="22">
+      <c r="O74" s="22">
         <v>1434.5</v>
       </c>
-      <c r="O74" s="24" t="s">
+      <c r="P74" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="P74" s="9" t="s">
+      <c r="Q74" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="10"/>
-      <c r="S74" s="7"/>
-      <c r="T74" s="11"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="R74" s="7"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="11"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A75" s="7" t="s">
         <v>3</v>
       </c>
@@ -6275,46 +6457,49 @@
       <c r="D75" s="29">
         <v>74</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="32">
+        <v>0</v>
+      </c>
+      <c r="F75" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="G75" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="H75" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H75" s="7"/>
-      <c r="I75" s="8">
+      <c r="I75" s="7"/>
+      <c r="J75" s="8">
         <v>55294</v>
       </c>
-      <c r="J75" s="7">
+      <c r="K75" s="7">
         <v>99999</v>
       </c>
-      <c r="K75" s="11"/>
-      <c r="L75" s="19">
+      <c r="L75" s="11"/>
+      <c r="M75" s="19">
         <v>32.269399999999997</v>
       </c>
-      <c r="M75" s="19">
+      <c r="N75" s="19">
         <v>91.679400000000001</v>
       </c>
-      <c r="N75" s="22">
+      <c r="O75" s="22">
         <v>4686</v>
       </c>
-      <c r="O75" s="24" t="s">
+      <c r="P75" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="P75" s="9" t="s">
+      <c r="Q75" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q75" s="7" t="s">
+      <c r="R75" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="R75" s="10"/>
-      <c r="S75" s="7"/>
-      <c r="T75" s="11"/>
-    </row>
-    <row r="76" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="S75" s="10"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="11"/>
+    </row>
+    <row r="76" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A76" s="7" t="s">
         <v>3</v>
       </c>
@@ -6327,46 +6512,49 @@
       <c r="D76" s="29">
         <v>75</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="32">
+        <v>0</v>
+      </c>
+      <c r="F76" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="G76" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="H76" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H76" s="7"/>
-      <c r="I76" s="8">
+      <c r="I76" s="7"/>
+      <c r="J76" s="8">
         <v>56034</v>
       </c>
-      <c r="J76" s="7">
+      <c r="K76" s="7">
         <v>99999</v>
       </c>
-      <c r="K76" s="11"/>
-      <c r="L76" s="19">
+      <c r="L76" s="11"/>
+      <c r="M76" s="19">
         <v>33.805300000000003</v>
       </c>
-      <c r="M76" s="19">
+      <c r="N76" s="19">
         <v>97.137799999999999</v>
       </c>
-      <c r="N76" s="22">
+      <c r="O76" s="22">
         <v>4415.6000000000004</v>
       </c>
-      <c r="O76" s="24" t="s">
+      <c r="P76" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P76" s="9" t="s">
+      <c r="Q76" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q76" s="7" t="s">
+      <c r="R76" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="R76" s="10"/>
-      <c r="S76" s="7"/>
-      <c r="T76" s="11"/>
-    </row>
-    <row r="77" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="S76" s="10"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="11"/>
+    </row>
+    <row r="77" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A77" s="7" t="s">
         <v>3</v>
       </c>
@@ -6379,50 +6567,53 @@
       <c r="D77" s="29">
         <v>76</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="32">
+        <v>0</v>
+      </c>
+      <c r="F77" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="G77" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="H77" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H77" s="7"/>
-      <c r="I77" s="8">
+      <c r="I77" s="7"/>
+      <c r="J77" s="8">
         <v>52908</v>
       </c>
-      <c r="J77" s="7">
+      <c r="K77" s="7">
         <v>99999</v>
       </c>
-      <c r="K77" s="11"/>
-      <c r="L77" s="19">
+      <c r="L77" s="11"/>
+      <c r="M77" s="19">
         <v>35.215800000000002</v>
       </c>
-      <c r="M77" s="19">
+      <c r="N77" s="19">
         <v>93.080799999999996</v>
       </c>
-      <c r="N77" s="22">
+      <c r="O77" s="22">
         <v>4612</v>
       </c>
-      <c r="O77" s="24" t="s">
+      <c r="P77" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="P77" s="9" t="s">
+      <c r="Q77" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q77" s="7" t="s">
+      <c r="R77" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="R77" s="10" t="s">
+      <c r="S77" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S77" s="7" t="s">
+      <c r="T77" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="T77" s="11"/>
-    </row>
-    <row r="78" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U77" s="11"/>
+    </row>
+    <row r="78" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A78" s="7" t="s">
         <v>3</v>
       </c>
@@ -6435,50 +6626,53 @@
       <c r="D78" s="29">
         <v>77</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="32">
+        <v>0</v>
+      </c>
+      <c r="F78" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="G78" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="H78" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="H78" s="7"/>
-      <c r="I78" s="8">
+      <c r="I78" s="7"/>
+      <c r="J78" s="8">
         <v>52323</v>
       </c>
-      <c r="J78" s="7">
+      <c r="K78" s="7">
         <v>99999</v>
       </c>
-      <c r="K78" s="11"/>
-      <c r="L78" s="19">
+      <c r="L78" s="11"/>
+      <c r="M78" s="19">
         <v>41.804699999999997</v>
       </c>
-      <c r="M78" s="19">
+      <c r="N78" s="19">
         <v>97.031899999999993</v>
       </c>
-      <c r="N78" s="22">
+      <c r="O78" s="22">
         <v>1773.7</v>
       </c>
-      <c r="O78" s="24" t="s">
+      <c r="P78" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="P78" s="9" t="s">
+      <c r="Q78" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q78" s="7" t="s">
+      <c r="R78" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="R78" s="10" t="s">
+      <c r="S78" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S78" s="7" t="s">
+      <c r="T78" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="T78" s="11"/>
-    </row>
-    <row r="79" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U78" s="11"/>
+    </row>
+    <row r="79" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A79" s="7" t="s">
         <v>3</v>
       </c>
@@ -6491,46 +6685,49 @@
       <c r="D79" s="29">
         <v>78</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="32">
+        <v>0</v>
+      </c>
+      <c r="F79" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="G79" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="H79" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H79" s="7"/>
-      <c r="I79" s="8">
+      <c r="I79" s="7"/>
+      <c r="J79" s="8">
         <v>52101</v>
       </c>
-      <c r="J79" s="7">
+      <c r="K79" s="7">
         <v>99999</v>
       </c>
-      <c r="K79" s="11"/>
-      <c r="L79" s="19">
+      <c r="L79" s="11"/>
+      <c r="M79" s="19">
         <v>43.594999999999999</v>
       </c>
-      <c r="M79" s="19">
+      <c r="N79" s="19">
         <v>93.045000000000002</v>
       </c>
-      <c r="N79" s="22">
+      <c r="O79" s="22">
         <v>1679.2</v>
       </c>
-      <c r="O79" s="24" t="s">
+      <c r="P79" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="P79" s="9" t="s">
+      <c r="Q79" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q79" s="7" t="s">
+      <c r="R79" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="R79" s="10"/>
-      <c r="S79" s="7"/>
-      <c r="T79" s="11"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S79" s="10"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="11"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A80" s="7" t="s">
         <v>3</v>
       </c>
@@ -6543,46 +6740,49 @@
       <c r="D80" s="29">
         <v>79</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="32">
+        <v>0</v>
+      </c>
+      <c r="F80" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="G80" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="H80" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H80" s="7"/>
-      <c r="I80" s="8">
+      <c r="I80" s="7"/>
+      <c r="J80" s="8">
         <v>51186</v>
       </c>
-      <c r="J80" s="7">
+      <c r="K80" s="7">
         <v>99999</v>
       </c>
-      <c r="K80" s="11"/>
-      <c r="L80" s="19">
+      <c r="L80" s="11"/>
+      <c r="M80" s="19">
         <v>46.664999999999999</v>
       </c>
-      <c r="M80" s="19">
+      <c r="N80" s="19">
         <v>90.377799999999993</v>
       </c>
-      <c r="N80" s="22">
+      <c r="O80" s="22">
         <v>1219.0999999999999</v>
       </c>
-      <c r="O80" s="24" t="s">
+      <c r="P80" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="P80" s="9" t="s">
+      <c r="Q80" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q80" s="7" t="s">
+      <c r="R80" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="R80" s="10"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="11"/>
-    </row>
-    <row r="81" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="S80" s="10"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="11"/>
+    </row>
+    <row r="81" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="7" t="s">
         <v>3</v>
       </c>
@@ -6595,50 +6795,53 @@
       <c r="D81" s="29">
         <v>80</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="32">
+        <v>0</v>
+      </c>
+      <c r="F81" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="G81" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="H81" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="I81" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I81" s="8">
+      <c r="J81" s="8">
         <v>51076</v>
       </c>
-      <c r="J81" s="7">
+      <c r="K81" s="7">
         <v>99999</v>
       </c>
-      <c r="K81" s="11"/>
-      <c r="L81" s="19">
+      <c r="L81" s="11"/>
+      <c r="M81" s="19">
         <v>47.741100000000003</v>
       </c>
-      <c r="M81" s="19">
+      <c r="N81" s="19">
         <v>88.071100000000001</v>
       </c>
-      <c r="N81" s="22">
+      <c r="O81" s="22">
         <v>734.8</v>
       </c>
-      <c r="O81" s="24" t="s">
+      <c r="P81" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="P81" s="9"/>
-      <c r="Q81" s="7" t="s">
+      <c r="Q81" s="9"/>
+      <c r="R81" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="R81" s="10" t="s">
+      <c r="S81" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S81" s="7" t="s">
+      <c r="T81" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="T81" s="11"/>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U81" s="11"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A82" s="7" t="s">
         <v>3</v>
       </c>
@@ -6651,50 +6854,51 @@
       <c r="D82" s="29">
         <v>81</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="32"/>
+      <c r="F82" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="G82" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G82" s="7" t="s">
+      <c r="H82" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H82" s="7"/>
-      <c r="I82" s="8">
+      <c r="I82" s="7"/>
+      <c r="J82" s="8">
         <v>51573</v>
       </c>
-      <c r="J82" s="7">
+      <c r="K82" s="7">
         <v>99999</v>
       </c>
-      <c r="K82" s="11"/>
-      <c r="L82" s="19">
+      <c r="L82" s="11"/>
+      <c r="M82" s="19">
         <v>42.950299999999999</v>
       </c>
-      <c r="M82" s="19">
+      <c r="N82" s="19">
         <v>89.230800000000002</v>
       </c>
-      <c r="N82" s="22">
+      <c r="O82" s="22">
         <v>39</v>
       </c>
-      <c r="O82" s="24" t="s">
+      <c r="P82" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="P82" s="9" t="s">
+      <c r="Q82" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q82" s="7" t="s">
+      <c r="R82" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="R82" s="10" t="s">
+      <c r="S82" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S82" s="7" t="s">
+      <c r="T82" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="T82" s="11"/>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U82" s="11"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A83" s="7" t="s">
         <v>3</v>
       </c>
@@ -6707,50 +6911,53 @@
       <c r="D83" s="29">
         <v>82</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="32">
+        <v>0</v>
+      </c>
+      <c r="F83" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="G83" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="H83" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H83" s="7"/>
-      <c r="I83" s="8">
+      <c r="I83" s="7"/>
+      <c r="J83" s="8">
         <v>51463</v>
       </c>
-      <c r="J83" s="7">
+      <c r="K83" s="7">
         <v>99999</v>
       </c>
-      <c r="K83" s="11"/>
-      <c r="L83" s="19">
+      <c r="L83" s="11"/>
+      <c r="M83" s="19">
         <v>43.789200000000001</v>
       </c>
-      <c r="M83" s="19">
+      <c r="N83" s="19">
         <v>87.645799999999994</v>
       </c>
-      <c r="N83" s="22">
+      <c r="O83" s="22">
         <v>935</v>
       </c>
-      <c r="O83" s="24" t="s">
+      <c r="P83" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="P83" s="9" t="s">
+      <c r="Q83" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q83" s="7" t="s">
+      <c r="R83" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="R83" s="10" t="s">
+      <c r="S83" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S83" s="7" t="s">
+      <c r="T83" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="T83" s="11"/>
-    </row>
-    <row r="84" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U83" s="11"/>
+    </row>
+    <row r="84" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A84" s="7" t="s">
         <v>3</v>
       </c>
@@ -6763,50 +6970,53 @@
       <c r="D84" s="29">
         <v>83</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="32">
+        <v>0</v>
+      </c>
+      <c r="F84" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="G84" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="H84" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H84" s="7"/>
-      <c r="I84" s="8">
+      <c r="I84" s="7"/>
+      <c r="J84" s="8">
         <v>51542</v>
       </c>
-      <c r="J84" s="7">
+      <c r="K84" s="7">
         <v>99999</v>
       </c>
-      <c r="K84" s="11"/>
-      <c r="L84" s="19">
+      <c r="L84" s="11"/>
+      <c r="M84" s="19">
         <v>43.0336</v>
       </c>
-      <c r="M84" s="19">
+      <c r="N84" s="19">
         <v>84.149199999999993</v>
       </c>
-      <c r="N84" s="22">
+      <c r="O84" s="22">
         <v>2459.1</v>
       </c>
-      <c r="O84" s="24" t="s">
+      <c r="P84" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="P84" s="9" t="s">
+      <c r="Q84" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q84" s="7" t="s">
+      <c r="R84" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="R84" s="10" t="s">
+      <c r="S84" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S84" s="7" t="s">
+      <c r="T84" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="T84" s="11"/>
-    </row>
-    <row r="85" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U84" s="11"/>
+    </row>
+    <row r="85" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A85" s="7" t="s">
         <v>3</v>
       </c>
@@ -6819,46 +7029,49 @@
       <c r="D85" s="29">
         <v>84</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="32">
+        <v>0</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="G85" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="H85" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H85" s="7"/>
-      <c r="I85" s="8">
+      <c r="I85" s="7"/>
+      <c r="J85" s="8">
         <v>51437</v>
       </c>
-      <c r="J85" s="7">
+      <c r="K85" s="7">
         <v>99999</v>
       </c>
-      <c r="K85" s="11"/>
-      <c r="L85" s="19">
+      <c r="L85" s="11"/>
+      <c r="M85" s="19">
         <v>43.1417</v>
       </c>
-      <c r="M85" s="19">
+      <c r="N85" s="19">
         <v>81.125600000000006</v>
       </c>
-      <c r="N85" s="22">
+      <c r="O85" s="22">
         <v>1850.8</v>
       </c>
-      <c r="O85" s="24" t="s">
+      <c r="P85" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="P85" s="9" t="s">
+      <c r="Q85" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q85" s="7" t="s">
+      <c r="R85" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="R85" s="10"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="11"/>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S85" s="10"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="11"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A86" s="7" t="s">
         <v>3</v>
       </c>
@@ -6871,50 +7084,53 @@
       <c r="D86" s="29">
         <v>85</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E86" s="32">
+        <v>0</v>
+      </c>
+      <c r="F86" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="G86" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G86" s="7" t="s">
+      <c r="H86" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H86" s="7"/>
-      <c r="I86" s="8">
+      <c r="I86" s="7"/>
+      <c r="J86" s="8">
         <v>53463</v>
       </c>
-      <c r="J86" s="7">
+      <c r="K86" s="7">
         <v>99999</v>
       </c>
-      <c r="K86" s="11"/>
-      <c r="L86" s="19">
+      <c r="L86" s="11"/>
+      <c r="M86" s="19">
         <v>40.855800000000002</v>
       </c>
-      <c r="M86" s="19">
+      <c r="N86" s="19">
         <v>111.5714</v>
       </c>
-      <c r="N86" s="22">
+      <c r="O86" s="22">
         <v>1153.5</v>
       </c>
-      <c r="O86" s="24" t="s">
+      <c r="P86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="P86" s="9" t="s">
+      <c r="Q86" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q86" s="7" t="s">
+      <c r="R86" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="R86" s="10" t="s">
+      <c r="S86" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S86" s="7" t="s">
+      <c r="T86" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="T86" s="11"/>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U86" s="11"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A87" s="7" t="s">
         <v>3</v>
       </c>
@@ -6927,46 +7143,47 @@
       <c r="D87" s="29">
         <v>86</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="32"/>
+      <c r="F87" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7" t="s">
+      <c r="G87" s="7"/>
+      <c r="H87" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H87" s="7"/>
-      <c r="I87" s="8">
+      <c r="I87" s="7"/>
+      <c r="J87" s="8">
         <v>54511</v>
       </c>
-      <c r="J87" s="7">
+      <c r="K87" s="7">
         <v>99999</v>
       </c>
-      <c r="K87" s="11"/>
-      <c r="L87" s="19">
+      <c r="L87" s="11"/>
+      <c r="M87" s="19">
         <v>39.806100000000001</v>
       </c>
-      <c r="M87" s="19">
+      <c r="N87" s="19">
         <v>116.46939999999999</v>
       </c>
-      <c r="N87" s="22">
+      <c r="O87" s="22">
         <v>32.799999999999997</v>
       </c>
-      <c r="O87" s="24" t="s">
+      <c r="P87" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="P87" s="9" t="s">
+      <c r="Q87" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q87" s="7"/>
-      <c r="R87" s="10" t="s">
+      <c r="R87" s="7"/>
+      <c r="S87" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S87" s="7" t="s">
+      <c r="T87" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="T87" s="11"/>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U87" s="11"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A88" s="7" t="s">
         <v>3</v>
       </c>
@@ -6979,42 +7196,43 @@
       <c r="D88" s="29">
         <v>87</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="32"/>
+      <c r="F88" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7" t="s">
+      <c r="G88" s="7"/>
+      <c r="H88" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="H88" s="7"/>
-      <c r="I88" s="8">
+      <c r="I88" s="7"/>
+      <c r="J88" s="8">
         <v>54517</v>
       </c>
-      <c r="J88" s="7">
+      <c r="K88" s="7">
         <v>99999</v>
       </c>
-      <c r="K88" s="11"/>
-      <c r="L88" s="19">
+      <c r="L88" s="11"/>
+      <c r="M88" s="19">
         <v>39.0747</v>
       </c>
-      <c r="M88" s="19">
+      <c r="N88" s="19">
         <v>117.20610000000001</v>
       </c>
-      <c r="N88" s="22">
+      <c r="O88" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O88" s="24" t="s">
+      <c r="P88" s="24" t="s">
         <v>490</v>
       </c>
-      <c r="P88" s="9" t="s">
+      <c r="Q88" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="10"/>
-      <c r="S88" s="7"/>
-      <c r="T88" s="11"/>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="R88" s="7"/>
+      <c r="S88" s="10"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="11"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A89" s="7" t="s">
         <v>3</v>
       </c>
@@ -7027,50 +7245,51 @@
       <c r="D89" s="29">
         <v>88</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="32"/>
+      <c r="F89" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="G89" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G89" s="7" t="s">
+      <c r="H89" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="H89" s="7"/>
-      <c r="I89" s="8">
+      <c r="I89" s="7"/>
+      <c r="J89" s="8">
         <v>53614</v>
       </c>
-      <c r="J89" s="7">
+      <c r="K89" s="7">
         <v>99999</v>
       </c>
-      <c r="K89" s="11"/>
-      <c r="L89" s="19">
+      <c r="L89" s="11"/>
+      <c r="M89" s="19">
         <v>38.471400000000003</v>
       </c>
-      <c r="M89" s="19">
+      <c r="N89" s="19">
         <v>106.20780000000001</v>
       </c>
-      <c r="N89" s="22">
+      <c r="O89" s="22">
         <v>1111.5999999999999</v>
       </c>
-      <c r="O89" s="24" t="s">
+      <c r="P89" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="P89" s="9" t="s">
+      <c r="Q89" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q89" s="7" t="s">
+      <c r="R89" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="R89" s="10" t="s">
+      <c r="S89" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S89" s="7" t="s">
+      <c r="T89" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="T89" s="11"/>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U89" s="11"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A90" s="7" t="s">
         <v>3</v>
       </c>
@@ -7083,48 +7302,49 @@
       <c r="D90" s="29">
         <v>89</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" s="32"/>
+      <c r="F90" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="G90" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G90" s="7" t="s">
+      <c r="H90" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H90" s="7"/>
-      <c r="I90" s="8">
+      <c r="I90" s="7"/>
+      <c r="J90" s="8">
         <v>53698</v>
       </c>
-      <c r="J90" s="7">
+      <c r="K90" s="7">
         <v>99999</v>
       </c>
-      <c r="K90" s="11"/>
-      <c r="L90" s="19">
+      <c r="L90" s="11"/>
+      <c r="M90" s="19">
         <v>38.0197</v>
       </c>
-      <c r="M90" s="19">
+      <c r="N90" s="19">
         <v>114.3989</v>
       </c>
-      <c r="N90" s="22">
+      <c r="O90" s="22">
         <v>89.3</v>
       </c>
-      <c r="O90" s="24" t="s">
+      <c r="P90" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="P90" s="9" t="s">
+      <c r="Q90" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="10" t="s">
+      <c r="R90" s="7"/>
+      <c r="S90" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S90" s="7" t="s">
+      <c r="T90" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="T90" s="11"/>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U90" s="11"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A91" s="7" t="s">
         <v>3</v>
       </c>
@@ -7137,50 +7357,51 @@
       <c r="D91" s="29">
         <v>90</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="32"/>
+      <c r="F91" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="G91" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="H91" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H91" s="7"/>
-      <c r="I91" s="8">
+      <c r="I91" s="7"/>
+      <c r="J91" s="8">
         <v>53772</v>
       </c>
-      <c r="J91" s="7">
+      <c r="K91" s="7">
         <v>99999</v>
       </c>
-      <c r="K91" s="11"/>
-      <c r="L91" s="19">
+      <c r="L91" s="11"/>
+      <c r="M91" s="19">
         <v>37.620600000000003</v>
       </c>
-      <c r="M91" s="19">
+      <c r="N91" s="19">
         <v>112.57640000000001</v>
       </c>
-      <c r="N91" s="22">
+      <c r="O91" s="22">
         <v>776.3</v>
       </c>
-      <c r="O91" s="24" t="s">
+      <c r="P91" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="P91" s="9" t="s">
+      <c r="Q91" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q91" s="7" t="s">
+      <c r="R91" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="R91" s="10" t="s">
+      <c r="S91" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S91" s="7" t="s">
+      <c r="T91" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="T91" s="11"/>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U91" s="11"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A92" s="7" t="s">
         <v>3</v>
       </c>
@@ -7193,50 +7414,51 @@
       <c r="D92" s="29">
         <v>91</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="32"/>
+      <c r="F92" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="G92" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G92" s="7" t="s">
+      <c r="H92" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H92" s="7"/>
-      <c r="I92" s="8">
+      <c r="I92" s="7"/>
+      <c r="J92" s="8">
         <v>52866</v>
       </c>
-      <c r="J92" s="7">
+      <c r="K92" s="7">
         <v>99999</v>
       </c>
-      <c r="K92" s="11"/>
-      <c r="L92" s="19">
+      <c r="L92" s="11"/>
+      <c r="M92" s="19">
         <v>36.664400000000001</v>
       </c>
-      <c r="M92" s="19">
+      <c r="N92" s="19">
         <v>101.73309999999999</v>
       </c>
-      <c r="N92" s="22">
+      <c r="O92" s="22">
         <v>2434.1999999999998</v>
       </c>
-      <c r="O92" s="24" t="s">
+      <c r="P92" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="P92" s="9" t="s">
+      <c r="Q92" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q92" s="7" t="s">
+      <c r="R92" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="R92" s="10" t="s">
+      <c r="S92" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S92" s="7" t="s">
+      <c r="T92" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="T92" s="11"/>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U92" s="11"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A93" s="7" t="s">
         <v>3</v>
       </c>
@@ -7249,50 +7471,51 @@
       <c r="D93" s="29">
         <v>92</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="32"/>
+      <c r="F93" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="G93" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G93" s="7" t="s">
+      <c r="H93" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H93" s="7"/>
-      <c r="I93" s="8">
+      <c r="I93" s="7"/>
+      <c r="J93" s="8">
         <v>54823</v>
       </c>
-      <c r="J93" s="7">
+      <c r="K93" s="7">
         <v>99999</v>
       </c>
-      <c r="K93" s="11"/>
-      <c r="L93" s="19">
+      <c r="L93" s="11"/>
+      <c r="M93" s="19">
         <v>36.601900000000001</v>
       </c>
-      <c r="M93" s="19">
+      <c r="N93" s="19">
         <v>117.0081</v>
       </c>
-      <c r="N93" s="22">
+      <c r="O93" s="22">
         <v>170.3</v>
       </c>
-      <c r="O93" s="24" t="s">
+      <c r="P93" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="P93" s="9" t="s">
+      <c r="Q93" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q93" s="7" t="s">
+      <c r="R93" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="R93" s="10" t="s">
+      <c r="S93" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S93" s="7" t="s">
+      <c r="T93" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="T93" s="11"/>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U93" s="11"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A94" s="7" t="s">
         <v>3</v>
       </c>
@@ -7305,50 +7528,51 @@
       <c r="D94" s="29">
         <v>93</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="32"/>
+      <c r="F94" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="G94" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G94" s="7" t="s">
+      <c r="H94" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H94" s="7"/>
-      <c r="I94" s="8">
+      <c r="I94" s="7"/>
+      <c r="J94" s="8">
         <v>57083</v>
       </c>
-      <c r="J94" s="7">
+      <c r="K94" s="7">
         <v>99999</v>
       </c>
-      <c r="K94" s="11"/>
-      <c r="L94" s="19">
+      <c r="L94" s="11"/>
+      <c r="M94" s="19">
         <v>34.706400000000002</v>
       </c>
-      <c r="M94" s="19">
+      <c r="N94" s="19">
         <v>113.6628</v>
       </c>
-      <c r="N94" s="22">
+      <c r="O94" s="22">
         <v>110.4</v>
       </c>
-      <c r="O94" s="24" t="s">
+      <c r="P94" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="P94" s="9" t="s">
+      <c r="Q94" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q94" s="7" t="s">
+      <c r="R94" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="R94" s="10" t="s">
+      <c r="S94" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S94" s="7" t="s">
+      <c r="T94" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="T94" s="11"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U94" s="11"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A95" s="7" t="s">
         <v>3</v>
       </c>
@@ -7361,52 +7585,53 @@
       <c r="D95" s="29">
         <v>94</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="32"/>
+      <c r="F95" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="G95" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G95" s="7" t="s">
+      <c r="H95" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H95" s="7"/>
-      <c r="I95" s="8">
+      <c r="I95" s="7"/>
+      <c r="J95" s="8">
         <v>57131</v>
       </c>
-      <c r="J95" s="7">
+      <c r="K95" s="7">
         <v>99999</v>
       </c>
-      <c r="K95" s="11"/>
-      <c r="L95" s="19">
+      <c r="L95" s="11"/>
+      <c r="M95" s="19">
         <v>34.433300000000003</v>
       </c>
-      <c r="M95" s="19">
+      <c r="N95" s="19">
         <v>108.9667</v>
       </c>
-      <c r="N95" s="22">
+      <c r="O95" s="22">
         <v>410</v>
       </c>
-      <c r="O95" s="24" t="s">
+      <c r="P95" s="24" t="s">
         <v>493</v>
       </c>
-      <c r="P95" s="9" t="s">
+      <c r="Q95" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q95" s="7" t="s">
+      <c r="R95" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="R95" s="10" t="s">
+      <c r="S95" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S95" s="7" t="s">
+      <c r="T95" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="T95" s="11" t="s">
+      <c r="U95" s="11" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A96" s="7" t="s">
         <v>3</v>
       </c>
@@ -7419,50 +7644,51 @@
       <c r="D96" s="29">
         <v>95</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" s="32"/>
+      <c r="F96" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="G96" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G96" s="7" t="s">
+      <c r="H96" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H96" s="7"/>
-      <c r="I96" s="8">
+      <c r="I96" s="7"/>
+      <c r="J96" s="8">
         <v>57245</v>
       </c>
-      <c r="J96" s="7">
+      <c r="K96" s="7">
         <v>99999</v>
       </c>
-      <c r="K96" s="11"/>
-      <c r="L96" s="19">
+      <c r="L96" s="11"/>
+      <c r="M96" s="19">
         <v>32.693100000000001</v>
       </c>
-      <c r="M96" s="19">
+      <c r="N96" s="19">
         <v>109.04170000000001</v>
       </c>
-      <c r="N96" s="22">
+      <c r="O96" s="22">
         <v>290.8</v>
       </c>
-      <c r="O96" s="24" t="s">
+      <c r="P96" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="P96" s="9" t="s">
+      <c r="Q96" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q96" s="7" t="s">
+      <c r="R96" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="R96" s="10" t="s">
+      <c r="S96" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S96" s="7" t="s">
+      <c r="T96" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="T96" s="11"/>
-    </row>
-    <row r="97" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="U96" s="11"/>
+    </row>
+    <row r="97" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="7" t="s">
         <v>3</v>
       </c>
@@ -7475,50 +7701,51 @@
       <c r="D97" s="29">
         <v>96</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" s="32"/>
+      <c r="F97" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="G97" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G97" s="7" t="s">
+      <c r="H97" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H97" s="7"/>
-      <c r="I97" s="8">
+      <c r="I97" s="7"/>
+      <c r="J97" s="8">
         <v>57687</v>
       </c>
-      <c r="J97" s="7">
+      <c r="K97" s="7">
         <v>99999</v>
       </c>
-      <c r="K97" s="11"/>
-      <c r="L97" s="19">
+      <c r="L97" s="11"/>
+      <c r="M97" s="19">
         <v>28.108599999999999</v>
       </c>
-      <c r="M97" s="19">
+      <c r="N97" s="19">
         <v>112.7864</v>
       </c>
-      <c r="N97" s="22">
+      <c r="O97" s="22">
         <v>114</v>
       </c>
-      <c r="O97" s="24" t="s">
+      <c r="P97" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="P97" s="9" t="s">
+      <c r="Q97" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q97" s="7" t="s">
+      <c r="R97" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="R97" s="10" t="s">
+      <c r="S97" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S97" s="7" t="s">
+      <c r="T97" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="T97" s="11"/>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U97" s="11"/>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98" s="7" t="s">
         <v>3</v>
       </c>
@@ -7531,50 +7758,51 @@
       <c r="D98" s="29">
         <v>97</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" s="32"/>
+      <c r="F98" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="G98" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G98" s="7" t="s">
+      <c r="H98" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H98" s="7"/>
-      <c r="I98" s="8">
+      <c r="I98" s="7"/>
+      <c r="J98" s="8">
         <v>58606</v>
       </c>
-      <c r="J98" s="7">
+      <c r="K98" s="7">
         <v>99999</v>
       </c>
-      <c r="K98" s="11"/>
-      <c r="L98" s="19">
+      <c r="L98" s="11"/>
+      <c r="M98" s="19">
         <v>28.59</v>
       </c>
-      <c r="M98" s="19">
+      <c r="N98" s="19">
         <v>115.9014</v>
       </c>
-      <c r="N98" s="22">
+      <c r="O98" s="22">
         <v>47.2</v>
       </c>
-      <c r="O98" s="24" t="s">
+      <c r="P98" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="P98" s="9" t="s">
+      <c r="Q98" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q98" s="7" t="s">
+      <c r="R98" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="R98" s="10" t="s">
+      <c r="S98" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S98" s="7" t="s">
+      <c r="T98" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="T98" s="11"/>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U98" s="11"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A99" s="7" t="s">
         <v>3</v>
       </c>
@@ -7587,50 +7815,51 @@
       <c r="D99" s="29">
         <v>98</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="32"/>
+      <c r="F99" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="G99" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G99" s="7" t="s">
+      <c r="H99" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H99" s="7"/>
-      <c r="I99" s="8">
+      <c r="I99" s="7"/>
+      <c r="J99" s="8">
         <v>57494</v>
       </c>
-      <c r="J99" s="7">
+      <c r="K99" s="7">
         <v>99999</v>
       </c>
-      <c r="K99" s="11"/>
-      <c r="L99" s="19">
+      <c r="L99" s="11"/>
+      <c r="M99" s="19">
         <v>30.597799999999999</v>
       </c>
-      <c r="M99" s="19">
+      <c r="N99" s="19">
         <v>114.0506</v>
       </c>
-      <c r="N99" s="22">
+      <c r="O99" s="22">
         <v>23.6</v>
       </c>
-      <c r="O99" s="24" t="s">
+      <c r="P99" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="P99" s="9" t="s">
+      <c r="Q99" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q99" s="7" t="s">
+      <c r="R99" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="R99" s="10" t="s">
+      <c r="S99" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S99" s="7" t="s">
+      <c r="T99" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="T99" s="11"/>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U99" s="11"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A100" s="7" t="s">
         <v>3</v>
       </c>
@@ -7643,50 +7872,51 @@
       <c r="D100" s="29">
         <v>99</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="32"/>
+      <c r="F100" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="G100" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G100" s="7" t="s">
+      <c r="H100" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H100" s="7"/>
-      <c r="I100" s="8">
+      <c r="I100" s="7"/>
+      <c r="J100" s="8">
         <v>58321</v>
       </c>
-      <c r="J100" s="7">
+      <c r="K100" s="7">
         <v>99999</v>
       </c>
-      <c r="K100" s="11"/>
-      <c r="L100" s="19">
+      <c r="L100" s="11"/>
+      <c r="M100" s="19">
         <v>31.9556</v>
       </c>
-      <c r="M100" s="19">
+      <c r="N100" s="19">
         <v>117.05719999999999</v>
       </c>
-      <c r="N100" s="22">
+      <c r="O100" s="22">
         <v>49.8</v>
       </c>
-      <c r="O100" s="24" t="s">
+      <c r="P100" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="P100" s="9" t="s">
+      <c r="Q100" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q100" s="7" t="s">
+      <c r="R100" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="R100" s="10" t="s">
+      <c r="S100" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S100" s="7" t="s">
+      <c r="T100" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="T100" s="11"/>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U100" s="11"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A101" s="7" t="s">
         <v>3</v>
       </c>
@@ -7699,50 +7929,51 @@
       <c r="D101" s="29">
         <v>100</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" s="32"/>
+      <c r="F101" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="G101" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G101" s="7" t="s">
+      <c r="H101" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H101" s="7"/>
-      <c r="I101" s="8">
+      <c r="I101" s="7"/>
+      <c r="J101" s="8">
         <v>58238</v>
       </c>
-      <c r="J101" s="7">
+      <c r="K101" s="7">
         <v>99999</v>
       </c>
-      <c r="K101" s="11"/>
-      <c r="L101" s="19">
+      <c r="L101" s="11"/>
+      <c r="M101" s="19">
         <v>31.931699999999999</v>
       </c>
-      <c r="M101" s="19">
+      <c r="N101" s="19">
         <v>118.8997</v>
       </c>
-      <c r="N101" s="22">
+      <c r="O101" s="22">
         <v>33.200000000000003</v>
       </c>
-      <c r="O101" s="24" t="s">
+      <c r="P101" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="P101" s="9" t="s">
+      <c r="Q101" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q101" s="7" t="s">
+      <c r="R101" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="R101" s="10" t="s">
+      <c r="S101" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S101" s="7" t="s">
+      <c r="T101" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="T101" s="11"/>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U101" s="11"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A102" s="7" t="s">
         <v>3</v>
       </c>
@@ -7755,50 +7986,51 @@
       <c r="D102" s="29">
         <v>101</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" s="32"/>
+      <c r="F102" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="G102" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G102" s="7" t="s">
+      <c r="H102" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H102" s="7"/>
-      <c r="I102" s="8">
+      <c r="I102" s="7"/>
+      <c r="J102" s="8">
         <v>58457</v>
       </c>
-      <c r="J102" s="7">
+      <c r="K102" s="7">
         <v>99999</v>
       </c>
-      <c r="K102" s="11"/>
-      <c r="L102" s="19">
+      <c r="L102" s="11"/>
+      <c r="M102" s="19">
         <v>30.2258</v>
       </c>
-      <c r="M102" s="19">
+      <c r="N102" s="19">
         <v>120.1647</v>
       </c>
-      <c r="N102" s="22">
+      <c r="O102" s="22">
         <v>42.1</v>
       </c>
-      <c r="O102" s="24" t="s">
+      <c r="P102" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="P102" s="9" t="s">
+      <c r="Q102" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q102" s="7" t="s">
+      <c r="R102" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="R102" s="10" t="s">
+      <c r="S102" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S102" s="7" t="s">
+      <c r="T102" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="T102" s="11"/>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U102" s="11"/>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A103" s="7" t="s">
         <v>3</v>
       </c>
@@ -7811,50 +8043,51 @@
       <c r="D103" s="29">
         <v>102</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="32"/>
+      <c r="F103" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="G103" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G103" s="7" t="s">
+      <c r="H103" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H103" s="7"/>
-      <c r="I103" s="8">
+      <c r="I103" s="7"/>
+      <c r="J103" s="8">
         <v>58646</v>
       </c>
-      <c r="J103" s="7">
+      <c r="K103" s="7">
         <v>99999</v>
       </c>
-      <c r="K103" s="11"/>
-      <c r="L103" s="19">
+      <c r="L103" s="11"/>
+      <c r="M103" s="19">
         <v>28.394400000000001</v>
       </c>
-      <c r="M103" s="19">
+      <c r="N103" s="19">
         <v>119.85420000000001</v>
       </c>
-      <c r="N103" s="22">
+      <c r="O103" s="22">
         <v>144.5</v>
       </c>
-      <c r="O103" s="24" t="s">
+      <c r="P103" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="P103" s="9" t="s">
+      <c r="Q103" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q103" s="7" t="s">
+      <c r="R103" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="R103" s="10" t="s">
+      <c r="S103" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S103" s="7" t="s">
+      <c r="T103" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="T103" s="11"/>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U103" s="11"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104" s="7" t="s">
         <v>3</v>
       </c>
@@ -7867,50 +8100,51 @@
       <c r="D104" s="29">
         <v>103</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E104" s="32"/>
+      <c r="F104" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="G104" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G104" s="7" t="s">
+      <c r="H104" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H104" s="7"/>
-      <c r="I104" s="8">
+      <c r="I104" s="7"/>
+      <c r="J104" s="8">
         <v>58847</v>
       </c>
-      <c r="J104" s="7">
+      <c r="K104" s="7">
         <v>99999</v>
       </c>
-      <c r="K104" s="11"/>
-      <c r="L104" s="19">
+      <c r="L104" s="11"/>
+      <c r="M104" s="19">
         <v>26.077500000000001</v>
       </c>
-      <c r="M104" s="19">
+      <c r="N104" s="19">
         <v>119.2894</v>
       </c>
-      <c r="N104" s="22">
+      <c r="O104" s="22">
         <v>84.1</v>
       </c>
-      <c r="O104" s="24" t="s">
+      <c r="P104" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="P104" s="9" t="s">
+      <c r="Q104" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q104" s="7" t="s">
+      <c r="R104" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="R104" s="10" t="s">
+      <c r="S104" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S104" s="7" t="s">
+      <c r="T104" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="T104" s="11"/>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U104" s="11"/>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105" s="7" t="s">
         <v>3</v>
       </c>
@@ -7923,50 +8157,51 @@
       <c r="D105" s="29">
         <v>104</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" s="32"/>
+      <c r="F105" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="G105" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G105" s="7" t="s">
+      <c r="H105" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H105" s="7"/>
-      <c r="I105" s="8">
+      <c r="I105" s="7"/>
+      <c r="J105" s="8">
         <v>59287</v>
       </c>
-      <c r="J105" s="7">
+      <c r="K105" s="7">
         <v>99999</v>
       </c>
-      <c r="K105" s="11"/>
-      <c r="L105" s="19">
+      <c r="L105" s="11"/>
+      <c r="M105" s="19">
         <v>23.21</v>
       </c>
-      <c r="M105" s="19">
+      <c r="N105" s="19">
         <v>113.48220000000001</v>
       </c>
-      <c r="N105" s="22">
+      <c r="O105" s="22">
         <v>70.7</v>
       </c>
-      <c r="O105" s="24" t="s">
+      <c r="P105" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="P105" s="9" t="s">
+      <c r="Q105" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q105" s="7" t="s">
+      <c r="R105" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="R105" s="10" t="s">
+      <c r="S105" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S105" s="7" t="s">
+      <c r="T105" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="T105" s="11"/>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U105" s="11"/>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A106" s="7" t="s">
         <v>3</v>
       </c>
@@ -7979,48 +8214,49 @@
       <c r="D106" s="29">
         <v>105</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E106" s="32"/>
+      <c r="F106" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="G106" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G106" s="7" t="s">
+      <c r="H106" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="H106" s="7"/>
-      <c r="I106" s="8">
+      <c r="I106" s="7"/>
+      <c r="J106" s="8">
         <v>59948</v>
       </c>
-      <c r="J106" s="7">
+      <c r="K106" s="7">
         <v>99999</v>
       </c>
-      <c r="K106" s="11"/>
-      <c r="L106" s="19">
+      <c r="L106" s="11"/>
+      <c r="M106" s="19">
         <v>18.216699999999999</v>
       </c>
-      <c r="M106" s="19">
+      <c r="N106" s="19">
         <v>109.58329999999999</v>
       </c>
-      <c r="N106" s="22">
+      <c r="O106" s="22">
         <v>419.4</v>
       </c>
-      <c r="O106" s="24" t="s">
+      <c r="P106" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="P106" s="9" t="s">
+      <c r="Q106" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q106" s="7"/>
-      <c r="R106" s="10" t="s">
+      <c r="R106" s="7"/>
+      <c r="S106" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S106" s="7" t="s">
+      <c r="T106" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="T106" s="11"/>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U106" s="11"/>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A107" s="7" t="s">
         <v>3</v>
       </c>
@@ -8033,48 +8269,49 @@
       <c r="D107" s="29">
         <v>106</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E107" s="32"/>
+      <c r="F107" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="G107" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G107" s="7" t="s">
+      <c r="H107" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H107" s="7"/>
-      <c r="I107" s="8">
+      <c r="I107" s="7"/>
+      <c r="J107" s="8">
         <v>59838</v>
       </c>
-      <c r="J107" s="7">
+      <c r="K107" s="7">
         <v>99999</v>
       </c>
-      <c r="K107" s="11"/>
-      <c r="L107" s="19">
+      <c r="L107" s="11"/>
+      <c r="M107" s="19">
         <v>19.094200000000001</v>
       </c>
-      <c r="M107" s="19">
+      <c r="N107" s="19">
         <v>108.6217</v>
       </c>
-      <c r="N107" s="22">
+      <c r="O107" s="22">
         <v>6.1</v>
       </c>
-      <c r="O107" s="24" t="s">
+      <c r="P107" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="P107" s="9" t="s">
+      <c r="Q107" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q107" s="7"/>
-      <c r="R107" s="10" t="s">
+      <c r="R107" s="7"/>
+      <c r="S107" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S107" s="7" t="s">
+      <c r="T107" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="T107" s="11"/>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U107" s="11"/>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A108" s="7" t="s">
         <v>3</v>
       </c>
@@ -8087,50 +8324,51 @@
       <c r="D108" s="29">
         <v>107</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E108" s="32"/>
+      <c r="F108" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="G108" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G108" s="7" t="s">
+      <c r="H108" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="H108" s="7"/>
-      <c r="I108" s="8">
+      <c r="I108" s="7"/>
+      <c r="J108" s="8">
         <v>59431</v>
       </c>
-      <c r="J108" s="7">
+      <c r="K108" s="7">
         <v>99999</v>
       </c>
-      <c r="K108" s="11"/>
-      <c r="L108" s="19">
+      <c r="L108" s="11"/>
+      <c r="M108" s="19">
         <v>22.783899999999999</v>
       </c>
-      <c r="M108" s="19">
+      <c r="N108" s="19">
         <v>108.5472</v>
       </c>
-      <c r="N108" s="22">
+      <c r="O108" s="22">
         <v>152.1</v>
       </c>
-      <c r="O108" s="24" t="s">
+      <c r="P108" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="P108" s="9" t="s">
+      <c r="Q108" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q108" s="7" t="s">
+      <c r="R108" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="R108" s="10" t="s">
+      <c r="S108" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S108" s="7" t="s">
+      <c r="T108" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="T108" s="11"/>
-    </row>
-    <row r="109" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U108" s="11"/>
+    </row>
+    <row r="109" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A109" s="7" t="s">
         <v>3</v>
       </c>
@@ -8143,50 +8381,51 @@
       <c r="D109" s="29">
         <v>108</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="E109" s="32"/>
+      <c r="F109" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="G109" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G109" s="7" t="s">
+      <c r="H109" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H109" s="7"/>
-      <c r="I109" s="8">
+      <c r="I109" s="7"/>
+      <c r="J109" s="8">
         <v>56966</v>
       </c>
-      <c r="J109" s="7">
+      <c r="K109" s="7">
         <v>99999</v>
       </c>
-      <c r="K109" s="11"/>
-      <c r="L109" s="19">
+      <c r="L109" s="11"/>
+      <c r="M109" s="19">
         <v>23.632200000000001</v>
       </c>
-      <c r="M109" s="19">
+      <c r="N109" s="19">
         <v>101.9683</v>
       </c>
-      <c r="N109" s="22">
+      <c r="O109" s="22">
         <v>506.8</v>
       </c>
-      <c r="O109" s="24" t="s">
+      <c r="P109" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="P109" s="9" t="s">
+      <c r="Q109" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q109" s="7" t="s">
+      <c r="R109" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R109" s="10" t="s">
+      <c r="S109" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S109" s="7" t="s">
+      <c r="T109" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="T109" s="11"/>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U109" s="11"/>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A110" s="7" t="s">
         <v>3</v>
       </c>
@@ -8199,50 +8438,51 @@
       <c r="D110" s="29">
         <v>109</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E110" s="32"/>
+      <c r="F110" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="G110" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G110" s="7" t="s">
+      <c r="H110" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H110" s="7"/>
-      <c r="I110" s="8">
+      <c r="I110" s="7"/>
+      <c r="J110" s="8">
         <v>56778</v>
       </c>
-      <c r="J110" s="7">
+      <c r="K110" s="7">
         <v>99999</v>
       </c>
-      <c r="K110" s="11"/>
-      <c r="L110" s="19">
+      <c r="L110" s="11"/>
+      <c r="M110" s="19">
         <v>25.0078</v>
       </c>
-      <c r="M110" s="19">
+      <c r="N110" s="19">
         <v>102.65309999999999</v>
       </c>
-      <c r="N110" s="22">
+      <c r="O110" s="22">
         <v>1888.1</v>
       </c>
-      <c r="O110" s="24" t="s">
+      <c r="P110" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="P110" s="9" t="s">
+      <c r="Q110" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q110" s="7" t="s">
+      <c r="R110" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="R110" s="10" t="s">
+      <c r="S110" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S110" s="7" t="s">
+      <c r="T110" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="T110" s="11"/>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U110" s="11"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A111" s="7" t="s">
         <v>3</v>
       </c>
@@ -8255,50 +8495,51 @@
       <c r="D111" s="29">
         <v>110</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="E111" s="32"/>
+      <c r="F111" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="G111" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G111" s="7" t="s">
+      <c r="H111" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H111" s="7"/>
-      <c r="I111" s="8">
+      <c r="I111" s="7"/>
+      <c r="J111" s="8">
         <v>57816</v>
       </c>
-      <c r="J111" s="7">
+      <c r="K111" s="7">
         <v>99999</v>
       </c>
-      <c r="K111" s="11"/>
-      <c r="L111" s="19">
+      <c r="L111" s="11"/>
+      <c r="M111" s="19">
         <v>26.589700000000001</v>
       </c>
-      <c r="M111" s="19">
+      <c r="N111" s="19">
         <v>106.72750000000001</v>
       </c>
-      <c r="N111" s="22">
+      <c r="O111" s="22">
         <v>1227.3</v>
       </c>
-      <c r="O111" s="24" t="s">
+      <c r="P111" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="P111" s="9" t="s">
+      <c r="Q111" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q111" s="7" t="s">
+      <c r="R111" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="R111" s="10" t="s">
+      <c r="S111" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S111" s="7" t="s">
+      <c r="T111" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="T111" s="11"/>
-    </row>
-    <row r="112" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U111" s="11"/>
+    </row>
+    <row r="112" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A112" s="7" t="s">
         <v>3</v>
       </c>
@@ -8311,48 +8552,49 @@
       <c r="D112" s="29">
         <v>111</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E112" s="32"/>
+      <c r="F112" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7" t="s">
+      <c r="G112" s="7"/>
+      <c r="H112" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H112" s="7"/>
-      <c r="I112" s="8">
+      <c r="I112" s="7"/>
+      <c r="J112" s="8">
         <v>57516</v>
       </c>
-      <c r="J112" s="7">
+      <c r="K112" s="7">
         <v>99999</v>
       </c>
-      <c r="K112" s="11"/>
-      <c r="L112" s="19">
+      <c r="L112" s="11"/>
+      <c r="M112" s="19">
         <v>29.604700000000001</v>
       </c>
-      <c r="M112" s="19">
+      <c r="N112" s="19">
         <v>106.4042</v>
       </c>
-      <c r="N112" s="22">
+      <c r="O112" s="22">
         <v>542.1</v>
       </c>
-      <c r="O112" s="24" t="s">
+      <c r="P112" s="24" t="s">
         <v>491</v>
       </c>
-      <c r="P112" s="9" t="s">
+      <c r="Q112" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q112" s="7" t="s">
+      <c r="R112" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="R112" s="10" t="s">
+      <c r="S112" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S112" s="7" t="s">
+      <c r="T112" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="T112" s="11"/>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U112" s="11"/>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A113" s="7" t="s">
         <v>3</v>
       </c>
@@ -8365,50 +8607,51 @@
       <c r="D113" s="29">
         <v>112</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E113" s="32"/>
+      <c r="F113" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="G113" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G113" s="7" t="s">
+      <c r="H113" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H113" s="7"/>
-      <c r="I113" s="8">
+      <c r="I113" s="7"/>
+      <c r="J113" s="8">
         <v>57503</v>
       </c>
-      <c r="J113" s="7">
+      <c r="K113" s="7">
         <v>99999</v>
       </c>
-      <c r="K113" s="11"/>
-      <c r="L113" s="19">
+      <c r="L113" s="11"/>
+      <c r="M113" s="19">
         <v>29.619700000000002</v>
       </c>
-      <c r="M113" s="19">
+      <c r="N113" s="19">
         <v>105.1186</v>
       </c>
-      <c r="N113" s="22">
+      <c r="O113" s="22">
         <v>349.9</v>
       </c>
-      <c r="O113" s="24" t="s">
+      <c r="P113" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="P113" s="9" t="s">
+      <c r="Q113" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q113" s="7" t="s">
+      <c r="R113" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="R113" s="10" t="s">
+      <c r="S113" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S113" s="7" t="s">
+      <c r="T113" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="T113" s="11"/>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U113" s="11"/>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A114" s="7" t="s">
         <v>3</v>
       </c>
@@ -8421,52 +8664,53 @@
       <c r="D114" s="29">
         <v>113</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="E114" s="32"/>
+      <c r="F114" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="G114" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G114" s="7" t="s">
+      <c r="H114" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H114" s="7"/>
-      <c r="I114" s="8">
+      <c r="I114" s="7"/>
+      <c r="J114" s="8">
         <v>56187</v>
       </c>
-      <c r="J114" s="7">
+      <c r="K114" s="7">
         <v>99999</v>
       </c>
-      <c r="K114" s="11"/>
-      <c r="L114" s="19">
+      <c r="L114" s="11"/>
+      <c r="M114" s="19">
         <v>30.748899999999999</v>
       </c>
-      <c r="M114" s="19">
+      <c r="N114" s="19">
         <v>103.861</v>
       </c>
-      <c r="N114" s="22">
+      <c r="O114" s="22">
         <v>547.70000000000005</v>
       </c>
-      <c r="O114" s="24" t="s">
+      <c r="P114" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="P114" s="9" t="s">
+      <c r="Q114" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q114" s="7" t="s">
+      <c r="R114" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="R114" s="10" t="s">
+      <c r="S114" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S114" s="7" t="s">
+      <c r="T114" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="T114" s="11" t="s">
+      <c r="U114" s="11" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A115" s="7" t="s">
         <v>3</v>
       </c>
@@ -8479,50 +8723,51 @@
       <c r="D115" s="29">
         <v>114</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E115" s="32"/>
+      <c r="F115" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="G115" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G115" s="7" t="s">
+      <c r="H115" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="H115" s="7"/>
-      <c r="I115" s="8">
+      <c r="I115" s="7"/>
+      <c r="J115" s="8">
         <v>55591</v>
       </c>
-      <c r="J115" s="7">
+      <c r="K115" s="7">
         <v>99999</v>
       </c>
-      <c r="K115" s="11"/>
-      <c r="L115" s="19">
+      <c r="L115" s="11"/>
+      <c r="M115" s="19">
         <v>29.6586</v>
       </c>
-      <c r="M115" s="19">
+      <c r="N115" s="19">
         <v>91.135300000000001</v>
       </c>
-      <c r="N115" s="22">
+      <c r="O115" s="22">
         <v>3648.7</v>
       </c>
-      <c r="O115" s="24" t="s">
+      <c r="P115" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="P115" s="9" t="s">
+      <c r="Q115" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q115" s="7" t="s">
+      <c r="R115" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="R115" s="10" t="s">
+      <c r="S115" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S115" s="7" t="s">
+      <c r="T115" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="T115" s="11"/>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U115" s="11"/>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A116" s="7" t="s">
         <v>3</v>
       </c>
@@ -8535,46 +8780,47 @@
       <c r="D116" s="29">
         <v>115</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E116" s="32"/>
+      <c r="F116" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="G116" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G116" s="7" t="s">
+      <c r="H116" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H116" s="7"/>
-      <c r="I116" s="8">
+      <c r="I116" s="7"/>
+      <c r="J116" s="8">
         <v>52267</v>
       </c>
-      <c r="J116" s="7">
+      <c r="K116" s="7">
         <v>99999</v>
       </c>
-      <c r="K116" s="11"/>
-      <c r="L116" s="19">
+      <c r="L116" s="11"/>
+      <c r="M116" s="19">
         <v>41.956899999999997</v>
       </c>
-      <c r="M116" s="19">
+      <c r="N116" s="19">
         <v>101.0611</v>
       </c>
-      <c r="N116" s="22">
+      <c r="O116" s="22">
         <v>939</v>
       </c>
-      <c r="O116" s="24" t="s">
+      <c r="P116" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="P116" s="9" t="s">
+      <c r="Q116" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q116" s="7" t="s">
+      <c r="R116" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="R116" s="10"/>
-      <c r="S116" s="7"/>
-      <c r="T116" s="11"/>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S116" s="10"/>
+      <c r="T116" s="7"/>
+      <c r="U116" s="11"/>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A117" s="7" t="s">
         <v>3</v>
       </c>
@@ -8587,44 +8833,47 @@
       <c r="D117" s="29">
         <v>116</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E117" s="32">
+        <v>0</v>
+      </c>
+      <c r="F117" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="G117" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G117" s="7" t="s">
+      <c r="H117" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H117" s="7"/>
-      <c r="I117" s="8">
+      <c r="I117" s="7"/>
+      <c r="J117" s="8">
         <v>53478</v>
       </c>
-      <c r="J117" s="7">
+      <c r="K117" s="7">
         <v>99999</v>
       </c>
-      <c r="K117" s="11"/>
-      <c r="L117" s="19">
+      <c r="L117" s="11"/>
+      <c r="M117" s="19">
         <v>39.994199999999999</v>
       </c>
-      <c r="M117" s="19">
+      <c r="N117" s="19">
         <v>112.4603</v>
       </c>
-      <c r="N117" s="22">
+      <c r="O117" s="22">
         <v>1345.8</v>
       </c>
-      <c r="O117" s="24" t="s">
+      <c r="P117" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="P117" s="9" t="s">
+      <c r="Q117" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q117" s="7"/>
-      <c r="R117" s="10"/>
-      <c r="S117" s="7"/>
-      <c r="T117" s="11"/>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="R117" s="7"/>
+      <c r="S117" s="10"/>
+      <c r="T117" s="7"/>
+      <c r="U117" s="11"/>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A118" s="7" t="s">
         <v>3</v>
       </c>
@@ -8637,44 +8886,45 @@
       <c r="D118" s="29">
         <v>117</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="E118" s="32"/>
+      <c r="F118" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7" t="s">
+      <c r="G118" s="7"/>
+      <c r="H118" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H118" s="7"/>
-      <c r="I118" s="8">
+      <c r="I118" s="7"/>
+      <c r="J118" s="8">
         <v>58367</v>
       </c>
-      <c r="J118" s="7">
+      <c r="K118" s="7">
         <v>99999</v>
       </c>
-      <c r="K118" s="11"/>
-      <c r="L118" s="19">
+      <c r="L118" s="11"/>
+      <c r="M118" s="19">
         <v>31.1922</v>
       </c>
-      <c r="M118" s="19">
+      <c r="N118" s="19">
         <v>121.43170000000001</v>
       </c>
-      <c r="N118" s="22">
+      <c r="O118" s="22">
         <v>2</v>
       </c>
-      <c r="O118" s="24" t="s">
+      <c r="P118" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="P118" s="9" t="s">
+      <c r="Q118" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q118" s="7" t="s">
+      <c r="R118" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="R118" s="10"/>
-      <c r="S118" s="7"/>
-      <c r="T118" s="11"/>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S118" s="10"/>
+      <c r="T118" s="7"/>
+      <c r="U118" s="11"/>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A119" s="7" t="s">
         <v>3</v>
       </c>
@@ -8687,46 +8937,47 @@
       <c r="D119" s="29">
         <v>118</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="E119" s="32"/>
+      <c r="F119" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="G119" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G119" s="7" t="s">
+      <c r="H119" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H119" s="7"/>
-      <c r="I119" s="8">
+      <c r="I119" s="7"/>
+      <c r="J119" s="8">
         <v>58826</v>
       </c>
-      <c r="J119" s="7">
+      <c r="K119" s="7">
         <v>99999</v>
       </c>
-      <c r="K119" s="11"/>
-      <c r="L119" s="19">
+      <c r="L119" s="11"/>
+      <c r="M119" s="19">
         <v>26.391100000000002</v>
       </c>
-      <c r="M119" s="19">
+      <c r="N119" s="19">
         <v>117.8069</v>
       </c>
-      <c r="N119" s="22">
+      <c r="O119" s="22">
         <v>120.7</v>
       </c>
-      <c r="O119" s="24" t="s">
+      <c r="P119" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="P119" s="9" t="s">
+      <c r="Q119" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q119" s="7" t="s">
+      <c r="R119" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="R119" s="10"/>
-      <c r="S119" s="7"/>
-      <c r="T119" s="11"/>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S119" s="10"/>
+      <c r="T119" s="7"/>
+      <c r="U119" s="11"/>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A120" s="7" t="s">
         <v>3</v>
       </c>
@@ -8739,46 +8990,47 @@
       <c r="D120" s="29">
         <v>119</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="E120" s="32"/>
+      <c r="F120" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F120" s="7" t="s">
+      <c r="G120" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G120" s="7" t="s">
+      <c r="H120" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H120" s="7"/>
-      <c r="I120" s="8">
+      <c r="I120" s="7"/>
+      <c r="J120" s="8">
         <v>58637</v>
       </c>
-      <c r="J120" s="7">
+      <c r="K120" s="7">
         <v>99999</v>
       </c>
-      <c r="K120" s="11"/>
-      <c r="L120" s="19">
+      <c r="L120" s="11"/>
+      <c r="M120" s="19">
         <v>28.442799999999998</v>
       </c>
-      <c r="M120" s="19">
+      <c r="N120" s="19">
         <v>117.97669999999999</v>
       </c>
-      <c r="N120" s="22">
+      <c r="O120" s="22">
         <v>118.5</v>
       </c>
-      <c r="O120" s="24" t="s">
+      <c r="P120" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="P120" s="9" t="s">
+      <c r="Q120" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q120" s="7" t="s">
+      <c r="R120" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="R120" s="10"/>
-      <c r="S120" s="7"/>
-      <c r="T120" s="11"/>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S120" s="10"/>
+      <c r="T120" s="7"/>
+      <c r="U120" s="11"/>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A121" s="7" t="s">
         <v>3</v>
       </c>
@@ -8791,46 +9043,47 @@
       <c r="D121" s="29">
         <v>120</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="E121" s="32"/>
+      <c r="F121" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F121" s="7" t="s">
+      <c r="G121" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G121" s="7" t="s">
+      <c r="H121" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H121" s="7"/>
-      <c r="I121" s="8">
+      <c r="I121" s="7"/>
+      <c r="J121" s="8">
         <v>57778</v>
       </c>
-      <c r="J121" s="7">
+      <c r="K121" s="7">
         <v>99999</v>
       </c>
-      <c r="K121" s="11"/>
-      <c r="L121" s="19">
+      <c r="L121" s="11"/>
+      <c r="M121" s="19">
         <v>27.052499999999998</v>
       </c>
-      <c r="M121" s="19">
+      <c r="N121" s="19">
         <v>112.9847</v>
       </c>
-      <c r="N121" s="22">
+      <c r="O121" s="22">
         <v>109.4</v>
       </c>
-      <c r="O121" s="24" t="s">
+      <c r="P121" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="P121" s="9" t="s">
+      <c r="Q121" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q121" s="7" t="s">
+      <c r="R121" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="R121" s="10"/>
-      <c r="S121" s="7"/>
-      <c r="T121" s="11"/>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S121" s="10"/>
+      <c r="T121" s="7"/>
+      <c r="U121" s="11"/>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A122" s="15" t="s">
         <v>3</v>
       </c>
@@ -8843,48 +9096,49 @@
       <c r="D122" s="29">
         <v>121</v>
       </c>
-      <c r="E122" s="15" t="s">
+      <c r="E122" s="32"/>
+      <c r="F122" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="F122" s="15" t="s">
+      <c r="G122" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="G122" s="15" t="s">
+      <c r="H122" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="8">
+      <c r="I122" s="15"/>
+      <c r="J122" s="8">
         <v>52889</v>
       </c>
-      <c r="J122" s="15">
+      <c r="K122" s="15">
         <v>99999</v>
       </c>
-      <c r="K122" s="16"/>
-      <c r="L122" s="21">
+      <c r="L122" s="16"/>
+      <c r="M122" s="21">
         <v>36.043900000000001</v>
       </c>
-      <c r="M122" s="21">
+      <c r="N122" s="21">
         <v>103.87779999999999</v>
       </c>
-      <c r="N122" s="20">
+      <c r="O122" s="20">
         <v>1517.2</v>
       </c>
-      <c r="O122" s="14" t="s">
+      <c r="P122" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="P122" s="9" t="s">
+      <c r="Q122" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="Q122" s="15" t="s">
+      <c r="R122" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="R122" s="10"/>
-      <c r="S122" s="15"/>
-      <c r="T122" s="11" t="s">
+      <c r="S122" s="10"/>
+      <c r="T122" s="15"/>
+      <c r="U122" s="11" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A123" s="7" t="s">
         <v>3</v>
       </c>
@@ -8897,44 +9151,45 @@
       <c r="D123" s="29">
         <v>122</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E123" s="32"/>
+      <c r="F123" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F123" s="7" t="s">
+      <c r="G123" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G123" s="7" t="s">
+      <c r="H123" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H123" s="7"/>
-      <c r="I123" s="8">
+      <c r="I123" s="7"/>
+      <c r="J123" s="8">
         <v>50341</v>
       </c>
-      <c r="J123" s="7">
+      <c r="K123" s="7">
         <v>99999</v>
       </c>
-      <c r="K123" s="11"/>
-      <c r="L123" s="19">
+      <c r="L123" s="11"/>
+      <c r="M123" s="19">
         <v>51.683300000000003</v>
       </c>
-      <c r="M123" s="19">
+      <c r="N123" s="19">
         <v>123.61669999999999</v>
       </c>
-      <c r="N123" s="20">
+      <c r="O123" s="20">
         <v>654</v>
       </c>
-      <c r="O123" s="24" t="s">
+      <c r="P123" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="P123" s="9"/>
-      <c r="Q123" s="7" t="s">
+      <c r="Q123" s="9"/>
+      <c r="R123" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="R123" s="10"/>
-      <c r="S123" s="7"/>
-      <c r="T123" s="11"/>
-    </row>
-    <row r="124" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="S123" s="10"/>
+      <c r="T123" s="7"/>
+      <c r="U123" s="11"/>
+    </row>
+    <row r="124" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A124" s="7" t="s">
         <v>3</v>
       </c>
@@ -8947,40 +9202,43 @@
       <c r="D124" s="29">
         <v>123</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="E124" s="32"/>
+      <c r="F124" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="G124" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G124" s="7" t="s">
+      <c r="H124" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H124" s="7"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="7"/>
-      <c r="K124" s="11"/>
-      <c r="L124" s="21">
+      <c r="I124" s="7"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="M124" s="21">
         <v>52.839700000000001</v>
       </c>
-      <c r="M124" s="21">
+      <c r="N124" s="21">
         <v>123.17140000000001</v>
       </c>
-      <c r="N124" s="20">
-        <v>508</v>
-      </c>
-      <c r="O124" s="24" t="s">
+      <c r="O124" s="20">
+        <v>507.5</v>
+      </c>
+      <c r="P124" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="P124" s="9"/>
-      <c r="Q124" s="7" t="s">
+      <c r="Q124" s="9"/>
+      <c r="R124" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="R124" s="10"/>
-      <c r="S124" s="7"/>
-      <c r="T124" s="11"/>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S124" s="10"/>
+      <c r="T124" s="7"/>
+      <c r="U124" s="11"/>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A125" s="7" t="s">
         <v>3</v>
       </c>
@@ -8993,44 +9251,45 @@
       <c r="D125" s="29">
         <v>124</v>
       </c>
-      <c r="E125" s="7" t="s">
+      <c r="E125" s="32"/>
+      <c r="F125" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="G125" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G125" s="7" t="s">
+      <c r="H125" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H125" s="7" t="s">
+      <c r="I125" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="I125" s="8"/>
-      <c r="J125" s="7"/>
-      <c r="K125" s="11" t="s">
+      <c r="J125" s="8"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="L125" s="21">
+      <c r="M125" s="21">
         <v>51.3264</v>
       </c>
-      <c r="M125" s="21">
+      <c r="N125" s="21">
         <v>119.8869</v>
       </c>
-      <c r="N125" s="20">
+      <c r="O125" s="20">
         <v>496.2</v>
       </c>
-      <c r="O125" s="24" t="s">
+      <c r="P125" s="24" t="s">
         <v>502</v>
       </c>
-      <c r="P125" s="9"/>
-      <c r="Q125" s="7" t="s">
+      <c r="Q125" s="9"/>
+      <c r="R125" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="R125" s="10"/>
-      <c r="S125" s="7"/>
-      <c r="T125" s="11"/>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S125" s="10"/>
+      <c r="T125" s="7"/>
+      <c r="U125" s="11"/>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A126" s="7" t="s">
         <v>3</v>
       </c>
@@ -9043,34 +9302,35 @@
       <c r="D126" s="29">
         <v>125</v>
       </c>
-      <c r="E126" s="7" t="s">
+      <c r="E126" s="32"/>
+      <c r="F126" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="G126" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G126" s="7" t="s">
+      <c r="H126" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H126" s="7"/>
-      <c r="I126" s="8"/>
-      <c r="J126" s="7"/>
-      <c r="K126" s="11"/>
-      <c r="L126" s="21"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="11"/>
       <c r="M126" s="21"/>
-      <c r="N126" s="20"/>
-      <c r="O126" s="24" t="s">
+      <c r="N126" s="21"/>
+      <c r="O126" s="20"/>
+      <c r="P126" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="P126" s="9"/>
-      <c r="Q126" s="7" t="s">
+      <c r="Q126" s="9"/>
+      <c r="R126" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="R126" s="10"/>
-      <c r="S126" s="7"/>
-      <c r="T126" s="11"/>
-    </row>
-    <row r="127" spans="1:20" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="S126" s="10"/>
+      <c r="T126" s="7"/>
+      <c r="U126" s="11"/>
+    </row>
+    <row r="127" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A127" s="7" t="s">
         <v>3</v>
       </c>
@@ -9083,36 +9343,37 @@
       <c r="D127" s="29">
         <v>126</v>
       </c>
-      <c r="E127" s="7" t="s">
+      <c r="E127" s="32"/>
+      <c r="F127" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F127" s="7" t="s">
+      <c r="G127" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G127" s="7" t="s">
+      <c r="H127" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="H127" s="7" t="s">
+      <c r="I127" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="I127" s="8"/>
-      <c r="J127" s="7"/>
-      <c r="K127" s="11"/>
-      <c r="L127" s="21"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="11"/>
       <c r="M127" s="21"/>
-      <c r="N127" s="20"/>
-      <c r="O127" s="24" t="s">
+      <c r="N127" s="21"/>
+      <c r="O127" s="20"/>
+      <c r="P127" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="P127" s="9"/>
-      <c r="Q127" s="7" t="s">
+      <c r="Q127" s="9"/>
+      <c r="R127" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="R127" s="10"/>
-      <c r="S127" s="7"/>
-      <c r="T127" s="11"/>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S127" s="10"/>
+      <c r="T127" s="7"/>
+      <c r="U127" s="11"/>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A128" s="7" t="s">
         <v>3</v>
       </c>
@@ -9125,44 +9386,45 @@
       <c r="D128" s="29">
         <v>127</v>
       </c>
-      <c r="E128" s="7" t="s">
+      <c r="E128" s="32"/>
+      <c r="F128" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="G128" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G128" s="7" t="s">
+      <c r="H128" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="H128" s="7" t="s">
+      <c r="I128" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="I128" s="8"/>
-      <c r="J128" s="7"/>
-      <c r="K128" s="11" t="s">
+      <c r="J128" s="8"/>
+      <c r="K128" s="7"/>
+      <c r="L128" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="L128" s="21">
+      <c r="M128" s="21">
         <v>47.027200000000001</v>
       </c>
-      <c r="M128" s="21">
+      <c r="N128" s="21">
         <v>89.797499999999999</v>
       </c>
-      <c r="N128" s="20">
+      <c r="O128" s="20">
         <v>1333</v>
       </c>
-      <c r="O128" s="24" t="s">
+      <c r="P128" s="24" t="s">
         <v>389</v>
       </c>
-      <c r="P128" s="9"/>
-      <c r="Q128" s="7" t="s">
+      <c r="Q128" s="9"/>
+      <c r="R128" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="R128" s="10"/>
-      <c r="S128" s="7"/>
-      <c r="T128" s="11"/>
-    </row>
-    <row r="129" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="S128" s="10"/>
+      <c r="T128" s="7"/>
+      <c r="U128" s="11"/>
+    </row>
+    <row r="129" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A129" s="7" t="s">
         <v>3</v>
       </c>
@@ -9175,44 +9437,45 @@
       <c r="D129" s="29">
         <v>128</v>
       </c>
-      <c r="E129" s="7" t="s">
+      <c r="E129" s="32"/>
+      <c r="F129" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="G129" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G129" s="7" t="s">
+      <c r="H129" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H129" s="7" t="s">
+      <c r="I129" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="I129" s="8"/>
-      <c r="J129" s="7"/>
-      <c r="K129" s="11" t="s">
+      <c r="J129" s="8"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="L129" s="21">
+      <c r="M129" s="21">
         <v>42.828800000000001</v>
       </c>
-      <c r="M129" s="21">
+      <c r="N129" s="21">
         <v>83.716099999999997</v>
       </c>
-      <c r="N129" s="20">
+      <c r="O129" s="20">
         <v>2465</v>
       </c>
-      <c r="O129" s="24" t="s">
+      <c r="P129" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="P129" s="9"/>
-      <c r="Q129" s="7" t="s">
+      <c r="Q129" s="9"/>
+      <c r="R129" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="R129" s="10"/>
-      <c r="S129" s="7"/>
-      <c r="T129" s="11"/>
-    </row>
-    <row r="130" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="S129" s="10"/>
+      <c r="T129" s="7"/>
+      <c r="U129" s="11"/>
+    </row>
+    <row r="130" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A130" s="7" t="s">
         <v>43</v>
       </c>
@@ -9225,46 +9488,47 @@
       <c r="D130" s="29">
         <v>129</v>
       </c>
-      <c r="E130" s="7" t="s">
+      <c r="E130" s="32"/>
+      <c r="F130" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
-      <c r="I130" s="8">
+      <c r="I130" s="7"/>
+      <c r="J130" s="8">
         <v>31137</v>
       </c>
-      <c r="J130" s="7">
+      <c r="K130" s="7">
         <v>99999</v>
       </c>
-      <c r="K130" s="11"/>
-      <c r="L130" s="21">
+      <c r="L130" s="11"/>
+      <c r="M130" s="21">
         <v>56.283333300000002</v>
       </c>
-      <c r="M130" s="21">
+      <c r="N130" s="21">
         <v>131.1333333</v>
       </c>
-      <c r="N130" s="20">
+      <c r="O130" s="20">
         <v>850</v>
       </c>
-      <c r="O130" s="24" t="s">
+      <c r="P130" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="P130" s="9"/>
-      <c r="Q130" s="7" t="s">
+      <c r="Q130" s="9"/>
+      <c r="R130" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="R130" s="10" t="s">
+      <c r="S130" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S130" s="7" t="s">
+      <c r="T130" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="T130" s="11" t="s">
+      <c r="U130" s="11" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A131" s="7" t="s">
         <v>43</v>
       </c>
@@ -9277,46 +9541,47 @@
       <c r="D131" s="29">
         <v>130</v>
       </c>
-      <c r="E131" s="7" t="s">
+      <c r="E131" s="32"/>
+      <c r="F131" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c r="H131" s="7"/>
-      <c r="I131" s="8">
+      <c r="I131" s="7"/>
+      <c r="J131" s="8">
         <v>24688</v>
       </c>
-      <c r="J131" s="7">
+      <c r="K131" s="7">
         <v>99999</v>
       </c>
-      <c r="K131" s="11"/>
-      <c r="L131" s="21">
+      <c r="L131" s="11"/>
+      <c r="M131" s="21">
         <v>63.25</v>
       </c>
-      <c r="M131" s="21">
+      <c r="N131" s="21">
         <v>143.15</v>
       </c>
-      <c r="N131" s="20">
+      <c r="O131" s="20">
         <v>741</v>
       </c>
-      <c r="O131" s="24" t="s">
+      <c r="P131" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="P131" s="9"/>
-      <c r="Q131" s="7" t="s">
+      <c r="Q131" s="9"/>
+      <c r="R131" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="R131" s="10" t="s">
+      <c r="S131" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S131" s="7" t="s">
+      <c r="T131" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="T131" s="11" t="s">
+      <c r="U131" s="11" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A132" s="7" t="s">
         <v>48</v>
       </c>
@@ -9329,44 +9594,45 @@
       <c r="D132" s="29">
         <v>131</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="E132" s="32"/>
+      <c r="F132" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c r="H132" s="7"/>
-      <c r="I132" s="8">
+      <c r="I132" s="7"/>
+      <c r="J132" s="8">
         <v>38875</v>
       </c>
-      <c r="J132" s="7">
+      <c r="K132" s="7">
         <v>99999</v>
       </c>
-      <c r="K132" s="11"/>
-      <c r="L132" s="21">
+      <c r="L132" s="11"/>
+      <c r="M132" s="21">
         <v>39.016666600000001</v>
       </c>
-      <c r="M132" s="21">
+      <c r="N132" s="21">
         <v>73.55</v>
       </c>
-      <c r="N132" s="20">
+      <c r="O132" s="20">
         <v>3940</v>
       </c>
-      <c r="O132" s="14" t="s">
+      <c r="P132" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="P132" s="9"/>
-      <c r="Q132" s="7" t="s">
+      <c r="Q132" s="9"/>
+      <c r="R132" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="R132" s="10" t="s">
+      <c r="S132" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S132" s="7" t="s">
+      <c r="T132" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="T132" s="11"/>
-    </row>
-    <row r="133" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U132" s="11"/>
+    </row>
+    <row r="133" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A133" s="7" t="s">
         <v>53</v>
       </c>
@@ -9379,44 +9645,45 @@
       <c r="D133" s="29">
         <v>132</v>
       </c>
-      <c r="E133" s="7" t="s">
+      <c r="E133" s="32"/>
+      <c r="F133" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
-      <c r="I133" s="8">
+      <c r="I133" s="7"/>
+      <c r="J133" s="8">
         <v>38358</v>
       </c>
-      <c r="J133" s="7">
+      <c r="K133" s="7">
         <v>99999</v>
       </c>
-      <c r="K133" s="11"/>
-      <c r="L133" s="21">
+      <c r="L133" s="11"/>
+      <c r="M133" s="21">
         <v>42.15</v>
       </c>
-      <c r="M133" s="21">
+      <c r="N133" s="21">
         <v>73.983000000000004</v>
       </c>
-      <c r="N133" s="20">
+      <c r="O133" s="20">
         <v>2092</v>
       </c>
-      <c r="O133" s="14" t="s">
+      <c r="P133" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="P133" s="9"/>
-      <c r="Q133" s="7" t="s">
+      <c r="Q133" s="9"/>
+      <c r="R133" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="R133" s="10" t="s">
+      <c r="S133" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="S133" s="7" t="s">
+      <c r="T133" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="T133" s="11"/>
-    </row>
-    <row r="134" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U133" s="11"/>
+    </row>
+    <row r="134" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A134" s="15" t="s">
         <v>507</v>
       </c>
@@ -9429,46 +9696,47 @@
       <c r="D134" s="29">
         <v>133</v>
       </c>
-      <c r="E134" s="15" t="s">
+      <c r="E134" s="32"/>
+      <c r="F134" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="F134" s="15"/>
       <c r="G134" s="15"/>
       <c r="H134" s="15"/>
-      <c r="I134" s="8">
+      <c r="I134" s="15"/>
+      <c r="J134" s="8">
         <v>71917</v>
       </c>
-      <c r="J134" s="15">
+      <c r="K134" s="15">
         <v>99999</v>
       </c>
-      <c r="K134" s="16"/>
-      <c r="L134" s="21">
+      <c r="L134" s="16"/>
+      <c r="M134" s="21">
         <v>79.983333299999998</v>
       </c>
-      <c r="M134" s="21">
+      <c r="N134" s="21">
         <v>-85.933333300000001</v>
       </c>
-      <c r="N134" s="20">
+      <c r="O134" s="20">
         <v>10</v>
       </c>
-      <c r="O134" s="24" t="s">
+      <c r="P134" s="24" t="s">
         <v>508</v>
       </c>
-      <c r="P134" s="9"/>
-      <c r="Q134" s="15" t="s">
+      <c r="Q134" s="9"/>
+      <c r="R134" s="15" t="s">
         <v>510</v>
       </c>
-      <c r="R134" s="10" t="s">
+      <c r="S134" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="S134" s="15" t="s">
+      <c r="T134" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="T134" s="11" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U134" s="11" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A135" s="15" t="s">
         <v>513</v>
       </c>
@@ -9481,44 +9749,45 @@
       <c r="D135" s="29">
         <v>134</v>
       </c>
-      <c r="E135" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="F135" s="15"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="15" t="s">
+        <v>525</v>
+      </c>
       <c r="G135" s="15"/>
       <c r="H135" s="15"/>
-      <c r="I135" s="8">
+      <c r="I135" s="15"/>
+      <c r="J135" s="8">
         <v>70194</v>
       </c>
-      <c r="J135" s="15">
+      <c r="K135" s="15">
         <v>99999</v>
       </c>
-      <c r="K135" s="16"/>
-      <c r="L135" s="21">
+      <c r="L135" s="16"/>
+      <c r="M135" s="21">
         <v>66.566999999999993</v>
       </c>
-      <c r="M135" s="21">
+      <c r="N135" s="21">
         <v>-145.267</v>
       </c>
-      <c r="N135" s="20">
+      <c r="O135" s="20">
         <v>135</v>
       </c>
-      <c r="O135" s="24" t="s">
+      <c r="P135" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="P135" s="9"/>
-      <c r="Q135" s="15" t="s">
+      <c r="Q135" s="9"/>
+      <c r="R135" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="R135" s="10" t="s">
+      <c r="S135" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="S135" s="15" t="s">
+      <c r="T135" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="T135" s="11"/>
-    </row>
-    <row r="136" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U135" s="11"/>
+    </row>
+    <row r="136" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A136" s="15" t="s">
         <v>513</v>
       </c>
@@ -9531,44 +9800,45 @@
       <c r="D136" s="29">
         <v>135</v>
       </c>
-      <c r="E136" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="F136" s="15"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="15" t="s">
+        <v>522</v>
+      </c>
       <c r="G136" s="15"/>
       <c r="H136" s="15"/>
-      <c r="I136" s="8">
+      <c r="I136" s="15"/>
+      <c r="J136" s="8">
         <v>72613</v>
       </c>
-      <c r="J136" s="15">
+      <c r="K136" s="15">
         <v>99999</v>
       </c>
-      <c r="K136" s="16"/>
-      <c r="L136" s="21">
+      <c r="L136" s="16"/>
+      <c r="M136" s="21">
         <v>44.267000000000003</v>
       </c>
-      <c r="M136" s="21">
+      <c r="N136" s="21">
         <v>-71.3</v>
       </c>
-      <c r="N136" s="20">
+      <c r="O136" s="20">
         <v>1910</v>
       </c>
-      <c r="O136" s="24" t="s">
+      <c r="P136" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q136" s="9"/>
+      <c r="R136" s="15"/>
+      <c r="S136" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="T136" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="P136" s="9"/>
-      <c r="Q136" s="15"/>
-      <c r="R136" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="S136" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="T136" s="11" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U136" s="11" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A137" s="15" t="s">
         <v>519</v>
       </c>
@@ -9581,46 +9851,47 @@
       <c r="D137" s="29">
         <v>136</v>
       </c>
-      <c r="E137" s="15" t="s">
+      <c r="E137" s="32"/>
+      <c r="F137" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="F137" s="15"/>
       <c r="G137" s="15"/>
       <c r="H137" s="15"/>
-      <c r="I137" s="30">
+      <c r="I137" s="15"/>
+      <c r="J137" s="30">
         <v>4419</v>
       </c>
-      <c r="J137" s="15">
+      <c r="K137" s="15">
         <v>99999</v>
       </c>
-      <c r="K137" s="16"/>
-      <c r="L137" s="21">
+      <c r="L137" s="16"/>
+      <c r="M137" s="21">
         <v>72.572778</v>
       </c>
-      <c r="M137" s="21">
+      <c r="N137" s="21">
         <v>-38.470278</v>
       </c>
-      <c r="N137" s="20">
+      <c r="O137" s="20">
         <v>3204</v>
       </c>
-      <c r="O137" s="24" t="s">
+      <c r="P137" s="24" t="s">
         <v>520</v>
       </c>
-      <c r="P137" s="9"/>
-      <c r="Q137" s="15" t="s">
+      <c r="Q137" s="9"/>
+      <c r="R137" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="R137" s="10" t="s">
+      <c r="S137" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="S137" s="15"/>
-      <c r="T137" s="11" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T137" s="15"/>
+      <c r="U137" s="11" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A138" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B138" s="26" t="s">
         <v>505</v>
@@ -9631,44 +9902,45 @@
       <c r="D138" s="29">
         <v>137</v>
       </c>
-      <c r="E138" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="F138" s="15"/>
+      <c r="E138" s="32"/>
+      <c r="F138" s="15" t="s">
+        <v>527</v>
+      </c>
       <c r="G138" s="15"/>
       <c r="H138" s="15"/>
-      <c r="I138" s="30">
+      <c r="I138" s="15"/>
+      <c r="J138" s="30">
         <v>1065</v>
       </c>
-      <c r="J138" s="15">
+      <c r="K138" s="15">
         <v>99999</v>
       </c>
-      <c r="K138" s="16"/>
-      <c r="L138" s="21">
+      <c r="L138" s="16"/>
+      <c r="M138" s="21">
         <v>69.466666599999996</v>
       </c>
-      <c r="M138" s="21">
+      <c r="N138" s="21">
         <v>25.516666600000001</v>
       </c>
-      <c r="N138" s="20">
+      <c r="O138" s="20">
         <v>133</v>
       </c>
-      <c r="O138" s="24" t="s">
+      <c r="P138" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q138" s="9"/>
+      <c r="R138" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="P138" s="9"/>
-      <c r="Q138" s="15" t="s">
+      <c r="S138" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="T138" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="R138" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="S138" s="15" t="s">
-        <v>531</v>
-      </c>
-      <c r="T138" s="11"/>
-    </row>
-    <row r="139" spans="1:20" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U138" s="11"/>
+    </row>
+    <row r="139" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A139" s="15" t="s">
         <v>48</v>
       </c>
@@ -9681,340 +9953,354 @@
       <c r="D139" s="29">
         <v>138</v>
       </c>
-      <c r="E139" s="15" t="s">
+      <c r="E139" s="32"/>
+      <c r="F139" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="F139" s="15"/>
       <c r="G139" s="15"/>
       <c r="H139" s="15"/>
-      <c r="I139" s="8">
+      <c r="I139" s="15"/>
+      <c r="J139" s="8">
         <v>38878</v>
       </c>
-      <c r="J139" s="15">
+      <c r="K139" s="15">
         <v>99999</v>
       </c>
-      <c r="K139" s="16"/>
-      <c r="L139" s="21">
+      <c r="L139" s="16"/>
+      <c r="M139" s="21">
         <v>38.166666599999999</v>
       </c>
-      <c r="M139" s="21">
+      <c r="N139" s="21">
         <v>73.966666599999996</v>
       </c>
-      <c r="N139" s="20">
+      <c r="O139" s="20">
         <v>3576</v>
       </c>
-      <c r="O139" s="24" t="s">
+      <c r="P139" s="24" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q139" s="9"/>
+      <c r="R139" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="P139" s="9"/>
-      <c r="Q139" s="15" t="s">
-        <v>534</v>
-      </c>
-      <c r="R139" s="10" t="s">
+      <c r="S139" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="S139" s="15" t="s">
-        <v>532</v>
-      </c>
-      <c r="T139" s="11"/>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T139" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="U139" s="11"/>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A140" s="15"/>
       <c r="B140" s="26"/>
       <c r="C140" s="26"/>
       <c r="D140" s="29"/>
-      <c r="E140" s="15"/>
+      <c r="E140" s="32"/>
       <c r="F140" s="15"/>
       <c r="G140" s="15"/>
       <c r="H140" s="15"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="15"/>
-      <c r="K140" s="16"/>
-      <c r="L140" s="21"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="15"/>
+      <c r="L140" s="16"/>
       <c r="M140" s="21"/>
-      <c r="N140" s="20"/>
-      <c r="O140" s="24"/>
-      <c r="P140" s="9"/>
-      <c r="Q140" s="15"/>
-      <c r="R140" s="10"/>
-      <c r="S140" s="15"/>
-      <c r="T140" s="11"/>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="N140" s="21"/>
+      <c r="O140" s="20"/>
+      <c r="P140" s="24"/>
+      <c r="Q140" s="9"/>
+      <c r="R140" s="15"/>
+      <c r="S140" s="10"/>
+      <c r="T140" s="15"/>
+      <c r="U140" s="11"/>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A141" s="15"/>
       <c r="B141" s="26"/>
       <c r="C141" s="26"/>
       <c r="D141" s="29"/>
-      <c r="E141" s="15"/>
+      <c r="E141" s="32"/>
       <c r="F141" s="15"/>
       <c r="G141" s="15"/>
       <c r="H141" s="15"/>
-      <c r="I141" s="8"/>
-      <c r="J141" s="15"/>
-      <c r="K141" s="16"/>
-      <c r="L141" s="21"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="15"/>
+      <c r="L141" s="16"/>
       <c r="M141" s="21"/>
-      <c r="N141" s="20"/>
-      <c r="O141" s="24"/>
-      <c r="P141" s="9"/>
-      <c r="Q141" s="15"/>
-      <c r="R141" s="10"/>
-      <c r="S141" s="15"/>
-      <c r="T141" s="11"/>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="N141" s="21"/>
+      <c r="O141" s="20"/>
+      <c r="P141" s="24"/>
+      <c r="Q141" s="9"/>
+      <c r="R141" s="15"/>
+      <c r="S141" s="10"/>
+      <c r="T141" s="15"/>
+      <c r="U141" s="11"/>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A142" s="15"/>
       <c r="B142" s="26"/>
       <c r="C142" s="26"/>
       <c r="D142" s="29"/>
-      <c r="E142" s="15"/>
+      <c r="E142" s="32"/>
       <c r="F142" s="15"/>
       <c r="G142" s="15"/>
       <c r="H142" s="15"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="15"/>
-      <c r="K142" s="16"/>
-      <c r="L142" s="21"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="8"/>
+      <c r="K142" s="15"/>
+      <c r="L142" s="16"/>
       <c r="M142" s="21"/>
-      <c r="N142" s="20"/>
-      <c r="O142" s="24"/>
-      <c r="P142" s="9"/>
-      <c r="Q142" s="15"/>
-      <c r="R142" s="10"/>
-      <c r="S142" s="15"/>
-      <c r="T142" s="11"/>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="N142" s="21"/>
+      <c r="O142" s="20"/>
+      <c r="P142" s="24"/>
+      <c r="Q142" s="9"/>
+      <c r="R142" s="15"/>
+      <c r="S142" s="10"/>
+      <c r="T142" s="15"/>
+      <c r="U142" s="11"/>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A143" s="15"/>
       <c r="B143" s="26"/>
       <c r="C143" s="26"/>
       <c r="D143" s="29"/>
-      <c r="E143" s="15"/>
+      <c r="E143" s="32"/>
       <c r="F143" s="15"/>
       <c r="G143" s="15"/>
       <c r="H143" s="15"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="15"/>
-      <c r="K143" s="16"/>
-      <c r="L143" s="21"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="15"/>
+      <c r="L143" s="16"/>
       <c r="M143" s="21"/>
-      <c r="N143" s="20"/>
-      <c r="O143" s="24"/>
-      <c r="P143" s="9"/>
-      <c r="Q143" s="15"/>
-      <c r="R143" s="10"/>
-      <c r="S143" s="15"/>
-      <c r="T143" s="11"/>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="N143" s="21"/>
+      <c r="O143" s="20"/>
+      <c r="P143" s="24"/>
+      <c r="Q143" s="9"/>
+      <c r="R143" s="15"/>
+      <c r="S143" s="10"/>
+      <c r="T143" s="15"/>
+      <c r="U143" s="11"/>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A144" s="15"/>
       <c r="B144" s="26"/>
       <c r="C144" s="26"/>
       <c r="D144" s="29"/>
-      <c r="E144" s="15"/>
+      <c r="E144" s="32"/>
       <c r="F144" s="15"/>
       <c r="G144" s="15"/>
       <c r="H144" s="15"/>
-      <c r="I144" s="8"/>
-      <c r="J144" s="15"/>
-      <c r="K144" s="16"/>
-      <c r="L144" s="21"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="8"/>
+      <c r="K144" s="15"/>
+      <c r="L144" s="16"/>
       <c r="M144" s="21"/>
-      <c r="N144" s="20"/>
-      <c r="O144" s="24"/>
-      <c r="P144" s="9"/>
-      <c r="Q144" s="15"/>
-      <c r="R144" s="10"/>
-      <c r="S144" s="15"/>
-      <c r="T144" s="11"/>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="N144" s="21"/>
+      <c r="O144" s="20"/>
+      <c r="P144" s="24"/>
+      <c r="Q144" s="9"/>
+      <c r="R144" s="15"/>
+      <c r="S144" s="10"/>
+      <c r="T144" s="15"/>
+      <c r="U144" s="11"/>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A145" s="15"/>
       <c r="B145" s="26"/>
       <c r="C145" s="26"/>
       <c r="D145" s="29"/>
-      <c r="E145" s="15"/>
+      <c r="E145" s="32"/>
       <c r="F145" s="15"/>
       <c r="G145" s="15"/>
       <c r="H145" s="15"/>
-      <c r="I145" s="8"/>
-      <c r="J145" s="15"/>
-      <c r="K145" s="16"/>
-      <c r="L145" s="21"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="15"/>
+      <c r="L145" s="16"/>
       <c r="M145" s="21"/>
-      <c r="N145" s="20"/>
-      <c r="O145" s="24"/>
-      <c r="P145" s="9"/>
-      <c r="Q145" s="15"/>
-      <c r="R145" s="10"/>
-      <c r="S145" s="15"/>
-      <c r="T145" s="11"/>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="N145" s="21"/>
+      <c r="O145" s="20"/>
+      <c r="P145" s="24"/>
+      <c r="Q145" s="9"/>
+      <c r="R145" s="15"/>
+      <c r="S145" s="10"/>
+      <c r="T145" s="15"/>
+      <c r="U145" s="11"/>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A146" s="15"/>
       <c r="B146" s="26"/>
       <c r="C146" s="26"/>
       <c r="D146" s="29"/>
-      <c r="E146" s="15"/>
+      <c r="E146" s="32"/>
       <c r="F146" s="15"/>
       <c r="G146" s="15"/>
       <c r="H146" s="15"/>
-      <c r="I146" s="8"/>
-      <c r="J146" s="15"/>
-      <c r="K146" s="16"/>
-      <c r="L146" s="21"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="15"/>
+      <c r="L146" s="16"/>
       <c r="M146" s="21"/>
-      <c r="N146" s="20"/>
-      <c r="O146" s="24"/>
-      <c r="P146" s="9"/>
-      <c r="Q146" s="15"/>
-      <c r="R146" s="10"/>
-      <c r="S146" s="15"/>
-      <c r="T146" s="11"/>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="N146" s="21"/>
+      <c r="O146" s="20"/>
+      <c r="P146" s="24"/>
+      <c r="Q146" s="9"/>
+      <c r="R146" s="15"/>
+      <c r="S146" s="10"/>
+      <c r="T146" s="15"/>
+      <c r="U146" s="11"/>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A147" s="15"/>
       <c r="B147" s="26"/>
       <c r="C147" s="26"/>
       <c r="D147" s="29"/>
-      <c r="E147" s="15"/>
+      <c r="E147" s="32"/>
       <c r="F147" s="15"/>
       <c r="G147" s="15"/>
       <c r="H147" s="15"/>
-      <c r="I147" s="8"/>
-      <c r="J147" s="15"/>
-      <c r="K147" s="16"/>
-      <c r="L147" s="21"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="15"/>
+      <c r="L147" s="16"/>
       <c r="M147" s="21"/>
-      <c r="N147" s="20"/>
-      <c r="O147" s="24"/>
-      <c r="P147" s="9"/>
-      <c r="Q147" s="15"/>
-      <c r="R147" s="10"/>
-      <c r="S147" s="15"/>
-      <c r="T147" s="11"/>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="N147" s="21"/>
+      <c r="O147" s="20"/>
+      <c r="P147" s="24"/>
+      <c r="Q147" s="9"/>
+      <c r="R147" s="15"/>
+      <c r="S147" s="10"/>
+      <c r="T147" s="15"/>
+      <c r="U147" s="11"/>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A148" s="15"/>
       <c r="B148" s="26"/>
       <c r="C148" s="26"/>
       <c r="D148" s="29"/>
-      <c r="E148" s="15"/>
+      <c r="E148" s="32"/>
       <c r="F148" s="15"/>
       <c r="G148" s="15"/>
       <c r="H148" s="15"/>
-      <c r="I148" s="8"/>
-      <c r="J148" s="15"/>
-      <c r="K148" s="16"/>
-      <c r="L148" s="21"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="15"/>
+      <c r="L148" s="16"/>
       <c r="M148" s="21"/>
-      <c r="N148" s="20"/>
-      <c r="O148" s="24"/>
-      <c r="P148" s="9"/>
-      <c r="Q148" s="15"/>
-      <c r="R148" s="10"/>
-      <c r="S148" s="15"/>
-      <c r="T148" s="11"/>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="N148" s="21"/>
+      <c r="O148" s="20"/>
+      <c r="P148" s="24"/>
+      <c r="Q148" s="9"/>
+      <c r="R148" s="15"/>
+      <c r="S148" s="10"/>
+      <c r="T148" s="15"/>
+      <c r="U148" s="11"/>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A149" s="15"/>
       <c r="B149" s="26"/>
       <c r="C149" s="26"/>
       <c r="D149" s="29"/>
-      <c r="E149" s="15"/>
+      <c r="E149" s="32"/>
       <c r="F149" s="15"/>
       <c r="G149" s="15"/>
       <c r="H149" s="15"/>
-      <c r="I149" s="8"/>
-      <c r="J149" s="15"/>
-      <c r="K149" s="16"/>
-      <c r="L149" s="21"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="15"/>
+      <c r="L149" s="16"/>
       <c r="M149" s="21"/>
-      <c r="N149" s="20"/>
-      <c r="O149" s="24"/>
-      <c r="P149" s="9"/>
-      <c r="Q149" s="15"/>
-      <c r="R149" s="10"/>
-      <c r="S149" s="15"/>
-      <c r="T149" s="11"/>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="N149" s="21"/>
+      <c r="O149" s="20"/>
+      <c r="P149" s="24"/>
+      <c r="Q149" s="9"/>
+      <c r="R149" s="15"/>
+      <c r="S149" s="10"/>
+      <c r="T149" s="15"/>
+      <c r="U149" s="11"/>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A150" s="15"/>
       <c r="B150" s="26"/>
       <c r="C150" s="26"/>
       <c r="D150" s="29"/>
-      <c r="E150" s="15"/>
+      <c r="E150" s="32"/>
       <c r="F150" s="15"/>
       <c r="G150" s="15"/>
       <c r="H150" s="15"/>
-      <c r="I150" s="8"/>
-      <c r="J150" s="15"/>
-      <c r="K150" s="16"/>
-      <c r="L150" s="21"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="8"/>
+      <c r="K150" s="15"/>
+      <c r="L150" s="16"/>
       <c r="M150" s="21"/>
-      <c r="N150" s="20"/>
-      <c r="O150" s="24"/>
-      <c r="P150" s="9"/>
-      <c r="Q150" s="15"/>
-      <c r="R150" s="10"/>
-      <c r="S150" s="15"/>
-      <c r="T150" s="11"/>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="N150" s="21"/>
+      <c r="O150" s="20"/>
+      <c r="P150" s="24"/>
+      <c r="Q150" s="9"/>
+      <c r="R150" s="15"/>
+      <c r="S150" s="10"/>
+      <c r="T150" s="15"/>
+      <c r="U150" s="11"/>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A151" s="15"/>
       <c r="B151" s="26"/>
       <c r="C151" s="26"/>
       <c r="D151" s="29"/>
-      <c r="E151" s="15"/>
+      <c r="E151" s="32"/>
       <c r="F151" s="15"/>
       <c r="G151" s="15"/>
       <c r="H151" s="15"/>
-      <c r="I151" s="8"/>
-      <c r="J151" s="15"/>
-      <c r="K151" s="16"/>
-      <c r="L151" s="21"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="15"/>
+      <c r="L151" s="16"/>
       <c r="M151" s="21"/>
-      <c r="N151" s="20"/>
-      <c r="O151" s="24"/>
-      <c r="P151" s="9"/>
-      <c r="Q151" s="15"/>
-      <c r="R151" s="10"/>
-      <c r="S151" s="15"/>
-      <c r="T151" s="11"/>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="N151" s="21"/>
+      <c r="O151" s="20"/>
+      <c r="P151" s="24"/>
+      <c r="Q151" s="9"/>
+      <c r="R151" s="15"/>
+      <c r="S151" s="10"/>
+      <c r="T151" s="15"/>
+      <c r="U151" s="11"/>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A152" s="15"/>
       <c r="B152" s="26"/>
       <c r="C152" s="26"/>
       <c r="D152" s="29"/>
-      <c r="E152" s="15"/>
+      <c r="E152" s="32"/>
       <c r="F152" s="15"/>
       <c r="G152" s="15"/>
       <c r="H152" s="15"/>
-      <c r="I152" s="8"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="16"/>
-      <c r="L152" s="21"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="15"/>
+      <c r="L152" s="16"/>
       <c r="M152" s="21"/>
-      <c r="N152" s="20"/>
-      <c r="O152" s="24"/>
-      <c r="P152" s="9"/>
-      <c r="Q152" s="15"/>
-      <c r="R152" s="10"/>
-      <c r="S152" s="15"/>
-      <c r="T152" s="11"/>
+      <c r="N152" s="21"/>
+      <c r="O152" s="20"/>
+      <c r="P152" s="24"/>
+      <c r="Q152" s="9"/>
+      <c r="R152" s="15"/>
+      <c r="S152" s="10"/>
+      <c r="T152" s="15"/>
+      <c r="U152" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0RycxlrEb4EUw43xbZk2nPUUcJQ8b165SyZ23iOZSdWhQ3T76AYaiZ6XIXZwAki0OYQup09jQTbBqF5c4t1zeA==" saltValue="EUhGQ4DlY9iTKXZXmBnN2A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T139">
+  <sheetProtection algorithmName="SHA-512" hashValue="szJyzQjrxPEMotesaZ7wxKVkRt6CTML7/BbKIUjF5iNB6E4wZa2AAfiKzHETVQSMk5aK2I9OaGVPLygaPEIdIA==" saltValue="ydGuH5tBlkpNd9nf2Oj9Ng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U139">
+    <sortCondition ref="D2:D139"/>
     <sortCondition ref="B2:B139"/>
-    <sortCondition ref="C2:C139"/>
-    <sortCondition ref="E2:E139"/>
     <sortCondition ref="F2:F139"/>
     <sortCondition ref="G2:G139"/>
+    <sortCondition ref="H2:H139"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:T152">
+  <conditionalFormatting sqref="A2:U152">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF(MOD(ROW(), 2), 0, 1)</formula>
     </cfRule>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872CBDE8-2015-4609-A2B8-14C47C996B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6CEB40-F5DD-4C0B-9502-38A54A78FBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="536">
   <si>
     <t>USAF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -657,14 +657,6 @@
   </si>
   <si>
     <t>徐汇区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海西蒙古族藏族自治州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格尔木市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2053,6 +2045,10 @@
   </si>
   <si>
     <t>定榜制图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲麻莱县</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2648,8 +2644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
   <dimension ref="A1:U152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2676,19 +2672,19 @@
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>65</v>
@@ -2709,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M1" s="17" t="s">
         <v>41</v>
@@ -2727,24 +2723,24 @@
         <v>4</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="U1" s="28" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C2" s="26">
         <v>1</v>
@@ -2756,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -2776,13 +2772,13 @@
         <v>799</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="S2" s="10"/>
       <c r="T2" s="7"/>
@@ -2790,10 +2786,10 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C3" s="26">
         <v>2</v>
@@ -2805,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -2825,13 +2821,13 @@
         <v>997</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="S3" s="10"/>
       <c r="T3" s="7"/>
@@ -2839,10 +2835,10 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C4" s="26">
         <v>3</v>
@@ -2854,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -2874,13 +2870,13 @@
         <v>1286</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="S4" s="10"/>
       <c r="T4" s="7"/>
@@ -2888,10 +2884,10 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C5" s="26">
         <v>4</v>
@@ -2903,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -2923,13 +2919,13 @@
         <v>2156</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="S5" s="10"/>
       <c r="T5" s="7"/>
@@ -2937,10 +2933,10 @@
     </row>
     <row r="6" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C6" s="26">
         <v>5</v>
@@ -2952,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -2972,13 +2968,13 @@
         <v>1546</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S6" s="10"/>
       <c r="T6" s="7"/>
@@ -2986,10 +2982,10 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C7" s="26">
         <v>6</v>
@@ -3001,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -3021,13 +3017,13 @@
         <v>675</v>
       </c>
       <c r="P7" s="24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="S7" s="10"/>
       <c r="T7" s="7"/>
@@ -3035,10 +3031,10 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C8" s="26">
         <v>7</v>
@@ -3050,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -3072,28 +3068,28 @@
         <v>937</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="U8" s="11"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C9" s="26">
         <v>8</v>
@@ -3105,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -3127,28 +3123,28 @@
         <v>1424</v>
       </c>
       <c r="P9" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="U9" s="11"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C10" s="26">
         <v>9</v>
@@ -3160,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -3182,28 +3178,28 @@
         <v>1931</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="U10" s="11"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C11" s="26">
         <v>10</v>
@@ -3215,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -3237,28 +3233,28 @@
         <v>1726</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="U11" s="11"/>
     </row>
     <row r="12" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C12" s="26">
         <v>11</v>
@@ -3270,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -3292,28 +3288,28 @@
         <v>1585</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="U12" s="11"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C13" s="26">
         <v>12</v>
@@ -3325,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -3347,28 +3343,28 @@
         <v>1304</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="U13" s="11"/>
     </row>
     <row r="14" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C14" s="26">
         <v>13</v>
@@ -3378,7 +3374,7 @@
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -3398,11 +3394,11 @@
         <v>2422</v>
       </c>
       <c r="P14" s="24" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Q14" s="9"/>
       <c r="R14" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="S14" s="10"/>
       <c r="T14" s="7"/>
@@ -3410,10 +3406,10 @@
     </row>
     <row r="15" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C15" s="26">
         <v>14</v>
@@ -3423,7 +3419,7 @@
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -3443,11 +3439,11 @@
         <v>2034</v>
       </c>
       <c r="P15" s="24" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="Q15" s="9"/>
       <c r="R15" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="S15" s="10"/>
       <c r="T15" s="7"/>
@@ -3455,10 +3451,10 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C16" s="26">
         <v>15</v>
@@ -3468,7 +3464,7 @@
       </c>
       <c r="E16" s="32"/>
       <c r="F16" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -3488,11 +3484,11 @@
         <v>1166</v>
       </c>
       <c r="P16" s="24" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="Q16" s="9"/>
       <c r="R16" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="S16" s="10"/>
       <c r="T16" s="7"/>
@@ -3500,10 +3496,10 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C17" s="26">
         <v>16</v>
@@ -3513,7 +3509,7 @@
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -3533,11 +3529,11 @@
         <v>1262</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Q17" s="9"/>
       <c r="R17" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="S17" s="10"/>
       <c r="T17" s="7"/>
@@ -3545,10 +3541,10 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C18" s="26">
         <v>17</v>
@@ -3558,7 +3554,7 @@
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -3578,11 +3574,11 @@
         <v>1716</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Q18" s="9"/>
       <c r="R18" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="S18" s="10"/>
       <c r="T18" s="7"/>
@@ -3590,10 +3586,10 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C19" s="26">
         <v>18</v>
@@ -3603,7 +3599,7 @@
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -3623,7 +3619,7 @@
         <v>1805</v>
       </c>
       <c r="P19" s="24" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Q19" s="9"/>
       <c r="R19" s="7"/>
@@ -3633,10 +3629,10 @@
     </row>
     <row r="20" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C20" s="26">
         <v>19</v>
@@ -3646,7 +3642,7 @@
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -3666,11 +3662,11 @@
         <v>1687</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="9"/>
       <c r="R20" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S20" s="10"/>
       <c r="T20" s="7"/>
@@ -3678,10 +3674,10 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C21" s="26">
         <v>20</v>
@@ -3691,7 +3687,7 @@
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -3711,11 +3707,11 @@
         <v>632</v>
       </c>
       <c r="P21" s="24" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Q21" s="9"/>
       <c r="R21" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="S21" s="10"/>
       <c r="T21" s="7"/>
@@ -3723,10 +3719,10 @@
     </row>
     <row r="22" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C22" s="26">
         <v>21</v>
@@ -3736,7 +3732,7 @@
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -3756,11 +3752,11 @@
         <v>859</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q22" s="9"/>
       <c r="R22" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="S22" s="10"/>
       <c r="T22" s="7"/>
@@ -3768,10 +3764,10 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C23" s="26">
         <v>22</v>
@@ -3781,7 +3777,7 @@
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -3801,11 +3797,11 @@
         <v>1393</v>
       </c>
       <c r="P23" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="Q23" s="9"/>
       <c r="R23" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="S23" s="10"/>
       <c r="T23" s="7"/>
@@ -3813,10 +3809,10 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C24" s="26">
         <v>23</v>
@@ -3826,7 +3822,7 @@
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -3846,11 +3842,11 @@
         <v>1593</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="Q24" s="9"/>
       <c r="R24" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="S24" s="10"/>
       <c r="T24" s="7"/>
@@ -3858,10 +3854,10 @@
     </row>
     <row r="25" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C25" s="26">
         <v>24</v>
@@ -3871,7 +3867,7 @@
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -3891,11 +3887,11 @@
         <v>1142</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Q25" s="9"/>
       <c r="R25" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="S25" s="10"/>
       <c r="T25" s="7"/>
@@ -3903,10 +3899,10 @@
     </row>
     <row r="26" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C26" s="26">
         <v>25</v>
@@ -3916,7 +3912,7 @@
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -3936,11 +3932,11 @@
         <v>1212</v>
       </c>
       <c r="P26" s="24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q26" s="9"/>
       <c r="R26" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="S26" s="10"/>
       <c r="T26" s="7"/>
@@ -3948,10 +3944,10 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C27" s="26">
         <v>26</v>
@@ -3961,7 +3957,7 @@
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -3985,11 +3981,11 @@
         <v>1233</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q27" s="9"/>
       <c r="R27" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="S27" s="10"/>
       <c r="T27" s="7"/>
@@ -3997,10 +3993,10 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C28" s="26">
         <v>27</v>
@@ -4010,7 +4006,7 @@
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -4030,11 +4026,11 @@
         <v>1045</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Q28" s="9"/>
       <c r="R28" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="S28" s="10"/>
       <c r="T28" s="7"/>
@@ -4042,10 +4038,10 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C29" s="26">
         <v>28</v>
@@ -4055,7 +4051,7 @@
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -4075,11 +4071,11 @@
         <v>1858</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Q29" s="9"/>
       <c r="R29" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="S29" s="10"/>
       <c r="T29" s="7"/>
@@ -4087,10 +4083,10 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C30" s="26">
         <v>29</v>
@@ -4100,7 +4096,7 @@
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -4120,11 +4116,11 @@
         <v>1656</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Q30" s="9"/>
       <c r="R30" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S30" s="10"/>
       <c r="T30" s="7"/>
@@ -4132,10 +4128,10 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C31" s="26">
         <v>30</v>
@@ -4145,7 +4141,7 @@
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -4165,11 +4161,11 @@
         <v>1851</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q31" s="9"/>
       <c r="R31" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S31" s="10"/>
       <c r="T31" s="7"/>
@@ -4177,10 +4173,10 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C32" s="26">
         <v>31</v>
@@ -4190,7 +4186,7 @@
       </c>
       <c r="E32" s="32"/>
       <c r="F32" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -4210,11 +4206,11 @@
         <v>1569</v>
       </c>
       <c r="P32" s="24" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q32" s="9"/>
       <c r="R32" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="S32" s="10"/>
       <c r="T32" s="7"/>
@@ -4222,10 +4218,10 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C33" s="26">
         <v>32</v>
@@ -4235,7 +4231,7 @@
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -4255,11 +4251,11 @@
         <v>1811</v>
       </c>
       <c r="P33" s="24" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q33" s="9"/>
       <c r="R33" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S33" s="10"/>
       <c r="T33" s="7"/>
@@ -4267,10 +4263,10 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C34" s="26">
         <v>33</v>
@@ -4280,7 +4276,7 @@
       </c>
       <c r="E34" s="32"/>
       <c r="F34" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -4300,11 +4296,11 @@
         <v>1776</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Q34" s="9"/>
       <c r="R34" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="S34" s="10"/>
       <c r="T34" s="7"/>
@@ -4312,10 +4308,10 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C35" s="26">
         <v>34</v>
@@ -4325,7 +4321,7 @@
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -4345,7 +4341,7 @@
         <v>1271</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q35" s="9"/>
       <c r="R35" s="7"/>
@@ -4355,10 +4351,10 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C36" s="26">
         <v>35</v>
@@ -4368,7 +4364,7 @@
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -4388,11 +4384,11 @@
         <v>2113</v>
       </c>
       <c r="P36" s="24" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="Q36" s="9"/>
       <c r="R36" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="S36" s="10"/>
       <c r="T36" s="7"/>
@@ -4400,10 +4396,10 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C37" s="26">
         <v>36</v>
@@ -4413,7 +4409,7 @@
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -4433,11 +4429,11 @@
         <v>1963</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q37" s="9"/>
       <c r="R37" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S37" s="10"/>
       <c r="T37" s="7"/>
@@ -4445,10 +4441,10 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C38" s="26">
         <v>37</v>
@@ -4458,7 +4454,7 @@
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -4478,11 +4474,11 @@
         <v>1777</v>
       </c>
       <c r="P38" s="24" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Q38" s="9"/>
       <c r="R38" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="S38" s="10"/>
       <c r="T38" s="7"/>
@@ -4490,10 +4486,10 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C39" s="26">
         <v>1</v>
@@ -4505,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -4527,26 +4523,26 @@
         <v>257</v>
       </c>
       <c r="P39" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="S39" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T39" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="U39" s="11"/>
     </row>
     <row r="40" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C40" s="26">
         <v>2</v>
@@ -4558,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -4580,26 +4576,26 @@
         <v>272</v>
       </c>
       <c r="P40" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q40" s="9"/>
       <c r="R40" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T40" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="U40" s="11"/>
     </row>
     <row r="41" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C41" s="26">
         <v>3</v>
@@ -4611,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -4633,28 +4629,28 @@
         <v>902</v>
       </c>
       <c r="P41" s="24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="S41" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T41" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="U41" s="11"/>
     </row>
     <row r="42" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C42" s="26">
         <v>4</v>
@@ -4666,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -4688,26 +4684,26 @@
         <v>543</v>
       </c>
       <c r="P42" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Q42" s="9"/>
       <c r="R42" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T42" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="U42" s="11"/>
     </row>
     <row r="43" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C43" s="26">
         <v>5</v>
@@ -4719,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -4741,26 +4737,26 @@
         <v>153</v>
       </c>
       <c r="P43" s="24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q43" s="9"/>
       <c r="R43" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="S43" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T43" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="U43" s="11"/>
     </row>
     <row r="44" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C44" s="26">
         <v>6</v>
@@ -4772,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -4794,17 +4790,17 @@
         <v>625</v>
       </c>
       <c r="P44" s="24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q44" s="9"/>
       <c r="R44" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T44" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="U44" s="11"/>
     </row>
@@ -4813,7 +4809,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C45" s="26">
         <v>7</v>
@@ -4825,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -4850,25 +4846,25 @@
         <v>45</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="S45" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T45" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="U45" s="11"/>
     </row>
     <row r="46" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C46" s="26">
         <v>8</v>
@@ -4880,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -4902,26 +4898,26 @@
         <v>489</v>
       </c>
       <c r="P46" s="24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q46" s="9"/>
       <c r="R46" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T46" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="U46" s="11"/>
     </row>
     <row r="47" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C47" s="26">
         <v>9</v>
@@ -4933,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -4955,19 +4951,19 @@
         <v>533</v>
       </c>
       <c r="P47" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="S47" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T47" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="U47" s="11"/>
     </row>
@@ -4976,7 +4972,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C48" s="26">
         <v>10</v>
@@ -4988,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -5014,22 +5010,22 @@
       </c>
       <c r="Q48" s="9"/>
       <c r="R48" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="S48" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T48" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="U48" s="11"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A49" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C49" s="26">
         <v>11</v>
@@ -5041,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -5063,28 +5059,28 @@
         <v>628</v>
       </c>
       <c r="P49" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T49" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="U49" s="11"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C50" s="26">
         <v>12</v>
@@ -5096,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -5118,26 +5114,26 @@
         <v>1100</v>
       </c>
       <c r="P50" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Q50" s="9"/>
       <c r="R50" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="S50" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T50" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="U50" s="11"/>
     </row>
     <row r="51" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C51" s="26">
         <v>13</v>
@@ -5149,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -5171,28 +5167,28 @@
         <v>1759</v>
       </c>
       <c r="P51" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="S51" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T51" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="U51" s="11"/>
     </row>
     <row r="52" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A52" s="15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C52" s="26">
         <v>14</v>
@@ -5202,7 +5198,7 @@
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
@@ -5224,17 +5220,17 @@
         <v>370</v>
       </c>
       <c r="P52" s="24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q52" s="9"/>
       <c r="R52" s="15" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="T52" s="15" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="U52" s="11"/>
     </row>
@@ -5243,7 +5239,7 @@
         <v>46</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C53" s="26">
         <v>1</v>
@@ -5255,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -5282,19 +5278,19 @@
       <c r="Q53" s="9"/>
       <c r="R53" s="7"/>
       <c r="S53" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T53" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="U53" s="11"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A54" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C54" s="26">
         <v>2</v>
@@ -5306,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -5328,17 +5324,17 @@
         <v>1381</v>
       </c>
       <c r="P54" s="24" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="Q54" s="9"/>
       <c r="R54" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="S54" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="T54" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="U54" s="11"/>
     </row>
@@ -5347,7 +5343,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C55" s="26">
         <v>1</v>
@@ -5360,10 +5356,10 @@
         <v>92</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="8">
@@ -5383,17 +5379,17 @@
         <v>51</v>
       </c>
       <c r="P55" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q55" s="9"/>
       <c r="R55" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="S55" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T55" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="U55" s="11"/>
     </row>
@@ -5402,7 +5398,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C56" s="26">
         <v>2</v>
@@ -5443,10 +5439,10 @@
         <v>18</v>
       </c>
       <c r="Q56" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R56" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S56" s="10"/>
       <c r="T56" s="7"/>
@@ -5457,7 +5453,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C57" s="26">
         <v>3</v>
@@ -5470,10 +5466,10 @@
         <v>91</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="8">
@@ -5493,17 +5489,17 @@
         <v>236.8</v>
       </c>
       <c r="P57" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q57" s="9"/>
       <c r="R57" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="S57" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T57" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="U57" s="11"/>
     </row>
@@ -5512,7 +5508,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C58" s="26">
         <v>4</v>
@@ -5553,16 +5549,16 @@
         <v>19</v>
       </c>
       <c r="Q58" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R58" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S58" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T58" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="U58" s="11"/>
     </row>
@@ -5571,7 +5567,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C59" s="26">
         <v>5</v>
@@ -5612,16 +5608,16 @@
         <v>20</v>
       </c>
       <c r="Q59" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R59" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="S59" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T59" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="U59" s="11"/>
     </row>
@@ -5630,7 +5626,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C60" s="26">
         <v>6</v>
@@ -5671,10 +5667,10 @@
         <v>16</v>
       </c>
       <c r="Q60" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R60" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S60" s="10"/>
       <c r="T60" s="7"/>
@@ -5685,7 +5681,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C61" s="26">
         <v>7</v>
@@ -5727,13 +5723,13 @@
       </c>
       <c r="Q61" s="9"/>
       <c r="R61" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="S61" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T61" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="U61" s="11"/>
     </row>
@@ -5742,7 +5738,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C62" s="26">
         <v>8</v>
@@ -5784,7 +5780,7 @@
       </c>
       <c r="Q62" s="9"/>
       <c r="R62" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S62" s="10"/>
       <c r="T62" s="7"/>
@@ -5795,7 +5791,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C63" s="26">
         <v>9</v>
@@ -5837,7 +5833,7 @@
       </c>
       <c r="Q63" s="9"/>
       <c r="R63" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="S63" s="10"/>
       <c r="T63" s="7"/>
@@ -5848,7 +5844,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C64" s="26">
         <v>10</v>
@@ -5889,16 +5885,16 @@
         <v>5</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R64" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S64" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T64" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="U64" s="11"/>
     </row>
@@ -5907,7 +5903,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C65" s="26">
         <v>11</v>
@@ -5949,7 +5945,7 @@
       </c>
       <c r="Q65" s="9"/>
       <c r="R65" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="S65" s="10"/>
       <c r="T65" s="7"/>
@@ -5960,7 +5956,7 @@
         <v>3</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C66" s="26">
         <v>12</v>
@@ -6001,10 +5997,10 @@
         <v>10</v>
       </c>
       <c r="Q66" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R66" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S66" s="10"/>
       <c r="T66" s="7"/>
@@ -6015,7 +6011,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C67" s="26">
         <v>13</v>
@@ -6056,16 +6052,16 @@
         <v>6</v>
       </c>
       <c r="Q67" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R67" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="S67" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T67" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="U67" s="11"/>
     </row>
@@ -6074,7 +6070,7 @@
         <v>3</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C68" s="26">
         <v>14</v>
@@ -6116,7 +6112,7 @@
       </c>
       <c r="Q68" s="9"/>
       <c r="R68" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S68" s="10"/>
       <c r="T68" s="7"/>
@@ -6127,7 +6123,7 @@
         <v>3</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C69" s="26">
         <v>15</v>
@@ -6167,7 +6163,7 @@
       </c>
       <c r="Q69" s="9"/>
       <c r="R69" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="S69" s="10"/>
       <c r="T69" s="7"/>
@@ -6178,7 +6174,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C70" s="26">
         <v>16</v>
@@ -6220,13 +6216,13 @@
       </c>
       <c r="Q70" s="9"/>
       <c r="R70" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="S70" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T70" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="U70" s="11"/>
     </row>
@@ -6235,7 +6231,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C71" s="26">
         <v>17</v>
@@ -6275,7 +6271,7 @@
       </c>
       <c r="Q71" s="9"/>
       <c r="R71" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="S71" s="10"/>
       <c r="T71" s="7"/>
@@ -6286,7 +6282,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C72" s="26">
         <v>18</v>
@@ -6328,7 +6324,7 @@
       </c>
       <c r="Q72" s="9"/>
       <c r="R72" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S72" s="10"/>
       <c r="T72" s="7"/>
@@ -6339,7 +6335,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C73" s="26">
         <v>19</v>
@@ -6381,13 +6377,13 @@
       </c>
       <c r="Q73" s="9"/>
       <c r="R73" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="S73" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T73" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="U73" s="11"/>
     </row>
@@ -6396,7 +6392,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C74" s="26">
         <v>20</v>
@@ -6437,7 +6433,7 @@
         <v>21</v>
       </c>
       <c r="Q74" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R74" s="7"/>
       <c r="S74" s="10"/>
@@ -6449,7 +6445,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C75" s="26">
         <v>21</v>
@@ -6490,10 +6486,10 @@
         <v>14</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R75" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="S75" s="10"/>
       <c r="T75" s="7"/>
@@ -6504,7 +6500,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C76" s="26">
         <v>22</v>
@@ -6545,10 +6541,10 @@
         <v>15</v>
       </c>
       <c r="Q76" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R76" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="S76" s="10"/>
       <c r="T76" s="7"/>
@@ -6559,7 +6555,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C77" s="26">
         <v>23</v>
@@ -6574,10 +6570,10 @@
         <v>50</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>157</v>
+        <v>535</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="8">
@@ -6600,16 +6596,16 @@
         <v>51</v>
       </c>
       <c r="Q77" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R77" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="S77" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T77" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="U77" s="11"/>
     </row>
@@ -6618,7 +6614,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C78" s="26">
         <v>24</v>
@@ -6630,13 +6626,13 @@
         <v>0</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="8">
@@ -6656,19 +6652,19 @@
         <v>1773.7</v>
       </c>
       <c r="P78" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q78" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R78" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="S78" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T78" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U78" s="11"/>
     </row>
@@ -6677,7 +6673,7 @@
         <v>3</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C79" s="26">
         <v>25</v>
@@ -6718,10 +6714,10 @@
         <v>12</v>
       </c>
       <c r="Q79" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R79" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="S79" s="10"/>
       <c r="T79" s="7"/>
@@ -6732,7 +6728,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C80" s="26">
         <v>26</v>
@@ -6773,10 +6769,10 @@
         <v>13</v>
       </c>
       <c r="Q80" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R80" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="S80" s="10"/>
       <c r="T80" s="7"/>
@@ -6787,7 +6783,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C81" s="26">
         <v>27</v>
@@ -6827,17 +6823,17 @@
         <v>734.8</v>
       </c>
       <c r="P81" s="24" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Q81" s="9"/>
       <c r="R81" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="S81" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T81" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="U81" s="11"/>
     </row>
@@ -6846,7 +6842,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C82" s="26">
         <v>28</v>
@@ -6882,19 +6878,19 @@
         <v>39</v>
       </c>
       <c r="P82" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="Q82" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R82" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="S82" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T82" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U82" s="11"/>
     </row>
@@ -6903,7 +6899,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C83" s="26">
         <v>29</v>
@@ -6944,16 +6940,16 @@
         <v>24</v>
       </c>
       <c r="Q83" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R83" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="S83" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T83" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="U83" s="11"/>
     </row>
@@ -6962,7 +6958,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C84" s="26">
         <v>30</v>
@@ -7003,16 +6999,16 @@
         <v>23</v>
       </c>
       <c r="Q84" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R84" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S84" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T84" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="U84" s="11"/>
     </row>
@@ -7021,7 +7017,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C85" s="26">
         <v>31</v>
@@ -7062,10 +7058,10 @@
         <v>11</v>
       </c>
       <c r="Q85" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R85" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="S85" s="10"/>
       <c r="T85" s="7"/>
@@ -7076,7 +7072,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C86" s="26">
         <v>32</v>
@@ -7117,16 +7113,16 @@
         <v>22</v>
       </c>
       <c r="Q86" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R86" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="S86" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T86" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="U86" s="11"/>
     </row>
@@ -7135,7 +7131,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C87" s="26">
         <v>33</v>
@@ -7145,11 +7141,11 @@
       </c>
       <c r="E87" s="32"/>
       <c r="F87" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I87" s="7"/>
       <c r="J87" s="8">
@@ -7169,17 +7165,17 @@
         <v>32.799999999999997</v>
       </c>
       <c r="P87" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q87" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R87" s="7"/>
       <c r="S87" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T87" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="U87" s="11"/>
     </row>
@@ -7188,7 +7184,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C88" s="26">
         <v>34</v>
@@ -7198,11 +7194,11 @@
       </c>
       <c r="E88" s="32"/>
       <c r="F88" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="8">
@@ -7222,10 +7218,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="P88" s="24" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="Q88" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R88" s="7"/>
       <c r="S88" s="10"/>
@@ -7237,7 +7233,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C89" s="26">
         <v>35</v>
@@ -7247,13 +7243,13 @@
       </c>
       <c r="E89" s="32"/>
       <c r="F89" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="8">
@@ -7273,19 +7269,19 @@
         <v>1111.5999999999999</v>
       </c>
       <c r="P89" s="24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q89" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R89" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="S89" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T89" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="U89" s="11"/>
     </row>
@@ -7294,7 +7290,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C90" s="26">
         <v>36</v>
@@ -7307,10 +7303,10 @@
         <v>96</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I90" s="7"/>
       <c r="J90" s="8">
@@ -7330,17 +7326,17 @@
         <v>89.3</v>
       </c>
       <c r="P90" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q90" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R90" s="7"/>
       <c r="S90" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T90" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="U90" s="11"/>
     </row>
@@ -7349,7 +7345,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C91" s="26">
         <v>37</v>
@@ -7362,10 +7358,10 @@
         <v>93</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I91" s="7"/>
       <c r="J91" s="8">
@@ -7385,19 +7381,19 @@
         <v>776.3</v>
       </c>
       <c r="P91" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q91" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R91" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="S91" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T91" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="U91" s="11"/>
     </row>
@@ -7406,7 +7402,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C92" s="26">
         <v>38</v>
@@ -7419,10 +7415,10 @@
         <v>50</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I92" s="7"/>
       <c r="J92" s="8">
@@ -7442,19 +7438,19 @@
         <v>2434.1999999999998</v>
       </c>
       <c r="P92" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q92" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R92" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="S92" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T92" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="U92" s="11"/>
     </row>
@@ -7463,7 +7459,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C93" s="26">
         <v>39</v>
@@ -7473,13 +7469,13 @@
       </c>
       <c r="E93" s="32"/>
       <c r="F93" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="8">
@@ -7499,19 +7495,19 @@
         <v>170.3</v>
       </c>
       <c r="P93" s="24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q93" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R93" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="S93" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T93" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U93" s="11"/>
     </row>
@@ -7520,7 +7516,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C94" s="26">
         <v>40</v>
@@ -7530,13 +7526,13 @@
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I94" s="7"/>
       <c r="J94" s="8">
@@ -7556,19 +7552,19 @@
         <v>110.4</v>
       </c>
       <c r="P94" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q94" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R94" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="S94" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T94" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="U94" s="11"/>
     </row>
@@ -7577,7 +7573,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C95" s="26">
         <v>41</v>
@@ -7590,10 +7586,10 @@
         <v>131</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I95" s="7"/>
       <c r="J95" s="8">
@@ -7613,22 +7609,22 @@
         <v>410</v>
       </c>
       <c r="P95" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q95" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="R95" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="S95" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="T95" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="U95" s="11" t="s">
         <v>493</v>
-      </c>
-      <c r="Q95" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="R95" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="S95" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="T95" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="U95" s="11" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.4">
@@ -7636,7 +7632,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C96" s="26">
         <v>42</v>
@@ -7675,16 +7671,16 @@
         <v>39</v>
       </c>
       <c r="Q96" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R96" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="S96" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T96" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="U96" s="11"/>
     </row>
@@ -7693,7 +7689,7 @@
         <v>3</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C97" s="26">
         <v>43</v>
@@ -7732,16 +7728,16 @@
         <v>147</v>
       </c>
       <c r="Q97" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R97" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="S97" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T97" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U97" s="11"/>
     </row>
@@ -7750,7 +7746,7 @@
         <v>3</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C98" s="26">
         <v>44</v>
@@ -7789,16 +7785,16 @@
         <v>146</v>
       </c>
       <c r="Q98" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R98" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="S98" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T98" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="U98" s="11"/>
     </row>
@@ -7807,7 +7803,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C99" s="26">
         <v>45</v>
@@ -7843,19 +7839,19 @@
         <v>23.6</v>
       </c>
       <c r="P99" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q99" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R99" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="S99" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T99" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="U99" s="11"/>
     </row>
@@ -7864,7 +7860,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C100" s="26">
         <v>46</v>
@@ -7874,13 +7870,13 @@
       </c>
       <c r="E100" s="32"/>
       <c r="F100" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="8">
@@ -7900,19 +7896,19 @@
         <v>49.8</v>
       </c>
       <c r="P100" s="24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q100" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R100" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S100" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T100" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="U100" s="11"/>
     </row>
@@ -7921,7 +7917,7 @@
         <v>3</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C101" s="26">
         <v>47</v>
@@ -7960,16 +7956,16 @@
         <v>153</v>
       </c>
       <c r="Q101" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R101" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="S101" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T101" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="U101" s="11"/>
     </row>
@@ -7978,7 +7974,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C102" s="26">
         <v>48</v>
@@ -7994,7 +7990,7 @@
         <v>135</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="8">
@@ -8017,16 +8013,16 @@
         <v>134</v>
       </c>
       <c r="Q102" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R102" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="S102" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T102" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="U102" s="11"/>
     </row>
@@ -8035,7 +8031,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C103" s="26">
         <v>49</v>
@@ -8051,7 +8047,7 @@
         <v>113</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I103" s="7"/>
       <c r="J103" s="8">
@@ -8074,16 +8070,16 @@
         <v>32</v>
       </c>
       <c r="Q103" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R103" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="S103" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T103" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="U103" s="11"/>
     </row>
@@ -8092,7 +8088,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C104" s="26">
         <v>50</v>
@@ -8105,10 +8101,10 @@
         <v>117</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="8">
@@ -8128,19 +8124,19 @@
         <v>84.1</v>
       </c>
       <c r="P104" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q104" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R104" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="S104" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T104" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="U104" s="11"/>
     </row>
@@ -8149,7 +8145,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C105" s="26">
         <v>51</v>
@@ -8159,13 +8155,13 @@
       </c>
       <c r="E105" s="32"/>
       <c r="F105" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H105" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="8">
@@ -8185,19 +8181,19 @@
         <v>70.7</v>
       </c>
       <c r="P105" s="24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q105" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R105" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="S105" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T105" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="U105" s="11"/>
     </row>
@@ -8206,7 +8202,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C106" s="26">
         <v>52</v>
@@ -8219,10 +8215,10 @@
         <v>125</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I106" s="7"/>
       <c r="J106" s="8">
@@ -8242,17 +8238,17 @@
         <v>419.4</v>
       </c>
       <c r="P106" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q106" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R106" s="7"/>
       <c r="S106" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T106" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="U106" s="11"/>
     </row>
@@ -8261,7 +8257,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C107" s="26">
         <v>53</v>
@@ -8300,14 +8296,14 @@
         <v>37</v>
       </c>
       <c r="Q107" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R107" s="7"/>
       <c r="S107" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T107" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="U107" s="11"/>
     </row>
@@ -8316,7 +8312,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C108" s="26">
         <v>54</v>
@@ -8326,13 +8322,13 @@
       </c>
       <c r="E108" s="32"/>
       <c r="F108" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H108" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="8">
@@ -8352,19 +8348,19 @@
         <v>152.1</v>
       </c>
       <c r="P108" s="24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q108" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R108" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="S108" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T108" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="U108" s="11"/>
     </row>
@@ -8373,7 +8369,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C109" s="26">
         <v>55</v>
@@ -8412,16 +8408,16 @@
         <v>35</v>
       </c>
       <c r="Q109" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R109" s="7" t="s">
         <v>35</v>
       </c>
       <c r="S109" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T109" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="U109" s="11"/>
     </row>
@@ -8430,7 +8426,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C110" s="26">
         <v>56</v>
@@ -8443,10 +8439,10 @@
         <v>119</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I110" s="7"/>
       <c r="J110" s="8">
@@ -8466,19 +8462,19 @@
         <v>1888.1</v>
       </c>
       <c r="P110" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q110" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R110" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="S110" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T110" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="U110" s="11"/>
     </row>
@@ -8487,7 +8483,7 @@
         <v>3</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C111" s="26">
         <v>57</v>
@@ -8497,13 +8493,13 @@
       </c>
       <c r="E111" s="32"/>
       <c r="F111" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I111" s="7"/>
       <c r="J111" s="8">
@@ -8523,19 +8519,19 @@
         <v>1227.3</v>
       </c>
       <c r="P111" s="24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q111" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R111" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="S111" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T111" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="U111" s="11"/>
     </row>
@@ -8544,7 +8540,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C112" s="26">
         <v>58</v>
@@ -8578,19 +8574,19 @@
         <v>542.1</v>
       </c>
       <c r="P112" s="24" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="Q112" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R112" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="S112" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T112" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="U112" s="11"/>
     </row>
@@ -8599,7 +8595,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C113" s="26">
         <v>59</v>
@@ -8638,16 +8634,16 @@
         <v>40</v>
       </c>
       <c r="Q113" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R113" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="S113" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T113" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="U113" s="11"/>
     </row>
@@ -8656,7 +8652,7 @@
         <v>3</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C114" s="26">
         <v>60</v>
@@ -8692,22 +8688,22 @@
         <v>547.70000000000005</v>
       </c>
       <c r="P114" s="24" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="Q114" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R114" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="S114" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T114" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="U114" s="11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.4">
@@ -8715,7 +8711,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C115" s="26">
         <v>61</v>
@@ -8728,10 +8724,10 @@
         <v>77</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I115" s="7"/>
       <c r="J115" s="8">
@@ -8751,19 +8747,19 @@
         <v>3648.7</v>
       </c>
       <c r="P115" s="24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q115" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R115" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="S115" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T115" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="U115" s="11"/>
     </row>
@@ -8772,7 +8768,7 @@
         <v>3</v>
       </c>
       <c r="B116" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C116" s="26">
         <v>62</v>
@@ -8811,10 +8807,10 @@
         <v>38</v>
       </c>
       <c r="Q116" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R116" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="S116" s="10"/>
       <c r="T116" s="7"/>
@@ -8825,7 +8821,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C117" s="26">
         <v>63</v>
@@ -8866,7 +8862,7 @@
         <v>17</v>
       </c>
       <c r="Q117" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R117" s="7"/>
       <c r="S117" s="10"/>
@@ -8878,7 +8874,7 @@
         <v>3</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C118" s="26">
         <v>64</v>
@@ -8912,13 +8908,13 @@
         <v>2</v>
       </c>
       <c r="P118" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q118" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R118" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="S118" s="10"/>
       <c r="T118" s="7"/>
@@ -8929,7 +8925,7 @@
         <v>3</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C119" s="26">
         <v>65</v>
@@ -8968,10 +8964,10 @@
         <v>34</v>
       </c>
       <c r="Q119" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R119" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="S119" s="10"/>
       <c r="T119" s="7"/>
@@ -8982,7 +8978,7 @@
         <v>3</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C120" s="26">
         <v>66</v>
@@ -9021,10 +9017,10 @@
         <v>33</v>
       </c>
       <c r="Q120" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R120" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="S120" s="10"/>
       <c r="T120" s="7"/>
@@ -9035,7 +9031,7 @@
         <v>3</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C121" s="26">
         <v>67</v>
@@ -9074,10 +9070,10 @@
         <v>36</v>
       </c>
       <c r="Q121" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R121" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="S121" s="10"/>
       <c r="T121" s="7"/>
@@ -9088,7 +9084,7 @@
         <v>3</v>
       </c>
       <c r="B122" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C122" s="26">
         <v>68</v>
@@ -9098,13 +9094,13 @@
       </c>
       <c r="E122" s="32"/>
       <c r="F122" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I122" s="15"/>
       <c r="J122" s="8">
@@ -9124,18 +9120,18 @@
         <v>1517.2</v>
       </c>
       <c r="P122" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q122" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="R122" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="S122" s="10"/>
       <c r="T122" s="15"/>
       <c r="U122" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="123" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
@@ -9143,7 +9139,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C123" s="26">
         <v>69</v>
@@ -9179,11 +9175,11 @@
         <v>654</v>
       </c>
       <c r="P123" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Q123" s="9"/>
       <c r="R123" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="S123" s="10"/>
       <c r="T123" s="7"/>
@@ -9194,7 +9190,7 @@
         <v>3</v>
       </c>
       <c r="B124" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C124" s="26">
         <v>70</v>
@@ -9216,7 +9212,7 @@
       <c r="J124" s="8"/>
       <c r="K124" s="7"/>
       <c r="L124" s="11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M124" s="21">
         <v>52.839700000000001</v>
@@ -9228,11 +9224,11 @@
         <v>507.5</v>
       </c>
       <c r="P124" s="24" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q124" s="9"/>
       <c r="R124" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S124" s="10"/>
       <c r="T124" s="7"/>
@@ -9243,7 +9239,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C125" s="26">
         <v>71</v>
@@ -9262,12 +9258,12 @@
         <v>67</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J125" s="8"/>
       <c r="K125" s="7"/>
       <c r="L125" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="M125" s="21">
         <v>51.3264</v>
@@ -9279,11 +9275,11 @@
         <v>496.2</v>
       </c>
       <c r="P125" s="24" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="Q125" s="9"/>
       <c r="R125" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="S125" s="10"/>
       <c r="T125" s="7"/>
@@ -9294,7 +9290,7 @@
         <v>3</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C126" s="26">
         <v>72</v>
@@ -9320,11 +9316,11 @@
       <c r="N126" s="21"/>
       <c r="O126" s="20"/>
       <c r="P126" s="24" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Q126" s="9"/>
       <c r="R126" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="S126" s="10"/>
       <c r="T126" s="7"/>
@@ -9335,7 +9331,7 @@
         <v>3</v>
       </c>
       <c r="B127" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C127" s="26">
         <v>73</v>
@@ -9351,10 +9347,10 @@
         <v>75</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I127" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J127" s="8"/>
       <c r="K127" s="7"/>
@@ -9363,11 +9359,11 @@
       <c r="N127" s="21"/>
       <c r="O127" s="20"/>
       <c r="P127" s="24" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="Q127" s="9"/>
       <c r="R127" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="S127" s="10"/>
       <c r="T127" s="7"/>
@@ -9378,7 +9374,7 @@
         <v>3</v>
       </c>
       <c r="B128" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C128" s="26">
         <v>74</v>
@@ -9394,15 +9390,15 @@
         <v>75</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I128" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J128" s="8"/>
       <c r="K128" s="7"/>
       <c r="L128" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M128" s="21">
         <v>47.027200000000001</v>
@@ -9414,11 +9410,11 @@
         <v>1333</v>
       </c>
       <c r="P128" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q128" s="9"/>
       <c r="R128" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="S128" s="10"/>
       <c r="T128" s="7"/>
@@ -9429,7 +9425,7 @@
         <v>3</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C129" s="26">
         <v>75</v>
@@ -9448,12 +9444,12 @@
         <v>102</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J129" s="8"/>
       <c r="K129" s="7"/>
       <c r="L129" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M129" s="21">
         <v>42.828800000000001</v>
@@ -9465,11 +9461,11 @@
         <v>2465</v>
       </c>
       <c r="P129" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="Q129" s="9"/>
       <c r="R129" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="S129" s="10"/>
       <c r="T129" s="7"/>
@@ -9480,7 +9476,7 @@
         <v>43</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C130" s="26">
         <v>1</v>
@@ -9490,7 +9486,7 @@
       </c>
       <c r="E130" s="32"/>
       <c r="F130" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
@@ -9512,20 +9508,20 @@
         <v>850</v>
       </c>
       <c r="P130" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Q130" s="9"/>
       <c r="R130" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="S130" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T130" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="U130" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="131" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
@@ -9533,7 +9529,7 @@
         <v>43</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C131" s="26">
         <v>2</v>
@@ -9543,7 +9539,7 @@
       </c>
       <c r="E131" s="32"/>
       <c r="F131" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G131" s="7"/>
       <c r="H131" s="7"/>
@@ -9569,16 +9565,16 @@
       </c>
       <c r="Q131" s="9"/>
       <c r="R131" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="S131" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T131" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="U131" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="132" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
@@ -9586,7 +9582,7 @@
         <v>48</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C132" s="26">
         <v>3</v>
@@ -9596,7 +9592,7 @@
       </c>
       <c r="E132" s="32"/>
       <c r="F132" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G132" s="7"/>
       <c r="H132" s="7"/>
@@ -9622,13 +9618,13 @@
       </c>
       <c r="Q132" s="9"/>
       <c r="R132" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="S132" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T132" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="U132" s="11"/>
     </row>
@@ -9637,7 +9633,7 @@
         <v>53</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C133" s="26">
         <v>4</v>
@@ -9647,7 +9643,7 @@
       </c>
       <c r="E133" s="32"/>
       <c r="F133" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
@@ -9673,22 +9669,22 @@
       </c>
       <c r="Q133" s="9"/>
       <c r="R133" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="S133" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T133" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="U133" s="11"/>
     </row>
     <row r="134" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A134" s="15" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C134" s="26">
         <v>5</v>
@@ -9698,7 +9694,7 @@
       </c>
       <c r="E134" s="32"/>
       <c r="F134" s="15" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G134" s="15"/>
       <c r="H134" s="15"/>
@@ -9720,28 +9716,28 @@
         <v>10</v>
       </c>
       <c r="P134" s="24" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="Q134" s="9"/>
       <c r="R134" s="15" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="S134" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="T134" s="15" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="U134" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A135" s="15" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C135" s="26">
         <v>6</v>
@@ -9751,7 +9747,7 @@
       </c>
       <c r="E135" s="32"/>
       <c r="F135" s="15" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G135" s="15"/>
       <c r="H135" s="15"/>
@@ -9773,26 +9769,26 @@
         <v>135</v>
       </c>
       <c r="P135" s="24" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="Q135" s="9"/>
       <c r="R135" s="15" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="S135" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="T135" s="15" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="U135" s="11"/>
     </row>
     <row r="136" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A136" s="15" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C136" s="26">
         <v>7</v>
@@ -9802,7 +9798,7 @@
       </c>
       <c r="E136" s="32"/>
       <c r="F136" s="15" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G136" s="15"/>
       <c r="H136" s="15"/>
@@ -9824,26 +9820,26 @@
         <v>1910</v>
       </c>
       <c r="P136" s="24" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="Q136" s="9"/>
       <c r="R136" s="15"/>
       <c r="S136" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="T136" s="15" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="U136" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A137" s="15" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C137" s="26">
         <v>8</v>
@@ -9853,7 +9849,7 @@
       </c>
       <c r="E137" s="32"/>
       <c r="F137" s="15" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G137" s="15"/>
       <c r="H137" s="15"/>
@@ -9875,26 +9871,26 @@
         <v>3204</v>
       </c>
       <c r="P137" s="24" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="Q137" s="9"/>
       <c r="R137" s="15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="S137" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="T137" s="15"/>
       <c r="U137" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A138" s="15" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C138" s="26">
         <v>9</v>
@@ -9904,7 +9900,7 @@
       </c>
       <c r="E138" s="32"/>
       <c r="F138" s="15" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G138" s="15"/>
       <c r="H138" s="15"/>
@@ -9926,17 +9922,17 @@
         <v>133</v>
       </c>
       <c r="P138" s="24" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Q138" s="9"/>
       <c r="R138" s="15" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="S138" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="T138" s="15" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="U138" s="11"/>
     </row>
@@ -9945,7 +9941,7 @@
         <v>48</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C139" s="26">
         <v>10</v>
@@ -9955,7 +9951,7 @@
       </c>
       <c r="E139" s="32"/>
       <c r="F139" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G139" s="15"/>
       <c r="H139" s="15"/>
@@ -9977,17 +9973,17 @@
         <v>3576</v>
       </c>
       <c r="P139" s="24" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Q139" s="9"/>
       <c r="R139" s="15" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="S139" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="T139" s="15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="U139" s="11"/>
     </row>
@@ -10291,7 +10287,7 @@
       <c r="U152" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="szJyzQjrxPEMotesaZ7wxKVkRt6CTML7/BbKIUjF5iNB6E4wZa2AAfiKzHETVQSMk5aK2I9OaGVPLygaPEIdIA==" saltValue="ydGuH5tBlkpNd9nf2Oj9Ng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vt0d0zHeS67KJRJ54IGY7OZBFQY5ooUlJCrajoMQW5yAisZiqT6ItD8NXDxQ8mC0eFx+AGxL8zmcIBTGAHa3WA==" saltValue="edRhXs7hZJH0RX5EwikjNg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U139">
     <sortCondition ref="D2:D139"/>
     <sortCondition ref="B2:B139"/>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6CEB40-F5DD-4C0B-9502-38A54A78FBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41D578D-8291-4A25-AAB1-CF3DC24108E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="541">
   <si>
     <t>USAF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1087,14 +1087,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乌布苏湖盆地、特斯河</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌布苏湖盆地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>特斯河</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1115,10 +1107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>达尔哈德盆地、库苏古尔湖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>长白山、辉发河</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1315,42 +1303,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>谢列姆贾盆地南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢列姆贾盆地东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢列姆贾河、谢列姆贾盆地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阿玛扎尔河</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>贝加尔湖东岸、巴尔古津河</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贝加尔湖西岸、勒拿河</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小叶尼塞河、图瓦盆地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶尼塞河、图瓦盆地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特斯河、乌布苏湖盆地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阿尔泰山、丘亚河</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1483,15 +1439,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乌布苏湖盆地、唐努乌拉山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鄂依贡湖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌布苏湖盆地、图尔根山</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2049,6 +1997,78 @@
   </si>
   <si>
     <t>曲麻莱县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌布苏湖、特斯河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌布苏湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库苏古尔湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌布苏湖、唐努乌拉山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌布苏湖、图尔根山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢列姆贾河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小叶尼塞河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶尼塞河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝加尔湖、勒拿河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝加尔湖、巴尔古津河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢列姆贾盆地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔泰山、克兰河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y5322</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6708</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三道海子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0197</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌玛零公里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津黑牛城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2642,10 +2662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
-  <dimension ref="A1:U152"/>
+  <dimension ref="A1:U154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2675,16 +2695,16 @@
         <v>270</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>65</v>
@@ -2705,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="M1" s="17" t="s">
         <v>41</v>
@@ -2726,13 +2746,13 @@
         <v>271</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="U1" s="28" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.4">
@@ -2740,7 +2760,7 @@
         <v>265</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C2" s="26">
         <v>1</v>
@@ -2775,10 +2795,10 @@
         <v>251</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>272</v>
+        <v>523</v>
       </c>
       <c r="S2" s="10"/>
       <c r="T2" s="7"/>
@@ -2789,7 +2809,7 @@
         <v>265</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C3" s="26">
         <v>2</v>
@@ -2824,10 +2844,10 @@
         <v>232</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>273</v>
+        <v>524</v>
       </c>
       <c r="S3" s="10"/>
       <c r="T3" s="7"/>
@@ -2838,7 +2858,7 @@
         <v>265</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C4" s="26">
         <v>3</v>
@@ -2873,10 +2893,10 @@
         <v>229</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="S4" s="10"/>
       <c r="T4" s="7"/>
@@ -2887,7 +2907,7 @@
         <v>265</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C5" s="26">
         <v>4</v>
@@ -2922,21 +2942,21 @@
         <v>231</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="S5" s="10"/>
       <c r="T5" s="7"/>
       <c r="U5" s="11"/>
     </row>
-    <row r="6" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>265</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C6" s="26">
         <v>5</v>
@@ -2968,13 +2988,13 @@
         <v>1546</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>279</v>
+        <v>525</v>
       </c>
       <c r="S6" s="10"/>
       <c r="T6" s="7"/>
@@ -2985,7 +3005,7 @@
         <v>265</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C7" s="26">
         <v>6</v>
@@ -3020,10 +3040,10 @@
         <v>230</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="S7" s="10"/>
       <c r="T7" s="7"/>
@@ -3034,7 +3054,7 @@
         <v>265</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C8" s="26">
         <v>7</v>
@@ -3071,16 +3091,16 @@
         <v>246</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>273</v>
+        <v>524</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="U8" s="11"/>
     </row>
@@ -3089,7 +3109,7 @@
         <v>265</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C9" s="26">
         <v>8</v>
@@ -3126,16 +3146,16 @@
         <v>247</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="U9" s="11"/>
     </row>
@@ -3144,7 +3164,7 @@
         <v>265</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C10" s="26">
         <v>9</v>
@@ -3181,16 +3201,16 @@
         <v>248</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="U10" s="11"/>
     </row>
@@ -3199,7 +3219,7 @@
         <v>265</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C11" s="26">
         <v>10</v>
@@ -3236,25 +3256,25 @@
         <v>249</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="U11" s="11"/>
     </row>
-    <row r="12" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>265</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C12" s="26">
         <v>11</v>
@@ -3291,16 +3311,16 @@
         <v>245</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>279</v>
+        <v>525</v>
       </c>
       <c r="S12" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="T12" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="U12" s="11"/>
     </row>
@@ -3309,7 +3329,7 @@
         <v>265</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C13" s="26">
         <v>12</v>
@@ -3346,16 +3366,16 @@
         <v>250</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="U13" s="11"/>
     </row>
@@ -3364,7 +3384,7 @@
         <v>265</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C14" s="26">
         <v>13</v>
@@ -3374,7 +3394,7 @@
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="7" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -3394,11 +3414,11 @@
         <v>2422</v>
       </c>
       <c r="P14" s="24" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="9"/>
       <c r="R14" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="S14" s="10"/>
       <c r="T14" s="7"/>
@@ -3406,10 +3426,10 @@
     </row>
     <row r="15" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C15" s="26">
         <v>14</v>
@@ -3419,7 +3439,7 @@
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="7" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -3439,11 +3459,11 @@
         <v>2034</v>
       </c>
       <c r="P15" s="24" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="Q15" s="9"/>
       <c r="R15" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="S15" s="10"/>
       <c r="T15" s="7"/>
@@ -3454,7 +3474,7 @@
         <v>265</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C16" s="26">
         <v>15</v>
@@ -3464,7 +3484,7 @@
       </c>
       <c r="E16" s="32"/>
       <c r="F16" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -3484,11 +3504,11 @@
         <v>1166</v>
       </c>
       <c r="P16" s="24" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="Q16" s="9"/>
       <c r="R16" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="S16" s="10"/>
       <c r="T16" s="7"/>
@@ -3499,7 +3519,7 @@
         <v>265</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C17" s="26">
         <v>16</v>
@@ -3509,7 +3529,7 @@
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -3529,11 +3549,11 @@
         <v>1262</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="9"/>
       <c r="R17" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="S17" s="10"/>
       <c r="T17" s="7"/>
@@ -3544,7 +3564,7 @@
         <v>265</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C18" s="26">
         <v>17</v>
@@ -3554,7 +3574,7 @@
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -3574,11 +3594,11 @@
         <v>1716</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="Q18" s="9"/>
       <c r="R18" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="S18" s="10"/>
       <c r="T18" s="7"/>
@@ -3586,10 +3606,10 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C19" s="26">
         <v>18</v>
@@ -3599,7 +3619,7 @@
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="7" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -3619,7 +3639,7 @@
         <v>1805</v>
       </c>
       <c r="P19" s="24" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="Q19" s="9"/>
       <c r="R19" s="7"/>
@@ -3627,12 +3647,12 @@
       <c r="T19" s="7"/>
       <c r="U19" s="11"/>
     </row>
-    <row r="20" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C20" s="26">
         <v>19</v>
@@ -3642,7 +3662,7 @@
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="7" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -3662,11 +3682,11 @@
         <v>1687</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="Q20" s="9"/>
       <c r="R20" s="7" t="s">
-        <v>279</v>
+        <v>525</v>
       </c>
       <c r="S20" s="10"/>
       <c r="T20" s="7"/>
@@ -3674,10 +3694,10 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C21" s="26">
         <v>20</v>
@@ -3687,7 +3707,7 @@
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -3707,22 +3727,22 @@
         <v>632</v>
       </c>
       <c r="P21" s="24" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="Q21" s="9"/>
       <c r="R21" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="S21" s="10"/>
       <c r="T21" s="7"/>
       <c r="U21" s="11"/>
     </row>
-    <row r="22" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
         <v>265</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C22" s="26">
         <v>21</v>
@@ -3752,11 +3772,11 @@
         <v>859</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="Q22" s="9"/>
       <c r="R22" s="7" t="s">
-        <v>376</v>
+        <v>526</v>
       </c>
       <c r="S22" s="10"/>
       <c r="T22" s="7"/>
@@ -3767,7 +3787,7 @@
         <v>265</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C23" s="26">
         <v>22</v>
@@ -3797,11 +3817,11 @@
         <v>1393</v>
       </c>
       <c r="P23" s="24" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="Q23" s="9"/>
       <c r="R23" s="7" t="s">
-        <v>273</v>
+        <v>524</v>
       </c>
       <c r="S23" s="10"/>
       <c r="T23" s="7"/>
@@ -3809,10 +3829,10 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C24" s="26">
         <v>23</v>
@@ -3822,7 +3842,7 @@
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="7" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -3842,22 +3862,22 @@
         <v>1593</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="Q24" s="9"/>
       <c r="R24" s="7" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="S24" s="10"/>
       <c r="T24" s="7"/>
       <c r="U24" s="11"/>
     </row>
-    <row r="25" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
         <v>265</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C25" s="26">
         <v>24</v>
@@ -3887,22 +3907,22 @@
         <v>1142</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="Q25" s="9"/>
       <c r="R25" s="7" t="s">
-        <v>376</v>
+        <v>526</v>
       </c>
       <c r="S25" s="10"/>
       <c r="T25" s="7"/>
       <c r="U25" s="11"/>
     </row>
-    <row r="26" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
         <v>265</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C26" s="26">
         <v>25</v>
@@ -3932,11 +3952,11 @@
         <v>1212</v>
       </c>
       <c r="P26" s="24" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="Q26" s="9"/>
       <c r="R26" s="7" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="S26" s="10"/>
       <c r="T26" s="7"/>
@@ -3947,7 +3967,7 @@
         <v>265</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C27" s="26">
         <v>26</v>
@@ -3981,11 +4001,11 @@
         <v>1233</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="Q27" s="9"/>
       <c r="R27" s="7" t="s">
-        <v>273</v>
+        <v>524</v>
       </c>
       <c r="S27" s="10"/>
       <c r="T27" s="7"/>
@@ -3996,7 +4016,7 @@
         <v>265</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C28" s="26">
         <v>27</v>
@@ -4026,11 +4046,11 @@
         <v>1045</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="Q28" s="9"/>
       <c r="R28" s="7" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="S28" s="10"/>
       <c r="T28" s="7"/>
@@ -4041,7 +4061,7 @@
         <v>265</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C29" s="26">
         <v>28</v>
@@ -4071,11 +4091,11 @@
         <v>1858</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="Q29" s="9"/>
       <c r="R29" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="S29" s="10"/>
       <c r="T29" s="7"/>
@@ -4086,7 +4106,7 @@
         <v>265</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C30" s="26">
         <v>29</v>
@@ -4116,11 +4136,11 @@
         <v>1656</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="Q30" s="9"/>
       <c r="R30" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="S30" s="10"/>
       <c r="T30" s="7"/>
@@ -4131,7 +4151,7 @@
         <v>265</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C31" s="26">
         <v>30</v>
@@ -4161,11 +4181,11 @@
         <v>1851</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="Q31" s="9"/>
       <c r="R31" s="7" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="S31" s="10"/>
       <c r="T31" s="7"/>
@@ -4176,7 +4196,7 @@
         <v>265</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C32" s="26">
         <v>31</v>
@@ -4206,11 +4226,11 @@
         <v>1569</v>
       </c>
       <c r="P32" s="24" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="Q32" s="9"/>
       <c r="R32" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="S32" s="10"/>
       <c r="T32" s="7"/>
@@ -4221,7 +4241,7 @@
         <v>265</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C33" s="26">
         <v>32</v>
@@ -4251,11 +4271,11 @@
         <v>1811</v>
       </c>
       <c r="P33" s="24" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="Q33" s="9"/>
       <c r="R33" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="S33" s="10"/>
       <c r="T33" s="7"/>
@@ -4266,7 +4286,7 @@
         <v>265</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C34" s="26">
         <v>33</v>
@@ -4296,11 +4316,11 @@
         <v>1776</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="Q34" s="9"/>
       <c r="R34" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="S34" s="10"/>
       <c r="T34" s="7"/>
@@ -4311,7 +4331,7 @@
         <v>265</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C35" s="26">
         <v>34</v>
@@ -4341,7 +4361,7 @@
         <v>1271</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="Q35" s="9"/>
       <c r="R35" s="7"/>
@@ -4354,7 +4374,7 @@
         <v>265</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C36" s="26">
         <v>35</v>
@@ -4384,11 +4404,11 @@
         <v>2113</v>
       </c>
       <c r="P36" s="24" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="Q36" s="9"/>
       <c r="R36" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="S36" s="10"/>
       <c r="T36" s="7"/>
@@ -4399,7 +4419,7 @@
         <v>265</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C37" s="26">
         <v>36</v>
@@ -4429,11 +4449,11 @@
         <v>1963</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="Q37" s="9"/>
       <c r="R37" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="S37" s="10"/>
       <c r="T37" s="7"/>
@@ -4444,7 +4464,7 @@
         <v>265</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C38" s="26">
         <v>37</v>
@@ -4474,11 +4494,11 @@
         <v>1777</v>
       </c>
       <c r="P38" s="24" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="Q38" s="9"/>
       <c r="R38" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="S38" s="10"/>
       <c r="T38" s="7"/>
@@ -4489,7 +4509,7 @@
         <v>266</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C39" s="26">
         <v>1</v>
@@ -4527,13 +4547,13 @@
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="S39" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T39" s="7" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="U39" s="11"/>
     </row>
@@ -4542,7 +4562,7 @@
         <v>266</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C40" s="26">
         <v>2</v>
@@ -4580,13 +4600,13 @@
       </c>
       <c r="Q40" s="9"/>
       <c r="R40" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T40" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="U40" s="11"/>
     </row>
@@ -4595,7 +4615,7 @@
         <v>266</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C41" s="26">
         <v>3</v>
@@ -4632,25 +4652,25 @@
         <v>239</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>329</v>
+        <v>533</v>
       </c>
       <c r="S41" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T41" s="7" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="U41" s="11"/>
     </row>
-    <row r="42" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
         <v>266</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C42" s="26">
         <v>4</v>
@@ -4688,13 +4708,13 @@
       </c>
       <c r="Q42" s="9"/>
       <c r="R42" s="7" t="s">
-        <v>331</v>
+        <v>528</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T42" s="7" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="U42" s="11"/>
     </row>
@@ -4703,7 +4723,7 @@
         <v>266</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C43" s="26">
         <v>5</v>
@@ -4741,13 +4761,13 @@
       </c>
       <c r="Q43" s="9"/>
       <c r="R43" s="7" t="s">
-        <v>330</v>
+        <v>533</v>
       </c>
       <c r="S43" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T43" s="7" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="U43" s="11"/>
     </row>
@@ -4756,7 +4776,7 @@
         <v>266</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C44" s="26">
         <v>6</v>
@@ -4794,13 +4814,13 @@
       </c>
       <c r="Q44" s="9"/>
       <c r="R44" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T44" s="7" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="U44" s="11"/>
     </row>
@@ -4809,7 +4829,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C45" s="26">
         <v>7</v>
@@ -4846,16 +4866,16 @@
         <v>45</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="S45" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T45" s="7" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="U45" s="11"/>
     </row>
@@ -4864,7 +4884,7 @@
         <v>266</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C46" s="26">
         <v>8</v>
@@ -4902,13 +4922,13 @@
       </c>
       <c r="Q46" s="9"/>
       <c r="R46" s="7" t="s">
-        <v>333</v>
+        <v>532</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T46" s="7" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="U46" s="11"/>
     </row>
@@ -4917,7 +4937,7 @@
         <v>266</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C47" s="26">
         <v>9</v>
@@ -4954,16 +4974,16 @@
         <v>233</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>334</v>
+        <v>531</v>
       </c>
       <c r="S47" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T47" s="7" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="U47" s="11"/>
     </row>
@@ -4972,7 +4992,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C48" s="26">
         <v>10</v>
@@ -5010,13 +5030,13 @@
       </c>
       <c r="Q48" s="9"/>
       <c r="R48" s="7" t="s">
-        <v>335</v>
+        <v>529</v>
       </c>
       <c r="S48" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T48" s="7" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="U48" s="11"/>
     </row>
@@ -5025,7 +5045,7 @@
         <v>266</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C49" s="26">
         <v>11</v>
@@ -5062,16 +5082,16 @@
         <v>242</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>336</v>
+        <v>530</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T49" s="7" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="U49" s="11"/>
     </row>
@@ -5080,7 +5100,7 @@
         <v>266</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C50" s="26">
         <v>12</v>
@@ -5118,13 +5138,13 @@
       </c>
       <c r="Q50" s="9"/>
       <c r="R50" s="7" t="s">
-        <v>337</v>
+        <v>523</v>
       </c>
       <c r="S50" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T50" s="7" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="U50" s="11"/>
     </row>
@@ -5133,7 +5153,7 @@
         <v>266</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C51" s="26">
         <v>13</v>
@@ -5170,16 +5190,16 @@
         <v>243</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="S51" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T51" s="7" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="U51" s="11"/>
     </row>
@@ -5188,7 +5208,7 @@
         <v>266</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C52" s="26">
         <v>14</v>
@@ -5224,13 +5244,13 @@
       </c>
       <c r="Q52" s="9"/>
       <c r="R52" s="15" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="T52" s="15" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="U52" s="11"/>
     </row>
@@ -5239,7 +5259,7 @@
         <v>46</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="C53" s="26">
         <v>1</v>
@@ -5278,19 +5298,19 @@
       <c r="Q53" s="9"/>
       <c r="R53" s="7"/>
       <c r="S53" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T53" s="7" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="U53" s="11"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A54" s="7" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="C54" s="26">
         <v>2</v>
@@ -5302,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -5324,17 +5344,17 @@
         <v>1381</v>
       </c>
       <c r="P54" s="24" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="Q54" s="9"/>
       <c r="R54" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="S54" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="S54" s="10" t="s">
-        <v>408</v>
-      </c>
       <c r="T54" s="7" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="U54" s="11"/>
     </row>
@@ -5343,7 +5363,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C55" s="26">
         <v>1</v>
@@ -5383,13 +5403,13 @@
       </c>
       <c r="Q55" s="9"/>
       <c r="R55" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="S55" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T55" s="7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="U55" s="11"/>
     </row>
@@ -5398,7 +5418,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C56" s="26">
         <v>2</v>
@@ -5439,10 +5459,10 @@
         <v>18</v>
       </c>
       <c r="Q56" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R56" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="S56" s="10"/>
       <c r="T56" s="7"/>
@@ -5453,7 +5473,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C57" s="26">
         <v>3</v>
@@ -5493,13 +5513,13 @@
       </c>
       <c r="Q57" s="9"/>
       <c r="R57" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="S57" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T57" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="U57" s="11"/>
     </row>
@@ -5508,7 +5528,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C58" s="26">
         <v>4</v>
@@ -5549,16 +5569,16 @@
         <v>19</v>
       </c>
       <c r="Q58" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R58" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="S58" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T58" s="7" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="U58" s="11"/>
     </row>
@@ -5567,7 +5587,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C59" s="26">
         <v>5</v>
@@ -5608,16 +5628,16 @@
         <v>20</v>
       </c>
       <c r="Q59" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R59" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="S59" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T59" s="7" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="U59" s="11"/>
     </row>
@@ -5626,7 +5646,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C60" s="26">
         <v>6</v>
@@ -5667,10 +5687,10 @@
         <v>16</v>
       </c>
       <c r="Q60" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R60" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="S60" s="10"/>
       <c r="T60" s="7"/>
@@ -5681,7 +5701,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C61" s="26">
         <v>7</v>
@@ -5723,13 +5743,13 @@
       </c>
       <c r="Q61" s="9"/>
       <c r="R61" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="S61" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T61" s="7" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="U61" s="11"/>
     </row>
@@ -5738,7 +5758,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C62" s="26">
         <v>8</v>
@@ -5780,7 +5800,7 @@
       </c>
       <c r="Q62" s="9"/>
       <c r="R62" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="S62" s="10"/>
       <c r="T62" s="7"/>
@@ -5791,7 +5811,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C63" s="26">
         <v>9</v>
@@ -5833,7 +5853,7 @@
       </c>
       <c r="Q63" s="9"/>
       <c r="R63" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="S63" s="10"/>
       <c r="T63" s="7"/>
@@ -5844,7 +5864,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C64" s="26">
         <v>10</v>
@@ -5885,16 +5905,16 @@
         <v>5</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R64" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="S64" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T64" s="7" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="U64" s="11"/>
     </row>
@@ -5903,7 +5923,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C65" s="26">
         <v>11</v>
@@ -5945,7 +5965,7 @@
       </c>
       <c r="Q65" s="9"/>
       <c r="R65" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="S65" s="10"/>
       <c r="T65" s="7"/>
@@ -5956,7 +5976,7 @@
         <v>3</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C66" s="26">
         <v>12</v>
@@ -5997,10 +6017,10 @@
         <v>10</v>
       </c>
       <c r="Q66" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R66" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="S66" s="10"/>
       <c r="T66" s="7"/>
@@ -6011,7 +6031,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C67" s="26">
         <v>13</v>
@@ -6052,16 +6072,16 @@
         <v>6</v>
       </c>
       <c r="Q67" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R67" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="S67" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T67" s="7" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="U67" s="11"/>
     </row>
@@ -6070,7 +6090,7 @@
         <v>3</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C68" s="26">
         <v>14</v>
@@ -6112,7 +6132,7 @@
       </c>
       <c r="Q68" s="9"/>
       <c r="R68" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="S68" s="10"/>
       <c r="T68" s="7"/>
@@ -6123,7 +6143,7 @@
         <v>3</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C69" s="26">
         <v>15</v>
@@ -6163,7 +6183,7 @@
       </c>
       <c r="Q69" s="9"/>
       <c r="R69" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="S69" s="10"/>
       <c r="T69" s="7"/>
@@ -6174,7 +6194,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C70" s="26">
         <v>16</v>
@@ -6216,13 +6236,13 @@
       </c>
       <c r="Q70" s="9"/>
       <c r="R70" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="S70" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T70" s="7" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="U70" s="11"/>
     </row>
@@ -6231,7 +6251,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C71" s="26">
         <v>17</v>
@@ -6271,7 +6291,7 @@
       </c>
       <c r="Q71" s="9"/>
       <c r="R71" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="S71" s="10"/>
       <c r="T71" s="7"/>
@@ -6282,7 +6302,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C72" s="26">
         <v>18</v>
@@ -6324,7 +6344,7 @@
       </c>
       <c r="Q72" s="9"/>
       <c r="R72" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S72" s="10"/>
       <c r="T72" s="7"/>
@@ -6335,7 +6355,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C73" s="26">
         <v>19</v>
@@ -6377,13 +6397,13 @@
       </c>
       <c r="Q73" s="9"/>
       <c r="R73" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="S73" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T73" s="7" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="U73" s="11"/>
     </row>
@@ -6392,7 +6412,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C74" s="26">
         <v>20</v>
@@ -6433,7 +6453,7 @@
         <v>21</v>
       </c>
       <c r="Q74" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R74" s="7"/>
       <c r="S74" s="10"/>
@@ -6445,7 +6465,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C75" s="26">
         <v>21</v>
@@ -6486,10 +6506,10 @@
         <v>14</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R75" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="S75" s="10"/>
       <c r="T75" s="7"/>
@@ -6500,7 +6520,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C76" s="26">
         <v>22</v>
@@ -6541,10 +6561,10 @@
         <v>15</v>
       </c>
       <c r="Q76" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R76" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="S76" s="10"/>
       <c r="T76" s="7"/>
@@ -6555,7 +6575,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C77" s="26">
         <v>23</v>
@@ -6573,7 +6593,7 @@
         <v>80</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="8">
@@ -6596,16 +6616,16 @@
         <v>51</v>
       </c>
       <c r="Q77" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R77" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="S77" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T77" s="7" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="U77" s="11"/>
     </row>
@@ -6614,7 +6634,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C78" s="26">
         <v>24</v>
@@ -6655,16 +6675,16 @@
         <v>267</v>
       </c>
       <c r="Q78" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R78" s="7" t="s">
         <v>267</v>
       </c>
       <c r="S78" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T78" s="7" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="U78" s="11"/>
     </row>
@@ -6673,7 +6693,7 @@
         <v>3</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C79" s="26">
         <v>25</v>
@@ -6714,10 +6734,10 @@
         <v>12</v>
       </c>
       <c r="Q79" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R79" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="S79" s="10"/>
       <c r="T79" s="7"/>
@@ -6728,7 +6748,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C80" s="26">
         <v>26</v>
@@ -6769,10 +6789,10 @@
         <v>13</v>
       </c>
       <c r="Q80" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R80" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="S80" s="10"/>
       <c r="T80" s="7"/>
@@ -6783,7 +6803,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C81" s="26">
         <v>27</v>
@@ -6823,17 +6843,17 @@
         <v>734.8</v>
       </c>
       <c r="P81" s="24" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="Q81" s="9"/>
       <c r="R81" s="7" t="s">
-        <v>296</v>
+        <v>534</v>
       </c>
       <c r="S81" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T81" s="7" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="U81" s="11"/>
     </row>
@@ -6842,7 +6862,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C82" s="26">
         <v>28</v>
@@ -6878,19 +6898,19 @@
         <v>39</v>
       </c>
       <c r="P82" s="24" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="Q82" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R82" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="S82" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T82" s="7" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="U82" s="11"/>
     </row>
@@ -6899,7 +6919,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C83" s="26">
         <v>29</v>
@@ -6940,16 +6960,16 @@
         <v>24</v>
       </c>
       <c r="Q83" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R83" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="S83" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T83" s="7" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="U83" s="11"/>
     </row>
@@ -6958,7 +6978,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C84" s="26">
         <v>30</v>
@@ -6999,16 +7019,16 @@
         <v>23</v>
       </c>
       <c r="Q84" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R84" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="S84" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T84" s="7" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="U84" s="11"/>
     </row>
@@ -7017,7 +7037,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C85" s="26">
         <v>31</v>
@@ -7058,10 +7078,10 @@
         <v>11</v>
       </c>
       <c r="Q85" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R85" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="S85" s="10"/>
       <c r="T85" s="7"/>
@@ -7072,7 +7092,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C86" s="26">
         <v>32</v>
@@ -7113,16 +7133,16 @@
         <v>22</v>
       </c>
       <c r="Q86" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R86" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="S86" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T86" s="7" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="U86" s="11"/>
     </row>
@@ -7131,7 +7151,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C87" s="26">
         <v>33</v>
@@ -7168,14 +7188,14 @@
         <v>186</v>
       </c>
       <c r="Q87" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R87" s="7"/>
       <c r="S87" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T87" s="7" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="U87" s="11"/>
     </row>
@@ -7184,7 +7204,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C88" s="26">
         <v>34</v>
@@ -7194,11 +7214,11 @@
       </c>
       <c r="E88" s="32"/>
       <c r="F88" s="7" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="7" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="8">
@@ -7218,22 +7238,24 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="P88" s="24" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="Q88" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R88" s="7"/>
       <c r="S88" s="10"/>
       <c r="T88" s="7"/>
-      <c r="U88" s="11"/>
+      <c r="U88" s="11" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A89" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C89" s="26">
         <v>35</v>
@@ -7272,16 +7294,16 @@
         <v>211</v>
       </c>
       <c r="Q89" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R89" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="S89" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T89" s="7" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="U89" s="11"/>
     </row>
@@ -7290,7 +7312,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C90" s="26">
         <v>36</v>
@@ -7329,14 +7351,14 @@
         <v>170</v>
       </c>
       <c r="Q90" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R90" s="7"/>
       <c r="S90" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T90" s="7" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="U90" s="11"/>
     </row>
@@ -7345,7 +7367,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C91" s="26">
         <v>37</v>
@@ -7384,16 +7406,16 @@
         <v>165</v>
       </c>
       <c r="Q91" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R91" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="S91" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T91" s="7" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="U91" s="11"/>
     </row>
@@ -7402,7 +7424,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C92" s="26">
         <v>38</v>
@@ -7441,16 +7463,16 @@
         <v>177</v>
       </c>
       <c r="Q92" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R92" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="S92" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T92" s="7" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="U92" s="11"/>
     </row>
@@ -7459,7 +7481,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C93" s="26">
         <v>39</v>
@@ -7498,16 +7520,16 @@
         <v>204</v>
       </c>
       <c r="Q93" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R93" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="S93" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T93" s="7" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="U93" s="11"/>
     </row>
@@ -7516,7 +7538,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C94" s="26">
         <v>40</v>
@@ -7555,16 +7577,16 @@
         <v>164</v>
       </c>
       <c r="Q94" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R94" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="S94" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T94" s="7" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="U94" s="11"/>
     </row>
@@ -7573,7 +7595,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C95" s="26">
         <v>41</v>
@@ -7609,22 +7631,22 @@
         <v>410</v>
       </c>
       <c r="P95" s="24" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="Q95" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R95" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="S95" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T95" s="7" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="U95" s="11" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.4">
@@ -7632,7 +7654,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C96" s="26">
         <v>42</v>
@@ -7671,16 +7693,16 @@
         <v>39</v>
       </c>
       <c r="Q96" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R96" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="S96" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T96" s="7" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="U96" s="11"/>
     </row>
@@ -7689,7 +7711,7 @@
         <v>3</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C97" s="26">
         <v>43</v>
@@ -7728,16 +7750,16 @@
         <v>147</v>
       </c>
       <c r="Q97" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R97" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="S97" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T97" s="7" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="U97" s="11"/>
     </row>
@@ -7746,7 +7768,7 @@
         <v>3</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C98" s="26">
         <v>44</v>
@@ -7785,16 +7807,16 @@
         <v>146</v>
       </c>
       <c r="Q98" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R98" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="S98" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T98" s="7" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="U98" s="11"/>
     </row>
@@ -7803,7 +7825,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C99" s="26">
         <v>45</v>
@@ -7842,16 +7864,16 @@
         <v>166</v>
       </c>
       <c r="Q99" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R99" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="S99" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T99" s="7" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="U99" s="11"/>
     </row>
@@ -7860,7 +7882,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C100" s="26">
         <v>46</v>
@@ -7899,16 +7921,16 @@
         <v>218</v>
       </c>
       <c r="Q100" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R100" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="S100" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T100" s="7" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="U100" s="11"/>
     </row>
@@ -7917,7 +7939,7 @@
         <v>3</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C101" s="26">
         <v>47</v>
@@ -7956,16 +7978,16 @@
         <v>153</v>
       </c>
       <c r="Q101" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R101" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="S101" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T101" s="7" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="U101" s="11"/>
     </row>
@@ -7974,7 +7996,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C102" s="26">
         <v>48</v>
@@ -8013,16 +8035,16 @@
         <v>134</v>
       </c>
       <c r="Q102" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R102" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="S102" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T102" s="7" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="U102" s="11"/>
     </row>
@@ -8031,7 +8053,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C103" s="26">
         <v>49</v>
@@ -8070,16 +8092,16 @@
         <v>32</v>
       </c>
       <c r="Q103" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R103" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="S103" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T103" s="7" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="U103" s="11"/>
     </row>
@@ -8088,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C104" s="26">
         <v>50</v>
@@ -8127,16 +8149,16 @@
         <v>205</v>
       </c>
       <c r="Q104" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R104" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="S104" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T104" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="U104" s="11"/>
     </row>
@@ -8145,7 +8167,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C105" s="26">
         <v>51</v>
@@ -8184,16 +8206,16 @@
         <v>190</v>
       </c>
       <c r="Q105" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R105" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="S105" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T105" s="7" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="U105" s="11"/>
     </row>
@@ -8202,7 +8224,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C106" s="26">
         <v>52</v>
@@ -8241,14 +8263,14 @@
         <v>172</v>
       </c>
       <c r="Q106" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R106" s="7"/>
       <c r="S106" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T106" s="7" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="U106" s="11"/>
     </row>
@@ -8257,7 +8279,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C107" s="26">
         <v>53</v>
@@ -8296,14 +8318,14 @@
         <v>37</v>
       </c>
       <c r="Q107" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R107" s="7"/>
       <c r="S107" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T107" s="7" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="U107" s="11"/>
     </row>
@@ -8312,7 +8334,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C108" s="26">
         <v>54</v>
@@ -8351,16 +8373,16 @@
         <v>194</v>
       </c>
       <c r="Q108" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R108" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="S108" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T108" s="7" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="U108" s="11"/>
     </row>
@@ -8369,7 +8391,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C109" s="26">
         <v>55</v>
@@ -8408,16 +8430,16 @@
         <v>35</v>
       </c>
       <c r="Q109" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R109" s="7" t="s">
         <v>35</v>
       </c>
       <c r="S109" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T109" s="7" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="U109" s="11"/>
     </row>
@@ -8426,7 +8448,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C110" s="26">
         <v>56</v>
@@ -8465,16 +8487,16 @@
         <v>183</v>
       </c>
       <c r="Q110" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R110" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="S110" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T110" s="7" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="U110" s="11"/>
     </row>
@@ -8483,7 +8505,7 @@
         <v>3</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C111" s="26">
         <v>57</v>
@@ -8522,16 +8544,16 @@
         <v>180</v>
       </c>
       <c r="Q111" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R111" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="S111" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T111" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="U111" s="11"/>
     </row>
@@ -8540,7 +8562,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C112" s="26">
         <v>58</v>
@@ -8574,19 +8596,19 @@
         <v>542.1</v>
       </c>
       <c r="P112" s="24" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="Q112" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R112" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="S112" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T112" s="7" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="U112" s="11"/>
     </row>
@@ -8595,7 +8617,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C113" s="26">
         <v>59</v>
@@ -8634,16 +8656,16 @@
         <v>40</v>
       </c>
       <c r="Q113" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R113" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S113" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T113" s="7" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="U113" s="11"/>
     </row>
@@ -8652,7 +8674,7 @@
         <v>3</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C114" s="26">
         <v>60</v>
@@ -8688,22 +8710,22 @@
         <v>547.70000000000005</v>
       </c>
       <c r="P114" s="24" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="Q114" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R114" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="S114" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T114" s="7" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="U114" s="11" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.4">
@@ -8711,7 +8733,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C115" s="26">
         <v>61</v>
@@ -8750,16 +8772,16 @@
         <v>174</v>
       </c>
       <c r="Q115" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R115" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S115" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T115" s="7" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="U115" s="11"/>
     </row>
@@ -8768,7 +8790,7 @@
         <v>3</v>
       </c>
       <c r="B116" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C116" s="26">
         <v>62</v>
@@ -8807,10 +8829,10 @@
         <v>38</v>
       </c>
       <c r="Q116" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R116" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="S116" s="10"/>
       <c r="T116" s="7"/>
@@ -8821,7 +8843,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C117" s="26">
         <v>63</v>
@@ -8862,7 +8884,7 @@
         <v>17</v>
       </c>
       <c r="Q117" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R117" s="7"/>
       <c r="S117" s="10"/>
@@ -8874,7 +8896,7 @@
         <v>3</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C118" s="26">
         <v>64</v>
@@ -8911,10 +8933,10 @@
         <v>167</v>
       </c>
       <c r="Q118" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R118" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="S118" s="10"/>
       <c r="T118" s="7"/>
@@ -8925,7 +8947,7 @@
         <v>3</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C119" s="26">
         <v>65</v>
@@ -8964,10 +8986,10 @@
         <v>34</v>
       </c>
       <c r="Q119" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R119" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="S119" s="10"/>
       <c r="T119" s="7"/>
@@ -8978,7 +9000,7 @@
         <v>3</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C120" s="26">
         <v>66</v>
@@ -9017,10 +9039,10 @@
         <v>33</v>
       </c>
       <c r="Q120" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R120" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="S120" s="10"/>
       <c r="T120" s="7"/>
@@ -9031,7 +9053,7 @@
         <v>3</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C121" s="26">
         <v>67</v>
@@ -9070,10 +9092,10 @@
         <v>36</v>
       </c>
       <c r="Q121" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R121" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="S121" s="10"/>
       <c r="T121" s="7"/>
@@ -9084,7 +9106,7 @@
         <v>3</v>
       </c>
       <c r="B122" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C122" s="26">
         <v>68</v>
@@ -9123,15 +9145,15 @@
         <v>210</v>
       </c>
       <c r="Q122" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="R122" s="15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="S122" s="10"/>
       <c r="T122" s="15"/>
       <c r="U122" s="11" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="123" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
@@ -9139,7 +9161,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C123" s="26">
         <v>69</v>
@@ -9175,11 +9197,11 @@
         <v>654</v>
       </c>
       <c r="P123" s="24" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="Q123" s="9"/>
       <c r="R123" s="7" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="S123" s="10"/>
       <c r="T123" s="7"/>
@@ -9190,7 +9212,7 @@
         <v>3</v>
       </c>
       <c r="B124" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C124" s="26">
         <v>70</v>
@@ -9212,7 +9234,7 @@
       <c r="J124" s="8"/>
       <c r="K124" s="7"/>
       <c r="L124" s="11" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="M124" s="21">
         <v>52.839700000000001</v>
@@ -9224,11 +9246,11 @@
         <v>507.5</v>
       </c>
       <c r="P124" s="24" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="Q124" s="9"/>
       <c r="R124" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="S124" s="10"/>
       <c r="T124" s="7"/>
@@ -9239,7 +9261,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C125" s="26">
         <v>71</v>
@@ -9258,12 +9280,12 @@
         <v>67</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="J125" s="8"/>
       <c r="K125" s="7"/>
       <c r="L125" s="11" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="M125" s="21">
         <v>51.3264</v>
@@ -9275,11 +9297,11 @@
         <v>496.2</v>
       </c>
       <c r="P125" s="24" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="Q125" s="9"/>
       <c r="R125" s="7" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="S125" s="10"/>
       <c r="T125" s="7"/>
@@ -9290,7 +9312,7 @@
         <v>3</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C126" s="26">
         <v>72</v>
@@ -9316,22 +9338,22 @@
       <c r="N126" s="21"/>
       <c r="O126" s="20"/>
       <c r="P126" s="24" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="Q126" s="9"/>
       <c r="R126" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="S126" s="10"/>
       <c r="T126" s="7"/>
       <c r="U126" s="11"/>
     </row>
-    <row r="127" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A127" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B127" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C127" s="26">
         <v>73</v>
@@ -9341,40 +9363,48 @@
       </c>
       <c r="E127" s="32"/>
       <c r="F127" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="I127" s="7" t="s">
-        <v>403</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="I127" s="7"/>
       <c r="J127" s="8"/>
       <c r="K127" s="7"/>
-      <c r="L127" s="11"/>
-      <c r="M127" s="21"/>
-      <c r="N127" s="21"/>
-      <c r="O127" s="20"/>
+      <c r="L127" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="M127" s="21">
+        <v>52.6633</v>
+      </c>
+      <c r="N127" s="21">
+        <v>120.82470000000001</v>
+      </c>
+      <c r="O127" s="20">
+        <v>430</v>
+      </c>
       <c r="P127" s="24" t="s">
-        <v>399</v>
+        <v>539</v>
       </c>
       <c r="Q127" s="9"/>
       <c r="R127" s="7" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="S127" s="10"/>
       <c r="T127" s="7"/>
-      <c r="U127" s="11"/>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="U127" s="11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A128" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B128" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C128" s="26">
         <v>74</v>
@@ -9390,42 +9420,42 @@
         <v>75</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I128" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J128" s="8"/>
       <c r="K128" s="7"/>
       <c r="L128" s="11" t="s">
-        <v>401</v>
+        <v>535</v>
       </c>
       <c r="M128" s="21">
-        <v>47.027200000000001</v>
+        <v>48.584200000000003</v>
       </c>
       <c r="N128" s="21">
-        <v>89.797499999999999</v>
+        <v>87.457800000000006</v>
       </c>
       <c r="O128" s="20">
-        <v>1333</v>
+        <v>1223</v>
       </c>
       <c r="P128" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q128" s="9"/>
       <c r="R128" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="S128" s="10"/>
       <c r="T128" s="7"/>
       <c r="U128" s="11"/>
     </row>
-    <row r="129" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A129" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C129" s="26">
         <v>75</v>
@@ -9438,599 +9468,655 @@
         <v>70</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>102</v>
+        <v>373</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="J129" s="8"/>
       <c r="K129" s="7"/>
       <c r="L129" s="11" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="M129" s="21">
-        <v>42.828800000000001</v>
+        <v>47.027200000000001</v>
       </c>
       <c r="N129" s="21">
-        <v>83.716099999999997</v>
+        <v>89.797499999999999</v>
       </c>
       <c r="O129" s="20">
-        <v>2465</v>
+        <v>1333</v>
       </c>
       <c r="P129" s="24" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="Q129" s="9"/>
       <c r="R129" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="S129" s="10"/>
       <c r="T129" s="7"/>
       <c r="U129" s="11"/>
     </row>
-    <row r="130" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A130" s="7" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="C130" s="26">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="D130" s="29">
         <v>129</v>
       </c>
       <c r="E130" s="32"/>
       <c r="F130" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="I130" s="7"/>
-      <c r="J130" s="8">
-        <v>31137</v>
-      </c>
-      <c r="K130" s="7">
-        <v>99999</v>
-      </c>
-      <c r="L130" s="11"/>
+      <c r="J130" s="8"/>
+      <c r="K130" s="7"/>
+      <c r="L130" s="11" t="s">
+        <v>536</v>
+      </c>
       <c r="M130" s="21">
-        <v>56.283333300000002</v>
+        <v>46.801099999999998</v>
       </c>
       <c r="N130" s="21">
-        <v>131.1333333</v>
+        <v>90.88</v>
       </c>
       <c r="O130" s="20">
-        <v>850</v>
+        <v>2640</v>
       </c>
       <c r="P130" s="24" t="s">
-        <v>342</v>
+        <v>537</v>
       </c>
       <c r="Q130" s="9"/>
       <c r="R130" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="S130" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="T130" s="7" t="s">
-        <v>479</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="S130" s="10"/>
+      <c r="T130" s="7"/>
       <c r="U130" s="11" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
     </row>
     <row r="131" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A131" s="7" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="C131" s="26">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D131" s="29">
         <v>130</v>
       </c>
       <c r="E131" s="32"/>
       <c r="F131" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="8">
-        <v>24688</v>
-      </c>
-      <c r="K131" s="7">
-        <v>99999</v>
-      </c>
-      <c r="L131" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="J131" s="8"/>
+      <c r="K131" s="7"/>
+      <c r="L131" s="11" t="s">
+        <v>389</v>
+      </c>
       <c r="M131" s="21">
-        <v>63.25</v>
+        <v>42.828800000000001</v>
       </c>
       <c r="N131" s="21">
-        <v>143.15</v>
+        <v>83.716099999999997</v>
       </c>
       <c r="O131" s="20">
-        <v>741</v>
+        <v>2465</v>
       </c>
       <c r="P131" s="24" t="s">
-        <v>52</v>
+        <v>375</v>
       </c>
       <c r="Q131" s="9"/>
       <c r="R131" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="S131" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="T131" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="U131" s="11" t="s">
-        <v>504</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="S131" s="10"/>
+      <c r="T131" s="7"/>
+      <c r="U131" s="11"/>
     </row>
     <row r="132" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A132" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="C132" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D132" s="29">
         <v>131</v>
       </c>
       <c r="E132" s="32"/>
       <c r="F132" s="7" t="s">
-        <v>228</v>
+        <v>158</v>
       </c>
       <c r="G132" s="7"/>
       <c r="H132" s="7"/>
       <c r="I132" s="7"/>
       <c r="J132" s="8">
-        <v>38875</v>
+        <v>31137</v>
       </c>
       <c r="K132" s="7">
         <v>99999</v>
       </c>
       <c r="L132" s="11"/>
       <c r="M132" s="21">
-        <v>39.016666600000001</v>
+        <v>56.283333300000002</v>
       </c>
       <c r="N132" s="21">
-        <v>73.55</v>
+        <v>131.1333333</v>
       </c>
       <c r="O132" s="20">
-        <v>3940</v>
-      </c>
-      <c r="P132" s="14" t="s">
-        <v>49</v>
+        <v>850</v>
+      </c>
+      <c r="P132" s="24" t="s">
+        <v>331</v>
       </c>
       <c r="Q132" s="9"/>
       <c r="R132" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="S132" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T132" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="U132" s="11"/>
+        <v>466</v>
+      </c>
+      <c r="U132" s="11" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="133" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A133" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="C133" s="26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D133" s="29">
         <v>132</v>
       </c>
       <c r="E133" s="32"/>
       <c r="F133" s="7" t="s">
-        <v>227</v>
+        <v>158</v>
       </c>
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
       <c r="J133" s="8">
-        <v>38358</v>
+        <v>24688</v>
       </c>
       <c r="K133" s="7">
         <v>99999</v>
       </c>
       <c r="L133" s="11"/>
       <c r="M133" s="21">
-        <v>42.15</v>
+        <v>63.25</v>
       </c>
       <c r="N133" s="21">
-        <v>73.983000000000004</v>
+        <v>143.15</v>
       </c>
       <c r="O133" s="20">
-        <v>2092</v>
-      </c>
-      <c r="P133" s="14" t="s">
-        <v>54</v>
+        <v>741</v>
+      </c>
+      <c r="P133" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="Q133" s="9"/>
       <c r="R133" s="7" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="S133" s="10" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T133" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="U133" s="11"/>
+        <v>467</v>
+      </c>
+      <c r="U133" s="11" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="134" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A134" s="15" t="s">
-        <v>505</v>
+      <c r="A134" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="C134" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D134" s="29">
         <v>133</v>
       </c>
       <c r="E134" s="32"/>
-      <c r="F134" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="G134" s="15"/>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
+      <c r="F134" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
       <c r="J134" s="8">
-        <v>71917</v>
-      </c>
-      <c r="K134" s="15">
+        <v>38875</v>
+      </c>
+      <c r="K134" s="7">
         <v>99999</v>
       </c>
-      <c r="L134" s="16"/>
+      <c r="L134" s="11"/>
       <c r="M134" s="21">
-        <v>79.983333299999998</v>
+        <v>39.016666600000001</v>
       </c>
       <c r="N134" s="21">
-        <v>-85.933333300000001</v>
+        <v>73.55</v>
       </c>
       <c r="O134" s="20">
-        <v>10</v>
-      </c>
-      <c r="P134" s="24" t="s">
-        <v>506</v>
+        <v>3940</v>
+      </c>
+      <c r="P134" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="Q134" s="9"/>
-      <c r="R134" s="15" t="s">
-        <v>508</v>
+      <c r="R134" s="7" t="s">
+        <v>328</v>
       </c>
       <c r="S134" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="T134" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="U134" s="11" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A135" s="15" t="s">
-        <v>511</v>
+        <v>394</v>
+      </c>
+      <c r="T134" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="U134" s="11"/>
+    </row>
+    <row r="135" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A135" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="C135" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D135" s="29">
         <v>134</v>
       </c>
       <c r="E135" s="32"/>
-      <c r="F135" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="G135" s="15"/>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
+      <c r="F135" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
       <c r="J135" s="8">
-        <v>70194</v>
-      </c>
-      <c r="K135" s="15">
+        <v>38358</v>
+      </c>
+      <c r="K135" s="7">
         <v>99999</v>
       </c>
-      <c r="L135" s="16"/>
+      <c r="L135" s="11"/>
       <c r="M135" s="21">
-        <v>66.566999999999993</v>
+        <v>42.15</v>
       </c>
       <c r="N135" s="21">
-        <v>-145.267</v>
+        <v>73.983000000000004</v>
       </c>
       <c r="O135" s="20">
-        <v>135</v>
-      </c>
-      <c r="P135" s="24" t="s">
-        <v>512</v>
+        <v>2092</v>
+      </c>
+      <c r="P135" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="Q135" s="9"/>
-      <c r="R135" s="15" t="s">
-        <v>514</v>
+      <c r="R135" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="S135" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="T135" s="15" t="s">
-        <v>515</v>
+        <v>394</v>
+      </c>
+      <c r="T135" s="7" t="s">
+        <v>497</v>
       </c>
       <c r="U135" s="11"/>
     </row>
     <row r="136" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A136" s="15" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="C136" s="26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D136" s="29">
         <v>135</v>
       </c>
       <c r="E136" s="32"/>
       <c r="F136" s="15" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="G136" s="15"/>
       <c r="H136" s="15"/>
       <c r="I136" s="15"/>
       <c r="J136" s="8">
-        <v>72613</v>
+        <v>71917</v>
       </c>
       <c r="K136" s="15">
         <v>99999</v>
       </c>
       <c r="L136" s="16"/>
       <c r="M136" s="21">
-        <v>44.267000000000003</v>
+        <v>79.983333299999998</v>
       </c>
       <c r="N136" s="21">
-        <v>-71.3</v>
+        <v>-85.933333300000001</v>
       </c>
       <c r="O136" s="20">
-        <v>1910</v>
+        <v>10</v>
       </c>
       <c r="P136" s="24" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="Q136" s="9"/>
-      <c r="R136" s="15"/>
+      <c r="R136" s="15" t="s">
+        <v>495</v>
+      </c>
       <c r="S136" s="10" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="T136" s="15" t="s">
-        <v>522</v>
+        <v>496</v>
       </c>
       <c r="U136" s="11" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A137" s="15" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="C137" s="26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D137" s="29">
         <v>136</v>
       </c>
       <c r="E137" s="32"/>
       <c r="F137" s="15" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G137" s="15"/>
       <c r="H137" s="15"/>
       <c r="I137" s="15"/>
-      <c r="J137" s="30">
-        <v>4419</v>
+      <c r="J137" s="8">
+        <v>70194</v>
       </c>
       <c r="K137" s="15">
         <v>99999</v>
       </c>
       <c r="L137" s="16"/>
       <c r="M137" s="21">
-        <v>72.572778</v>
+        <v>66.566999999999993</v>
       </c>
       <c r="N137" s="21">
-        <v>-38.470278</v>
+        <v>-145.267</v>
       </c>
       <c r="O137" s="20">
-        <v>3204</v>
+        <v>135</v>
       </c>
       <c r="P137" s="24" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="Q137" s="9"/>
       <c r="R137" s="15" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="S137" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="T137" s="15"/>
-      <c r="U137" s="11" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.4">
+        <v>395</v>
+      </c>
+      <c r="T137" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="U137" s="11"/>
+    </row>
+    <row r="138" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A138" s="15" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="C138" s="26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D138" s="29">
         <v>137</v>
       </c>
       <c r="E138" s="32"/>
       <c r="F138" s="15" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="G138" s="15"/>
       <c r="H138" s="15"/>
       <c r="I138" s="15"/>
-      <c r="J138" s="30">
-        <v>1065</v>
+      <c r="J138" s="8">
+        <v>72613</v>
       </c>
       <c r="K138" s="15">
         <v>99999</v>
       </c>
       <c r="L138" s="16"/>
       <c r="M138" s="21">
-        <v>69.466666599999996</v>
+        <v>44.267000000000003</v>
       </c>
       <c r="N138" s="21">
-        <v>25.516666600000001</v>
+        <v>-71.3</v>
       </c>
       <c r="O138" s="20">
-        <v>133</v>
+        <v>1910</v>
       </c>
       <c r="P138" s="24" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="Q138" s="9"/>
-      <c r="R138" s="15" t="s">
-        <v>527</v>
-      </c>
+      <c r="R138" s="15"/>
       <c r="S138" s="10" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="T138" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="U138" s="11"/>
-    </row>
-    <row r="139" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+        <v>509</v>
+      </c>
+      <c r="U138" s="11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A139" s="15" t="s">
-        <v>48</v>
+        <v>504</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C139" s="26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D139" s="29">
         <v>138</v>
       </c>
       <c r="E139" s="32"/>
       <c r="F139" s="15" t="s">
-        <v>228</v>
+        <v>503</v>
       </c>
       <c r="G139" s="15"/>
       <c r="H139" s="15"/>
       <c r="I139" s="15"/>
-      <c r="J139" s="8">
-        <v>38878</v>
+      <c r="J139" s="30">
+        <v>4419</v>
       </c>
       <c r="K139" s="15">
         <v>99999</v>
       </c>
       <c r="L139" s="16"/>
       <c r="M139" s="21">
-        <v>38.166666599999999</v>
+        <v>72.572778</v>
       </c>
       <c r="N139" s="21">
-        <v>73.966666599999996</v>
+        <v>-38.470278</v>
       </c>
       <c r="O139" s="20">
-        <v>3576</v>
+        <v>3204</v>
       </c>
       <c r="P139" s="24" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="Q139" s="9"/>
       <c r="R139" s="15" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="S139" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="T139" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="U139" s="11"/>
+        <v>395</v>
+      </c>
+      <c r="T139" s="15"/>
+      <c r="U139" s="11" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A140" s="15"/>
-      <c r="B140" s="26"/>
-      <c r="C140" s="26"/>
-      <c r="D140" s="29"/>
+      <c r="A140" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="B140" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="C140" s="26">
+        <v>9</v>
+      </c>
+      <c r="D140" s="29">
+        <v>139</v>
+      </c>
       <c r="E140" s="32"/>
-      <c r="F140" s="15"/>
+      <c r="F140" s="15" t="s">
+        <v>512</v>
+      </c>
       <c r="G140" s="15"/>
       <c r="H140" s="15"/>
       <c r="I140" s="15"/>
-      <c r="J140" s="8"/>
-      <c r="K140" s="15"/>
+      <c r="J140" s="30">
+        <v>1065</v>
+      </c>
+      <c r="K140" s="15">
+        <v>99999</v>
+      </c>
       <c r="L140" s="16"/>
-      <c r="M140" s="21"/>
-      <c r="N140" s="21"/>
-      <c r="O140" s="20"/>
-      <c r="P140" s="24"/>
+      <c r="M140" s="21">
+        <v>69.466666599999996</v>
+      </c>
+      <c r="N140" s="21">
+        <v>25.516666600000001</v>
+      </c>
+      <c r="O140" s="20">
+        <v>133</v>
+      </c>
+      <c r="P140" s="24" t="s">
+        <v>513</v>
+      </c>
       <c r="Q140" s="9"/>
-      <c r="R140" s="15"/>
-      <c r="S140" s="10"/>
-      <c r="T140" s="15"/>
+      <c r="R140" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="S140" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="T140" s="15" t="s">
+        <v>515</v>
+      </c>
       <c r="U140" s="11"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A141" s="15"/>
-      <c r="B141" s="26"/>
-      <c r="C141" s="26"/>
-      <c r="D141" s="29"/>
+    <row r="141" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A141" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B141" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="C141" s="26">
+        <v>10</v>
+      </c>
+      <c r="D141" s="29">
+        <v>140</v>
+      </c>
       <c r="E141" s="32"/>
-      <c r="F141" s="15"/>
+      <c r="F141" s="15" t="s">
+        <v>228</v>
+      </c>
       <c r="G141" s="15"/>
       <c r="H141" s="15"/>
       <c r="I141" s="15"/>
-      <c r="J141" s="8"/>
-      <c r="K141" s="15"/>
+      <c r="J141" s="8">
+        <v>38878</v>
+      </c>
+      <c r="K141" s="15">
+        <v>99999</v>
+      </c>
       <c r="L141" s="16"/>
-      <c r="M141" s="21"/>
-      <c r="N141" s="21"/>
-      <c r="O141" s="20"/>
-      <c r="P141" s="24"/>
+      <c r="M141" s="21">
+        <v>38.166666599999999</v>
+      </c>
+      <c r="N141" s="21">
+        <v>73.966666599999996</v>
+      </c>
+      <c r="O141" s="20">
+        <v>3576</v>
+      </c>
+      <c r="P141" s="24" t="s">
+        <v>517</v>
+      </c>
       <c r="Q141" s="9"/>
-      <c r="R141" s="15"/>
-      <c r="S141" s="10"/>
-      <c r="T141" s="15"/>
+      <c r="R141" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="S141" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="T141" s="15" t="s">
+        <v>516</v>
+      </c>
       <c r="U141" s="11"/>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.4">
@@ -10286,17 +10372,63 @@
       <c r="T152" s="15"/>
       <c r="U152" s="11"/>
     </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A153" s="15"/>
+      <c r="B153" s="26"/>
+      <c r="C153" s="26"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="32"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="8"/>
+      <c r="K153" s="15"/>
+      <c r="L153" s="16"/>
+      <c r="M153" s="21"/>
+      <c r="N153" s="21"/>
+      <c r="O153" s="20"/>
+      <c r="P153" s="24"/>
+      <c r="Q153" s="9"/>
+      <c r="R153" s="15"/>
+      <c r="S153" s="10"/>
+      <c r="T153" s="15"/>
+      <c r="U153" s="11"/>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A154" s="15"/>
+      <c r="B154" s="26"/>
+      <c r="C154" s="26"/>
+      <c r="D154" s="29"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="15"/>
+      <c r="J154" s="8"/>
+      <c r="K154" s="15"/>
+      <c r="L154" s="16"/>
+      <c r="M154" s="21"/>
+      <c r="N154" s="21"/>
+      <c r="O154" s="20"/>
+      <c r="P154" s="24"/>
+      <c r="Q154" s="9"/>
+      <c r="R154" s="15"/>
+      <c r="S154" s="10"/>
+      <c r="T154" s="15"/>
+      <c r="U154" s="11"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vt0d0zHeS67KJRJ54IGY7OZBFQY5ooUlJCrajoMQW5yAisZiqT6ItD8NXDxQ8mC0eFx+AGxL8zmcIBTGAHa3WA==" saltValue="edRhXs7hZJH0RX5EwikjNg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U139">
-    <sortCondition ref="D2:D139"/>
-    <sortCondition ref="B2:B139"/>
-    <sortCondition ref="F2:F139"/>
-    <sortCondition ref="G2:G139"/>
-    <sortCondition ref="H2:H139"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+6kRKielU/aN6wxxOShemsatSVm3HoPAwGjPy7GsHxUUiQCZlTfRuDsRDeXcMz8pRVCekQhl6qfa5mvWfMkRVA==" saltValue="qHrYhFiA4zoUV7uJzf2Ekg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U141">
+    <sortCondition ref="D2:D141"/>
+    <sortCondition ref="B2:B141"/>
+    <sortCondition ref="F2:F141"/>
+    <sortCondition ref="G2:G141"/>
+    <sortCondition ref="H2:H141"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:U152">
+  <conditionalFormatting sqref="A2:U154">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF(MOD(ROW(), 2), 0, 1)</formula>
     </cfRule>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41D578D-8291-4A25-AAB1-CF3DC24108E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3CC67C-23D6-475E-A60D-120AF490FE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="539">
   <si>
     <t>USAF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>纬度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -584,14 +580,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内江市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东兴区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成都市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1260,10 +1248,6 @@
   </si>
   <si>
     <t>长江、嘉陵江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沱江</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1731,9 +1715,6 @@
     <t>Chongqing,_Jiulongpo_(airport)</t>
   </si>
   <si>
-    <t>Gaoqiao,_Neijiang</t>
-  </si>
-  <si>
     <t>Chengdu_(AWS)</t>
   </si>
   <si>
@@ -2069,6 +2050,18 @@
   </si>
   <si>
     <t>天津黑牛城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达州市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴河</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2665,7 +2658,7 @@
   <dimension ref="A1:U154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2692,31 +2685,31 @@
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="I1" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>0</v>
@@ -2725,16 +2718,16 @@
         <v>1</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="17" t="s">
-        <v>42</v>
-      </c>
       <c r="O1" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P1" s="23" t="s">
         <v>2</v>
@@ -2743,24 +2736,24 @@
         <v>4</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="U1" s="28" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C2" s="26">
         <v>1</v>
@@ -2772,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -2792,13 +2785,13 @@
         <v>799</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="S2" s="10"/>
       <c r="T2" s="7"/>
@@ -2806,10 +2799,10 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C3" s="26">
         <v>2</v>
@@ -2821,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -2841,13 +2834,13 @@
         <v>997</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="S3" s="10"/>
       <c r="T3" s="7"/>
@@ -2855,10 +2848,10 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C4" s="26">
         <v>3</v>
@@ -2870,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -2890,13 +2883,13 @@
         <v>1286</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="S4" s="10"/>
       <c r="T4" s="7"/>
@@ -2904,10 +2897,10 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C5" s="26">
         <v>4</v>
@@ -2919,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -2939,13 +2932,13 @@
         <v>2156</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="S5" s="10"/>
       <c r="T5" s="7"/>
@@ -2953,10 +2946,10 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C6" s="26">
         <v>5</v>
@@ -2968,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -2988,13 +2981,13 @@
         <v>1546</v>
       </c>
       <c r="P6" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q6" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="Q6" s="9" t="s">
-        <v>397</v>
-      </c>
       <c r="R6" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="S6" s="10"/>
       <c r="T6" s="7"/>
@@ -3002,10 +2995,10 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C7" s="26">
         <v>6</v>
@@ -3017,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -3037,13 +3030,13 @@
         <v>675</v>
       </c>
       <c r="P7" s="24" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="S7" s="10"/>
       <c r="T7" s="7"/>
@@ -3051,10 +3044,10 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C8" s="26">
         <v>7</v>
@@ -3066,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -3088,28 +3081,28 @@
         <v>937</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="U8" s="11"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C9" s="26">
         <v>8</v>
@@ -3121,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -3143,28 +3136,28 @@
         <v>1424</v>
       </c>
       <c r="P9" s="24" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="U9" s="11"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C10" s="26">
         <v>9</v>
@@ -3176,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -3198,28 +3191,28 @@
         <v>1931</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="U10" s="11"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C11" s="26">
         <v>10</v>
@@ -3231,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -3253,28 +3246,28 @@
         <v>1726</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="U11" s="11"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C12" s="26">
         <v>11</v>
@@ -3286,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -3308,28 +3301,28 @@
         <v>1585</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="U12" s="11"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C13" s="26">
         <v>12</v>
@@ -3341,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -3363,28 +3356,28 @@
         <v>1304</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="U13" s="11"/>
     </row>
     <row r="14" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C14" s="26">
         <v>13</v>
@@ -3394,7 +3387,7 @@
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -3414,11 +3407,11 @@
         <v>2422</v>
       </c>
       <c r="P14" s="24" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="9"/>
       <c r="R14" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="S14" s="10"/>
       <c r="T14" s="7"/>
@@ -3426,10 +3419,10 @@
     </row>
     <row r="15" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C15" s="26">
         <v>14</v>
@@ -3439,7 +3432,7 @@
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -3459,11 +3452,11 @@
         <v>2034</v>
       </c>
       <c r="P15" s="24" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="Q15" s="9"/>
       <c r="R15" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="S15" s="10"/>
       <c r="T15" s="7"/>
@@ -3471,10 +3464,10 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C16" s="26">
         <v>15</v>
@@ -3484,7 +3477,7 @@
       </c>
       <c r="E16" s="32"/>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -3504,11 +3497,11 @@
         <v>1166</v>
       </c>
       <c r="P16" s="24" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Q16" s="9"/>
       <c r="R16" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="S16" s="10"/>
       <c r="T16" s="7"/>
@@ -3516,10 +3509,10 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C17" s="26">
         <v>16</v>
@@ -3529,7 +3522,7 @@
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -3549,11 +3542,11 @@
         <v>1262</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q17" s="9"/>
       <c r="R17" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="S17" s="10"/>
       <c r="T17" s="7"/>
@@ -3561,10 +3554,10 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C18" s="26">
         <v>17</v>
@@ -3574,7 +3567,7 @@
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -3594,11 +3587,11 @@
         <v>1716</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q18" s="9"/>
       <c r="R18" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="S18" s="10"/>
       <c r="T18" s="7"/>
@@ -3606,10 +3599,10 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C19" s="26">
         <v>18</v>
@@ -3619,7 +3612,7 @@
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -3639,7 +3632,7 @@
         <v>1805</v>
       </c>
       <c r="P19" s="24" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Q19" s="9"/>
       <c r="R19" s="7"/>
@@ -3649,10 +3642,10 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C20" s="26">
         <v>19</v>
@@ -3662,7 +3655,7 @@
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -3682,11 +3675,11 @@
         <v>1687</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Q20" s="9"/>
       <c r="R20" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="S20" s="10"/>
       <c r="T20" s="7"/>
@@ -3694,10 +3687,10 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C21" s="26">
         <v>20</v>
@@ -3707,7 +3700,7 @@
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -3727,11 +3720,11 @@
         <v>632</v>
       </c>
       <c r="P21" s="24" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Q21" s="9"/>
       <c r="R21" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="S21" s="10"/>
       <c r="T21" s="7"/>
@@ -3739,10 +3732,10 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C22" s="26">
         <v>21</v>
@@ -3752,7 +3745,7 @@
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -3772,11 +3765,11 @@
         <v>859</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q22" s="9"/>
       <c r="R22" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="S22" s="10"/>
       <c r="T22" s="7"/>
@@ -3784,10 +3777,10 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C23" s="26">
         <v>22</v>
@@ -3797,7 +3790,7 @@
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -3817,11 +3810,11 @@
         <v>1393</v>
       </c>
       <c r="P23" s="24" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q23" s="9"/>
       <c r="R23" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="S23" s="10"/>
       <c r="T23" s="7"/>
@@ -3829,10 +3822,10 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C24" s="26">
         <v>23</v>
@@ -3842,7 +3835,7 @@
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -3862,11 +3855,11 @@
         <v>1593</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Q24" s="9"/>
       <c r="R24" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="S24" s="10"/>
       <c r="T24" s="7"/>
@@ -3874,10 +3867,10 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C25" s="26">
         <v>24</v>
@@ -3887,7 +3880,7 @@
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -3907,11 +3900,11 @@
         <v>1142</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="Q25" s="9"/>
       <c r="R25" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="S25" s="10"/>
       <c r="T25" s="7"/>
@@ -3919,10 +3912,10 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C26" s="26">
         <v>25</v>
@@ -3932,7 +3925,7 @@
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -3952,11 +3945,11 @@
         <v>1212</v>
       </c>
       <c r="P26" s="24" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q26" s="9"/>
       <c r="R26" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="S26" s="10"/>
       <c r="T26" s="7"/>
@@ -3964,10 +3957,10 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C27" s="26">
         <v>26</v>
@@ -3977,7 +3970,7 @@
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -4001,11 +3994,11 @@
         <v>1233</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="Q27" s="9"/>
       <c r="R27" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="S27" s="10"/>
       <c r="T27" s="7"/>
@@ -4013,10 +4006,10 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C28" s="26">
         <v>27</v>
@@ -4026,7 +4019,7 @@
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -4046,11 +4039,11 @@
         <v>1045</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q28" s="9"/>
       <c r="R28" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="S28" s="10"/>
       <c r="T28" s="7"/>
@@ -4058,10 +4051,10 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C29" s="26">
         <v>28</v>
@@ -4071,7 +4064,7 @@
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -4091,11 +4084,11 @@
         <v>1858</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q29" s="9"/>
       <c r="R29" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="S29" s="10"/>
       <c r="T29" s="7"/>
@@ -4103,10 +4096,10 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C30" s="26">
         <v>29</v>
@@ -4116,7 +4109,7 @@
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -4136,11 +4129,11 @@
         <v>1656</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Q30" s="9"/>
       <c r="R30" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S30" s="10"/>
       <c r="T30" s="7"/>
@@ -4148,10 +4141,10 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C31" s="26">
         <v>30</v>
@@ -4161,7 +4154,7 @@
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -4181,11 +4174,11 @@
         <v>1851</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q31" s="9"/>
       <c r="R31" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="S31" s="10"/>
       <c r="T31" s="7"/>
@@ -4193,10 +4186,10 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C32" s="26">
         <v>31</v>
@@ -4206,7 +4199,7 @@
       </c>
       <c r="E32" s="32"/>
       <c r="F32" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -4226,11 +4219,11 @@
         <v>1569</v>
       </c>
       <c r="P32" s="24" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q32" s="9"/>
       <c r="R32" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="S32" s="10"/>
       <c r="T32" s="7"/>
@@ -4238,10 +4231,10 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C33" s="26">
         <v>32</v>
@@ -4251,7 +4244,7 @@
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -4271,11 +4264,11 @@
         <v>1811</v>
       </c>
       <c r="P33" s="24" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q33" s="9"/>
       <c r="R33" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S33" s="10"/>
       <c r="T33" s="7"/>
@@ -4283,10 +4276,10 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C34" s="26">
         <v>33</v>
@@ -4296,7 +4289,7 @@
       </c>
       <c r="E34" s="32"/>
       <c r="F34" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -4316,11 +4309,11 @@
         <v>1776</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Q34" s="9"/>
       <c r="R34" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="S34" s="10"/>
       <c r="T34" s="7"/>
@@ -4328,10 +4321,10 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C35" s="26">
         <v>34</v>
@@ -4341,7 +4334,7 @@
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -4361,7 +4354,7 @@
         <v>1271</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q35" s="9"/>
       <c r="R35" s="7"/>
@@ -4371,10 +4364,10 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C36" s="26">
         <v>35</v>
@@ -4384,7 +4377,7 @@
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -4404,11 +4397,11 @@
         <v>2113</v>
       </c>
       <c r="P36" s="24" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q36" s="9"/>
       <c r="R36" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="S36" s="10"/>
       <c r="T36" s="7"/>
@@ -4416,10 +4409,10 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C37" s="26">
         <v>36</v>
@@ -4429,7 +4422,7 @@
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -4449,11 +4442,11 @@
         <v>1963</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q37" s="9"/>
       <c r="R37" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S37" s="10"/>
       <c r="T37" s="7"/>
@@ -4461,10 +4454,10 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C38" s="26">
         <v>37</v>
@@ -4474,7 +4467,7 @@
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -4494,11 +4487,11 @@
         <v>1777</v>
       </c>
       <c r="P38" s="24" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Q38" s="9"/>
       <c r="R38" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="S38" s="10"/>
       <c r="T38" s="7"/>
@@ -4506,10 +4499,10 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C39" s="26">
         <v>1</v>
@@ -4521,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -4543,26 +4536,26 @@
         <v>257</v>
       </c>
       <c r="P39" s="24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="S39" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T39" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="U39" s="11"/>
     </row>
     <row r="40" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C40" s="26">
         <v>2</v>
@@ -4574,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -4596,26 +4589,26 @@
         <v>272</v>
       </c>
       <c r="P40" s="24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q40" s="9"/>
       <c r="R40" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T40" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="U40" s="11"/>
     </row>
     <row r="41" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C41" s="26">
         <v>3</v>
@@ -4627,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -4649,28 +4642,28 @@
         <v>902</v>
       </c>
       <c r="P41" s="24" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="S41" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T41" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="U41" s="11"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C42" s="26">
         <v>4</v>
@@ -4682,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -4704,26 +4697,26 @@
         <v>543</v>
       </c>
       <c r="P42" s="24" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q42" s="9"/>
       <c r="R42" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T42" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="U42" s="11"/>
     </row>
     <row r="43" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C43" s="26">
         <v>5</v>
@@ -4735,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -4757,26 +4750,26 @@
         <v>153</v>
       </c>
       <c r="P43" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q43" s="9"/>
       <c r="R43" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="S43" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T43" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="U43" s="11"/>
     </row>
     <row r="44" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C44" s="26">
         <v>6</v>
@@ -4788,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -4810,26 +4803,26 @@
         <v>625</v>
       </c>
       <c r="P44" s="24" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q44" s="9"/>
       <c r="R44" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T44" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="U44" s="11"/>
     </row>
     <row r="45" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C45" s="26">
         <v>7</v>
@@ -4841,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -4863,28 +4856,28 @@
         <v>811</v>
       </c>
       <c r="P45" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="S45" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T45" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="U45" s="11"/>
     </row>
     <row r="46" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C46" s="26">
         <v>8</v>
@@ -4896,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -4918,26 +4911,26 @@
         <v>489</v>
       </c>
       <c r="P46" s="24" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q46" s="9"/>
       <c r="R46" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T46" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="U46" s="11"/>
     </row>
     <row r="47" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C47" s="26">
         <v>9</v>
@@ -4949,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -4971,28 +4964,28 @@
         <v>533</v>
       </c>
       <c r="P47" s="24" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="S47" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T47" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="U47" s="11"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C48" s="26">
         <v>10</v>
@@ -5004,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -5026,26 +5019,26 @@
         <v>705.8</v>
       </c>
       <c r="P48" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q48" s="9"/>
       <c r="R48" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="S48" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T48" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="U48" s="11"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A49" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C49" s="26">
         <v>11</v>
@@ -5057,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -5079,28 +5072,28 @@
         <v>628</v>
       </c>
       <c r="P49" s="24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T49" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="U49" s="11"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C50" s="26">
         <v>12</v>
@@ -5112,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -5134,26 +5127,26 @@
         <v>1100</v>
       </c>
       <c r="P50" s="24" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q50" s="9"/>
       <c r="R50" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="S50" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T50" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="U50" s="11"/>
     </row>
     <row r="51" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C51" s="26">
         <v>13</v>
@@ -5165,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -5187,28 +5180,28 @@
         <v>1759</v>
       </c>
       <c r="P51" s="24" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="S51" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T51" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="U51" s="11"/>
     </row>
     <row r="52" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A52" s="15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C52" s="26">
         <v>14</v>
@@ -5218,7 +5211,7 @@
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
@@ -5240,26 +5233,26 @@
         <v>370</v>
       </c>
       <c r="P52" s="24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q52" s="9"/>
       <c r="R52" s="15" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="T52" s="15" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="U52" s="11"/>
     </row>
     <row r="53" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A53" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C53" s="26">
         <v>1</v>
@@ -5271,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -5293,24 +5286,24 @@
         <v>512</v>
       </c>
       <c r="P53" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q53" s="9"/>
       <c r="R53" s="7"/>
       <c r="S53" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T53" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="U53" s="11"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A54" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C54" s="26">
         <v>2</v>
@@ -5322,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -5344,17 +5337,17 @@
         <v>1381</v>
       </c>
       <c r="P54" s="24" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="Q54" s="9"/>
       <c r="R54" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="S54" s="10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="T54" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="U54" s="11"/>
     </row>
@@ -5363,7 +5356,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C55" s="26">
         <v>1</v>
@@ -5371,15 +5364,17 @@
       <c r="D55" s="29">
         <v>54</v>
       </c>
-      <c r="E55" s="32"/>
+      <c r="E55" s="32">
+        <v>0</v>
+      </c>
       <c r="F55" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="8">
@@ -5399,17 +5394,17 @@
         <v>51</v>
       </c>
       <c r="P55" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q55" s="9"/>
       <c r="R55" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="S55" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T55" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="U55" s="11"/>
     </row>
@@ -5418,7 +5413,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C56" s="26">
         <v>2</v>
@@ -5430,13 +5425,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="8">
@@ -5459,10 +5454,10 @@
         <v>18</v>
       </c>
       <c r="Q56" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R56" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="S56" s="10"/>
       <c r="T56" s="7"/>
@@ -5473,7 +5468,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C57" s="26">
         <v>3</v>
@@ -5481,15 +5476,17 @@
       <c r="D57" s="29">
         <v>56</v>
       </c>
-      <c r="E57" s="32"/>
+      <c r="E57" s="32">
+        <v>0</v>
+      </c>
       <c r="F57" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="8">
@@ -5509,17 +5506,17 @@
         <v>236.8</v>
       </c>
       <c r="P57" s="24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q57" s="9"/>
       <c r="R57" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="S57" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T57" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="U57" s="11"/>
     </row>
@@ -5528,7 +5525,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C58" s="26">
         <v>4</v>
@@ -5540,13 +5537,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G58" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="8">
@@ -5569,16 +5566,16 @@
         <v>19</v>
       </c>
       <c r="Q58" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R58" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="S58" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T58" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="U58" s="11"/>
     </row>
@@ -5587,7 +5584,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C59" s="26">
         <v>5</v>
@@ -5599,13 +5596,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G59" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H59" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="8">
@@ -5628,16 +5625,16 @@
         <v>20</v>
       </c>
       <c r="Q59" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R59" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="S59" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T59" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="U59" s="11"/>
     </row>
@@ -5646,7 +5643,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C60" s="26">
         <v>6</v>
@@ -5658,13 +5655,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G60" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="8">
@@ -5687,10 +5684,10 @@
         <v>16</v>
       </c>
       <c r="Q60" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R60" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="S60" s="10"/>
       <c r="T60" s="7"/>
@@ -5701,7 +5698,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C61" s="26">
         <v>7</v>
@@ -5713,13 +5710,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="8">
@@ -5743,13 +5740,13 @@
       </c>
       <c r="Q61" s="9"/>
       <c r="R61" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="S61" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T61" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="U61" s="11"/>
     </row>
@@ -5758,7 +5755,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C62" s="26">
         <v>8</v>
@@ -5770,13 +5767,13 @@
         <v>0</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="8">
@@ -5800,7 +5797,7 @@
       </c>
       <c r="Q62" s="9"/>
       <c r="R62" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="S62" s="10"/>
       <c r="T62" s="7"/>
@@ -5811,7 +5808,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C63" s="26">
         <v>9</v>
@@ -5823,13 +5820,13 @@
         <v>0</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="8">
@@ -5853,7 +5850,7 @@
       </c>
       <c r="Q63" s="9"/>
       <c r="R63" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="S63" s="10"/>
       <c r="T63" s="7"/>
@@ -5864,7 +5861,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C64" s="26">
         <v>10</v>
@@ -5876,13 +5873,13 @@
         <v>0</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="8">
@@ -5905,16 +5902,16 @@
         <v>5</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R64" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="S64" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T64" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="U64" s="11"/>
     </row>
@@ -5923,7 +5920,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C65" s="26">
         <v>11</v>
@@ -5935,13 +5932,13 @@
         <v>0</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="8">
@@ -5965,7 +5962,7 @@
       </c>
       <c r="Q65" s="9"/>
       <c r="R65" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="S65" s="10"/>
       <c r="T65" s="7"/>
@@ -5976,7 +5973,7 @@
         <v>3</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C66" s="26">
         <v>12</v>
@@ -5988,13 +5985,13 @@
         <v>0</v>
       </c>
       <c r="F66" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G66" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="H66" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="8">
@@ -6017,10 +6014,10 @@
         <v>10</v>
       </c>
       <c r="Q66" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R66" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="S66" s="10"/>
       <c r="T66" s="7"/>
@@ -6031,7 +6028,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C67" s="26">
         <v>13</v>
@@ -6043,13 +6040,13 @@
         <v>0</v>
       </c>
       <c r="F67" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G67" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="H67" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="8">
@@ -6072,16 +6069,16 @@
         <v>6</v>
       </c>
       <c r="Q67" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R67" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="S67" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T67" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="U67" s="11"/>
     </row>
@@ -6090,7 +6087,7 @@
         <v>3</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C68" s="26">
         <v>14</v>
@@ -6102,13 +6099,13 @@
         <v>0</v>
       </c>
       <c r="F68" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G68" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="H68" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="8">
@@ -6132,7 +6129,7 @@
       </c>
       <c r="Q68" s="9"/>
       <c r="R68" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="S68" s="10"/>
       <c r="T68" s="7"/>
@@ -6143,7 +6140,7 @@
         <v>3</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C69" s="26">
         <v>15</v>
@@ -6153,10 +6150,10 @@
       </c>
       <c r="E69" s="32"/>
       <c r="F69" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>29</v>
@@ -6183,7 +6180,7 @@
       </c>
       <c r="Q69" s="9"/>
       <c r="R69" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="S69" s="10"/>
       <c r="T69" s="7"/>
@@ -6194,7 +6191,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C70" s="26">
         <v>16</v>
@@ -6206,13 +6203,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G70" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="H70" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="8">
@@ -6236,13 +6233,13 @@
       </c>
       <c r="Q70" s="9"/>
       <c r="R70" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="S70" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T70" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="U70" s="11"/>
     </row>
@@ -6251,7 +6248,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C71" s="26">
         <v>17</v>
@@ -6261,10 +6258,10 @@
       </c>
       <c r="E71" s="32"/>
       <c r="F71" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>30</v>
@@ -6291,7 +6288,7 @@
       </c>
       <c r="Q71" s="9"/>
       <c r="R71" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="S71" s="10"/>
       <c r="T71" s="7"/>
@@ -6302,7 +6299,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C72" s="26">
         <v>18</v>
@@ -6314,13 +6311,13 @@
         <v>0</v>
       </c>
       <c r="F72" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G72" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="H72" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="8">
@@ -6344,7 +6341,7 @@
       </c>
       <c r="Q72" s="9"/>
       <c r="R72" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="S72" s="10"/>
       <c r="T72" s="7"/>
@@ -6355,7 +6352,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C73" s="26">
         <v>19</v>
@@ -6367,13 +6364,13 @@
         <v>0</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="8">
@@ -6397,13 +6394,13 @@
       </c>
       <c r="Q73" s="9"/>
       <c r="R73" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="S73" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T73" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="U73" s="11"/>
     </row>
@@ -6412,7 +6409,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C74" s="26">
         <v>20</v>
@@ -6424,13 +6421,13 @@
         <v>0</v>
       </c>
       <c r="F74" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="H74" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="8">
@@ -6453,7 +6450,7 @@
         <v>21</v>
       </c>
       <c r="Q74" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R74" s="7"/>
       <c r="S74" s="10"/>
@@ -6465,7 +6462,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C75" s="26">
         <v>21</v>
@@ -6477,13 +6474,13 @@
         <v>0</v>
       </c>
       <c r="F75" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G75" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="H75" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="8">
@@ -6506,10 +6503,10 @@
         <v>14</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R75" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="S75" s="10"/>
       <c r="T75" s="7"/>
@@ -6520,7 +6517,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C76" s="26">
         <v>22</v>
@@ -6532,13 +6529,13 @@
         <v>0</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G76" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H76" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="8">
@@ -6561,10 +6558,10 @@
         <v>15</v>
       </c>
       <c r="Q76" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R76" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="S76" s="10"/>
       <c r="T76" s="7"/>
@@ -6575,7 +6572,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C77" s="26">
         <v>23</v>
@@ -6587,13 +6584,13 @@
         <v>0</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="8">
@@ -6613,19 +6610,19 @@
         <v>4612</v>
       </c>
       <c r="P77" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q77" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R77" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="S77" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T77" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="U77" s="11"/>
     </row>
@@ -6634,7 +6631,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C78" s="26">
         <v>24</v>
@@ -6646,13 +6643,13 @@
         <v>0</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="8">
@@ -6672,19 +6669,19 @@
         <v>1773.7</v>
       </c>
       <c r="P78" s="24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q78" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R78" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="S78" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T78" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="U78" s="11"/>
     </row>
@@ -6693,7 +6690,7 @@
         <v>3</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C79" s="26">
         <v>25</v>
@@ -6705,13 +6702,13 @@
         <v>0</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G79" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H79" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="8">
@@ -6734,10 +6731,10 @@
         <v>12</v>
       </c>
       <c r="Q79" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R79" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="S79" s="10"/>
       <c r="T79" s="7"/>
@@ -6748,7 +6745,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C80" s="26">
         <v>26</v>
@@ -6760,13 +6757,13 @@
         <v>0</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G80" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H80" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="8">
@@ -6789,10 +6786,10 @@
         <v>13</v>
       </c>
       <c r="Q80" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R80" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S80" s="10"/>
       <c r="T80" s="7"/>
@@ -6803,7 +6800,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C81" s="26">
         <v>27</v>
@@ -6815,16 +6812,16 @@
         <v>0</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H81" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I81" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="J81" s="8">
         <v>51076</v>
@@ -6843,17 +6840,17 @@
         <v>734.8</v>
       </c>
       <c r="P81" s="24" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="Q81" s="9"/>
       <c r="R81" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="S81" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T81" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="U81" s="11"/>
     </row>
@@ -6862,7 +6859,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C82" s="26">
         <v>28</v>
@@ -6872,13 +6869,13 @@
       </c>
       <c r="E82" s="32"/>
       <c r="F82" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G82" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H82" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="8">
@@ -6898,19 +6895,19 @@
         <v>39</v>
       </c>
       <c r="P82" s="24" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Q82" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R82" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="S82" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T82" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="U82" s="11"/>
     </row>
@@ -6919,7 +6916,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C83" s="26">
         <v>29</v>
@@ -6931,13 +6928,13 @@
         <v>0</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G83" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H83" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="8">
@@ -6960,16 +6957,16 @@
         <v>24</v>
       </c>
       <c r="Q83" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R83" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="S83" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T83" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="U83" s="11"/>
     </row>
@@ -6978,7 +6975,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C84" s="26">
         <v>30</v>
@@ -6990,13 +6987,13 @@
         <v>0</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G84" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H84" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="8">
@@ -7019,16 +7016,16 @@
         <v>23</v>
       </c>
       <c r="Q84" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R84" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="S84" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T84" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="U84" s="11"/>
     </row>
@@ -7037,7 +7034,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C85" s="26">
         <v>31</v>
@@ -7049,13 +7046,13 @@
         <v>0</v>
       </c>
       <c r="F85" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="H85" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="8">
@@ -7078,10 +7075,10 @@
         <v>11</v>
       </c>
       <c r="Q85" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R85" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="S85" s="10"/>
       <c r="T85" s="7"/>
@@ -7092,7 +7089,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C86" s="26">
         <v>32</v>
@@ -7104,13 +7101,13 @@
         <v>0</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G86" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H86" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="8">
@@ -7133,16 +7130,16 @@
         <v>22</v>
       </c>
       <c r="Q86" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R86" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="S86" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T86" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="U86" s="11"/>
     </row>
@@ -7151,7 +7148,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C87" s="26">
         <v>33</v>
@@ -7161,11 +7158,11 @@
       </c>
       <c r="E87" s="32"/>
       <c r="F87" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I87" s="7"/>
       <c r="J87" s="8">
@@ -7185,17 +7182,17 @@
         <v>32.799999999999997</v>
       </c>
       <c r="P87" s="24" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q87" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R87" s="7"/>
       <c r="S87" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T87" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="U87" s="11"/>
     </row>
@@ -7204,7 +7201,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C88" s="26">
         <v>34</v>
@@ -7214,11 +7211,11 @@
       </c>
       <c r="E88" s="32"/>
       <c r="F88" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="8">
@@ -7238,16 +7235,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="P88" s="24" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="Q88" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R88" s="7"/>
       <c r="S88" s="10"/>
       <c r="T88" s="7"/>
       <c r="U88" s="11" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.4">
@@ -7255,7 +7252,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C89" s="26">
         <v>35</v>
@@ -7265,13 +7262,13 @@
       </c>
       <c r="E89" s="32"/>
       <c r="F89" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="8">
@@ -7291,19 +7288,19 @@
         <v>1111.5999999999999</v>
       </c>
       <c r="P89" s="24" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q89" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R89" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="S89" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T89" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="U89" s="11"/>
     </row>
@@ -7312,7 +7309,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C90" s="26">
         <v>36</v>
@@ -7322,13 +7319,13 @@
       </c>
       <c r="E90" s="32"/>
       <c r="F90" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I90" s="7"/>
       <c r="J90" s="8">
@@ -7348,17 +7345,17 @@
         <v>89.3</v>
       </c>
       <c r="P90" s="24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q90" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R90" s="7"/>
       <c r="S90" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T90" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="U90" s="11"/>
     </row>
@@ -7367,7 +7364,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C91" s="26">
         <v>37</v>
@@ -7377,13 +7374,13 @@
       </c>
       <c r="E91" s="32"/>
       <c r="F91" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I91" s="7"/>
       <c r="J91" s="8">
@@ -7403,19 +7400,19 @@
         <v>776.3</v>
       </c>
       <c r="P91" s="24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q91" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R91" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="S91" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T91" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="U91" s="11"/>
     </row>
@@ -7424,7 +7421,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C92" s="26">
         <v>38</v>
@@ -7434,13 +7431,13 @@
       </c>
       <c r="E92" s="32"/>
       <c r="F92" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I92" s="7"/>
       <c r="J92" s="8">
@@ -7460,19 +7457,19 @@
         <v>2434.1999999999998</v>
       </c>
       <c r="P92" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q92" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R92" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="S92" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T92" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="U92" s="11"/>
     </row>
@@ -7481,7 +7478,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C93" s="26">
         <v>39</v>
@@ -7491,13 +7488,13 @@
       </c>
       <c r="E93" s="32"/>
       <c r="F93" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="8">
@@ -7517,19 +7514,19 @@
         <v>170.3</v>
       </c>
       <c r="P93" s="24" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q93" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R93" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="S93" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T93" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="U93" s="11"/>
     </row>
@@ -7538,7 +7535,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C94" s="26">
         <v>40</v>
@@ -7548,13 +7545,13 @@
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I94" s="7"/>
       <c r="J94" s="8">
@@ -7574,19 +7571,19 @@
         <v>110.4</v>
       </c>
       <c r="P94" s="24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q94" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R94" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="S94" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T94" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="U94" s="11"/>
     </row>
@@ -7595,7 +7592,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C95" s="26">
         <v>41</v>
@@ -7605,13 +7602,13 @@
       </c>
       <c r="E95" s="32"/>
       <c r="F95" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I95" s="7"/>
       <c r="J95" s="8">
@@ -7631,22 +7628,22 @@
         <v>410</v>
       </c>
       <c r="P95" s="24" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="Q95" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R95" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="S95" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T95" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="U95" s="11" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.4">
@@ -7654,7 +7651,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C96" s="26">
         <v>42</v>
@@ -7664,13 +7661,13 @@
       </c>
       <c r="E96" s="32"/>
       <c r="F96" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G96" s="7" t="s">
+      <c r="H96" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="I96" s="7"/>
       <c r="J96" s="8">
@@ -7693,16 +7690,16 @@
         <v>39</v>
       </c>
       <c r="Q96" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R96" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="S96" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T96" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="U96" s="11"/>
     </row>
@@ -7711,7 +7708,7 @@
         <v>3</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C97" s="26">
         <v>43</v>
@@ -7721,13 +7718,13 @@
       </c>
       <c r="E97" s="32"/>
       <c r="F97" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="8">
@@ -7747,19 +7744,19 @@
         <v>114</v>
       </c>
       <c r="P97" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q97" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R97" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="S97" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T97" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="U97" s="11"/>
     </row>
@@ -7768,7 +7765,7 @@
         <v>3</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C98" s="26">
         <v>44</v>
@@ -7778,13 +7775,13 @@
       </c>
       <c r="E98" s="32"/>
       <c r="F98" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I98" s="7"/>
       <c r="J98" s="8">
@@ -7804,19 +7801,19 @@
         <v>47.2</v>
       </c>
       <c r="P98" s="24" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q98" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R98" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="S98" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T98" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="U98" s="11"/>
     </row>
@@ -7825,7 +7822,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C99" s="26">
         <v>45</v>
@@ -7835,13 +7832,13 @@
       </c>
       <c r="E99" s="32"/>
       <c r="F99" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I99" s="7"/>
       <c r="J99" s="8">
@@ -7861,19 +7858,19 @@
         <v>23.6</v>
       </c>
       <c r="P99" s="24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q99" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R99" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="S99" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T99" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="U99" s="11"/>
     </row>
@@ -7882,7 +7879,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C100" s="26">
         <v>46</v>
@@ -7892,13 +7889,13 @@
       </c>
       <c r="E100" s="32"/>
       <c r="F100" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="8">
@@ -7918,19 +7915,19 @@
         <v>49.8</v>
       </c>
       <c r="P100" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q100" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R100" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="S100" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T100" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="U100" s="11"/>
     </row>
@@ -7939,7 +7936,7 @@
         <v>3</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C101" s="26">
         <v>47</v>
@@ -7949,13 +7946,13 @@
       </c>
       <c r="E101" s="32"/>
       <c r="F101" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="8">
@@ -7975,19 +7972,19 @@
         <v>33.200000000000003</v>
       </c>
       <c r="P101" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q101" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R101" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="S101" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T101" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="U101" s="11"/>
     </row>
@@ -7996,7 +7993,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C102" s="26">
         <v>48</v>
@@ -8006,13 +8003,13 @@
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="8">
@@ -8032,19 +8029,19 @@
         <v>42.1</v>
       </c>
       <c r="P102" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q102" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R102" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="S102" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T102" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="U102" s="11"/>
     </row>
@@ -8053,7 +8050,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C103" s="26">
         <v>49</v>
@@ -8063,13 +8060,13 @@
       </c>
       <c r="E103" s="32"/>
       <c r="F103" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G103" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="H103" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I103" s="7"/>
       <c r="J103" s="8">
@@ -8092,16 +8089,16 @@
         <v>32</v>
       </c>
       <c r="Q103" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R103" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="S103" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T103" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="U103" s="11"/>
     </row>
@@ -8110,7 +8107,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C104" s="26">
         <v>50</v>
@@ -8120,13 +8117,13 @@
       </c>
       <c r="E104" s="32"/>
       <c r="F104" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="8">
@@ -8146,19 +8143,19 @@
         <v>84.1</v>
       </c>
       <c r="P104" s="24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q104" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R104" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="S104" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T104" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="U104" s="11"/>
     </row>
@@ -8167,7 +8164,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C105" s="26">
         <v>51</v>
@@ -8177,13 +8174,13 @@
       </c>
       <c r="E105" s="32"/>
       <c r="F105" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="8">
@@ -8203,19 +8200,19 @@
         <v>70.7</v>
       </c>
       <c r="P105" s="24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q105" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R105" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="S105" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T105" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="U105" s="11"/>
     </row>
@@ -8224,7 +8221,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C106" s="26">
         <v>52</v>
@@ -8234,13 +8231,13 @@
       </c>
       <c r="E106" s="32"/>
       <c r="F106" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I106" s="7"/>
       <c r="J106" s="8">
@@ -8260,17 +8257,17 @@
         <v>419.4</v>
       </c>
       <c r="P106" s="24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q106" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R106" s="7"/>
       <c r="S106" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T106" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="U106" s="11"/>
     </row>
@@ -8279,7 +8276,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C107" s="26">
         <v>53</v>
@@ -8289,13 +8286,13 @@
       </c>
       <c r="E107" s="32"/>
       <c r="F107" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G107" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G107" s="7" t="s">
+      <c r="H107" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="I107" s="7"/>
       <c r="J107" s="8">
@@ -8318,14 +8315,14 @@
         <v>37</v>
       </c>
       <c r="Q107" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R107" s="7"/>
       <c r="S107" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T107" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="U107" s="11"/>
     </row>
@@ -8334,7 +8331,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C108" s="26">
         <v>54</v>
@@ -8344,13 +8341,13 @@
       </c>
       <c r="E108" s="32"/>
       <c r="F108" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="8">
@@ -8370,19 +8367,19 @@
         <v>152.1</v>
       </c>
       <c r="P108" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q108" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R108" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="S108" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T108" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="U108" s="11"/>
     </row>
@@ -8391,7 +8388,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C109" s="26">
         <v>55</v>
@@ -8401,13 +8398,13 @@
       </c>
       <c r="E109" s="32"/>
       <c r="F109" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G109" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G109" s="7" t="s">
+      <c r="H109" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="I109" s="7"/>
       <c r="J109" s="8">
@@ -8430,16 +8427,16 @@
         <v>35</v>
       </c>
       <c r="Q109" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R109" s="7" t="s">
         <v>35</v>
       </c>
       <c r="S109" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T109" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="U109" s="11"/>
     </row>
@@ -8448,7 +8445,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C110" s="26">
         <v>56</v>
@@ -8458,13 +8455,13 @@
       </c>
       <c r="E110" s="32"/>
       <c r="F110" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I110" s="7"/>
       <c r="J110" s="8">
@@ -8484,19 +8481,19 @@
         <v>1888.1</v>
       </c>
       <c r="P110" s="24" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q110" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R110" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="S110" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T110" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="U110" s="11"/>
     </row>
@@ -8505,7 +8502,7 @@
         <v>3</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C111" s="26">
         <v>57</v>
@@ -8515,13 +8512,13 @@
       </c>
       <c r="E111" s="32"/>
       <c r="F111" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I111" s="7"/>
       <c r="J111" s="8">
@@ -8541,19 +8538,19 @@
         <v>1227.3</v>
       </c>
       <c r="P111" s="24" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q111" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R111" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="S111" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T111" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="U111" s="11"/>
     </row>
@@ -8562,7 +8559,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C112" s="26">
         <v>58</v>
@@ -8572,11 +8569,11 @@
       </c>
       <c r="E112" s="32"/>
       <c r="F112" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G112" s="7"/>
       <c r="H112" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I112" s="7"/>
       <c r="J112" s="8">
@@ -8596,19 +8593,19 @@
         <v>542.1</v>
       </c>
       <c r="P112" s="24" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="Q112" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R112" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="S112" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T112" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="U112" s="11"/>
     </row>
@@ -8617,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C113" s="26">
         <v>59</v>
@@ -8627,46 +8624,42 @@
       </c>
       <c r="E113" s="32"/>
       <c r="F113" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>137</v>
+        <v>536</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>138</v>
+        <v>537</v>
       </c>
       <c r="I113" s="7"/>
       <c r="J113" s="8">
-        <v>57503</v>
+        <v>57413</v>
       </c>
       <c r="K113" s="7">
         <v>99999</v>
       </c>
       <c r="L113" s="11"/>
       <c r="M113" s="19">
-        <v>29.619700000000002</v>
+        <v>30.856400000000001</v>
       </c>
       <c r="N113" s="19">
-        <v>105.1186</v>
+        <v>106.9983</v>
       </c>
       <c r="O113" s="22">
-        <v>349.9</v>
+        <v>305.7</v>
       </c>
       <c r="P113" s="24" t="s">
-        <v>40</v>
+        <v>537</v>
       </c>
       <c r="Q113" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R113" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="S113" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="T113" s="7" t="s">
-        <v>450</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="S113" s="10"/>
+      <c r="T113" s="7"/>
       <c r="U113" s="11"/>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.4">
@@ -8674,7 +8667,7 @@
         <v>3</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C114" s="26">
         <v>60</v>
@@ -8684,13 +8677,13 @@
       </c>
       <c r="E114" s="32"/>
       <c r="F114" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G114" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G114" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="H114" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I114" s="7"/>
       <c r="J114" s="8">
@@ -8710,22 +8703,22 @@
         <v>547.70000000000005</v>
       </c>
       <c r="P114" s="24" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="Q114" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R114" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="S114" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T114" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="U114" s="11" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.4">
@@ -8733,7 +8726,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C115" s="26">
         <v>61</v>
@@ -8743,13 +8736,13 @@
       </c>
       <c r="E115" s="32"/>
       <c r="F115" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I115" s="7"/>
       <c r="J115" s="8">
@@ -8769,19 +8762,19 @@
         <v>3648.7</v>
       </c>
       <c r="P115" s="24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q115" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R115" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="S115" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T115" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="U115" s="11"/>
     </row>
@@ -8790,7 +8783,7 @@
         <v>3</v>
       </c>
       <c r="B116" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C116" s="26">
         <v>62</v>
@@ -8800,10 +8793,10 @@
       </c>
       <c r="E116" s="32"/>
       <c r="F116" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H116" s="7" t="s">
         <v>38</v>
@@ -8829,10 +8822,10 @@
         <v>38</v>
       </c>
       <c r="Q116" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R116" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="S116" s="10"/>
       <c r="T116" s="7"/>
@@ -8843,7 +8836,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C117" s="26">
         <v>63</v>
@@ -8855,13 +8848,13 @@
         <v>0</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G117" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H117" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="8">
@@ -8884,7 +8877,7 @@
         <v>17</v>
       </c>
       <c r="Q117" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R117" s="7"/>
       <c r="S117" s="10"/>
@@ -8896,7 +8889,7 @@
         <v>3</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C118" s="26">
         <v>64</v>
@@ -8906,11 +8899,11 @@
       </c>
       <c r="E118" s="32"/>
       <c r="F118" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G118" s="7"/>
       <c r="H118" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I118" s="7"/>
       <c r="J118" s="8">
@@ -8930,13 +8923,13 @@
         <v>2</v>
       </c>
       <c r="P118" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q118" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R118" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="S118" s="10"/>
       <c r="T118" s="7"/>
@@ -8947,7 +8940,7 @@
         <v>3</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C119" s="26">
         <v>65</v>
@@ -8957,10 +8950,10 @@
       </c>
       <c r="E119" s="32"/>
       <c r="F119" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G119" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H119" s="7" t="s">
         <v>34</v>
@@ -8986,10 +8979,10 @@
         <v>34</v>
       </c>
       <c r="Q119" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R119" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="S119" s="10"/>
       <c r="T119" s="7"/>
@@ -9000,7 +8993,7 @@
         <v>3</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C120" s="26">
         <v>66</v>
@@ -9010,13 +9003,13 @@
       </c>
       <c r="E120" s="32"/>
       <c r="F120" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G120" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G120" s="7" t="s">
+      <c r="H120" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="I120" s="7"/>
       <c r="J120" s="8">
@@ -9039,10 +9032,10 @@
         <v>33</v>
       </c>
       <c r="Q120" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R120" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="S120" s="10"/>
       <c r="T120" s="7"/>
@@ -9053,7 +9046,7 @@
         <v>3</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C121" s="26">
         <v>67</v>
@@ -9063,13 +9056,13 @@
       </c>
       <c r="E121" s="32"/>
       <c r="F121" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G121" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G121" s="7" t="s">
+      <c r="H121" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="8">
@@ -9092,10 +9085,10 @@
         <v>36</v>
       </c>
       <c r="Q121" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R121" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="S121" s="10"/>
       <c r="T121" s="7"/>
@@ -9106,7 +9099,7 @@
         <v>3</v>
       </c>
       <c r="B122" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C122" s="26">
         <v>68</v>
@@ -9116,13 +9109,13 @@
       </c>
       <c r="E122" s="32"/>
       <c r="F122" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I122" s="15"/>
       <c r="J122" s="8">
@@ -9142,18 +9135,18 @@
         <v>1517.2</v>
       </c>
       <c r="P122" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q122" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R122" s="15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="S122" s="10"/>
       <c r="T122" s="15"/>
       <c r="U122" s="11" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="123" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
@@ -9161,7 +9154,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C123" s="26">
         <v>69</v>
@@ -9171,13 +9164,13 @@
       </c>
       <c r="E123" s="32"/>
       <c r="F123" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="8">
@@ -9197,11 +9190,11 @@
         <v>654</v>
       </c>
       <c r="P123" s="24" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Q123" s="9"/>
       <c r="R123" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="S123" s="10"/>
       <c r="T123" s="7"/>
@@ -9212,7 +9205,7 @@
         <v>3</v>
       </c>
       <c r="B124" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C124" s="26">
         <v>70</v>
@@ -9222,19 +9215,19 @@
       </c>
       <c r="E124" s="32"/>
       <c r="F124" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I124" s="7"/>
       <c r="J124" s="8"/>
       <c r="K124" s="7"/>
       <c r="L124" s="11" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="M124" s="21">
         <v>52.839700000000001</v>
@@ -9246,11 +9239,11 @@
         <v>507.5</v>
       </c>
       <c r="P124" s="24" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q124" s="9"/>
       <c r="R124" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="S124" s="10"/>
       <c r="T124" s="7"/>
@@ -9261,7 +9254,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C125" s="26">
         <v>71</v>
@@ -9271,21 +9264,21 @@
       </c>
       <c r="E125" s="32"/>
       <c r="F125" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G125" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G125" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="H125" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="J125" s="8"/>
       <c r="K125" s="7"/>
       <c r="L125" s="11" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M125" s="21">
         <v>51.3264</v>
@@ -9297,11 +9290,11 @@
         <v>496.2</v>
       </c>
       <c r="P125" s="24" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="Q125" s="9"/>
       <c r="R125" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="S125" s="10"/>
       <c r="T125" s="7"/>
@@ -9312,7 +9305,7 @@
         <v>3</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C126" s="26">
         <v>72</v>
@@ -9322,10 +9315,10 @@
       </c>
       <c r="E126" s="32"/>
       <c r="F126" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G126" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H126" s="7" t="s">
         <v>29</v>
@@ -9338,11 +9331,11 @@
       <c r="N126" s="21"/>
       <c r="O126" s="20"/>
       <c r="P126" s="24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q126" s="9"/>
       <c r="R126" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="S126" s="10"/>
       <c r="T126" s="7"/>
@@ -9353,7 +9346,7 @@
         <v>3</v>
       </c>
       <c r="B127" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C127" s="26">
         <v>73</v>
@@ -9363,19 +9356,19 @@
       </c>
       <c r="E127" s="32"/>
       <c r="F127" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G127" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G127" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="H127" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I127" s="7"/>
       <c r="J127" s="8"/>
       <c r="K127" s="7"/>
       <c r="L127" s="11" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="M127" s="21">
         <v>52.6633</v>
@@ -9387,16 +9380,16 @@
         <v>430</v>
       </c>
       <c r="P127" s="24" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="Q127" s="9"/>
       <c r="R127" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="S127" s="10"/>
       <c r="T127" s="7"/>
       <c r="U127" s="11" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="128" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
@@ -9404,7 +9397,7 @@
         <v>3</v>
       </c>
       <c r="B128" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C128" s="26">
         <v>74</v>
@@ -9414,21 +9407,21 @@
       </c>
       <c r="E128" s="32"/>
       <c r="F128" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I128" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J128" s="8"/>
       <c r="K128" s="7"/>
       <c r="L128" s="11" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="M128" s="21">
         <v>48.584200000000003</v>
@@ -9440,11 +9433,11 @@
         <v>1223</v>
       </c>
       <c r="P128" s="24" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q128" s="9"/>
       <c r="R128" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S128" s="10"/>
       <c r="T128" s="7"/>
@@ -9455,7 +9448,7 @@
         <v>3</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C129" s="26">
         <v>75</v>
@@ -9465,21 +9458,21 @@
       </c>
       <c r="E129" s="32"/>
       <c r="F129" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="J129" s="8"/>
       <c r="K129" s="7"/>
       <c r="L129" s="11" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M129" s="21">
         <v>47.027200000000001</v>
@@ -9491,11 +9484,11 @@
         <v>1333</v>
       </c>
       <c r="P129" s="24" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Q129" s="9"/>
       <c r="R129" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S129" s="10"/>
       <c r="T129" s="7"/>
@@ -9506,7 +9499,7 @@
         <v>3</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C130" s="26">
         <v>76</v>
@@ -9516,19 +9509,19 @@
       </c>
       <c r="E130" s="32"/>
       <c r="F130" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G130" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H130" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="I130" s="7"/>
       <c r="J130" s="8"/>
       <c r="K130" s="7"/>
       <c r="L130" s="11" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="M130" s="21">
         <v>46.801099999999998</v>
@@ -9540,16 +9533,16 @@
         <v>2640</v>
       </c>
       <c r="P130" s="24" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Q130" s="9"/>
       <c r="R130" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S130" s="10"/>
       <c r="T130" s="7"/>
       <c r="U130" s="11" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="131" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
@@ -9557,7 +9550,7 @@
         <v>3</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C131" s="26">
         <v>77</v>
@@ -9567,21 +9560,21 @@
       </c>
       <c r="E131" s="32"/>
       <c r="F131" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G131" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H131" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H131" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="I131" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="J131" s="8"/>
       <c r="K131" s="7"/>
       <c r="L131" s="11" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M131" s="21">
         <v>42.828800000000001</v>
@@ -9593,11 +9586,11 @@
         <v>2465</v>
       </c>
       <c r="P131" s="24" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="Q131" s="9"/>
       <c r="R131" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="S131" s="10"/>
       <c r="T131" s="7"/>
@@ -9605,10 +9598,10 @@
     </row>
     <row r="132" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A132" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C132" s="26">
         <v>1</v>
@@ -9618,7 +9611,7 @@
       </c>
       <c r="E132" s="32"/>
       <c r="F132" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G132" s="7"/>
       <c r="H132" s="7"/>
@@ -9640,28 +9633,28 @@
         <v>850</v>
       </c>
       <c r="P132" s="24" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q132" s="9"/>
       <c r="R132" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="S132" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T132" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="U132" s="11" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="133" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A133" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C133" s="26">
         <v>2</v>
@@ -9671,7 +9664,7 @@
       </c>
       <c r="E133" s="32"/>
       <c r="F133" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
@@ -9693,28 +9686,28 @@
         <v>741</v>
       </c>
       <c r="P133" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q133" s="9"/>
       <c r="R133" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="S133" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T133" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="U133" s="11" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="134" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A134" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C134" s="26">
         <v>3</v>
@@ -9724,7 +9717,7 @@
       </c>
       <c r="E134" s="32"/>
       <c r="F134" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G134" s="7"/>
       <c r="H134" s="7"/>
@@ -9746,26 +9739,26 @@
         <v>3940</v>
       </c>
       <c r="P134" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q134" s="9"/>
       <c r="R134" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="S134" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T134" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="U134" s="11"/>
     </row>
     <row r="135" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A135" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C135" s="26">
         <v>4</v>
@@ -9775,7 +9768,7 @@
       </c>
       <c r="E135" s="32"/>
       <c r="F135" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G135" s="7"/>
       <c r="H135" s="7"/>
@@ -9797,26 +9790,26 @@
         <v>2092</v>
       </c>
       <c r="P135" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q135" s="9"/>
       <c r="R135" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="S135" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="T135" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="U135" s="11"/>
     </row>
     <row r="136" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A136" s="15" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C136" s="26">
         <v>5</v>
@@ -9826,7 +9819,7 @@
       </c>
       <c r="E136" s="32"/>
       <c r="F136" s="15" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G136" s="15"/>
       <c r="H136" s="15"/>
@@ -9848,28 +9841,28 @@
         <v>10</v>
       </c>
       <c r="P136" s="24" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q136" s="9"/>
       <c r="R136" s="15" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="S136" s="10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="T136" s="15" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="U136" s="11" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A137" s="15" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C137" s="26">
         <v>6</v>
@@ -9879,7 +9872,7 @@
       </c>
       <c r="E137" s="32"/>
       <c r="F137" s="15" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G137" s="15"/>
       <c r="H137" s="15"/>
@@ -9901,26 +9894,26 @@
         <v>135</v>
       </c>
       <c r="P137" s="24" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="Q137" s="9"/>
       <c r="R137" s="15" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="S137" s="10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="T137" s="15" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="U137" s="11"/>
     </row>
     <row r="138" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A138" s="15" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C138" s="26">
         <v>7</v>
@@ -9930,7 +9923,7 @@
       </c>
       <c r="E138" s="32"/>
       <c r="F138" s="15" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G138" s="15"/>
       <c r="H138" s="15"/>
@@ -9952,26 +9945,26 @@
         <v>1910</v>
       </c>
       <c r="P138" s="24" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="Q138" s="9"/>
       <c r="R138" s="15"/>
       <c r="S138" s="10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="T138" s="15" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="U138" s="11" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A139" s="15" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C139" s="26">
         <v>8</v>
@@ -9981,7 +9974,7 @@
       </c>
       <c r="E139" s="32"/>
       <c r="F139" s="15" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G139" s="15"/>
       <c r="H139" s="15"/>
@@ -10003,26 +9996,26 @@
         <v>3204</v>
       </c>
       <c r="P139" s="24" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="Q139" s="9"/>
       <c r="R139" s="15" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="S139" s="10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="T139" s="15"/>
       <c r="U139" s="11" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A140" s="15" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C140" s="26">
         <v>9</v>
@@ -10032,7 +10025,7 @@
       </c>
       <c r="E140" s="32"/>
       <c r="F140" s="15" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G140" s="15"/>
       <c r="H140" s="15"/>
@@ -10054,26 +10047,26 @@
         <v>133</v>
       </c>
       <c r="P140" s="24" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="Q140" s="9"/>
       <c r="R140" s="15" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="S140" s="10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="T140" s="15" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="U140" s="11"/>
     </row>
     <row r="141" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A141" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C141" s="26">
         <v>10</v>
@@ -10083,7 +10076,7 @@
       </c>
       <c r="E141" s="32"/>
       <c r="F141" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G141" s="15"/>
       <c r="H141" s="15"/>
@@ -10105,17 +10098,17 @@
         <v>3576</v>
       </c>
       <c r="P141" s="24" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="Q141" s="9"/>
       <c r="R141" s="15" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="S141" s="10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="T141" s="15" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="U141" s="11"/>
     </row>
@@ -10419,7 +10412,7 @@
       <c r="U154" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+6kRKielU/aN6wxxOShemsatSVm3HoPAwGjPy7GsHxUUiQCZlTfRuDsRDeXcMz8pRVCekQhl6qfa5mvWfMkRVA==" saltValue="qHrYhFiA4zoUV7uJzf2Ekg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="px2/nRN4qqOHHtO78AbDpe2JBagx1wIgvFiaWc+d2PeoUoGJAeoxN/HcmX1e/QoZ0G7duwIXYLTXhH4U/X4+WQ==" saltValue="DFrkOHnlwg48WtkwCqIT4A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U141">
     <sortCondition ref="D2:D141"/>
     <sortCondition ref="B2:B141"/>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3CC67C-23D6-475E-A60D-120AF490FE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9402C6-DA32-4323-BD34-8F02E5BE25E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="538">
   <si>
     <t>USAF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1363,9 +1363,6 @@
     <t>讷木勒格</t>
   </si>
   <si>
-    <t>巴彦洪格尔省</t>
-  </si>
-  <si>
     <t>大乌拉</t>
   </si>
   <si>
@@ -1444,10 +1441,6 @@
   </si>
   <si>
     <t>古尔班布拉格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴彦洪格尔省</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2062,6 +2055,10 @@
   </si>
   <si>
     <t>巴河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴彦洪戈尔省</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2657,8 +2654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
   <dimension ref="A1:U154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2688,16 +2685,16 @@
         <v>267</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>64</v>
@@ -2718,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M1" s="17" t="s">
         <v>40</v>
@@ -2739,13 +2736,13 @@
         <v>268</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="U1" s="28" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.4">
@@ -2753,7 +2750,7 @@
         <v>262</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C2" s="26">
         <v>1</v>
@@ -2788,10 +2785,10 @@
         <v>248</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="S2" s="10"/>
       <c r="T2" s="7"/>
@@ -2802,7 +2799,7 @@
         <v>262</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C3" s="26">
         <v>2</v>
@@ -2837,10 +2834,10 @@
         <v>229</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="S3" s="10"/>
       <c r="T3" s="7"/>
@@ -2851,7 +2848,7 @@
         <v>262</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C4" s="26">
         <v>3</v>
@@ -2886,7 +2883,7 @@
         <v>226</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>269</v>
@@ -2900,7 +2897,7 @@
         <v>262</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C5" s="26">
         <v>4</v>
@@ -2935,7 +2932,7 @@
         <v>228</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R5" s="7" t="s">
         <v>271</v>
@@ -2949,7 +2946,7 @@
         <v>262</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C6" s="26">
         <v>5</v>
@@ -2981,13 +2978,13 @@
         <v>1546</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="S6" s="10"/>
       <c r="T6" s="7"/>
@@ -2998,7 +2995,7 @@
         <v>262</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C7" s="26">
         <v>6</v>
@@ -3033,7 +3030,7 @@
         <v>227</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>272</v>
@@ -3047,7 +3044,7 @@
         <v>262</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C8" s="26">
         <v>7</v>
@@ -3084,16 +3081,16 @@
         <v>243</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="U8" s="11"/>
     </row>
@@ -3102,7 +3099,7 @@
         <v>262</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C9" s="26">
         <v>8</v>
@@ -3139,16 +3136,16 @@
         <v>244</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>269</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="U9" s="11"/>
     </row>
@@ -3157,7 +3154,7 @@
         <v>262</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C10" s="26">
         <v>9</v>
@@ -3194,16 +3191,16 @@
         <v>245</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R10" s="7" t="s">
         <v>270</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="U10" s="11"/>
     </row>
@@ -3212,7 +3209,7 @@
         <v>262</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C11" s="26">
         <v>10</v>
@@ -3249,16 +3246,16 @@
         <v>246</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>273</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="U11" s="11"/>
     </row>
@@ -3267,7 +3264,7 @@
         <v>262</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C12" s="26">
         <v>11</v>
@@ -3304,16 +3301,16 @@
         <v>242</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="U12" s="11"/>
     </row>
@@ -3322,7 +3319,7 @@
         <v>262</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C13" s="26">
         <v>12</v>
@@ -3359,16 +3356,16 @@
         <v>247</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>272</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="U13" s="11"/>
     </row>
@@ -3377,7 +3374,7 @@
         <v>262</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C14" s="26">
         <v>13</v>
@@ -3387,7 +3384,7 @@
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="7" t="s">
-        <v>345</v>
+        <v>537</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -3407,7 +3404,7 @@
         <v>2422</v>
       </c>
       <c r="P14" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q14" s="9"/>
       <c r="R14" s="7" t="s">
@@ -3419,10 +3416,10 @@
     </row>
     <row r="15" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C15" s="26">
         <v>14</v>
@@ -3432,7 +3429,7 @@
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="7" t="s">
-        <v>367</v>
+        <v>537</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -3452,7 +3449,7 @@
         <v>2034</v>
       </c>
       <c r="P15" s="24" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q15" s="9"/>
       <c r="R15" s="7" t="s">
@@ -3467,7 +3464,7 @@
         <v>262</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C16" s="26">
         <v>15</v>
@@ -3501,7 +3498,7 @@
       </c>
       <c r="Q16" s="9"/>
       <c r="R16" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S16" s="10"/>
       <c r="T16" s="7"/>
@@ -3512,7 +3509,7 @@
         <v>262</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C17" s="26">
         <v>16</v>
@@ -3542,11 +3539,11 @@
         <v>1262</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q17" s="9"/>
       <c r="R17" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S17" s="10"/>
       <c r="T17" s="7"/>
@@ -3557,7 +3554,7 @@
         <v>262</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C18" s="26">
         <v>17</v>
@@ -3591,7 +3588,7 @@
       </c>
       <c r="Q18" s="9"/>
       <c r="R18" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S18" s="10"/>
       <c r="T18" s="7"/>
@@ -3599,10 +3596,10 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C19" s="26">
         <v>18</v>
@@ -3612,7 +3609,7 @@
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -3632,7 +3629,7 @@
         <v>1805</v>
       </c>
       <c r="P19" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q19" s="9"/>
       <c r="R19" s="7"/>
@@ -3642,10 +3639,10 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C20" s="26">
         <v>19</v>
@@ -3655,7 +3652,7 @@
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -3675,11 +3672,11 @@
         <v>1687</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q20" s="9"/>
       <c r="R20" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="S20" s="10"/>
       <c r="T20" s="7"/>
@@ -3687,10 +3684,10 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C21" s="26">
         <v>20</v>
@@ -3700,7 +3697,7 @@
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -3720,11 +3717,11 @@
         <v>632</v>
       </c>
       <c r="P21" s="24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q21" s="9"/>
       <c r="R21" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S21" s="10"/>
       <c r="T21" s="7"/>
@@ -3735,7 +3732,7 @@
         <v>262</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C22" s="26">
         <v>21</v>
@@ -3769,7 +3766,7 @@
       </c>
       <c r="Q22" s="9"/>
       <c r="R22" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="S22" s="10"/>
       <c r="T22" s="7"/>
@@ -3780,7 +3777,7 @@
         <v>262</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C23" s="26">
         <v>22</v>
@@ -3814,7 +3811,7 @@
       </c>
       <c r="Q23" s="9"/>
       <c r="R23" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="S23" s="10"/>
       <c r="T23" s="7"/>
@@ -3822,10 +3819,10 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C24" s="26">
         <v>23</v>
@@ -3835,7 +3832,7 @@
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -3855,11 +3852,11 @@
         <v>1593</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q24" s="9"/>
       <c r="R24" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S24" s="10"/>
       <c r="T24" s="7"/>
@@ -3870,7 +3867,7 @@
         <v>262</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C25" s="26">
         <v>24</v>
@@ -3904,7 +3901,7 @@
       </c>
       <c r="Q25" s="9"/>
       <c r="R25" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="S25" s="10"/>
       <c r="T25" s="7"/>
@@ -3915,7 +3912,7 @@
         <v>262</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C26" s="26">
         <v>25</v>
@@ -3949,7 +3946,7 @@
       </c>
       <c r="Q26" s="9"/>
       <c r="R26" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="S26" s="10"/>
       <c r="T26" s="7"/>
@@ -3960,7 +3957,7 @@
         <v>262</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C27" s="26">
         <v>26</v>
@@ -3998,7 +3995,7 @@
       </c>
       <c r="Q27" s="9"/>
       <c r="R27" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="S27" s="10"/>
       <c r="T27" s="7"/>
@@ -4009,7 +4006,7 @@
         <v>262</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C28" s="26">
         <v>27</v>
@@ -4043,7 +4040,7 @@
       </c>
       <c r="Q28" s="9"/>
       <c r="R28" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S28" s="10"/>
       <c r="T28" s="7"/>
@@ -4054,7 +4051,7 @@
         <v>262</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C29" s="26">
         <v>28</v>
@@ -4084,11 +4081,11 @@
         <v>1858</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q29" s="9"/>
       <c r="R29" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S29" s="10"/>
       <c r="T29" s="7"/>
@@ -4099,7 +4096,7 @@
         <v>262</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C30" s="26">
         <v>29</v>
@@ -4129,7 +4126,7 @@
         <v>1656</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q30" s="9"/>
       <c r="R30" s="7" t="s">
@@ -4144,7 +4141,7 @@
         <v>262</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C31" s="26">
         <v>30</v>
@@ -4178,7 +4175,7 @@
       </c>
       <c r="Q31" s="9"/>
       <c r="R31" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S31" s="10"/>
       <c r="T31" s="7"/>
@@ -4189,7 +4186,7 @@
         <v>262</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C32" s="26">
         <v>31</v>
@@ -4223,7 +4220,7 @@
       </c>
       <c r="Q32" s="9"/>
       <c r="R32" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S32" s="10"/>
       <c r="T32" s="7"/>
@@ -4234,7 +4231,7 @@
         <v>262</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C33" s="26">
         <v>32</v>
@@ -4279,7 +4276,7 @@
         <v>262</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C34" s="26">
         <v>33</v>
@@ -4313,7 +4310,7 @@
       </c>
       <c r="Q34" s="9"/>
       <c r="R34" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S34" s="10"/>
       <c r="T34" s="7"/>
@@ -4324,7 +4321,7 @@
         <v>262</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C35" s="26">
         <v>34</v>
@@ -4367,7 +4364,7 @@
         <v>262</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C36" s="26">
         <v>35</v>
@@ -4412,7 +4409,7 @@
         <v>262</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C37" s="26">
         <v>36</v>
@@ -4442,7 +4439,7 @@
         <v>1963</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q37" s="9"/>
       <c r="R37" s="7" t="s">
@@ -4457,7 +4454,7 @@
         <v>262</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C38" s="26">
         <v>37</v>
@@ -4491,7 +4488,7 @@
       </c>
       <c r="Q38" s="9"/>
       <c r="R38" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S38" s="10"/>
       <c r="T38" s="7"/>
@@ -4502,7 +4499,7 @@
         <v>263</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C39" s="26">
         <v>1</v>
@@ -4543,10 +4540,10 @@
         <v>320</v>
       </c>
       <c r="S39" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T39" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="U39" s="11"/>
     </row>
@@ -4555,7 +4552,7 @@
         <v>263</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C40" s="26">
         <v>2</v>
@@ -4596,10 +4593,10 @@
         <v>321</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T40" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U40" s="11"/>
     </row>
@@ -4608,7 +4605,7 @@
         <v>263</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C41" s="26">
         <v>3</v>
@@ -4645,16 +4642,16 @@
         <v>236</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="S41" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T41" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="U41" s="11"/>
     </row>
@@ -4663,7 +4660,7 @@
         <v>263</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C42" s="26">
         <v>4</v>
@@ -4701,13 +4698,13 @@
       </c>
       <c r="Q42" s="9"/>
       <c r="R42" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T42" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="U42" s="11"/>
     </row>
@@ -4716,7 +4713,7 @@
         <v>263</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C43" s="26">
         <v>5</v>
@@ -4754,13 +4751,13 @@
       </c>
       <c r="Q43" s="9"/>
       <c r="R43" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="S43" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T43" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="U43" s="11"/>
     </row>
@@ -4769,7 +4766,7 @@
         <v>263</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C44" s="26">
         <v>6</v>
@@ -4810,10 +4807,10 @@
         <v>322</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T44" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="U44" s="11"/>
     </row>
@@ -4822,7 +4819,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C45" s="26">
         <v>7</v>
@@ -4859,16 +4856,16 @@
         <v>44</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="R45" s="7" t="s">
         <v>325</v>
       </c>
       <c r="S45" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T45" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="U45" s="11"/>
     </row>
@@ -4877,7 +4874,7 @@
         <v>263</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C46" s="26">
         <v>8</v>
@@ -4915,13 +4912,13 @@
       </c>
       <c r="Q46" s="9"/>
       <c r="R46" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T46" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="U46" s="11"/>
     </row>
@@ -4930,7 +4927,7 @@
         <v>263</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C47" s="26">
         <v>9</v>
@@ -4967,16 +4964,16 @@
         <v>230</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="S47" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T47" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="U47" s="11"/>
     </row>
@@ -4985,7 +4982,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C48" s="26">
         <v>10</v>
@@ -5023,13 +5020,13 @@
       </c>
       <c r="Q48" s="9"/>
       <c r="R48" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="S48" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T48" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="U48" s="11"/>
     </row>
@@ -5038,7 +5035,7 @@
         <v>263</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C49" s="26">
         <v>11</v>
@@ -5075,16 +5072,16 @@
         <v>239</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T49" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="U49" s="11"/>
     </row>
@@ -5093,7 +5090,7 @@
         <v>263</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C50" s="26">
         <v>12</v>
@@ -5131,13 +5128,13 @@
       </c>
       <c r="Q50" s="9"/>
       <c r="R50" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="S50" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T50" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="U50" s="11"/>
     </row>
@@ -5146,7 +5143,7 @@
         <v>263</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C51" s="26">
         <v>13</v>
@@ -5183,16 +5180,16 @@
         <v>240</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R51" s="7" t="s">
         <v>323</v>
       </c>
       <c r="S51" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T51" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="U51" s="11"/>
     </row>
@@ -5201,7 +5198,7 @@
         <v>263</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C52" s="26">
         <v>14</v>
@@ -5237,13 +5234,13 @@
       </c>
       <c r="Q52" s="9"/>
       <c r="R52" s="15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="T52" s="15" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="U52" s="11"/>
     </row>
@@ -5252,7 +5249,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C53" s="26">
         <v>1</v>
@@ -5291,19 +5288,19 @@
       <c r="Q53" s="9"/>
       <c r="R53" s="7"/>
       <c r="S53" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T53" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="U53" s="11"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A54" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C54" s="26">
         <v>2</v>
@@ -5315,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -5337,17 +5334,17 @@
         <v>1381</v>
       </c>
       <c r="P54" s="24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Q54" s="9"/>
       <c r="R54" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="S54" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="T54" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="U54" s="11"/>
     </row>
@@ -5356,7 +5353,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C55" s="26">
         <v>1</v>
@@ -5401,10 +5398,10 @@
         <v>278</v>
       </c>
       <c r="S55" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T55" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="U55" s="11"/>
     </row>
@@ -5413,7 +5410,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C56" s="26">
         <v>2</v>
@@ -5454,7 +5451,7 @@
         <v>18</v>
       </c>
       <c r="Q56" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R56" s="7" t="s">
         <v>281</v>
@@ -5468,7 +5465,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C57" s="26">
         <v>3</v>
@@ -5513,10 +5510,10 @@
         <v>279</v>
       </c>
       <c r="S57" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T57" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="U57" s="11"/>
     </row>
@@ -5525,7 +5522,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C58" s="26">
         <v>4</v>
@@ -5566,16 +5563,16 @@
         <v>19</v>
       </c>
       <c r="Q58" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R58" s="7" t="s">
         <v>274</v>
       </c>
       <c r="S58" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T58" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="U58" s="11"/>
     </row>
@@ -5584,7 +5581,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C59" s="26">
         <v>5</v>
@@ -5625,16 +5622,16 @@
         <v>20</v>
       </c>
       <c r="Q59" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R59" s="7" t="s">
         <v>275</v>
       </c>
       <c r="S59" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T59" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="U59" s="11"/>
     </row>
@@ -5643,7 +5640,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C60" s="26">
         <v>6</v>
@@ -5684,7 +5681,7 @@
         <v>16</v>
       </c>
       <c r="Q60" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R60" s="7" t="s">
         <v>276</v>
@@ -5698,7 +5695,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C61" s="26">
         <v>7</v>
@@ -5743,10 +5740,10 @@
         <v>277</v>
       </c>
       <c r="S61" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T61" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="U61" s="11"/>
     </row>
@@ -5755,7 +5752,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C62" s="26">
         <v>8</v>
@@ -5808,7 +5805,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C63" s="26">
         <v>9</v>
@@ -5861,7 +5858,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C64" s="26">
         <v>10</v>
@@ -5902,16 +5899,16 @@
         <v>5</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R64" s="7" t="s">
         <v>283</v>
       </c>
       <c r="S64" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T64" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="U64" s="11"/>
     </row>
@@ -5920,7 +5917,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C65" s="26">
         <v>11</v>
@@ -5973,7 +5970,7 @@
         <v>3</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C66" s="26">
         <v>12</v>
@@ -6014,7 +6011,7 @@
         <v>10</v>
       </c>
       <c r="Q66" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R66" s="7" t="s">
         <v>284</v>
@@ -6028,7 +6025,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C67" s="26">
         <v>13</v>
@@ -6069,16 +6066,16 @@
         <v>6</v>
       </c>
       <c r="Q67" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R67" s="7" t="s">
         <v>280</v>
       </c>
       <c r="S67" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T67" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="U67" s="11"/>
     </row>
@@ -6087,7 +6084,7 @@
         <v>3</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C68" s="26">
         <v>14</v>
@@ -6140,7 +6137,7 @@
         <v>3</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C69" s="26">
         <v>15</v>
@@ -6191,7 +6188,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C70" s="26">
         <v>16</v>
@@ -6236,10 +6233,10 @@
         <v>286</v>
       </c>
       <c r="S70" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T70" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="U70" s="11"/>
     </row>
@@ -6248,7 +6245,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C71" s="26">
         <v>17</v>
@@ -6299,7 +6296,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C72" s="26">
         <v>18</v>
@@ -6352,7 +6349,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C73" s="26">
         <v>19</v>
@@ -6397,10 +6394,10 @@
         <v>280</v>
       </c>
       <c r="S73" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T73" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="U73" s="11"/>
     </row>
@@ -6409,7 +6406,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C74" s="26">
         <v>20</v>
@@ -6450,7 +6447,7 @@
         <v>21</v>
       </c>
       <c r="Q74" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R74" s="7"/>
       <c r="S74" s="10"/>
@@ -6462,7 +6459,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C75" s="26">
         <v>21</v>
@@ -6503,7 +6500,7 @@
         <v>14</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R75" s="7" t="s">
         <v>288</v>
@@ -6517,7 +6514,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C76" s="26">
         <v>22</v>
@@ -6558,7 +6555,7 @@
         <v>15</v>
       </c>
       <c r="Q76" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R76" s="7" t="s">
         <v>288</v>
@@ -6572,7 +6569,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C77" s="26">
         <v>23</v>
@@ -6590,7 +6587,7 @@
         <v>79</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="8">
@@ -6613,16 +6610,16 @@
         <v>50</v>
       </c>
       <c r="Q77" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R77" s="7" t="s">
         <v>288</v>
       </c>
       <c r="S77" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T77" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="U77" s="11"/>
     </row>
@@ -6631,7 +6628,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C78" s="26">
         <v>24</v>
@@ -6672,16 +6669,16 @@
         <v>264</v>
       </c>
       <c r="Q78" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R78" s="7" t="s">
         <v>264</v>
       </c>
       <c r="S78" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T78" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="U78" s="11"/>
     </row>
@@ -6690,7 +6687,7 @@
         <v>3</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C79" s="26">
         <v>25</v>
@@ -6731,7 +6728,7 @@
         <v>12</v>
       </c>
       <c r="Q79" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R79" s="7" t="s">
         <v>289</v>
@@ -6745,7 +6742,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C80" s="26">
         <v>26</v>
@@ -6786,7 +6783,7 @@
         <v>13</v>
       </c>
       <c r="Q80" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R80" s="7" t="s">
         <v>290</v>
@@ -6800,7 +6797,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C81" s="26">
         <v>27</v>
@@ -6840,17 +6837,17 @@
         <v>734.8</v>
       </c>
       <c r="P81" s="24" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="Q81" s="9"/>
       <c r="R81" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="S81" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T81" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="U81" s="11"/>
     </row>
@@ -6859,7 +6856,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C82" s="26">
         <v>28</v>
@@ -6895,19 +6892,19 @@
         <v>39</v>
       </c>
       <c r="P82" s="24" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Q82" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R82" s="7" t="s">
         <v>291</v>
       </c>
       <c r="S82" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T82" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="U82" s="11"/>
     </row>
@@ -6916,7 +6913,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C83" s="26">
         <v>29</v>
@@ -6957,16 +6954,16 @@
         <v>24</v>
       </c>
       <c r="Q83" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R83" s="7" t="s">
         <v>292</v>
       </c>
       <c r="S83" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T83" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="U83" s="11"/>
     </row>
@@ -6975,7 +6972,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C84" s="26">
         <v>30</v>
@@ -7016,16 +7013,16 @@
         <v>23</v>
       </c>
       <c r="Q84" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R84" s="7" t="s">
         <v>293</v>
       </c>
       <c r="S84" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T84" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="U84" s="11"/>
     </row>
@@ -7034,7 +7031,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C85" s="26">
         <v>31</v>
@@ -7075,7 +7072,7 @@
         <v>11</v>
       </c>
       <c r="Q85" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R85" s="7" t="s">
         <v>292</v>
@@ -7089,7 +7086,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C86" s="26">
         <v>32</v>
@@ -7130,16 +7127,16 @@
         <v>22</v>
       </c>
       <c r="Q86" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R86" s="7" t="s">
         <v>294</v>
       </c>
       <c r="S86" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T86" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="U86" s="11"/>
     </row>
@@ -7148,7 +7145,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C87" s="26">
         <v>33</v>
@@ -7185,14 +7182,14 @@
         <v>183</v>
       </c>
       <c r="Q87" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R87" s="7"/>
       <c r="S87" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T87" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="U87" s="11"/>
     </row>
@@ -7201,7 +7198,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C88" s="26">
         <v>34</v>
@@ -7211,11 +7208,11 @@
       </c>
       <c r="E88" s="32"/>
       <c r="F88" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="8">
@@ -7235,16 +7232,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="P88" s="24" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Q88" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R88" s="7"/>
       <c r="S88" s="10"/>
       <c r="T88" s="7"/>
       <c r="U88" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.4">
@@ -7252,7 +7249,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C89" s="26">
         <v>35</v>
@@ -7291,16 +7288,16 @@
         <v>208</v>
       </c>
       <c r="Q89" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R89" s="7" t="s">
         <v>295</v>
       </c>
       <c r="S89" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T89" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="U89" s="11"/>
     </row>
@@ -7309,7 +7306,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C90" s="26">
         <v>36</v>
@@ -7348,14 +7345,14 @@
         <v>167</v>
       </c>
       <c r="Q90" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R90" s="7"/>
       <c r="S90" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T90" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="U90" s="11"/>
     </row>
@@ -7364,7 +7361,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C91" s="26">
         <v>37</v>
@@ -7403,16 +7400,16 @@
         <v>162</v>
       </c>
       <c r="Q91" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R91" s="7" t="s">
         <v>296</v>
       </c>
       <c r="S91" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T91" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="U91" s="11"/>
     </row>
@@ -7421,7 +7418,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C92" s="26">
         <v>38</v>
@@ -7460,16 +7457,16 @@
         <v>174</v>
       </c>
       <c r="Q92" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R92" s="7" t="s">
         <v>297</v>
       </c>
       <c r="S92" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T92" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="U92" s="11"/>
     </row>
@@ -7478,7 +7475,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C93" s="26">
         <v>39</v>
@@ -7517,16 +7514,16 @@
         <v>201</v>
       </c>
       <c r="Q93" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R93" s="7" t="s">
         <v>298</v>
       </c>
       <c r="S93" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T93" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="U93" s="11"/>
     </row>
@@ -7535,7 +7532,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C94" s="26">
         <v>40</v>
@@ -7574,16 +7571,16 @@
         <v>161</v>
       </c>
       <c r="Q94" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R94" s="7" t="s">
         <v>299</v>
       </c>
       <c r="S94" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T94" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="U94" s="11"/>
     </row>
@@ -7592,7 +7589,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C95" s="26">
         <v>41</v>
@@ -7628,22 +7625,22 @@
         <v>410</v>
       </c>
       <c r="P95" s="24" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="Q95" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R95" s="7" t="s">
         <v>300</v>
       </c>
       <c r="S95" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T95" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="U95" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.4">
@@ -7651,7 +7648,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C96" s="26">
         <v>42</v>
@@ -7690,16 +7687,16 @@
         <v>39</v>
       </c>
       <c r="Q96" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R96" s="7" t="s">
         <v>315</v>
       </c>
       <c r="S96" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T96" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="U96" s="11"/>
     </row>
@@ -7708,7 +7705,7 @@
         <v>3</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C97" s="26">
         <v>43</v>
@@ -7747,16 +7744,16 @@
         <v>144</v>
       </c>
       <c r="Q97" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R97" s="7" t="s">
         <v>301</v>
       </c>
       <c r="S97" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T97" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="U97" s="11"/>
     </row>
@@ -7765,7 +7762,7 @@
         <v>3</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C98" s="26">
         <v>44</v>
@@ -7804,16 +7801,16 @@
         <v>143</v>
       </c>
       <c r="Q98" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R98" s="7" t="s">
         <v>302</v>
       </c>
       <c r="S98" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T98" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="U98" s="11"/>
     </row>
@@ -7822,7 +7819,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C99" s="26">
         <v>45</v>
@@ -7861,16 +7858,16 @@
         <v>163</v>
       </c>
       <c r="Q99" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R99" s="7" t="s">
         <v>303</v>
       </c>
       <c r="S99" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T99" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="U99" s="11"/>
     </row>
@@ -7879,7 +7876,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C100" s="26">
         <v>46</v>
@@ -7918,16 +7915,16 @@
         <v>215</v>
       </c>
       <c r="Q100" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R100" s="7" t="s">
         <v>304</v>
       </c>
       <c r="S100" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T100" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="U100" s="11"/>
     </row>
@@ -7936,7 +7933,7 @@
         <v>3</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C101" s="26">
         <v>47</v>
@@ -7975,16 +7972,16 @@
         <v>150</v>
       </c>
       <c r="Q101" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R101" s="7" t="s">
         <v>303</v>
       </c>
       <c r="S101" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T101" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U101" s="11"/>
     </row>
@@ -7993,7 +7990,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C102" s="26">
         <v>48</v>
@@ -8032,16 +8029,16 @@
         <v>133</v>
       </c>
       <c r="Q102" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R102" s="7" t="s">
         <v>305</v>
       </c>
       <c r="S102" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T102" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="U102" s="11"/>
     </row>
@@ -8050,7 +8047,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C103" s="26">
         <v>49</v>
@@ -8089,16 +8086,16 @@
         <v>32</v>
       </c>
       <c r="Q103" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R103" s="7" t="s">
         <v>306</v>
       </c>
       <c r="S103" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T103" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U103" s="11"/>
     </row>
@@ -8107,7 +8104,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C104" s="26">
         <v>50</v>
@@ -8146,16 +8143,16 @@
         <v>202</v>
       </c>
       <c r="Q104" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R104" s="7" t="s">
         <v>307</v>
       </c>
       <c r="S104" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T104" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="U104" s="11"/>
     </row>
@@ -8164,7 +8161,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C105" s="26">
         <v>51</v>
@@ -8203,16 +8200,16 @@
         <v>187</v>
       </c>
       <c r="Q105" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R105" s="7" t="s">
         <v>308</v>
       </c>
       <c r="S105" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T105" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="U105" s="11"/>
     </row>
@@ -8221,7 +8218,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C106" s="26">
         <v>52</v>
@@ -8260,14 +8257,14 @@
         <v>169</v>
       </c>
       <c r="Q106" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R106" s="7"/>
       <c r="S106" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T106" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="U106" s="11"/>
     </row>
@@ -8276,7 +8273,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C107" s="26">
         <v>53</v>
@@ -8315,14 +8312,14 @@
         <v>37</v>
       </c>
       <c r="Q107" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R107" s="7"/>
       <c r="S107" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T107" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="U107" s="11"/>
     </row>
@@ -8331,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C108" s="26">
         <v>54</v>
@@ -8370,16 +8367,16 @@
         <v>191</v>
       </c>
       <c r="Q108" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R108" s="7" t="s">
         <v>309</v>
       </c>
       <c r="S108" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T108" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="U108" s="11"/>
     </row>
@@ -8388,7 +8385,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C109" s="26">
         <v>55</v>
@@ -8427,16 +8424,16 @@
         <v>35</v>
       </c>
       <c r="Q109" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R109" s="7" t="s">
         <v>35</v>
       </c>
       <c r="S109" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T109" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="U109" s="11"/>
     </row>
@@ -8445,7 +8442,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C110" s="26">
         <v>56</v>
@@ -8484,16 +8481,16 @@
         <v>180</v>
       </c>
       <c r="Q110" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R110" s="7" t="s">
         <v>310</v>
       </c>
       <c r="S110" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T110" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="U110" s="11"/>
     </row>
@@ -8502,7 +8499,7 @@
         <v>3</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C111" s="26">
         <v>57</v>
@@ -8541,16 +8538,16 @@
         <v>177</v>
       </c>
       <c r="Q111" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R111" s="7" t="s">
         <v>311</v>
       </c>
       <c r="S111" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T111" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="U111" s="11"/>
     </row>
@@ -8559,7 +8556,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C112" s="26">
         <v>58</v>
@@ -8593,19 +8590,19 @@
         <v>542.1</v>
       </c>
       <c r="P112" s="24" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="Q112" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R112" s="7" t="s">
         <v>312</v>
       </c>
       <c r="S112" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T112" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U112" s="11"/>
     </row>
@@ -8614,7 +8611,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C113" s="26">
         <v>59</v>
@@ -8627,10 +8624,10 @@
         <v>135</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I113" s="7"/>
       <c r="J113" s="8">
@@ -8650,13 +8647,13 @@
         <v>305.7</v>
       </c>
       <c r="P113" s="24" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="Q113" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R113" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="S113" s="10"/>
       <c r="T113" s="7"/>
@@ -8667,7 +8664,7 @@
         <v>3</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C114" s="26">
         <v>60</v>
@@ -8703,22 +8700,22 @@
         <v>547.70000000000005</v>
       </c>
       <c r="P114" s="24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="Q114" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R114" s="7" t="s">
         <v>313</v>
       </c>
       <c r="S114" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T114" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="U114" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.4">
@@ -8726,7 +8723,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C115" s="26">
         <v>61</v>
@@ -8765,16 +8762,16 @@
         <v>171</v>
       </c>
       <c r="Q115" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R115" s="7" t="s">
         <v>314</v>
       </c>
       <c r="S115" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T115" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U115" s="11"/>
     </row>
@@ -8783,7 +8780,7 @@
         <v>3</v>
       </c>
       <c r="B116" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C116" s="26">
         <v>62</v>
@@ -8822,7 +8819,7 @@
         <v>38</v>
       </c>
       <c r="Q116" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R116" s="7" t="s">
         <v>316</v>
@@ -8836,7 +8833,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C117" s="26">
         <v>63</v>
@@ -8877,7 +8874,7 @@
         <v>17</v>
       </c>
       <c r="Q117" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R117" s="7"/>
       <c r="S117" s="10"/>
@@ -8889,7 +8886,7 @@
         <v>3</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C118" s="26">
         <v>64</v>
@@ -8926,7 +8923,7 @@
         <v>164</v>
       </c>
       <c r="Q118" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R118" s="7" t="s">
         <v>303</v>
@@ -8940,7 +8937,7 @@
         <v>3</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C119" s="26">
         <v>65</v>
@@ -8979,7 +8976,7 @@
         <v>34</v>
       </c>
       <c r="Q119" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R119" s="7" t="s">
         <v>317</v>
@@ -8993,7 +8990,7 @@
         <v>3</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C120" s="26">
         <v>66</v>
@@ -9032,7 +9029,7 @@
         <v>33</v>
       </c>
       <c r="Q120" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R120" s="7" t="s">
         <v>318</v>
@@ -9046,7 +9043,7 @@
         <v>3</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C121" s="26">
         <v>67</v>
@@ -9085,7 +9082,7 @@
         <v>36</v>
       </c>
       <c r="Q121" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R121" s="7" t="s">
         <v>319</v>
@@ -9099,7 +9096,7 @@
         <v>3</v>
       </c>
       <c r="B122" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C122" s="26">
         <v>68</v>
@@ -9138,7 +9135,7 @@
         <v>207</v>
       </c>
       <c r="Q122" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R122" s="15" t="s">
         <v>299</v>
@@ -9146,7 +9143,7 @@
       <c r="S122" s="10"/>
       <c r="T122" s="15"/>
       <c r="U122" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="123" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
@@ -9154,7 +9151,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C123" s="26">
         <v>69</v>
@@ -9190,11 +9187,11 @@
         <v>654</v>
       </c>
       <c r="P123" s="24" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Q123" s="9"/>
       <c r="R123" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="S123" s="10"/>
       <c r="T123" s="7"/>
@@ -9205,7 +9202,7 @@
         <v>3</v>
       </c>
       <c r="B124" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C124" s="26">
         <v>70</v>
@@ -9227,7 +9224,7 @@
       <c r="J124" s="8"/>
       <c r="K124" s="7"/>
       <c r="L124" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="M124" s="21">
         <v>52.839700000000001</v>
@@ -9239,7 +9236,7 @@
         <v>507.5</v>
       </c>
       <c r="P124" s="24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Q124" s="9"/>
       <c r="R124" s="7" t="s">
@@ -9254,7 +9251,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C125" s="26">
         <v>71</v>
@@ -9273,12 +9270,12 @@
         <v>66</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="J125" s="8"/>
       <c r="K125" s="7"/>
       <c r="L125" s="11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M125" s="21">
         <v>51.3264</v>
@@ -9290,11 +9287,11 @@
         <v>496.2</v>
       </c>
       <c r="P125" s="24" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="Q125" s="9"/>
       <c r="R125" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="S125" s="10"/>
       <c r="T125" s="7"/>
@@ -9305,7 +9302,7 @@
         <v>3</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C126" s="26">
         <v>72</v>
@@ -9331,7 +9328,7 @@
       <c r="N126" s="21"/>
       <c r="O126" s="20"/>
       <c r="P126" s="24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Q126" s="9"/>
       <c r="R126" s="7" t="s">
@@ -9346,7 +9343,7 @@
         <v>3</v>
       </c>
       <c r="B127" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C127" s="26">
         <v>73</v>
@@ -9368,7 +9365,7 @@
       <c r="J127" s="8"/>
       <c r="K127" s="7"/>
       <c r="L127" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="M127" s="21">
         <v>52.6633</v>
@@ -9380,7 +9377,7 @@
         <v>430</v>
       </c>
       <c r="P127" s="24" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="Q127" s="9"/>
       <c r="R127" s="7" t="s">
@@ -9389,7 +9386,7 @@
       <c r="S127" s="10"/>
       <c r="T127" s="7"/>
       <c r="U127" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="128" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
@@ -9397,7 +9394,7 @@
         <v>3</v>
       </c>
       <c r="B128" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C128" s="26">
         <v>74</v>
@@ -9413,15 +9410,15 @@
         <v>74</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I128" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J128" s="8"/>
       <c r="K128" s="7"/>
       <c r="L128" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="M128" s="21">
         <v>48.584200000000003</v>
@@ -9433,7 +9430,7 @@
         <v>1223</v>
       </c>
       <c r="P128" s="24" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Q128" s="9"/>
       <c r="R128" s="7" t="s">
@@ -9448,7 +9445,7 @@
         <v>3</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C129" s="26">
         <v>75</v>
@@ -9464,15 +9461,15 @@
         <v>74</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J129" s="8"/>
       <c r="K129" s="7"/>
       <c r="L129" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M129" s="21">
         <v>47.027200000000001</v>
@@ -9484,7 +9481,7 @@
         <v>1333</v>
       </c>
       <c r="P129" s="24" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Q129" s="9"/>
       <c r="R129" s="7" t="s">
@@ -9499,7 +9496,7 @@
         <v>3</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C130" s="26">
         <v>76</v>
@@ -9521,7 +9518,7 @@
       <c r="J130" s="8"/>
       <c r="K130" s="7"/>
       <c r="L130" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M130" s="21">
         <v>46.801099999999998</v>
@@ -9533,7 +9530,7 @@
         <v>2640</v>
       </c>
       <c r="P130" s="24" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Q130" s="9"/>
       <c r="R130" s="7" t="s">
@@ -9542,7 +9539,7 @@
       <c r="S130" s="10"/>
       <c r="T130" s="7"/>
       <c r="U130" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="131" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
@@ -9550,7 +9547,7 @@
         <v>3</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C131" s="26">
         <v>77</v>
@@ -9569,12 +9566,12 @@
         <v>101</v>
       </c>
       <c r="I131" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J131" s="8"/>
       <c r="K131" s="7"/>
       <c r="L131" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M131" s="21">
         <v>42.828800000000001</v>
@@ -9586,7 +9583,7 @@
         <v>2465</v>
       </c>
       <c r="P131" s="24" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Q131" s="9"/>
       <c r="R131" s="7" t="s">
@@ -9601,7 +9598,7 @@
         <v>42</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C132" s="26">
         <v>1</v>
@@ -9640,13 +9637,13 @@
         <v>328</v>
       </c>
       <c r="S132" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T132" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="U132" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="133" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
@@ -9654,7 +9651,7 @@
         <v>42</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C133" s="26">
         <v>2</v>
@@ -9693,13 +9690,13 @@
         <v>326</v>
       </c>
       <c r="S133" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T133" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="U133" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="134" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
@@ -9707,7 +9704,7 @@
         <v>47</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C134" s="26">
         <v>3</v>
@@ -9746,10 +9743,10 @@
         <v>324</v>
       </c>
       <c r="S134" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T134" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="U134" s="11"/>
     </row>
@@ -9758,7 +9755,7 @@
         <v>52</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C135" s="26">
         <v>4</v>
@@ -9797,19 +9794,19 @@
         <v>292</v>
       </c>
       <c r="S135" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T135" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="U135" s="11"/>
     </row>
     <row r="136" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A136" s="15" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C136" s="26">
         <v>5</v>
@@ -9819,7 +9816,7 @@
       </c>
       <c r="E136" s="32"/>
       <c r="F136" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G136" s="15"/>
       <c r="H136" s="15"/>
@@ -9841,28 +9838,28 @@
         <v>10</v>
       </c>
       <c r="P136" s="24" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="Q136" s="9"/>
       <c r="R136" s="15" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="S136" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="T136" s="15" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="U136" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A137" s="15" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C137" s="26">
         <v>6</v>
@@ -9872,7 +9869,7 @@
       </c>
       <c r="E137" s="32"/>
       <c r="F137" s="15" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G137" s="15"/>
       <c r="H137" s="15"/>
@@ -9894,26 +9891,26 @@
         <v>135</v>
       </c>
       <c r="P137" s="24" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="Q137" s="9"/>
       <c r="R137" s="15" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="S137" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="T137" s="15" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="U137" s="11"/>
     </row>
     <row r="138" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A138" s="15" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C138" s="26">
         <v>7</v>
@@ -9923,7 +9920,7 @@
       </c>
       <c r="E138" s="32"/>
       <c r="F138" s="15" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G138" s="15"/>
       <c r="H138" s="15"/>
@@ -9945,26 +9942,26 @@
         <v>1910</v>
       </c>
       <c r="P138" s="24" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="Q138" s="9"/>
       <c r="R138" s="15"/>
       <c r="S138" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="T138" s="15" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="U138" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A139" s="15" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C139" s="26">
         <v>8</v>
@@ -9974,7 +9971,7 @@
       </c>
       <c r="E139" s="32"/>
       <c r="F139" s="15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G139" s="15"/>
       <c r="H139" s="15"/>
@@ -9996,26 +9993,26 @@
         <v>3204</v>
       </c>
       <c r="P139" s="24" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="Q139" s="9"/>
       <c r="R139" s="15" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="S139" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="T139" s="15"/>
       <c r="U139" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A140" s="15" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C140" s="26">
         <v>9</v>
@@ -10025,7 +10022,7 @@
       </c>
       <c r="E140" s="32"/>
       <c r="F140" s="15" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G140" s="15"/>
       <c r="H140" s="15"/>
@@ -10047,17 +10044,17 @@
         <v>133</v>
       </c>
       <c r="P140" s="24" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="Q140" s="9"/>
       <c r="R140" s="15" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="S140" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="T140" s="15" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="U140" s="11"/>
     </row>
@@ -10066,7 +10063,7 @@
         <v>47</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C141" s="26">
         <v>10</v>
@@ -10098,17 +10095,17 @@
         <v>3576</v>
       </c>
       <c r="P141" s="24" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Q141" s="9"/>
       <c r="R141" s="15" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="S141" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="T141" s="15" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="U141" s="11"/>
     </row>
@@ -10412,7 +10409,7 @@
       <c r="U154" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="px2/nRN4qqOHHtO78AbDpe2JBagx1wIgvFiaWc+d2PeoUoGJAeoxN/HcmX1e/QoZ0G7duwIXYLTXhH4U/X4+WQ==" saltValue="DFrkOHnlwg48WtkwCqIT4A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bIVFGmsMQ6O+dSNgqWc4SlEZVWe2R4RRnzLaIMupVGCY6E52NeiYOa3MhCh6CDdR5WZusRUpStslH6SmbA+/MA==" saltValue="rnV/xaZ9c0ViQN09UY5xlg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U141">
     <sortCondition ref="D2:D141"/>
     <sortCondition ref="B2:B141"/>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC24507-7362-4185-8420-4A7D9D16E2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113C120F-5D93-48FC-9338-E1B9B45D1932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="565">
   <si>
     <t>USAF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2777,7 +2777,7 @@
   <dimension ref="A1:V154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3050,32 +3050,30 @@
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
       <c r="L5" s="11">
-        <v>274</v>
-      </c>
-      <c r="M5" s="17">
-        <v>47.209609999999998</v>
-      </c>
-      <c r="N5" s="17">
-        <v>97.604699999999994</v>
+        <v>686</v>
+      </c>
+      <c r="M5" s="18">
+        <v>48.646230555555498</v>
+      </c>
+      <c r="N5" s="18">
+        <v>97.612224999999995</v>
       </c>
       <c r="O5" s="33">
-        <v>2156</v>
+        <v>1811</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>228</v>
+        <v>328</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="S5" s="10"/>
       <c r="T5" s="7"/>
       <c r="U5" s="11"/>
-      <c r="V5" s="7" t="s">
-        <v>537</v>
-      </c>
+      <c r="V5" s="7"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
@@ -3094,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -3102,30 +3100,32 @@
       <c r="J6" s="8"/>
       <c r="K6" s="7"/>
       <c r="L6" s="11">
-        <v>893</v>
-      </c>
-      <c r="M6" s="18">
-        <v>51.356372219999997</v>
-      </c>
-      <c r="N6" s="18">
-        <v>99.344038889999993</v>
+        <v>274</v>
+      </c>
+      <c r="M6" s="17">
+        <v>47.209609999999998</v>
+      </c>
+      <c r="N6" s="17">
+        <v>97.604699999999994</v>
       </c>
       <c r="O6" s="33">
-        <v>1546</v>
+        <v>2156</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>385</v>
+        <v>228</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>389</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>516</v>
+        <v>271</v>
       </c>
       <c r="S6" s="10"/>
       <c r="T6" s="7"/>
       <c r="U6" s="11"/>
-      <c r="V6" s="7"/>
+      <c r="V6" s="7" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -3152,25 +3152,25 @@
       <c r="J7" s="8"/>
       <c r="K7" s="7"/>
       <c r="L7" s="11">
-        <v>243</v>
-      </c>
-      <c r="M7" s="17">
-        <v>49.748916600000001</v>
-      </c>
-      <c r="N7" s="17">
-        <v>106.661469</v>
+        <v>893</v>
+      </c>
+      <c r="M7" s="18">
+        <v>51.356372219999997</v>
+      </c>
+      <c r="N7" s="18">
+        <v>99.344038889999993</v>
       </c>
       <c r="O7" s="33">
-        <v>675</v>
+        <v>1546</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>227</v>
+        <v>385</v>
       </c>
       <c r="Q7" s="9" t="s">
         <v>389</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>272</v>
+        <v>516</v>
       </c>
       <c r="S7" s="10"/>
       <c r="T7" s="7"/>
@@ -3194,46 +3194,40 @@
         <v>0</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="8">
-        <v>44212</v>
-      </c>
-      <c r="K8" s="7">
-        <v>99999</v>
-      </c>
-      <c r="L8" s="11"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="11">
+        <v>243</v>
+      </c>
       <c r="M8" s="17">
-        <v>49.971620000000001</v>
+        <v>49.748916600000001</v>
       </c>
       <c r="N8" s="17">
-        <v>92.077960000000004</v>
+        <v>106.661469</v>
       </c>
       <c r="O8" s="33">
-        <v>937</v>
+        <v>675</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>395</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="S8" s="10"/>
+      <c r="T8" s="7"/>
       <c r="U8" s="11"/>
       <c r="V8" s="7"/>
     </row>
-    <row r="9" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>262</v>
       </c>
@@ -3250,46 +3244,44 @@
         <v>0</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="8">
-        <v>44221</v>
+        <v>44212</v>
       </c>
       <c r="K9" s="7">
         <v>99999</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="17">
-        <v>49.700499999999998</v>
+        <v>49.971620000000001</v>
       </c>
       <c r="N9" s="17">
-        <v>96.363399999999999</v>
+        <v>92.077960000000004</v>
       </c>
       <c r="O9" s="33">
-        <v>1424</v>
+        <v>937</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>269</v>
+        <v>515</v>
       </c>
       <c r="S9" s="10" t="s">
         <v>387</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U9" s="11"/>
-      <c r="V9" s="7" t="s">
-        <v>540</v>
-      </c>
+      <c r="V9" s="7"/>
     </row>
     <row r="10" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
@@ -3314,42 +3306,42 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="8">
-        <v>44224</v>
+        <v>44221</v>
       </c>
       <c r="K10" s="7">
         <v>99999</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="17">
-        <v>48.747999999999998</v>
+        <v>49.700499999999998</v>
       </c>
       <c r="N10" s="17">
-        <v>96.004249999999999</v>
+        <v>96.363399999999999</v>
       </c>
       <c r="O10" s="33">
-        <v>1931</v>
+        <v>1424</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="9" t="s">
         <v>389</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="U10" s="11"/>
       <c r="V10" s="7" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>262</v>
       </c>
@@ -3372,38 +3364,40 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="8">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="K11" s="7">
         <v>99999</v>
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="17">
-        <v>48.763053900000003</v>
+        <v>48.747999999999998</v>
       </c>
       <c r="N11" s="17">
-        <v>98.266199999999998</v>
+        <v>96.004249999999999</v>
       </c>
       <c r="O11" s="33">
-        <v>1726</v>
+        <v>1931</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>389</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="S11" s="10" t="s">
         <v>386</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U11" s="11"/>
-      <c r="V11" s="7"/>
+      <c r="V11" s="7" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
@@ -3422,41 +3416,41 @@
         <v>0</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="8">
-        <v>44203</v>
+        <v>44225</v>
       </c>
       <c r="K12" s="7">
         <v>99999</v>
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="17">
-        <v>51.113950000000003</v>
+        <v>48.763053900000003</v>
       </c>
       <c r="N12" s="17">
-        <v>99.668563800000001</v>
+        <v>98.266199999999998</v>
       </c>
       <c r="O12" s="33">
-        <v>1585</v>
+        <v>1726</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q12" s="9" t="s">
         <v>389</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>516</v>
+        <v>273</v>
       </c>
       <c r="S12" s="10" t="s">
         <v>386</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U12" s="11"/>
       <c r="V12" s="7"/>
@@ -3478,46 +3472,46 @@
         <v>0</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="8">
-        <v>44292</v>
+        <v>44203</v>
       </c>
       <c r="K13" s="7">
         <v>99999</v>
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="17">
-        <v>47.918445599999998</v>
+        <v>51.113950000000003</v>
       </c>
       <c r="N13" s="17">
-        <v>106.848343</v>
+        <v>99.668563800000001</v>
       </c>
       <c r="O13" s="33">
-        <v>1304</v>
+        <v>1585</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="9" t="s">
         <v>389</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>272</v>
+        <v>516</v>
       </c>
       <c r="S13" s="10" t="s">
         <v>386</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="U13" s="11"/>
       <c r="V13" s="7"/>
     </row>
-    <row r="14" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>262</v>
       </c>
@@ -3530,44 +3524,52 @@
       <c r="D14" s="25">
         <v>13</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="28">
+        <v>0</v>
+      </c>
       <c r="F14" s="7" t="s">
-        <v>535</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="11">
-        <v>546</v>
-      </c>
-      <c r="M14" s="18">
-        <v>47.227308333333298</v>
-      </c>
-      <c r="N14" s="18">
-        <v>98.573644444444398</v>
+      <c r="J14" s="8">
+        <v>44292</v>
+      </c>
+      <c r="K14" s="7">
+        <v>99999</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="17">
+        <v>47.918445599999998</v>
+      </c>
+      <c r="N14" s="17">
+        <v>106.848343</v>
       </c>
       <c r="O14" s="33">
-        <v>2422</v>
+        <v>1304</v>
       </c>
       <c r="P14" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q14" s="9"/>
+        <v>247</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>389</v>
+      </c>
       <c r="R14" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="S14" s="10"/>
-      <c r="T14" s="7"/>
+        <v>272</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>400</v>
+      </c>
       <c r="U14" s="11"/>
-      <c r="V14" s="7" t="s">
-        <v>542</v>
-      </c>
+      <c r="V14" s="7"/>
     </row>
     <row r="15" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>391</v>
@@ -3588,19 +3590,19 @@
       <c r="J15" s="8"/>
       <c r="K15" s="7"/>
       <c r="L15" s="11">
-        <v>276</v>
-      </c>
-      <c r="M15" s="17">
-        <v>47.016469999999998</v>
-      </c>
-      <c r="N15" s="17">
-        <v>99.479550000000003</v>
+        <v>546</v>
+      </c>
+      <c r="M15" s="18">
+        <v>47.227308333333298</v>
+      </c>
+      <c r="N15" s="18">
+        <v>98.573644444444398</v>
       </c>
       <c r="O15" s="33">
-        <v>2034</v>
+        <v>2422</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q15" s="9"/>
       <c r="R15" s="7" t="s">
@@ -3609,11 +3611,13 @@
       <c r="S15" s="10"/>
       <c r="T15" s="7"/>
       <c r="U15" s="11"/>
-      <c r="V15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="V15" s="7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>391</v>
@@ -3626,7 +3630,7 @@
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="7" t="s">
-        <v>330</v>
+        <v>535</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -3634,23 +3638,23 @@
       <c r="J16" s="8"/>
       <c r="K16" s="7"/>
       <c r="L16" s="11">
-        <v>864</v>
+        <v>276</v>
       </c>
       <c r="M16" s="17">
-        <v>48.332500000000003</v>
+        <v>47.016469999999998</v>
       </c>
       <c r="N16" s="17">
-        <v>92.634159999999994</v>
+        <v>99.479550000000003</v>
       </c>
       <c r="O16" s="33">
-        <v>1166</v>
+        <v>2034</v>
       </c>
       <c r="P16" s="20" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="Q16" s="9"/>
       <c r="R16" s="7" t="s">
-        <v>357</v>
+        <v>270</v>
       </c>
       <c r="S16" s="10"/>
       <c r="T16" s="7"/>
@@ -3680,19 +3684,19 @@
       <c r="J17" s="8"/>
       <c r="K17" s="7"/>
       <c r="L17" s="11">
-        <v>863</v>
-      </c>
-      <c r="M17" s="18">
-        <v>48.501372222222201</v>
-      </c>
-      <c r="N17" s="18">
-        <v>91.448158333333296</v>
+        <v>864</v>
+      </c>
+      <c r="M17" s="17">
+        <v>48.332500000000003</v>
+      </c>
+      <c r="N17" s="17">
+        <v>92.634159999999994</v>
       </c>
       <c r="O17" s="33">
-        <v>1262</v>
+        <v>1166</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="Q17" s="9"/>
       <c r="R17" s="7" t="s">
@@ -3726,23 +3730,23 @@
       <c r="J18" s="8"/>
       <c r="K18" s="7"/>
       <c r="L18" s="11">
-        <v>271</v>
-      </c>
-      <c r="M18" s="17">
-        <v>46.590800000000002</v>
-      </c>
-      <c r="N18" s="17">
-        <v>93.272199999999998</v>
+        <v>863</v>
+      </c>
+      <c r="M18" s="18">
+        <v>48.501372222222201</v>
+      </c>
+      <c r="N18" s="18">
+        <v>91.448158333333296</v>
       </c>
       <c r="O18" s="33">
-        <v>1716</v>
+        <v>1262</v>
       </c>
       <c r="P18" s="20" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="Q18" s="9"/>
       <c r="R18" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="S18" s="10"/>
       <c r="T18" s="7"/>
@@ -3751,7 +3755,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>391</v>
@@ -3764,7 +3768,7 @@
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="7" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -3772,22 +3776,24 @@
       <c r="J19" s="8"/>
       <c r="K19" s="7"/>
       <c r="L19" s="11">
-        <v>889</v>
-      </c>
-      <c r="M19" s="18">
-        <v>49.597225000000002</v>
-      </c>
-      <c r="N19" s="18">
-        <v>98.695800000000006</v>
+        <v>271</v>
+      </c>
+      <c r="M19" s="17">
+        <v>46.590800000000002</v>
+      </c>
+      <c r="N19" s="17">
+        <v>93.272199999999998</v>
       </c>
       <c r="O19" s="33">
-        <v>1805</v>
+        <v>1716</v>
       </c>
       <c r="P19" s="20" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="Q19" s="9"/>
-      <c r="R19" s="7"/>
+      <c r="R19" s="7" t="s">
+        <v>355</v>
+      </c>
       <c r="S19" s="10"/>
       <c r="T19" s="7"/>
       <c r="U19" s="11"/>
@@ -3816,24 +3822,22 @@
       <c r="J20" s="8"/>
       <c r="K20" s="7"/>
       <c r="L20" s="11">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="M20" s="18">
-        <v>50.677022222222199</v>
+        <v>49.597225000000002</v>
       </c>
       <c r="N20" s="18">
-        <v>99.226799999999997</v>
+        <v>98.695800000000006</v>
       </c>
       <c r="O20" s="33">
-        <v>1687</v>
+        <v>1805</v>
       </c>
       <c r="P20" s="20" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q20" s="9"/>
-      <c r="R20" s="7" t="s">
-        <v>516</v>
-      </c>
+      <c r="R20" s="7"/>
       <c r="S20" s="10"/>
       <c r="T20" s="7"/>
       <c r="U20" s="11"/>
@@ -3854,7 +3858,7 @@
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -3862,23 +3866,23 @@
       <c r="J21" s="8"/>
       <c r="K21" s="7"/>
       <c r="L21" s="11">
-        <v>774</v>
+        <v>887</v>
       </c>
       <c r="M21" s="18">
-        <v>50.069886111111103</v>
+        <v>50.677022222222199</v>
       </c>
       <c r="N21" s="18">
-        <v>105.884363888888</v>
+        <v>99.226799999999997</v>
       </c>
       <c r="O21" s="33">
-        <v>632</v>
+        <v>1687</v>
       </c>
       <c r="P21" s="20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q21" s="9"/>
       <c r="R21" s="7" t="s">
-        <v>352</v>
+        <v>516</v>
       </c>
       <c r="S21" s="10"/>
       <c r="T21" s="7"/>
@@ -3887,7 +3891,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>391</v>
@@ -3900,7 +3904,7 @@
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>350</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -3908,23 +3912,23 @@
       <c r="J22" s="8"/>
       <c r="K22" s="7"/>
       <c r="L22" s="11">
-        <v>827</v>
+        <v>774</v>
       </c>
       <c r="M22" s="18">
-        <v>50.610586111111097</v>
+        <v>50.069886111111103</v>
       </c>
       <c r="N22" s="18">
-        <v>92.402124999999998</v>
+        <v>105.884363888888</v>
       </c>
       <c r="O22" s="33">
-        <v>859</v>
+        <v>632</v>
       </c>
       <c r="P22" s="20" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="Q22" s="9"/>
       <c r="R22" s="7" t="s">
-        <v>517</v>
+        <v>352</v>
       </c>
       <c r="S22" s="10"/>
       <c r="T22" s="7"/>
@@ -3954,23 +3958,23 @@
       <c r="J23" s="8"/>
       <c r="K23" s="7"/>
       <c r="L23" s="11">
-        <v>201</v>
-      </c>
-      <c r="M23" s="17">
-        <v>49.72889</v>
-      </c>
-      <c r="N23" s="17">
-        <v>93.268609999999995</v>
+        <v>827</v>
+      </c>
+      <c r="M23" s="18">
+        <v>50.610586111111097</v>
+      </c>
+      <c r="N23" s="18">
+        <v>92.402124999999998</v>
       </c>
       <c r="O23" s="33">
-        <v>1393</v>
+        <v>859</v>
       </c>
       <c r="P23" s="20" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="Q23" s="9"/>
       <c r="R23" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="S23" s="10"/>
       <c r="T23" s="7"/>
@@ -3979,7 +3983,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>391</v>
@@ -3992,7 +3996,7 @@
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="7" t="s">
-        <v>360</v>
+        <v>249</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -4000,23 +4004,23 @@
       <c r="J24" s="8"/>
       <c r="K24" s="7"/>
       <c r="L24" s="11">
-        <v>215</v>
-      </c>
-      <c r="M24" s="18">
-        <v>49.104990000000001</v>
-      </c>
-      <c r="N24" s="18">
-        <v>91.726190000000003</v>
+        <v>201</v>
+      </c>
+      <c r="M24" s="17">
+        <v>49.72889</v>
+      </c>
+      <c r="N24" s="17">
+        <v>93.268609999999995</v>
       </c>
       <c r="O24" s="33">
-        <v>1593</v>
+        <v>1393</v>
       </c>
       <c r="P24" s="20" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="Q24" s="9"/>
       <c r="R24" s="7" t="s">
-        <v>362</v>
+        <v>515</v>
       </c>
       <c r="S24" s="10"/>
       <c r="T24" s="7"/>
@@ -4025,7 +4029,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="B25" s="22" t="s">
         <v>391</v>
@@ -4038,7 +4042,7 @@
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="7" t="s">
-        <v>249</v>
+        <v>360</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -4046,23 +4050,23 @@
       <c r="J25" s="8"/>
       <c r="K25" s="7"/>
       <c r="L25" s="11">
-        <v>834</v>
+        <v>215</v>
       </c>
       <c r="M25" s="18">
-        <v>50.339719444444398</v>
+        <v>49.104990000000001</v>
       </c>
       <c r="N25" s="18">
-        <v>91.604813888888799</v>
+        <v>91.726190000000003</v>
       </c>
       <c r="O25" s="33">
-        <v>1142</v>
+        <v>1593</v>
       </c>
       <c r="P25" s="20" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="Q25" s="9"/>
       <c r="R25" s="7" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="S25" s="10"/>
       <c r="T25" s="7"/>
@@ -4092,23 +4096,23 @@
       <c r="J26" s="8"/>
       <c r="K26" s="7"/>
       <c r="L26" s="11">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="M26" s="18">
-        <v>50.097880555555498</v>
+        <v>50.339719444444398</v>
       </c>
       <c r="N26" s="18">
-        <v>91.676269444444401</v>
+        <v>91.604813888888799</v>
       </c>
       <c r="O26" s="33">
-        <v>1212</v>
+        <v>1142</v>
       </c>
       <c r="P26" s="20" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q26" s="9"/>
       <c r="R26" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="S26" s="10"/>
       <c r="T26" s="7"/>
@@ -4135,30 +4139,26 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="8">
-        <v>44213</v>
-      </c>
-      <c r="K27" s="7">
-        <v>99999</v>
-      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="11">
-        <v>213</v>
-      </c>
-      <c r="M27" s="17">
-        <v>49.658639999999998</v>
-      </c>
-      <c r="N27" s="17">
-        <v>94.404060000000001</v>
+        <v>836</v>
+      </c>
+      <c r="M27" s="18">
+        <v>50.097880555555498</v>
+      </c>
+      <c r="N27" s="18">
+        <v>91.676269444444401</v>
       </c>
       <c r="O27" s="33">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="P27" s="20" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q27" s="9"/>
       <c r="R27" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="S27" s="10"/>
       <c r="T27" s="7"/>
@@ -4185,26 +4185,30 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="7"/>
+      <c r="J28" s="8">
+        <v>44213</v>
+      </c>
+      <c r="K28" s="7">
+        <v>99999</v>
+      </c>
       <c r="L28" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M28" s="17">
-        <v>48.821666700000002</v>
+        <v>49.658639999999998</v>
       </c>
       <c r="N28" s="17">
-        <v>93.103059999999999</v>
+        <v>94.404060000000001</v>
       </c>
       <c r="O28" s="33">
-        <v>1045</v>
+        <v>1233</v>
       </c>
       <c r="P28" s="20" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q28" s="9"/>
       <c r="R28" s="7" t="s">
-        <v>354</v>
+        <v>515</v>
       </c>
       <c r="S28" s="10"/>
       <c r="T28" s="7"/>
@@ -4226,7 +4230,7 @@
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -4234,23 +4238,23 @@
       <c r="J29" s="8"/>
       <c r="K29" s="7"/>
       <c r="L29" s="11">
-        <v>677</v>
-      </c>
-      <c r="M29" s="18">
-        <v>49.373166666666599</v>
-      </c>
-      <c r="N29" s="18">
-        <v>96.414816666666596</v>
+        <v>216</v>
+      </c>
+      <c r="M29" s="17">
+        <v>48.821666700000002</v>
+      </c>
+      <c r="N29" s="17">
+        <v>93.103059999999999</v>
       </c>
       <c r="O29" s="33">
-        <v>1858</v>
+        <v>1045</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="Q29" s="9"/>
       <c r="R29" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="S29" s="10"/>
       <c r="T29" s="7"/>
@@ -4280,23 +4284,23 @@
       <c r="J30" s="8"/>
       <c r="K30" s="7"/>
       <c r="L30" s="11">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="M30" s="18">
-        <v>48.721816666666598</v>
+        <v>49.373166666666599</v>
       </c>
       <c r="N30" s="18">
-        <v>98.794905555555502</v>
+        <v>96.414816666666596</v>
       </c>
       <c r="O30" s="33">
-        <v>1656</v>
+        <v>1858</v>
       </c>
       <c r="P30" s="20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q30" s="9"/>
       <c r="R30" s="7" t="s">
-        <v>273</v>
+        <v>358</v>
       </c>
       <c r="S30" s="10"/>
       <c r="T30" s="7"/>
@@ -4326,23 +4330,23 @@
       <c r="J31" s="8"/>
       <c r="K31" s="7"/>
       <c r="L31" s="11">
-        <v>220</v>
-      </c>
-      <c r="M31" s="17">
-        <v>48.870530000000002</v>
-      </c>
-      <c r="N31" s="17">
-        <v>96.961585999999997</v>
+        <v>680</v>
+      </c>
+      <c r="M31" s="18">
+        <v>48.721816666666598</v>
+      </c>
+      <c r="N31" s="18">
+        <v>98.794905555555502</v>
       </c>
       <c r="O31" s="33">
-        <v>1851</v>
+        <v>1656</v>
       </c>
       <c r="P31" s="20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q31" s="9"/>
       <c r="R31" s="7" t="s">
-        <v>359</v>
+        <v>273</v>
       </c>
       <c r="S31" s="10"/>
       <c r="T31" s="7"/>
@@ -4372,23 +4376,23 @@
       <c r="J32" s="8"/>
       <c r="K32" s="7"/>
       <c r="L32" s="11">
-        <v>683</v>
-      </c>
-      <c r="M32" s="18">
-        <v>48.589822222222203</v>
-      </c>
-      <c r="N32" s="18">
-        <v>95.435675000000003</v>
+        <v>220</v>
+      </c>
+      <c r="M32" s="17">
+        <v>48.870530000000002</v>
+      </c>
+      <c r="N32" s="17">
+        <v>96.961585999999997</v>
       </c>
       <c r="O32" s="33">
-        <v>1569</v>
+        <v>1851</v>
       </c>
       <c r="P32" s="20" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="Q32" s="9"/>
       <c r="R32" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="S32" s="10"/>
       <c r="T32" s="7"/>
@@ -4418,25 +4422,23 @@
       <c r="J33" s="8"/>
       <c r="K33" s="7"/>
       <c r="L33" s="11">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="M33" s="18">
-        <v>48.646230555555498</v>
+        <v>48.589822222222203</v>
       </c>
       <c r="N33" s="18">
-        <v>97.612224999999995</v>
+        <v>95.435675000000003</v>
       </c>
       <c r="O33" s="33">
-        <v>1811</v>
+        <v>1569</v>
       </c>
       <c r="P33" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q33" s="9" t="s">
-        <v>390</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="Q33" s="9"/>
       <c r="R33" s="7" t="s">
-        <v>273</v>
+        <v>356</v>
       </c>
       <c r="S33" s="10"/>
       <c r="T33" s="7"/>
@@ -10718,7 +10720,7 @@
       <c r="V154" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FV/KEXyogF1lqBtIZmjcYv1zCAUnNU3dWYWfm8CECdfhYydEK6O3qX4PBpDHXG2kKN7xPGBt0/xSzsuhwAN2dg==" saltValue="ZTR8kCezyUh5pFo/wIqxCQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jOelCbdLCE3e0Kovt7EFVlM9TIOZJrhmI9XatRmdgfeBH+NBkq/2Eq6CxjuBaX/i3B54Nem/0KDfQWKcBaNhIg==" saltValue="WNMMOLo63AfzNKZ8b/4ElQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V141">
     <sortCondition ref="D2:D141"/>
     <sortCondition ref="B2:B141"/>
@@ -10728,7 +10730,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:V154">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>IF(MOD(ROW(), 2), 0, 1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11569,7 +11571,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:V22">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF(MOD(ROW(), 2), 0, 1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113C120F-5D93-48FC-9338-E1B9B45D1932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8982E237-6EA7-40D6-B448-206A3338EE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -2777,7 +2777,7 @@
   <dimension ref="A1:V154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4650,13 +4650,13 @@
       <c r="J38" s="8"/>
       <c r="K38" s="7"/>
       <c r="L38" s="11">
-        <v>692</v>
+        <v>227</v>
       </c>
       <c r="M38" s="17">
-        <v>47.727004999999998</v>
+        <v>48.325195299999997</v>
       </c>
       <c r="N38" s="17">
-        <v>96.847539999999995</v>
+        <v>95.099440000000001</v>
       </c>
       <c r="O38" s="33">
         <v>1777</v>
@@ -10720,7 +10720,7 @@
       <c r="V154" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jOelCbdLCE3e0Kovt7EFVlM9TIOZJrhmI9XatRmdgfeBH+NBkq/2Eq6CxjuBaX/i3B54Nem/0KDfQWKcBaNhIg==" saltValue="WNMMOLo63AfzNKZ8b/4ElQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QxXSn38pjSVFSRBv4Ux07d6bk5IgUzTobhrNthUjK57SWYJwj93yH2V4wpuemQTC/kSW2Al1fl0U3UqBxHIkwQ==" saltValue="badUXvGNigBjrDUlO6uCQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V141">
     <sortCondition ref="D2:D141"/>
     <sortCondition ref="B2:B141"/>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8982E237-6EA7-40D6-B448-206A3338EE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E262D14-98A0-45C7-955A-84D804B3004F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="565">
   <si>
     <t>USAF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2777,7 +2777,7 @@
   <dimension ref="A1:V154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -7296,9 +7296,7 @@
       <c r="P85" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Q85" s="9" t="s">
-        <v>389</v>
-      </c>
+      <c r="Q85" s="9"/>
       <c r="R85" s="7" t="s">
         <v>292</v>
       </c>
@@ -10720,7 +10718,7 @@
       <c r="V154" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QxXSn38pjSVFSRBv4Ux07d6bk5IgUzTobhrNthUjK57SWYJwj93yH2V4wpuemQTC/kSW2Al1fl0U3UqBxHIkwQ==" saltValue="badUXvGNigBjrDUlO6uCQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+8uqFJVK6748xDKMq11nFoD7YY1ByTKqPRPEWNXVT6I40N9nSav0nIHARdLTSmHLmCQRStUVUniEDTqc/qXfTw==" saltValue="FY/QPsqHLYNmqS4KMCJLAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V141">
     <sortCondition ref="D2:D141"/>
     <sortCondition ref="B2:B141"/>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E262D14-98A0-45C7-955A-84D804B3004F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E116004-1F41-4256-8538-A22169BEC7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -1506,10 +1506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M0194</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>禾木喀纳斯蒙古族乡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2169,6 +2165,10 @@
   <si>
     <t>因迪吉尔卡河
 切尔斯基山脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y5808</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2776,8 +2776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
   <dimension ref="A1:V154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="H132" sqref="H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2808,16 +2808,16 @@
         <v>267</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>64</v>
@@ -2859,16 +2859,16 @@
         <v>268</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="U1" s="24" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="V1" s="31" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.4">
@@ -2876,7 +2876,7 @@
         <v>262</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C2" s="22">
         <v>1</v>
@@ -2911,16 +2911,16 @@
         <v>248</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="S2" s="10"/>
       <c r="T2" s="7"/>
       <c r="U2" s="11"/>
       <c r="V2" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
@@ -2928,7 +2928,7 @@
         <v>262</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C3" s="22">
         <v>2</v>
@@ -2963,16 +2963,16 @@
         <v>229</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S3" s="10"/>
       <c r="T3" s="7"/>
       <c r="U3" s="11"/>
       <c r="V3" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
@@ -2980,7 +2980,7 @@
         <v>262</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C4" s="22">
         <v>3</v>
@@ -3015,7 +3015,7 @@
         <v>226</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>269</v>
@@ -3030,7 +3030,7 @@
         <v>262</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C5" s="22">
         <v>4</v>
@@ -3065,7 +3065,7 @@
         <v>328</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R5" s="7" t="s">
         <v>273</v>
@@ -3080,7 +3080,7 @@
         <v>262</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C6" s="22">
         <v>5</v>
@@ -3115,7 +3115,7 @@
         <v>228</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>271</v>
@@ -3124,7 +3124,7 @@
       <c r="T6" s="7"/>
       <c r="U6" s="11"/>
       <c r="V6" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
@@ -3132,7 +3132,7 @@
         <v>262</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C7" s="22">
         <v>6</v>
@@ -3164,13 +3164,13 @@
         <v>1546</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="S7" s="10"/>
       <c r="T7" s="7"/>
@@ -3182,7 +3182,7 @@
         <v>262</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C8" s="22">
         <v>7</v>
@@ -3217,7 +3217,7 @@
         <v>227</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>272</v>
@@ -3232,7 +3232,7 @@
         <v>262</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C9" s="22">
         <v>8</v>
@@ -3269,16 +3269,16 @@
         <v>243</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="U9" s="11"/>
       <c r="V9" s="7"/>
@@ -3288,7 +3288,7 @@
         <v>262</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C10" s="22">
         <v>9</v>
@@ -3325,20 +3325,20 @@
         <v>244</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R10" s="7" t="s">
         <v>269</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U10" s="11"/>
       <c r="V10" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
@@ -3346,7 +3346,7 @@
         <v>262</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C11" s="22">
         <v>10</v>
@@ -3383,20 +3383,20 @@
         <v>245</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>270</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="U11" s="11"/>
       <c r="V11" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.4">
@@ -3404,7 +3404,7 @@
         <v>262</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C12" s="22">
         <v>11</v>
@@ -3441,16 +3441,16 @@
         <v>246</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R12" s="7" t="s">
         <v>273</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="U12" s="11"/>
       <c r="V12" s="7"/>
@@ -3460,7 +3460,7 @@
         <v>262</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C13" s="22">
         <v>12</v>
@@ -3497,16 +3497,16 @@
         <v>242</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U13" s="11"/>
       <c r="V13" s="7"/>
@@ -3516,7 +3516,7 @@
         <v>262</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C14" s="22">
         <v>13</v>
@@ -3553,16 +3553,16 @@
         <v>247</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R14" s="7" t="s">
         <v>272</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="U14" s="11"/>
       <c r="V14" s="7"/>
@@ -3572,7 +3572,7 @@
         <v>262</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C15" s="22">
         <v>14</v>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -3612,7 +3612,7 @@
       <c r="T15" s="7"/>
       <c r="U15" s="11"/>
       <c r="V15" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
@@ -3620,7 +3620,7 @@
         <v>347</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C16" s="22">
         <v>15</v>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -3666,7 +3666,7 @@
         <v>262</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C17" s="22">
         <v>16</v>
@@ -3712,7 +3712,7 @@
         <v>262</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C18" s="22">
         <v>17</v>
@@ -3758,7 +3758,7 @@
         <v>262</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C19" s="22">
         <v>18</v>
@@ -3804,7 +3804,7 @@
         <v>347</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C20" s="22">
         <v>19</v>
@@ -3848,7 +3848,7 @@
         <v>347</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C21" s="22">
         <v>20</v>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="Q21" s="9"/>
       <c r="R21" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="S21" s="10"/>
       <c r="T21" s="7"/>
@@ -3894,7 +3894,7 @@
         <v>347</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C22" s="22">
         <v>21</v>
@@ -3940,7 +3940,7 @@
         <v>262</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C23" s="22">
         <v>22</v>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="Q23" s="9"/>
       <c r="R23" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="S23" s="10"/>
       <c r="T23" s="7"/>
@@ -3986,7 +3986,7 @@
         <v>262</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C24" s="22">
         <v>23</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="Q24" s="9"/>
       <c r="R24" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S24" s="10"/>
       <c r="T24" s="7"/>
@@ -4032,7 +4032,7 @@
         <v>347</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C25" s="22">
         <v>24</v>
@@ -4078,7 +4078,7 @@
         <v>262</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C26" s="22">
         <v>25</v>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="Q26" s="9"/>
       <c r="R26" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="S26" s="10"/>
       <c r="T26" s="7"/>
@@ -4124,7 +4124,7 @@
         <v>262</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C27" s="22">
         <v>26</v>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="Q27" s="9"/>
       <c r="R27" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="S27" s="10"/>
       <c r="T27" s="7"/>
@@ -4170,7 +4170,7 @@
         <v>262</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C28" s="22">
         <v>27</v>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="Q28" s="9"/>
       <c r="R28" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S28" s="10"/>
       <c r="T28" s="7"/>
@@ -4220,7 +4220,7 @@
         <v>262</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C29" s="22">
         <v>28</v>
@@ -4266,7 +4266,7 @@
         <v>262</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C30" s="22">
         <v>29</v>
@@ -4312,7 +4312,7 @@
         <v>262</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C31" s="22">
         <v>30</v>
@@ -4358,7 +4358,7 @@
         <v>262</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C32" s="22">
         <v>31</v>
@@ -4404,7 +4404,7 @@
         <v>262</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C33" s="22">
         <v>32</v>
@@ -4450,7 +4450,7 @@
         <v>262</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C34" s="22">
         <v>33</v>
@@ -4496,7 +4496,7 @@
         <v>262</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C35" s="22">
         <v>34</v>
@@ -4540,7 +4540,7 @@
         <v>262</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C36" s="22">
         <v>35</v>
@@ -4586,7 +4586,7 @@
         <v>262</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C37" s="22">
         <v>36</v>
@@ -4632,7 +4632,7 @@
         <v>262</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C38" s="22">
         <v>37</v>
@@ -4678,7 +4678,7 @@
         <v>263</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C39" s="22">
         <v>1</v>
@@ -4719,10 +4719,10 @@
         <v>320</v>
       </c>
       <c r="S39" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T39" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U39" s="11"/>
       <c r="V39" s="7"/>
@@ -4732,7 +4732,7 @@
         <v>263</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C40" s="22">
         <v>2</v>
@@ -4773,10 +4773,10 @@
         <v>321</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T40" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U40" s="11"/>
       <c r="V40" s="7"/>
@@ -4786,7 +4786,7 @@
         <v>263</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C41" s="22">
         <v>3</v>
@@ -4823,16 +4823,16 @@
         <v>236</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S41" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T41" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U41" s="11"/>
       <c r="V41" s="7"/>
@@ -4842,7 +4842,7 @@
         <v>263</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C42" s="22">
         <v>4</v>
@@ -4880,13 +4880,13 @@
       </c>
       <c r="Q42" s="9"/>
       <c r="R42" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T42" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U42" s="11"/>
       <c r="V42" s="7"/>
@@ -4896,7 +4896,7 @@
         <v>263</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C43" s="22">
         <v>5</v>
@@ -4934,13 +4934,13 @@
       </c>
       <c r="Q43" s="9"/>
       <c r="R43" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S43" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T43" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="U43" s="11"/>
       <c r="V43" s="7"/>
@@ -4950,7 +4950,7 @@
         <v>263</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C44" s="22">
         <v>6</v>
@@ -4991,10 +4991,10 @@
         <v>322</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T44" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U44" s="11"/>
       <c r="V44" s="7"/>
@@ -5004,7 +5004,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C45" s="22">
         <v>7</v>
@@ -5041,16 +5041,16 @@
         <v>44</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R45" s="7" t="s">
         <v>325</v>
       </c>
       <c r="S45" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T45" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U45" s="11"/>
       <c r="V45" s="7"/>
@@ -5060,7 +5060,7 @@
         <v>263</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C46" s="22">
         <v>8</v>
@@ -5098,13 +5098,13 @@
       </c>
       <c r="Q46" s="9"/>
       <c r="R46" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T46" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="U46" s="11"/>
       <c r="V46" s="7"/>
@@ -5114,7 +5114,7 @@
         <v>263</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C47" s="22">
         <v>9</v>
@@ -5151,16 +5151,16 @@
         <v>230</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="S47" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T47" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="U47" s="11"/>
       <c r="V47" s="7"/>
@@ -5170,7 +5170,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C48" s="22">
         <v>10</v>
@@ -5208,13 +5208,13 @@
       </c>
       <c r="Q48" s="9"/>
       <c r="R48" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S48" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T48" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="U48" s="11"/>
       <c r="V48" s="7"/>
@@ -5224,7 +5224,7 @@
         <v>263</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C49" s="22">
         <v>11</v>
@@ -5261,16 +5261,16 @@
         <v>239</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T49" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="U49" s="11"/>
       <c r="V49" s="7"/>
@@ -5280,7 +5280,7 @@
         <v>263</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C50" s="22">
         <v>12</v>
@@ -5318,13 +5318,13 @@
       </c>
       <c r="Q50" s="9"/>
       <c r="R50" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="S50" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T50" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="U50" s="11"/>
       <c r="V50" s="7"/>
@@ -5334,7 +5334,7 @@
         <v>263</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C51" s="22">
         <v>13</v>
@@ -5371,16 +5371,16 @@
         <v>240</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R51" s="7" t="s">
         <v>323</v>
       </c>
       <c r="S51" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T51" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="U51" s="11"/>
       <c r="V51" s="7"/>
@@ -5390,7 +5390,7 @@
         <v>263</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C52" s="22">
         <v>14</v>
@@ -5429,10 +5429,10 @@
         <v>376</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T52" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="U52" s="11"/>
       <c r="V52" s="7"/>
@@ -5442,7 +5442,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C53" s="22">
         <v>1</v>
@@ -5481,10 +5481,10 @@
       <c r="Q53" s="9"/>
       <c r="R53" s="7"/>
       <c r="S53" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T53" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="U53" s="11"/>
       <c r="V53" s="7"/>
@@ -5494,7 +5494,7 @@
         <v>372</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C54" s="22">
         <v>2</v>
@@ -5535,10 +5535,10 @@
         <v>374</v>
       </c>
       <c r="S54" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T54" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="U54" s="11"/>
       <c r="V54" s="7"/>
@@ -5548,7 +5548,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C55" s="22">
         <v>1</v>
@@ -5593,10 +5593,10 @@
         <v>278</v>
       </c>
       <c r="S55" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T55" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="U55" s="11"/>
       <c r="V55" s="7"/>
@@ -5606,7 +5606,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C56" s="22">
         <v>2</v>
@@ -5647,7 +5647,7 @@
         <v>18</v>
       </c>
       <c r="Q56" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R56" s="7" t="s">
         <v>281</v>
@@ -5662,7 +5662,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C57" s="22">
         <v>3</v>
@@ -5707,10 +5707,10 @@
         <v>279</v>
       </c>
       <c r="S57" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T57" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="U57" s="11"/>
       <c r="V57" s="7"/>
@@ -5720,7 +5720,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C58" s="22">
         <v>4</v>
@@ -5761,16 +5761,16 @@
         <v>19</v>
       </c>
       <c r="Q58" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R58" s="7" t="s">
         <v>274</v>
       </c>
       <c r="S58" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T58" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="U58" s="11"/>
       <c r="V58" s="7"/>
@@ -5780,7 +5780,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C59" s="22">
         <v>5</v>
@@ -5821,16 +5821,16 @@
         <v>20</v>
       </c>
       <c r="Q59" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R59" s="7" t="s">
         <v>275</v>
       </c>
       <c r="S59" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T59" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U59" s="11"/>
       <c r="V59" s="7"/>
@@ -5840,7 +5840,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C60" s="22">
         <v>6</v>
@@ -5881,7 +5881,7 @@
         <v>16</v>
       </c>
       <c r="Q60" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R60" s="7" t="s">
         <v>276</v>
@@ -5896,7 +5896,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C61" s="22">
         <v>7</v>
@@ -5941,10 +5941,10 @@
         <v>277</v>
       </c>
       <c r="S61" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T61" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U61" s="11"/>
       <c r="V61" s="7"/>
@@ -5954,7 +5954,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C62" s="22">
         <v>8</v>
@@ -6008,7 +6008,7 @@
         <v>3</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C63" s="22">
         <v>9</v>
@@ -6062,7 +6062,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C64" s="22">
         <v>10</v>
@@ -6103,16 +6103,16 @@
         <v>5</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R64" s="7" t="s">
         <v>283</v>
       </c>
       <c r="S64" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T64" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="U64" s="11"/>
       <c r="V64" s="7"/>
@@ -6122,7 +6122,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C65" s="22">
         <v>11</v>
@@ -6176,7 +6176,7 @@
         <v>3</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C66" s="22">
         <v>12</v>
@@ -6217,7 +6217,7 @@
         <v>10</v>
       </c>
       <c r="Q66" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R66" s="7" t="s">
         <v>284</v>
@@ -6232,7 +6232,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C67" s="22">
         <v>13</v>
@@ -6273,16 +6273,16 @@
         <v>6</v>
       </c>
       <c r="Q67" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R67" s="7" t="s">
         <v>280</v>
       </c>
       <c r="S67" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T67" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U67" s="11"/>
       <c r="V67" s="7"/>
@@ -6292,7 +6292,7 @@
         <v>3</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C68" s="22">
         <v>14</v>
@@ -6346,7 +6346,7 @@
         <v>3</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C69" s="22">
         <v>15</v>
@@ -6398,7 +6398,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C70" s="22">
         <v>16</v>
@@ -6443,10 +6443,10 @@
         <v>286</v>
       </c>
       <c r="S70" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T70" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="U70" s="11"/>
       <c r="V70" s="7"/>
@@ -6456,7 +6456,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C71" s="22">
         <v>17</v>
@@ -6508,7 +6508,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C72" s="22">
         <v>18</v>
@@ -6562,7 +6562,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C73" s="22">
         <v>19</v>
@@ -6607,10 +6607,10 @@
         <v>280</v>
       </c>
       <c r="S73" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T73" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U73" s="11"/>
       <c r="V73" s="7"/>
@@ -6620,7 +6620,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C74" s="22">
         <v>20</v>
@@ -6661,7 +6661,7 @@
         <v>21</v>
       </c>
       <c r="Q74" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R74" s="7"/>
       <c r="S74" s="10"/>
@@ -6674,7 +6674,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C75" s="22">
         <v>21</v>
@@ -6715,7 +6715,7 @@
         <v>14</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R75" s="7" t="s">
         <v>288</v>
@@ -6730,7 +6730,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C76" s="22">
         <v>22</v>
@@ -6771,7 +6771,7 @@
         <v>15</v>
       </c>
       <c r="Q76" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R76" s="7" t="s">
         <v>288</v>
@@ -6786,7 +6786,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C77" s="22">
         <v>23</v>
@@ -6804,7 +6804,7 @@
         <v>79</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="8">
@@ -6827,16 +6827,16 @@
         <v>50</v>
       </c>
       <c r="Q77" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R77" s="7" t="s">
         <v>288</v>
       </c>
       <c r="S77" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T77" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U77" s="11"/>
       <c r="V77" s="7"/>
@@ -6846,7 +6846,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C78" s="22">
         <v>24</v>
@@ -6887,16 +6887,16 @@
         <v>264</v>
       </c>
       <c r="Q78" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R78" s="7" t="s">
         <v>264</v>
       </c>
       <c r="S78" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T78" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="U78" s="11"/>
       <c r="V78" s="7"/>
@@ -6906,7 +6906,7 @@
         <v>3</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C79" s="22">
         <v>25</v>
@@ -6947,7 +6947,7 @@
         <v>12</v>
       </c>
       <c r="Q79" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R79" s="7" t="s">
         <v>289</v>
@@ -6962,7 +6962,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C80" s="22">
         <v>26</v>
@@ -7003,7 +7003,7 @@
         <v>13</v>
       </c>
       <c r="Q80" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R80" s="7" t="s">
         <v>290</v>
@@ -7018,7 +7018,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C81" s="22">
         <v>27</v>
@@ -7058,17 +7058,17 @@
         <v>734.8</v>
       </c>
       <c r="P81" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q81" s="9"/>
       <c r="R81" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="S81" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T81" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="U81" s="11"/>
       <c r="V81" s="30"/>
@@ -7078,7 +7078,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C82" s="22">
         <v>28</v>
@@ -7114,19 +7114,19 @@
         <v>39</v>
       </c>
       <c r="P82" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q82" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R82" s="7" t="s">
         <v>291</v>
       </c>
       <c r="S82" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T82" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U82" s="11"/>
       <c r="V82" s="7"/>
@@ -7136,7 +7136,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C83" s="22">
         <v>29</v>
@@ -7177,16 +7177,16 @@
         <v>24</v>
       </c>
       <c r="Q83" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R83" s="7" t="s">
         <v>292</v>
       </c>
       <c r="S83" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T83" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U83" s="11"/>
       <c r="V83" s="7"/>
@@ -7196,7 +7196,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C84" s="22">
         <v>30</v>
@@ -7237,16 +7237,16 @@
         <v>23</v>
       </c>
       <c r="Q84" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R84" s="7" t="s">
         <v>293</v>
       </c>
       <c r="S84" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T84" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="U84" s="11"/>
       <c r="V84" s="7"/>
@@ -7256,7 +7256,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C85" s="22">
         <v>31</v>
@@ -7310,7 +7310,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C86" s="22">
         <v>32</v>
@@ -7351,16 +7351,16 @@
         <v>22</v>
       </c>
       <c r="Q86" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R86" s="7" t="s">
         <v>294</v>
       </c>
       <c r="S86" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T86" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="U86" s="11"/>
       <c r="V86" s="7"/>
@@ -7370,7 +7370,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C87" s="22">
         <v>33</v>
@@ -7407,14 +7407,14 @@
         <v>183</v>
       </c>
       <c r="Q87" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R87" s="7"/>
       <c r="S87" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T87" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U87" s="11"/>
       <c r="V87" s="7"/>
@@ -7424,7 +7424,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C88" s="22">
         <v>34</v>
@@ -7434,11 +7434,11 @@
       </c>
       <c r="E88" s="28"/>
       <c r="F88" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="8">
@@ -7458,16 +7458,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="P88" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q88" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R88" s="7"/>
       <c r="S88" s="10"/>
       <c r="T88" s="7"/>
       <c r="U88" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="V88" s="7"/>
     </row>
@@ -7476,7 +7476,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C89" s="22">
         <v>35</v>
@@ -7515,16 +7515,16 @@
         <v>208</v>
       </c>
       <c r="Q89" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R89" s="7" t="s">
         <v>295</v>
       </c>
       <c r="S89" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T89" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U89" s="11"/>
       <c r="V89" s="7"/>
@@ -7534,7 +7534,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C90" s="22">
         <v>36</v>
@@ -7573,14 +7573,14 @@
         <v>167</v>
       </c>
       <c r="Q90" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R90" s="7"/>
       <c r="S90" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T90" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="U90" s="11"/>
       <c r="V90" s="7"/>
@@ -7590,7 +7590,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C91" s="22">
         <v>37</v>
@@ -7629,16 +7629,16 @@
         <v>162</v>
       </c>
       <c r="Q91" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R91" s="7" t="s">
         <v>296</v>
       </c>
       <c r="S91" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T91" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="U91" s="11"/>
       <c r="V91" s="7"/>
@@ -7648,7 +7648,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C92" s="22">
         <v>38</v>
@@ -7687,16 +7687,16 @@
         <v>174</v>
       </c>
       <c r="Q92" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R92" s="7" t="s">
         <v>297</v>
       </c>
       <c r="S92" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T92" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="U92" s="11"/>
       <c r="V92" s="7"/>
@@ -7706,7 +7706,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C93" s="22">
         <v>39</v>
@@ -7745,16 +7745,16 @@
         <v>201</v>
       </c>
       <c r="Q93" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R93" s="7" t="s">
         <v>298</v>
       </c>
       <c r="S93" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T93" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="U93" s="11"/>
       <c r="V93" s="7"/>
@@ -7764,7 +7764,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C94" s="22">
         <v>40</v>
@@ -7803,16 +7803,16 @@
         <v>161</v>
       </c>
       <c r="Q94" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R94" s="7" t="s">
         <v>299</v>
       </c>
       <c r="S94" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T94" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="U94" s="11"/>
       <c r="V94" s="7"/>
@@ -7822,7 +7822,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C95" s="22">
         <v>41</v>
@@ -7858,22 +7858,22 @@
         <v>410</v>
       </c>
       <c r="P95" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Q95" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R95" s="7" t="s">
         <v>300</v>
       </c>
       <c r="S95" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T95" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U95" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="V95" s="7"/>
     </row>
@@ -7882,7 +7882,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C96" s="22">
         <v>42</v>
@@ -7921,16 +7921,16 @@
         <v>39</v>
       </c>
       <c r="Q96" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R96" s="7" t="s">
         <v>315</v>
       </c>
       <c r="S96" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T96" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U96" s="11"/>
       <c r="V96" s="7"/>
@@ -7940,7 +7940,7 @@
         <v>3</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C97" s="22">
         <v>43</v>
@@ -7979,16 +7979,16 @@
         <v>144</v>
       </c>
       <c r="Q97" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R97" s="7" t="s">
         <v>301</v>
       </c>
       <c r="S97" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T97" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U97" s="11"/>
       <c r="V97" s="30"/>
@@ -7998,7 +7998,7 @@
         <v>3</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C98" s="22">
         <v>44</v>
@@ -8037,16 +8037,16 @@
         <v>143</v>
       </c>
       <c r="Q98" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R98" s="7" t="s">
         <v>302</v>
       </c>
       <c r="S98" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T98" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="U98" s="11"/>
       <c r="V98" s="7"/>
@@ -8056,7 +8056,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C99" s="22">
         <v>45</v>
@@ -8095,16 +8095,16 @@
         <v>163</v>
       </c>
       <c r="Q99" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R99" s="7" t="s">
         <v>303</v>
       </c>
       <c r="S99" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T99" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="U99" s="11"/>
       <c r="V99" s="7"/>
@@ -8114,7 +8114,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C100" s="22">
         <v>46</v>
@@ -8153,16 +8153,16 @@
         <v>215</v>
       </c>
       <c r="Q100" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R100" s="7" t="s">
         <v>304</v>
       </c>
       <c r="S100" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T100" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U100" s="11"/>
       <c r="V100" s="7"/>
@@ -8172,7 +8172,7 @@
         <v>3</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C101" s="22">
         <v>47</v>
@@ -8211,16 +8211,16 @@
         <v>150</v>
       </c>
       <c r="Q101" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R101" s="7" t="s">
         <v>303</v>
       </c>
       <c r="S101" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T101" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U101" s="11"/>
       <c r="V101" s="7"/>
@@ -8230,7 +8230,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C102" s="22">
         <v>48</v>
@@ -8269,16 +8269,16 @@
         <v>133</v>
       </c>
       <c r="Q102" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R102" s="7" t="s">
         <v>305</v>
       </c>
       <c r="S102" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T102" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="U102" s="11"/>
       <c r="V102" s="7"/>
@@ -8288,7 +8288,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C103" s="22">
         <v>49</v>
@@ -8327,16 +8327,16 @@
         <v>32</v>
       </c>
       <c r="Q103" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R103" s="7" t="s">
         <v>306</v>
       </c>
       <c r="S103" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T103" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="U103" s="11"/>
       <c r="V103" s="7"/>
@@ -8346,7 +8346,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C104" s="22">
         <v>50</v>
@@ -8385,16 +8385,16 @@
         <v>202</v>
       </c>
       <c r="Q104" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R104" s="7" t="s">
         <v>307</v>
       </c>
       <c r="S104" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T104" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="U104" s="11"/>
       <c r="V104" s="7"/>
@@ -8404,7 +8404,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C105" s="22">
         <v>51</v>
@@ -8443,16 +8443,16 @@
         <v>187</v>
       </c>
       <c r="Q105" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R105" s="7" t="s">
         <v>308</v>
       </c>
       <c r="S105" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T105" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="U105" s="11"/>
       <c r="V105" s="7"/>
@@ -8462,7 +8462,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C106" s="22">
         <v>52</v>
@@ -8501,14 +8501,14 @@
         <v>169</v>
       </c>
       <c r="Q106" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R106" s="7"/>
       <c r="S106" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T106" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U106" s="11"/>
       <c r="V106" s="7"/>
@@ -8518,7 +8518,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C107" s="22">
         <v>53</v>
@@ -8557,14 +8557,14 @@
         <v>37</v>
       </c>
       <c r="Q107" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R107" s="7"/>
       <c r="S107" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T107" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="U107" s="11"/>
       <c r="V107" s="7"/>
@@ -8574,7 +8574,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C108" s="22">
         <v>54</v>
@@ -8613,16 +8613,16 @@
         <v>191</v>
       </c>
       <c r="Q108" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R108" s="7" t="s">
         <v>309</v>
       </c>
       <c r="S108" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T108" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U108" s="11"/>
       <c r="V108" s="7"/>
@@ -8632,7 +8632,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C109" s="22">
         <v>55</v>
@@ -8671,16 +8671,16 @@
         <v>35</v>
       </c>
       <c r="Q109" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R109" s="7" t="s">
         <v>35</v>
       </c>
       <c r="S109" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T109" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="U109" s="11"/>
       <c r="V109" s="7"/>
@@ -8690,7 +8690,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C110" s="22">
         <v>56</v>
@@ -8729,16 +8729,16 @@
         <v>180</v>
       </c>
       <c r="Q110" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R110" s="7" t="s">
         <v>310</v>
       </c>
       <c r="S110" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T110" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="U110" s="11"/>
       <c r="V110" s="7"/>
@@ -8748,7 +8748,7 @@
         <v>3</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C111" s="22">
         <v>57</v>
@@ -8787,16 +8787,16 @@
         <v>177</v>
       </c>
       <c r="Q111" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R111" s="7" t="s">
         <v>311</v>
       </c>
       <c r="S111" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T111" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="U111" s="11"/>
       <c r="V111" s="7"/>
@@ -8806,7 +8806,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C112" s="22">
         <v>58</v>
@@ -8840,19 +8840,19 @@
         <v>542.1</v>
       </c>
       <c r="P112" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q112" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R112" s="7" t="s">
         <v>312</v>
       </c>
       <c r="S112" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T112" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="U112" s="11"/>
       <c r="V112" s="7"/>
@@ -8862,7 +8862,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C113" s="22">
         <v>59</v>
@@ -8875,10 +8875,10 @@
         <v>135</v>
       </c>
       <c r="G113" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="H113" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="I113" s="7"/>
       <c r="J113" s="8">
@@ -8898,13 +8898,13 @@
         <v>305.7</v>
       </c>
       <c r="P113" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q113" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="R113" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="Q113" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="R113" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="S113" s="10"/>
       <c r="T113" s="7"/>
@@ -8916,7 +8916,7 @@
         <v>3</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C114" s="22">
         <v>60</v>
@@ -8952,22 +8952,22 @@
         <v>547.70000000000005</v>
       </c>
       <c r="P114" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Q114" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R114" s="7" t="s">
         <v>313</v>
       </c>
       <c r="S114" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T114" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U114" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V114" s="7"/>
     </row>
@@ -8976,7 +8976,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C115" s="22">
         <v>61</v>
@@ -9015,16 +9015,16 @@
         <v>171</v>
       </c>
       <c r="Q115" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R115" s="7" t="s">
         <v>314</v>
       </c>
       <c r="S115" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T115" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U115" s="11"/>
       <c r="V115" s="7"/>
@@ -9034,7 +9034,7 @@
         <v>3</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C116" s="22">
         <v>62</v>
@@ -9073,7 +9073,7 @@
         <v>38</v>
       </c>
       <c r="Q116" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R116" s="7" t="s">
         <v>316</v>
@@ -9088,7 +9088,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C117" s="22">
         <v>63</v>
@@ -9129,7 +9129,7 @@
         <v>17</v>
       </c>
       <c r="Q117" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R117" s="7"/>
       <c r="S117" s="10"/>
@@ -9142,7 +9142,7 @@
         <v>3</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C118" s="22">
         <v>64</v>
@@ -9179,7 +9179,7 @@
         <v>164</v>
       </c>
       <c r="Q118" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R118" s="7" t="s">
         <v>303</v>
@@ -9194,7 +9194,7 @@
         <v>3</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C119" s="22">
         <v>65</v>
@@ -9233,7 +9233,7 @@
         <v>34</v>
       </c>
       <c r="Q119" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R119" s="7" t="s">
         <v>317</v>
@@ -9248,7 +9248,7 @@
         <v>3</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C120" s="22">
         <v>66</v>
@@ -9287,7 +9287,7 @@
         <v>33</v>
       </c>
       <c r="Q120" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R120" s="7" t="s">
         <v>318</v>
@@ -9302,7 +9302,7 @@
         <v>3</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C121" s="22">
         <v>67</v>
@@ -9341,7 +9341,7 @@
         <v>36</v>
       </c>
       <c r="Q121" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R121" s="7" t="s">
         <v>319</v>
@@ -9356,7 +9356,7 @@
         <v>3</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C122" s="22">
         <v>68</v>
@@ -9395,7 +9395,7 @@
         <v>207</v>
       </c>
       <c r="Q122" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R122" s="14" t="s">
         <v>299</v>
@@ -9403,7 +9403,7 @@
       <c r="S122" s="10"/>
       <c r="T122" s="14"/>
       <c r="U122" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="V122" s="7"/>
     </row>
@@ -9412,7 +9412,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C123" s="22">
         <v>69</v>
@@ -9457,7 +9457,7 @@
       <c r="S123" s="10"/>
       <c r="T123" s="7"/>
       <c r="U123" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="V123" s="7"/>
     </row>
@@ -9466,7 +9466,7 @@
         <v>3</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C124" s="22">
         <v>70</v>
@@ -9488,7 +9488,7 @@
       <c r="J124" s="8"/>
       <c r="K124" s="7"/>
       <c r="L124" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M124" s="18">
         <v>52.839700000000001</v>
@@ -9516,7 +9516,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C125" s="22">
         <v>71</v>
@@ -9535,12 +9535,12 @@
         <v>66</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J125" s="8"/>
       <c r="K125" s="7"/>
       <c r="L125" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M125" s="18">
         <v>51.3264</v>
@@ -9552,11 +9552,11 @@
         <v>496.2</v>
       </c>
       <c r="P125" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Q125" s="9"/>
       <c r="R125" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="S125" s="10"/>
       <c r="T125" s="7"/>
@@ -9568,7 +9568,7 @@
         <v>3</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C126" s="22">
         <v>72</v>
@@ -9610,7 +9610,7 @@
         <v>3</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C127" s="22">
         <v>73</v>
@@ -9632,7 +9632,7 @@
       <c r="J127" s="8"/>
       <c r="K127" s="7"/>
       <c r="L127" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M127" s="18">
         <v>52.6633</v>
@@ -9644,7 +9644,7 @@
         <v>430</v>
       </c>
       <c r="P127" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q127" s="9"/>
       <c r="R127" s="7" t="s">
@@ -9653,7 +9653,7 @@
       <c r="S127" s="10"/>
       <c r="T127" s="7"/>
       <c r="U127" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="V127" s="7"/>
     </row>
@@ -9662,7 +9662,7 @@
         <v>3</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C128" s="22">
         <v>74</v>
@@ -9681,12 +9681,12 @@
         <v>377</v>
       </c>
       <c r="I128" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J128" s="8"/>
       <c r="K128" s="7"/>
       <c r="L128" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M128" s="18">
         <v>48.584200000000003</v>
@@ -9714,7 +9714,7 @@
         <v>3</v>
       </c>
       <c r="B129" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C129" s="22">
         <v>75</v>
@@ -9766,7 +9766,7 @@
         <v>3</v>
       </c>
       <c r="B130" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C130" s="22">
         <v>76</v>
@@ -9788,7 +9788,7 @@
       <c r="J130" s="8"/>
       <c r="K130" s="7"/>
       <c r="L130" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M130" s="18">
         <v>46.801099999999998</v>
@@ -9800,7 +9800,7 @@
         <v>2640</v>
       </c>
       <c r="P130" s="20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Q130" s="9"/>
       <c r="R130" s="7" t="s">
@@ -9809,7 +9809,7 @@
       <c r="S130" s="10"/>
       <c r="T130" s="7"/>
       <c r="U130" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="V130" s="7"/>
     </row>
@@ -9818,7 +9818,7 @@
         <v>3</v>
       </c>
       <c r="B131" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C131" s="22">
         <v>77</v>
@@ -9842,7 +9842,7 @@
       <c r="J131" s="8"/>
       <c r="K131" s="7"/>
       <c r="L131" s="11" t="s">
-        <v>381</v>
+        <v>564</v>
       </c>
       <c r="M131" s="18">
         <v>42.828800000000001</v>
@@ -9870,7 +9870,7 @@
         <v>42</v>
       </c>
       <c r="B132" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C132" s="22">
         <v>1</v>
@@ -9902,22 +9902,22 @@
         <v>850</v>
       </c>
       <c r="P132" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q132" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R132" s="7" t="s">
         <v>326</v>
       </c>
       <c r="S132" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T132" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="U132" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V132" s="7"/>
     </row>
@@ -9926,7 +9926,7 @@
         <v>42</v>
       </c>
       <c r="B133" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C133" s="22">
         <v>2</v>
@@ -9961,19 +9961,19 @@
         <v>51</v>
       </c>
       <c r="Q133" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R133" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="S133" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T133" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="U133" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V133" s="7"/>
     </row>
@@ -9982,7 +9982,7 @@
         <v>42</v>
       </c>
       <c r="B134" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C134" s="22">
         <v>3</v>
@@ -10014,19 +10014,19 @@
         <v>518.52</v>
       </c>
       <c r="P134" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q134" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R134" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S134" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T134" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U134" s="11"/>
       <c r="V134" s="7"/>
@@ -10036,7 +10036,7 @@
         <v>42</v>
       </c>
       <c r="B135" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C135" s="22">
         <v>4</v>
@@ -10068,19 +10068,19 @@
         <v>589.71</v>
       </c>
       <c r="P135" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Q135" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R135" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="S135" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T135" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="U135" s="11"/>
       <c r="V135" s="7"/>
@@ -10090,7 +10090,7 @@
         <v>42</v>
       </c>
       <c r="B136" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C136" s="22">
         <v>5</v>
@@ -10122,19 +10122,19 @@
         <v>800.92</v>
       </c>
       <c r="P136" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="Q136" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R136" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S136" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T136" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="U136" s="11"/>
       <c r="V136" s="7"/>
@@ -10144,7 +10144,7 @@
         <v>42</v>
       </c>
       <c r="B137" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C137" s="22">
         <v>6</v>
@@ -10176,19 +10176,19 @@
         <v>138</v>
       </c>
       <c r="P137" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q137" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R137" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="S137" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T137" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U137" s="11"/>
       <c r="V137" s="7"/>
@@ -10198,7 +10198,7 @@
         <v>42</v>
       </c>
       <c r="B138" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C138" s="22">
         <v>7</v>
@@ -10230,17 +10230,17 @@
         <v>776.93</v>
       </c>
       <c r="P138" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q138" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R138" s="7"/>
       <c r="S138" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T138" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U138" s="11"/>
       <c r="V138" s="7"/>
@@ -10250,7 +10250,7 @@
         <v>42</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C139" s="22">
         <v>8</v>
@@ -10282,19 +10282,19 @@
         <v>196</v>
       </c>
       <c r="P139" s="20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="Q139" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R139" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="S139" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T139" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="U139" s="11"/>
       <c r="V139" s="7"/>
@@ -10304,7 +10304,7 @@
         <v>42</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C140" s="22">
         <v>9</v>
@@ -10336,19 +10336,19 @@
         <v>101</v>
       </c>
       <c r="P140" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q140" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="R140" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="Q140" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="R140" s="7" t="s">
-        <v>550</v>
-      </c>
       <c r="S140" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T140" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="U140" s="11"/>
       <c r="V140" s="7"/>
@@ -10358,7 +10358,7 @@
         <v>42</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C141" s="22">
         <v>10</v>
@@ -10390,17 +10390,17 @@
         <v>674.86</v>
       </c>
       <c r="P141" s="20" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Q141" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R141" s="7"/>
       <c r="S141" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T141" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="U141" s="11"/>
       <c r="V141" s="7"/>
@@ -10718,7 +10718,7 @@
       <c r="V154" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+8uqFJVK6748xDKMq11nFoD7YY1ByTKqPRPEWNXVT6I40N9nSav0nIHARdLTSmHLmCQRStUVUniEDTqc/qXfTw==" saltValue="FY/QPsqHLYNmqS4KMCJLAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iFO4L4/s8770U0Z3bw/IOHNqVcTN/EuvhZJ9PuYasn945CKWFdHq/D1EodjfuekUSBGnzZ2WoG+1RvRybGUjhQ==" saltValue="iKmlkT8P5/GvxmciiOFQRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V141">
     <sortCondition ref="D2:D141"/>
     <sortCondition ref="B2:B141"/>
@@ -10773,16 +10773,16 @@
         <v>267</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>64</v>
@@ -10824,16 +10824,16 @@
         <v>268</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="U1" s="24" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="V1" s="31" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
@@ -10841,7 +10841,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C2" s="22">
         <v>11</v>
@@ -10880,10 +10880,10 @@
         <v>324</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="U2" s="11"/>
       <c r="V2" s="7"/>
@@ -10893,7 +10893,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C3" s="22">
         <v>12</v>
@@ -10932,20 +10932,20 @@
         <v>292</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="U3" s="11"/>
       <c r="V3" s="7"/>
     </row>
     <row r="4" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C4" s="22">
         <v>13</v>
@@ -10955,7 +10955,7 @@
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -10977,29 +10977,29 @@
         <v>10</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="T4" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="S4" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>487</v>
-      </c>
       <c r="U4" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="V4" s="7"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C5" s="22">
         <v>14</v>
@@ -11009,7 +11009,7 @@
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -11031,27 +11031,27 @@
         <v>135</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="T5" s="14" t="s">
         <v>492</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>493</v>
       </c>
       <c r="U5" s="11"/>
       <c r="V5" s="7"/>
     </row>
     <row r="6" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C6" s="22">
         <v>15</v>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -11083,27 +11083,27 @@
         <v>1910</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="14"/>
       <c r="S6" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T6" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C7" s="22">
         <v>16</v>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -11135,27 +11135,27 @@
         <v>3204</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T7" s="14"/>
       <c r="U7" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C8" s="22">
         <v>17</v>
@@ -11165,7 +11165,7 @@
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -11187,17 +11187,17 @@
         <v>133</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Q8" s="9"/>
       <c r="R8" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="T8" s="14" t="s">
         <v>505</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="T8" s="14" t="s">
-        <v>506</v>
       </c>
       <c r="U8" s="11"/>
       <c r="V8" s="7"/>
@@ -11207,7 +11207,7 @@
         <v>47</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C9" s="22">
         <v>18</v>
@@ -11239,17 +11239,17 @@
         <v>3576</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T9" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="U9" s="11"/>
       <c r="V9" s="7"/>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E116004-1F41-4256-8538-A22169BEC7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48B9EE0-05D0-404C-80A5-F64DCB96F1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="572">
   <si>
     <t>USAF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2169,6 +2169,31 @@
   </si>
   <si>
     <t>Y5808</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baruunturuun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>海南</t>
+  </si>
+  <si>
+    <t>海口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海口市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haikou</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2774,11 +2799,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
-  <dimension ref="A1:V154"/>
+  <dimension ref="A1:V155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="H132" sqref="H132"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4210,8 +4233,12 @@
       <c r="R28" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="S28" s="10"/>
-      <c r="T28" s="7"/>
+      <c r="S28" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>565</v>
+      </c>
       <c r="U28" s="11"/>
       <c r="V28" s="7"/>
     </row>
@@ -4719,7 +4746,7 @@
         <v>320</v>
       </c>
       <c r="S39" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="T39" s="7" t="s">
         <v>443</v>
@@ -8459,10 +8486,10 @@
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A106" s="7" t="s">
-        <v>3</v>
+        <v>566</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>464</v>
+        <v>567</v>
       </c>
       <c r="C106" s="22">
         <v>52</v>
@@ -8472,43 +8499,41 @@
       </c>
       <c r="E106" s="28"/>
       <c r="F106" s="7" t="s">
-        <v>124</v>
+        <v>568</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>168</v>
+        <v>570</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>219</v>
+        <v>126</v>
       </c>
       <c r="I106" s="7"/>
       <c r="J106" s="8">
-        <v>59948</v>
+        <v>59758</v>
       </c>
       <c r="K106" s="7">
         <v>99999</v>
       </c>
       <c r="L106" s="11"/>
       <c r="M106" s="17">
-        <v>18.216699999999999</v>
+        <v>19.9939</v>
       </c>
       <c r="N106" s="17">
-        <v>109.58329999999999</v>
+        <v>110.2469</v>
       </c>
       <c r="O106" s="34">
-        <v>419.4</v>
+        <v>63.5</v>
       </c>
       <c r="P106" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q106" s="9" t="s">
-        <v>388</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="Q106" s="9"/>
       <c r="R106" s="7"/>
       <c r="S106" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T106" s="7" t="s">
-        <v>434</v>
+        <v>571</v>
       </c>
       <c r="U106" s="11"/>
       <c r="V106" s="7"/>
@@ -8531,30 +8556,30 @@
         <v>124</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>126</v>
+        <v>219</v>
       </c>
       <c r="I107" s="7"/>
       <c r="J107" s="8">
-        <v>59838</v>
+        <v>59948</v>
       </c>
       <c r="K107" s="7">
         <v>99999</v>
       </c>
       <c r="L107" s="11"/>
       <c r="M107" s="17">
-        <v>19.094200000000001</v>
+        <v>18.216699999999999</v>
       </c>
       <c r="N107" s="17">
-        <v>108.6217</v>
+        <v>109.58329999999999</v>
       </c>
       <c r="O107" s="34">
-        <v>6.1</v>
+        <v>419.4</v>
       </c>
       <c r="P107" s="20" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="Q107" s="9" t="s">
         <v>388</v>
@@ -8564,7 +8589,7 @@
         <v>385</v>
       </c>
       <c r="T107" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U107" s="11"/>
       <c r="V107" s="7"/>
@@ -8584,50 +8609,48 @@
       </c>
       <c r="E108" s="28"/>
       <c r="F108" s="7" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="8">
-        <v>59431</v>
+        <v>59838</v>
       </c>
       <c r="K108" s="7">
         <v>99999</v>
       </c>
       <c r="L108" s="11"/>
       <c r="M108" s="17">
-        <v>22.783899999999999</v>
+        <v>19.094200000000001</v>
       </c>
       <c r="N108" s="17">
-        <v>108.5472</v>
+        <v>108.6217</v>
       </c>
       <c r="O108" s="34">
-        <v>152.1</v>
+        <v>6.1</v>
       </c>
       <c r="P108" s="20" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="Q108" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="R108" s="7" t="s">
-        <v>309</v>
-      </c>
+      <c r="R108" s="7"/>
       <c r="S108" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T108" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="U108" s="11"/>
       <c r="V108" s="7"/>
     </row>
-    <row r="109" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A109" s="7" t="s">
         <v>3</v>
       </c>
@@ -8642,50 +8665,50 @@
       </c>
       <c r="E109" s="28"/>
       <c r="F109" s="7" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="I109" s="7"/>
       <c r="J109" s="8">
-        <v>56966</v>
+        <v>59431</v>
       </c>
       <c r="K109" s="7">
         <v>99999</v>
       </c>
       <c r="L109" s="11"/>
       <c r="M109" s="17">
-        <v>23.632200000000001</v>
+        <v>22.783899999999999</v>
       </c>
       <c r="N109" s="17">
-        <v>101.9683</v>
+        <v>108.5472</v>
       </c>
       <c r="O109" s="34">
-        <v>506.8</v>
+        <v>152.1</v>
       </c>
       <c r="P109" s="20" t="s">
-        <v>35</v>
+        <v>191</v>
       </c>
       <c r="Q109" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R109" s="7" t="s">
-        <v>35</v>
+        <v>309</v>
       </c>
       <c r="S109" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T109" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U109" s="11"/>
       <c r="V109" s="7"/>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A110" s="7" t="s">
         <v>3</v>
       </c>
@@ -8703,42 +8726,42 @@
         <v>118</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="I110" s="7"/>
       <c r="J110" s="8">
-        <v>56778</v>
+        <v>56966</v>
       </c>
       <c r="K110" s="7">
         <v>99999</v>
       </c>
       <c r="L110" s="11"/>
       <c r="M110" s="17">
-        <v>25.0078</v>
+        <v>23.632200000000001</v>
       </c>
       <c r="N110" s="17">
-        <v>102.65309999999999</v>
+        <v>101.9683</v>
       </c>
       <c r="O110" s="34">
-        <v>1888.1</v>
+        <v>506.8</v>
       </c>
       <c r="P110" s="20" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="Q110" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R110" s="7" t="s">
-        <v>310</v>
+        <v>35</v>
       </c>
       <c r="S110" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T110" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="U110" s="11"/>
       <c r="V110" s="7"/>
@@ -8758,50 +8781,50 @@
       </c>
       <c r="E111" s="28"/>
       <c r="F111" s="7" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="I111" s="7"/>
       <c r="J111" s="8">
-        <v>57816</v>
+        <v>56778</v>
       </c>
       <c r="K111" s="7">
         <v>99999</v>
       </c>
       <c r="L111" s="11"/>
       <c r="M111" s="17">
-        <v>26.589700000000001</v>
+        <v>25.0078</v>
       </c>
       <c r="N111" s="17">
-        <v>106.72750000000001</v>
+        <v>102.65309999999999</v>
       </c>
       <c r="O111" s="34">
-        <v>1227.3</v>
+        <v>1888.1</v>
       </c>
       <c r="P111" s="20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q111" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R111" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S111" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T111" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="U111" s="11"/>
       <c r="V111" s="7"/>
     </row>
-    <row r="112" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A112" s="7" t="s">
         <v>3</v>
       </c>
@@ -8816,48 +8839,50 @@
       </c>
       <c r="E112" s="28"/>
       <c r="F112" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G112" s="7"/>
+        <v>175</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="H112" s="7" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="I112" s="7"/>
       <c r="J112" s="8">
-        <v>57516</v>
+        <v>57816</v>
       </c>
       <c r="K112" s="7">
         <v>99999</v>
       </c>
       <c r="L112" s="11"/>
       <c r="M112" s="17">
-        <v>29.604700000000001</v>
+        <v>26.589700000000001</v>
       </c>
       <c r="N112" s="17">
-        <v>106.4042</v>
+        <v>106.72750000000001</v>
       </c>
       <c r="O112" s="34">
-        <v>542.1</v>
+        <v>1227.3</v>
       </c>
       <c r="P112" s="20" t="s">
-        <v>466</v>
+        <v>177</v>
       </c>
       <c r="Q112" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R112" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S112" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T112" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="U112" s="11"/>
       <c r="V112" s="7"/>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A113" s="7" t="s">
         <v>3</v>
       </c>
@@ -8872,42 +8897,44 @@
       </c>
       <c r="E113" s="28"/>
       <c r="F113" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>531</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G113" s="7"/>
       <c r="H113" s="7" t="s">
-        <v>532</v>
+        <v>129</v>
       </c>
       <c r="I113" s="7"/>
       <c r="J113" s="8">
-        <v>57413</v>
+        <v>57516</v>
       </c>
       <c r="K113" s="7">
         <v>99999</v>
       </c>
       <c r="L113" s="11"/>
       <c r="M113" s="17">
-        <v>30.856400000000001</v>
+        <v>29.604700000000001</v>
       </c>
       <c r="N113" s="17">
-        <v>106.9983</v>
+        <v>106.4042</v>
       </c>
       <c r="O113" s="34">
-        <v>305.7</v>
+        <v>542.1</v>
       </c>
       <c r="P113" s="20" t="s">
-        <v>532</v>
+        <v>466</v>
       </c>
       <c r="Q113" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R113" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="S113" s="10"/>
-      <c r="T113" s="7"/>
+        <v>312</v>
+      </c>
+      <c r="S113" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="T113" s="7" t="s">
+        <v>440</v>
+      </c>
       <c r="U113" s="11"/>
       <c r="V113" s="7"/>
     </row>
@@ -8929,46 +8956,40 @@
         <v>135</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>136</v>
+        <v>531</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>137</v>
+        <v>532</v>
       </c>
       <c r="I114" s="7"/>
       <c r="J114" s="8">
-        <v>56187</v>
+        <v>57413</v>
       </c>
       <c r="K114" s="7">
         <v>99999</v>
       </c>
       <c r="L114" s="11"/>
       <c r="M114" s="17">
-        <v>30.748899999999999</v>
+        <v>30.856400000000001</v>
       </c>
       <c r="N114" s="17">
-        <v>103.861</v>
+        <v>106.9983</v>
       </c>
       <c r="O114" s="34">
-        <v>547.70000000000005</v>
+        <v>305.7</v>
       </c>
       <c r="P114" s="20" t="s">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="Q114" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R114" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="S114" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="T114" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="U114" s="11" t="s">
-        <v>471</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="S114" s="10"/>
+      <c r="T114" s="7"/>
+      <c r="U114" s="11"/>
       <c r="V114" s="7"/>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.4">
@@ -8986,47 +9007,49 @@
       </c>
       <c r="E115" s="28"/>
       <c r="F115" s="7" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="I115" s="7"/>
       <c r="J115" s="8">
-        <v>55591</v>
+        <v>56187</v>
       </c>
       <c r="K115" s="7">
         <v>99999</v>
       </c>
       <c r="L115" s="11"/>
       <c r="M115" s="17">
-        <v>29.6586</v>
+        <v>30.748899999999999</v>
       </c>
       <c r="N115" s="17">
-        <v>91.135300000000001</v>
+        <v>103.861</v>
       </c>
       <c r="O115" s="34">
-        <v>3648.7</v>
+        <v>547.70000000000005</v>
       </c>
       <c r="P115" s="20" t="s">
-        <v>171</v>
+        <v>467</v>
       </c>
       <c r="Q115" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R115" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S115" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T115" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="U115" s="11"/>
+        <v>441</v>
+      </c>
+      <c r="U115" s="11" t="s">
+        <v>471</v>
+      </c>
       <c r="V115" s="7"/>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.4">
@@ -9044,42 +9067,46 @@
       </c>
       <c r="E116" s="28"/>
       <c r="F116" s="7" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="I116" s="7"/>
       <c r="J116" s="8">
-        <v>52267</v>
+        <v>55591</v>
       </c>
       <c r="K116" s="7">
         <v>99999</v>
       </c>
       <c r="L116" s="11"/>
       <c r="M116" s="17">
-        <v>41.956899999999997</v>
+        <v>29.6586</v>
       </c>
       <c r="N116" s="17">
-        <v>101.0611</v>
+        <v>91.135300000000001</v>
       </c>
       <c r="O116" s="34">
-        <v>939</v>
+        <v>3648.7</v>
       </c>
       <c r="P116" s="20" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="Q116" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R116" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="S116" s="10"/>
-      <c r="T116" s="7"/>
+        <v>314</v>
+      </c>
+      <c r="S116" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="T116" s="7" t="s">
+        <v>442</v>
+      </c>
       <c r="U116" s="11"/>
       <c r="V116" s="7"/>
     </row>
@@ -9096,42 +9123,42 @@
       <c r="D117" s="25">
         <v>116</v>
       </c>
-      <c r="E117" s="28">
-        <v>0</v>
-      </c>
+      <c r="E117" s="28"/>
       <c r="F117" s="7" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="8">
-        <v>53478</v>
+        <v>52267</v>
       </c>
       <c r="K117" s="7">
         <v>99999</v>
       </c>
       <c r="L117" s="11"/>
       <c r="M117" s="17">
-        <v>39.994199999999999</v>
+        <v>41.956899999999997</v>
       </c>
       <c r="N117" s="17">
-        <v>112.4603</v>
+        <v>101.0611</v>
       </c>
       <c r="O117" s="34">
-        <v>1345.8</v>
+        <v>939</v>
       </c>
       <c r="P117" s="20" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="Q117" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="R117" s="7"/>
+      <c r="R117" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="S117" s="10"/>
       <c r="T117" s="7"/>
       <c r="U117" s="11"/>
@@ -9150,40 +9177,42 @@
       <c r="D118" s="25">
         <v>117</v>
       </c>
-      <c r="E118" s="28"/>
+      <c r="E118" s="28">
+        <v>0</v>
+      </c>
       <c r="F118" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G118" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="H118" s="7" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="I118" s="7"/>
       <c r="J118" s="8">
-        <v>58367</v>
+        <v>53478</v>
       </c>
       <c r="K118" s="7">
         <v>99999</v>
       </c>
       <c r="L118" s="11"/>
       <c r="M118" s="17">
-        <v>31.1922</v>
+        <v>39.994199999999999</v>
       </c>
       <c r="N118" s="17">
-        <v>121.43170000000001</v>
+        <v>112.4603</v>
       </c>
       <c r="O118" s="34">
-        <v>2</v>
+        <v>1345.8</v>
       </c>
       <c r="P118" s="20" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="Q118" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="R118" s="7" t="s">
-        <v>303</v>
-      </c>
+      <c r="R118" s="7"/>
       <c r="S118" s="10"/>
       <c r="T118" s="7"/>
       <c r="U118" s="11"/>
@@ -9204,39 +9233,37 @@
       </c>
       <c r="E119" s="28"/>
       <c r="F119" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>117</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G119" s="7"/>
       <c r="H119" s="7" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="I119" s="7"/>
       <c r="J119" s="8">
-        <v>58826</v>
+        <v>58367</v>
       </c>
       <c r="K119" s="7">
         <v>99999</v>
       </c>
       <c r="L119" s="11"/>
       <c r="M119" s="17">
-        <v>26.391100000000002</v>
+        <v>31.1922</v>
       </c>
       <c r="N119" s="17">
-        <v>117.8069</v>
+        <v>121.43170000000001</v>
       </c>
       <c r="O119" s="34">
-        <v>120.7</v>
+        <v>2</v>
       </c>
       <c r="P119" s="20" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="Q119" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R119" s="7" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="S119" s="10"/>
       <c r="T119" s="7"/>
@@ -9258,39 +9285,39 @@
       </c>
       <c r="E120" s="28"/>
       <c r="F120" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="I120" s="7"/>
       <c r="J120" s="8">
-        <v>58637</v>
+        <v>58826</v>
       </c>
       <c r="K120" s="7">
         <v>99999</v>
       </c>
       <c r="L120" s="11"/>
       <c r="M120" s="17">
-        <v>28.442799999999998</v>
+        <v>26.391100000000002</v>
       </c>
       <c r="N120" s="17">
-        <v>117.97669999999999</v>
+        <v>117.8069</v>
       </c>
       <c r="O120" s="34">
-        <v>118.5</v>
+        <v>120.7</v>
       </c>
       <c r="P120" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q120" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R120" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S120" s="10"/>
       <c r="T120" s="7"/>
@@ -9312,39 +9339,39 @@
       </c>
       <c r="E121" s="28"/>
       <c r="F121" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="8">
-        <v>57778</v>
+        <v>58637</v>
       </c>
       <c r="K121" s="7">
         <v>99999</v>
       </c>
       <c r="L121" s="11"/>
       <c r="M121" s="17">
-        <v>27.052499999999998</v>
+        <v>28.442799999999998</v>
       </c>
       <c r="N121" s="17">
-        <v>112.9847</v>
+        <v>117.97669999999999</v>
       </c>
       <c r="O121" s="34">
-        <v>109.4</v>
+        <v>118.5</v>
       </c>
       <c r="P121" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q121" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R121" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S121" s="10"/>
       <c r="T121" s="7"/>
@@ -9352,7 +9379,7 @@
       <c r="V121" s="7"/>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B122" s="22" t="s">
@@ -9365,50 +9392,48 @@
         <v>121</v>
       </c>
       <c r="E122" s="28"/>
-      <c r="F122" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="G122" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="H122" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="I122" s="14"/>
+      <c r="F122" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I122" s="7"/>
       <c r="J122" s="8">
-        <v>52889</v>
-      </c>
-      <c r="K122" s="14">
+        <v>57778</v>
+      </c>
+      <c r="K122" s="7">
         <v>99999</v>
       </c>
-      <c r="L122" s="15"/>
-      <c r="M122" s="18">
-        <v>36.043900000000001</v>
-      </c>
-      <c r="N122" s="18">
-        <v>103.87779999999999</v>
-      </c>
-      <c r="O122" s="33">
-        <v>1517.2</v>
-      </c>
-      <c r="P122" s="13" t="s">
-        <v>207</v>
+      <c r="L122" s="11"/>
+      <c r="M122" s="17">
+        <v>27.052499999999998</v>
+      </c>
+      <c r="N122" s="17">
+        <v>112.9847</v>
+      </c>
+      <c r="O122" s="34">
+        <v>109.4</v>
+      </c>
+      <c r="P122" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="Q122" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="R122" s="14" t="s">
-        <v>299</v>
+      <c r="R122" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="S122" s="10"/>
-      <c r="T122" s="14"/>
-      <c r="U122" s="11" t="s">
-        <v>472</v>
-      </c>
+      <c r="T122" s="7"/>
+      <c r="U122" s="11"/>
       <c r="V122" s="7"/>
     </row>
-    <row r="123" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A123" s="7" t="s">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A123" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B123" s="22" t="s">
@@ -9421,43 +9446,45 @@
         <v>122</v>
       </c>
       <c r="E123" s="28"/>
-      <c r="F123" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I123" s="7"/>
+      <c r="F123" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H123" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I123" s="14"/>
       <c r="J123" s="8">
-        <v>50341</v>
-      </c>
-      <c r="K123" s="7">
+        <v>52889</v>
+      </c>
+      <c r="K123" s="14">
         <v>99999</v>
       </c>
-      <c r="L123" s="11"/>
-      <c r="M123" s="17">
-        <v>51.683300000000003</v>
-      </c>
-      <c r="N123" s="17">
-        <v>123.61669999999999</v>
+      <c r="L123" s="15"/>
+      <c r="M123" s="18">
+        <v>36.043900000000001</v>
+      </c>
+      <c r="N123" s="18">
+        <v>103.87779999999999</v>
       </c>
       <c r="O123" s="33">
-        <v>654</v>
-      </c>
-      <c r="P123" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q123" s="9"/>
-      <c r="R123" s="7" t="s">
-        <v>371</v>
+        <v>1517.2</v>
+      </c>
+      <c r="P123" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q123" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="R123" s="14" t="s">
+        <v>299</v>
       </c>
       <c r="S123" s="10"/>
-      <c r="T123" s="7"/>
+      <c r="T123" s="14"/>
       <c r="U123" s="11" t="s">
-        <v>510</v>
+        <v>472</v>
       </c>
       <c r="V123" s="7"/>
     </row>
@@ -9482,36 +9509,40 @@
         <v>54</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="I124" s="7"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="7"/>
-      <c r="L124" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="M124" s="18">
-        <v>52.839700000000001</v>
-      </c>
-      <c r="N124" s="18">
-        <v>123.17140000000001</v>
+      <c r="J124" s="8">
+        <v>50341</v>
+      </c>
+      <c r="K124" s="7">
+        <v>99999</v>
+      </c>
+      <c r="L124" s="11"/>
+      <c r="M124" s="17">
+        <v>51.683300000000003</v>
+      </c>
+      <c r="N124" s="17">
+        <v>123.61669999999999</v>
       </c>
       <c r="O124" s="33">
-        <v>507.5</v>
+        <v>654</v>
       </c>
       <c r="P124" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q124" s="9"/>
       <c r="R124" s="7" t="s">
-        <v>283</v>
+        <v>371</v>
       </c>
       <c r="S124" s="10"/>
       <c r="T124" s="7"/>
-      <c r="U124" s="11"/>
+      <c r="U124" s="11" t="s">
+        <v>510</v>
+      </c>
       <c r="V124" s="7"/>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A125" s="7" t="s">
         <v>3</v>
       </c>
@@ -9526,37 +9557,35 @@
       </c>
       <c r="E125" s="28"/>
       <c r="F125" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I125" s="7" t="s">
-        <v>479</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="I125" s="7"/>
       <c r="J125" s="8"/>
       <c r="K125" s="7"/>
       <c r="L125" s="11" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
       <c r="M125" s="18">
-        <v>51.3264</v>
+        <v>52.839700000000001</v>
       </c>
       <c r="N125" s="18">
-        <v>119.8869</v>
+        <v>123.17140000000001</v>
       </c>
       <c r="O125" s="33">
-        <v>496.2</v>
+        <v>507.5</v>
       </c>
       <c r="P125" s="20" t="s">
-        <v>477</v>
+        <v>370</v>
       </c>
       <c r="Q125" s="9"/>
       <c r="R125" s="7" t="s">
-        <v>478</v>
+        <v>283</v>
       </c>
       <c r="S125" s="10"/>
       <c r="T125" s="7"/>
@@ -9584,21 +9613,31 @@
         <v>57</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I126" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>479</v>
+      </c>
       <c r="J126" s="8"/>
       <c r="K126" s="7"/>
-      <c r="L126" s="11"/>
-      <c r="M126" s="18"/>
-      <c r="N126" s="18"/>
-      <c r="O126" s="33"/>
+      <c r="L126" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="M126" s="18">
+        <v>51.3264</v>
+      </c>
+      <c r="N126" s="18">
+        <v>119.8869</v>
+      </c>
+      <c r="O126" s="33">
+        <v>496.2</v>
+      </c>
       <c r="P126" s="20" t="s">
-        <v>368</v>
+        <v>477</v>
       </c>
       <c r="Q126" s="9"/>
       <c r="R126" s="7" t="s">
-        <v>280</v>
+        <v>478</v>
       </c>
       <c r="S126" s="10"/>
       <c r="T126" s="7"/>
@@ -9626,25 +9665,17 @@
         <v>57</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I127" s="7"/>
       <c r="J127" s="8"/>
       <c r="K127" s="7"/>
-      <c r="L127" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="M127" s="18">
-        <v>52.6633</v>
-      </c>
-      <c r="N127" s="18">
-        <v>120.82470000000001</v>
-      </c>
-      <c r="O127" s="33">
-        <v>430</v>
-      </c>
+      <c r="L127" s="11"/>
+      <c r="M127" s="18"/>
+      <c r="N127" s="18"/>
+      <c r="O127" s="33"/>
       <c r="P127" s="20" t="s">
-        <v>529</v>
+        <v>368</v>
       </c>
       <c r="Q127" s="9"/>
       <c r="R127" s="7" t="s">
@@ -9652,12 +9683,10 @@
       </c>
       <c r="S127" s="10"/>
       <c r="T127" s="7"/>
-      <c r="U127" s="11" t="s">
-        <v>510</v>
-      </c>
+      <c r="U127" s="11"/>
       <c r="V127" s="7"/>
     </row>
-    <row r="128" spans="1:22" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A128" s="7" t="s">
         <v>3</v>
       </c>
@@ -9672,44 +9701,44 @@
       </c>
       <c r="E128" s="28"/>
       <c r="F128" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="I128" s="7" t="s">
-        <v>381</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I128" s="7"/>
       <c r="J128" s="8"/>
       <c r="K128" s="7"/>
       <c r="L128" s="11" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M128" s="18">
-        <v>48.584200000000003</v>
+        <v>52.6633</v>
       </c>
       <c r="N128" s="18">
-        <v>87.457800000000006</v>
+        <v>120.82470000000001</v>
       </c>
       <c r="O128" s="33">
-        <v>1223</v>
+        <v>430</v>
       </c>
       <c r="P128" s="20" t="s">
-        <v>378</v>
+        <v>529</v>
       </c>
       <c r="Q128" s="9"/>
       <c r="R128" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="S128" s="10"/>
       <c r="T128" s="7"/>
-      <c r="U128" s="11"/>
+      <c r="U128" s="11" t="s">
+        <v>510</v>
+      </c>
       <c r="V128" s="7"/>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:22" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A129" s="7" t="s">
         <v>3</v>
       </c>
@@ -9730,27 +9759,27 @@
         <v>74</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="J129" s="8"/>
       <c r="K129" s="7"/>
       <c r="L129" s="11" t="s">
-        <v>380</v>
+        <v>525</v>
       </c>
       <c r="M129" s="18">
-        <v>47.027200000000001</v>
+        <v>48.584200000000003</v>
       </c>
       <c r="N129" s="18">
-        <v>89.797499999999999</v>
+        <v>87.457800000000006</v>
       </c>
       <c r="O129" s="33">
-        <v>1333</v>
+        <v>1223</v>
       </c>
       <c r="P129" s="20" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="Q129" s="9"/>
       <c r="R129" s="7" t="s">
@@ -9782,25 +9811,27 @@
         <v>74</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I130" s="7"/>
+        <v>365</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>366</v>
+      </c>
       <c r="J130" s="8"/>
       <c r="K130" s="7"/>
       <c r="L130" s="11" t="s">
-        <v>526</v>
+        <v>380</v>
       </c>
       <c r="M130" s="18">
-        <v>46.801099999999998</v>
+        <v>47.027200000000001</v>
       </c>
       <c r="N130" s="18">
-        <v>90.88</v>
+        <v>89.797499999999999</v>
       </c>
       <c r="O130" s="33">
-        <v>2640</v>
+        <v>1333</v>
       </c>
       <c r="P130" s="20" t="s">
-        <v>527</v>
+        <v>366</v>
       </c>
       <c r="Q130" s="9"/>
       <c r="R130" s="7" t="s">
@@ -9808,12 +9839,10 @@
       </c>
       <c r="S130" s="10"/>
       <c r="T130" s="7"/>
-      <c r="U130" s="11" t="s">
-        <v>510</v>
-      </c>
+      <c r="U130" s="11"/>
       <c r="V130" s="7"/>
     </row>
-    <row r="131" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A131" s="7" t="s">
         <v>3</v>
       </c>
@@ -9831,94 +9860,90 @@
         <v>69</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I131" s="7" t="s">
-        <v>367</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I131" s="7"/>
       <c r="J131" s="8"/>
       <c r="K131" s="7"/>
       <c r="L131" s="11" t="s">
-        <v>564</v>
+        <v>526</v>
       </c>
       <c r="M131" s="18">
-        <v>42.828800000000001</v>
+        <v>46.801099999999998</v>
       </c>
       <c r="N131" s="18">
-        <v>83.716099999999997</v>
+        <v>90.88</v>
       </c>
       <c r="O131" s="33">
-        <v>2465</v>
+        <v>2640</v>
       </c>
       <c r="P131" s="20" t="s">
-        <v>367</v>
+        <v>527</v>
       </c>
       <c r="Q131" s="9"/>
       <c r="R131" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S131" s="10"/>
       <c r="T131" s="7"/>
-      <c r="U131" s="11"/>
+      <c r="U131" s="11" t="s">
+        <v>510</v>
+      </c>
       <c r="V131" s="7"/>
     </row>
     <row r="132" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A132" s="7" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B132" s="22" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="C132" s="22">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="D132" s="25">
         <v>131</v>
       </c>
       <c r="E132" s="28"/>
       <c r="F132" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
-      <c r="I132" s="7"/>
-      <c r="J132" s="8">
-        <v>31137</v>
-      </c>
-      <c r="K132" s="7">
-        <v>99999</v>
-      </c>
-      <c r="L132" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="J132" s="8"/>
+      <c r="K132" s="7"/>
+      <c r="L132" s="11" t="s">
+        <v>564</v>
+      </c>
       <c r="M132" s="18">
-        <v>56.283333300000002</v>
+        <v>42.828800000000001</v>
       </c>
       <c r="N132" s="18">
-        <v>131.1333333</v>
+        <v>83.716099999999997</v>
       </c>
       <c r="O132" s="33">
-        <v>850</v>
+        <v>2465</v>
       </c>
       <c r="P132" s="20" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q132" s="9" t="s">
-        <v>389</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="Q132" s="9"/>
       <c r="R132" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="S132" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="T132" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="U132" s="11" t="s">
-        <v>481</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="S132" s="10"/>
+      <c r="T132" s="7"/>
+      <c r="U132" s="11"/>
       <c r="V132" s="7"/>
     </row>
     <row r="133" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
@@ -9929,7 +9954,7 @@
         <v>480</v>
       </c>
       <c r="C133" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133" s="25">
         <v>132</v>
@@ -9942,42 +9967,42 @@
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
       <c r="J133" s="8">
-        <v>24688</v>
+        <v>31137</v>
       </c>
       <c r="K133" s="7">
         <v>99999</v>
       </c>
       <c r="L133" s="11"/>
       <c r="M133" s="18">
-        <v>63.25</v>
+        <v>56.283333300000002</v>
       </c>
       <c r="N133" s="18">
-        <v>143.15</v>
+        <v>131.1333333</v>
       </c>
       <c r="O133" s="33">
-        <v>741</v>
+        <v>850</v>
       </c>
       <c r="P133" s="20" t="s">
-        <v>51</v>
+        <v>544</v>
       </c>
       <c r="Q133" s="9" t="s">
         <v>389</v>
       </c>
       <c r="R133" s="7" t="s">
-        <v>560</v>
+        <v>326</v>
       </c>
       <c r="S133" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T133" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="U133" s="11" t="s">
         <v>481</v>
       </c>
       <c r="V133" s="7"/>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A134" s="7" t="s">
         <v>42</v>
       </c>
@@ -9985,7 +10010,7 @@
         <v>480</v>
       </c>
       <c r="C134" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D134" s="25">
         <v>133</v>
@@ -9998,37 +10023,39 @@
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
       <c r="J134" s="8">
-        <v>24585</v>
+        <v>24688</v>
       </c>
       <c r="K134" s="7">
         <v>99999</v>
       </c>
       <c r="L134" s="11"/>
       <c r="M134" s="18">
-        <v>64.55</v>
+        <v>63.25</v>
       </c>
       <c r="N134" s="18">
-        <v>144.4</v>
+        <v>143.15</v>
       </c>
       <c r="O134" s="33">
-        <v>518.52</v>
+        <v>741</v>
       </c>
       <c r="P134" s="20" t="s">
-        <v>542</v>
+        <v>51</v>
       </c>
       <c r="Q134" s="9" t="s">
         <v>389</v>
       </c>
       <c r="R134" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="S134" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T134" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="U134" s="11"/>
+        <v>457</v>
+      </c>
+      <c r="U134" s="11" t="s">
+        <v>481</v>
+      </c>
       <c r="V134" s="7"/>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.4">
@@ -10039,7 +10066,7 @@
         <v>480</v>
       </c>
       <c r="C135" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D135" s="25">
         <v>134</v>
@@ -10052,35 +10079,35 @@
       <c r="H135" s="7"/>
       <c r="I135" s="7"/>
       <c r="J135" s="8">
-        <v>24588</v>
+        <v>24585</v>
       </c>
       <c r="K135" s="7">
         <v>99999</v>
       </c>
       <c r="L135" s="11"/>
       <c r="M135" s="18">
-        <v>64.05</v>
+        <v>64.55</v>
       </c>
       <c r="N135" s="18">
-        <v>141.8833333</v>
+        <v>144.4</v>
       </c>
       <c r="O135" s="33">
-        <v>589.71</v>
+        <v>518.52</v>
       </c>
       <c r="P135" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q135" s="9" t="s">
         <v>389</v>
       </c>
       <c r="R135" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="S135" s="10" t="s">
         <v>386</v>
       </c>
       <c r="T135" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U135" s="11"/>
       <c r="V135" s="7"/>
@@ -10093,7 +10120,7 @@
         <v>480</v>
       </c>
       <c r="C136" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D136" s="25">
         <v>135</v>
@@ -10106,35 +10133,35 @@
       <c r="H136" s="7"/>
       <c r="I136" s="7"/>
       <c r="J136" s="8">
-        <v>24691</v>
+        <v>24588</v>
       </c>
       <c r="K136" s="7">
         <v>99999</v>
       </c>
       <c r="L136" s="11"/>
       <c r="M136" s="18">
-        <v>63.8333333</v>
+        <v>64.05</v>
       </c>
       <c r="N136" s="18">
-        <v>145.6</v>
+        <v>141.8833333</v>
       </c>
       <c r="O136" s="33">
-        <v>800.92</v>
+        <v>589.71</v>
       </c>
       <c r="P136" s="20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="Q136" s="9" t="s">
         <v>389</v>
       </c>
       <c r="R136" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="S136" s="10" t="s">
         <v>386</v>
       </c>
       <c r="T136" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="U136" s="11"/>
       <c r="V136" s="7"/>
@@ -10147,7 +10174,7 @@
         <v>480</v>
       </c>
       <c r="C137" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D137" s="25">
         <v>136</v>
@@ -10160,35 +10187,35 @@
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
       <c r="J137" s="8">
-        <v>24266</v>
+        <v>24691</v>
       </c>
       <c r="K137" s="7">
         <v>99999</v>
       </c>
       <c r="L137" s="11"/>
       <c r="M137" s="18">
-        <v>67.566666600000005</v>
+        <v>63.8333333</v>
       </c>
       <c r="N137" s="18">
-        <v>133.4</v>
+        <v>145.6</v>
       </c>
       <c r="O137" s="33">
-        <v>138</v>
+        <v>800.92</v>
       </c>
       <c r="P137" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="Q137" s="9" t="s">
         <v>389</v>
       </c>
       <c r="R137" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="S137" s="10" t="s">
         <v>386</v>
       </c>
       <c r="T137" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="U137" s="11"/>
       <c r="V137" s="7"/>
@@ -10201,7 +10228,7 @@
         <v>480</v>
       </c>
       <c r="C138" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D138" s="25">
         <v>137</v>
@@ -10214,38 +10241,40 @@
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
       <c r="J138" s="8">
-        <v>24684</v>
+        <v>24266</v>
       </c>
       <c r="K138" s="7">
         <v>99999</v>
       </c>
       <c r="L138" s="11"/>
       <c r="M138" s="18">
-        <v>63.3333333</v>
+        <v>67.566666600000005</v>
       </c>
       <c r="N138" s="18">
-        <v>141.7333333</v>
+        <v>133.4</v>
       </c>
       <c r="O138" s="33">
-        <v>776.93</v>
+        <v>138</v>
       </c>
       <c r="P138" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q138" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="R138" s="7"/>
+      <c r="R138" s="7" t="s">
+        <v>561</v>
+      </c>
       <c r="S138" s="10" t="s">
         <v>386</v>
       </c>
       <c r="T138" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U138" s="11"/>
       <c r="V138" s="7"/>
     </row>
-    <row r="139" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A139" s="7" t="s">
         <v>42</v>
       </c>
@@ -10253,7 +10282,7 @@
         <v>480</v>
       </c>
       <c r="C139" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D139" s="25">
         <v>138</v>
@@ -10266,40 +10295,38 @@
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
       <c r="J139" s="8">
-        <v>24382</v>
+        <v>24684</v>
       </c>
       <c r="K139" s="7">
         <v>99999</v>
       </c>
       <c r="L139" s="11"/>
       <c r="M139" s="18">
-        <v>66.45</v>
+        <v>63.3333333</v>
       </c>
       <c r="N139" s="18">
-        <v>143.2333333</v>
+        <v>141.7333333</v>
       </c>
       <c r="O139" s="33">
-        <v>196</v>
+        <v>776.93</v>
       </c>
       <c r="P139" s="20" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="Q139" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="R139" s="7" t="s">
-        <v>563</v>
-      </c>
+      <c r="R139" s="7"/>
       <c r="S139" s="10" t="s">
         <v>386</v>
       </c>
       <c r="T139" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U139" s="11"/>
       <c r="V139" s="7"/>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A140" s="7" t="s">
         <v>42</v>
       </c>
@@ -10307,7 +10334,7 @@
         <v>480</v>
       </c>
       <c r="C140" s="22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D140" s="25">
         <v>139</v>
@@ -10320,35 +10347,35 @@
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
       <c r="J140" s="8">
-        <v>24959</v>
+        <v>24382</v>
       </c>
       <c r="K140" s="7">
         <v>99999</v>
       </c>
       <c r="L140" s="11"/>
       <c r="M140" s="18">
-        <v>62.016666600000001</v>
+        <v>66.45</v>
       </c>
       <c r="N140" s="18">
-        <v>129.7166666</v>
+        <v>143.2333333</v>
       </c>
       <c r="O140" s="33">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="P140" s="20" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="Q140" s="9" t="s">
         <v>389</v>
       </c>
       <c r="R140" s="7" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="S140" s="10" t="s">
         <v>386</v>
       </c>
       <c r="T140" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="U140" s="11"/>
       <c r="V140" s="7"/>
@@ -10361,7 +10388,7 @@
         <v>480</v>
       </c>
       <c r="C141" s="22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D141" s="25">
         <v>140</v>
@@ -10374,58 +10401,88 @@
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
       <c r="J141" s="8">
-        <v>24477</v>
+        <v>24959</v>
       </c>
       <c r="K141" s="7">
         <v>99999</v>
       </c>
       <c r="L141" s="11"/>
       <c r="M141" s="18">
-        <v>65.3</v>
+        <v>62.016666600000001</v>
       </c>
       <c r="N141" s="18">
-        <v>135.80000000000001</v>
+        <v>129.7166666</v>
       </c>
       <c r="O141" s="33">
-        <v>674.86</v>
+        <v>101</v>
       </c>
       <c r="P141" s="20" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="Q141" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="R141" s="7"/>
+      <c r="R141" s="7" t="s">
+        <v>549</v>
+      </c>
       <c r="S141" s="10" t="s">
         <v>386</v>
       </c>
       <c r="T141" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="U141" s="11"/>
       <c r="V141" s="7"/>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A142" s="14"/>
-      <c r="B142" s="22"/>
-      <c r="C142" s="22"/>
-      <c r="D142" s="25"/>
+      <c r="A142" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B142" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="C142" s="22">
+        <v>10</v>
+      </c>
+      <c r="D142" s="25">
+        <v>141</v>
+      </c>
       <c r="E142" s="28"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="14"/>
-      <c r="I142" s="14"/>
-      <c r="J142" s="8"/>
-      <c r="K142" s="14"/>
-      <c r="L142" s="15"/>
-      <c r="M142" s="18"/>
-      <c r="N142" s="18"/>
-      <c r="O142" s="33"/>
-      <c r="P142" s="20"/>
-      <c r="Q142" s="9"/>
-      <c r="R142" s="14"/>
-      <c r="S142" s="10"/>
-      <c r="T142" s="14"/>
+      <c r="F142" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
+      <c r="J142" s="8">
+        <v>24477</v>
+      </c>
+      <c r="K142" s="7">
+        <v>99999</v>
+      </c>
+      <c r="L142" s="11"/>
+      <c r="M142" s="18">
+        <v>65.3</v>
+      </c>
+      <c r="N142" s="18">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="O142" s="33">
+        <v>674.86</v>
+      </c>
+      <c r="P142" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q142" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="R142" s="7"/>
+      <c r="S142" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="T142" s="7" t="s">
+        <v>559</v>
+      </c>
       <c r="U142" s="11"/>
       <c r="V142" s="7"/>
     </row>
@@ -10717,17 +10774,41 @@
       <c r="U154" s="11"/>
       <c r="V154" s="7"/>
     </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A155" s="14"/>
+      <c r="B155" s="22"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="28"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="14"/>
+      <c r="H155" s="14"/>
+      <c r="I155" s="14"/>
+      <c r="J155" s="8"/>
+      <c r="K155" s="14"/>
+      <c r="L155" s="15"/>
+      <c r="M155" s="18"/>
+      <c r="N155" s="18"/>
+      <c r="O155" s="33"/>
+      <c r="P155" s="20"/>
+      <c r="Q155" s="9"/>
+      <c r="R155" s="14"/>
+      <c r="S155" s="10"/>
+      <c r="T155" s="14"/>
+      <c r="U155" s="11"/>
+      <c r="V155" s="7"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iFO4L4/s8770U0Z3bw/IOHNqVcTN/EuvhZJ9PuYasn945CKWFdHq/D1EodjfuekUSBGnzZ2WoG+1RvRybGUjhQ==" saltValue="iKmlkT8P5/GvxmciiOFQRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V141">
-    <sortCondition ref="D2:D141"/>
-    <sortCondition ref="B2:B141"/>
-    <sortCondition ref="C2:C141"/>
-    <sortCondition ref="F2:F141"/>
-    <sortCondition ref="G2:G141"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lxc2gTfHDCx7Y6aFzUs5ACGUfI0J35HTT/iLHuuQkk1cgUCtzide4iaxlgnb92FqoqfSbPtaojzIRvmkomBpVg==" saltValue="GJ2ctdCmt5I2lf7QKJp33g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V142">
+    <sortCondition ref="D2:D142"/>
+    <sortCondition ref="B2:B142"/>
+    <sortCondition ref="C2:C142"/>
+    <sortCondition ref="F2:F142"/>
+    <sortCondition ref="G2:G142"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:V154">
+  <conditionalFormatting sqref="A2:V155">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>IF(MOD(ROW(), 2), 0, 1)</formula>
     </cfRule>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48B9EE0-05D0-404C-80A5-F64DCB96F1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214733A2-A32E-434F-8040-359EC8FD5C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="578">
   <si>
     <t>USAF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2194,6 +2194,30 @@
   </si>
   <si>
     <t>Haikou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>乌斯季卡连加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rp5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ust-Karenga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度稍微超标
+翻版谢列姆贾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯后贝加尔边疆区【乌斯季卡连加】北纬54.45°，海拔686米。91-20十二月平均气温 -31.7℃，一月平均气温 -32.3℃，一月平均低温约-39.4℃，一月平均高温约-23.8℃，七月平均气温 17℃，年平均气温 -5.9℃。历史极端冷月均温 -40.0℃(1960-01)，极端低温 -56.9℃(1987-01-09)，极端高温 38.0℃(1976-07-17)，一月极端高温 -5.0℃(1958-01-04, 1974-01-02)，七月极端低温 -2.8℃(1987-07-01, 1990-07-24)。1986/1987冬至少有17天低温低于-50℃。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2799,9 +2823,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
-  <dimension ref="A1:V155"/>
+  <dimension ref="A1:V156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5028,10 +5054,10 @@
     </row>
     <row r="45" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
-        <v>42</v>
+        <v>263</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>462</v>
+        <v>572</v>
       </c>
       <c r="C45" s="22">
         <v>7</v>
@@ -5039,52 +5065,54 @@
       <c r="D45" s="25">
         <v>44</v>
       </c>
-      <c r="E45" s="28">
-        <v>0</v>
-      </c>
+      <c r="E45" s="28"/>
       <c r="F45" s="7" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="8">
-        <v>30664</v>
+        <v>30565</v>
       </c>
       <c r="K45" s="7">
         <v>99999</v>
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="18">
-        <v>53.533333300000002</v>
+        <v>54.45</v>
       </c>
       <c r="N45" s="18">
-        <v>115.6166666</v>
+        <v>116.517</v>
       </c>
       <c r="O45" s="33">
-        <v>811</v>
+        <v>686</v>
       </c>
       <c r="P45" s="20" t="s">
-        <v>44</v>
+        <v>573</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R45" s="7" t="s">
         <v>325</v>
       </c>
       <c r="S45" s="10" t="s">
-        <v>385</v>
+        <v>574</v>
       </c>
       <c r="T45" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="U45" s="11"/>
-      <c r="V45" s="7"/>
+        <v>575</v>
+      </c>
+      <c r="U45" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="V45" s="7" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="46" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="B46" s="22" t="s">
         <v>462</v>
@@ -5099,39 +5127,41 @@
         <v>0</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>254</v>
+        <v>154</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="8">
-        <v>30636</v>
+        <v>30664</v>
       </c>
       <c r="K46" s="7">
         <v>99999</v>
       </c>
       <c r="L46" s="11"/>
       <c r="M46" s="18">
-        <v>53.616666600000002</v>
+        <v>53.533333300000002</v>
       </c>
       <c r="N46" s="18">
-        <v>109.6333333</v>
+        <v>115.6166666</v>
       </c>
       <c r="O46" s="33">
-        <v>489</v>
+        <v>811</v>
       </c>
       <c r="P46" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q46" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>389</v>
+      </c>
       <c r="R46" s="7" t="s">
-        <v>522</v>
+        <v>325</v>
       </c>
       <c r="S46" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T46" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U46" s="11"/>
       <c r="V46" s="7"/>
@@ -5153,48 +5183,46 @@
         <v>0</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="8">
-        <v>30622</v>
+        <v>30636</v>
       </c>
       <c r="K47" s="7">
         <v>99999</v>
       </c>
       <c r="L47" s="11"/>
       <c r="M47" s="18">
-        <v>53.966666600000003</v>
+        <v>53.616666600000002</v>
       </c>
       <c r="N47" s="18">
-        <v>105.9</v>
+        <v>109.6333333</v>
       </c>
       <c r="O47" s="33">
-        <v>533</v>
+        <v>489</v>
       </c>
       <c r="P47" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q47" s="9" t="s">
-        <v>388</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="Q47" s="9"/>
       <c r="R47" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="S47" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T47" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="U47" s="11"/>
       <c r="V47" s="7"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
-        <v>42</v>
+        <v>263</v>
       </c>
       <c r="B48" s="22" t="s">
         <v>462</v>
@@ -5209,46 +5237,48 @@
         <v>0</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>153</v>
+        <v>253</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="8">
-        <v>36104</v>
+        <v>30622</v>
       </c>
       <c r="K48" s="7">
         <v>99999</v>
       </c>
       <c r="L48" s="11"/>
       <c r="M48" s="18">
-        <v>51.483333299999998</v>
+        <v>53.966666600000003</v>
       </c>
       <c r="N48" s="18">
-        <v>95.583333300000007</v>
+        <v>105.9</v>
       </c>
       <c r="O48" s="33">
-        <v>705.8</v>
+        <v>533</v>
       </c>
       <c r="P48" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q48" s="9"/>
+        <v>230</v>
+      </c>
+      <c r="Q48" s="9" t="s">
+        <v>388</v>
+      </c>
       <c r="R48" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="S48" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T48" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="U48" s="11"/>
       <c r="V48" s="7"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A49" s="7" t="s">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="B49" s="22" t="s">
         <v>462</v>
@@ -5263,41 +5293,39 @@
         <v>0</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>259</v>
+        <v>153</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="8">
-        <v>36096</v>
+        <v>36104</v>
       </c>
       <c r="K49" s="7">
         <v>99999</v>
       </c>
       <c r="L49" s="11"/>
       <c r="M49" s="18">
-        <v>51.716666600000003</v>
+        <v>51.483333299999998</v>
       </c>
       <c r="N49" s="18">
-        <v>94.5</v>
+        <v>95.583333300000007</v>
       </c>
       <c r="O49" s="33">
-        <v>628</v>
+        <v>705.8</v>
       </c>
       <c r="P49" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q49" s="9" t="s">
-        <v>388</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="Q49" s="9"/>
       <c r="R49" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S49" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T49" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="U49" s="11"/>
       <c r="V49" s="7"/>
@@ -5325,38 +5353,40 @@
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="8">
-        <v>36307</v>
+        <v>36096</v>
       </c>
       <c r="K50" s="7">
         <v>99999</v>
       </c>
       <c r="L50" s="11"/>
       <c r="M50" s="18">
-        <v>50.25</v>
+        <v>51.716666600000003</v>
       </c>
       <c r="N50" s="18">
-        <v>95.166666599999999</v>
+        <v>94.5</v>
       </c>
       <c r="O50" s="33">
-        <v>1100</v>
+        <v>628</v>
       </c>
       <c r="P50" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q50" s="9"/>
+        <v>239</v>
+      </c>
+      <c r="Q50" s="9" t="s">
+        <v>388</v>
+      </c>
       <c r="R50" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="S50" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T50" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="U50" s="11"/>
       <c r="V50" s="7"/>
     </row>
-    <row r="51" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
         <v>263</v>
       </c>
@@ -5373,47 +5403,45 @@
         <v>0</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="8">
-        <v>36259</v>
+        <v>36307</v>
       </c>
       <c r="K51" s="7">
         <v>99999</v>
       </c>
       <c r="L51" s="11"/>
       <c r="M51" s="18">
-        <v>50.016666600000001</v>
+        <v>50.25</v>
       </c>
       <c r="N51" s="18">
-        <v>88.683333300000001</v>
+        <v>95.166666599999999</v>
       </c>
       <c r="O51" s="33">
-        <v>1759</v>
+        <v>1100</v>
       </c>
       <c r="P51" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q51" s="9" t="s">
-        <v>388</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="Q51" s="9"/>
       <c r="R51" s="7" t="s">
-        <v>323</v>
+        <v>513</v>
       </c>
       <c r="S51" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T51" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="U51" s="11"/>
       <c r="V51" s="7"/>
     </row>
     <row r="52" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="7" t="s">
         <v>263</v>
       </c>
       <c r="B52" s="22" t="s">
@@ -5425,106 +5453,110 @@
       <c r="D52" s="25">
         <v>51</v>
       </c>
-      <c r="E52" s="28"/>
-      <c r="F52" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
+      <c r="E52" s="28">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
       <c r="J52" s="8">
-        <v>30781</v>
-      </c>
-      <c r="K52" s="14">
+        <v>36259</v>
+      </c>
+      <c r="K52" s="7">
         <v>99999</v>
       </c>
-      <c r="L52" s="15"/>
+      <c r="L52" s="11"/>
       <c r="M52" s="18">
-        <v>52.75</v>
+        <v>50.016666600000001</v>
       </c>
       <c r="N52" s="18">
-        <v>120.0333333</v>
+        <v>88.683333300000001</v>
       </c>
       <c r="O52" s="33">
-        <v>370</v>
+        <v>1759</v>
       </c>
       <c r="P52" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="14" t="s">
-        <v>376</v>
+        <v>240</v>
+      </c>
+      <c r="Q52" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="R52" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="T52" s="14" t="s">
-        <v>458</v>
+        <v>385</v>
+      </c>
+      <c r="T52" s="7" t="s">
+        <v>455</v>
       </c>
       <c r="U52" s="11"/>
       <c r="V52" s="7"/>
     </row>
     <row r="53" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A53" s="7" t="s">
-        <v>45</v>
+      <c r="A53" s="14" t="s">
+        <v>263</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C53" s="22">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D53" s="25">
         <v>52</v>
       </c>
-      <c r="E53" s="28">
-        <v>0</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
       <c r="J53" s="8">
-        <v>36535</v>
-      </c>
-      <c r="K53" s="7">
+        <v>30781</v>
+      </c>
+      <c r="K53" s="14">
         <v>99999</v>
       </c>
-      <c r="L53" s="11"/>
+      <c r="L53" s="15"/>
       <c r="M53" s="18">
-        <v>48.75</v>
+        <v>52.75</v>
       </c>
       <c r="N53" s="18">
-        <v>82.366666600000002</v>
+        <v>120.0333333</v>
       </c>
       <c r="O53" s="33">
-        <v>512</v>
-      </c>
-      <c r="P53" s="13" t="s">
-        <v>46</v>
+        <v>370</v>
+      </c>
+      <c r="P53" s="20" t="s">
+        <v>233</v>
       </c>
       <c r="Q53" s="9"/>
-      <c r="R53" s="7"/>
+      <c r="R53" s="14" t="s">
+        <v>376</v>
+      </c>
       <c r="S53" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="T53" s="7" t="s">
-        <v>460</v>
+        <v>386</v>
+      </c>
+      <c r="T53" s="14" t="s">
+        <v>458</v>
       </c>
       <c r="U53" s="11"/>
       <c r="V53" s="7"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A54" s="7" t="s">
-        <v>372</v>
+        <v>45</v>
       </c>
       <c r="B54" s="22" t="s">
         <v>463</v>
       </c>
       <c r="C54" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" s="25">
         <v>53</v>
@@ -5533,52 +5565,50 @@
         <v>0</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>375</v>
+        <v>222</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="8">
-        <v>47005</v>
+        <v>36535</v>
       </c>
       <c r="K54" s="7">
         <v>99999</v>
       </c>
       <c r="L54" s="11"/>
       <c r="M54" s="18">
-        <v>41.816666599999998</v>
+        <v>48.75</v>
       </c>
       <c r="N54" s="18">
-        <v>128.30000000000001</v>
+        <v>82.366666600000002</v>
       </c>
       <c r="O54" s="33">
-        <v>1381</v>
-      </c>
-      <c r="P54" s="20" t="s">
-        <v>373</v>
+        <v>512</v>
+      </c>
+      <c r="P54" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="Q54" s="9"/>
-      <c r="R54" s="7" t="s">
-        <v>374</v>
-      </c>
+      <c r="R54" s="7"/>
       <c r="S54" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T54" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="U54" s="11"/>
       <c r="V54" s="7"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A55" s="7" t="s">
-        <v>3</v>
+        <v>372</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C55" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="25">
         <v>54</v>
@@ -5587,43 +5617,39 @@
         <v>0</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>211</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="8">
-        <v>54342</v>
+        <v>47005</v>
       </c>
       <c r="K55" s="7">
         <v>99999</v>
       </c>
       <c r="L55" s="11"/>
-      <c r="M55" s="17">
-        <v>41.732500000000002</v>
-      </c>
-      <c r="N55" s="17">
-        <v>123.51</v>
-      </c>
-      <c r="O55" s="34">
-        <v>51</v>
+      <c r="M55" s="18">
+        <v>41.816666599999998</v>
+      </c>
+      <c r="N55" s="18">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="O55" s="33">
+        <v>1381</v>
       </c>
       <c r="P55" s="20" t="s">
-        <v>212</v>
+        <v>373</v>
       </c>
       <c r="Q55" s="9"/>
       <c r="R55" s="7" t="s">
-        <v>278</v>
+        <v>374</v>
       </c>
       <c r="S55" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="T55" s="7" t="s">
-        <v>400</v>
+        <v>461</v>
       </c>
       <c r="U55" s="11"/>
       <c r="V55" s="7"/>
@@ -5636,7 +5662,7 @@
         <v>464</v>
       </c>
       <c r="C56" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" s="25">
         <v>55</v>
@@ -5648,39 +5674,41 @@
         <v>91</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="8">
-        <v>54252</v>
+        <v>54342</v>
       </c>
       <c r="K56" s="7">
         <v>99999</v>
       </c>
       <c r="L56" s="11"/>
       <c r="M56" s="17">
-        <v>42.740299999999998</v>
+        <v>41.732500000000002</v>
       </c>
       <c r="N56" s="17">
-        <v>124.7406</v>
+        <v>123.51</v>
       </c>
       <c r="O56" s="34">
-        <v>196.1</v>
+        <v>51</v>
       </c>
       <c r="P56" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q56" s="9" t="s">
-        <v>388</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="Q56" s="9"/>
       <c r="R56" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="S56" s="10"/>
-      <c r="T56" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="S56" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="T56" s="7" t="s">
+        <v>400</v>
+      </c>
       <c r="U56" s="11"/>
       <c r="V56" s="7"/>
     </row>
@@ -5692,7 +5720,7 @@
         <v>464</v>
       </c>
       <c r="C57" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" s="25">
         <v>56</v>
@@ -5701,44 +5729,42 @@
         <v>0</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>198</v>
+        <v>85</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>209</v>
+        <v>86</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="8">
-        <v>54161</v>
+        <v>54252</v>
       </c>
       <c r="K57" s="7">
         <v>99999</v>
       </c>
       <c r="L57" s="11"/>
       <c r="M57" s="17">
-        <v>43.891399999999997</v>
+        <v>42.740299999999998</v>
       </c>
       <c r="N57" s="17">
-        <v>125.2317</v>
+        <v>124.7406</v>
       </c>
       <c r="O57" s="34">
-        <v>236.8</v>
+        <v>196.1</v>
       </c>
       <c r="P57" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q57" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="Q57" s="9" t="s">
+        <v>388</v>
+      </c>
       <c r="R57" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="S57" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="T57" s="7" t="s">
-        <v>401</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="S57" s="10"/>
+      <c r="T57" s="7"/>
       <c r="U57" s="11"/>
       <c r="V57" s="7"/>
     </row>
@@ -5750,7 +5776,7 @@
         <v>464</v>
       </c>
       <c r="C58" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" s="25">
         <v>57</v>
@@ -5762,42 +5788,40 @@
         <v>90</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="8">
-        <v>54273</v>
+        <v>54161</v>
       </c>
       <c r="K58" s="7">
         <v>99999</v>
       </c>
       <c r="L58" s="11"/>
       <c r="M58" s="17">
-        <v>42.978299999999997</v>
+        <v>43.891399999999997</v>
       </c>
       <c r="N58" s="17">
-        <v>126.7597</v>
+        <v>125.2317</v>
       </c>
       <c r="O58" s="34">
-        <v>263.3</v>
+        <v>236.8</v>
       </c>
       <c r="P58" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q58" s="9" t="s">
-        <v>388</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="Q58" s="9"/>
       <c r="R58" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="S58" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T58" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="U58" s="11"/>
       <c r="V58" s="7"/>
@@ -5810,7 +5834,7 @@
         <v>464</v>
       </c>
       <c r="C59" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" s="25">
         <v>58</v>
@@ -5819,45 +5843,45 @@
         <v>0</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="8">
-        <v>50953</v>
+        <v>54273</v>
       </c>
       <c r="K59" s="7">
         <v>99999</v>
       </c>
       <c r="L59" s="11"/>
       <c r="M59" s="17">
-        <v>45.934199999999997</v>
+        <v>42.978299999999997</v>
       </c>
       <c r="N59" s="17">
-        <v>126.58110000000001</v>
+        <v>126.7597</v>
       </c>
       <c r="O59" s="34">
-        <v>115</v>
+        <v>263.3</v>
       </c>
       <c r="P59" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q59" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R59" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S59" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T59" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="U59" s="11"/>
       <c r="V59" s="7"/>
@@ -5870,7 +5894,7 @@
         <v>464</v>
       </c>
       <c r="C60" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" s="25">
         <v>59</v>
@@ -5882,43 +5906,47 @@
         <v>55</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="8">
-        <v>50673</v>
+        <v>50953</v>
       </c>
       <c r="K60" s="7">
         <v>99999</v>
       </c>
       <c r="L60" s="11"/>
       <c r="M60" s="17">
-        <v>48.887799999999999</v>
+        <v>45.934199999999997</v>
       </c>
       <c r="N60" s="17">
-        <v>130.4117</v>
+        <v>126.58110000000001</v>
       </c>
       <c r="O60" s="34">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="P60" s="20" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q60" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R60" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="S60" s="10"/>
-      <c r="T60" s="7"/>
+        <v>275</v>
+      </c>
+      <c r="S60" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="T60" s="7" t="s">
+        <v>403</v>
+      </c>
       <c r="U60" s="11"/>
       <c r="V60" s="7"/>
     </row>
-    <row r="61" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A61" s="7" t="s">
         <v>3</v>
       </c>
@@ -5926,7 +5954,7 @@
         <v>464</v>
       </c>
       <c r="C61" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61" s="25">
         <v>60</v>
@@ -5938,41 +5966,39 @@
         <v>55</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="8">
-        <v>50353</v>
+        <v>50673</v>
       </c>
       <c r="K61" s="7">
         <v>99999</v>
       </c>
       <c r="L61" s="11"/>
       <c r="M61" s="17">
-        <v>51.726100000000002</v>
+        <v>48.887799999999999</v>
       </c>
       <c r="N61" s="17">
-        <v>126.63890000000001</v>
+        <v>130.4117</v>
       </c>
       <c r="O61" s="34">
-        <v>173.9</v>
+        <v>90</v>
       </c>
       <c r="P61" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q61" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="Q61" s="9" t="s">
+        <v>388</v>
+      </c>
       <c r="R61" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="S61" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="T61" s="7" t="s">
-        <v>404</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="S61" s="10"/>
+      <c r="T61" s="7"/>
       <c r="U61" s="11"/>
       <c r="V61" s="7"/>
     </row>
@@ -5984,7 +6010,7 @@
         <v>464</v>
       </c>
       <c r="C62" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D62" s="25">
         <v>61</v>
@@ -5999,34 +6025,38 @@
         <v>54</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="8">
-        <v>50246</v>
+        <v>50353</v>
       </c>
       <c r="K62" s="7">
         <v>99999</v>
       </c>
       <c r="L62" s="11"/>
       <c r="M62" s="17">
-        <v>52.348100000000002</v>
+        <v>51.726100000000002</v>
       </c>
       <c r="N62" s="17">
-        <v>124.7169</v>
+        <v>126.63890000000001</v>
       </c>
       <c r="O62" s="34">
-        <v>359.4</v>
+        <v>173.9</v>
       </c>
       <c r="P62" s="20" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="Q62" s="9"/>
       <c r="R62" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="S62" s="10"/>
-      <c r="T62" s="7"/>
+        <v>277</v>
+      </c>
+      <c r="S62" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="T62" s="7" t="s">
+        <v>404</v>
+      </c>
       <c r="U62" s="11"/>
       <c r="V62" s="7"/>
     </row>
@@ -6038,7 +6068,7 @@
         <v>464</v>
       </c>
       <c r="C63" s="22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D63" s="25">
         <v>62</v>
@@ -6053,31 +6083,31 @@
         <v>54</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="8">
-        <v>50247</v>
+        <v>50246</v>
       </c>
       <c r="K63" s="7">
         <v>99999</v>
       </c>
       <c r="L63" s="11"/>
       <c r="M63" s="17">
-        <v>52.036099999999998</v>
+        <v>52.348100000000002</v>
       </c>
       <c r="N63" s="17">
-        <v>123.5722</v>
+        <v>124.7169</v>
       </c>
       <c r="O63" s="34">
-        <v>514.5</v>
+        <v>359.4</v>
       </c>
       <c r="P63" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q63" s="9"/>
       <c r="R63" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="S63" s="10"/>
       <c r="T63" s="7"/>
@@ -6092,7 +6122,7 @@
         <v>464</v>
       </c>
       <c r="C64" s="22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D64" s="25">
         <v>63</v>
@@ -6107,40 +6137,34 @@
         <v>54</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="8">
-        <v>50136</v>
+        <v>50247</v>
       </c>
       <c r="K64" s="7">
         <v>99999</v>
       </c>
       <c r="L64" s="11"/>
       <c r="M64" s="17">
-        <v>52.974400000000003</v>
+        <v>52.036099999999998</v>
       </c>
       <c r="N64" s="17">
-        <v>122.51309999999999</v>
+        <v>123.5722</v>
       </c>
       <c r="O64" s="34">
-        <v>433.9</v>
+        <v>514.5</v>
       </c>
       <c r="P64" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q64" s="9" t="s">
-        <v>388</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="Q64" s="9"/>
       <c r="R64" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="S64" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="T64" s="7" t="s">
-        <v>405</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="S64" s="10"/>
+      <c r="T64" s="7"/>
       <c r="U64" s="11"/>
       <c r="V64" s="7"/>
     </row>
@@ -6152,7 +6176,7 @@
         <v>464</v>
       </c>
       <c r="C65" s="22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65" s="25">
         <v>64</v>
@@ -6171,34 +6195,40 @@
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="8">
-        <v>50137</v>
+        <v>50136</v>
       </c>
       <c r="K65" s="7">
         <v>99999</v>
       </c>
       <c r="L65" s="11"/>
       <c r="M65" s="17">
-        <v>53.468899999999998</v>
+        <v>52.974400000000003</v>
       </c>
       <c r="N65" s="17">
-        <v>122.36190000000001</v>
+        <v>122.51309999999999</v>
       </c>
       <c r="O65" s="34">
-        <v>291.60000000000002</v>
+        <v>433.9</v>
       </c>
       <c r="P65" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q65" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="Q65" s="9" t="s">
+        <v>388</v>
+      </c>
       <c r="R65" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="S65" s="10"/>
-      <c r="T65" s="7"/>
+        <v>283</v>
+      </c>
+      <c r="S65" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="T65" s="7" t="s">
+        <v>405</v>
+      </c>
       <c r="U65" s="11"/>
       <c r="V65" s="7"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
         <v>3</v>
       </c>
@@ -6206,7 +6236,7 @@
         <v>464</v>
       </c>
       <c r="C66" s="22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D66" s="25">
         <v>65</v>
@@ -6215,39 +6245,37 @@
         <v>0</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="8">
-        <v>50431</v>
+        <v>50137</v>
       </c>
       <c r="K66" s="7">
         <v>99999</v>
       </c>
       <c r="L66" s="11"/>
       <c r="M66" s="17">
-        <v>50.782800000000002</v>
+        <v>53.468899999999998</v>
       </c>
       <c r="N66" s="17">
-        <v>121.51300000000001</v>
+        <v>122.36190000000001</v>
       </c>
       <c r="O66" s="34">
-        <v>716.7</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="P66" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q66" s="9" t="s">
-        <v>388</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="Q66" s="9"/>
       <c r="R66" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="S66" s="10"/>
       <c r="T66" s="7"/>
@@ -6262,7 +6290,7 @@
         <v>464</v>
       </c>
       <c r="C67" s="22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D67" s="25">
         <v>66</v>
@@ -6277,40 +6305,36 @@
         <v>57</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="8">
-        <v>50434</v>
+        <v>50431</v>
       </c>
       <c r="K67" s="7">
         <v>99999</v>
       </c>
       <c r="L67" s="11"/>
       <c r="M67" s="17">
-        <v>50.478099999999998</v>
+        <v>50.782800000000002</v>
       </c>
       <c r="N67" s="17">
-        <v>121.6867</v>
+        <v>121.51300000000001</v>
       </c>
       <c r="O67" s="34">
-        <v>734.8</v>
+        <v>716.7</v>
       </c>
       <c r="P67" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q67" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R67" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="S67" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="T67" s="7" t="s">
-        <v>406</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="S67" s="10"/>
+      <c r="T67" s="7"/>
       <c r="U67" s="11"/>
       <c r="V67" s="7"/>
     </row>
@@ -6322,7 +6346,7 @@
         <v>464</v>
       </c>
       <c r="C68" s="22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D68" s="25">
         <v>67</v>
@@ -6337,34 +6361,40 @@
         <v>57</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="8">
-        <v>50425</v>
+        <v>50434</v>
       </c>
       <c r="K68" s="7">
         <v>99999</v>
       </c>
       <c r="L68" s="11"/>
       <c r="M68" s="17">
-        <v>50.236899999999999</v>
+        <v>50.478099999999998</v>
       </c>
       <c r="N68" s="17">
-        <v>120.16719999999999</v>
+        <v>121.6867</v>
       </c>
       <c r="O68" s="34">
-        <v>581.4</v>
+        <v>734.8</v>
       </c>
       <c r="P68" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q68" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="Q68" s="9" t="s">
+        <v>388</v>
+      </c>
       <c r="R68" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="S68" s="10"/>
-      <c r="T68" s="7"/>
+        <v>280</v>
+      </c>
+      <c r="S68" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="T68" s="7" t="s">
+        <v>406</v>
+      </c>
       <c r="U68" s="11"/>
       <c r="V68" s="7"/>
     </row>
@@ -6376,12 +6406,14 @@
         <v>464</v>
       </c>
       <c r="C69" s="22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" s="25">
         <v>68</v>
       </c>
-      <c r="E69" s="28"/>
+      <c r="E69" s="28">
+        <v>0</v>
+      </c>
       <c r="F69" s="7" t="s">
         <v>56</v>
       </c>
@@ -6389,31 +6421,31 @@
         <v>57</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="8">
-        <v>50524</v>
+        <v>50425</v>
       </c>
       <c r="K69" s="7">
         <v>99999</v>
       </c>
       <c r="L69" s="11"/>
       <c r="M69" s="17">
-        <v>49.3414</v>
+        <v>50.236899999999999</v>
       </c>
       <c r="N69" s="17">
-        <v>119.4569</v>
+        <v>120.16719999999999</v>
       </c>
       <c r="O69" s="34">
-        <v>597.4</v>
+        <v>581.4</v>
       </c>
       <c r="P69" s="20" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="Q69" s="9"/>
       <c r="R69" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S69" s="10"/>
       <c r="T69" s="7"/>
@@ -6428,14 +6460,12 @@
         <v>464</v>
       </c>
       <c r="C70" s="22">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D70" s="25">
         <v>69</v>
       </c>
-      <c r="E70" s="28">
-        <v>0</v>
-      </c>
+      <c r="E70" s="28"/>
       <c r="F70" s="7" t="s">
         <v>56</v>
       </c>
@@ -6443,42 +6473,38 @@
         <v>57</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="8">
-        <v>50527</v>
+        <v>50524</v>
       </c>
       <c r="K70" s="7">
         <v>99999</v>
       </c>
       <c r="L70" s="11"/>
       <c r="M70" s="17">
-        <v>49.25</v>
+        <v>49.3414</v>
       </c>
       <c r="N70" s="17">
-        <v>119.7003</v>
+        <v>119.4569</v>
       </c>
       <c r="O70" s="34">
-        <v>649.70000000000005</v>
+        <v>597.4</v>
       </c>
       <c r="P70" s="20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Q70" s="9"/>
       <c r="R70" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="S70" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="T70" s="7" t="s">
-        <v>407</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="S70" s="10"/>
+      <c r="T70" s="7"/>
       <c r="U70" s="11"/>
       <c r="V70" s="7"/>
     </row>
-    <row r="71" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A71" s="7" t="s">
         <v>3</v>
       </c>
@@ -6486,12 +6512,14 @@
         <v>464</v>
       </c>
       <c r="C71" s="22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D71" s="25">
         <v>70</v>
       </c>
-      <c r="E71" s="28"/>
+      <c r="E71" s="28">
+        <v>0</v>
+      </c>
       <c r="F71" s="7" t="s">
         <v>56</v>
       </c>
@@ -6499,38 +6527,42 @@
         <v>57</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="8">
-        <v>50525</v>
+        <v>50527</v>
       </c>
       <c r="K71" s="7">
         <v>99999</v>
       </c>
       <c r="L71" s="11"/>
       <c r="M71" s="17">
-        <v>49.132800000000003</v>
+        <v>49.25</v>
       </c>
       <c r="N71" s="17">
-        <v>119.7419</v>
+        <v>119.7003</v>
       </c>
       <c r="O71" s="34">
-        <v>617.29999999999995</v>
+        <v>649.70000000000005</v>
       </c>
       <c r="P71" s="20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q71" s="9"/>
       <c r="R71" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="S71" s="10"/>
-      <c r="T71" s="7"/>
+      <c r="S71" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="T71" s="7" t="s">
+        <v>407</v>
+      </c>
       <c r="U71" s="11"/>
       <c r="V71" s="7"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A72" s="7" t="s">
         <v>3</v>
       </c>
@@ -6538,14 +6570,12 @@
         <v>464</v>
       </c>
       <c r="C72" s="22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D72" s="25">
         <v>71</v>
       </c>
-      <c r="E72" s="28">
-        <v>0</v>
-      </c>
+      <c r="E72" s="28"/>
       <c r="F72" s="7" t="s">
         <v>56</v>
       </c>
@@ -6553,31 +6583,31 @@
         <v>57</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="8">
-        <v>50526</v>
+        <v>50525</v>
       </c>
       <c r="K72" s="7">
         <v>99999</v>
       </c>
       <c r="L72" s="11"/>
       <c r="M72" s="17">
-        <v>49.283099999999997</v>
+        <v>49.132800000000003</v>
       </c>
       <c r="N72" s="17">
-        <v>120.6878</v>
+        <v>119.7419</v>
       </c>
       <c r="O72" s="34">
-        <v>654.9</v>
+        <v>617.29999999999995</v>
       </c>
       <c r="P72" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q72" s="9"/>
       <c r="R72" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S72" s="10"/>
       <c r="T72" s="7"/>
@@ -6592,7 +6622,7 @@
         <v>464</v>
       </c>
       <c r="C73" s="22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D73" s="25">
         <v>72</v>
@@ -6604,41 +6634,37 @@
         <v>56</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="8">
-        <v>50727</v>
+        <v>50526</v>
       </c>
       <c r="K73" s="7">
         <v>99999</v>
       </c>
       <c r="L73" s="11"/>
       <c r="M73" s="17">
-        <v>47.180799999999998</v>
+        <v>49.283099999999997</v>
       </c>
       <c r="N73" s="17">
-        <v>119.9344</v>
+        <v>120.6878</v>
       </c>
       <c r="O73" s="34">
-        <v>997</v>
+        <v>654.9</v>
       </c>
       <c r="P73" s="20" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="Q73" s="9"/>
       <c r="R73" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="S73" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="T73" s="7" t="s">
-        <v>408</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="S73" s="10"/>
+      <c r="T73" s="7"/>
       <c r="U73" s="11"/>
       <c r="V73" s="7"/>
     </row>
@@ -6650,7 +6676,7 @@
         <v>464</v>
       </c>
       <c r="C74" s="22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D74" s="25">
         <v>73</v>
@@ -6659,40 +6685,44 @@
         <v>0</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="8">
-        <v>53392</v>
+        <v>50727</v>
       </c>
       <c r="K74" s="7">
         <v>99999</v>
       </c>
       <c r="L74" s="11"/>
       <c r="M74" s="17">
-        <v>41.86</v>
+        <v>47.180799999999998</v>
       </c>
       <c r="N74" s="17">
-        <v>114.5603</v>
+        <v>119.9344</v>
       </c>
       <c r="O74" s="34">
-        <v>1434.5</v>
+        <v>997</v>
       </c>
       <c r="P74" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q74" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="R74" s="7"/>
-      <c r="S74" s="10"/>
-      <c r="T74" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="S74" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="T74" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="U74" s="11"/>
       <c r="V74" s="7"/>
     </row>
@@ -6704,7 +6734,7 @@
         <v>464</v>
       </c>
       <c r="C75" s="22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D75" s="25">
         <v>74</v>
@@ -6713,46 +6743,44 @@
         <v>0</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="8">
-        <v>55294</v>
+        <v>53392</v>
       </c>
       <c r="K75" s="7">
         <v>99999</v>
       </c>
       <c r="L75" s="11"/>
       <c r="M75" s="17">
-        <v>32.269399999999997</v>
+        <v>41.86</v>
       </c>
       <c r="N75" s="17">
-        <v>91.679400000000001</v>
+        <v>114.5603</v>
       </c>
       <c r="O75" s="34">
-        <v>4686</v>
+        <v>1434.5</v>
       </c>
       <c r="P75" s="20" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q75" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="R75" s="7" t="s">
-        <v>288</v>
-      </c>
+      <c r="R75" s="7"/>
       <c r="S75" s="10"/>
       <c r="T75" s="7"/>
       <c r="U75" s="11"/>
       <c r="V75" s="7"/>
     </row>
-    <row r="76" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A76" s="7" t="s">
         <v>3</v>
       </c>
@@ -6760,7 +6788,7 @@
         <v>464</v>
       </c>
       <c r="C76" s="22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D76" s="25">
         <v>75</v>
@@ -6769,33 +6797,33 @@
         <v>0</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="8">
-        <v>56034</v>
+        <v>55294</v>
       </c>
       <c r="K76" s="7">
         <v>99999</v>
       </c>
       <c r="L76" s="11"/>
       <c r="M76" s="17">
-        <v>33.805300000000003</v>
+        <v>32.269399999999997</v>
       </c>
       <c r="N76" s="17">
-        <v>97.137799999999999</v>
+        <v>91.679400000000001</v>
       </c>
       <c r="O76" s="34">
-        <v>4415.6000000000004</v>
+        <v>4686</v>
       </c>
       <c r="P76" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q76" s="9" t="s">
         <v>388</v>
@@ -6816,7 +6844,7 @@
         <v>464</v>
       </c>
       <c r="C77" s="22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D77" s="25">
         <v>76</v>
@@ -6831,27 +6859,27 @@
         <v>79</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>512</v>
+        <v>80</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="8">
-        <v>52908</v>
+        <v>56034</v>
       </c>
       <c r="K77" s="7">
         <v>99999</v>
       </c>
       <c r="L77" s="11"/>
       <c r="M77" s="17">
-        <v>35.215800000000002</v>
+        <v>33.805300000000003</v>
       </c>
       <c r="N77" s="17">
-        <v>93.080799999999996</v>
+        <v>97.137799999999999</v>
       </c>
       <c r="O77" s="34">
-        <v>4612</v>
+        <v>4415.6000000000004</v>
       </c>
       <c r="P77" s="20" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="Q77" s="9" t="s">
         <v>388</v>
@@ -6859,12 +6887,8 @@
       <c r="R77" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="S77" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="T77" s="7" t="s">
-        <v>409</v>
-      </c>
+      <c r="S77" s="10"/>
+      <c r="T77" s="7"/>
       <c r="U77" s="11"/>
       <c r="V77" s="7"/>
     </row>
@@ -6876,7 +6900,7 @@
         <v>464</v>
       </c>
       <c r="C78" s="22">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D78" s="25">
         <v>77</v>
@@ -6885,45 +6909,45 @@
         <v>0</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>266</v>
+        <v>512</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="8">
-        <v>52323</v>
+        <v>52908</v>
       </c>
       <c r="K78" s="7">
         <v>99999</v>
       </c>
       <c r="L78" s="11"/>
       <c r="M78" s="17">
-        <v>41.804699999999997</v>
+        <v>35.215800000000002</v>
       </c>
       <c r="N78" s="17">
-        <v>97.031899999999993</v>
+        <v>93.080799999999996</v>
       </c>
       <c r="O78" s="34">
-        <v>1773.7</v>
+        <v>4612</v>
       </c>
       <c r="P78" s="20" t="s">
-        <v>264</v>
+        <v>50</v>
       </c>
       <c r="Q78" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R78" s="7" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="S78" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T78" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U78" s="11"/>
       <c r="V78" s="7"/>
@@ -6936,7 +6960,7 @@
         <v>464</v>
       </c>
       <c r="C79" s="22">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D79" s="25">
         <v>78</v>
@@ -6945,46 +6969,50 @@
         <v>0</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>69</v>
+        <v>194</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>72</v>
+        <v>265</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>73</v>
+        <v>266</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="8">
-        <v>52101</v>
+        <v>52323</v>
       </c>
       <c r="K79" s="7">
         <v>99999</v>
       </c>
       <c r="L79" s="11"/>
       <c r="M79" s="17">
-        <v>43.594999999999999</v>
+        <v>41.804699999999997</v>
       </c>
       <c r="N79" s="17">
-        <v>93.045000000000002</v>
+        <v>97.031899999999993</v>
       </c>
       <c r="O79" s="34">
-        <v>1679.2</v>
+        <v>1773.7</v>
       </c>
       <c r="P79" s="20" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="Q79" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R79" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="S79" s="10"/>
-      <c r="T79" s="7"/>
+        <v>264</v>
+      </c>
+      <c r="S79" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="T79" s="7" t="s">
+        <v>410</v>
+      </c>
       <c r="U79" s="11"/>
       <c r="V79" s="7"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A80" s="7" t="s">
         <v>3</v>
       </c>
@@ -6992,7 +7020,7 @@
         <v>464</v>
       </c>
       <c r="C80" s="22">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D80" s="25">
         <v>79</v>
@@ -7004,43 +7032,43 @@
         <v>69</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="8">
-        <v>51186</v>
+        <v>52101</v>
       </c>
       <c r="K80" s="7">
         <v>99999</v>
       </c>
       <c r="L80" s="11"/>
       <c r="M80" s="17">
-        <v>46.664999999999999</v>
+        <v>43.594999999999999</v>
       </c>
       <c r="N80" s="17">
-        <v>90.377799999999993</v>
+        <v>93.045000000000002</v>
       </c>
       <c r="O80" s="34">
-        <v>1219.0999999999999</v>
+        <v>1679.2</v>
       </c>
       <c r="P80" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q80" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R80" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S80" s="10"/>
       <c r="T80" s="7"/>
       <c r="U80" s="11"/>
       <c r="V80" s="7"/>
     </row>
-    <row r="81" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A81" s="7" t="s">
         <v>3</v>
       </c>
@@ -7048,7 +7076,7 @@
         <v>464</v>
       </c>
       <c r="C81" s="22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D81" s="25">
         <v>80</v>
@@ -7063,44 +7091,40 @@
         <v>74</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>105</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I81" s="7"/>
       <c r="J81" s="8">
-        <v>51076</v>
+        <v>51186</v>
       </c>
       <c r="K81" s="7">
         <v>99999</v>
       </c>
       <c r="L81" s="11"/>
       <c r="M81" s="17">
-        <v>47.741100000000003</v>
+        <v>46.664999999999999</v>
       </c>
       <c r="N81" s="17">
-        <v>88.071100000000001</v>
+        <v>90.377799999999993</v>
       </c>
       <c r="O81" s="34">
-        <v>734.8</v>
+        <v>1219.0999999999999</v>
       </c>
       <c r="P81" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q81" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="Q81" s="9" t="s">
+        <v>388</v>
+      </c>
       <c r="R81" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="S81" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="T81" s="7" t="s">
-        <v>411</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="S81" s="10"/>
+      <c r="T81" s="7"/>
       <c r="U81" s="11"/>
-      <c r="V81" s="30"/>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="V81" s="7"/>
+    </row>
+    <row r="82" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="7" t="s">
         <v>3</v>
       </c>
@@ -7108,55 +7132,57 @@
         <v>464</v>
       </c>
       <c r="C82" s="22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D82" s="25">
         <v>81</v>
       </c>
-      <c r="E82" s="28"/>
+      <c r="E82" s="28">
+        <v>0</v>
+      </c>
       <c r="F82" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I82" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="J82" s="8">
-        <v>51573</v>
+        <v>51076</v>
       </c>
       <c r="K82" s="7">
         <v>99999</v>
       </c>
       <c r="L82" s="11"/>
       <c r="M82" s="17">
-        <v>42.950299999999999</v>
+        <v>47.741100000000003</v>
       </c>
       <c r="N82" s="17">
-        <v>89.230800000000002</v>
+        <v>88.071100000000001</v>
       </c>
       <c r="O82" s="34">
-        <v>39</v>
+        <v>734.8</v>
       </c>
       <c r="P82" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q82" s="9" t="s">
-        <v>388</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="Q82" s="9"/>
       <c r="R82" s="7" t="s">
-        <v>291</v>
+        <v>524</v>
       </c>
       <c r="S82" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T82" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="U82" s="11"/>
-      <c r="V82" s="7"/>
+      <c r="V82" s="30"/>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A83" s="7" t="s">
@@ -7166,59 +7192,57 @@
         <v>464</v>
       </c>
       <c r="C83" s="22">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D83" s="25">
         <v>82</v>
       </c>
-      <c r="E83" s="28">
-        <v>0</v>
-      </c>
+      <c r="E83" s="28"/>
       <c r="F83" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="8">
-        <v>51463</v>
+        <v>51573</v>
       </c>
       <c r="K83" s="7">
         <v>99999</v>
       </c>
       <c r="L83" s="11"/>
       <c r="M83" s="17">
-        <v>43.789200000000001</v>
+        <v>42.950299999999999</v>
       </c>
       <c r="N83" s="17">
-        <v>87.645799999999994</v>
+        <v>89.230800000000002</v>
       </c>
       <c r="O83" s="34">
-        <v>935</v>
+        <v>39</v>
       </c>
       <c r="P83" s="20" t="s">
-        <v>24</v>
+        <v>392</v>
       </c>
       <c r="Q83" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R83" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S83" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T83" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U83" s="11"/>
       <c r="V83" s="7"/>
     </row>
-    <row r="84" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A84" s="7" t="s">
         <v>3</v>
       </c>
@@ -7226,7 +7250,7 @@
         <v>464</v>
       </c>
       <c r="C84" s="22">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D84" s="25">
         <v>83</v>
@@ -7238,42 +7262,42 @@
         <v>69</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="8">
-        <v>51542</v>
+        <v>51463</v>
       </c>
       <c r="K84" s="7">
         <v>99999</v>
       </c>
       <c r="L84" s="11"/>
       <c r="M84" s="17">
-        <v>43.0336</v>
+        <v>43.789200000000001</v>
       </c>
       <c r="N84" s="17">
-        <v>84.149199999999993</v>
+        <v>87.645799999999994</v>
       </c>
       <c r="O84" s="34">
-        <v>2459.1</v>
+        <v>935</v>
       </c>
       <c r="P84" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q84" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R84" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="S84" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T84" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U84" s="11"/>
       <c r="V84" s="7"/>
@@ -7286,7 +7310,7 @@
         <v>464</v>
       </c>
       <c r="C85" s="22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D85" s="25">
         <v>84</v>
@@ -7298,41 +7322,47 @@
         <v>69</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="8">
-        <v>51437</v>
+        <v>51542</v>
       </c>
       <c r="K85" s="7">
         <v>99999</v>
       </c>
       <c r="L85" s="11"/>
       <c r="M85" s="17">
-        <v>43.1417</v>
+        <v>43.0336</v>
       </c>
       <c r="N85" s="17">
-        <v>81.125600000000006</v>
+        <v>84.149199999999993</v>
       </c>
       <c r="O85" s="34">
-        <v>1850.8</v>
+        <v>2459.1</v>
       </c>
       <c r="P85" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q85" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="Q85" s="9" t="s">
+        <v>388</v>
+      </c>
       <c r="R85" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="S85" s="10"/>
-      <c r="T85" s="7"/>
+        <v>293</v>
+      </c>
+      <c r="S85" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="T85" s="7" t="s">
+        <v>414</v>
+      </c>
       <c r="U85" s="11"/>
       <c r="V85" s="7"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A86" s="7" t="s">
         <v>3</v>
       </c>
@@ -7340,7 +7370,7 @@
         <v>464</v>
       </c>
       <c r="C86" s="22">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D86" s="25">
         <v>85</v>
@@ -7349,46 +7379,40 @@
         <v>0</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="8">
-        <v>53463</v>
+        <v>51437</v>
       </c>
       <c r="K86" s="7">
         <v>99999</v>
       </c>
       <c r="L86" s="11"/>
       <c r="M86" s="17">
-        <v>40.855800000000002</v>
+        <v>43.1417</v>
       </c>
       <c r="N86" s="17">
-        <v>111.5714</v>
+        <v>81.125600000000006</v>
       </c>
       <c r="O86" s="34">
-        <v>1153.5</v>
+        <v>1850.8</v>
       </c>
       <c r="P86" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q86" s="9" t="s">
-        <v>388</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="Q86" s="9"/>
       <c r="R86" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="S86" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="T86" s="7" t="s">
-        <v>415</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="S86" s="10"/>
+      <c r="T86" s="7"/>
       <c r="U86" s="11"/>
       <c r="V86" s="7"/>
     </row>
@@ -7400,48 +7424,54 @@
         <v>464</v>
       </c>
       <c r="C87" s="22">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D87" s="25">
         <v>86</v>
       </c>
-      <c r="E87" s="28"/>
+      <c r="E87" s="28">
+        <v>0</v>
+      </c>
       <c r="F87" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G87" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="H87" s="7" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="I87" s="7"/>
       <c r="J87" s="8">
-        <v>54511</v>
+        <v>53463</v>
       </c>
       <c r="K87" s="7">
         <v>99999</v>
       </c>
       <c r="L87" s="11"/>
       <c r="M87" s="17">
-        <v>39.806100000000001</v>
+        <v>40.855800000000002</v>
       </c>
       <c r="N87" s="17">
-        <v>116.46939999999999</v>
+        <v>111.5714</v>
       </c>
       <c r="O87" s="34">
-        <v>32.799999999999997</v>
+        <v>1153.5</v>
       </c>
       <c r="P87" s="20" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="Q87" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="R87" s="7"/>
+      <c r="R87" s="7" t="s">
+        <v>294</v>
+      </c>
       <c r="S87" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T87" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="U87" s="11"/>
       <c r="V87" s="7"/>
@@ -7454,48 +7484,50 @@
         <v>464</v>
       </c>
       <c r="C88" s="22">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D88" s="25">
         <v>87</v>
       </c>
       <c r="E88" s="28"/>
       <c r="F88" s="7" t="s">
-        <v>382</v>
+        <v>181</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="7" t="s">
-        <v>383</v>
+        <v>182</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="8">
-        <v>54517</v>
+        <v>54511</v>
       </c>
       <c r="K88" s="7">
         <v>99999</v>
       </c>
       <c r="L88" s="11"/>
       <c r="M88" s="17">
-        <v>39.0747</v>
+        <v>39.806100000000001</v>
       </c>
       <c r="N88" s="17">
-        <v>117.20610000000001</v>
+        <v>116.46939999999999</v>
       </c>
       <c r="O88" s="34">
-        <v>2.2000000000000002</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P88" s="20" t="s">
-        <v>465</v>
+        <v>183</v>
       </c>
       <c r="Q88" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R88" s="7"/>
-      <c r="S88" s="10"/>
-      <c r="T88" s="7"/>
-      <c r="U88" s="11" t="s">
-        <v>530</v>
-      </c>
+      <c r="S88" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="T88" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="U88" s="11"/>
       <c r="V88" s="7"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.4">
@@ -7506,54 +7538,48 @@
         <v>464</v>
       </c>
       <c r="C89" s="22">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D89" s="25">
         <v>88</v>
       </c>
       <c r="E89" s="28"/>
       <c r="F89" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>197</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="G89" s="7"/>
       <c r="H89" s="7" t="s">
-        <v>221</v>
+        <v>383</v>
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="8">
-        <v>53614</v>
+        <v>54517</v>
       </c>
       <c r="K89" s="7">
         <v>99999</v>
       </c>
       <c r="L89" s="11"/>
       <c r="M89" s="17">
-        <v>38.471400000000003</v>
+        <v>39.0747</v>
       </c>
       <c r="N89" s="17">
-        <v>106.20780000000001</v>
+        <v>117.20610000000001</v>
       </c>
       <c r="O89" s="34">
-        <v>1111.5999999999999</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P89" s="20" t="s">
-        <v>208</v>
+        <v>465</v>
       </c>
       <c r="Q89" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="R89" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="S89" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="T89" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="U89" s="11"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="10"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="11" t="s">
+        <v>530</v>
+      </c>
       <c r="V89" s="7"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.4">
@@ -7564,50 +7590,52 @@
         <v>464</v>
       </c>
       <c r="C90" s="22">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D90" s="25">
         <v>89</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="7" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="I90" s="7"/>
       <c r="J90" s="8">
-        <v>53698</v>
+        <v>53614</v>
       </c>
       <c r="K90" s="7">
         <v>99999</v>
       </c>
       <c r="L90" s="11"/>
       <c r="M90" s="17">
-        <v>38.0197</v>
+        <v>38.471400000000003</v>
       </c>
       <c r="N90" s="17">
-        <v>114.3989</v>
+        <v>106.20780000000001</v>
       </c>
       <c r="O90" s="34">
-        <v>89.3</v>
+        <v>1111.5999999999999</v>
       </c>
       <c r="P90" s="20" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="Q90" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="R90" s="7"/>
+      <c r="R90" s="7" t="s">
+        <v>295</v>
+      </c>
       <c r="S90" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T90" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U90" s="11"/>
       <c r="V90" s="7"/>
@@ -7620,52 +7648,50 @@
         <v>464</v>
       </c>
       <c r="C91" s="22">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D91" s="25">
         <v>90</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I91" s="7"/>
       <c r="J91" s="8">
-        <v>53772</v>
+        <v>53698</v>
       </c>
       <c r="K91" s="7">
         <v>99999</v>
       </c>
       <c r="L91" s="11"/>
       <c r="M91" s="17">
-        <v>37.620600000000003</v>
+        <v>38.0197</v>
       </c>
       <c r="N91" s="17">
-        <v>112.57640000000001</v>
+        <v>114.3989</v>
       </c>
       <c r="O91" s="34">
-        <v>776.3</v>
+        <v>89.3</v>
       </c>
       <c r="P91" s="20" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q91" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="R91" s="7" t="s">
-        <v>296</v>
-      </c>
+      <c r="R91" s="7"/>
       <c r="S91" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T91" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="U91" s="11"/>
       <c r="V91" s="7"/>
@@ -7678,52 +7704,52 @@
         <v>464</v>
       </c>
       <c r="C92" s="22">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D92" s="25">
         <v>91</v>
       </c>
       <c r="E92" s="28"/>
       <c r="F92" s="7" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="I92" s="7"/>
       <c r="J92" s="8">
-        <v>52866</v>
+        <v>53772</v>
       </c>
       <c r="K92" s="7">
         <v>99999</v>
       </c>
       <c r="L92" s="11"/>
       <c r="M92" s="17">
-        <v>36.664400000000001</v>
+        <v>37.620600000000003</v>
       </c>
       <c r="N92" s="17">
-        <v>101.73309999999999</v>
+        <v>112.57640000000001</v>
       </c>
       <c r="O92" s="34">
-        <v>2434.1999999999998</v>
+        <v>776.3</v>
       </c>
       <c r="P92" s="20" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Q92" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R92" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S92" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T92" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="U92" s="11"/>
       <c r="V92" s="7"/>
@@ -7736,52 +7762,52 @@
         <v>464</v>
       </c>
       <c r="C93" s="22">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D93" s="25">
         <v>92</v>
       </c>
       <c r="E93" s="28"/>
       <c r="F93" s="7" t="s">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="8">
-        <v>54823</v>
+        <v>52866</v>
       </c>
       <c r="K93" s="7">
         <v>99999</v>
       </c>
       <c r="L93" s="11"/>
       <c r="M93" s="17">
-        <v>36.601900000000001</v>
+        <v>36.664400000000001</v>
       </c>
       <c r="N93" s="17">
-        <v>117.0081</v>
+        <v>101.73309999999999</v>
       </c>
       <c r="O93" s="34">
-        <v>170.3</v>
+        <v>2434.1999999999998</v>
       </c>
       <c r="P93" s="20" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="Q93" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R93" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S93" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T93" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="U93" s="11"/>
       <c r="V93" s="7"/>
@@ -7794,52 +7820,52 @@
         <v>464</v>
       </c>
       <c r="C94" s="22">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D94" s="25">
         <v>93</v>
       </c>
       <c r="E94" s="28"/>
       <c r="F94" s="7" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="I94" s="7"/>
       <c r="J94" s="8">
-        <v>57083</v>
+        <v>54823</v>
       </c>
       <c r="K94" s="7">
         <v>99999</v>
       </c>
       <c r="L94" s="11"/>
       <c r="M94" s="17">
-        <v>34.706400000000002</v>
+        <v>36.601900000000001</v>
       </c>
       <c r="N94" s="17">
-        <v>113.6628</v>
+        <v>117.0081</v>
       </c>
       <c r="O94" s="34">
-        <v>110.4</v>
+        <v>170.3</v>
       </c>
       <c r="P94" s="20" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="Q94" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R94" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S94" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T94" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="U94" s="11"/>
       <c r="V94" s="7"/>
@@ -7852,56 +7878,54 @@
         <v>464</v>
       </c>
       <c r="C95" s="22">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D95" s="25">
         <v>94</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="7" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I95" s="7"/>
       <c r="J95" s="8">
-        <v>57131</v>
+        <v>57083</v>
       </c>
       <c r="K95" s="7">
         <v>99999</v>
       </c>
       <c r="L95" s="11"/>
       <c r="M95" s="17">
-        <v>34.433300000000003</v>
+        <v>34.706400000000002</v>
       </c>
       <c r="N95" s="17">
-        <v>108.9667</v>
+        <v>113.6628</v>
       </c>
       <c r="O95" s="34">
-        <v>410</v>
+        <v>110.4</v>
       </c>
       <c r="P95" s="20" t="s">
-        <v>468</v>
+        <v>161</v>
       </c>
       <c r="Q95" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R95" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S95" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T95" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="U95" s="11" t="s">
-        <v>470</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="U95" s="11"/>
       <c r="V95" s="7"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.4">
@@ -7912,7 +7936,7 @@
         <v>464</v>
       </c>
       <c r="C96" s="22">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D96" s="25">
         <v>95</v>
@@ -7922,47 +7946,49 @@
         <v>130</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="I96" s="7"/>
       <c r="J96" s="8">
-        <v>57245</v>
+        <v>57131</v>
       </c>
       <c r="K96" s="7">
         <v>99999</v>
       </c>
       <c r="L96" s="11"/>
       <c r="M96" s="17">
-        <v>32.693100000000001</v>
+        <v>34.433300000000003</v>
       </c>
       <c r="N96" s="17">
-        <v>109.04170000000001</v>
+        <v>108.9667</v>
       </c>
       <c r="O96" s="34">
-        <v>290.8</v>
+        <v>410</v>
       </c>
       <c r="P96" s="20" t="s">
-        <v>39</v>
+        <v>468</v>
       </c>
       <c r="Q96" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R96" s="7" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="S96" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T96" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="U96" s="11"/>
+        <v>423</v>
+      </c>
+      <c r="U96" s="11" t="s">
+        <v>470</v>
+      </c>
       <c r="V96" s="7"/>
     </row>
-    <row r="97" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A97" s="7" t="s">
         <v>3</v>
       </c>
@@ -7970,57 +7996,57 @@
         <v>464</v>
       </c>
       <c r="C97" s="22">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D97" s="25">
         <v>96</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="8">
-        <v>57687</v>
+        <v>57245</v>
       </c>
       <c r="K97" s="7">
         <v>99999</v>
       </c>
       <c r="L97" s="11"/>
       <c r="M97" s="17">
-        <v>28.108599999999999</v>
+        <v>32.693100000000001</v>
       </c>
       <c r="N97" s="17">
-        <v>112.7864</v>
+        <v>109.04170000000001</v>
       </c>
       <c r="O97" s="34">
-        <v>114</v>
+        <v>290.8</v>
       </c>
       <c r="P97" s="20" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="Q97" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R97" s="7" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="S97" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T97" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U97" s="11"/>
-      <c r="V97" s="30"/>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="V97" s="7"/>
+    </row>
+    <row r="98" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A98" s="7" t="s">
         <v>3</v>
       </c>
@@ -8028,55 +8054,55 @@
         <v>464</v>
       </c>
       <c r="C98" s="22">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D98" s="25">
         <v>97</v>
       </c>
       <c r="E98" s="28"/>
       <c r="F98" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I98" s="7"/>
       <c r="J98" s="8">
-        <v>58606</v>
+        <v>57687</v>
       </c>
       <c r="K98" s="7">
         <v>99999</v>
       </c>
       <c r="L98" s="11"/>
       <c r="M98" s="17">
-        <v>28.59</v>
+        <v>28.108599999999999</v>
       </c>
       <c r="N98" s="17">
-        <v>115.9014</v>
+        <v>112.7864</v>
       </c>
       <c r="O98" s="34">
-        <v>47.2</v>
+        <v>114</v>
       </c>
       <c r="P98" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q98" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R98" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S98" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T98" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U98" s="11"/>
-      <c r="V98" s="7"/>
+      <c r="V98" s="30"/>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A99" s="7" t="s">
@@ -8086,52 +8112,52 @@
         <v>464</v>
       </c>
       <c r="C99" s="22">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D99" s="25">
         <v>98</v>
       </c>
       <c r="E99" s="28"/>
       <c r="F99" s="7" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I99" s="7"/>
       <c r="J99" s="8">
-        <v>57494</v>
+        <v>58606</v>
       </c>
       <c r="K99" s="7">
         <v>99999</v>
       </c>
       <c r="L99" s="11"/>
       <c r="M99" s="17">
-        <v>30.597799999999999</v>
+        <v>28.59</v>
       </c>
       <c r="N99" s="17">
-        <v>114.0506</v>
+        <v>115.9014</v>
       </c>
       <c r="O99" s="34">
-        <v>23.6</v>
+        <v>47.2</v>
       </c>
       <c r="P99" s="20" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="Q99" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R99" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S99" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T99" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="U99" s="11"/>
       <c r="V99" s="7"/>
@@ -8144,52 +8170,52 @@
         <v>464</v>
       </c>
       <c r="C100" s="22">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D100" s="25">
         <v>99</v>
       </c>
       <c r="E100" s="28"/>
       <c r="F100" s="7" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="8">
-        <v>58321</v>
+        <v>57494</v>
       </c>
       <c r="K100" s="7">
         <v>99999</v>
       </c>
       <c r="L100" s="11"/>
       <c r="M100" s="17">
-        <v>31.9556</v>
+        <v>30.597799999999999</v>
       </c>
       <c r="N100" s="17">
-        <v>117.05719999999999</v>
+        <v>114.0506</v>
       </c>
       <c r="O100" s="34">
-        <v>49.8</v>
+        <v>23.6</v>
       </c>
       <c r="P100" s="20" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="Q100" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R100" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S100" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T100" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="U100" s="11"/>
       <c r="V100" s="7"/>
@@ -8202,52 +8228,52 @@
         <v>464</v>
       </c>
       <c r="C101" s="22">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D101" s="25">
         <v>100</v>
       </c>
       <c r="E101" s="28"/>
       <c r="F101" s="7" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="8">
-        <v>58238</v>
+        <v>58321</v>
       </c>
       <c r="K101" s="7">
         <v>99999</v>
       </c>
       <c r="L101" s="11"/>
       <c r="M101" s="17">
-        <v>31.931699999999999</v>
+        <v>31.9556</v>
       </c>
       <c r="N101" s="17">
-        <v>118.8997</v>
+        <v>117.05719999999999</v>
       </c>
       <c r="O101" s="34">
-        <v>33.200000000000003</v>
+        <v>49.8</v>
       </c>
       <c r="P101" s="20" t="s">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="Q101" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R101" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="S101" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T101" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U101" s="11"/>
       <c r="V101" s="7"/>
@@ -8260,52 +8286,52 @@
         <v>464</v>
       </c>
       <c r="C102" s="22">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D102" s="25">
         <v>101</v>
       </c>
       <c r="E102" s="28"/>
       <c r="F102" s="7" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="8">
-        <v>58457</v>
+        <v>58238</v>
       </c>
       <c r="K102" s="7">
         <v>99999</v>
       </c>
       <c r="L102" s="11"/>
       <c r="M102" s="17">
-        <v>30.2258</v>
+        <v>31.931699999999999</v>
       </c>
       <c r="N102" s="17">
-        <v>120.1647</v>
+        <v>118.8997</v>
       </c>
       <c r="O102" s="34">
-        <v>42.1</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="P102" s="20" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="Q102" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R102" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="S102" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T102" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U102" s="11"/>
       <c r="V102" s="7"/>
@@ -8318,7 +8344,7 @@
         <v>464</v>
       </c>
       <c r="C103" s="22">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D103" s="25">
         <v>102</v>
@@ -8328,42 +8354,42 @@
         <v>111</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I103" s="7"/>
       <c r="J103" s="8">
-        <v>58646</v>
+        <v>58457</v>
       </c>
       <c r="K103" s="7">
         <v>99999</v>
       </c>
       <c r="L103" s="11"/>
       <c r="M103" s="17">
-        <v>28.394400000000001</v>
+        <v>30.2258</v>
       </c>
       <c r="N103" s="17">
-        <v>119.85420000000001</v>
+        <v>120.1647</v>
       </c>
       <c r="O103" s="34">
-        <v>144.5</v>
+        <v>42.1</v>
       </c>
       <c r="P103" s="20" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="Q103" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R103" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S103" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T103" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="U103" s="11"/>
       <c r="V103" s="7"/>
@@ -8376,52 +8402,52 @@
         <v>464</v>
       </c>
       <c r="C104" s="22">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D104" s="25">
         <v>103</v>
       </c>
       <c r="E104" s="28"/>
       <c r="F104" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="8">
-        <v>58847</v>
+        <v>58646</v>
       </c>
       <c r="K104" s="7">
         <v>99999</v>
       </c>
       <c r="L104" s="11"/>
       <c r="M104" s="17">
-        <v>26.077500000000001</v>
+        <v>28.394400000000001</v>
       </c>
       <c r="N104" s="17">
-        <v>119.2894</v>
+        <v>119.85420000000001</v>
       </c>
       <c r="O104" s="34">
-        <v>84.1</v>
+        <v>144.5</v>
       </c>
       <c r="P104" s="20" t="s">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="Q104" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R104" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S104" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T104" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="U104" s="11"/>
       <c r="V104" s="7"/>
@@ -8434,162 +8460,164 @@
         <v>464</v>
       </c>
       <c r="C105" s="22">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D105" s="25">
         <v>104</v>
       </c>
       <c r="E105" s="28"/>
       <c r="F105" s="7" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="8">
-        <v>59287</v>
+        <v>58847</v>
       </c>
       <c r="K105" s="7">
         <v>99999</v>
       </c>
       <c r="L105" s="11"/>
       <c r="M105" s="17">
-        <v>23.21</v>
+        <v>26.077500000000001</v>
       </c>
       <c r="N105" s="17">
-        <v>113.48220000000001</v>
+        <v>119.2894</v>
       </c>
       <c r="O105" s="34">
-        <v>70.7</v>
+        <v>84.1</v>
       </c>
       <c r="P105" s="20" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="Q105" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R105" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S105" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T105" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="U105" s="11"/>
       <c r="V105" s="7"/>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A106" s="7" t="s">
-        <v>566</v>
+        <v>3</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>567</v>
+        <v>464</v>
       </c>
       <c r="C106" s="22">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D106" s="25">
         <v>105</v>
       </c>
       <c r="E106" s="28"/>
       <c r="F106" s="7" t="s">
-        <v>568</v>
+        <v>184</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>570</v>
+        <v>185</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="I106" s="7"/>
       <c r="J106" s="8">
-        <v>59758</v>
+        <v>59287</v>
       </c>
       <c r="K106" s="7">
         <v>99999</v>
       </c>
       <c r="L106" s="11"/>
       <c r="M106" s="17">
-        <v>19.9939</v>
+        <v>23.21</v>
       </c>
       <c r="N106" s="17">
-        <v>110.2469</v>
+        <v>113.48220000000001</v>
       </c>
       <c r="O106" s="34">
-        <v>63.5</v>
+        <v>70.7</v>
       </c>
       <c r="P106" s="20" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q106" s="9"/>
-      <c r="R106" s="7"/>
+        <v>187</v>
+      </c>
+      <c r="Q106" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="R106" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="S106" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T106" s="7" t="s">
-        <v>571</v>
+        <v>433</v>
       </c>
       <c r="U106" s="11"/>
       <c r="V106" s="7"/>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A107" s="7" t="s">
-        <v>3</v>
+        <v>566</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>464</v>
+        <v>567</v>
       </c>
       <c r="C107" s="22">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D107" s="25">
         <v>106</v>
       </c>
       <c r="E107" s="28"/>
       <c r="F107" s="7" t="s">
-        <v>124</v>
+        <v>568</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>168</v>
+        <v>570</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>219</v>
+        <v>126</v>
       </c>
       <c r="I107" s="7"/>
       <c r="J107" s="8">
-        <v>59948</v>
+        <v>59758</v>
       </c>
       <c r="K107" s="7">
         <v>99999</v>
       </c>
       <c r="L107" s="11"/>
       <c r="M107" s="17">
-        <v>18.216699999999999</v>
+        <v>19.9939</v>
       </c>
       <c r="N107" s="17">
-        <v>109.58329999999999</v>
+        <v>110.2469</v>
       </c>
       <c r="O107" s="34">
-        <v>419.4</v>
+        <v>63.5</v>
       </c>
       <c r="P107" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q107" s="9" t="s">
-        <v>388</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="Q107" s="9"/>
       <c r="R107" s="7"/>
       <c r="S107" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T107" s="7" t="s">
-        <v>434</v>
+        <v>571</v>
       </c>
       <c r="U107" s="11"/>
       <c r="V107" s="7"/>
@@ -8602,7 +8630,7 @@
         <v>464</v>
       </c>
       <c r="C108" s="22">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D108" s="25">
         <v>107</v>
@@ -8612,30 +8640,30 @@
         <v>124</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>126</v>
+        <v>219</v>
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="8">
-        <v>59838</v>
+        <v>59948</v>
       </c>
       <c r="K108" s="7">
         <v>99999</v>
       </c>
       <c r="L108" s="11"/>
       <c r="M108" s="17">
-        <v>19.094200000000001</v>
+        <v>18.216699999999999</v>
       </c>
       <c r="N108" s="17">
-        <v>108.6217</v>
+        <v>109.58329999999999</v>
       </c>
       <c r="O108" s="34">
-        <v>6.1</v>
+        <v>419.4</v>
       </c>
       <c r="P108" s="20" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="Q108" s="9" t="s">
         <v>388</v>
@@ -8645,7 +8673,7 @@
         <v>385</v>
       </c>
       <c r="T108" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U108" s="11"/>
       <c r="V108" s="7"/>
@@ -8658,57 +8686,55 @@
         <v>464</v>
       </c>
       <c r="C109" s="22">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D109" s="25">
         <v>108</v>
       </c>
       <c r="E109" s="28"/>
       <c r="F109" s="7" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="I109" s="7"/>
       <c r="J109" s="8">
-        <v>59431</v>
+        <v>59838</v>
       </c>
       <c r="K109" s="7">
         <v>99999</v>
       </c>
       <c r="L109" s="11"/>
       <c r="M109" s="17">
-        <v>22.783899999999999</v>
+        <v>19.094200000000001</v>
       </c>
       <c r="N109" s="17">
-        <v>108.5472</v>
+        <v>108.6217</v>
       </c>
       <c r="O109" s="34">
-        <v>152.1</v>
+        <v>6.1</v>
       </c>
       <c r="P109" s="20" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="Q109" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="R109" s="7" t="s">
-        <v>309</v>
-      </c>
+      <c r="R109" s="7"/>
       <c r="S109" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T109" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="U109" s="11"/>
       <c r="V109" s="7"/>
     </row>
-    <row r="110" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A110" s="7" t="s">
         <v>3</v>
       </c>
@@ -8716,57 +8742,57 @@
         <v>464</v>
       </c>
       <c r="C110" s="22">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D110" s="25">
         <v>109</v>
       </c>
       <c r="E110" s="28"/>
       <c r="F110" s="7" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="I110" s="7"/>
       <c r="J110" s="8">
-        <v>56966</v>
+        <v>59431</v>
       </c>
       <c r="K110" s="7">
         <v>99999</v>
       </c>
       <c r="L110" s="11"/>
       <c r="M110" s="17">
-        <v>23.632200000000001</v>
+        <v>22.783899999999999</v>
       </c>
       <c r="N110" s="17">
-        <v>101.9683</v>
+        <v>108.5472</v>
       </c>
       <c r="O110" s="34">
-        <v>506.8</v>
+        <v>152.1</v>
       </c>
       <c r="P110" s="20" t="s">
-        <v>35</v>
+        <v>191</v>
       </c>
       <c r="Q110" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R110" s="7" t="s">
-        <v>35</v>
+        <v>309</v>
       </c>
       <c r="S110" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T110" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U110" s="11"/>
       <c r="V110" s="7"/>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A111" s="7" t="s">
         <v>3</v>
       </c>
@@ -8774,7 +8800,7 @@
         <v>464</v>
       </c>
       <c r="C111" s="22">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D111" s="25">
         <v>110</v>
@@ -8784,42 +8810,42 @@
         <v>118</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="I111" s="7"/>
       <c r="J111" s="8">
-        <v>56778</v>
+        <v>56966</v>
       </c>
       <c r="K111" s="7">
         <v>99999</v>
       </c>
       <c r="L111" s="11"/>
       <c r="M111" s="17">
-        <v>25.0078</v>
+        <v>23.632200000000001</v>
       </c>
       <c r="N111" s="17">
-        <v>102.65309999999999</v>
+        <v>101.9683</v>
       </c>
       <c r="O111" s="34">
-        <v>1888.1</v>
+        <v>506.8</v>
       </c>
       <c r="P111" s="20" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="Q111" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R111" s="7" t="s">
-        <v>310</v>
+        <v>35</v>
       </c>
       <c r="S111" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T111" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="U111" s="11"/>
       <c r="V111" s="7"/>
@@ -8832,57 +8858,57 @@
         <v>464</v>
       </c>
       <c r="C112" s="22">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D112" s="25">
         <v>111</v>
       </c>
       <c r="E112" s="28"/>
       <c r="F112" s="7" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="I112" s="7"/>
       <c r="J112" s="8">
-        <v>57816</v>
+        <v>56778</v>
       </c>
       <c r="K112" s="7">
         <v>99999</v>
       </c>
       <c r="L112" s="11"/>
       <c r="M112" s="17">
-        <v>26.589700000000001</v>
+        <v>25.0078</v>
       </c>
       <c r="N112" s="17">
-        <v>106.72750000000001</v>
+        <v>102.65309999999999</v>
       </c>
       <c r="O112" s="34">
-        <v>1227.3</v>
+        <v>1888.1</v>
       </c>
       <c r="P112" s="20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q112" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R112" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S112" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T112" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="U112" s="11"/>
       <c r="V112" s="7"/>
     </row>
-    <row r="113" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A113" s="7" t="s">
         <v>3</v>
       </c>
@@ -8890,55 +8916,57 @@
         <v>464</v>
       </c>
       <c r="C113" s="22">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D113" s="25">
         <v>112</v>
       </c>
       <c r="E113" s="28"/>
       <c r="F113" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G113" s="7"/>
+        <v>175</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="H113" s="7" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="I113" s="7"/>
       <c r="J113" s="8">
-        <v>57516</v>
+        <v>57816</v>
       </c>
       <c r="K113" s="7">
         <v>99999</v>
       </c>
       <c r="L113" s="11"/>
       <c r="M113" s="17">
-        <v>29.604700000000001</v>
+        <v>26.589700000000001</v>
       </c>
       <c r="N113" s="17">
-        <v>106.4042</v>
+        <v>106.72750000000001</v>
       </c>
       <c r="O113" s="34">
-        <v>542.1</v>
+        <v>1227.3</v>
       </c>
       <c r="P113" s="20" t="s">
-        <v>466</v>
+        <v>177</v>
       </c>
       <c r="Q113" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R113" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S113" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T113" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="U113" s="11"/>
       <c r="V113" s="7"/>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A114" s="7" t="s">
         <v>3</v>
       </c>
@@ -8946,49 +8974,51 @@
         <v>464</v>
       </c>
       <c r="C114" s="22">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D114" s="25">
         <v>113</v>
       </c>
       <c r="E114" s="28"/>
       <c r="F114" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>531</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G114" s="7"/>
       <c r="H114" s="7" t="s">
-        <v>532</v>
+        <v>129</v>
       </c>
       <c r="I114" s="7"/>
       <c r="J114" s="8">
-        <v>57413</v>
+        <v>57516</v>
       </c>
       <c r="K114" s="7">
         <v>99999</v>
       </c>
       <c r="L114" s="11"/>
       <c r="M114" s="17">
-        <v>30.856400000000001</v>
+        <v>29.604700000000001</v>
       </c>
       <c r="N114" s="17">
-        <v>106.9983</v>
+        <v>106.4042</v>
       </c>
       <c r="O114" s="34">
-        <v>305.7</v>
+        <v>542.1</v>
       </c>
       <c r="P114" s="20" t="s">
-        <v>532</v>
+        <v>466</v>
       </c>
       <c r="Q114" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R114" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="S114" s="10"/>
-      <c r="T114" s="7"/>
+        <v>312</v>
+      </c>
+      <c r="S114" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="T114" s="7" t="s">
+        <v>440</v>
+      </c>
       <c r="U114" s="11"/>
       <c r="V114" s="7"/>
     </row>
@@ -9000,7 +9030,7 @@
         <v>464</v>
       </c>
       <c r="C115" s="22">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D115" s="25">
         <v>114</v>
@@ -9010,46 +9040,40 @@
         <v>135</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>136</v>
+        <v>531</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>137</v>
+        <v>532</v>
       </c>
       <c r="I115" s="7"/>
       <c r="J115" s="8">
-        <v>56187</v>
+        <v>57413</v>
       </c>
       <c r="K115" s="7">
         <v>99999</v>
       </c>
       <c r="L115" s="11"/>
       <c r="M115" s="17">
-        <v>30.748899999999999</v>
+        <v>30.856400000000001</v>
       </c>
       <c r="N115" s="17">
-        <v>103.861</v>
+        <v>106.9983</v>
       </c>
       <c r="O115" s="34">
-        <v>547.70000000000005</v>
+        <v>305.7</v>
       </c>
       <c r="P115" s="20" t="s">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="Q115" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R115" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="S115" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="T115" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="U115" s="11" t="s">
-        <v>471</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="S115" s="10"/>
+      <c r="T115" s="7"/>
+      <c r="U115" s="11"/>
       <c r="V115" s="7"/>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.4">
@@ -9060,54 +9084,56 @@
         <v>464</v>
       </c>
       <c r="C116" s="22">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D116" s="25">
         <v>115</v>
       </c>
       <c r="E116" s="28"/>
       <c r="F116" s="7" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="I116" s="7"/>
       <c r="J116" s="8">
-        <v>55591</v>
+        <v>56187</v>
       </c>
       <c r="K116" s="7">
         <v>99999</v>
       </c>
       <c r="L116" s="11"/>
       <c r="M116" s="17">
-        <v>29.6586</v>
+        <v>30.748899999999999</v>
       </c>
       <c r="N116" s="17">
-        <v>91.135300000000001</v>
+        <v>103.861</v>
       </c>
       <c r="O116" s="34">
-        <v>3648.7</v>
+        <v>547.70000000000005</v>
       </c>
       <c r="P116" s="20" t="s">
-        <v>171</v>
+        <v>467</v>
       </c>
       <c r="Q116" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R116" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S116" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T116" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="U116" s="11"/>
+        <v>441</v>
+      </c>
+      <c r="U116" s="11" t="s">
+        <v>471</v>
+      </c>
       <c r="V116" s="7"/>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.4">
@@ -9118,49 +9144,53 @@
         <v>464</v>
       </c>
       <c r="C117" s="22">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D117" s="25">
         <v>116</v>
       </c>
       <c r="E117" s="28"/>
       <c r="F117" s="7" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="8">
-        <v>52267</v>
+        <v>55591</v>
       </c>
       <c r="K117" s="7">
         <v>99999</v>
       </c>
       <c r="L117" s="11"/>
       <c r="M117" s="17">
-        <v>41.956899999999997</v>
+        <v>29.6586</v>
       </c>
       <c r="N117" s="17">
-        <v>101.0611</v>
+        <v>91.135300000000001</v>
       </c>
       <c r="O117" s="34">
-        <v>939</v>
+        <v>3648.7</v>
       </c>
       <c r="P117" s="20" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="Q117" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R117" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="S117" s="10"/>
-      <c r="T117" s="7"/>
+        <v>314</v>
+      </c>
+      <c r="S117" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="T117" s="7" t="s">
+        <v>442</v>
+      </c>
       <c r="U117" s="11"/>
       <c r="V117" s="7"/>
     </row>
@@ -9172,47 +9202,47 @@
         <v>464</v>
       </c>
       <c r="C118" s="22">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D118" s="25">
         <v>117</v>
       </c>
-      <c r="E118" s="28">
-        <v>0</v>
-      </c>
+      <c r="E118" s="28"/>
       <c r="F118" s="7" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="I118" s="7"/>
       <c r="J118" s="8">
-        <v>53478</v>
+        <v>52267</v>
       </c>
       <c r="K118" s="7">
         <v>99999</v>
       </c>
       <c r="L118" s="11"/>
       <c r="M118" s="17">
-        <v>39.994199999999999</v>
+        <v>41.956899999999997</v>
       </c>
       <c r="N118" s="17">
-        <v>112.4603</v>
+        <v>101.0611</v>
       </c>
       <c r="O118" s="34">
-        <v>1345.8</v>
+        <v>939</v>
       </c>
       <c r="P118" s="20" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="Q118" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="R118" s="7"/>
+      <c r="R118" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="S118" s="10"/>
       <c r="T118" s="7"/>
       <c r="U118" s="11"/>
@@ -9226,45 +9256,47 @@
         <v>464</v>
       </c>
       <c r="C119" s="22">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D119" s="25">
         <v>118</v>
       </c>
-      <c r="E119" s="28"/>
+      <c r="E119" s="28">
+        <v>0</v>
+      </c>
       <c r="F119" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G119" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="H119" s="7" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="I119" s="7"/>
       <c r="J119" s="8">
-        <v>58367</v>
+        <v>53478</v>
       </c>
       <c r="K119" s="7">
         <v>99999</v>
       </c>
       <c r="L119" s="11"/>
       <c r="M119" s="17">
-        <v>31.1922</v>
+        <v>39.994199999999999</v>
       </c>
       <c r="N119" s="17">
-        <v>121.43170000000001</v>
+        <v>112.4603</v>
       </c>
       <c r="O119" s="34">
-        <v>2</v>
+        <v>1345.8</v>
       </c>
       <c r="P119" s="20" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="Q119" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="R119" s="7" t="s">
-        <v>303</v>
-      </c>
+      <c r="R119" s="7"/>
       <c r="S119" s="10"/>
       <c r="T119" s="7"/>
       <c r="U119" s="11"/>
@@ -9278,46 +9310,44 @@
         <v>464</v>
       </c>
       <c r="C120" s="22">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D120" s="25">
         <v>119</v>
       </c>
       <c r="E120" s="28"/>
       <c r="F120" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>117</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G120" s="7"/>
       <c r="H120" s="7" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="I120" s="7"/>
       <c r="J120" s="8">
-        <v>58826</v>
+        <v>58367</v>
       </c>
       <c r="K120" s="7">
         <v>99999</v>
       </c>
       <c r="L120" s="11"/>
       <c r="M120" s="17">
-        <v>26.391100000000002</v>
+        <v>31.1922</v>
       </c>
       <c r="N120" s="17">
-        <v>117.8069</v>
+        <v>121.43170000000001</v>
       </c>
       <c r="O120" s="34">
-        <v>120.7</v>
+        <v>2</v>
       </c>
       <c r="P120" s="20" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="Q120" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R120" s="7" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="S120" s="10"/>
       <c r="T120" s="7"/>
@@ -9332,46 +9362,46 @@
         <v>464</v>
       </c>
       <c r="C121" s="22">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D121" s="25">
         <v>120</v>
       </c>
       <c r="E121" s="28"/>
       <c r="F121" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="8">
-        <v>58637</v>
+        <v>58826</v>
       </c>
       <c r="K121" s="7">
         <v>99999</v>
       </c>
       <c r="L121" s="11"/>
       <c r="M121" s="17">
-        <v>28.442799999999998</v>
+        <v>26.391100000000002</v>
       </c>
       <c r="N121" s="17">
-        <v>117.97669999999999</v>
+        <v>117.8069</v>
       </c>
       <c r="O121" s="34">
-        <v>118.5</v>
+        <v>120.7</v>
       </c>
       <c r="P121" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q121" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R121" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S121" s="10"/>
       <c r="T121" s="7"/>
@@ -9386,46 +9416,46 @@
         <v>464</v>
       </c>
       <c r="C122" s="22">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D122" s="25">
         <v>121</v>
       </c>
       <c r="E122" s="28"/>
       <c r="F122" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I122" s="7"/>
       <c r="J122" s="8">
-        <v>57778</v>
+        <v>58637</v>
       </c>
       <c r="K122" s="7">
         <v>99999</v>
       </c>
       <c r="L122" s="11"/>
       <c r="M122" s="17">
-        <v>27.052499999999998</v>
+        <v>28.442799999999998</v>
       </c>
       <c r="N122" s="17">
-        <v>112.9847</v>
+        <v>117.97669999999999</v>
       </c>
       <c r="O122" s="34">
-        <v>109.4</v>
+        <v>118.5</v>
       </c>
       <c r="P122" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q122" s="9" t="s">
         <v>388</v>
       </c>
       <c r="R122" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S122" s="10"/>
       <c r="T122" s="7"/>
@@ -9433,112 +9463,112 @@
       <c r="V122" s="7"/>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B123" s="22" t="s">
         <v>464</v>
       </c>
       <c r="C123" s="22">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D123" s="25">
         <v>122</v>
       </c>
       <c r="E123" s="28"/>
-      <c r="F123" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="G123" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="H123" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="I123" s="14"/>
+      <c r="F123" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I123" s="7"/>
       <c r="J123" s="8">
-        <v>52889</v>
-      </c>
-      <c r="K123" s="14">
+        <v>57778</v>
+      </c>
+      <c r="K123" s="7">
         <v>99999</v>
       </c>
-      <c r="L123" s="15"/>
-      <c r="M123" s="18">
-        <v>36.043900000000001</v>
-      </c>
-      <c r="N123" s="18">
-        <v>103.87779999999999</v>
-      </c>
-      <c r="O123" s="33">
-        <v>1517.2</v>
-      </c>
-      <c r="P123" s="13" t="s">
-        <v>207</v>
+      <c r="L123" s="11"/>
+      <c r="M123" s="17">
+        <v>27.052499999999998</v>
+      </c>
+      <c r="N123" s="17">
+        <v>112.9847</v>
+      </c>
+      <c r="O123" s="34">
+        <v>109.4</v>
+      </c>
+      <c r="P123" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="Q123" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="R123" s="14" t="s">
-        <v>299</v>
+      <c r="R123" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="S123" s="10"/>
-      <c r="T123" s="14"/>
-      <c r="U123" s="11" t="s">
-        <v>472</v>
-      </c>
+      <c r="T123" s="7"/>
+      <c r="U123" s="11"/>
       <c r="V123" s="7"/>
     </row>
-    <row r="124" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A124" s="7" t="s">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A124" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B124" s="22" t="s">
         <v>464</v>
       </c>
       <c r="C124" s="22">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D124" s="25">
         <v>123</v>
       </c>
       <c r="E124" s="28"/>
-      <c r="F124" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I124" s="7"/>
+      <c r="F124" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="G124" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H124" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I124" s="14"/>
       <c r="J124" s="8">
-        <v>50341</v>
-      </c>
-      <c r="K124" s="7">
+        <v>52889</v>
+      </c>
+      <c r="K124" s="14">
         <v>99999</v>
       </c>
-      <c r="L124" s="11"/>
-      <c r="M124" s="17">
-        <v>51.683300000000003</v>
-      </c>
-      <c r="N124" s="17">
-        <v>123.61669999999999</v>
+      <c r="L124" s="15"/>
+      <c r="M124" s="18">
+        <v>36.043900000000001</v>
+      </c>
+      <c r="N124" s="18">
+        <v>103.87779999999999</v>
       </c>
       <c r="O124" s="33">
-        <v>654</v>
-      </c>
-      <c r="P124" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q124" s="9"/>
-      <c r="R124" s="7" t="s">
-        <v>371</v>
+        <v>1517.2</v>
+      </c>
+      <c r="P124" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q124" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="R124" s="14" t="s">
+        <v>299</v>
       </c>
       <c r="S124" s="10"/>
-      <c r="T124" s="7"/>
+      <c r="T124" s="14"/>
       <c r="U124" s="11" t="s">
-        <v>510</v>
+        <v>472</v>
       </c>
       <c r="V124" s="7"/>
     </row>
@@ -9550,7 +9580,7 @@
         <v>464</v>
       </c>
       <c r="C125" s="22">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D125" s="25">
         <v>124</v>
@@ -9563,36 +9593,40 @@
         <v>54</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="I125" s="7"/>
-      <c r="J125" s="8"/>
-      <c r="K125" s="7"/>
-      <c r="L125" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="M125" s="18">
-        <v>52.839700000000001</v>
-      </c>
-      <c r="N125" s="18">
-        <v>123.17140000000001</v>
+      <c r="J125" s="8">
+        <v>50341</v>
+      </c>
+      <c r="K125" s="7">
+        <v>99999</v>
+      </c>
+      <c r="L125" s="11"/>
+      <c r="M125" s="17">
+        <v>51.683300000000003</v>
+      </c>
+      <c r="N125" s="17">
+        <v>123.61669999999999</v>
       </c>
       <c r="O125" s="33">
-        <v>507.5</v>
+        <v>654</v>
       </c>
       <c r="P125" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q125" s="9"/>
       <c r="R125" s="7" t="s">
-        <v>283</v>
+        <v>371</v>
       </c>
       <c r="S125" s="10"/>
       <c r="T125" s="7"/>
-      <c r="U125" s="11"/>
+      <c r="U125" s="11" t="s">
+        <v>510</v>
+      </c>
       <c r="V125" s="7"/>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A126" s="7" t="s">
         <v>3</v>
       </c>
@@ -9600,44 +9634,42 @@
         <v>464</v>
       </c>
       <c r="C126" s="22">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D126" s="25">
         <v>125</v>
       </c>
       <c r="E126" s="28"/>
       <c r="F126" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I126" s="7" t="s">
-        <v>479</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="I126" s="7"/>
       <c r="J126" s="8"/>
       <c r="K126" s="7"/>
       <c r="L126" s="11" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
       <c r="M126" s="18">
-        <v>51.3264</v>
+        <v>52.839700000000001</v>
       </c>
       <c r="N126" s="18">
-        <v>119.8869</v>
+        <v>123.17140000000001</v>
       </c>
       <c r="O126" s="33">
-        <v>496.2</v>
+        <v>507.5</v>
       </c>
       <c r="P126" s="20" t="s">
-        <v>477</v>
+        <v>370</v>
       </c>
       <c r="Q126" s="9"/>
       <c r="R126" s="7" t="s">
-        <v>478</v>
+        <v>283</v>
       </c>
       <c r="S126" s="10"/>
       <c r="T126" s="7"/>
@@ -9652,7 +9684,7 @@
         <v>464</v>
       </c>
       <c r="C127" s="22">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D127" s="25">
         <v>126</v>
@@ -9665,21 +9697,31 @@
         <v>57</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I127" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>479</v>
+      </c>
       <c r="J127" s="8"/>
       <c r="K127" s="7"/>
-      <c r="L127" s="11"/>
-      <c r="M127" s="18"/>
-      <c r="N127" s="18"/>
-      <c r="O127" s="33"/>
+      <c r="L127" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="M127" s="18">
+        <v>51.3264</v>
+      </c>
+      <c r="N127" s="18">
+        <v>119.8869</v>
+      </c>
+      <c r="O127" s="33">
+        <v>496.2</v>
+      </c>
       <c r="P127" s="20" t="s">
-        <v>368</v>
+        <v>477</v>
       </c>
       <c r="Q127" s="9"/>
       <c r="R127" s="7" t="s">
-        <v>280</v>
+        <v>478</v>
       </c>
       <c r="S127" s="10"/>
       <c r="T127" s="7"/>
@@ -9694,7 +9736,7 @@
         <v>464</v>
       </c>
       <c r="C128" s="22">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D128" s="25">
         <v>127</v>
@@ -9707,25 +9749,17 @@
         <v>57</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I128" s="7"/>
       <c r="J128" s="8"/>
       <c r="K128" s="7"/>
-      <c r="L128" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="M128" s="18">
-        <v>52.6633</v>
-      </c>
-      <c r="N128" s="18">
-        <v>120.82470000000001</v>
-      </c>
-      <c r="O128" s="33">
-        <v>430</v>
-      </c>
+      <c r="L128" s="11"/>
+      <c r="M128" s="18"/>
+      <c r="N128" s="18"/>
+      <c r="O128" s="33"/>
       <c r="P128" s="20" t="s">
-        <v>529</v>
+        <v>368</v>
       </c>
       <c r="Q128" s="9"/>
       <c r="R128" s="7" t="s">
@@ -9733,12 +9767,10 @@
       </c>
       <c r="S128" s="10"/>
       <c r="T128" s="7"/>
-      <c r="U128" s="11" t="s">
-        <v>510</v>
-      </c>
+      <c r="U128" s="11"/>
       <c r="V128" s="7"/>
     </row>
-    <row r="129" spans="1:22" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A129" s="7" t="s">
         <v>3</v>
       </c>
@@ -9746,51 +9778,51 @@
         <v>464</v>
       </c>
       <c r="C129" s="22">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D129" s="25">
         <v>128</v>
       </c>
       <c r="E129" s="28"/>
       <c r="F129" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="I129" s="7" t="s">
-        <v>381</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I129" s="7"/>
       <c r="J129" s="8"/>
       <c r="K129" s="7"/>
       <c r="L129" s="11" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M129" s="18">
-        <v>48.584200000000003</v>
+        <v>52.6633</v>
       </c>
       <c r="N129" s="18">
-        <v>87.457800000000006</v>
+        <v>120.82470000000001</v>
       </c>
       <c r="O129" s="33">
-        <v>1223</v>
+        <v>430</v>
       </c>
       <c r="P129" s="20" t="s">
-        <v>378</v>
+        <v>529</v>
       </c>
       <c r="Q129" s="9"/>
       <c r="R129" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="S129" s="10"/>
       <c r="T129" s="7"/>
-      <c r="U129" s="11"/>
+      <c r="U129" s="11" t="s">
+        <v>510</v>
+      </c>
       <c r="V129" s="7"/>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:22" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A130" s="7" t="s">
         <v>3</v>
       </c>
@@ -9798,7 +9830,7 @@
         <v>464</v>
       </c>
       <c r="C130" s="22">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D130" s="25">
         <v>129</v>
@@ -9811,27 +9843,27 @@
         <v>74</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="I130" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="J130" s="8"/>
       <c r="K130" s="7"/>
       <c r="L130" s="11" t="s">
-        <v>380</v>
+        <v>525</v>
       </c>
       <c r="M130" s="18">
-        <v>47.027200000000001</v>
+        <v>48.584200000000003</v>
       </c>
       <c r="N130" s="18">
-        <v>89.797499999999999</v>
+        <v>87.457800000000006</v>
       </c>
       <c r="O130" s="33">
-        <v>1333</v>
+        <v>1223</v>
       </c>
       <c r="P130" s="20" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="Q130" s="9"/>
       <c r="R130" s="7" t="s">
@@ -9850,7 +9882,7 @@
         <v>464</v>
       </c>
       <c r="C131" s="22">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D131" s="25">
         <v>130</v>
@@ -9863,25 +9895,27 @@
         <v>74</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I131" s="7"/>
+        <v>365</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>366</v>
+      </c>
       <c r="J131" s="8"/>
       <c r="K131" s="7"/>
       <c r="L131" s="11" t="s">
-        <v>526</v>
+        <v>380</v>
       </c>
       <c r="M131" s="18">
-        <v>46.801099999999998</v>
+        <v>47.027200000000001</v>
       </c>
       <c r="N131" s="18">
-        <v>90.88</v>
+        <v>89.797499999999999</v>
       </c>
       <c r="O131" s="33">
-        <v>2640</v>
+        <v>1333</v>
       </c>
       <c r="P131" s="20" t="s">
-        <v>527</v>
+        <v>366</v>
       </c>
       <c r="Q131" s="9"/>
       <c r="R131" s="7" t="s">
@@ -9889,12 +9923,10 @@
       </c>
       <c r="S131" s="10"/>
       <c r="T131" s="7"/>
-      <c r="U131" s="11" t="s">
-        <v>510</v>
-      </c>
+      <c r="U131" s="11"/>
       <c r="V131" s="7"/>
     </row>
-    <row r="132" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A132" s="7" t="s">
         <v>3</v>
       </c>
@@ -9902,7 +9934,7 @@
         <v>464</v>
       </c>
       <c r="C132" s="22">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D132" s="25">
         <v>131</v>
@@ -9912,94 +9944,90 @@
         <v>69</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I132" s="7" t="s">
-        <v>367</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I132" s="7"/>
       <c r="J132" s="8"/>
       <c r="K132" s="7"/>
       <c r="L132" s="11" t="s">
-        <v>564</v>
+        <v>526</v>
       </c>
       <c r="M132" s="18">
-        <v>42.828800000000001</v>
+        <v>46.801099999999998</v>
       </c>
       <c r="N132" s="18">
-        <v>83.716099999999997</v>
+        <v>90.88</v>
       </c>
       <c r="O132" s="33">
-        <v>2465</v>
+        <v>2640</v>
       </c>
       <c r="P132" s="20" t="s">
-        <v>367</v>
+        <v>527</v>
       </c>
       <c r="Q132" s="9"/>
       <c r="R132" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S132" s="10"/>
       <c r="T132" s="7"/>
-      <c r="U132" s="11"/>
+      <c r="U132" s="11" t="s">
+        <v>510</v>
+      </c>
       <c r="V132" s="7"/>
     </row>
     <row r="133" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A133" s="7" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B133" s="22" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="C133" s="22">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="D133" s="25">
         <v>132</v>
       </c>
       <c r="E133" s="28"/>
       <c r="F133" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="7"/>
-      <c r="J133" s="8">
-        <v>31137</v>
-      </c>
-      <c r="K133" s="7">
-        <v>99999</v>
-      </c>
-      <c r="L133" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="J133" s="8"/>
+      <c r="K133" s="7"/>
+      <c r="L133" s="11" t="s">
+        <v>564</v>
+      </c>
       <c r="M133" s="18">
-        <v>56.283333300000002</v>
+        <v>42.828800000000001</v>
       </c>
       <c r="N133" s="18">
-        <v>131.1333333</v>
+        <v>83.716099999999997</v>
       </c>
       <c r="O133" s="33">
-        <v>850</v>
+        <v>2465</v>
       </c>
       <c r="P133" s="20" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q133" s="9" t="s">
-        <v>389</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="Q133" s="9"/>
       <c r="R133" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="S133" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="T133" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="U133" s="11" t="s">
-        <v>481</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="S133" s="10"/>
+      <c r="T133" s="7"/>
+      <c r="U133" s="11"/>
       <c r="V133" s="7"/>
     </row>
     <row r="134" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
@@ -10010,7 +10038,7 @@
         <v>480</v>
       </c>
       <c r="C134" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134" s="25">
         <v>133</v>
@@ -10023,42 +10051,42 @@
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
       <c r="J134" s="8">
-        <v>24688</v>
+        <v>31137</v>
       </c>
       <c r="K134" s="7">
         <v>99999</v>
       </c>
       <c r="L134" s="11"/>
       <c r="M134" s="18">
-        <v>63.25</v>
+        <v>56.283333300000002</v>
       </c>
       <c r="N134" s="18">
-        <v>143.15</v>
+        <v>131.1333333</v>
       </c>
       <c r="O134" s="33">
-        <v>741</v>
+        <v>850</v>
       </c>
       <c r="P134" s="20" t="s">
-        <v>51</v>
+        <v>544</v>
       </c>
       <c r="Q134" s="9" t="s">
         <v>389</v>
       </c>
       <c r="R134" s="7" t="s">
-        <v>560</v>
+        <v>326</v>
       </c>
       <c r="S134" s="10" t="s">
         <v>385</v>
       </c>
       <c r="T134" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="U134" s="11" t="s">
         <v>481</v>
       </c>
       <c r="V134" s="7"/>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A135" s="7" t="s">
         <v>42</v>
       </c>
@@ -10066,7 +10094,7 @@
         <v>480</v>
       </c>
       <c r="C135" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D135" s="25">
         <v>134</v>
@@ -10079,37 +10107,39 @@
       <c r="H135" s="7"/>
       <c r="I135" s="7"/>
       <c r="J135" s="8">
-        <v>24585</v>
+        <v>24688</v>
       </c>
       <c r="K135" s="7">
         <v>99999</v>
       </c>
       <c r="L135" s="11"/>
       <c r="M135" s="18">
-        <v>64.55</v>
+        <v>63.25</v>
       </c>
       <c r="N135" s="18">
-        <v>144.4</v>
+        <v>143.15</v>
       </c>
       <c r="O135" s="33">
-        <v>518.52</v>
+        <v>741</v>
       </c>
       <c r="P135" s="20" t="s">
-        <v>542</v>
+        <v>51</v>
       </c>
       <c r="Q135" s="9" t="s">
         <v>389</v>
       </c>
       <c r="R135" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="S135" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T135" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="U135" s="11"/>
+        <v>457</v>
+      </c>
+      <c r="U135" s="11" t="s">
+        <v>481</v>
+      </c>
       <c r="V135" s="7"/>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.4">
@@ -10120,7 +10150,7 @@
         <v>480</v>
       </c>
       <c r="C136" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D136" s="25">
         <v>135</v>
@@ -10133,35 +10163,35 @@
       <c r="H136" s="7"/>
       <c r="I136" s="7"/>
       <c r="J136" s="8">
-        <v>24588</v>
+        <v>24585</v>
       </c>
       <c r="K136" s="7">
         <v>99999</v>
       </c>
       <c r="L136" s="11"/>
       <c r="M136" s="18">
-        <v>64.05</v>
+        <v>64.55</v>
       </c>
       <c r="N136" s="18">
-        <v>141.8833333</v>
+        <v>144.4</v>
       </c>
       <c r="O136" s="33">
-        <v>589.71</v>
+        <v>518.52</v>
       </c>
       <c r="P136" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q136" s="9" t="s">
         <v>389</v>
       </c>
       <c r="R136" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="S136" s="10" t="s">
         <v>386</v>
       </c>
       <c r="T136" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U136" s="11"/>
       <c r="V136" s="7"/>
@@ -10174,7 +10204,7 @@
         <v>480</v>
       </c>
       <c r="C137" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D137" s="25">
         <v>136</v>
@@ -10187,35 +10217,35 @@
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
       <c r="J137" s="8">
-        <v>24691</v>
+        <v>24588</v>
       </c>
       <c r="K137" s="7">
         <v>99999</v>
       </c>
       <c r="L137" s="11"/>
       <c r="M137" s="18">
-        <v>63.8333333</v>
+        <v>64.05</v>
       </c>
       <c r="N137" s="18">
-        <v>145.6</v>
+        <v>141.8833333</v>
       </c>
       <c r="O137" s="33">
-        <v>800.92</v>
+        <v>589.71</v>
       </c>
       <c r="P137" s="20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="Q137" s="9" t="s">
         <v>389</v>
       </c>
       <c r="R137" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="S137" s="10" t="s">
         <v>386</v>
       </c>
       <c r="T137" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="U137" s="11"/>
       <c r="V137" s="7"/>
@@ -10228,7 +10258,7 @@
         <v>480</v>
       </c>
       <c r="C138" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D138" s="25">
         <v>137</v>
@@ -10241,35 +10271,35 @@
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
       <c r="J138" s="8">
-        <v>24266</v>
+        <v>24691</v>
       </c>
       <c r="K138" s="7">
         <v>99999</v>
       </c>
       <c r="L138" s="11"/>
       <c r="M138" s="18">
-        <v>67.566666600000005</v>
+        <v>63.8333333</v>
       </c>
       <c r="N138" s="18">
-        <v>133.4</v>
+        <v>145.6</v>
       </c>
       <c r="O138" s="33">
-        <v>138</v>
+        <v>800.92</v>
       </c>
       <c r="P138" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="Q138" s="9" t="s">
         <v>389</v>
       </c>
       <c r="R138" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="S138" s="10" t="s">
         <v>386</v>
       </c>
       <c r="T138" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="U138" s="11"/>
       <c r="V138" s="7"/>
@@ -10282,7 +10312,7 @@
         <v>480</v>
       </c>
       <c r="C139" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D139" s="25">
         <v>138</v>
@@ -10295,38 +10325,40 @@
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
       <c r="J139" s="8">
-        <v>24684</v>
+        <v>24266</v>
       </c>
       <c r="K139" s="7">
         <v>99999</v>
       </c>
       <c r="L139" s="11"/>
       <c r="M139" s="18">
-        <v>63.3333333</v>
+        <v>67.566666600000005</v>
       </c>
       <c r="N139" s="18">
-        <v>141.7333333</v>
+        <v>133.4</v>
       </c>
       <c r="O139" s="33">
-        <v>776.93</v>
+        <v>138</v>
       </c>
       <c r="P139" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q139" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="R139" s="7"/>
+      <c r="R139" s="7" t="s">
+        <v>561</v>
+      </c>
       <c r="S139" s="10" t="s">
         <v>386</v>
       </c>
       <c r="T139" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U139" s="11"/>
       <c r="V139" s="7"/>
     </row>
-    <row r="140" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A140" s="7" t="s">
         <v>42</v>
       </c>
@@ -10334,7 +10366,7 @@
         <v>480</v>
       </c>
       <c r="C140" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D140" s="25">
         <v>139</v>
@@ -10347,40 +10379,38 @@
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
       <c r="J140" s="8">
-        <v>24382</v>
+        <v>24684</v>
       </c>
       <c r="K140" s="7">
         <v>99999</v>
       </c>
       <c r="L140" s="11"/>
       <c r="M140" s="18">
-        <v>66.45</v>
+        <v>63.3333333</v>
       </c>
       <c r="N140" s="18">
-        <v>143.2333333</v>
+        <v>141.7333333</v>
       </c>
       <c r="O140" s="33">
-        <v>196</v>
+        <v>776.93</v>
       </c>
       <c r="P140" s="20" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="Q140" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="R140" s="7" t="s">
-        <v>563</v>
-      </c>
+      <c r="R140" s="7"/>
       <c r="S140" s="10" t="s">
         <v>386</v>
       </c>
       <c r="T140" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U140" s="11"/>
       <c r="V140" s="7"/>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A141" s="7" t="s">
         <v>42</v>
       </c>
@@ -10388,7 +10418,7 @@
         <v>480</v>
       </c>
       <c r="C141" s="22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D141" s="25">
         <v>140</v>
@@ -10401,35 +10431,35 @@
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
       <c r="J141" s="8">
-        <v>24959</v>
+        <v>24382</v>
       </c>
       <c r="K141" s="7">
         <v>99999</v>
       </c>
       <c r="L141" s="11"/>
       <c r="M141" s="18">
-        <v>62.016666600000001</v>
+        <v>66.45</v>
       </c>
       <c r="N141" s="18">
-        <v>129.7166666</v>
+        <v>143.2333333</v>
       </c>
       <c r="O141" s="33">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="P141" s="20" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="Q141" s="9" t="s">
         <v>389</v>
       </c>
       <c r="R141" s="7" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="S141" s="10" t="s">
         <v>386</v>
       </c>
       <c r="T141" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="U141" s="11"/>
       <c r="V141" s="7"/>
@@ -10442,7 +10472,7 @@
         <v>480</v>
       </c>
       <c r="C142" s="22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D142" s="25">
         <v>141</v>
@@ -10455,58 +10485,88 @@
       <c r="H142" s="7"/>
       <c r="I142" s="7"/>
       <c r="J142" s="8">
-        <v>24477</v>
+        <v>24959</v>
       </c>
       <c r="K142" s="7">
         <v>99999</v>
       </c>
       <c r="L142" s="11"/>
       <c r="M142" s="18">
-        <v>65.3</v>
+        <v>62.016666600000001</v>
       </c>
       <c r="N142" s="18">
-        <v>135.80000000000001</v>
+        <v>129.7166666</v>
       </c>
       <c r="O142" s="33">
-        <v>674.86</v>
+        <v>101</v>
       </c>
       <c r="P142" s="20" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="Q142" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="R142" s="7"/>
+      <c r="R142" s="7" t="s">
+        <v>549</v>
+      </c>
       <c r="S142" s="10" t="s">
         <v>386</v>
       </c>
       <c r="T142" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="U142" s="11"/>
       <c r="V142" s="7"/>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A143" s="14"/>
-      <c r="B143" s="22"/>
-      <c r="C143" s="22"/>
-      <c r="D143" s="25"/>
+      <c r="A143" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B143" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="C143" s="22">
+        <v>10</v>
+      </c>
+      <c r="D143" s="25">
+        <v>142</v>
+      </c>
       <c r="E143" s="28"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="8"/>
-      <c r="K143" s="14"/>
-      <c r="L143" s="15"/>
-      <c r="M143" s="18"/>
-      <c r="N143" s="18"/>
-      <c r="O143" s="33"/>
-      <c r="P143" s="20"/>
-      <c r="Q143" s="9"/>
-      <c r="R143" s="14"/>
-      <c r="S143" s="10"/>
-      <c r="T143" s="14"/>
+      <c r="F143" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="8">
+        <v>24477</v>
+      </c>
+      <c r="K143" s="7">
+        <v>99999</v>
+      </c>
+      <c r="L143" s="11"/>
+      <c r="M143" s="18">
+        <v>65.3</v>
+      </c>
+      <c r="N143" s="18">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="O143" s="33">
+        <v>674.86</v>
+      </c>
+      <c r="P143" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q143" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="R143" s="7"/>
+      <c r="S143" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="T143" s="7" t="s">
+        <v>559</v>
+      </c>
       <c r="U143" s="11"/>
       <c r="V143" s="7"/>
     </row>
@@ -10798,17 +10858,41 @@
       <c r="U155" s="11"/>
       <c r="V155" s="7"/>
     </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A156" s="14"/>
+      <c r="B156" s="22"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="28"/>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="14"/>
+      <c r="J156" s="8"/>
+      <c r="K156" s="14"/>
+      <c r="L156" s="15"/>
+      <c r="M156" s="18"/>
+      <c r="N156" s="18"/>
+      <c r="O156" s="33"/>
+      <c r="P156" s="20"/>
+      <c r="Q156" s="9"/>
+      <c r="R156" s="14"/>
+      <c r="S156" s="10"/>
+      <c r="T156" s="14"/>
+      <c r="U156" s="11"/>
+      <c r="V156" s="7"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lxc2gTfHDCx7Y6aFzUs5ACGUfI0J35HTT/iLHuuQkk1cgUCtzide4iaxlgnb92FqoqfSbPtaojzIRvmkomBpVg==" saltValue="GJ2ctdCmt5I2lf7QKJp33g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V142">
-    <sortCondition ref="D2:D142"/>
-    <sortCondition ref="B2:B142"/>
-    <sortCondition ref="C2:C142"/>
-    <sortCondition ref="F2:F142"/>
-    <sortCondition ref="G2:G142"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="h4+eAw9hWQ3T5iGEhlsnDIwqtQZq7MzkKTj6EEuKblQz6cqzPzq2ApJULARxXE57RiF8hjxhY7szTDUeO7DDJA==" saltValue="zyXK7DrSneCMLGiOY5LUag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V143">
+    <sortCondition ref="D2:D143"/>
+    <sortCondition ref="B2:B143"/>
+    <sortCondition ref="C2:C143"/>
+    <sortCondition ref="F2:F143"/>
+    <sortCondition ref="G2:G143"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:V155">
+  <conditionalFormatting sqref="A2:V156">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>IF(MOD(ROW(), 2), 0, 1)</formula>
     </cfRule>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214733A2-A32E-434F-8040-359EC8FD5C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DD4E43-0825-4607-AA75-AA240A7CC079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -2826,7 +2826,7 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5065,7 +5065,9 @@
       <c r="D45" s="25">
         <v>44</v>
       </c>
-      <c r="E45" s="28"/>
+      <c r="E45" s="28">
+        <v>0</v>
+      </c>
       <c r="F45" s="7" t="s">
         <v>255</v>
       </c>
@@ -10883,7 +10885,7 @@
       <c r="V156" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="h4+eAw9hWQ3T5iGEhlsnDIwqtQZq7MzkKTj6EEuKblQz6cqzPzq2ApJULARxXE57RiF8hjxhY7szTDUeO7DDJA==" saltValue="zyXK7DrSneCMLGiOY5LUag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Yo3PYkQlboB6H2Zg7lgtVXtvzrMIe0d1m+4QVSfoBeORF4+OGeDnJQC6gvodgsdqHSEyDf70LcgOn/iaj2cJQA==" saltValue="mOCYM0lNYoqmbLlJQiiweg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V143">
     <sortCondition ref="D2:D143"/>
     <sortCondition ref="B2:B143"/>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DD4E43-0825-4607-AA75-AA240A7CC079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB9E239-B13A-4DD5-A9CC-5C249D8D23F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="590">
   <si>
     <t>USAF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2218,6 +2218,54 @@
   </si>
   <si>
     <t>俄罗斯后贝加尔边疆区【乌斯季卡连加】北纬54.45°，海拔686米。91-20十二月平均气温 -31.7℃，一月平均气温 -32.3℃，一月平均低温约-39.4℃，一月平均高温约-23.8℃，七月平均气温 17℃，年平均气温 -5.9℃。历史极端冷月均温 -40.0℃(1960-01)，极端低温 -56.9℃(1987-01-09)，极端高温 38.0℃(1976-07-17)，一月极端高温 -5.0℃(1958-01-04, 1974-01-02)，七月极端低温 -2.8℃(1987-07-01, 1990-07-24)。1986/1987冬至少有17天低温低于-50℃。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楚科奇自治区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥莫隆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥莫隆河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Omolon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马加丹州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Эльген</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科雷马河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taskan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克拉斯诺亚尔斯克边疆区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通古斯卡河、坚边奇河</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2826,7 +2874,7 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -10572,75 +10620,165 @@
       <c r="U143" s="11"/>
       <c r="V143" s="7"/>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A144" s="14"/>
-      <c r="B144" s="22"/>
-      <c r="C144" s="22"/>
-      <c r="D144" s="25"/>
+    <row r="144" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A144" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B144" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="C144" s="22">
+        <v>11</v>
+      </c>
+      <c r="D144" s="25">
+        <v>143</v>
+      </c>
       <c r="E144" s="28"/>
-      <c r="F144" s="14"/>
+      <c r="F144" s="14" t="s">
+        <v>578</v>
+      </c>
       <c r="G144" s="14"/>
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
-      <c r="J144" s="8"/>
-      <c r="K144" s="14"/>
+      <c r="J144" s="8">
+        <v>25428</v>
+      </c>
+      <c r="K144" s="7">
+        <v>99999</v>
+      </c>
       <c r="L144" s="15"/>
-      <c r="M144" s="18"/>
-      <c r="N144" s="18"/>
-      <c r="O144" s="33"/>
-      <c r="P144" s="20"/>
-      <c r="Q144" s="9"/>
-      <c r="R144" s="14"/>
-      <c r="S144" s="10"/>
-      <c r="T144" s="14"/>
+      <c r="M144" s="18">
+        <v>65.233333299999998</v>
+      </c>
+      <c r="N144" s="18">
+        <v>160.53333330000001</v>
+      </c>
+      <c r="O144" s="33">
+        <v>264</v>
+      </c>
+      <c r="P144" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q144" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="R144" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="S144" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="T144" s="14" t="s">
+        <v>581</v>
+      </c>
       <c r="U144" s="11"/>
       <c r="V144" s="7"/>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A145" s="14"/>
-      <c r="B145" s="22"/>
-      <c r="C145" s="22"/>
-      <c r="D145" s="25"/>
+      <c r="A145" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B145" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="C145" s="22">
+        <v>12</v>
+      </c>
+      <c r="D145" s="25">
+        <v>144</v>
+      </c>
       <c r="E145" s="28"/>
-      <c r="F145" s="14"/>
+      <c r="F145" s="14" t="s">
+        <v>582</v>
+      </c>
       <c r="G145" s="14"/>
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
-      <c r="J145" s="8"/>
-      <c r="K145" s="14"/>
+      <c r="J145" s="8">
+        <v>25700</v>
+      </c>
+      <c r="K145" s="7">
+        <v>99999</v>
+      </c>
       <c r="L145" s="15"/>
-      <c r="M145" s="18"/>
-      <c r="N145" s="18"/>
-      <c r="O145" s="33"/>
-      <c r="P145" s="20"/>
-      <c r="Q145" s="9"/>
-      <c r="R145" s="14"/>
-      <c r="S145" s="10"/>
-      <c r="T145" s="14"/>
+      <c r="M145" s="18">
+        <v>62.8</v>
+      </c>
+      <c r="N145" s="18">
+        <v>150.66666660000001</v>
+      </c>
+      <c r="O145" s="33">
+        <v>312.39999999999998</v>
+      </c>
+      <c r="P145" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q145" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="R145" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="S145" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="T145" s="14" t="s">
+        <v>585</v>
+      </c>
       <c r="U145" s="11"/>
       <c r="V145" s="7"/>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A146" s="14"/>
-      <c r="B146" s="22"/>
-      <c r="C146" s="22"/>
-      <c r="D146" s="25"/>
+    <row r="146" spans="1:22" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A146" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B146" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="C146" s="22">
+        <v>13</v>
+      </c>
+      <c r="D146" s="25">
+        <v>145</v>
+      </c>
       <c r="E146" s="28"/>
-      <c r="F146" s="14"/>
+      <c r="F146" s="14" t="s">
+        <v>586</v>
+      </c>
       <c r="G146" s="14"/>
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
-      <c r="J146" s="8"/>
-      <c r="K146" s="14"/>
+      <c r="J146" s="8">
+        <v>24507</v>
+      </c>
+      <c r="K146" s="7">
+        <v>99999</v>
+      </c>
       <c r="L146" s="15"/>
-      <c r="M146" s="18"/>
-      <c r="N146" s="18"/>
-      <c r="O146" s="33"/>
-      <c r="P146" s="20"/>
-      <c r="Q146" s="9"/>
-      <c r="R146" s="14"/>
-      <c r="S146" s="10"/>
-      <c r="T146" s="14"/>
+      <c r="M146" s="18">
+        <v>64.266666599999994</v>
+      </c>
+      <c r="N146" s="18">
+        <v>100.2333333</v>
+      </c>
+      <c r="O146" s="33">
+        <v>168</v>
+      </c>
+      <c r="P146" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q146" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="R146" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="S146" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="T146" s="14" t="s">
+        <v>587</v>
+      </c>
       <c r="U146" s="11"/>
       <c r="V146" s="7"/>
     </row>
@@ -10885,7 +11023,7 @@
       <c r="V156" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Yo3PYkQlboB6H2Zg7lgtVXtvzrMIe0d1m+4QVSfoBeORF4+OGeDnJQC6gvodgsdqHSEyDf70LcgOn/iaj2cJQA==" saltValue="mOCYM0lNYoqmbLlJQiiweg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u4ZNA/OMijTgwwqAp43P95hS6RRdja6UqxUTjPKCw9BLXKb7g10fguLTEIm/7J+0dfHpqXfqO0ssJdgplOyz7g==" saltValue="pV3z+5COOglpGGckT53nWg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V143">
     <sortCondition ref="D2:D143"/>
     <sortCondition ref="B2:B143"/>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1409070C-D2CB-4383-AE42-19F479237711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E265F2-592D-4E16-86EC-7AE9C042E567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -172,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上饶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>沙县</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2431,6 +2427,10 @@
   </si>
   <si>
     <t>楚鲁特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上饶县</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3060,7 +3060,7 @@
   <dimension ref="A1:U175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3088,28 +3088,28 @@
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>0</v>
@@ -3118,16 +3118,16 @@
         <v>1</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="N1" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O1" s="19" t="s">
         <v>2</v>
@@ -3136,27 +3136,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="T1" s="24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="U1" s="31" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C2" s="25">
         <v>1</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -3185,27 +3185,27 @@
         <v>799</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="R2" s="10"/>
       <c r="S2" s="7"/>
       <c r="T2" s="11"/>
       <c r="U2" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C3" s="25">
         <v>2</v>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -3234,27 +3234,27 @@
         <v>997</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="R3" s="10"/>
       <c r="S3" s="7"/>
       <c r="T3" s="11"/>
       <c r="U3" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C4" s="25">
         <v>3</v>
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -3283,13 +3283,13 @@
         <v>1286</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="7"/>
@@ -3298,10 +3298,10 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C5" s="25">
         <v>4</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -3330,13 +3330,13 @@
         <v>1811</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="7"/>
@@ -3345,10 +3345,10 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C6" s="25">
         <v>5</v>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -3377,27 +3377,27 @@
         <v>2156</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="7"/>
       <c r="T6" s="11"/>
       <c r="U6" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C7" s="25">
         <v>6</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -3426,13 +3426,13 @@
         <v>1546</v>
       </c>
       <c r="O7" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="R7" s="10"/>
       <c r="S7" s="7"/>
@@ -3441,10 +3441,10 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C8" s="25">
         <v>7</v>
@@ -3453,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -3473,13 +3473,13 @@
         <v>675</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R8" s="10"/>
       <c r="S8" s="7"/>
@@ -3488,10 +3488,10 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C9" s="25">
         <v>8</v>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -3522,29 +3522,29 @@
         <v>937</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="T9" s="11"/>
       <c r="U9" s="7"/>
     </row>
     <row r="10" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C10" s="25">
         <v>9</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -3575,31 +3575,31 @@
         <v>1424</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T10" s="11"/>
       <c r="U10" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C11" s="25">
         <v>10</v>
@@ -3608,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -3630,31 +3630,31 @@
         <v>1931</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T11" s="11"/>
       <c r="U11" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C12" s="25">
         <v>11</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -3685,29 +3685,29 @@
         <v>1726</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="T12" s="11"/>
       <c r="U12" s="7"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C13" s="25">
         <v>12</v>
@@ -3716,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -3738,29 +3738,29 @@
         <v>1585</v>
       </c>
       <c r="O13" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="T13" s="11"/>
       <c r="U13" s="7"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C14" s="25">
         <v>13</v>
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -3791,36 +3791,36 @@
         <v>1304</v>
       </c>
       <c r="O14" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="T14" s="11"/>
       <c r="U14" s="7"/>
     </row>
     <row r="15" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C15" s="25">
         <v>14</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -3840,32 +3840,32 @@
         <v>2422</v>
       </c>
       <c r="O15" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P15" s="9"/>
       <c r="Q15" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R15" s="10"/>
       <c r="S15" s="7"/>
       <c r="T15" s="11"/>
       <c r="U15" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C16" s="25">
         <v>15</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -3885,11 +3885,11 @@
         <v>2034</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P16" s="9"/>
       <c r="Q16" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R16" s="10"/>
       <c r="S16" s="7"/>
@@ -3898,17 +3898,17 @@
     </row>
     <row r="17" spans="1:21" s="39" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A17" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C17" s="25">
         <v>16</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="37" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -3932,34 +3932,34 @@
         <v>2258</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="P17" s="9"/>
       <c r="Q17" s="37" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S17" s="37" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="T17" s="36"/>
       <c r="U17" s="37"/>
     </row>
     <row r="18" spans="1:21" s="39" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A18" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C18" s="25">
         <v>17</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="37" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
@@ -3983,34 +3983,34 @@
         <v>2128</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P18" s="9"/>
       <c r="Q18" s="37" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S18" s="37" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="T18" s="36"/>
       <c r="U18" s="37"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C19" s="25">
         <v>18</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -4030,11 +4030,11 @@
         <v>1166</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P19" s="9"/>
       <c r="Q19" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R19" s="10"/>
       <c r="S19" s="7"/>
@@ -4043,17 +4043,17 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C20" s="25">
         <v>19</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -4073,11 +4073,11 @@
         <v>1262</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R20" s="10"/>
       <c r="S20" s="7"/>
@@ -4086,17 +4086,17 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C21" s="25">
         <v>20</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -4116,11 +4116,11 @@
         <v>1716</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R21" s="10"/>
       <c r="S21" s="7"/>
@@ -4129,17 +4129,17 @@
     </row>
     <row r="22" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C22" s="25">
         <v>21</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
@@ -4163,34 +4163,34 @@
         <v>1187</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="P22" s="9"/>
       <c r="Q22" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="S22" s="37" t="s">
         <v>595</v>
-      </c>
-      <c r="R22" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="S22" s="37" t="s">
-        <v>596</v>
       </c>
       <c r="T22" s="36"/>
       <c r="U22" s="37"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C23" s="25">
         <v>22</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -4210,7 +4210,7 @@
         <v>1805</v>
       </c>
       <c r="O23" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P23" s="9"/>
       <c r="Q23" s="7"/>
@@ -4221,17 +4221,17 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C24" s="25">
         <v>23</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -4251,11 +4251,11 @@
         <v>1687</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P24" s="9"/>
       <c r="Q24" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="R24" s="10"/>
       <c r="S24" s="7"/>
@@ -4264,17 +4264,17 @@
     </row>
     <row r="25" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C25" s="25">
         <v>24</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
@@ -4294,11 +4294,11 @@
         <v>1139</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P25" s="9"/>
       <c r="Q25" s="37" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R25" s="9"/>
       <c r="S25" s="37"/>
@@ -4307,17 +4307,17 @@
     </row>
     <row r="26" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C26" s="25">
         <v>25</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
@@ -4337,11 +4337,11 @@
         <v>1566</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P26" s="9"/>
       <c r="Q26" s="37" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="R26" s="9"/>
       <c r="S26" s="37"/>
@@ -4350,17 +4350,17 @@
     </row>
     <row r="27" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C27" s="25">
         <v>26</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -4384,34 +4384,34 @@
         <v>1668</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="P27" s="9"/>
       <c r="Q27" s="37" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S27" s="37" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="T27" s="36"/>
       <c r="U27" s="37"/>
     </row>
     <row r="28" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C28" s="25">
         <v>27</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -4435,32 +4435,32 @@
         <v>1291</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="P28" s="9"/>
       <c r="Q28" s="37"/>
       <c r="R28" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S28" s="37" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="T28" s="36"/>
       <c r="U28" s="37"/>
     </row>
     <row r="29" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C29" s="25">
         <v>28</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
@@ -4480,7 +4480,7 @@
         <v>1881</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P29" s="9"/>
       <c r="Q29" s="37"/>
@@ -4491,17 +4491,17 @@
     </row>
     <row r="30" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C30" s="25">
         <v>29</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -4521,11 +4521,11 @@
         <v>1746</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="P30" s="9"/>
       <c r="Q30" s="37" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="R30" s="9"/>
       <c r="S30" s="37"/>
@@ -4534,17 +4534,17 @@
     </row>
     <row r="31" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C31" s="25">
         <v>30</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
@@ -4564,11 +4564,11 @@
         <v>1632</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="P31" s="9"/>
       <c r="Q31" s="37" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="R31" s="9"/>
       <c r="S31" s="37"/>
@@ -4577,17 +4577,17 @@
     </row>
     <row r="32" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C32" s="25">
         <v>31</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -4607,11 +4607,11 @@
         <v>1730</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="P32" s="9"/>
       <c r="Q32" s="37" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="R32" s="9"/>
       <c r="S32" s="37"/>
@@ -4620,17 +4620,17 @@
     </row>
     <row r="33" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C33" s="25">
         <v>32</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -4650,11 +4650,11 @@
         <v>1151</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P33" s="9"/>
       <c r="Q33" s="37" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="R33" s="9"/>
       <c r="S33" s="37"/>
@@ -4663,17 +4663,17 @@
     </row>
     <row r="34" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C34" s="25">
         <v>33</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
@@ -4693,7 +4693,7 @@
         <v>1384</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P34" s="9"/>
       <c r="Q34" s="37"/>
@@ -4704,17 +4704,17 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C35" s="25">
         <v>34</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -4734,11 +4734,11 @@
         <v>632</v>
       </c>
       <c r="O35" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P35" s="9"/>
       <c r="Q35" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R35" s="10"/>
       <c r="S35" s="7"/>
@@ -4747,17 +4747,17 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C36" s="25">
         <v>35</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
@@ -4777,11 +4777,11 @@
         <v>859</v>
       </c>
       <c r="O36" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P36" s="9"/>
       <c r="Q36" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="R36" s="10"/>
       <c r="S36" s="7"/>
@@ -4790,17 +4790,17 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C37" s="25">
         <v>36</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -4820,11 +4820,11 @@
         <v>1393</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P37" s="9"/>
       <c r="Q37" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="R37" s="10"/>
       <c r="S37" s="7"/>
@@ -4833,17 +4833,17 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C38" s="25">
         <v>37</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -4863,11 +4863,11 @@
         <v>1593</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P38" s="9"/>
       <c r="Q38" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R38" s="10"/>
       <c r="S38" s="7"/>
@@ -4876,17 +4876,17 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C39" s="25">
         <v>38</v>
       </c>
       <c r="D39" s="28"/>
       <c r="E39" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
@@ -4906,11 +4906,11 @@
         <v>1142</v>
       </c>
       <c r="O39" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P39" s="9"/>
       <c r="Q39" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="R39" s="10"/>
       <c r="S39" s="7"/>
@@ -4919,17 +4919,17 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C40" s="25">
         <v>39</v>
       </c>
       <c r="D40" s="28"/>
       <c r="E40" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -4949,11 +4949,11 @@
         <v>1212</v>
       </c>
       <c r="O40" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P40" s="9"/>
       <c r="Q40" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="R40" s="10"/>
       <c r="S40" s="7"/>
@@ -4962,17 +4962,17 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C41" s="25">
         <v>40</v>
       </c>
       <c r="D41" s="28"/>
       <c r="E41" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -4996,34 +4996,34 @@
         <v>1233</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P41" s="9"/>
       <c r="Q41" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S41" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="T41" s="11"/>
       <c r="U41" s="7"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C42" s="25">
         <v>41</v>
       </c>
       <c r="D42" s="28"/>
       <c r="E42" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -5043,11 +5043,11 @@
         <v>1045</v>
       </c>
       <c r="O42" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P42" s="9"/>
       <c r="Q42" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R42" s="10"/>
       <c r="S42" s="7"/>
@@ -5056,17 +5056,17 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C43" s="25">
         <v>42</v>
       </c>
       <c r="D43" s="28"/>
       <c r="E43" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -5086,11 +5086,11 @@
         <v>1858</v>
       </c>
       <c r="O43" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P43" s="9"/>
       <c r="Q43" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R43" s="10"/>
       <c r="S43" s="7"/>
@@ -5099,17 +5099,17 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C44" s="25">
         <v>43</v>
       </c>
       <c r="D44" s="28"/>
       <c r="E44" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -5129,11 +5129,11 @@
         <v>1656</v>
       </c>
       <c r="O44" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P44" s="9"/>
       <c r="Q44" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R44" s="10"/>
       <c r="S44" s="7"/>
@@ -5142,17 +5142,17 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C45" s="25">
         <v>44</v>
       </c>
       <c r="D45" s="28"/>
       <c r="E45" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -5172,11 +5172,11 @@
         <v>1851</v>
       </c>
       <c r="O45" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P45" s="9"/>
       <c r="Q45" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R45" s="10"/>
       <c r="S45" s="7"/>
@@ -5185,17 +5185,17 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C46" s="25">
         <v>45</v>
       </c>
       <c r="D46" s="28"/>
       <c r="E46" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -5215,11 +5215,11 @@
         <v>1569</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P46" s="9"/>
       <c r="Q46" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R46" s="10"/>
       <c r="S46" s="7"/>
@@ -5228,17 +5228,17 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C47" s="25">
         <v>46</v>
       </c>
       <c r="D47" s="28"/>
       <c r="E47" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -5258,11 +5258,11 @@
         <v>1776</v>
       </c>
       <c r="O47" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P47" s="9"/>
       <c r="Q47" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R47" s="10"/>
       <c r="S47" s="7"/>
@@ -5271,17 +5271,17 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C48" s="25">
         <v>47</v>
       </c>
       <c r="D48" s="28"/>
       <c r="E48" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -5301,7 +5301,7 @@
         <v>1271</v>
       </c>
       <c r="O48" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P48" s="9"/>
       <c r="Q48" s="7"/>
@@ -5312,17 +5312,17 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A49" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C49" s="25">
         <v>48</v>
       </c>
       <c r="D49" s="28"/>
       <c r="E49" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -5342,11 +5342,11 @@
         <v>2113</v>
       </c>
       <c r="O49" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P49" s="9"/>
       <c r="Q49" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R49" s="10"/>
       <c r="S49" s="7"/>
@@ -5355,17 +5355,17 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C50" s="25">
         <v>49</v>
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -5385,11 +5385,11 @@
         <v>1963</v>
       </c>
       <c r="O50" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P50" s="9"/>
       <c r="Q50" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R50" s="10"/>
       <c r="S50" s="7"/>
@@ -5398,17 +5398,17 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C51" s="25">
         <v>50</v>
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -5428,11 +5428,11 @@
         <v>1777</v>
       </c>
       <c r="O51" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P51" s="9"/>
       <c r="Q51" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R51" s="10"/>
       <c r="S51" s="7"/>
@@ -5441,17 +5441,17 @@
     </row>
     <row r="52" spans="1:21" s="39" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A52" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C52" s="25">
         <v>51</v>
       </c>
       <c r="D52" s="25"/>
       <c r="E52" s="37" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
@@ -5471,11 +5471,11 @@
         <v>2233</v>
       </c>
       <c r="O52" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="P52" s="9"/>
       <c r="Q52" s="37" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="R52" s="9"/>
       <c r="S52" s="37"/>
@@ -5484,17 +5484,17 @@
     </row>
     <row r="53" spans="1:21" s="39" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A53" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C53" s="25">
         <v>52</v>
       </c>
       <c r="D53" s="25"/>
       <c r="E53" s="37" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
@@ -5514,11 +5514,11 @@
         <v>2147</v>
       </c>
       <c r="O53" s="13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="P53" s="9"/>
       <c r="Q53" s="37" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="R53" s="9"/>
       <c r="S53" s="37"/>
@@ -5527,17 +5527,17 @@
     </row>
     <row r="54" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C54" s="25">
         <v>53</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="37" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
@@ -5557,11 +5557,11 @@
         <v>1933</v>
       </c>
       <c r="O54" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="P54" s="9"/>
       <c r="Q54" s="37" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="R54" s="9"/>
       <c r="S54" s="37"/>
@@ -5570,17 +5570,17 @@
     </row>
     <row r="55" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C55" s="25">
         <v>54</v>
       </c>
       <c r="D55" s="25"/>
       <c r="E55" s="37" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
@@ -5600,11 +5600,11 @@
         <v>2140</v>
       </c>
       <c r="O55" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="P55" s="9"/>
       <c r="Q55" s="37" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="R55" s="9"/>
       <c r="S55" s="37"/>
@@ -5613,17 +5613,17 @@
     </row>
     <row r="56" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C56" s="25">
         <v>55</v>
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="37" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
@@ -5643,11 +5643,11 @@
         <v>1300</v>
       </c>
       <c r="O56" s="13" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="P56" s="9"/>
       <c r="Q56" s="37" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R56" s="9"/>
       <c r="S56" s="37"/>
@@ -5656,17 +5656,17 @@
     </row>
     <row r="57" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C57" s="25">
         <v>56</v>
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="37" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
@@ -5686,11 +5686,11 @@
         <v>2036</v>
       </c>
       <c r="O57" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P57" s="9"/>
       <c r="Q57" s="37" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="R57" s="9"/>
       <c r="S57" s="37"/>
@@ -5699,10 +5699,10 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C58" s="25">
         <v>57</v>
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
@@ -5733,27 +5733,27 @@
         <v>257</v>
       </c>
       <c r="O58" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P58" s="9"/>
       <c r="Q58" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="R58" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S58" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="T58" s="11"/>
       <c r="U58" s="7"/>
     </row>
     <row r="59" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A59" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C59" s="25">
         <v>58</v>
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
@@ -5784,27 +5784,27 @@
         <v>272</v>
       </c>
       <c r="O59" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P59" s="9"/>
       <c r="Q59" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="R59" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S59" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="T59" s="11"/>
       <c r="U59" s="7"/>
     </row>
     <row r="60" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A60" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C60" s="25">
         <v>59</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
@@ -5835,29 +5835,29 @@
         <v>902</v>
       </c>
       <c r="O60" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P60" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="R60" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S60" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T60" s="11"/>
       <c r="U60" s="7"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A61" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C61" s="25">
         <v>60</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
@@ -5888,27 +5888,27 @@
         <v>543</v>
       </c>
       <c r="O61" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P61" s="9"/>
       <c r="Q61" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="R61" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S61" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="T61" s="11"/>
       <c r="U61" s="7"/>
     </row>
     <row r="62" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A62" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C62" s="25">
         <v>61</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
@@ -5939,27 +5939,27 @@
         <v>153</v>
       </c>
       <c r="O62" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P62" s="9"/>
       <c r="Q62" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="R62" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S62" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="T62" s="11"/>
       <c r="U62" s="7"/>
     </row>
     <row r="63" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A63" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C63" s="25">
         <v>62</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
@@ -5990,27 +5990,27 @@
         <v>625</v>
       </c>
       <c r="O63" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P63" s="9"/>
       <c r="Q63" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R63" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S63" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="T63" s="11"/>
       <c r="U63" s="7"/>
     </row>
     <row r="64" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A64" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C64" s="25">
         <v>63</v>
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
@@ -6041,33 +6041,33 @@
         <v>686</v>
       </c>
       <c r="O64" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="P64" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q64" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="R64" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="P64" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="R64" s="10" t="s">
+      <c r="S64" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="S64" s="7" t="s">
+      <c r="T64" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="T64" s="11" t="s">
+      <c r="U64" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="U64" s="7" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A65" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C65" s="25">
         <v>64</v>
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
@@ -6098,29 +6098,29 @@
         <v>811</v>
       </c>
       <c r="O65" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P65" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R65" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S65" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="T65" s="11"/>
       <c r="U65" s="7"/>
     </row>
     <row r="66" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C66" s="25">
         <v>65</v>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
@@ -6151,27 +6151,27 @@
         <v>489</v>
       </c>
       <c r="O66" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P66" s="9"/>
       <c r="Q66" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="R66" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S66" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T66" s="11"/>
       <c r="U66" s="7"/>
     </row>
     <row r="67" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C67" s="25">
         <v>66</v>
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
@@ -6202,29 +6202,29 @@
         <v>533</v>
       </c>
       <c r="O67" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P67" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="R67" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S67" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="T67" s="11"/>
       <c r="U67" s="7"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C68" s="25">
         <v>67</v>
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
@@ -6255,27 +6255,27 @@
         <v>705.8</v>
       </c>
       <c r="O68" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P68" s="9"/>
       <c r="Q68" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R68" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S68" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="T68" s="11"/>
       <c r="U68" s="7"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A69" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C69" s="25">
         <v>68</v>
@@ -6284,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
@@ -6306,29 +6306,29 @@
         <v>628</v>
       </c>
       <c r="O69" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P69" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R69" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S69" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="T69" s="11"/>
       <c r="U69" s="7"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A70" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C70" s="25">
         <v>69</v>
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
@@ -6359,27 +6359,27 @@
         <v>1100</v>
       </c>
       <c r="O70" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P70" s="9"/>
       <c r="Q70" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="R70" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S70" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="T70" s="11"/>
       <c r="U70" s="7"/>
     </row>
     <row r="71" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A71" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C71" s="25">
         <v>70</v>
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
@@ -6410,36 +6410,36 @@
         <v>1759</v>
       </c>
       <c r="O71" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P71" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R71" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S71" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T71" s="11"/>
       <c r="U71" s="7"/>
     </row>
     <row r="72" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A72" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C72" s="25">
         <v>71</v>
       </c>
       <c r="D72" s="28"/>
       <c r="E72" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
@@ -6461,27 +6461,27 @@
         <v>370</v>
       </c>
       <c r="O72" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P72" s="9"/>
       <c r="Q72" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="R72" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S72" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="T72" s="11"/>
       <c r="U72" s="7"/>
     </row>
     <row r="73" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A73" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C73" s="25">
         <v>72</v>
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
@@ -6512,25 +6512,25 @@
         <v>512</v>
       </c>
       <c r="O73" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P73" s="9"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S73" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="T73" s="11"/>
       <c r="U73" s="7"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A74" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C74" s="25">
         <v>73</v>
@@ -6539,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
@@ -6561,17 +6561,17 @@
         <v>1381</v>
       </c>
       <c r="O74" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P74" s="9"/>
       <c r="Q74" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R74" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S74" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="T74" s="11"/>
       <c r="U74" s="7"/>
@@ -6581,7 +6581,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C75" s="25">
         <v>74</v>
@@ -6590,13 +6590,13 @@
         <v>0</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="8">
@@ -6616,17 +6616,17 @@
         <v>51</v>
       </c>
       <c r="O75" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P75" s="9"/>
       <c r="Q75" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R75" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S75" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="T75" s="11"/>
       <c r="U75" s="7"/>
@@ -6636,7 +6636,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C76" s="25">
         <v>75</v>
@@ -6645,13 +6645,13 @@
         <v>0</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F76" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G76" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="8">
@@ -6674,10 +6674,10 @@
         <v>18</v>
       </c>
       <c r="P76" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R76" s="10"/>
       <c r="S76" s="7"/>
@@ -6689,7 +6689,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C77" s="25">
         <v>76</v>
@@ -6698,13 +6698,13 @@
         <v>0</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="8">
@@ -6724,17 +6724,17 @@
         <v>236.8</v>
       </c>
       <c r="O77" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P77" s="9"/>
       <c r="Q77" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R77" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S77" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="T77" s="11"/>
       <c r="U77" s="7"/>
@@ -6744,7 +6744,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C78" s="25">
         <v>77</v>
@@ -6753,13 +6753,13 @@
         <v>0</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F78" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="8">
@@ -6782,16 +6782,16 @@
         <v>19</v>
       </c>
       <c r="P78" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R78" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S78" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="T78" s="11"/>
       <c r="U78" s="7"/>
@@ -6801,7 +6801,7 @@
         <v>3</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C79" s="25">
         <v>78</v>
@@ -6810,13 +6810,13 @@
         <v>0</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F79" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G79" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="8">
@@ -6839,16 +6839,16 @@
         <v>20</v>
       </c>
       <c r="P79" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R79" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S79" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T79" s="11"/>
       <c r="U79" s="7"/>
@@ -6858,7 +6858,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C80" s="25">
         <v>79</v>
@@ -6867,13 +6867,13 @@
         <v>0</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F80" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G80" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="8">
@@ -6896,10 +6896,10 @@
         <v>16</v>
       </c>
       <c r="P80" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R80" s="10"/>
       <c r="S80" s="7"/>
@@ -6911,7 +6911,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C81" s="25">
         <v>80</v>
@@ -6920,13 +6920,13 @@
         <v>0</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="8">
@@ -6950,13 +6950,13 @@
       </c>
       <c r="P81" s="9"/>
       <c r="Q81" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R81" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S81" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="T81" s="11"/>
       <c r="U81" s="7"/>
@@ -6966,7 +6966,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C82" s="25">
         <v>81</v>
@@ -6975,13 +6975,13 @@
         <v>0</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="8">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="P82" s="9"/>
       <c r="Q82" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R82" s="10"/>
       <c r="S82" s="7"/>
@@ -7017,7 +7017,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C83" s="25">
         <v>82</v>
@@ -7026,13 +7026,13 @@
         <v>0</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="8">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="P83" s="9"/>
       <c r="Q83" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R83" s="10"/>
       <c r="S83" s="7"/>
@@ -7068,7 +7068,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C84" s="25">
         <v>83</v>
@@ -7077,13 +7077,13 @@
         <v>0</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="8">
@@ -7106,16 +7106,16 @@
         <v>5</v>
       </c>
       <c r="P84" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R84" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S84" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T84" s="11"/>
       <c r="U84" s="7"/>
@@ -7125,7 +7125,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C85" s="25">
         <v>84</v>
@@ -7134,13 +7134,13 @@
         <v>0</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="8">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="P85" s="9"/>
       <c r="Q85" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R85" s="10"/>
       <c r="S85" s="7"/>
@@ -7176,7 +7176,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C86" s="25">
         <v>85</v>
@@ -7185,13 +7185,13 @@
         <v>0</v>
       </c>
       <c r="E86" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F86" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F86" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="G86" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="8">
@@ -7214,10 +7214,10 @@
         <v>10</v>
       </c>
       <c r="P86" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R86" s="10"/>
       <c r="S86" s="7"/>
@@ -7229,7 +7229,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C87" s="25">
         <v>86</v>
@@ -7238,13 +7238,13 @@
         <v>0</v>
       </c>
       <c r="E87" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F87" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F87" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="G87" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="8">
@@ -7267,16 +7267,16 @@
         <v>6</v>
       </c>
       <c r="P87" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R87" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S87" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="T87" s="11"/>
       <c r="U87" s="7"/>
@@ -7286,7 +7286,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C88" s="25">
         <v>87</v>
@@ -7295,13 +7295,13 @@
         <v>0</v>
       </c>
       <c r="E88" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F88" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F88" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="G88" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="8">
@@ -7325,7 +7325,7 @@
       </c>
       <c r="P88" s="9"/>
       <c r="Q88" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R88" s="10"/>
       <c r="S88" s="7"/>
@@ -7337,17 +7337,17 @@
         <v>3</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C89" s="25">
         <v>88</v>
       </c>
       <c r="D89" s="28"/>
       <c r="E89" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F89" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>29</v>
@@ -7374,7 +7374,7 @@
       </c>
       <c r="P89" s="9"/>
       <c r="Q89" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R89" s="10"/>
       <c r="S89" s="7"/>
@@ -7386,7 +7386,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C90" s="25">
         <v>89</v>
@@ -7395,13 +7395,13 @@
         <v>0</v>
       </c>
       <c r="E90" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F90" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F90" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="G90" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="8">
@@ -7425,13 +7425,13 @@
       </c>
       <c r="P90" s="9"/>
       <c r="Q90" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R90" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S90" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="T90" s="11"/>
       <c r="U90" s="7"/>
@@ -7441,17 +7441,17 @@
         <v>3</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C91" s="25">
         <v>90</v>
       </c>
       <c r="D91" s="28"/>
       <c r="E91" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F91" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>30</v>
@@ -7478,7 +7478,7 @@
       </c>
       <c r="P91" s="9"/>
       <c r="Q91" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R91" s="10"/>
       <c r="S91" s="7"/>
@@ -7490,7 +7490,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C92" s="25">
         <v>91</v>
@@ -7499,13 +7499,13 @@
         <v>0</v>
       </c>
       <c r="E92" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F92" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F92" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="G92" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="8">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="P92" s="9"/>
       <c r="Q92" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R92" s="10"/>
       <c r="S92" s="7"/>
@@ -7541,7 +7541,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C93" s="25">
         <v>92</v>
@@ -7550,13 +7550,13 @@
         <v>0</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="8">
@@ -7580,13 +7580,13 @@
       </c>
       <c r="P93" s="9"/>
       <c r="Q93" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R93" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S93" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T93" s="11"/>
       <c r="U93" s="7"/>
@@ -7596,7 +7596,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C94" s="25">
         <v>93</v>
@@ -7605,13 +7605,13 @@
         <v>0</v>
       </c>
       <c r="E94" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F94" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="G94" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="8">
@@ -7634,7 +7634,7 @@
         <v>21</v>
       </c>
       <c r="P94" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q94" s="7"/>
       <c r="R94" s="10"/>
@@ -7647,7 +7647,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C95" s="25">
         <v>94</v>
@@ -7656,13 +7656,13 @@
         <v>0</v>
       </c>
       <c r="E95" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F95" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="G95" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="8">
@@ -7685,10 +7685,10 @@
         <v>14</v>
       </c>
       <c r="P95" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R95" s="10"/>
       <c r="S95" s="7"/>
@@ -7700,7 +7700,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C96" s="25">
         <v>95</v>
@@ -7709,13 +7709,13 @@
         <v>0</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F96" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="8">
@@ -7738,10 +7738,10 @@
         <v>15</v>
       </c>
       <c r="P96" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R96" s="10"/>
       <c r="S96" s="7"/>
@@ -7753,7 +7753,7 @@
         <v>3</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C97" s="25">
         <v>96</v>
@@ -7762,13 +7762,13 @@
         <v>0</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="8">
@@ -7788,19 +7788,19 @@
         <v>4612</v>
       </c>
       <c r="O97" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P97" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R97" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S97" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T97" s="11"/>
       <c r="U97" s="7"/>
@@ -7810,7 +7810,7 @@
         <v>3</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C98" s="25">
         <v>97</v>
@@ -7819,13 +7819,13 @@
         <v>0</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F98" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="8">
@@ -7845,19 +7845,19 @@
         <v>1773.7</v>
       </c>
       <c r="O98" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P98" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R98" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S98" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="T98" s="11"/>
       <c r="U98" s="7"/>
@@ -7867,7 +7867,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C99" s="25">
         <v>98</v>
@@ -7876,13 +7876,13 @@
         <v>0</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F99" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G99" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="8">
@@ -7905,10 +7905,10 @@
         <v>12</v>
       </c>
       <c r="P99" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R99" s="10"/>
       <c r="S99" s="7"/>
@@ -7920,7 +7920,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C100" s="25">
         <v>99</v>
@@ -7929,13 +7929,13 @@
         <v>0</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F100" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="8">
@@ -7958,10 +7958,10 @@
         <v>13</v>
       </c>
       <c r="P100" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R100" s="10"/>
       <c r="S100" s="7"/>
@@ -7973,7 +7973,7 @@
         <v>3</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C101" s="25">
         <v>100</v>
@@ -7982,16 +7982,16 @@
         <v>0</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G101" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H101" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="I101" s="8">
         <v>51076</v>
@@ -8010,17 +8010,17 @@
         <v>734.8</v>
       </c>
       <c r="O101" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P101" s="9"/>
       <c r="Q101" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="R101" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S101" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="T101" s="11"/>
       <c r="U101" s="30"/>
@@ -8030,20 +8030,20 @@
         <v>3</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C102" s="25">
         <v>101</v>
       </c>
       <c r="D102" s="28"/>
       <c r="E102" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F102" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H102" s="7"/>
       <c r="I102" s="8">
@@ -8063,19 +8063,19 @@
         <v>39</v>
       </c>
       <c r="O102" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P102" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R102" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S102" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="T102" s="11"/>
       <c r="U102" s="7"/>
@@ -8085,7 +8085,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C103" s="25">
         <v>102</v>
@@ -8094,13 +8094,13 @@
         <v>0</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F103" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="8">
@@ -8123,16 +8123,16 @@
         <v>24</v>
       </c>
       <c r="P103" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q103" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R103" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S103" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="T103" s="11"/>
       <c r="U103" s="7"/>
@@ -8142,7 +8142,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C104" s="25">
         <v>103</v>
@@ -8151,13 +8151,13 @@
         <v>0</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F104" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G104" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="8">
@@ -8180,16 +8180,16 @@
         <v>23</v>
       </c>
       <c r="P104" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q104" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R104" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S104" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="T104" s="11"/>
       <c r="U104" s="7"/>
@@ -8199,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C105" s="25">
         <v>104</v>
@@ -8208,13 +8208,13 @@
         <v>0</v>
       </c>
       <c r="E105" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F105" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="G105" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="8">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="P105" s="9"/>
       <c r="Q105" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R105" s="10"/>
       <c r="S105" s="7"/>
@@ -8250,7 +8250,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C106" s="25">
         <v>105</v>
@@ -8259,13 +8259,13 @@
         <v>0</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F106" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G106" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="8">
@@ -8288,16 +8288,16 @@
         <v>22</v>
       </c>
       <c r="P106" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q106" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R106" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S106" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="T106" s="11"/>
       <c r="U106" s="7"/>
@@ -8307,18 +8307,18 @@
         <v>3</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C107" s="25">
         <v>106</v>
       </c>
       <c r="D107" s="28"/>
       <c r="E107" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F107" s="7"/>
       <c r="G107" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="8">
@@ -8338,17 +8338,17 @@
         <v>32.799999999999997</v>
       </c>
       <c r="O107" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P107" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q107" s="7"/>
       <c r="R107" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S107" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="T107" s="11"/>
       <c r="U107" s="7"/>
@@ -8358,18 +8358,18 @@
         <v>3</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C108" s="25">
         <v>107</v>
       </c>
       <c r="D108" s="28"/>
       <c r="E108" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F108" s="7"/>
       <c r="G108" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="8">
@@ -8389,16 +8389,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="O108" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P108" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q108" s="7"/>
       <c r="R108" s="10"/>
       <c r="S108" s="7"/>
       <c r="T108" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="U108" s="7"/>
     </row>
@@ -8407,20 +8407,20 @@
         <v>3</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C109" s="25">
         <v>108</v>
       </c>
       <c r="D109" s="28"/>
       <c r="E109" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F109" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F109" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="G109" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="8">
@@ -8440,19 +8440,19 @@
         <v>1111.5999999999999</v>
       </c>
       <c r="O109" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P109" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q109" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R109" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S109" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T109" s="11"/>
       <c r="U109" s="7"/>
@@ -8462,20 +8462,20 @@
         <v>3</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C110" s="25">
         <v>109</v>
       </c>
       <c r="D110" s="28"/>
       <c r="E110" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F110" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G110" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="8">
@@ -8495,17 +8495,17 @@
         <v>89.3</v>
       </c>
       <c r="O110" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P110" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q110" s="7"/>
       <c r="R110" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S110" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="T110" s="11"/>
       <c r="U110" s="7"/>
@@ -8515,20 +8515,20 @@
         <v>3</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C111" s="25">
         <v>110</v>
       </c>
       <c r="D111" s="28"/>
       <c r="E111" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F111" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G111" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="8">
@@ -8548,19 +8548,19 @@
         <v>776.3</v>
       </c>
       <c r="O111" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P111" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q111" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R111" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S111" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="T111" s="11"/>
       <c r="U111" s="7"/>
@@ -8570,20 +8570,20 @@
         <v>3</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C112" s="25">
         <v>111</v>
       </c>
       <c r="D112" s="28"/>
       <c r="E112" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F112" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G112" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="8">
@@ -8603,19 +8603,19 @@
         <v>2434.1999999999998</v>
       </c>
       <c r="O112" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P112" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q112" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R112" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S112" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="T112" s="11"/>
       <c r="U112" s="7"/>
@@ -8625,20 +8625,20 @@
         <v>3</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C113" s="25">
         <v>112</v>
       </c>
       <c r="D113" s="28"/>
       <c r="E113" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F113" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F113" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="G113" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="8">
@@ -8658,19 +8658,19 @@
         <v>170.3</v>
       </c>
       <c r="O113" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P113" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q113" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R113" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S113" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="T113" s="11"/>
       <c r="U113" s="7"/>
@@ -8680,20 +8680,20 @@
         <v>3</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C114" s="25">
         <v>113</v>
       </c>
       <c r="D114" s="28"/>
       <c r="E114" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F114" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F114" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="G114" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="8">
@@ -8713,19 +8713,19 @@
         <v>110.4</v>
       </c>
       <c r="O114" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P114" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q114" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R114" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S114" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T114" s="11"/>
       <c r="U114" s="7"/>
@@ -8735,20 +8735,20 @@
         <v>3</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C115" s="25">
         <v>114</v>
       </c>
       <c r="D115" s="28"/>
       <c r="E115" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H115" s="7"/>
       <c r="I115" s="8">
@@ -8768,22 +8768,22 @@
         <v>410</v>
       </c>
       <c r="O115" s="20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P115" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q115" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R115" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S115" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="T115" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U115" s="7"/>
     </row>
@@ -8792,20 +8792,20 @@
         <v>3</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C116" s="25">
         <v>115</v>
       </c>
       <c r="D116" s="28"/>
       <c r="E116" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F116" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="G116" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="8">
@@ -8825,19 +8825,19 @@
         <v>290.8</v>
       </c>
       <c r="O116" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P116" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q116" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R116" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S116" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="T116" s="11"/>
       <c r="U116" s="7"/>
@@ -8847,20 +8847,20 @@
         <v>3</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C117" s="25">
         <v>116</v>
       </c>
       <c r="D117" s="28"/>
       <c r="E117" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F117" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G117" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="8">
@@ -8880,19 +8880,19 @@
         <v>114</v>
       </c>
       <c r="O117" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P117" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q117" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R117" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S117" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="T117" s="11"/>
       <c r="U117" s="30"/>
@@ -8902,20 +8902,20 @@
         <v>3</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C118" s="25">
         <v>117</v>
       </c>
       <c r="D118" s="28"/>
       <c r="E118" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F118" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G118" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H118" s="7"/>
       <c r="I118" s="8">
@@ -8935,19 +8935,19 @@
         <v>47.2</v>
       </c>
       <c r="O118" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P118" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q118" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R118" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S118" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T118" s="11"/>
       <c r="U118" s="7"/>
@@ -8957,20 +8957,20 @@
         <v>3</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C119" s="25">
         <v>118</v>
       </c>
       <c r="D119" s="28"/>
       <c r="E119" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F119" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="G119" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="8">
@@ -8990,19 +8990,19 @@
         <v>23.6</v>
       </c>
       <c r="O119" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P119" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q119" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R119" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S119" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="T119" s="11"/>
       <c r="U119" s="7"/>
@@ -9012,20 +9012,20 @@
         <v>3</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C120" s="25">
         <v>119</v>
       </c>
       <c r="D120" s="28"/>
       <c r="E120" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F120" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F120" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="G120" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H120" s="7"/>
       <c r="I120" s="8">
@@ -9045,19 +9045,19 @@
         <v>49.8</v>
       </c>
       <c r="O120" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P120" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q120" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R120" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S120" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="T120" s="11"/>
       <c r="U120" s="7"/>
@@ -9067,20 +9067,20 @@
         <v>3</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C121" s="25">
         <v>120</v>
       </c>
       <c r="D121" s="28"/>
       <c r="E121" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F121" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F121" s="7" t="s">
+      <c r="G121" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="8">
@@ -9100,19 +9100,19 @@
         <v>33.200000000000003</v>
       </c>
       <c r="O121" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P121" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q121" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R121" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S121" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="T121" s="11"/>
       <c r="U121" s="7"/>
@@ -9122,20 +9122,20 @@
         <v>3</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C122" s="25">
         <v>121</v>
       </c>
       <c r="D122" s="28"/>
       <c r="E122" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="8">
@@ -9155,19 +9155,19 @@
         <v>42.1</v>
       </c>
       <c r="O122" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P122" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q122" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R122" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S122" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="T122" s="11"/>
       <c r="U122" s="7"/>
@@ -9177,20 +9177,20 @@
         <v>3</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C123" s="25">
         <v>122</v>
       </c>
       <c r="D123" s="28"/>
       <c r="E123" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F123" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F123" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="G123" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H123" s="7"/>
       <c r="I123" s="8">
@@ -9213,16 +9213,16 @@
         <v>32</v>
       </c>
       <c r="P123" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q123" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R123" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S123" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="T123" s="11"/>
       <c r="U123" s="7"/>
@@ -9232,20 +9232,20 @@
         <v>3</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C124" s="25">
         <v>123</v>
       </c>
       <c r="D124" s="28"/>
       <c r="E124" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H124" s="7"/>
       <c r="I124" s="8">
@@ -9265,19 +9265,19 @@
         <v>84.1</v>
       </c>
       <c r="O124" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P124" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q124" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R124" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S124" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="T124" s="11"/>
       <c r="U124" s="7"/>
@@ -9287,20 +9287,20 @@
         <v>3</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C125" s="25">
         <v>124</v>
       </c>
       <c r="D125" s="28"/>
       <c r="E125" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F125" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="G125" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H125" s="7"/>
       <c r="I125" s="8">
@@ -9320,42 +9320,42 @@
         <v>70.7</v>
       </c>
       <c r="O125" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P125" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q125" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R125" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S125" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="T125" s="11"/>
       <c r="U125" s="7"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A126" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B126" s="22" t="s">
         <v>565</v>
-      </c>
-      <c r="B126" s="22" t="s">
-        <v>566</v>
       </c>
       <c r="C126" s="25">
         <v>125</v>
       </c>
       <c r="D126" s="28"/>
       <c r="E126" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H126" s="7"/>
       <c r="I126" s="8">
@@ -9375,15 +9375,15 @@
         <v>63.5</v>
       </c>
       <c r="O126" s="20" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P126" s="9"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S126" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="T126" s="11"/>
       <c r="U126" s="7"/>
@@ -9393,20 +9393,20 @@
         <v>3</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C127" s="25">
         <v>126</v>
       </c>
       <c r="D127" s="28"/>
       <c r="E127" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H127" s="7"/>
       <c r="I127" s="8">
@@ -9426,17 +9426,17 @@
         <v>419.4</v>
       </c>
       <c r="O127" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P127" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q127" s="7"/>
       <c r="R127" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S127" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="T127" s="11"/>
       <c r="U127" s="7"/>
@@ -9446,20 +9446,20 @@
         <v>3</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C128" s="25">
         <v>127</v>
       </c>
       <c r="D128" s="28"/>
       <c r="E128" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F128" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="G128" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H128" s="7"/>
       <c r="I128" s="8">
@@ -9479,17 +9479,17 @@
         <v>6.1</v>
       </c>
       <c r="O128" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P128" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q128" s="7"/>
       <c r="R128" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S128" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="T128" s="11"/>
       <c r="U128" s="7"/>
@@ -9499,20 +9499,20 @@
         <v>3</v>
       </c>
       <c r="B129" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C129" s="25">
         <v>128</v>
       </c>
       <c r="D129" s="28"/>
       <c r="E129" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F129" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="G129" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H129" s="7"/>
       <c r="I129" s="8">
@@ -9532,19 +9532,19 @@
         <v>152.1</v>
       </c>
       <c r="O129" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P129" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q129" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="R129" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S129" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T129" s="11"/>
       <c r="U129" s="7"/>
@@ -9554,20 +9554,20 @@
         <v>3</v>
       </c>
       <c r="B130" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C130" s="25">
         <v>129</v>
       </c>
       <c r="D130" s="28"/>
       <c r="E130" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F130" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F130" s="7" t="s">
+      <c r="G130" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H130" s="7"/>
       <c r="I130" s="8">
@@ -9587,19 +9587,19 @@
         <v>506.8</v>
       </c>
       <c r="O130" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P130" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q130" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R130" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S130" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="T130" s="11"/>
       <c r="U130" s="7"/>
@@ -9609,20 +9609,20 @@
         <v>3</v>
       </c>
       <c r="B131" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C131" s="25">
         <v>130</v>
       </c>
       <c r="D131" s="28"/>
       <c r="E131" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F131" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G131" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H131" s="7"/>
       <c r="I131" s="8">
@@ -9642,19 +9642,19 @@
         <v>1888.1</v>
       </c>
       <c r="O131" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P131" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q131" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R131" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S131" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="T131" s="11"/>
       <c r="U131" s="7"/>
@@ -9664,20 +9664,20 @@
         <v>3</v>
       </c>
       <c r="B132" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C132" s="25">
         <v>131</v>
       </c>
       <c r="D132" s="28"/>
       <c r="E132" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F132" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F132" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="G132" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H132" s="7"/>
       <c r="I132" s="8">
@@ -9697,19 +9697,19 @@
         <v>1227.3</v>
       </c>
       <c r="O132" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P132" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q132" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R132" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S132" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="T132" s="11"/>
       <c r="U132" s="7"/>
@@ -9719,18 +9719,18 @@
         <v>3</v>
       </c>
       <c r="B133" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C133" s="25">
         <v>132</v>
       </c>
       <c r="D133" s="28"/>
       <c r="E133" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F133" s="7"/>
       <c r="G133" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H133" s="7"/>
       <c r="I133" s="8">
@@ -9750,19 +9750,19 @@
         <v>542.1</v>
       </c>
       <c r="O133" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P133" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q133" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R133" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S133" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T133" s="11"/>
       <c r="U133" s="7"/>
@@ -9772,20 +9772,20 @@
         <v>3</v>
       </c>
       <c r="B134" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C134" s="25">
         <v>133</v>
       </c>
       <c r="D134" s="28"/>
       <c r="E134" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F134" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G134" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="H134" s="7"/>
       <c r="I134" s="8">
@@ -9805,13 +9805,13 @@
         <v>305.7</v>
       </c>
       <c r="O134" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="P134" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q134" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="P134" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q134" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="R134" s="10"/>
       <c r="S134" s="7"/>
@@ -9823,20 +9823,20 @@
         <v>3</v>
       </c>
       <c r="B135" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C135" s="25">
         <v>134</v>
       </c>
       <c r="D135" s="28"/>
       <c r="E135" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F135" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F135" s="7" t="s">
+      <c r="G135" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G135" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H135" s="7"/>
       <c r="I135" s="8">
@@ -9856,22 +9856,22 @@
         <v>547.70000000000005</v>
       </c>
       <c r="O135" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P135" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q135" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R135" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S135" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="T135" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U135" s="7"/>
     </row>
@@ -9880,20 +9880,20 @@
         <v>3</v>
       </c>
       <c r="B136" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C136" s="25">
         <v>135</v>
       </c>
       <c r="D136" s="28"/>
       <c r="E136" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H136" s="7"/>
       <c r="I136" s="8">
@@ -9913,19 +9913,19 @@
         <v>3648.7</v>
       </c>
       <c r="O136" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P136" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q136" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R136" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S136" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="T136" s="11"/>
       <c r="U136" s="7"/>
@@ -9935,20 +9935,20 @@
         <v>3</v>
       </c>
       <c r="B137" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C137" s="25">
         <v>136</v>
       </c>
       <c r="D137" s="28"/>
       <c r="E137" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H137" s="7"/>
       <c r="I137" s="8">
@@ -9968,13 +9968,13 @@
         <v>939</v>
       </c>
       <c r="O137" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P137" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q137" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R137" s="10"/>
       <c r="S137" s="7"/>
@@ -9986,7 +9986,7 @@
         <v>3</v>
       </c>
       <c r="B138" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C138" s="25">
         <v>137</v>
@@ -9995,13 +9995,13 @@
         <v>0</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F138" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G138" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H138" s="7"/>
       <c r="I138" s="8">
@@ -10024,7 +10024,7 @@
         <v>17</v>
       </c>
       <c r="P138" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q138" s="7"/>
       <c r="R138" s="10"/>
@@ -10037,18 +10037,18 @@
         <v>3</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C139" s="25">
         <v>138</v>
       </c>
       <c r="D139" s="28"/>
       <c r="E139" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F139" s="7"/>
       <c r="G139" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H139" s="7"/>
       <c r="I139" s="8">
@@ -10068,13 +10068,13 @@
         <v>2</v>
       </c>
       <c r="O139" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P139" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q139" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R139" s="10"/>
       <c r="S139" s="7"/>
@@ -10086,20 +10086,20 @@
         <v>3</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C140" s="25">
         <v>139</v>
       </c>
       <c r="D140" s="28"/>
       <c r="E140" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F140" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F140" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="G140" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H140" s="7"/>
       <c r="I140" s="8">
@@ -10119,13 +10119,13 @@
         <v>120.7</v>
       </c>
       <c r="O140" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P140" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q140" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="R140" s="10"/>
       <c r="S140" s="7"/>
@@ -10137,20 +10137,20 @@
         <v>3</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C141" s="25">
         <v>140</v>
       </c>
       <c r="D141" s="28"/>
       <c r="E141" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F141" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F141" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="G141" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H141" s="7"/>
       <c r="I141" s="8">
@@ -10170,13 +10170,13 @@
         <v>118.5</v>
       </c>
       <c r="O141" s="20" t="s">
-        <v>33</v>
+        <v>631</v>
       </c>
       <c r="P141" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q141" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="R141" s="10"/>
       <c r="S141" s="7"/>
@@ -10188,20 +10188,20 @@
         <v>3</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C142" s="25">
         <v>141</v>
       </c>
       <c r="D142" s="28"/>
       <c r="E142" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F142" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F142" s="7" t="s">
+      <c r="G142" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H142" s="7"/>
       <c r="I142" s="8">
@@ -10221,13 +10221,13 @@
         <v>109.4</v>
       </c>
       <c r="O142" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P142" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q142" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R142" s="10"/>
       <c r="S142" s="7"/>
@@ -10239,20 +10239,20 @@
         <v>3</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C143" s="25">
         <v>142</v>
       </c>
       <c r="D143" s="28"/>
       <c r="E143" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="F143" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F143" s="14" t="s">
-        <v>194</v>
-      </c>
       <c r="G143" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H143" s="14"/>
       <c r="I143" s="8">
@@ -10272,18 +10272,18 @@
         <v>1517.2</v>
       </c>
       <c r="O143" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P143" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q143" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R143" s="10"/>
       <c r="S143" s="14"/>
       <c r="T143" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="U143" s="7"/>
     </row>
@@ -10292,20 +10292,20 @@
         <v>3</v>
       </c>
       <c r="B144" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C144" s="25">
         <v>143</v>
       </c>
       <c r="D144" s="28"/>
       <c r="E144" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H144" s="7"/>
       <c r="I144" s="8">
@@ -10325,16 +10325,16 @@
         <v>654</v>
       </c>
       <c r="O144" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P144" s="9"/>
       <c r="Q144" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="R144" s="10"/>
       <c r="S144" s="7"/>
       <c r="T144" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="U144" s="7"/>
     </row>
@@ -10343,26 +10343,26 @@
         <v>3</v>
       </c>
       <c r="B145" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C145" s="25">
         <v>144</v>
       </c>
       <c r="D145" s="28"/>
       <c r="E145" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H145" s="7"/>
       <c r="I145" s="8"/>
       <c r="J145" s="7"/>
       <c r="K145" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L145" s="18">
         <v>52.839700000000001</v>
@@ -10374,11 +10374,11 @@
         <v>507.5</v>
       </c>
       <c r="O145" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P145" s="9"/>
       <c r="Q145" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R145" s="10"/>
       <c r="S145" s="7"/>
@@ -10390,28 +10390,28 @@
         <v>3</v>
       </c>
       <c r="B146" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C146" s="25">
         <v>145</v>
       </c>
       <c r="D146" s="28"/>
       <c r="E146" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F146" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F146" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="G146" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I146" s="8"/>
       <c r="J146" s="7"/>
       <c r="K146" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L146" s="18">
         <v>51.3264</v>
@@ -10423,11 +10423,11 @@
         <v>496.2</v>
       </c>
       <c r="O146" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P146" s="9"/>
       <c r="Q146" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R146" s="10"/>
       <c r="S146" s="7"/>
@@ -10439,17 +10439,17 @@
         <v>3</v>
       </c>
       <c r="B147" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C147" s="25">
         <v>146</v>
       </c>
       <c r="D147" s="28"/>
       <c r="E147" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F147" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="G147" s="7" t="s">
         <v>29</v>
@@ -10462,11 +10462,11 @@
       <c r="M147" s="18"/>
       <c r="N147" s="33"/>
       <c r="O147" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P147" s="9"/>
       <c r="Q147" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R147" s="10"/>
       <c r="S147" s="7"/>
@@ -10478,26 +10478,26 @@
         <v>3</v>
       </c>
       <c r="B148" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C148" s="25">
         <v>147</v>
       </c>
       <c r="D148" s="28"/>
       <c r="E148" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F148" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F148" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="G148" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H148" s="7"/>
       <c r="I148" s="8"/>
       <c r="J148" s="7"/>
       <c r="K148" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L148" s="18">
         <v>52.6633</v>
@@ -10509,16 +10509,16 @@
         <v>430</v>
       </c>
       <c r="O148" s="20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P148" s="9"/>
       <c r="Q148" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R148" s="10"/>
       <c r="S148" s="7"/>
       <c r="T148" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="U148" s="7"/>
     </row>
@@ -10527,28 +10527,28 @@
         <v>3</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C149" s="25">
         <v>148</v>
       </c>
       <c r="D149" s="28"/>
       <c r="E149" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I149" s="8"/>
       <c r="J149" s="7"/>
       <c r="K149" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L149" s="18">
         <v>48.584200000000003</v>
@@ -10560,11 +10560,11 @@
         <v>1223</v>
       </c>
       <c r="O149" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P149" s="9"/>
       <c r="Q149" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R149" s="10"/>
       <c r="S149" s="7"/>
@@ -10576,28 +10576,28 @@
         <v>3</v>
       </c>
       <c r="B150" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C150" s="25">
         <v>149</v>
       </c>
       <c r="D150" s="28"/>
       <c r="E150" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G150" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H150" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="H150" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="I150" s="8"/>
       <c r="J150" s="7"/>
       <c r="K150" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L150" s="18">
         <v>47.027200000000001</v>
@@ -10609,11 +10609,11 @@
         <v>1333</v>
       </c>
       <c r="O150" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P150" s="9"/>
       <c r="Q150" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R150" s="10"/>
       <c r="S150" s="7"/>
@@ -10625,26 +10625,26 @@
         <v>3</v>
       </c>
       <c r="B151" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C151" s="25">
         <v>150</v>
       </c>
       <c r="D151" s="28"/>
       <c r="E151" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F151" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G151" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H151" s="7"/>
       <c r="I151" s="8"/>
       <c r="J151" s="7"/>
       <c r="K151" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L151" s="18">
         <v>46.801099999999998</v>
@@ -10656,16 +10656,16 @@
         <v>2640</v>
       </c>
       <c r="O151" s="20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P151" s="9"/>
       <c r="Q151" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R151" s="10"/>
       <c r="S151" s="7"/>
       <c r="T151" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="U151" s="7"/>
     </row>
@@ -10674,28 +10674,28 @@
         <v>3</v>
       </c>
       <c r="B152" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C152" s="25">
         <v>151</v>
       </c>
       <c r="D152" s="28"/>
       <c r="E152" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F152" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G152" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G152" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="H152" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I152" s="8"/>
       <c r="J152" s="7"/>
       <c r="K152" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L152" s="18">
         <v>42.828800000000001</v>
@@ -10707,11 +10707,11 @@
         <v>2465</v>
       </c>
       <c r="O152" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P152" s="9"/>
       <c r="Q152" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R152" s="10"/>
       <c r="S152" s="7"/>
@@ -10720,17 +10720,17 @@
     </row>
     <row r="153" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A153" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B153" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C153" s="25">
         <v>152</v>
       </c>
       <c r="D153" s="28"/>
       <c r="E153" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
@@ -10752,38 +10752,38 @@
         <v>850</v>
       </c>
       <c r="O153" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P153" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q153" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R153" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S153" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="T153" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="U153" s="7"/>
     </row>
     <row r="154" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A154" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B154" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C154" s="25">
         <v>153</v>
       </c>
       <c r="D154" s="28"/>
       <c r="E154" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
@@ -10805,38 +10805,38 @@
         <v>741</v>
       </c>
       <c r="O154" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P154" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q154" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="R154" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S154" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="T154" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="U154" s="7"/>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A155" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B155" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C155" s="25">
         <v>154</v>
       </c>
       <c r="D155" s="28"/>
       <c r="E155" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
@@ -10858,36 +10858,36 @@
         <v>518.52</v>
       </c>
       <c r="O155" s="20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="P155" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q155" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="R155" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S155" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="T155" s="11"/>
       <c r="U155" s="7"/>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A156" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B156" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C156" s="25">
         <v>155</v>
       </c>
       <c r="D156" s="28"/>
       <c r="E156" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
@@ -10909,36 +10909,36 @@
         <v>589.71</v>
       </c>
       <c r="O156" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="P156" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q156" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="R156" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S156" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T156" s="11"/>
       <c r="U156" s="7"/>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A157" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B157" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C157" s="25">
         <v>156</v>
       </c>
       <c r="D157" s="28"/>
       <c r="E157" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
@@ -10960,36 +10960,36 @@
         <v>800.92</v>
       </c>
       <c r="O157" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="P157" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q157" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="R157" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S157" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T157" s="11"/>
       <c r="U157" s="7"/>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A158" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B158" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C158" s="25">
         <v>157</v>
       </c>
       <c r="D158" s="28"/>
       <c r="E158" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
@@ -11011,36 +11011,36 @@
         <v>138</v>
       </c>
       <c r="O158" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="P158" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q158" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="R158" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S158" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="T158" s="11"/>
       <c r="U158" s="7"/>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A159" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B159" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C159" s="25">
         <v>158</v>
       </c>
       <c r="D159" s="28"/>
       <c r="E159" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
@@ -11062,34 +11062,34 @@
         <v>776.93</v>
       </c>
       <c r="O159" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P159" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q159" s="7"/>
       <c r="R159" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S159" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="T159" s="11"/>
       <c r="U159" s="7"/>
     </row>
     <row r="160" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A160" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B160" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C160" s="25">
         <v>159</v>
       </c>
       <c r="D160" s="28"/>
       <c r="E160" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
@@ -11111,36 +11111,36 @@
         <v>196</v>
       </c>
       <c r="O160" s="20" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="P160" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q160" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="R160" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S160" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T160" s="11"/>
       <c r="U160" s="7"/>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A161" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B161" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C161" s="25">
         <v>160</v>
       </c>
       <c r="D161" s="28"/>
       <c r="E161" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
@@ -11162,36 +11162,36 @@
         <v>101</v>
       </c>
       <c r="O161" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="P161" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q161" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="P161" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q161" s="7" t="s">
-        <v>548</v>
-      </c>
       <c r="R161" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S161" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="T161" s="11"/>
       <c r="U161" s="7"/>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A162" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B162" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C162" s="25">
         <v>161</v>
       </c>
       <c r="D162" s="28"/>
       <c r="E162" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
@@ -11213,34 +11213,34 @@
         <v>674.86</v>
       </c>
       <c r="O162" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P162" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q162" s="7"/>
       <c r="R162" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S162" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="T162" s="11"/>
       <c r="U162" s="7"/>
     </row>
     <row r="163" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A163" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B163" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C163" s="25">
         <v>162</v>
       </c>
       <c r="D163" s="28"/>
       <c r="E163" s="14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -11262,36 +11262,36 @@
         <v>264</v>
       </c>
       <c r="O163" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="P163" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q163" s="14" t="s">
         <v>578</v>
       </c>
-      <c r="P163" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q163" s="14" t="s">
+      <c r="R163" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="S163" s="14" t="s">
         <v>579</v>
-      </c>
-      <c r="R163" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="S163" s="14" t="s">
-        <v>580</v>
       </c>
       <c r="T163" s="11"/>
       <c r="U163" s="7"/>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A164" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B164" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C164" s="25">
         <v>163</v>
       </c>
       <c r="D164" s="28"/>
       <c r="E164" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F164" s="14"/>
       <c r="G164" s="14"/>
@@ -11313,36 +11313,36 @@
         <v>312.39999999999998</v>
       </c>
       <c r="O164" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="P164" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q164" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="P164" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q164" s="14" t="s">
+      <c r="R164" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="S164" s="14" t="s">
         <v>583</v>
-      </c>
-      <c r="R164" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="S164" s="14" t="s">
-        <v>584</v>
       </c>
       <c r="T164" s="11"/>
       <c r="U164" s="7"/>
     </row>
     <row r="165" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A165" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B165" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C165" s="25">
         <v>164</v>
       </c>
       <c r="D165" s="28"/>
       <c r="E165" s="14" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F165" s="14"/>
       <c r="G165" s="14"/>
@@ -11364,19 +11364,19 @@
         <v>168</v>
       </c>
       <c r="O165" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="P165" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q165" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="P165" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q165" s="14" t="s">
-        <v>588</v>
-      </c>
       <c r="R165" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S165" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="T165" s="11"/>
       <c r="U165" s="7"/>
@@ -11612,7 +11612,7 @@
       <c r="U175" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fwlAfqvRHAcC96W9kXjvxttZglGN5sv4kMc+SKL5HCK6yFe9bZa/Ch4VnyKSXy0b6bW6o/u1xCSHWtCK2X7nww==" saltValue="0+S9X2Cz8DyHqS4uxR/+rw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ezDplDYJP3KjCy3QD5EG196aMKyXibUtsYqX6RrkER02ERFNRQlnJK3yh2GZEqi7P2Df/r2dpFA2ncdJQGFRIw==" saltValue="BvHnJrw7dUOgaDTjf66itw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:U165" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U165">
       <sortCondition ref="C1:C165"/>
@@ -11669,31 +11669,31 @@
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="I1" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>0</v>
@@ -11702,16 +11702,16 @@
         <v>1</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="O1" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P1" s="19" t="s">
         <v>2</v>
@@ -11720,27 +11720,27 @@
         <v>4</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="U1" s="24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="V1" s="31" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C2" s="22">
         <v>11</v>
@@ -11750,7 +11750,7 @@
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -11772,27 +11772,27 @@
         <v>3940</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="U2" s="11"/>
       <c r="V2" s="7"/>
     </row>
     <row r="3" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C3" s="22">
         <v>12</v>
@@ -11802,7 +11802,7 @@
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -11824,27 +11824,27 @@
         <v>2092</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="U3" s="11"/>
       <c r="V3" s="7"/>
     </row>
     <row r="4" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C4" s="22">
         <v>13</v>
@@ -11854,7 +11854,7 @@
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -11876,29 +11876,29 @@
         <v>10</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="T4" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="S4" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>485</v>
-      </c>
       <c r="U4" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="V4" s="7"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C5" s="22">
         <v>14</v>
@@ -11908,7 +11908,7 @@
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -11930,27 +11930,27 @@
         <v>135</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="T5" s="14" t="s">
         <v>490</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>491</v>
       </c>
       <c r="U5" s="11"/>
       <c r="V5" s="7"/>
     </row>
     <row r="6" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C6" s="22">
         <v>15</v>
@@ -11960,7 +11960,7 @@
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -11982,27 +11982,27 @@
         <v>1910</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="14"/>
       <c r="S6" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T6" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C7" s="22">
         <v>16</v>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -12034,27 +12034,27 @@
         <v>3204</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T7" s="14"/>
       <c r="U7" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C8" s="22">
         <v>17</v>
@@ -12064,7 +12064,7 @@
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -12086,27 +12086,27 @@
         <v>133</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q8" s="9"/>
       <c r="R8" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="T8" s="14" t="s">
         <v>503</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="T8" s="14" t="s">
-        <v>504</v>
       </c>
       <c r="U8" s="11"/>
       <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:22" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C9" s="22">
         <v>18</v>
@@ -12116,7 +12116,7 @@
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -12138,17 +12138,17 @@
         <v>3576</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T9" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U9" s="11"/>
       <c r="V9" s="7"/>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E265F2-592D-4E16-86EC-7AE9C042E567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E303F43E-0455-41C3-BFFC-3A057BDAAB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="附加站点" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">固定站点!$A$1:$U$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">固定站点!$A$1:$U$167</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="635">
   <si>
     <t>USAF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2431,6 +2431,17 @@
   </si>
   <si>
     <t>上饶县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肯特山</t>
+  </si>
+  <si>
+    <t>Налайх</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Буянт-Ухаа</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3057,10 +3068,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U175"/>
+  <dimension ref="A1:U177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3808,281 +3819,281 @@
       <c r="T14" s="11"/>
       <c r="U14" s="7"/>
     </row>
-    <row r="15" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="25" t="s">
         <v>388</v>
       </c>
       <c r="C15" s="25">
         <v>14</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="11">
-        <v>546</v>
-      </c>
-      <c r="L15" s="18">
-        <v>47.227308333333298</v>
-      </c>
-      <c r="M15" s="18">
-        <v>98.573644444444398</v>
-      </c>
-      <c r="N15" s="33">
-        <v>2422</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>361</v>
+      <c r="D15" s="25"/>
+      <c r="E15" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="36">
+        <v>248</v>
+      </c>
+      <c r="L15" s="13">
+        <v>47.988666500000001</v>
+      </c>
+      <c r="M15" s="13">
+        <v>107.456566</v>
+      </c>
+      <c r="N15" s="38">
+        <v>1532</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>633</v>
       </c>
       <c r="P15" s="9"/>
-      <c r="Q15" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="7" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B16" s="22" t="s">
+      <c r="Q15" s="37" t="s">
+        <v>632</v>
+      </c>
+      <c r="R15" s="9"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="37"/>
+    </row>
+    <row r="16" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>388</v>
       </c>
       <c r="C16" s="25">
         <v>15</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="11">
-        <v>276</v>
-      </c>
-      <c r="L16" s="17">
-        <v>47.016469999999998</v>
-      </c>
-      <c r="M16" s="17">
-        <v>99.479550000000003</v>
-      </c>
-      <c r="N16" s="33">
-        <v>2034</v>
-      </c>
-      <c r="O16" s="20" t="s">
-        <v>362</v>
+      <c r="D16" s="25"/>
+      <c r="E16" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="36">
+        <v>291</v>
+      </c>
+      <c r="L16" s="13">
+        <v>47.849437700000003</v>
+      </c>
+      <c r="M16" s="13">
+        <v>106.754784</v>
+      </c>
+      <c r="N16" s="38">
+        <v>1273</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>634</v>
       </c>
       <c r="P16" s="9"/>
-      <c r="Q16" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="R16" s="10"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" s="39" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A17" s="37" t="s">
+      <c r="Q16" s="37" t="s">
+        <v>632</v>
+      </c>
+      <c r="R16" s="9"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="37"/>
+    </row>
+    <row r="17" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="22" t="s">
         <v>388</v>
       </c>
       <c r="C17" s="25">
         <v>16</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="37" t="s">
-        <v>588</v>
-      </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="13">
-        <v>44275</v>
-      </c>
-      <c r="J17" s="37">
-        <v>99999</v>
-      </c>
-      <c r="K17" s="9">
-        <v>275</v>
-      </c>
-      <c r="L17" s="13">
-        <v>46.812109999999997</v>
-      </c>
-      <c r="M17" s="13">
-        <v>98.087059999999994</v>
-      </c>
-      <c r="N17" s="38">
-        <v>2258</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>590</v>
+      <c r="D17" s="28"/>
+      <c r="E17" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="11">
+        <v>546</v>
+      </c>
+      <c r="L17" s="18">
+        <v>47.227308333333298</v>
+      </c>
+      <c r="M17" s="18">
+        <v>98.573644444444398</v>
+      </c>
+      <c r="N17" s="33">
+        <v>2422</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>361</v>
       </c>
       <c r="P17" s="9"/>
-      <c r="Q17" s="37" t="s">
-        <v>589</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="S17" s="37" t="s">
-        <v>592</v>
-      </c>
-      <c r="T17" s="36"/>
-      <c r="U17" s="37"/>
-    </row>
-    <row r="18" spans="1:21" s="39" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A18" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="B18" s="25" t="s">
+      <c r="Q17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="R17" s="10"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>388</v>
       </c>
       <c r="C18" s="25">
         <v>17</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="37" t="s">
-        <v>588</v>
-      </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="13">
-        <v>44284</v>
-      </c>
-      <c r="J18" s="37">
-        <v>99999</v>
-      </c>
-      <c r="K18" s="9">
-        <v>284</v>
-      </c>
-      <c r="L18" s="13">
-        <v>46.702083600000002</v>
-      </c>
-      <c r="M18" s="13">
-        <v>100.142807</v>
-      </c>
-      <c r="N18" s="38">
-        <v>2128</v>
-      </c>
-      <c r="O18" s="13" t="s">
-        <v>591</v>
+      <c r="D18" s="28"/>
+      <c r="E18" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="11">
+        <v>276</v>
+      </c>
+      <c r="L18" s="17">
+        <v>47.016469999999998</v>
+      </c>
+      <c r="M18" s="17">
+        <v>99.479550000000003</v>
+      </c>
+      <c r="N18" s="33">
+        <v>2034</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>362</v>
       </c>
       <c r="P18" s="9"/>
-      <c r="Q18" s="37" t="s">
-        <v>589</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="S18" s="37" t="s">
-        <v>597</v>
-      </c>
-      <c r="T18" s="36"/>
-      <c r="U18" s="37"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A19" s="7" t="s">
+      <c r="Q18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="R18" s="10"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="7"/>
+    </row>
+    <row r="19" spans="1:21" s="39" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A19" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="25" t="s">
         <v>388</v>
       </c>
       <c r="C19" s="25">
         <v>18</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="11">
-        <v>864</v>
-      </c>
-      <c r="L19" s="17">
-        <v>48.332500000000003</v>
-      </c>
-      <c r="M19" s="17">
-        <v>92.634159999999994</v>
-      </c>
-      <c r="N19" s="33">
-        <v>1166</v>
-      </c>
-      <c r="O19" s="20" t="s">
-        <v>337</v>
+      <c r="D19" s="25"/>
+      <c r="E19" s="37" t="s">
+        <v>588</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="13">
+        <v>44275</v>
+      </c>
+      <c r="J19" s="37">
+        <v>99999</v>
+      </c>
+      <c r="K19" s="9">
+        <v>275</v>
+      </c>
+      <c r="L19" s="13">
+        <v>46.812109999999997</v>
+      </c>
+      <c r="M19" s="13">
+        <v>98.087059999999994</v>
+      </c>
+      <c r="N19" s="38">
+        <v>2258</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>590</v>
       </c>
       <c r="P19" s="9"/>
-      <c r="Q19" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="R19" s="10"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="7"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A20" s="7" t="s">
+      <c r="Q19" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="S19" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="T19" s="36"/>
+      <c r="U19" s="37"/>
+    </row>
+    <row r="20" spans="1:21" s="39" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A20" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="25" t="s">
         <v>388</v>
       </c>
       <c r="C20" s="25">
         <v>19</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="11">
-        <v>863</v>
-      </c>
-      <c r="L20" s="18">
-        <v>48.501372222222201</v>
-      </c>
-      <c r="M20" s="18">
-        <v>91.448158333333296</v>
-      </c>
-      <c r="N20" s="33">
-        <v>1262</v>
-      </c>
-      <c r="O20" s="20" t="s">
-        <v>344</v>
+      <c r="D20" s="25"/>
+      <c r="E20" s="37" t="s">
+        <v>588</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="13">
+        <v>44284</v>
+      </c>
+      <c r="J20" s="37">
+        <v>99999</v>
+      </c>
+      <c r="K20" s="9">
+        <v>284</v>
+      </c>
+      <c r="L20" s="13">
+        <v>46.702083600000002</v>
+      </c>
+      <c r="M20" s="13">
+        <v>100.142807</v>
+      </c>
+      <c r="N20" s="38">
+        <v>2128</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>591</v>
       </c>
       <c r="P20" s="9"/>
-      <c r="Q20" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="R20" s="10"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="7"/>
+      <c r="Q20" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="S20" s="37" t="s">
+        <v>597</v>
+      </c>
+      <c r="T20" s="36"/>
+      <c r="U20" s="37"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
@@ -4104,83 +4115,75 @@
       <c r="I21" s="8"/>
       <c r="J21" s="7"/>
       <c r="K21" s="11">
-        <v>271</v>
+        <v>864</v>
       </c>
       <c r="L21" s="17">
-        <v>46.590800000000002</v>
+        <v>48.332500000000003</v>
       </c>
       <c r="M21" s="17">
-        <v>93.272199999999998</v>
+        <v>92.634159999999994</v>
       </c>
       <c r="N21" s="33">
-        <v>1716</v>
+        <v>1166</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="R21" s="10"/>
       <c r="S21" s="7"/>
       <c r="T21" s="11"/>
       <c r="U21" s="7"/>
     </row>
-    <row r="22" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="37" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="22" t="s">
         <v>388</v>
       </c>
       <c r="C22" s="25">
         <v>21</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="37" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="13">
-        <v>44265</v>
-      </c>
-      <c r="J22" s="37">
-        <v>99999</v>
-      </c>
-      <c r="K22" s="36">
-        <v>265</v>
-      </c>
-      <c r="L22" s="13">
-        <v>46.094700000000003</v>
-      </c>
-      <c r="M22" s="13">
-        <v>91.552599999999998</v>
-      </c>
-      <c r="N22" s="38">
-        <v>1187</v>
-      </c>
-      <c r="O22" s="13" t="s">
-        <v>593</v>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="11">
+        <v>863</v>
+      </c>
+      <c r="L22" s="18">
+        <v>48.501372222222201</v>
+      </c>
+      <c r="M22" s="18">
+        <v>91.448158333333296</v>
+      </c>
+      <c r="N22" s="33">
+        <v>1262</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>344</v>
       </c>
       <c r="P22" s="9"/>
-      <c r="Q22" s="37" t="s">
-        <v>594</v>
-      </c>
-      <c r="R22" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="S22" s="37" t="s">
-        <v>595</v>
-      </c>
-      <c r="T22" s="36"/>
-      <c r="U22" s="37"/>
+      <c r="Q22" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="R22" s="10"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="7"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>388</v>
@@ -4190,7 +4193,7 @@
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="7" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -4198,155 +4201,163 @@
       <c r="I23" s="8"/>
       <c r="J23" s="7"/>
       <c r="K23" s="11">
-        <v>889</v>
-      </c>
-      <c r="L23" s="18">
-        <v>49.597225000000002</v>
-      </c>
-      <c r="M23" s="18">
-        <v>98.695800000000006</v>
+        <v>271</v>
+      </c>
+      <c r="L23" s="17">
+        <v>46.590800000000002</v>
+      </c>
+      <c r="M23" s="17">
+        <v>93.272199999999998</v>
       </c>
       <c r="N23" s="33">
-        <v>1805</v>
+        <v>1716</v>
       </c>
       <c r="O23" s="20" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="P23" s="9"/>
-      <c r="Q23" s="7"/>
+      <c r="Q23" s="7" t="s">
+        <v>353</v>
+      </c>
       <c r="R23" s="10"/>
       <c r="S23" s="7"/>
       <c r="T23" s="11"/>
       <c r="U23" s="7"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A24" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B24" s="22" t="s">
+    <row r="24" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>388</v>
       </c>
       <c r="C24" s="25">
         <v>23</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="11">
-        <v>887</v>
-      </c>
-      <c r="L24" s="18">
-        <v>50.677022222222199</v>
-      </c>
-      <c r="M24" s="18">
-        <v>99.226799999999997</v>
-      </c>
-      <c r="N24" s="33">
-        <v>1687</v>
-      </c>
-      <c r="O24" s="20" t="s">
-        <v>351</v>
+      <c r="D24" s="25"/>
+      <c r="E24" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="13">
+        <v>44265</v>
+      </c>
+      <c r="J24" s="37">
+        <v>99999</v>
+      </c>
+      <c r="K24" s="36">
+        <v>265</v>
+      </c>
+      <c r="L24" s="13">
+        <v>46.094700000000003</v>
+      </c>
+      <c r="M24" s="13">
+        <v>91.552599999999998</v>
+      </c>
+      <c r="N24" s="38">
+        <v>1187</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>593</v>
       </c>
       <c r="P24" s="9"/>
-      <c r="Q24" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="R24" s="10"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="7"/>
-    </row>
-    <row r="25" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="B25" s="25" t="s">
+      <c r="Q24" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="S24" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="T24" s="36"/>
+      <c r="U24" s="37"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A25" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>388</v>
       </c>
       <c r="C25" s="25">
         <v>24</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="36">
-        <v>208</v>
-      </c>
-      <c r="L25" s="37">
-        <v>50.5523338</v>
-      </c>
-      <c r="M25" s="37">
-        <v>101.514427</v>
-      </c>
-      <c r="N25" s="38">
-        <v>1139</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>596</v>
+      <c r="D25" s="28"/>
+      <c r="E25" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="11">
+        <v>889</v>
+      </c>
+      <c r="L25" s="18">
+        <v>49.597225000000002</v>
+      </c>
+      <c r="M25" s="18">
+        <v>98.695800000000006</v>
+      </c>
+      <c r="N25" s="33">
+        <v>1805</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>347</v>
       </c>
       <c r="P25" s="9"/>
-      <c r="Q25" s="37" t="s">
-        <v>599</v>
-      </c>
-      <c r="R25" s="9"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="37"/>
-    </row>
-    <row r="26" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="B26" s="25" t="s">
+      <c r="Q25" s="7"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="7"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A26" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>388</v>
       </c>
       <c r="C26" s="25">
         <v>25</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="36">
-        <v>876</v>
-      </c>
-      <c r="L26" s="37">
-        <v>50.112744444444402</v>
-      </c>
-      <c r="M26" s="37">
-        <v>100.039930555555</v>
-      </c>
-      <c r="N26" s="38">
-        <v>1566</v>
-      </c>
-      <c r="O26" s="13" t="s">
-        <v>600</v>
+      <c r="D26" s="28"/>
+      <c r="E26" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="11">
+        <v>887</v>
+      </c>
+      <c r="L26" s="18">
+        <v>50.677022222222199</v>
+      </c>
+      <c r="M26" s="18">
+        <v>99.226799999999997</v>
+      </c>
+      <c r="N26" s="33">
+        <v>1687</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="P26" s="9"/>
-      <c r="Q26" s="37" t="s">
-        <v>598</v>
-      </c>
-      <c r="R26" s="9"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="37"/>
+      <c r="Q26" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="R26" s="10"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="7"/>
     </row>
     <row r="27" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="37" t="s">
@@ -4365,37 +4376,29 @@
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
-      <c r="I27" s="13">
-        <v>44207</v>
-      </c>
-      <c r="J27" s="37">
-        <v>99999</v>
-      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="37"/>
       <c r="K27" s="36">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L27" s="37">
-        <v>50.439346299999997</v>
+        <v>50.5523338</v>
       </c>
       <c r="M27" s="37">
-        <v>100.15065800000001</v>
+        <v>101.514427</v>
       </c>
       <c r="N27" s="38">
-        <v>1668</v>
+        <v>1139</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="P27" s="9"/>
       <c r="Q27" s="37" t="s">
-        <v>601</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="S27" s="37" t="s">
-        <v>603</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="R27" s="9"/>
+      <c r="S27" s="37"/>
       <c r="T27" s="36"/>
       <c r="U27" s="37"/>
     </row>
@@ -4416,35 +4419,29 @@
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
-      <c r="I28" s="13">
-        <v>44231</v>
-      </c>
-      <c r="J28" s="37">
-        <v>99999</v>
-      </c>
+      <c r="I28" s="13"/>
+      <c r="J28" s="37"/>
       <c r="K28" s="36">
-        <v>231</v>
+        <v>876</v>
       </c>
       <c r="L28" s="37">
-        <v>49.638805400000003</v>
+        <v>50.112744444444402</v>
       </c>
       <c r="M28" s="37">
-        <v>100.166946</v>
+        <v>100.039930555555</v>
       </c>
       <c r="N28" s="38">
-        <v>1291</v>
+        <v>1566</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="P28" s="9"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="S28" s="37" t="s">
-        <v>605</v>
-      </c>
+      <c r="Q28" s="37" t="s">
+        <v>598</v>
+      </c>
+      <c r="R28" s="9"/>
+      <c r="S28" s="37"/>
       <c r="T28" s="36"/>
       <c r="U28" s="37"/>
     </row>
@@ -4465,27 +4462,37 @@
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="37"/>
+      <c r="I29" s="13">
+        <v>44207</v>
+      </c>
+      <c r="J29" s="37">
+        <v>99999</v>
+      </c>
       <c r="K29" s="36">
-        <v>877</v>
+        <v>207</v>
       </c>
       <c r="L29" s="37">
-        <v>49.907575000000001</v>
+        <v>50.439346299999997</v>
       </c>
       <c r="M29" s="37">
-        <v>99.433086111111095</v>
+        <v>100.15065800000001</v>
       </c>
       <c r="N29" s="38">
-        <v>1881</v>
+        <v>1668</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="P29" s="9"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="37"/>
+      <c r="Q29" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="S29" s="37" t="s">
+        <v>603</v>
+      </c>
       <c r="T29" s="36"/>
       <c r="U29" s="37"/>
     </row>
@@ -4506,29 +4513,35 @@
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="37"/>
+      <c r="I30" s="13">
+        <v>44231</v>
+      </c>
+      <c r="J30" s="37">
+        <v>99999</v>
+      </c>
       <c r="K30" s="36">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="L30" s="37">
-        <v>49.522293099999999</v>
+        <v>49.638805400000003</v>
       </c>
       <c r="M30" s="37">
-        <v>97.735159999999993</v>
+        <v>100.166946</v>
       </c>
       <c r="N30" s="38">
-        <v>1746</v>
+        <v>1291</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="P30" s="9"/>
-      <c r="Q30" s="37" t="s">
-        <v>608</v>
-      </c>
-      <c r="R30" s="9"/>
-      <c r="S30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="S30" s="37" t="s">
+        <v>605</v>
+      </c>
       <c r="T30" s="36"/>
       <c r="U30" s="37"/>
     </row>
@@ -4552,24 +4565,22 @@
       <c r="I31" s="13"/>
       <c r="J31" s="37"/>
       <c r="K31" s="36">
-        <v>206</v>
+        <v>877</v>
       </c>
       <c r="L31" s="37">
-        <v>50.179012299999997</v>
+        <v>49.907575000000001</v>
       </c>
       <c r="M31" s="37">
-        <v>98.975620000000006</v>
+        <v>99.433086111111095</v>
       </c>
       <c r="N31" s="38">
-        <v>1632</v>
+        <v>1881</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="P31" s="9"/>
-      <c r="Q31" s="37" t="s">
-        <v>610</v>
-      </c>
+      <c r="Q31" s="37"/>
       <c r="R31" s="9"/>
       <c r="S31" s="37"/>
       <c r="T31" s="36"/>
@@ -4595,23 +4606,23 @@
       <c r="I32" s="13"/>
       <c r="J32" s="37"/>
       <c r="K32" s="36">
-        <v>888</v>
+        <v>222</v>
       </c>
       <c r="L32" s="37">
-        <v>51.5064361111111</v>
+        <v>49.522293099999999</v>
       </c>
       <c r="M32" s="37">
-        <v>100.67145833333301</v>
+        <v>97.735159999999993</v>
       </c>
       <c r="N32" s="38">
-        <v>1730</v>
+        <v>1746</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="P32" s="9"/>
       <c r="Q32" s="37" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="R32" s="9"/>
       <c r="S32" s="37"/>
@@ -4638,23 +4649,23 @@
       <c r="I33" s="13"/>
       <c r="J33" s="37"/>
       <c r="K33" s="36">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L33" s="37">
-        <v>50.120224</v>
+        <v>50.179012299999997</v>
       </c>
       <c r="M33" s="37">
-        <v>101.58306899999999</v>
+        <v>98.975620000000006</v>
       </c>
       <c r="N33" s="38">
-        <v>1151</v>
+        <v>1632</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="P33" s="9"/>
       <c r="Q33" s="37" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="R33" s="9"/>
       <c r="S33" s="37"/>
@@ -4681,116 +4692,116 @@
       <c r="I34" s="13"/>
       <c r="J34" s="37"/>
       <c r="K34" s="36">
-        <v>223</v>
+        <v>888</v>
       </c>
       <c r="L34" s="37">
-        <v>49.121166199999998</v>
+        <v>51.5064361111111</v>
       </c>
       <c r="M34" s="37">
-        <v>101.456085</v>
+        <v>100.67145833333301</v>
       </c>
       <c r="N34" s="38">
-        <v>1384</v>
+        <v>1730</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="P34" s="9"/>
-      <c r="Q34" s="37"/>
+      <c r="Q34" s="37" t="s">
+        <v>601</v>
+      </c>
       <c r="R34" s="9"/>
       <c r="S34" s="37"/>
       <c r="T34" s="36"/>
       <c r="U34" s="37"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A35" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B35" s="22" t="s">
+    <row r="35" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="B35" s="25" t="s">
         <v>388</v>
       </c>
       <c r="C35" s="25">
         <v>34</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="11">
-        <v>774</v>
-      </c>
-      <c r="L35" s="18">
-        <v>50.069886111111103</v>
-      </c>
-      <c r="M35" s="18">
-        <v>105.884363888888</v>
-      </c>
-      <c r="N35" s="33">
-        <v>632</v>
-      </c>
-      <c r="O35" s="20" t="s">
-        <v>349</v>
+      <c r="D35" s="25"/>
+      <c r="E35" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="36">
+        <v>202</v>
+      </c>
+      <c r="L35" s="37">
+        <v>50.120224</v>
+      </c>
+      <c r="M35" s="37">
+        <v>101.58306899999999</v>
+      </c>
+      <c r="N35" s="38">
+        <v>1151</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="P35" s="9"/>
-      <c r="Q35" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="R35" s="10"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="7"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A36" s="7" t="s">
+      <c r="Q35" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="R35" s="9"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="37"/>
+    </row>
+    <row r="36" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="25" t="s">
         <v>388</v>
       </c>
       <c r="C36" s="25">
         <v>35</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="11">
-        <v>827</v>
-      </c>
-      <c r="L36" s="18">
-        <v>50.610586111111097</v>
-      </c>
-      <c r="M36" s="18">
-        <v>92.402124999999998</v>
-      </c>
-      <c r="N36" s="33">
-        <v>859</v>
-      </c>
-      <c r="O36" s="20" t="s">
-        <v>336</v>
+      <c r="D36" s="25"/>
+      <c r="E36" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="36">
+        <v>223</v>
+      </c>
+      <c r="L36" s="37">
+        <v>49.121166199999998</v>
+      </c>
+      <c r="M36" s="37">
+        <v>101.456085</v>
+      </c>
+      <c r="N36" s="38">
+        <v>1384</v>
+      </c>
+      <c r="O36" s="13" t="s">
+        <v>613</v>
       </c>
       <c r="P36" s="9"/>
-      <c r="Q36" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="R36" s="10"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="7"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="37"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>388</v>
@@ -4800,7 +4811,7 @@
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="7" t="s">
-        <v>247</v>
+        <v>348</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -4808,23 +4819,23 @@
       <c r="I37" s="8"/>
       <c r="J37" s="7"/>
       <c r="K37" s="11">
-        <v>201</v>
-      </c>
-      <c r="L37" s="17">
-        <v>49.72889</v>
-      </c>
-      <c r="M37" s="17">
-        <v>93.268609999999995</v>
+        <v>774</v>
+      </c>
+      <c r="L37" s="18">
+        <v>50.069886111111103</v>
+      </c>
+      <c r="M37" s="18">
+        <v>105.884363888888</v>
       </c>
       <c r="N37" s="33">
-        <v>1393</v>
+        <v>632</v>
       </c>
       <c r="O37" s="20" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="P37" s="9"/>
       <c r="Q37" s="7" t="s">
-        <v>512</v>
+        <v>350</v>
       </c>
       <c r="R37" s="10"/>
       <c r="S37" s="7"/>
@@ -4833,7 +4844,7 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="B38" s="22" t="s">
         <v>388</v>
@@ -4843,7 +4854,7 @@
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="7" t="s">
-        <v>358</v>
+        <v>247</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -4851,23 +4862,23 @@
       <c r="I38" s="8"/>
       <c r="J38" s="7"/>
       <c r="K38" s="11">
-        <v>215</v>
+        <v>827</v>
       </c>
       <c r="L38" s="18">
-        <v>49.104990000000001</v>
+        <v>50.610586111111097</v>
       </c>
       <c r="M38" s="18">
-        <v>91.726190000000003</v>
+        <v>92.402124999999998</v>
       </c>
       <c r="N38" s="33">
-        <v>1593</v>
+        <v>859</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="P38" s="9"/>
       <c r="Q38" s="7" t="s">
-        <v>360</v>
+        <v>514</v>
       </c>
       <c r="R38" s="10"/>
       <c r="S38" s="7"/>
@@ -4894,23 +4905,23 @@
       <c r="I39" s="8"/>
       <c r="J39" s="7"/>
       <c r="K39" s="11">
-        <v>834</v>
-      </c>
-      <c r="L39" s="18">
-        <v>50.339719444444398</v>
-      </c>
-      <c r="M39" s="18">
-        <v>91.604813888888799</v>
+        <v>201</v>
+      </c>
+      <c r="L39" s="17">
+        <v>49.72889</v>
+      </c>
+      <c r="M39" s="17">
+        <v>93.268609999999995</v>
       </c>
       <c r="N39" s="33">
-        <v>1142</v>
+        <v>1393</v>
       </c>
       <c r="O39" s="20" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="P39" s="9"/>
       <c r="Q39" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="R39" s="10"/>
       <c r="S39" s="7"/>
@@ -4919,7 +4930,7 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="B40" s="22" t="s">
         <v>388</v>
@@ -4929,7 +4940,7 @@
       </c>
       <c r="D40" s="28"/>
       <c r="E40" s="7" t="s">
-        <v>247</v>
+        <v>358</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -4937,23 +4948,23 @@
       <c r="I40" s="8"/>
       <c r="J40" s="7"/>
       <c r="K40" s="11">
-        <v>836</v>
+        <v>215</v>
       </c>
       <c r="L40" s="18">
-        <v>50.097880555555498</v>
+        <v>49.104990000000001</v>
       </c>
       <c r="M40" s="18">
-        <v>91.676269444444401</v>
+        <v>91.726190000000003</v>
       </c>
       <c r="N40" s="33">
-        <v>1212</v>
+        <v>1593</v>
       </c>
       <c r="O40" s="20" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="P40" s="9"/>
       <c r="Q40" s="7" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="R40" s="10"/>
       <c r="S40" s="7"/>
@@ -4977,37 +4988,29 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="8">
-        <v>44213</v>
-      </c>
-      <c r="J41" s="7">
-        <v>99999</v>
-      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="7"/>
       <c r="K41" s="11">
-        <v>213</v>
-      </c>
-      <c r="L41" s="17">
-        <v>49.658639999999998</v>
-      </c>
-      <c r="M41" s="17">
-        <v>94.404060000000001</v>
+        <v>834</v>
+      </c>
+      <c r="L41" s="18">
+        <v>50.339719444444398</v>
+      </c>
+      <c r="M41" s="18">
+        <v>91.604813888888799</v>
       </c>
       <c r="N41" s="33">
-        <v>1233</v>
+        <v>1142</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="P41" s="9"/>
       <c r="Q41" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="R41" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="S41" s="7" t="s">
-        <v>563</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="R41" s="10"/>
+      <c r="S41" s="7"/>
       <c r="T41" s="11"/>
       <c r="U41" s="7"/>
     </row>
@@ -5031,23 +5034,23 @@
       <c r="I42" s="8"/>
       <c r="J42" s="7"/>
       <c r="K42" s="11">
-        <v>216</v>
-      </c>
-      <c r="L42" s="17">
-        <v>48.821666700000002</v>
-      </c>
-      <c r="M42" s="17">
-        <v>93.103059999999999</v>
+        <v>836</v>
+      </c>
+      <c r="L42" s="18">
+        <v>50.097880555555498</v>
+      </c>
+      <c r="M42" s="18">
+        <v>91.676269444444401</v>
       </c>
       <c r="N42" s="33">
-        <v>1045</v>
+        <v>1212</v>
       </c>
       <c r="O42" s="20" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="P42" s="9"/>
       <c r="Q42" s="7" t="s">
-        <v>352</v>
+        <v>515</v>
       </c>
       <c r="R42" s="10"/>
       <c r="S42" s="7"/>
@@ -5066,34 +5069,42 @@
       </c>
       <c r="D43" s="28"/>
       <c r="E43" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="7"/>
+      <c r="I43" s="8">
+        <v>44213</v>
+      </c>
+      <c r="J43" s="7">
+        <v>99999</v>
+      </c>
       <c r="K43" s="11">
-        <v>677</v>
-      </c>
-      <c r="L43" s="18">
-        <v>49.373166666666599</v>
-      </c>
-      <c r="M43" s="18">
-        <v>96.414816666666596</v>
+        <v>213</v>
+      </c>
+      <c r="L43" s="17">
+        <v>49.658639999999998</v>
+      </c>
+      <c r="M43" s="17">
+        <v>94.404060000000001</v>
       </c>
       <c r="N43" s="33">
-        <v>1858</v>
+        <v>1233</v>
       </c>
       <c r="O43" s="20" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="P43" s="9"/>
       <c r="Q43" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="R43" s="10"/>
-      <c r="S43" s="7"/>
+        <v>512</v>
+      </c>
+      <c r="R43" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>563</v>
+      </c>
       <c r="T43" s="11"/>
       <c r="U43" s="7"/>
     </row>
@@ -5109,7 +5120,7 @@
       </c>
       <c r="D44" s="28"/>
       <c r="E44" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -5117,23 +5128,23 @@
       <c r="I44" s="8"/>
       <c r="J44" s="7"/>
       <c r="K44" s="11">
-        <v>680</v>
-      </c>
-      <c r="L44" s="18">
-        <v>48.721816666666598</v>
-      </c>
-      <c r="M44" s="18">
-        <v>98.794905555555502</v>
+        <v>216</v>
+      </c>
+      <c r="L44" s="17">
+        <v>48.821666700000002</v>
+      </c>
+      <c r="M44" s="17">
+        <v>93.103059999999999</v>
       </c>
       <c r="N44" s="33">
-        <v>1656</v>
+        <v>1045</v>
       </c>
       <c r="O44" s="20" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="P44" s="9"/>
       <c r="Q44" s="7" t="s">
-        <v>271</v>
+        <v>352</v>
       </c>
       <c r="R44" s="10"/>
       <c r="S44" s="7"/>
@@ -5160,23 +5171,23 @@
       <c r="I45" s="8"/>
       <c r="J45" s="7"/>
       <c r="K45" s="11">
-        <v>220</v>
-      </c>
-      <c r="L45" s="17">
-        <v>48.870530000000002</v>
-      </c>
-      <c r="M45" s="17">
-        <v>96.961585999999997</v>
+        <v>677</v>
+      </c>
+      <c r="L45" s="18">
+        <v>49.373166666666599</v>
+      </c>
+      <c r="M45" s="18">
+        <v>96.414816666666596</v>
       </c>
       <c r="N45" s="33">
-        <v>1851</v>
+        <v>1858</v>
       </c>
       <c r="O45" s="20" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P45" s="9"/>
       <c r="Q45" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R45" s="10"/>
       <c r="S45" s="7"/>
@@ -5203,23 +5214,23 @@
       <c r="I46" s="8"/>
       <c r="J46" s="7"/>
       <c r="K46" s="11">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="L46" s="18">
-        <v>48.589822222222203</v>
+        <v>48.721816666666598</v>
       </c>
       <c r="M46" s="18">
-        <v>95.435675000000003</v>
+        <v>98.794905555555502</v>
       </c>
       <c r="N46" s="33">
-        <v>1569</v>
+        <v>1656</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="P46" s="9"/>
       <c r="Q46" s="7" t="s">
-        <v>354</v>
+        <v>271</v>
       </c>
       <c r="R46" s="10"/>
       <c r="S46" s="7"/>
@@ -5246,23 +5257,23 @@
       <c r="I47" s="8"/>
       <c r="J47" s="7"/>
       <c r="K47" s="11">
-        <v>685</v>
-      </c>
-      <c r="L47" s="18">
-        <v>48.982269444444398</v>
-      </c>
-      <c r="M47" s="18">
-        <v>96.544311111111099</v>
+        <v>220</v>
+      </c>
+      <c r="L47" s="17">
+        <v>48.870530000000002</v>
+      </c>
+      <c r="M47" s="17">
+        <v>96.961585999999997</v>
       </c>
       <c r="N47" s="33">
-        <v>1776</v>
+        <v>1851</v>
       </c>
       <c r="O47" s="20" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P47" s="9"/>
       <c r="Q47" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="R47" s="10"/>
       <c r="S47" s="7"/>
@@ -5289,22 +5300,24 @@
       <c r="I48" s="8"/>
       <c r="J48" s="7"/>
       <c r="K48" s="11">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="L48" s="18">
-        <v>48.511452777777698</v>
+        <v>48.589822222222203</v>
       </c>
       <c r="M48" s="18">
-        <v>94.292058333333301</v>
+        <v>95.435675000000003</v>
       </c>
       <c r="N48" s="33">
-        <v>1271</v>
+        <v>1569</v>
       </c>
       <c r="O48" s="20" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P48" s="9"/>
-      <c r="Q48" s="7"/>
+      <c r="Q48" s="7" t="s">
+        <v>354</v>
+      </c>
       <c r="R48" s="10"/>
       <c r="S48" s="7"/>
       <c r="T48" s="11"/>
@@ -5330,23 +5343,23 @@
       <c r="I49" s="8"/>
       <c r="J49" s="7"/>
       <c r="K49" s="11">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="L49" s="18">
-        <v>48.116247222222199</v>
+        <v>48.982269444444398</v>
       </c>
       <c r="M49" s="18">
-        <v>96.767511111111105</v>
+        <v>96.544311111111099</v>
       </c>
       <c r="N49" s="33">
-        <v>2113</v>
+        <v>1776</v>
       </c>
       <c r="O49" s="20" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="P49" s="9"/>
       <c r="Q49" s="7" t="s">
-        <v>268</v>
+        <v>356</v>
       </c>
       <c r="R49" s="10"/>
       <c r="S49" s="7"/>
@@ -5373,24 +5386,22 @@
       <c r="I50" s="8"/>
       <c r="J50" s="7"/>
       <c r="K50" s="11">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="L50" s="18">
-        <v>48.219799999999999</v>
+        <v>48.511452777777698</v>
       </c>
       <c r="M50" s="18">
-        <v>97.376130555555505</v>
+        <v>94.292058333333301</v>
       </c>
       <c r="N50" s="33">
-        <v>1963</v>
+        <v>1271</v>
       </c>
       <c r="O50" s="20" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="P50" s="9"/>
-      <c r="Q50" s="7" t="s">
-        <v>271</v>
-      </c>
+      <c r="Q50" s="7"/>
       <c r="R50" s="10"/>
       <c r="S50" s="7"/>
       <c r="T50" s="11"/>
@@ -5416,116 +5427,116 @@
       <c r="I51" s="8"/>
       <c r="J51" s="7"/>
       <c r="K51" s="11">
-        <v>227</v>
-      </c>
-      <c r="L51" s="17">
-        <v>48.325195299999997</v>
-      </c>
-      <c r="M51" s="17">
-        <v>95.099440000000001</v>
+        <v>693</v>
+      </c>
+      <c r="L51" s="18">
+        <v>48.116247222222199</v>
+      </c>
+      <c r="M51" s="18">
+        <v>96.767511111111105</v>
       </c>
       <c r="N51" s="33">
-        <v>1777</v>
+        <v>2113</v>
       </c>
       <c r="O51" s="20" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P51" s="9"/>
       <c r="Q51" s="7" t="s">
-        <v>354</v>
+        <v>268</v>
       </c>
       <c r="R51" s="10"/>
       <c r="S51" s="7"/>
       <c r="T51" s="11"/>
       <c r="U51" s="7"/>
     </row>
-    <row r="52" spans="1:21" s="39" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A52" s="37" t="s">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A52" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="22" t="s">
         <v>388</v>
       </c>
       <c r="C52" s="25">
         <v>51</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="37" t="s">
-        <v>615</v>
-      </c>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="36">
-        <v>530</v>
-      </c>
-      <c r="L52" s="13">
-        <v>48.268963888888798</v>
-      </c>
-      <c r="M52" s="13">
-        <v>88.896519444444394</v>
-      </c>
-      <c r="N52" s="38">
-        <v>2233</v>
-      </c>
-      <c r="O52" s="13" t="s">
-        <v>618</v>
+      <c r="D52" s="28"/>
+      <c r="E52" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="11">
+        <v>679</v>
+      </c>
+      <c r="L52" s="18">
+        <v>48.219799999999999</v>
+      </c>
+      <c r="M52" s="18">
+        <v>97.376130555555505</v>
+      </c>
+      <c r="N52" s="33">
+        <v>1963</v>
+      </c>
+      <c r="O52" s="20" t="s">
+        <v>343</v>
       </c>
       <c r="P52" s="9"/>
-      <c r="Q52" s="37" t="s">
-        <v>617</v>
-      </c>
-      <c r="R52" s="9"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="36"/>
-      <c r="U52" s="37"/>
-    </row>
-    <row r="53" spans="1:21" s="39" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A53" s="37" t="s">
+      <c r="Q52" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="R52" s="10"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="7"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A53" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="22" t="s">
         <v>388</v>
       </c>
       <c r="C53" s="25">
         <v>52</v>
       </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="37" t="s">
-        <v>614</v>
-      </c>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="36">
-        <v>217</v>
-      </c>
-      <c r="L53" s="13">
-        <v>48.299144699999999</v>
-      </c>
-      <c r="M53" s="13">
-        <v>89.515169999999998</v>
-      </c>
-      <c r="N53" s="38">
-        <v>2147</v>
-      </c>
-      <c r="O53" s="13" t="s">
-        <v>619</v>
+      <c r="D53" s="28"/>
+      <c r="E53" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="11">
+        <v>227</v>
+      </c>
+      <c r="L53" s="17">
+        <v>48.325195299999997</v>
+      </c>
+      <c r="M53" s="17">
+        <v>95.099440000000001</v>
+      </c>
+      <c r="N53" s="33">
+        <v>1777</v>
+      </c>
+      <c r="O53" s="20" t="s">
+        <v>332</v>
       </c>
       <c r="P53" s="9"/>
-      <c r="Q53" s="37" t="s">
-        <v>616</v>
-      </c>
-      <c r="R53" s="9"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="36"/>
-      <c r="U53" s="37"/>
-    </row>
-    <row r="54" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Q53" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="R53" s="10"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="7"/>
+    </row>
+    <row r="54" spans="1:21" s="39" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A54" s="37" t="s">
         <v>260</v>
       </c>
@@ -5537,7 +5548,7 @@
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="37" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
@@ -5545,30 +5556,30 @@
       <c r="I54" s="13"/>
       <c r="J54" s="37"/>
       <c r="K54" s="36">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="L54" s="13">
-        <v>48.045241666666598</v>
+        <v>48.268963888888798</v>
       </c>
       <c r="M54" s="13">
-        <v>100.511238888888</v>
+        <v>88.896519444444394</v>
       </c>
       <c r="N54" s="38">
-        <v>1933</v>
+        <v>2233</v>
       </c>
       <c r="O54" s="13" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="P54" s="9"/>
       <c r="Q54" s="37" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="R54" s="9"/>
       <c r="S54" s="37"/>
       <c r="T54" s="36"/>
       <c r="U54" s="37"/>
     </row>
-    <row r="55" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:21" s="39" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A55" s="37" t="s">
         <v>260</v>
       </c>
@@ -5580,7 +5591,7 @@
       </c>
       <c r="D55" s="25"/>
       <c r="E55" s="37" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
@@ -5588,23 +5599,23 @@
       <c r="I55" s="13"/>
       <c r="J55" s="37"/>
       <c r="K55" s="36">
-        <v>510</v>
+        <v>217</v>
       </c>
       <c r="L55" s="13">
-        <v>47.850722222222203</v>
+        <v>48.299144699999999</v>
       </c>
       <c r="M55" s="13">
-        <v>99.427783333333295</v>
+        <v>89.515169999999998</v>
       </c>
       <c r="N55" s="38">
-        <v>2140</v>
+        <v>2147</v>
       </c>
       <c r="O55" s="13" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="P55" s="9"/>
       <c r="Q55" s="37" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="R55" s="9"/>
       <c r="S55" s="37"/>
@@ -5623,7 +5634,7 @@
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="37" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
@@ -5631,23 +5642,23 @@
       <c r="I56" s="13"/>
       <c r="J56" s="37"/>
       <c r="K56" s="36">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L56" s="13">
-        <v>48.103025000000002</v>
+        <v>48.045241666666598</v>
       </c>
       <c r="M56" s="13">
-        <v>102.560619444444</v>
+        <v>100.511238888888</v>
       </c>
       <c r="N56" s="38">
-        <v>1300</v>
+        <v>1933</v>
       </c>
       <c r="O56" s="13" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="P56" s="9"/>
       <c r="Q56" s="37" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="R56" s="9"/>
       <c r="S56" s="37"/>
@@ -5674,132 +5685,116 @@
       <c r="I57" s="13"/>
       <c r="J57" s="37"/>
       <c r="K57" s="36">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="L57" s="13">
-        <v>47.535888888888799</v>
+        <v>47.850722222222203</v>
       </c>
       <c r="M57" s="13">
-        <v>100.22476111111099</v>
+        <v>99.427783333333295</v>
       </c>
       <c r="N57" s="38">
-        <v>2036</v>
+        <v>2140</v>
       </c>
       <c r="O57" s="13" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="P57" s="9"/>
       <c r="Q57" s="37" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="R57" s="9"/>
       <c r="S57" s="37"/>
       <c r="T57" s="36"/>
       <c r="U57" s="37"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A58" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>460</v>
+    <row r="58" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>388</v>
       </c>
       <c r="C58" s="25">
         <v>57</v>
       </c>
-      <c r="D58" s="28">
-        <v>0</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="8">
-        <v>31702</v>
-      </c>
-      <c r="J58" s="7">
-        <v>99999</v>
-      </c>
-      <c r="K58" s="11"/>
-      <c r="L58" s="18">
-        <v>49</v>
-      </c>
-      <c r="M58" s="18">
-        <v>131.08333329999999</v>
-      </c>
-      <c r="N58" s="33">
-        <v>257</v>
-      </c>
-      <c r="O58" s="20" t="s">
-        <v>236</v>
+      <c r="D58" s="25"/>
+      <c r="E58" s="37" t="s">
+        <v>623</v>
+      </c>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="36">
+        <v>506</v>
+      </c>
+      <c r="L58" s="13">
+        <v>48.103025000000002</v>
+      </c>
+      <c r="M58" s="13">
+        <v>102.560619444444</v>
+      </c>
+      <c r="N58" s="38">
+        <v>1300</v>
+      </c>
+      <c r="O58" s="13" t="s">
+        <v>626</v>
       </c>
       <c r="P58" s="9"/>
-      <c r="Q58" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="R58" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="S58" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="T58" s="11"/>
-      <c r="U58" s="7"/>
-    </row>
-    <row r="59" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A59" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>460</v>
+      <c r="Q58" s="37" t="s">
+        <v>627</v>
+      </c>
+      <c r="R58" s="9"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="36"/>
+      <c r="U58" s="37"/>
+    </row>
+    <row r="59" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>388</v>
       </c>
       <c r="C59" s="25">
         <v>58</v>
       </c>
-      <c r="D59" s="28">
-        <v>0</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="8">
-        <v>31532</v>
-      </c>
-      <c r="J59" s="7">
-        <v>99999</v>
-      </c>
-      <c r="K59" s="11"/>
-      <c r="L59" s="18">
-        <v>50.866666600000002</v>
-      </c>
-      <c r="M59" s="18">
-        <v>132.25</v>
-      </c>
-      <c r="N59" s="33">
-        <v>272</v>
-      </c>
-      <c r="O59" s="20" t="s">
-        <v>235</v>
+      <c r="D59" s="25"/>
+      <c r="E59" s="37" t="s">
+        <v>623</v>
+      </c>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="36">
+        <v>515</v>
+      </c>
+      <c r="L59" s="13">
+        <v>47.535888888888799</v>
+      </c>
+      <c r="M59" s="13">
+        <v>100.22476111111099</v>
+      </c>
+      <c r="N59" s="38">
+        <v>2036</v>
+      </c>
+      <c r="O59" s="13" t="s">
+        <v>630</v>
       </c>
       <c r="P59" s="9"/>
-      <c r="Q59" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="R59" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="S59" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="T59" s="11"/>
-      <c r="U59" s="7"/>
-    </row>
-    <row r="60" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="Q59" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="R59" s="9"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="36"/>
+      <c r="U59" s="37"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A60" s="7" t="s">
         <v>261</v>
       </c>
@@ -5813,46 +5808,44 @@
         <v>0</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="8">
-        <v>31478</v>
+        <v>31702</v>
       </c>
       <c r="J60" s="7">
         <v>99999</v>
       </c>
       <c r="K60" s="11"/>
       <c r="L60" s="18">
-        <v>52.266666600000001</v>
+        <v>49</v>
       </c>
       <c r="M60" s="18">
-        <v>133.9833333</v>
+        <v>131.08333329999999</v>
       </c>
       <c r="N60" s="33">
-        <v>902</v>
+        <v>257</v>
       </c>
       <c r="O60" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="P60" s="9" t="s">
-        <v>386</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="P60" s="9"/>
       <c r="Q60" s="7" t="s">
-        <v>521</v>
+        <v>318</v>
       </c>
       <c r="R60" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="S60" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T60" s="11"/>
       <c r="U60" s="7"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A61" s="7" t="s">
         <v>261</v>
       </c>
@@ -5866,39 +5859,39 @@
         <v>0</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
       <c r="I61" s="8">
-        <v>31329</v>
+        <v>31532</v>
       </c>
       <c r="J61" s="7">
         <v>99999</v>
       </c>
       <c r="K61" s="11"/>
       <c r="L61" s="18">
-        <v>53.066666699999999</v>
+        <v>50.866666600000002</v>
       </c>
       <c r="M61" s="18">
-        <v>132.93333329999999</v>
+        <v>132.25</v>
       </c>
       <c r="N61" s="33">
-        <v>543</v>
+        <v>272</v>
       </c>
       <c r="O61" s="20" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P61" s="9"/>
       <c r="Q61" s="7" t="s">
-        <v>516</v>
+        <v>319</v>
       </c>
       <c r="R61" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S61" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="T61" s="11"/>
       <c r="U61" s="7"/>
@@ -5923,25 +5916,27 @@
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="8">
-        <v>31348</v>
+        <v>31478</v>
       </c>
       <c r="J62" s="7">
         <v>99999</v>
       </c>
       <c r="K62" s="11"/>
       <c r="L62" s="18">
-        <v>53.05</v>
+        <v>52.266666600000001</v>
       </c>
       <c r="M62" s="18">
-        <v>136.03333330000001</v>
+        <v>133.9833333</v>
       </c>
       <c r="N62" s="33">
-        <v>153</v>
+        <v>902</v>
       </c>
       <c r="O62" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="P62" s="9"/>
+        <v>234</v>
+      </c>
+      <c r="P62" s="9" t="s">
+        <v>386</v>
+      </c>
       <c r="Q62" s="7" t="s">
         <v>521</v>
       </c>
@@ -5949,12 +5944,12 @@
         <v>383</v>
       </c>
       <c r="S62" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="T62" s="11"/>
       <c r="U62" s="7"/>
     </row>
-    <row r="63" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A63" s="7" t="s">
         <v>261</v>
       </c>
@@ -5968,39 +5963,39 @@
         <v>0</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="8">
-        <v>30673</v>
+        <v>31329</v>
       </c>
       <c r="J63" s="7">
         <v>99999</v>
       </c>
       <c r="K63" s="11"/>
       <c r="L63" s="18">
-        <v>53.75</v>
+        <v>53.066666699999999</v>
       </c>
       <c r="M63" s="18">
-        <v>119.7333333</v>
+        <v>132.93333329999999</v>
       </c>
       <c r="N63" s="33">
-        <v>625</v>
+        <v>543</v>
       </c>
       <c r="O63" s="20" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P63" s="9"/>
       <c r="Q63" s="7" t="s">
-        <v>320</v>
+        <v>516</v>
       </c>
       <c r="R63" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S63" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="T63" s="11"/>
       <c r="U63" s="7"/>
@@ -6010,7 +6005,7 @@
         <v>261</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>570</v>
+        <v>460</v>
       </c>
       <c r="C64" s="25">
         <v>63</v>
@@ -6019,52 +6014,46 @@
         <v>0</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="8">
-        <v>30565</v>
+        <v>31348</v>
       </c>
       <c r="J64" s="7">
         <v>99999</v>
       </c>
       <c r="K64" s="11"/>
       <c r="L64" s="18">
-        <v>54.45</v>
+        <v>53.05</v>
       </c>
       <c r="M64" s="18">
-        <v>116.517</v>
+        <v>136.03333330000001</v>
       </c>
       <c r="N64" s="33">
-        <v>686</v>
+        <v>153</v>
       </c>
       <c r="O64" s="20" t="s">
-        <v>571</v>
-      </c>
-      <c r="P64" s="9" t="s">
-        <v>386</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="P64" s="9"/>
       <c r="Q64" s="7" t="s">
-        <v>323</v>
+        <v>521</v>
       </c>
       <c r="R64" s="10" t="s">
-        <v>572</v>
+        <v>383</v>
       </c>
       <c r="S64" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="T64" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="U64" s="7" t="s">
-        <v>575</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="T64" s="11"/>
+      <c r="U64" s="7"/>
     </row>
     <row r="65" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A65" s="7" t="s">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>460</v>
@@ -6076,41 +6065,39 @@
         <v>0</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="8">
-        <v>30664</v>
+        <v>30673</v>
       </c>
       <c r="J65" s="7">
         <v>99999</v>
       </c>
       <c r="K65" s="11"/>
       <c r="L65" s="18">
-        <v>53.533333300000002</v>
+        <v>53.75</v>
       </c>
       <c r="M65" s="18">
-        <v>115.6166666</v>
+        <v>119.7333333</v>
       </c>
       <c r="N65" s="33">
-        <v>811</v>
+        <v>625</v>
       </c>
       <c r="O65" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="P65" s="9" t="s">
-        <v>387</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="P65" s="9"/>
       <c r="Q65" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="R65" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S65" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="T65" s="11"/>
       <c r="U65" s="7"/>
@@ -6120,7 +6107,7 @@
         <v>261</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>460</v>
+        <v>570</v>
       </c>
       <c r="C66" s="25">
         <v>65</v>
@@ -6129,46 +6116,52 @@
         <v>0</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="8">
-        <v>30636</v>
+        <v>30565</v>
       </c>
       <c r="J66" s="7">
         <v>99999</v>
       </c>
       <c r="K66" s="11"/>
       <c r="L66" s="18">
-        <v>53.616666600000002</v>
+        <v>54.45</v>
       </c>
       <c r="M66" s="18">
-        <v>109.6333333</v>
+        <v>116.517</v>
       </c>
       <c r="N66" s="33">
-        <v>489</v>
+        <v>686</v>
       </c>
       <c r="O66" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="P66" s="9"/>
+        <v>571</v>
+      </c>
+      <c r="P66" s="9" t="s">
+        <v>386</v>
+      </c>
       <c r="Q66" s="7" t="s">
-        <v>520</v>
+        <v>323</v>
       </c>
       <c r="R66" s="10" t="s">
-        <v>383</v>
+        <v>572</v>
       </c>
       <c r="S66" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="T66" s="11"/>
-      <c r="U66" s="7"/>
+        <v>573</v>
+      </c>
+      <c r="T66" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="U66" s="7" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="67" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
-        <v>261</v>
+        <v>41</v>
       </c>
       <c r="B67" s="22" t="s">
         <v>460</v>
@@ -6180,48 +6173,48 @@
         <v>0</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="8">
-        <v>30622</v>
+        <v>30664</v>
       </c>
       <c r="J67" s="7">
         <v>99999</v>
       </c>
       <c r="K67" s="11"/>
       <c r="L67" s="18">
-        <v>53.966666600000003</v>
+        <v>53.533333300000002</v>
       </c>
       <c r="M67" s="18">
-        <v>105.9</v>
+        <v>115.6166666</v>
       </c>
       <c r="N67" s="33">
-        <v>533</v>
+        <v>811</v>
       </c>
       <c r="O67" s="20" t="s">
-        <v>228</v>
+        <v>43</v>
       </c>
       <c r="P67" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>519</v>
+        <v>323</v>
       </c>
       <c r="R67" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S67" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="T67" s="11"/>
       <c r="U67" s="7"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="B68" s="22" t="s">
         <v>460</v>
@@ -6233,44 +6226,44 @@
         <v>0</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>151</v>
+        <v>252</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="8">
-        <v>36104</v>
+        <v>30636</v>
       </c>
       <c r="J68" s="7">
         <v>99999</v>
       </c>
       <c r="K68" s="11"/>
       <c r="L68" s="18">
-        <v>51.483333299999998</v>
+        <v>53.616666600000002</v>
       </c>
       <c r="M68" s="18">
-        <v>95.583333300000007</v>
+        <v>109.6333333</v>
       </c>
       <c r="N68" s="33">
-        <v>705.8</v>
+        <v>489</v>
       </c>
       <c r="O68" s="20" t="s">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="P68" s="9"/>
       <c r="Q68" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="R68" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S68" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="T68" s="11"/>
       <c r="U68" s="7"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A69" s="7" t="s">
         <v>261</v>
       </c>
@@ -6284,48 +6277,48 @@
         <v>0</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="8">
-        <v>36096</v>
+        <v>30622</v>
       </c>
       <c r="J69" s="7">
         <v>99999</v>
       </c>
       <c r="K69" s="11"/>
       <c r="L69" s="18">
-        <v>51.716666600000003</v>
+        <v>53.966666600000003</v>
       </c>
       <c r="M69" s="18">
-        <v>94.5</v>
+        <v>105.9</v>
       </c>
       <c r="N69" s="33">
-        <v>628</v>
+        <v>533</v>
       </c>
       <c r="O69" s="20" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="P69" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="R69" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S69" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="T69" s="11"/>
       <c r="U69" s="7"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A70" s="7" t="s">
-        <v>261</v>
+        <v>41</v>
       </c>
       <c r="B70" s="22" t="s">
         <v>460</v>
@@ -6337,44 +6330,44 @@
         <v>0</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>257</v>
+        <v>151</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="8">
-        <v>36307</v>
+        <v>36104</v>
       </c>
       <c r="J70" s="7">
         <v>99999</v>
       </c>
       <c r="K70" s="11"/>
       <c r="L70" s="18">
-        <v>50.25</v>
+        <v>51.483333299999998</v>
       </c>
       <c r="M70" s="18">
-        <v>95.166666599999999</v>
+        <v>95.583333300000007</v>
       </c>
       <c r="N70" s="33">
-        <v>1100</v>
+        <v>705.8</v>
       </c>
       <c r="O70" s="20" t="s">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="P70" s="9"/>
       <c r="Q70" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="R70" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S70" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="T70" s="11"/>
       <c r="U70" s="7"/>
     </row>
-    <row r="71" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A71" s="7" t="s">
         <v>261</v>
       </c>
@@ -6388,47 +6381,47 @@
         <v>0</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
       <c r="I71" s="8">
-        <v>36259</v>
+        <v>36096</v>
       </c>
       <c r="J71" s="7">
         <v>99999</v>
       </c>
       <c r="K71" s="11"/>
       <c r="L71" s="18">
-        <v>50.016666600000001</v>
+        <v>51.716666600000003</v>
       </c>
       <c r="M71" s="18">
-        <v>88.683333300000001</v>
+        <v>94.5</v>
       </c>
       <c r="N71" s="33">
-        <v>1759</v>
+        <v>628</v>
       </c>
       <c r="O71" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P71" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>321</v>
+        <v>518</v>
       </c>
       <c r="R71" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S71" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="T71" s="11"/>
       <c r="U71" s="7"/>
     </row>
-    <row r="72" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A72" s="14" t="s">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A72" s="7" t="s">
         <v>261</v>
       </c>
       <c r="B72" s="22" t="s">
@@ -6437,51 +6430,53 @@
       <c r="C72" s="25">
         <v>71</v>
       </c>
-      <c r="D72" s="28"/>
-      <c r="E72" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
+      <c r="D72" s="28">
+        <v>0</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
       <c r="I72" s="8">
-        <v>30781</v>
-      </c>
-      <c r="J72" s="14">
+        <v>36307</v>
+      </c>
+      <c r="J72" s="7">
         <v>99999</v>
       </c>
-      <c r="K72" s="15"/>
+      <c r="K72" s="11"/>
       <c r="L72" s="18">
-        <v>52.75</v>
+        <v>50.25</v>
       </c>
       <c r="M72" s="18">
-        <v>120.0333333</v>
+        <v>95.166666599999999</v>
       </c>
       <c r="N72" s="33">
-        <v>370</v>
+        <v>1100</v>
       </c>
       <c r="O72" s="20" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="P72" s="9"/>
-      <c r="Q72" s="14" t="s">
-        <v>374</v>
+      <c r="Q72" s="7" t="s">
+        <v>511</v>
       </c>
       <c r="R72" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="S72" s="14" t="s">
-        <v>456</v>
+        <v>383</v>
+      </c>
+      <c r="S72" s="7" t="s">
+        <v>452</v>
       </c>
       <c r="T72" s="11"/>
       <c r="U72" s="7"/>
     </row>
     <row r="73" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A73" s="7" t="s">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C73" s="25">
         <v>72</v>
@@ -6490,98 +6485,100 @@
         <v>0</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
       <c r="I73" s="8">
-        <v>36535</v>
+        <v>36259</v>
       </c>
       <c r="J73" s="7">
         <v>99999</v>
       </c>
       <c r="K73" s="11"/>
       <c r="L73" s="18">
-        <v>48.75</v>
+        <v>50.016666600000001</v>
       </c>
       <c r="M73" s="18">
-        <v>82.366666600000002</v>
+        <v>88.683333300000001</v>
       </c>
       <c r="N73" s="33">
-        <v>512</v>
-      </c>
-      <c r="O73" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="7"/>
+        <v>1759</v>
+      </c>
+      <c r="O73" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="P73" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q73" s="7" t="s">
+        <v>321</v>
+      </c>
       <c r="R73" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S73" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="T73" s="11"/>
       <c r="U73" s="7"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A74" s="7" t="s">
-        <v>370</v>
+    <row r="74" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A74" s="14" t="s">
+        <v>261</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C74" s="25">
         <v>73</v>
       </c>
-      <c r="D74" s="28">
-        <v>0</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
       <c r="I74" s="8">
-        <v>47005</v>
-      </c>
-      <c r="J74" s="7">
+        <v>30781</v>
+      </c>
+      <c r="J74" s="14">
         <v>99999</v>
       </c>
-      <c r="K74" s="11"/>
+      <c r="K74" s="15"/>
       <c r="L74" s="18">
-        <v>41.816666599999998</v>
+        <v>52.75</v>
       </c>
       <c r="M74" s="18">
-        <v>128.30000000000001</v>
+        <v>120.0333333</v>
       </c>
       <c r="N74" s="33">
-        <v>1381</v>
+        <v>370</v>
       </c>
       <c r="O74" s="20" t="s">
-        <v>371</v>
+        <v>231</v>
       </c>
       <c r="P74" s="9"/>
-      <c r="Q74" s="7" t="s">
-        <v>372</v>
+      <c r="Q74" s="14" t="s">
+        <v>374</v>
       </c>
       <c r="R74" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="S74" s="7" t="s">
-        <v>459</v>
+      <c r="S74" s="14" t="s">
+        <v>456</v>
       </c>
       <c r="T74" s="11"/>
       <c r="U74" s="7"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A75" s="7" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C75" s="25">
         <v>74</v>
@@ -6590,53 +6587,47 @@
         <v>0</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>209</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
       <c r="H75" s="7"/>
       <c r="I75" s="8">
-        <v>54342</v>
+        <v>36535</v>
       </c>
       <c r="J75" s="7">
         <v>99999</v>
       </c>
       <c r="K75" s="11"/>
-      <c r="L75" s="17">
-        <v>41.732500000000002</v>
-      </c>
-      <c r="M75" s="17">
-        <v>123.51</v>
-      </c>
-      <c r="N75" s="34">
-        <v>51</v>
-      </c>
-      <c r="O75" s="20" t="s">
-        <v>210</v>
+      <c r="L75" s="18">
+        <v>48.75</v>
+      </c>
+      <c r="M75" s="18">
+        <v>82.366666600000002</v>
+      </c>
+      <c r="N75" s="33">
+        <v>512</v>
+      </c>
+      <c r="O75" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="P75" s="9"/>
-      <c r="Q75" s="7" t="s">
-        <v>276</v>
-      </c>
+      <c r="Q75" s="7"/>
       <c r="R75" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S75" s="7" t="s">
-        <v>398</v>
+        <v>458</v>
       </c>
       <c r="T75" s="11"/>
       <c r="U75" s="7"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A76" s="7" t="s">
-        <v>3</v>
+        <v>370</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C76" s="25">
         <v>75</v>
@@ -6645,42 +6636,40 @@
         <v>0</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>85</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="8">
-        <v>54252</v>
+        <v>47005</v>
       </c>
       <c r="J76" s="7">
         <v>99999</v>
       </c>
       <c r="K76" s="11"/>
-      <c r="L76" s="17">
-        <v>42.740299999999998</v>
-      </c>
-      <c r="M76" s="17">
-        <v>124.7406</v>
-      </c>
-      <c r="N76" s="34">
-        <v>196.1</v>
+      <c r="L76" s="18">
+        <v>41.816666599999998</v>
+      </c>
+      <c r="M76" s="18">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="N76" s="33">
+        <v>1381</v>
       </c>
       <c r="O76" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="P76" s="9" t="s">
-        <v>386</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="P76" s="9"/>
       <c r="Q76" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="R76" s="10"/>
-      <c r="S76" s="7"/>
+        <v>372</v>
+      </c>
+      <c r="R76" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="S76" s="7" t="s">
+        <v>459</v>
+      </c>
       <c r="T76" s="11"/>
       <c r="U76" s="7"/>
     </row>
@@ -6698,43 +6687,43 @@
         <v>0</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="8">
-        <v>54161</v>
+        <v>54342</v>
       </c>
       <c r="J77" s="7">
         <v>99999</v>
       </c>
       <c r="K77" s="11"/>
       <c r="L77" s="17">
-        <v>43.891399999999997</v>
+        <v>41.732500000000002</v>
       </c>
       <c r="M77" s="17">
-        <v>125.2317</v>
+        <v>123.51</v>
       </c>
       <c r="N77" s="34">
-        <v>236.8</v>
+        <v>51</v>
       </c>
       <c r="O77" s="20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P77" s="9"/>
       <c r="Q77" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R77" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S77" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="T77" s="11"/>
       <c r="U77" s="7"/>
@@ -6753,46 +6742,42 @@
         <v>0</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="8">
-        <v>54273</v>
+        <v>54252</v>
       </c>
       <c r="J78" s="7">
         <v>99999</v>
       </c>
       <c r="K78" s="11"/>
       <c r="L78" s="17">
-        <v>42.978299999999997</v>
+        <v>42.740299999999998</v>
       </c>
       <c r="M78" s="17">
-        <v>126.7597</v>
+        <v>124.7406</v>
       </c>
       <c r="N78" s="34">
-        <v>263.3</v>
+        <v>196.1</v>
       </c>
       <c r="O78" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P78" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="R78" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="S78" s="7" t="s">
-        <v>400</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="R78" s="10"/>
+      <c r="S78" s="7"/>
       <c r="T78" s="11"/>
       <c r="U78" s="7"/>
     </row>
@@ -6810,45 +6795,43 @@
         <v>0</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>92</v>
+        <v>196</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>93</v>
+        <v>207</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="8">
-        <v>50953</v>
+        <v>54161</v>
       </c>
       <c r="J79" s="7">
         <v>99999</v>
       </c>
       <c r="K79" s="11"/>
       <c r="L79" s="17">
-        <v>45.934199999999997</v>
+        <v>43.891399999999997</v>
       </c>
       <c r="M79" s="17">
-        <v>126.58110000000001</v>
+        <v>125.2317</v>
       </c>
       <c r="N79" s="34">
-        <v>115</v>
+        <v>236.8</v>
       </c>
       <c r="O79" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P79" s="9" t="s">
-        <v>386</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="P79" s="9"/>
       <c r="Q79" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="R79" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S79" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="T79" s="11"/>
       <c r="U79" s="7"/>
@@ -6867,46 +6850,50 @@
         <v>0</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="8">
-        <v>50673</v>
+        <v>54273</v>
       </c>
       <c r="J80" s="7">
         <v>99999</v>
       </c>
       <c r="K80" s="11"/>
       <c r="L80" s="17">
-        <v>48.887799999999999</v>
+        <v>42.978299999999997</v>
       </c>
       <c r="M80" s="17">
-        <v>130.4117</v>
+        <v>126.7597</v>
       </c>
       <c r="N80" s="34">
-        <v>90</v>
+        <v>263.3</v>
       </c>
       <c r="O80" s="20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P80" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="R80" s="10"/>
-      <c r="S80" s="7"/>
+        <v>272</v>
+      </c>
+      <c r="R80" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="S80" s="7" t="s">
+        <v>400</v>
+      </c>
       <c r="T80" s="11"/>
       <c r="U80" s="7"/>
     </row>
-    <row r="81" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A81" s="7" t="s">
         <v>3</v>
       </c>
@@ -6923,45 +6910,47 @@
         <v>54</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="8">
-        <v>50353</v>
+        <v>50953</v>
       </c>
       <c r="J81" s="7">
         <v>99999</v>
       </c>
       <c r="K81" s="11"/>
       <c r="L81" s="17">
-        <v>51.726100000000002</v>
+        <v>45.934199999999997</v>
       </c>
       <c r="M81" s="17">
-        <v>126.63890000000001</v>
+        <v>126.58110000000001</v>
       </c>
       <c r="N81" s="34">
-        <v>173.9</v>
+        <v>115</v>
       </c>
       <c r="O81" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="P81" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="P81" s="9" t="s">
+        <v>386</v>
+      </c>
       <c r="Q81" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="R81" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S81" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T81" s="11"/>
       <c r="U81" s="7"/>
     </row>
-    <row r="82" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A82" s="7" t="s">
         <v>3</v>
       </c>
@@ -6978,34 +6967,36 @@
         <v>54</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="8">
-        <v>50246</v>
+        <v>50673</v>
       </c>
       <c r="J82" s="7">
         <v>99999</v>
       </c>
       <c r="K82" s="11"/>
       <c r="L82" s="17">
-        <v>52.348100000000002</v>
+        <v>48.887799999999999</v>
       </c>
       <c r="M82" s="17">
-        <v>124.7169</v>
+        <v>130.4117</v>
       </c>
       <c r="N82" s="34">
-        <v>359.4</v>
+        <v>90</v>
       </c>
       <c r="O82" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="P82" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="P82" s="9" t="s">
+        <v>386</v>
+      </c>
       <c r="Q82" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="R82" s="10"/>
       <c r="S82" s="7"/>
@@ -7032,34 +7023,38 @@
         <v>53</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="8">
-        <v>50247</v>
+        <v>50353</v>
       </c>
       <c r="J83" s="7">
         <v>99999</v>
       </c>
       <c r="K83" s="11"/>
       <c r="L83" s="17">
-        <v>52.036099999999998</v>
+        <v>51.726100000000002</v>
       </c>
       <c r="M83" s="17">
-        <v>123.5722</v>
+        <v>126.63890000000001</v>
       </c>
       <c r="N83" s="34">
-        <v>514.5</v>
+        <v>173.9</v>
       </c>
       <c r="O83" s="20" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="P83" s="9"/>
       <c r="Q83" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="R83" s="10"/>
-      <c r="S83" s="7"/>
+        <v>275</v>
+      </c>
+      <c r="R83" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="S83" s="7" t="s">
+        <v>402</v>
+      </c>
       <c r="T83" s="11"/>
       <c r="U83" s="7"/>
     </row>
@@ -7083,40 +7078,34 @@
         <v>53</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="8">
-        <v>50136</v>
+        <v>50246</v>
       </c>
       <c r="J84" s="7">
         <v>99999</v>
       </c>
       <c r="K84" s="11"/>
       <c r="L84" s="17">
-        <v>52.974400000000003</v>
+        <v>52.348100000000002</v>
       </c>
       <c r="M84" s="17">
-        <v>122.51309999999999</v>
+        <v>124.7169</v>
       </c>
       <c r="N84" s="34">
-        <v>433.9</v>
+        <v>359.4</v>
       </c>
       <c r="O84" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="P84" s="9" t="s">
-        <v>386</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P84" s="9"/>
       <c r="Q84" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="R84" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="S84" s="7" t="s">
-        <v>403</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="R84" s="10"/>
+      <c r="S84" s="7"/>
       <c r="T84" s="11"/>
       <c r="U84" s="7"/>
     </row>
@@ -7140,38 +7129,38 @@
         <v>53</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="8">
-        <v>50137</v>
+        <v>50247</v>
       </c>
       <c r="J85" s="7">
         <v>99999</v>
       </c>
       <c r="K85" s="11"/>
       <c r="L85" s="17">
-        <v>53.468899999999998</v>
+        <v>52.036099999999998</v>
       </c>
       <c r="M85" s="17">
-        <v>122.36190000000001</v>
+        <v>123.5722</v>
       </c>
       <c r="N85" s="34">
-        <v>291.60000000000002</v>
+        <v>514.5</v>
       </c>
       <c r="O85" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P85" s="9"/>
       <c r="Q85" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="R85" s="10"/>
       <c r="S85" s="7"/>
       <c r="T85" s="11"/>
       <c r="U85" s="7"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A86" s="7" t="s">
         <v>3</v>
       </c>
@@ -7185,46 +7174,50 @@
         <v>0</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="8">
-        <v>50431</v>
+        <v>50136</v>
       </c>
       <c r="J86" s="7">
         <v>99999</v>
       </c>
       <c r="K86" s="11"/>
       <c r="L86" s="17">
-        <v>50.782800000000002</v>
+        <v>52.974400000000003</v>
       </c>
       <c r="M86" s="17">
-        <v>121.51300000000001</v>
+        <v>122.51309999999999</v>
       </c>
       <c r="N86" s="34">
-        <v>716.7</v>
+        <v>433.9</v>
       </c>
       <c r="O86" s="20" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P86" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="R86" s="10"/>
-      <c r="S86" s="7"/>
+        <v>281</v>
+      </c>
+      <c r="R86" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="S86" s="7" t="s">
+        <v>403</v>
+      </c>
       <c r="T86" s="11"/>
       <c r="U86" s="7"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A87" s="7" t="s">
         <v>3</v>
       </c>
@@ -7238,46 +7231,40 @@
         <v>0</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="8">
-        <v>50434</v>
+        <v>50137</v>
       </c>
       <c r="J87" s="7">
         <v>99999</v>
       </c>
       <c r="K87" s="11"/>
       <c r="L87" s="17">
-        <v>50.478099999999998</v>
+        <v>53.468899999999998</v>
       </c>
       <c r="M87" s="17">
-        <v>121.6867</v>
+        <v>122.36190000000001</v>
       </c>
       <c r="N87" s="34">
-        <v>734.8</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="O87" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="P87" s="9" t="s">
-        <v>386</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="P87" s="9"/>
       <c r="Q87" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="R87" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="S87" s="7" t="s">
-        <v>404</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="R87" s="10"/>
+      <c r="S87" s="7"/>
       <c r="T87" s="11"/>
       <c r="U87" s="7"/>
     </row>
@@ -7301,29 +7288,31 @@
         <v>56</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="8">
-        <v>50425</v>
+        <v>50431</v>
       </c>
       <c r="J88" s="7">
         <v>99999</v>
       </c>
       <c r="K88" s="11"/>
       <c r="L88" s="17">
-        <v>50.236899999999999</v>
+        <v>50.782800000000002</v>
       </c>
       <c r="M88" s="17">
-        <v>120.16719999999999</v>
+        <v>121.51300000000001</v>
       </c>
       <c r="N88" s="34">
-        <v>581.4</v>
+        <v>716.7</v>
       </c>
       <c r="O88" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="P88" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="P88" s="9" t="s">
+        <v>386</v>
+      </c>
       <c r="Q88" s="7" t="s">
         <v>282</v>
       </c>
@@ -7342,7 +7331,9 @@
       <c r="C89" s="25">
         <v>88</v>
       </c>
-      <c r="D89" s="28"/>
+      <c r="D89" s="28">
+        <v>0</v>
+      </c>
       <c r="E89" s="7" t="s">
         <v>55</v>
       </c>
@@ -7350,34 +7341,40 @@
         <v>56</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="8">
-        <v>50524</v>
+        <v>50434</v>
       </c>
       <c r="J89" s="7">
         <v>99999</v>
       </c>
       <c r="K89" s="11"/>
       <c r="L89" s="17">
-        <v>49.3414</v>
+        <v>50.478099999999998</v>
       </c>
       <c r="M89" s="17">
-        <v>119.4569</v>
+        <v>121.6867</v>
       </c>
       <c r="N89" s="34">
-        <v>597.4</v>
+        <v>734.8</v>
       </c>
       <c r="O89" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="P89" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="P89" s="9" t="s">
+        <v>386</v>
+      </c>
       <c r="Q89" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="R89" s="10"/>
-      <c r="S89" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="R89" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="S89" s="7" t="s">
+        <v>404</v>
+      </c>
       <c r="T89" s="11"/>
       <c r="U89" s="7"/>
     </row>
@@ -7401,42 +7398,38 @@
         <v>56</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="8">
-        <v>50527</v>
+        <v>50425</v>
       </c>
       <c r="J90" s="7">
         <v>99999</v>
       </c>
       <c r="K90" s="11"/>
       <c r="L90" s="17">
-        <v>49.25</v>
+        <v>50.236899999999999</v>
       </c>
       <c r="M90" s="17">
-        <v>119.7003</v>
+        <v>120.16719999999999</v>
       </c>
       <c r="N90" s="34">
-        <v>649.70000000000005</v>
+        <v>581.4</v>
       </c>
       <c r="O90" s="20" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="P90" s="9"/>
       <c r="Q90" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="R90" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="S90" s="7" t="s">
-        <v>405</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="R90" s="10"/>
+      <c r="S90" s="7"/>
       <c r="T90" s="11"/>
       <c r="U90" s="7"/>
     </row>
-    <row r="91" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A91" s="7" t="s">
         <v>3</v>
       </c>
@@ -7454,31 +7447,31 @@
         <v>56</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="8">
-        <v>50525</v>
+        <v>50524</v>
       </c>
       <c r="J91" s="7">
         <v>99999</v>
       </c>
       <c r="K91" s="11"/>
       <c r="L91" s="17">
-        <v>49.132800000000003</v>
+        <v>49.3414</v>
       </c>
       <c r="M91" s="17">
-        <v>119.7419</v>
+        <v>119.4569</v>
       </c>
       <c r="N91" s="34">
-        <v>617.29999999999995</v>
+        <v>597.4</v>
       </c>
       <c r="O91" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P91" s="9"/>
       <c r="Q91" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R91" s="10"/>
       <c r="S91" s="7"/>
@@ -7505,38 +7498,42 @@
         <v>56</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="8">
-        <v>50526</v>
+        <v>50527</v>
       </c>
       <c r="J92" s="7">
         <v>99999</v>
       </c>
       <c r="K92" s="11"/>
       <c r="L92" s="17">
-        <v>49.283099999999997</v>
+        <v>49.25</v>
       </c>
       <c r="M92" s="17">
-        <v>120.6878</v>
+        <v>119.7003</v>
       </c>
       <c r="N92" s="34">
-        <v>654.9</v>
+        <v>649.70000000000005</v>
       </c>
       <c r="O92" s="20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="P92" s="9"/>
       <c r="Q92" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="R92" s="10"/>
-      <c r="S92" s="7"/>
+        <v>284</v>
+      </c>
+      <c r="R92" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="S92" s="7" t="s">
+        <v>405</v>
+      </c>
       <c r="T92" s="11"/>
       <c r="U92" s="7"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A93" s="7" t="s">
         <v>3</v>
       </c>
@@ -7546,48 +7543,42 @@
       <c r="C93" s="25">
         <v>92</v>
       </c>
-      <c r="D93" s="28">
-        <v>0</v>
-      </c>
+      <c r="D93" s="28"/>
       <c r="E93" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="8">
-        <v>50727</v>
+        <v>50525</v>
       </c>
       <c r="J93" s="7">
         <v>99999</v>
       </c>
       <c r="K93" s="11"/>
       <c r="L93" s="17">
-        <v>47.180799999999998</v>
+        <v>49.132800000000003</v>
       </c>
       <c r="M93" s="17">
-        <v>119.9344</v>
+        <v>119.7419</v>
       </c>
       <c r="N93" s="34">
-        <v>997</v>
+        <v>617.29999999999995</v>
       </c>
       <c r="O93" s="20" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="P93" s="9"/>
       <c r="Q93" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="R93" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="S93" s="7" t="s">
-        <v>406</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="R93" s="10"/>
+      <c r="S93" s="7"/>
       <c r="T93" s="11"/>
       <c r="U93" s="7"/>
     </row>
@@ -7605,38 +7596,38 @@
         <v>0</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="8">
-        <v>53392</v>
+        <v>50526</v>
       </c>
       <c r="J94" s="7">
         <v>99999</v>
       </c>
       <c r="K94" s="11"/>
       <c r="L94" s="17">
-        <v>41.86</v>
+        <v>49.283099999999997</v>
       </c>
       <c r="M94" s="17">
-        <v>114.5603</v>
+        <v>120.6878</v>
       </c>
       <c r="N94" s="34">
-        <v>1434.5</v>
+        <v>654.9</v>
       </c>
       <c r="O94" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="P94" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q94" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="7" t="s">
+        <v>285</v>
+      </c>
       <c r="R94" s="10"/>
       <c r="S94" s="7"/>
       <c r="T94" s="11"/>
@@ -7656,46 +7647,48 @@
         <v>0</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="8">
-        <v>55294</v>
+        <v>50727</v>
       </c>
       <c r="J95" s="7">
         <v>99999</v>
       </c>
       <c r="K95" s="11"/>
       <c r="L95" s="17">
-        <v>32.269399999999997</v>
+        <v>47.180799999999998</v>
       </c>
       <c r="M95" s="17">
-        <v>91.679400000000001</v>
+        <v>119.9344</v>
       </c>
       <c r="N95" s="34">
-        <v>4686</v>
+        <v>997</v>
       </c>
       <c r="O95" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="P95" s="9" t="s">
-        <v>386</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="P95" s="9"/>
       <c r="Q95" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="R95" s="10"/>
-      <c r="S95" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="R95" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="S95" s="7" t="s">
+        <v>406</v>
+      </c>
       <c r="T95" s="11"/>
       <c r="U95" s="7"/>
     </row>
-    <row r="96" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A96" s="7" t="s">
         <v>3</v>
       </c>
@@ -7709,46 +7702,44 @@
         <v>0</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="8">
-        <v>56034</v>
+        <v>53392</v>
       </c>
       <c r="J96" s="7">
         <v>99999</v>
       </c>
       <c r="K96" s="11"/>
       <c r="L96" s="17">
-        <v>33.805300000000003</v>
+        <v>41.86</v>
       </c>
       <c r="M96" s="17">
-        <v>97.137799999999999</v>
+        <v>114.5603</v>
       </c>
       <c r="N96" s="34">
-        <v>4415.6000000000004</v>
+        <v>1434.5</v>
       </c>
       <c r="O96" s="20" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P96" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="Q96" s="7" t="s">
-        <v>286</v>
-      </c>
+      <c r="Q96" s="7"/>
       <c r="R96" s="10"/>
       <c r="S96" s="7"/>
       <c r="T96" s="11"/>
       <c r="U96" s="7"/>
     </row>
-    <row r="97" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A97" s="7" t="s">
         <v>3</v>
       </c>
@@ -7762,33 +7753,33 @@
         <v>0</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>510</v>
+        <v>77</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="8">
-        <v>52908</v>
+        <v>55294</v>
       </c>
       <c r="J97" s="7">
         <v>99999</v>
       </c>
       <c r="K97" s="11"/>
       <c r="L97" s="17">
-        <v>35.215800000000002</v>
+        <v>32.269399999999997</v>
       </c>
       <c r="M97" s="17">
-        <v>93.080799999999996</v>
+        <v>91.679400000000001</v>
       </c>
       <c r="N97" s="34">
-        <v>4612</v>
+        <v>4686</v>
       </c>
       <c r="O97" s="20" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="P97" s="9" t="s">
         <v>386</v>
@@ -7796,12 +7787,8 @@
       <c r="Q97" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="R97" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="S97" s="7" t="s">
-        <v>407</v>
-      </c>
+      <c r="R97" s="10"/>
+      <c r="S97" s="7"/>
       <c r="T97" s="11"/>
       <c r="U97" s="7"/>
     </row>
@@ -7819,46 +7806,42 @@
         <v>0</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="8">
-        <v>52323</v>
+        <v>56034</v>
       </c>
       <c r="J98" s="7">
         <v>99999</v>
       </c>
       <c r="K98" s="11"/>
       <c r="L98" s="17">
-        <v>41.804699999999997</v>
+        <v>33.805300000000003</v>
       </c>
       <c r="M98" s="17">
-        <v>97.031899999999993</v>
+        <v>97.137799999999999</v>
       </c>
       <c r="N98" s="34">
-        <v>1773.7</v>
+        <v>4415.6000000000004</v>
       </c>
       <c r="O98" s="20" t="s">
-        <v>262</v>
+        <v>15</v>
       </c>
       <c r="P98" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="R98" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="S98" s="7" t="s">
-        <v>408</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="R98" s="10"/>
+      <c r="S98" s="7"/>
       <c r="T98" s="11"/>
       <c r="U98" s="7"/>
     </row>
@@ -7876,46 +7859,50 @@
         <v>0</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>72</v>
+        <v>510</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="8">
-        <v>52101</v>
+        <v>52908</v>
       </c>
       <c r="J99" s="7">
         <v>99999</v>
       </c>
       <c r="K99" s="11"/>
       <c r="L99" s="17">
-        <v>43.594999999999999</v>
+        <v>35.215800000000002</v>
       </c>
       <c r="M99" s="17">
-        <v>93.045000000000002</v>
+        <v>93.080799999999996</v>
       </c>
       <c r="N99" s="34">
-        <v>1679.2</v>
+        <v>4612</v>
       </c>
       <c r="O99" s="20" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="P99" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="R99" s="10"/>
-      <c r="S99" s="7"/>
+        <v>286</v>
+      </c>
+      <c r="R99" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="S99" s="7" t="s">
+        <v>407</v>
+      </c>
       <c r="T99" s="11"/>
       <c r="U99" s="7"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A100" s="7" t="s">
         <v>3</v>
       </c>
@@ -7929,46 +7916,50 @@
         <v>0</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>73</v>
+        <v>263</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="8">
-        <v>51186</v>
+        <v>52323</v>
       </c>
       <c r="J100" s="7">
         <v>99999</v>
       </c>
       <c r="K100" s="11"/>
       <c r="L100" s="17">
-        <v>46.664999999999999</v>
+        <v>41.804699999999997</v>
       </c>
       <c r="M100" s="17">
-        <v>90.377799999999993</v>
+        <v>97.031899999999993</v>
       </c>
       <c r="N100" s="34">
-        <v>1219.0999999999999</v>
+        <v>1773.7</v>
       </c>
       <c r="O100" s="20" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="P100" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="R100" s="10"/>
-      <c r="S100" s="7"/>
+        <v>262</v>
+      </c>
+      <c r="R100" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="S100" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="T100" s="11"/>
       <c r="U100" s="7"/>
     </row>
-    <row r="101" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A101" s="7" t="s">
         <v>3</v>
       </c>
@@ -7985,45 +7976,41 @@
         <v>68</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>104</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="H101" s="7"/>
       <c r="I101" s="8">
-        <v>51076</v>
+        <v>52101</v>
       </c>
       <c r="J101" s="7">
         <v>99999</v>
       </c>
       <c r="K101" s="11"/>
       <c r="L101" s="17">
-        <v>47.741100000000003</v>
+        <v>43.594999999999999</v>
       </c>
       <c r="M101" s="17">
-        <v>88.071100000000001</v>
+        <v>93.045000000000002</v>
       </c>
       <c r="N101" s="34">
-        <v>734.8</v>
+        <v>1679.2</v>
       </c>
       <c r="O101" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="P101" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="P101" s="9" t="s">
+        <v>386</v>
+      </c>
       <c r="Q101" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="R101" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="S101" s="7" t="s">
-        <v>409</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="R101" s="10"/>
+      <c r="S101" s="7"/>
       <c r="T101" s="11"/>
-      <c r="U101" s="30"/>
+      <c r="U101" s="7"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A102" s="7" t="s">
@@ -8035,52 +8022,50 @@
       <c r="C102" s="25">
         <v>101</v>
       </c>
-      <c r="D102" s="28"/>
+      <c r="D102" s="28">
+        <v>0</v>
+      </c>
       <c r="E102" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="H102" s="7"/>
       <c r="I102" s="8">
-        <v>51573</v>
+        <v>51186</v>
       </c>
       <c r="J102" s="7">
         <v>99999</v>
       </c>
       <c r="K102" s="11"/>
       <c r="L102" s="17">
-        <v>42.950299999999999</v>
+        <v>46.664999999999999</v>
       </c>
       <c r="M102" s="17">
-        <v>89.230800000000002</v>
+        <v>90.377799999999993</v>
       </c>
       <c r="N102" s="34">
-        <v>39</v>
+        <v>1219.0999999999999</v>
       </c>
       <c r="O102" s="20" t="s">
-        <v>390</v>
+        <v>13</v>
       </c>
       <c r="P102" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="R102" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="S102" s="7" t="s">
-        <v>410</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="R102" s="10"/>
+      <c r="S102" s="7"/>
       <c r="T102" s="11"/>
       <c r="U102" s="7"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A103" s="7" t="s">
         <v>3</v>
       </c>
@@ -8097,47 +8082,47 @@
         <v>68</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H103" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="I103" s="8">
-        <v>51463</v>
+        <v>51076</v>
       </c>
       <c r="J103" s="7">
         <v>99999</v>
       </c>
       <c r="K103" s="11"/>
       <c r="L103" s="17">
-        <v>43.789200000000001</v>
+        <v>47.741100000000003</v>
       </c>
       <c r="M103" s="17">
-        <v>87.645799999999994</v>
+        <v>88.071100000000001</v>
       </c>
       <c r="N103" s="34">
-        <v>935</v>
+        <v>734.8</v>
       </c>
       <c r="O103" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="P103" s="9" t="s">
-        <v>386</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="P103" s="9"/>
       <c r="Q103" s="7" t="s">
-        <v>290</v>
+        <v>522</v>
       </c>
       <c r="R103" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S103" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="T103" s="11"/>
-      <c r="U103" s="7"/>
-    </row>
-    <row r="104" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U103" s="30"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104" s="7" t="s">
         <v>3</v>
       </c>
@@ -8147,54 +8132,52 @@
       <c r="C104" s="25">
         <v>103</v>
       </c>
-      <c r="D104" s="28">
-        <v>0</v>
-      </c>
+      <c r="D104" s="28"/>
       <c r="E104" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="8">
-        <v>51542</v>
+        <v>51573</v>
       </c>
       <c r="J104" s="7">
         <v>99999</v>
       </c>
       <c r="K104" s="11"/>
       <c r="L104" s="17">
-        <v>43.0336</v>
+        <v>42.950299999999999</v>
       </c>
       <c r="M104" s="17">
-        <v>84.149199999999993</v>
+        <v>89.230800000000002</v>
       </c>
       <c r="N104" s="34">
-        <v>2459.1</v>
+        <v>39</v>
       </c>
       <c r="O104" s="20" t="s">
-        <v>23</v>
+        <v>390</v>
       </c>
       <c r="P104" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q104" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="R104" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S104" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="T104" s="11"/>
       <c r="U104" s="7"/>
     </row>
-    <row r="105" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105" s="7" t="s">
         <v>3</v>
       </c>
@@ -8211,41 +8194,47 @@
         <v>68</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="8">
-        <v>51437</v>
+        <v>51463</v>
       </c>
       <c r="J105" s="7">
         <v>99999</v>
       </c>
       <c r="K105" s="11"/>
       <c r="L105" s="17">
-        <v>43.1417</v>
+        <v>43.789200000000001</v>
       </c>
       <c r="M105" s="17">
-        <v>81.125600000000006</v>
+        <v>87.645799999999994</v>
       </c>
       <c r="N105" s="34">
-        <v>1850.8</v>
+        <v>935</v>
       </c>
       <c r="O105" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="P105" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="P105" s="9" t="s">
+        <v>386</v>
+      </c>
       <c r="Q105" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="R105" s="10"/>
-      <c r="S105" s="7"/>
+      <c r="R105" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="S105" s="7" t="s">
+        <v>411</v>
+      </c>
       <c r="T105" s="11"/>
       <c r="U105" s="7"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A106" s="7" t="s">
         <v>3</v>
       </c>
@@ -8259,50 +8248,50 @@
         <v>0</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="8">
-        <v>53463</v>
+        <v>51542</v>
       </c>
       <c r="J106" s="7">
         <v>99999</v>
       </c>
       <c r="K106" s="11"/>
       <c r="L106" s="17">
-        <v>40.855800000000002</v>
+        <v>43.0336</v>
       </c>
       <c r="M106" s="17">
-        <v>111.5714</v>
+        <v>84.149199999999993</v>
       </c>
       <c r="N106" s="34">
-        <v>1153.5</v>
+        <v>2459.1</v>
       </c>
       <c r="O106" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P106" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q106" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R106" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S106" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="T106" s="11"/>
       <c r="U106" s="7"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A107" s="7" t="s">
         <v>3</v>
       </c>
@@ -8312,44 +8301,44 @@
       <c r="C107" s="25">
         <v>106</v>
       </c>
-      <c r="D107" s="28"/>
+      <c r="D107" s="28">
+        <v>0</v>
+      </c>
       <c r="E107" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F107" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="G107" s="7" t="s">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="8">
-        <v>54511</v>
+        <v>51437</v>
       </c>
       <c r="J107" s="7">
         <v>99999</v>
       </c>
       <c r="K107" s="11"/>
       <c r="L107" s="17">
-        <v>39.806100000000001</v>
+        <v>43.1417</v>
       </c>
       <c r="M107" s="17">
-        <v>116.46939999999999</v>
+        <v>81.125600000000006</v>
       </c>
       <c r="N107" s="34">
-        <v>32.799999999999997</v>
+        <v>1850.8</v>
       </c>
       <c r="O107" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="P107" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q107" s="7"/>
-      <c r="R107" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="S107" s="7" t="s">
-        <v>414</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="R107" s="10"/>
+      <c r="S107" s="7"/>
       <c r="T107" s="11"/>
       <c r="U107" s="7"/>
     </row>
@@ -8363,43 +8352,51 @@
       <c r="C108" s="25">
         <v>107</v>
       </c>
-      <c r="D108" s="28"/>
+      <c r="D108" s="28">
+        <v>0</v>
+      </c>
       <c r="E108" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F108" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="G108" s="7" t="s">
-        <v>381</v>
+        <v>98</v>
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="8">
-        <v>54517</v>
+        <v>53463</v>
       </c>
       <c r="J108" s="7">
         <v>99999</v>
       </c>
       <c r="K108" s="11"/>
       <c r="L108" s="17">
-        <v>39.0747</v>
+        <v>40.855800000000002</v>
       </c>
       <c r="M108" s="17">
-        <v>117.20610000000001</v>
+        <v>111.5714</v>
       </c>
       <c r="N108" s="34">
-        <v>2.2000000000000002</v>
+        <v>1153.5</v>
       </c>
       <c r="O108" s="20" t="s">
-        <v>463</v>
+        <v>22</v>
       </c>
       <c r="P108" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="Q108" s="7"/>
-      <c r="R108" s="10"/>
-      <c r="S108" s="7"/>
-      <c r="T108" s="11" t="s">
-        <v>528</v>
-      </c>
+      <c r="Q108" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="R108" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="S108" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="T108" s="11"/>
       <c r="U108" s="7"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.4">
@@ -8414,45 +8411,41 @@
       </c>
       <c r="D109" s="28"/>
       <c r="E109" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>195</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="F109" s="7"/>
       <c r="G109" s="7" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="8">
-        <v>53614</v>
+        <v>54511</v>
       </c>
       <c r="J109" s="7">
         <v>99999</v>
       </c>
       <c r="K109" s="11"/>
       <c r="L109" s="17">
-        <v>38.471400000000003</v>
+        <v>39.806100000000001</v>
       </c>
       <c r="M109" s="17">
-        <v>106.20780000000001</v>
+        <v>116.46939999999999</v>
       </c>
       <c r="N109" s="34">
-        <v>1111.5999999999999</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="O109" s="20" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="P109" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="Q109" s="7" t="s">
-        <v>293</v>
-      </c>
+      <c r="Q109" s="7"/>
       <c r="R109" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S109" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="T109" s="11"/>
       <c r="U109" s="7"/>
@@ -8469,45 +8462,41 @@
       </c>
       <c r="D110" s="28"/>
       <c r="E110" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>163</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="F110" s="7"/>
       <c r="G110" s="7" t="s">
-        <v>164</v>
+        <v>381</v>
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="8">
-        <v>53698</v>
+        <v>54517</v>
       </c>
       <c r="J110" s="7">
         <v>99999</v>
       </c>
       <c r="K110" s="11"/>
       <c r="L110" s="17">
-        <v>38.0197</v>
+        <v>39.0747</v>
       </c>
       <c r="M110" s="17">
-        <v>114.3989</v>
+        <v>117.20610000000001</v>
       </c>
       <c r="N110" s="34">
-        <v>89.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O110" s="20" t="s">
-        <v>165</v>
+        <v>463</v>
       </c>
       <c r="P110" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q110" s="7"/>
-      <c r="R110" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="S110" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="T110" s="11"/>
+      <c r="R110" s="10"/>
+      <c r="S110" s="7"/>
+      <c r="T110" s="11" t="s">
+        <v>528</v>
+      </c>
       <c r="U110" s="7"/>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.4">
@@ -8522,45 +8511,45 @@
       </c>
       <c r="D111" s="28"/>
       <c r="E111" s="7" t="s">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="8">
-        <v>53772</v>
+        <v>53614</v>
       </c>
       <c r="J111" s="7">
         <v>99999</v>
       </c>
       <c r="K111" s="11"/>
       <c r="L111" s="17">
-        <v>37.620600000000003</v>
+        <v>38.471400000000003</v>
       </c>
       <c r="M111" s="17">
-        <v>112.57640000000001</v>
+        <v>106.20780000000001</v>
       </c>
       <c r="N111" s="34">
-        <v>776.3</v>
+        <v>1111.5999999999999</v>
       </c>
       <c r="O111" s="20" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="P111" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q111" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R111" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S111" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="T111" s="11"/>
       <c r="U111" s="7"/>
@@ -8577,45 +8566,43 @@
       </c>
       <c r="D112" s="28"/>
       <c r="E112" s="7" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="8">
-        <v>52866</v>
+        <v>53698</v>
       </c>
       <c r="J112" s="7">
         <v>99999</v>
       </c>
       <c r="K112" s="11"/>
       <c r="L112" s="17">
-        <v>36.664400000000001</v>
+        <v>38.0197</v>
       </c>
       <c r="M112" s="17">
-        <v>101.73309999999999</v>
+        <v>114.3989</v>
       </c>
       <c r="N112" s="34">
-        <v>2434.1999999999998</v>
+        <v>89.3</v>
       </c>
       <c r="O112" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="P112" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="Q112" s="7" t="s">
-        <v>295</v>
-      </c>
+      <c r="Q112" s="7"/>
       <c r="R112" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S112" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="T112" s="11"/>
       <c r="U112" s="7"/>
@@ -8632,45 +8619,45 @@
       </c>
       <c r="D113" s="28"/>
       <c r="E113" s="7" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="8">
-        <v>54823</v>
+        <v>53772</v>
       </c>
       <c r="J113" s="7">
         <v>99999</v>
       </c>
       <c r="K113" s="11"/>
       <c r="L113" s="17">
-        <v>36.601900000000001</v>
+        <v>37.620600000000003</v>
       </c>
       <c r="M113" s="17">
-        <v>117.0081</v>
+        <v>112.57640000000001</v>
       </c>
       <c r="N113" s="34">
-        <v>170.3</v>
+        <v>776.3</v>
       </c>
       <c r="O113" s="20" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="P113" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q113" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="R113" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S113" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="T113" s="11"/>
       <c r="U113" s="7"/>
@@ -8687,45 +8674,45 @@
       </c>
       <c r="D114" s="28"/>
       <c r="E114" s="7" t="s">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="8">
-        <v>57083</v>
+        <v>52866</v>
       </c>
       <c r="J114" s="7">
         <v>99999</v>
       </c>
       <c r="K114" s="11"/>
       <c r="L114" s="17">
-        <v>34.706400000000002</v>
+        <v>36.664400000000001</v>
       </c>
       <c r="M114" s="17">
-        <v>113.6628</v>
+        <v>101.73309999999999</v>
       </c>
       <c r="N114" s="34">
-        <v>110.4</v>
+        <v>2434.1999999999998</v>
       </c>
       <c r="O114" s="20" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="P114" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q114" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="R114" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S114" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="T114" s="11"/>
       <c r="U114" s="7"/>
@@ -8742,49 +8729,47 @@
       </c>
       <c r="D115" s="28"/>
       <c r="E115" s="7" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="H115" s="7"/>
       <c r="I115" s="8">
-        <v>57131</v>
+        <v>54823</v>
       </c>
       <c r="J115" s="7">
         <v>99999</v>
       </c>
       <c r="K115" s="11"/>
       <c r="L115" s="17">
-        <v>34.433300000000003</v>
+        <v>36.601900000000001</v>
       </c>
       <c r="M115" s="17">
-        <v>108.9667</v>
+        <v>117.0081</v>
       </c>
       <c r="N115" s="34">
-        <v>410</v>
+        <v>170.3</v>
       </c>
       <c r="O115" s="20" t="s">
-        <v>466</v>
+        <v>199</v>
       </c>
       <c r="P115" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q115" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="R115" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S115" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="T115" s="11" t="s">
-        <v>468</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="T115" s="11"/>
       <c r="U115" s="7"/>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.4">
@@ -8799,50 +8784,50 @@
       </c>
       <c r="D116" s="28"/>
       <c r="E116" s="7" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="8">
-        <v>57245</v>
+        <v>57083</v>
       </c>
       <c r="J116" s="7">
         <v>99999</v>
       </c>
       <c r="K116" s="11"/>
       <c r="L116" s="17">
-        <v>32.693100000000001</v>
+        <v>34.706400000000002</v>
       </c>
       <c r="M116" s="17">
-        <v>109.04170000000001</v>
+        <v>113.6628</v>
       </c>
       <c r="N116" s="34">
-        <v>290.8</v>
+        <v>110.4</v>
       </c>
       <c r="O116" s="20" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="P116" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q116" s="7" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="R116" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S116" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="T116" s="11"/>
       <c r="U116" s="7"/>
     </row>
-    <row r="117" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A117" s="7" t="s">
         <v>3</v>
       </c>
@@ -8854,48 +8839,50 @@
       </c>
       <c r="D117" s="28"/>
       <c r="E117" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="8">
-        <v>57687</v>
+        <v>57131</v>
       </c>
       <c r="J117" s="7">
         <v>99999</v>
       </c>
       <c r="K117" s="11"/>
       <c r="L117" s="17">
-        <v>28.108599999999999</v>
+        <v>34.433300000000003</v>
       </c>
       <c r="M117" s="17">
-        <v>112.7864</v>
+        <v>108.9667</v>
       </c>
       <c r="N117" s="34">
-        <v>114</v>
+        <v>410</v>
       </c>
       <c r="O117" s="20" t="s">
-        <v>142</v>
+        <v>466</v>
       </c>
       <c r="P117" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q117" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R117" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S117" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="T117" s="11"/>
-      <c r="U117" s="30"/>
+        <v>421</v>
+      </c>
+      <c r="T117" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="U117" s="7"/>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A118" s="7" t="s">
@@ -8909,50 +8896,50 @@
       </c>
       <c r="D118" s="28"/>
       <c r="E118" s="7" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H118" s="7"/>
       <c r="I118" s="8">
-        <v>58606</v>
+        <v>57245</v>
       </c>
       <c r="J118" s="7">
         <v>99999</v>
       </c>
       <c r="K118" s="11"/>
       <c r="L118" s="17">
-        <v>28.59</v>
+        <v>32.693100000000001</v>
       </c>
       <c r="M118" s="17">
-        <v>115.9014</v>
+        <v>109.04170000000001</v>
       </c>
       <c r="N118" s="34">
-        <v>47.2</v>
+        <v>290.8</v>
       </c>
       <c r="O118" s="20" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="P118" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q118" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="R118" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S118" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="T118" s="11"/>
       <c r="U118" s="7"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A119" s="7" t="s">
         <v>3</v>
       </c>
@@ -8964,48 +8951,48 @@
       </c>
       <c r="D119" s="28"/>
       <c r="E119" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="8">
-        <v>57494</v>
+        <v>57687</v>
       </c>
       <c r="J119" s="7">
         <v>99999</v>
       </c>
       <c r="K119" s="11"/>
       <c r="L119" s="17">
-        <v>30.597799999999999</v>
+        <v>28.108599999999999</v>
       </c>
       <c r="M119" s="17">
-        <v>114.0506</v>
+        <v>112.7864</v>
       </c>
       <c r="N119" s="34">
-        <v>23.6</v>
+        <v>114</v>
       </c>
       <c r="O119" s="20" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="P119" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q119" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="R119" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S119" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="T119" s="11"/>
-      <c r="U119" s="7"/>
+      <c r="U119" s="30"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A120" s="7" t="s">
@@ -9019,45 +9006,45 @@
       </c>
       <c r="D120" s="28"/>
       <c r="E120" s="7" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="H120" s="7"/>
       <c r="I120" s="8">
-        <v>58321</v>
+        <v>58606</v>
       </c>
       <c r="J120" s="7">
         <v>99999</v>
       </c>
       <c r="K120" s="11"/>
       <c r="L120" s="17">
-        <v>31.9556</v>
+        <v>28.59</v>
       </c>
       <c r="M120" s="17">
-        <v>117.05719999999999</v>
+        <v>115.9014</v>
       </c>
       <c r="N120" s="34">
-        <v>49.8</v>
+        <v>47.2</v>
       </c>
       <c r="O120" s="20" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="P120" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q120" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="R120" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S120" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="T120" s="11"/>
       <c r="U120" s="7"/>
@@ -9074,33 +9061,33 @@
       </c>
       <c r="D121" s="28"/>
       <c r="E121" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="8">
-        <v>58238</v>
+        <v>57494</v>
       </c>
       <c r="J121" s="7">
         <v>99999</v>
       </c>
       <c r="K121" s="11"/>
       <c r="L121" s="17">
-        <v>31.931699999999999</v>
+        <v>30.597799999999999</v>
       </c>
       <c r="M121" s="17">
-        <v>118.8997</v>
+        <v>114.0506</v>
       </c>
       <c r="N121" s="34">
-        <v>33.200000000000003</v>
+        <v>23.6</v>
       </c>
       <c r="O121" s="20" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="P121" s="9" t="s">
         <v>386</v>
@@ -9112,7 +9099,7 @@
         <v>383</v>
       </c>
       <c r="S121" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="T121" s="11"/>
       <c r="U121" s="7"/>
@@ -9129,45 +9116,45 @@
       </c>
       <c r="D122" s="28"/>
       <c r="E122" s="7" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="8">
-        <v>58457</v>
+        <v>58321</v>
       </c>
       <c r="J122" s="7">
         <v>99999</v>
       </c>
       <c r="K122" s="11"/>
       <c r="L122" s="17">
-        <v>30.2258</v>
+        <v>31.9556</v>
       </c>
       <c r="M122" s="17">
-        <v>120.1647</v>
+        <v>117.05719999999999</v>
       </c>
       <c r="N122" s="34">
-        <v>42.1</v>
+        <v>49.8</v>
       </c>
       <c r="O122" s="20" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="P122" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q122" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R122" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S122" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="T122" s="11"/>
       <c r="U122" s="7"/>
@@ -9184,45 +9171,45 @@
       </c>
       <c r="D123" s="28"/>
       <c r="E123" s="7" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>214</v>
+        <v>147</v>
       </c>
       <c r="H123" s="7"/>
       <c r="I123" s="8">
-        <v>58646</v>
+        <v>58238</v>
       </c>
       <c r="J123" s="7">
         <v>99999</v>
       </c>
       <c r="K123" s="11"/>
       <c r="L123" s="17">
-        <v>28.394400000000001</v>
+        <v>31.931699999999999</v>
       </c>
       <c r="M123" s="17">
-        <v>119.85420000000001</v>
+        <v>118.8997</v>
       </c>
       <c r="N123" s="34">
-        <v>144.5</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="O123" s="20" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="P123" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q123" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="R123" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S123" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="T123" s="11"/>
       <c r="U123" s="7"/>
@@ -9239,45 +9226,45 @@
       </c>
       <c r="D124" s="28"/>
       <c r="E124" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>201</v>
+        <v>132</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H124" s="7"/>
       <c r="I124" s="8">
-        <v>58847</v>
+        <v>58457</v>
       </c>
       <c r="J124" s="7">
         <v>99999</v>
       </c>
       <c r="K124" s="11"/>
       <c r="L124" s="17">
-        <v>26.077500000000001</v>
+        <v>30.2258</v>
       </c>
       <c r="M124" s="17">
-        <v>119.2894</v>
+        <v>120.1647</v>
       </c>
       <c r="N124" s="34">
-        <v>84.1</v>
+        <v>42.1</v>
       </c>
       <c r="O124" s="20" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="P124" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q124" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="R124" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S124" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="T124" s="11"/>
       <c r="U124" s="7"/>
@@ -9294,96 +9281,100 @@
       </c>
       <c r="D125" s="28"/>
       <c r="E125" s="7" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="H125" s="7"/>
       <c r="I125" s="8">
-        <v>59287</v>
+        <v>58646</v>
       </c>
       <c r="J125" s="7">
         <v>99999</v>
       </c>
       <c r="K125" s="11"/>
       <c r="L125" s="17">
-        <v>23.21</v>
+        <v>28.394400000000001</v>
       </c>
       <c r="M125" s="17">
-        <v>113.48220000000001</v>
+        <v>119.85420000000001</v>
       </c>
       <c r="N125" s="34">
-        <v>70.7</v>
+        <v>144.5</v>
       </c>
       <c r="O125" s="20" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="P125" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q125" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="R125" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S125" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="T125" s="11"/>
       <c r="U125" s="7"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A126" s="7" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>565</v>
+        <v>462</v>
       </c>
       <c r="C126" s="25">
         <v>125</v>
       </c>
       <c r="D126" s="28"/>
       <c r="E126" s="7" t="s">
-        <v>566</v>
+        <v>114</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>568</v>
+        <v>201</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>124</v>
+        <v>211</v>
       </c>
       <c r="H126" s="7"/>
       <c r="I126" s="8">
-        <v>59758</v>
+        <v>58847</v>
       </c>
       <c r="J126" s="7">
         <v>99999</v>
       </c>
       <c r="K126" s="11"/>
       <c r="L126" s="17">
-        <v>19.9939</v>
+        <v>26.077500000000001</v>
       </c>
       <c r="M126" s="17">
-        <v>110.2469</v>
+        <v>119.2894</v>
       </c>
       <c r="N126" s="34">
-        <v>63.5</v>
+        <v>84.1</v>
       </c>
       <c r="O126" s="20" t="s">
-        <v>567</v>
-      </c>
-      <c r="P126" s="9"/>
-      <c r="Q126" s="7"/>
+        <v>200</v>
+      </c>
+      <c r="P126" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q126" s="7" t="s">
+        <v>305</v>
+      </c>
       <c r="R126" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S126" s="7" t="s">
-        <v>569</v>
+        <v>430</v>
       </c>
       <c r="T126" s="11"/>
       <c r="U126" s="7"/>
@@ -9400,96 +9391,96 @@
       </c>
       <c r="D127" s="28"/>
       <c r="E127" s="7" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="H127" s="7"/>
       <c r="I127" s="8">
-        <v>59948</v>
+        <v>59287</v>
       </c>
       <c r="J127" s="7">
         <v>99999</v>
       </c>
       <c r="K127" s="11"/>
       <c r="L127" s="17">
-        <v>18.216699999999999</v>
+        <v>23.21</v>
       </c>
       <c r="M127" s="17">
-        <v>109.58329999999999</v>
+        <v>113.48220000000001</v>
       </c>
       <c r="N127" s="34">
-        <v>419.4</v>
+        <v>70.7</v>
       </c>
       <c r="O127" s="20" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="P127" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="Q127" s="7"/>
+      <c r="Q127" s="7" t="s">
+        <v>306</v>
+      </c>
       <c r="R127" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S127" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="T127" s="11"/>
       <c r="U127" s="7"/>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A128" s="7" t="s">
-        <v>3</v>
+        <v>564</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>462</v>
+        <v>565</v>
       </c>
       <c r="C128" s="25">
         <v>127</v>
       </c>
       <c r="D128" s="28"/>
       <c r="E128" s="7" t="s">
-        <v>122</v>
+        <v>566</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>123</v>
+        <v>568</v>
       </c>
       <c r="G128" s="7" t="s">
         <v>124</v>
       </c>
       <c r="H128" s="7"/>
       <c r="I128" s="8">
-        <v>59838</v>
+        <v>59758</v>
       </c>
       <c r="J128" s="7">
         <v>99999</v>
       </c>
       <c r="K128" s="11"/>
       <c r="L128" s="17">
-        <v>19.094200000000001</v>
+        <v>19.9939</v>
       </c>
       <c r="M128" s="17">
-        <v>108.6217</v>
+        <v>110.2469</v>
       </c>
       <c r="N128" s="34">
-        <v>6.1</v>
+        <v>63.5</v>
       </c>
       <c r="O128" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="P128" s="9" t="s">
-        <v>386</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="P128" s="9"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S128" s="7" t="s">
-        <v>433</v>
+        <v>569</v>
       </c>
       <c r="T128" s="11"/>
       <c r="U128" s="7"/>
@@ -9506,50 +9497,48 @@
       </c>
       <c r="D129" s="28"/>
       <c r="E129" s="7" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="H129" s="7"/>
       <c r="I129" s="8">
-        <v>59431</v>
+        <v>59948</v>
       </c>
       <c r="J129" s="7">
         <v>99999</v>
       </c>
       <c r="K129" s="11"/>
       <c r="L129" s="17">
-        <v>22.783899999999999</v>
+        <v>18.216699999999999</v>
       </c>
       <c r="M129" s="17">
-        <v>108.5472</v>
+        <v>109.58329999999999</v>
       </c>
       <c r="N129" s="34">
-        <v>152.1</v>
+        <v>419.4</v>
       </c>
       <c r="O129" s="20" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="P129" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="Q129" s="7" t="s">
-        <v>307</v>
-      </c>
+      <c r="Q129" s="7"/>
       <c r="R129" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S129" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="T129" s="11"/>
       <c r="U129" s="7"/>
     </row>
-    <row r="130" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A130" s="7" t="s">
         <v>3</v>
       </c>
@@ -9561,45 +9550,43 @@
       </c>
       <c r="D130" s="28"/>
       <c r="E130" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H130" s="7"/>
       <c r="I130" s="8">
-        <v>56966</v>
+        <v>59838</v>
       </c>
       <c r="J130" s="7">
         <v>99999</v>
       </c>
       <c r="K130" s="11"/>
       <c r="L130" s="17">
-        <v>23.632200000000001</v>
+        <v>19.094200000000001</v>
       </c>
       <c r="M130" s="17">
-        <v>101.9683</v>
+        <v>108.6217</v>
       </c>
       <c r="N130" s="34">
-        <v>506.8</v>
+        <v>6.1</v>
       </c>
       <c r="O130" s="20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P130" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="Q130" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="Q130" s="7"/>
       <c r="R130" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S130" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="T130" s="11"/>
       <c r="U130" s="7"/>
@@ -9616,50 +9603,50 @@
       </c>
       <c r="D131" s="28"/>
       <c r="E131" s="7" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="H131" s="7"/>
       <c r="I131" s="8">
-        <v>56778</v>
+        <v>59431</v>
       </c>
       <c r="J131" s="7">
         <v>99999</v>
       </c>
       <c r="K131" s="11"/>
       <c r="L131" s="17">
-        <v>25.0078</v>
+        <v>22.783899999999999</v>
       </c>
       <c r="M131" s="17">
-        <v>102.65309999999999</v>
+        <v>108.5472</v>
       </c>
       <c r="N131" s="34">
-        <v>1888.1</v>
+        <v>152.1</v>
       </c>
       <c r="O131" s="20" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="P131" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q131" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="R131" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S131" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="T131" s="11"/>
       <c r="U131" s="7"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A132" s="7" t="s">
         <v>3</v>
       </c>
@@ -9671,50 +9658,50 @@
       </c>
       <c r="D132" s="28"/>
       <c r="E132" s="7" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="H132" s="7"/>
       <c r="I132" s="8">
-        <v>57816</v>
+        <v>56966</v>
       </c>
       <c r="J132" s="7">
         <v>99999</v>
       </c>
       <c r="K132" s="11"/>
       <c r="L132" s="17">
-        <v>26.589700000000001</v>
+        <v>23.632200000000001</v>
       </c>
       <c r="M132" s="17">
-        <v>106.72750000000001</v>
+        <v>101.9683</v>
       </c>
       <c r="N132" s="34">
-        <v>1227.3</v>
+        <v>506.8</v>
       </c>
       <c r="O132" s="20" t="s">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="P132" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q132" s="7" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="R132" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S132" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="T132" s="11"/>
       <c r="U132" s="7"/>
     </row>
-    <row r="133" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A133" s="7" t="s">
         <v>3</v>
       </c>
@@ -9726,43 +9713,45 @@
       </c>
       <c r="D133" s="28"/>
       <c r="E133" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F133" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="G133" s="7" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="H133" s="7"/>
       <c r="I133" s="8">
-        <v>57516</v>
+        <v>56778</v>
       </c>
       <c r="J133" s="7">
         <v>99999</v>
       </c>
       <c r="K133" s="11"/>
       <c r="L133" s="17">
-        <v>29.604700000000001</v>
+        <v>25.0078</v>
       </c>
       <c r="M133" s="17">
-        <v>106.4042</v>
+        <v>102.65309999999999</v>
       </c>
       <c r="N133" s="34">
-        <v>542.1</v>
+        <v>1888.1</v>
       </c>
       <c r="O133" s="20" t="s">
-        <v>464</v>
+        <v>178</v>
       </c>
       <c r="P133" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q133" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="R133" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S133" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="T133" s="11"/>
       <c r="U133" s="7"/>
@@ -9779,46 +9768,50 @@
       </c>
       <c r="D134" s="28"/>
       <c r="E134" s="7" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>529</v>
+        <v>174</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>530</v>
+        <v>218</v>
       </c>
       <c r="H134" s="7"/>
       <c r="I134" s="8">
-        <v>57413</v>
+        <v>57816</v>
       </c>
       <c r="J134" s="7">
         <v>99999</v>
       </c>
       <c r="K134" s="11"/>
       <c r="L134" s="17">
-        <v>30.856400000000001</v>
+        <v>26.589700000000001</v>
       </c>
       <c r="M134" s="17">
-        <v>106.9983</v>
+        <v>106.72750000000001</v>
       </c>
       <c r="N134" s="34">
-        <v>305.7</v>
+        <v>1227.3</v>
       </c>
       <c r="O134" s="20" t="s">
-        <v>530</v>
+        <v>175</v>
       </c>
       <c r="P134" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q134" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="R134" s="10"/>
-      <c r="S134" s="7"/>
+        <v>309</v>
+      </c>
+      <c r="R134" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="S134" s="7" t="s">
+        <v>437</v>
+      </c>
       <c r="T134" s="11"/>
       <c r="U134" s="7"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A135" s="7" t="s">
         <v>3</v>
       </c>
@@ -9830,49 +9823,45 @@
       </c>
       <c r="D135" s="28"/>
       <c r="E135" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>134</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="F135" s="7"/>
       <c r="G135" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H135" s="7"/>
       <c r="I135" s="8">
-        <v>56187</v>
+        <v>57516</v>
       </c>
       <c r="J135" s="7">
         <v>99999</v>
       </c>
       <c r="K135" s="11"/>
       <c r="L135" s="17">
-        <v>30.748899999999999</v>
+        <v>29.604700000000001</v>
       </c>
       <c r="M135" s="17">
-        <v>103.861</v>
+        <v>106.4042</v>
       </c>
       <c r="N135" s="34">
-        <v>547.70000000000005</v>
+        <v>542.1</v>
       </c>
       <c r="O135" s="20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P135" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q135" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R135" s="10" t="s">
         <v>383</v>
       </c>
       <c r="S135" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="T135" s="11" t="s">
-        <v>469</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="T135" s="11"/>
       <c r="U135" s="7"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.4">
@@ -9887,46 +9876,42 @@
       </c>
       <c r="D136" s="28"/>
       <c r="E136" s="7" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>168</v>
+        <v>529</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>204</v>
+        <v>530</v>
       </c>
       <c r="H136" s="7"/>
       <c r="I136" s="8">
-        <v>55591</v>
+        <v>57413</v>
       </c>
       <c r="J136" s="7">
         <v>99999</v>
       </c>
       <c r="K136" s="11"/>
       <c r="L136" s="17">
-        <v>29.6586</v>
+        <v>30.856400000000001</v>
       </c>
       <c r="M136" s="17">
-        <v>91.135300000000001</v>
+        <v>106.9983</v>
       </c>
       <c r="N136" s="34">
-        <v>3648.7</v>
+        <v>305.7</v>
       </c>
       <c r="O136" s="20" t="s">
-        <v>169</v>
+        <v>530</v>
       </c>
       <c r="P136" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q136" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="R136" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="S136" s="7" t="s">
-        <v>440</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="R136" s="10"/>
+      <c r="S136" s="7"/>
       <c r="T136" s="11"/>
       <c r="U136" s="7"/>
     </row>
@@ -9942,43 +9927,49 @@
       </c>
       <c r="D137" s="28"/>
       <c r="E137" s="7" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="H137" s="7"/>
       <c r="I137" s="8">
-        <v>52267</v>
+        <v>56187</v>
       </c>
       <c r="J137" s="7">
         <v>99999</v>
       </c>
       <c r="K137" s="11"/>
       <c r="L137" s="17">
-        <v>41.956899999999997</v>
+        <v>30.748899999999999</v>
       </c>
       <c r="M137" s="17">
-        <v>101.0611</v>
+        <v>103.861</v>
       </c>
       <c r="N137" s="34">
-        <v>939</v>
+        <v>547.70000000000005</v>
       </c>
       <c r="O137" s="20" t="s">
-        <v>37</v>
+        <v>465</v>
       </c>
       <c r="P137" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q137" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="R137" s="10"/>
-      <c r="S137" s="7"/>
-      <c r="T137" s="11"/>
+        <v>311</v>
+      </c>
+      <c r="R137" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="S137" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="T137" s="11" t="s">
+        <v>469</v>
+      </c>
       <c r="U137" s="7"/>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.4">
@@ -9991,44 +9982,48 @@
       <c r="C138" s="25">
         <v>137</v>
       </c>
-      <c r="D138" s="28">
-        <v>0</v>
-      </c>
+      <c r="D138" s="28"/>
       <c r="E138" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="H138" s="7"/>
       <c r="I138" s="8">
-        <v>53478</v>
+        <v>55591</v>
       </c>
       <c r="J138" s="7">
         <v>99999</v>
       </c>
       <c r="K138" s="11"/>
       <c r="L138" s="17">
-        <v>39.994199999999999</v>
+        <v>29.6586</v>
       </c>
       <c r="M138" s="17">
-        <v>112.4603</v>
+        <v>91.135300000000001</v>
       </c>
       <c r="N138" s="34">
-        <v>1345.8</v>
+        <v>3648.7</v>
       </c>
       <c r="O138" s="20" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="P138" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="Q138" s="7"/>
-      <c r="R138" s="10"/>
-      <c r="S138" s="7"/>
+      <c r="Q138" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="R138" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="S138" s="7" t="s">
+        <v>440</v>
+      </c>
       <c r="T138" s="11"/>
       <c r="U138" s="7"/>
     </row>
@@ -10044,37 +10039,39 @@
       </c>
       <c r="D139" s="28"/>
       <c r="E139" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F139" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="G139" s="7" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="H139" s="7"/>
       <c r="I139" s="8">
-        <v>58367</v>
+        <v>52267</v>
       </c>
       <c r="J139" s="7">
         <v>99999</v>
       </c>
       <c r="K139" s="11"/>
       <c r="L139" s="17">
-        <v>31.1922</v>
+        <v>41.956899999999997</v>
       </c>
       <c r="M139" s="17">
-        <v>121.43170000000001</v>
+        <v>101.0611</v>
       </c>
       <c r="N139" s="34">
-        <v>2</v>
+        <v>939</v>
       </c>
       <c r="O139" s="20" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="P139" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q139" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="R139" s="10"/>
       <c r="S139" s="7"/>
@@ -10091,42 +10088,42 @@
       <c r="C140" s="25">
         <v>139</v>
       </c>
-      <c r="D140" s="28"/>
+      <c r="D140" s="28">
+        <v>0</v>
+      </c>
       <c r="E140" s="7" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="H140" s="7"/>
       <c r="I140" s="8">
-        <v>58826</v>
+        <v>53478</v>
       </c>
       <c r="J140" s="7">
         <v>99999</v>
       </c>
       <c r="K140" s="11"/>
       <c r="L140" s="17">
-        <v>26.391100000000002</v>
+        <v>39.994199999999999</v>
       </c>
       <c r="M140" s="17">
-        <v>117.8069</v>
+        <v>112.4603</v>
       </c>
       <c r="N140" s="34">
-        <v>120.7</v>
+        <v>1345.8</v>
       </c>
       <c r="O140" s="20" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="P140" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="Q140" s="7" t="s">
-        <v>315</v>
-      </c>
+      <c r="Q140" s="7"/>
       <c r="R140" s="10"/>
       <c r="S140" s="7"/>
       <c r="T140" s="11"/>
@@ -10144,39 +10141,37 @@
       </c>
       <c r="D141" s="28"/>
       <c r="E141" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F141" s="7" t="s">
-        <v>113</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="F141" s="7"/>
       <c r="G141" s="7" t="s">
-        <v>628</v>
+        <v>150</v>
       </c>
       <c r="H141" s="7"/>
       <c r="I141" s="8">
-        <v>58623</v>
+        <v>58367</v>
       </c>
       <c r="J141" s="7">
         <v>99999</v>
       </c>
       <c r="K141" s="11"/>
       <c r="L141" s="17">
-        <v>28.442799999999998</v>
+        <v>31.1922</v>
       </c>
       <c r="M141" s="17">
-        <v>117.97669999999999</v>
+        <v>121.43170000000001</v>
       </c>
       <c r="N141" s="34">
-        <v>118.5</v>
+        <v>2</v>
       </c>
       <c r="O141" s="20" t="s">
-        <v>631</v>
+        <v>162</v>
       </c>
       <c r="P141" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q141" s="7" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="R141" s="10"/>
       <c r="S141" s="7"/>
@@ -10195,39 +10190,39 @@
       </c>
       <c r="D142" s="28"/>
       <c r="E142" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="H142" s="7"/>
       <c r="I142" s="8">
-        <v>57778</v>
+        <v>58826</v>
       </c>
       <c r="J142" s="7">
         <v>99999</v>
       </c>
       <c r="K142" s="11"/>
       <c r="L142" s="17">
-        <v>27.052499999999998</v>
+        <v>26.391100000000002</v>
       </c>
       <c r="M142" s="17">
-        <v>112.9847</v>
+        <v>117.8069</v>
       </c>
       <c r="N142" s="34">
-        <v>109.4</v>
+        <v>120.7</v>
       </c>
       <c r="O142" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P142" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q142" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="R142" s="10"/>
       <c r="S142" s="7"/>
@@ -10235,7 +10230,7 @@
       <c r="U142" s="7"/>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A143" s="14" t="s">
+      <c r="A143" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B143" s="22" t="s">
@@ -10245,49 +10240,47 @@
         <v>142</v>
       </c>
       <c r="D143" s="28"/>
-      <c r="E143" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="F143" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="G143" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="H143" s="14"/>
+      <c r="E143" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="H143" s="7"/>
       <c r="I143" s="8">
-        <v>52889</v>
-      </c>
-      <c r="J143" s="14">
+        <v>58623</v>
+      </c>
+      <c r="J143" s="7">
         <v>99999</v>
       </c>
-      <c r="K143" s="15"/>
-      <c r="L143" s="18">
-        <v>36.043900000000001</v>
-      </c>
-      <c r="M143" s="18">
-        <v>103.87779999999999</v>
-      </c>
-      <c r="N143" s="33">
-        <v>1517.2</v>
-      </c>
-      <c r="O143" s="13" t="s">
-        <v>205</v>
+      <c r="K143" s="11"/>
+      <c r="L143" s="17">
+        <v>28.442799999999998</v>
+      </c>
+      <c r="M143" s="17">
+        <v>117.97669999999999</v>
+      </c>
+      <c r="N143" s="34">
+        <v>118.5</v>
+      </c>
+      <c r="O143" s="20" t="s">
+        <v>631</v>
       </c>
       <c r="P143" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="Q143" s="14" t="s">
-        <v>297</v>
+      <c r="Q143" s="7" t="s">
+        <v>316</v>
       </c>
       <c r="R143" s="10"/>
-      <c r="S143" s="14"/>
-      <c r="T143" s="11" t="s">
-        <v>470</v>
-      </c>
+      <c r="S143" s="7"/>
+      <c r="T143" s="11"/>
       <c r="U143" s="7"/>
     </row>
-    <row r="144" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A144" s="7" t="s">
         <v>3</v>
       </c>
@@ -10299,47 +10292,47 @@
       </c>
       <c r="D144" s="28"/>
       <c r="E144" s="7" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="H144" s="7"/>
       <c r="I144" s="8">
-        <v>50341</v>
+        <v>57778</v>
       </c>
       <c r="J144" s="7">
         <v>99999</v>
       </c>
       <c r="K144" s="11"/>
       <c r="L144" s="17">
-        <v>51.683300000000003</v>
+        <v>27.052499999999998</v>
       </c>
       <c r="M144" s="17">
-        <v>123.61669999999999</v>
-      </c>
-      <c r="N144" s="33">
-        <v>654</v>
+        <v>112.9847</v>
+      </c>
+      <c r="N144" s="34">
+        <v>109.4</v>
       </c>
       <c r="O144" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="P144" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="P144" s="9" t="s">
+        <v>386</v>
+      </c>
       <c r="Q144" s="7" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
       <c r="R144" s="10"/>
       <c r="S144" s="7"/>
-      <c r="T144" s="11" t="s">
-        <v>508</v>
-      </c>
+      <c r="T144" s="11"/>
       <c r="U144" s="7"/>
     </row>
-    <row r="145" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A145" s="7" t="s">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A145" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B145" s="22" t="s">
@@ -10349,43 +10342,49 @@
         <v>144</v>
       </c>
       <c r="D145" s="28"/>
-      <c r="E145" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H145" s="7"/>
-      <c r="I145" s="8"/>
-      <c r="J145" s="7"/>
-      <c r="K145" s="11" t="s">
-        <v>507</v>
-      </c>
+      <c r="E145" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="G145" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="H145" s="14"/>
+      <c r="I145" s="8">
+        <v>52889</v>
+      </c>
+      <c r="J145" s="14">
+        <v>99999</v>
+      </c>
+      <c r="K145" s="15"/>
       <c r="L145" s="18">
-        <v>52.839700000000001</v>
+        <v>36.043900000000001</v>
       </c>
       <c r="M145" s="18">
-        <v>123.17140000000001</v>
+        <v>103.87779999999999</v>
       </c>
       <c r="N145" s="33">
-        <v>507.5</v>
-      </c>
-      <c r="O145" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="P145" s="9"/>
-      <c r="Q145" s="7" t="s">
-        <v>281</v>
+        <v>1517.2</v>
+      </c>
+      <c r="O145" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="P145" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q145" s="14" t="s">
+        <v>297</v>
       </c>
       <c r="R145" s="10"/>
-      <c r="S145" s="7"/>
-      <c r="T145" s="11"/>
+      <c r="S145" s="14"/>
+      <c r="T145" s="11" t="s">
+        <v>470</v>
+      </c>
       <c r="U145" s="7"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A146" s="7" t="s">
         <v>3</v>
       </c>
@@ -10397,44 +10396,46 @@
       </c>
       <c r="D146" s="28"/>
       <c r="E146" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H146" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="I146" s="8"/>
-      <c r="J146" s="7"/>
-      <c r="K146" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="L146" s="18">
-        <v>51.3264</v>
-      </c>
-      <c r="M146" s="18">
-        <v>119.8869</v>
+        <v>107</v>
+      </c>
+      <c r="H146" s="7"/>
+      <c r="I146" s="8">
+        <v>50341</v>
+      </c>
+      <c r="J146" s="7">
+        <v>99999</v>
+      </c>
+      <c r="K146" s="11"/>
+      <c r="L146" s="17">
+        <v>51.683300000000003</v>
+      </c>
+      <c r="M146" s="17">
+        <v>123.61669999999999</v>
       </c>
       <c r="N146" s="33">
-        <v>496.2</v>
+        <v>654</v>
       </c>
       <c r="O146" s="20" t="s">
-        <v>475</v>
+        <v>367</v>
       </c>
       <c r="P146" s="9"/>
       <c r="Q146" s="7" t="s">
-        <v>476</v>
+        <v>369</v>
       </c>
       <c r="R146" s="10"/>
       <c r="S146" s="7"/>
-      <c r="T146" s="11"/>
+      <c r="T146" s="11" t="s">
+        <v>508</v>
+      </c>
       <c r="U146" s="7"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A147" s="7" t="s">
         <v>3</v>
       </c>
@@ -10446,27 +10447,35 @@
       </c>
       <c r="D147" s="28"/>
       <c r="E147" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="H147" s="7"/>
       <c r="I147" s="8"/>
       <c r="J147" s="7"/>
-      <c r="K147" s="11"/>
-      <c r="L147" s="18"/>
-      <c r="M147" s="18"/>
-      <c r="N147" s="33"/>
+      <c r="K147" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="L147" s="18">
+        <v>52.839700000000001</v>
+      </c>
+      <c r="M147" s="18">
+        <v>123.17140000000001</v>
+      </c>
+      <c r="N147" s="33">
+        <v>507.5</v>
+      </c>
       <c r="O147" s="20" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P147" s="9"/>
       <c r="Q147" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="R147" s="10"/>
       <c r="S147" s="7"/>
@@ -10493,36 +10502,36 @@
       <c r="G148" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H148" s="7"/>
+      <c r="H148" s="7" t="s">
+        <v>477</v>
+      </c>
       <c r="I148" s="8"/>
       <c r="J148" s="7"/>
       <c r="K148" s="11" t="s">
-        <v>526</v>
+        <v>474</v>
       </c>
       <c r="L148" s="18">
-        <v>52.6633</v>
+        <v>51.3264</v>
       </c>
       <c r="M148" s="18">
-        <v>120.82470000000001</v>
+        <v>119.8869</v>
       </c>
       <c r="N148" s="33">
-        <v>430</v>
+        <v>496.2</v>
       </c>
       <c r="O148" s="20" t="s">
-        <v>527</v>
+        <v>475</v>
       </c>
       <c r="P148" s="9"/>
       <c r="Q148" s="7" t="s">
-        <v>278</v>
+        <v>476</v>
       </c>
       <c r="R148" s="10"/>
       <c r="S148" s="7"/>
-      <c r="T148" s="11" t="s">
-        <v>508</v>
-      </c>
+      <c r="T148" s="11"/>
       <c r="U148" s="7"/>
     </row>
-    <row r="149" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A149" s="7" t="s">
         <v>3</v>
       </c>
@@ -10534,37 +10543,27 @@
       </c>
       <c r="D149" s="28"/>
       <c r="E149" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="H149" s="7" t="s">
-        <v>379</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H149" s="7"/>
       <c r="I149" s="8"/>
       <c r="J149" s="7"/>
-      <c r="K149" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="L149" s="18">
-        <v>48.584200000000003</v>
-      </c>
-      <c r="M149" s="18">
-        <v>87.457800000000006</v>
-      </c>
-      <c r="N149" s="33">
-        <v>1223</v>
-      </c>
+      <c r="K149" s="11"/>
+      <c r="L149" s="18"/>
+      <c r="M149" s="18"/>
+      <c r="N149" s="33"/>
       <c r="O149" s="20" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="P149" s="9"/>
       <c r="Q149" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="R149" s="10"/>
       <c r="S149" s="7"/>
@@ -10583,44 +10582,44 @@
       </c>
       <c r="D150" s="28"/>
       <c r="E150" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H150" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="H150" s="7"/>
       <c r="I150" s="8"/>
       <c r="J150" s="7"/>
       <c r="K150" s="11" t="s">
-        <v>378</v>
+        <v>526</v>
       </c>
       <c r="L150" s="18">
-        <v>47.027200000000001</v>
+        <v>52.6633</v>
       </c>
       <c r="M150" s="18">
-        <v>89.797499999999999</v>
+        <v>120.82470000000001</v>
       </c>
       <c r="N150" s="33">
-        <v>1333</v>
+        <v>430</v>
       </c>
       <c r="O150" s="20" t="s">
-        <v>364</v>
+        <v>527</v>
       </c>
       <c r="P150" s="9"/>
       <c r="Q150" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="R150" s="10"/>
       <c r="S150" s="7"/>
-      <c r="T150" s="11"/>
+      <c r="T150" s="11" t="s">
+        <v>508</v>
+      </c>
       <c r="U150" s="7"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A151" s="7" t="s">
         <v>3</v>
       </c>
@@ -10638,25 +10637,27 @@
         <v>73</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H151" s="7"/>
+        <v>375</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>379</v>
+      </c>
       <c r="I151" s="8"/>
       <c r="J151" s="7"/>
       <c r="K151" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L151" s="18">
-        <v>46.801099999999998</v>
+        <v>48.584200000000003</v>
       </c>
       <c r="M151" s="18">
-        <v>90.88</v>
+        <v>87.457800000000006</v>
       </c>
       <c r="N151" s="33">
-        <v>2640</v>
+        <v>1223</v>
       </c>
       <c r="O151" s="20" t="s">
-        <v>525</v>
+        <v>376</v>
       </c>
       <c r="P151" s="9"/>
       <c r="Q151" s="7" t="s">
@@ -10664,12 +10665,10 @@
       </c>
       <c r="R151" s="10"/>
       <c r="S151" s="7"/>
-      <c r="T151" s="11" t="s">
-        <v>508</v>
-      </c>
+      <c r="T151" s="11"/>
       <c r="U151" s="7"/>
     </row>
-    <row r="152" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A152" s="7" t="s">
         <v>3</v>
       </c>
@@ -10684,147 +10683,139 @@
         <v>68</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>100</v>
+        <v>363</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I152" s="8"/>
       <c r="J152" s="7"/>
       <c r="K152" s="11" t="s">
-        <v>562</v>
+        <v>378</v>
       </c>
       <c r="L152" s="18">
-        <v>42.828800000000001</v>
+        <v>47.027200000000001</v>
       </c>
       <c r="M152" s="18">
-        <v>83.716099999999997</v>
+        <v>89.797499999999999</v>
       </c>
       <c r="N152" s="33">
-        <v>2465</v>
+        <v>1333</v>
       </c>
       <c r="O152" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P152" s="9"/>
       <c r="Q152" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="R152" s="10"/>
       <c r="S152" s="7"/>
       <c r="T152" s="11"/>
       <c r="U152" s="7"/>
     </row>
-    <row r="153" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A153" s="7" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B153" s="22" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C153" s="25">
         <v>152</v>
       </c>
       <c r="D153" s="28"/>
       <c r="E153" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="H153" s="7"/>
-      <c r="I153" s="8">
-        <v>31137</v>
-      </c>
-      <c r="J153" s="7">
-        <v>99999</v>
-      </c>
-      <c r="K153" s="11"/>
+      <c r="I153" s="8"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="11" t="s">
+        <v>524</v>
+      </c>
       <c r="L153" s="18">
-        <v>56.283333300000002</v>
+        <v>46.801099999999998</v>
       </c>
       <c r="M153" s="18">
-        <v>131.1333333</v>
+        <v>90.88</v>
       </c>
       <c r="N153" s="33">
-        <v>850</v>
+        <v>2640</v>
       </c>
       <c r="O153" s="20" t="s">
-        <v>542</v>
-      </c>
-      <c r="P153" s="9" t="s">
-        <v>387</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="P153" s="9"/>
       <c r="Q153" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="R153" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="S153" s="7" t="s">
-        <v>454</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="R153" s="10"/>
+      <c r="S153" s="7"/>
       <c r="T153" s="11" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="U153" s="7"/>
     </row>
     <row r="154" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A154" s="7" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B154" s="22" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C154" s="25">
         <v>153</v>
       </c>
       <c r="D154" s="28"/>
       <c r="E154" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
-      <c r="I154" s="8">
-        <v>24688</v>
-      </c>
-      <c r="J154" s="7">
-        <v>99999</v>
-      </c>
-      <c r="K154" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I154" s="8"/>
+      <c r="J154" s="7"/>
+      <c r="K154" s="11" t="s">
+        <v>562</v>
+      </c>
       <c r="L154" s="18">
-        <v>63.25</v>
+        <v>42.828800000000001</v>
       </c>
       <c r="M154" s="18">
-        <v>143.15</v>
+        <v>83.716099999999997</v>
       </c>
       <c r="N154" s="33">
-        <v>741</v>
+        <v>2465</v>
       </c>
       <c r="O154" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="P154" s="9" t="s">
-        <v>387</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="P154" s="9"/>
       <c r="Q154" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="R154" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="S154" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="T154" s="11" t="s">
-        <v>479</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="R154" s="10"/>
+      <c r="S154" s="7"/>
+      <c r="T154" s="11"/>
       <c r="U154" s="7"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A155" s="7" t="s">
         <v>41</v>
       </c>
@@ -10842,40 +10833,42 @@
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
       <c r="I155" s="8">
-        <v>24585</v>
+        <v>31137</v>
       </c>
       <c r="J155" s="7">
         <v>99999</v>
       </c>
       <c r="K155" s="11"/>
       <c r="L155" s="18">
-        <v>64.55</v>
+        <v>56.283333300000002</v>
       </c>
       <c r="M155" s="18">
-        <v>144.4</v>
+        <v>131.1333333</v>
       </c>
       <c r="N155" s="33">
-        <v>518.52</v>
+        <v>850</v>
       </c>
       <c r="O155" s="20" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="P155" s="9" t="s">
         <v>387</v>
       </c>
       <c r="Q155" s="7" t="s">
-        <v>560</v>
+        <v>324</v>
       </c>
       <c r="R155" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S155" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="T155" s="11"/>
+        <v>454</v>
+      </c>
+      <c r="T155" s="11" t="s">
+        <v>479</v>
+      </c>
       <c r="U155" s="7"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A156" s="7" t="s">
         <v>41</v>
       </c>
@@ -10893,23 +10886,23 @@
       <c r="G156" s="7"/>
       <c r="H156" s="7"/>
       <c r="I156" s="8">
-        <v>24588</v>
+        <v>24688</v>
       </c>
       <c r="J156" s="7">
         <v>99999</v>
       </c>
       <c r="K156" s="11"/>
       <c r="L156" s="18">
-        <v>64.05</v>
+        <v>63.25</v>
       </c>
       <c r="M156" s="18">
-        <v>141.8833333</v>
+        <v>143.15</v>
       </c>
       <c r="N156" s="33">
-        <v>589.71</v>
+        <v>741</v>
       </c>
       <c r="O156" s="20" t="s">
-        <v>541</v>
+        <v>50</v>
       </c>
       <c r="P156" s="9" t="s">
         <v>387</v>
@@ -10918,12 +10911,14 @@
         <v>558</v>
       </c>
       <c r="R156" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S156" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="T156" s="11"/>
+        <v>455</v>
+      </c>
+      <c r="T156" s="11" t="s">
+        <v>479</v>
+      </c>
       <c r="U156" s="7"/>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.4">
@@ -10944,23 +10939,23 @@
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
       <c r="I157" s="8">
-        <v>24691</v>
+        <v>24585</v>
       </c>
       <c r="J157" s="7">
         <v>99999</v>
       </c>
       <c r="K157" s="11"/>
       <c r="L157" s="18">
-        <v>63.8333333</v>
+        <v>64.55</v>
       </c>
       <c r="M157" s="18">
-        <v>145.6</v>
+        <v>144.4</v>
       </c>
       <c r="N157" s="33">
-        <v>800.92</v>
+        <v>518.52</v>
       </c>
       <c r="O157" s="20" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="P157" s="9" t="s">
         <v>387</v>
@@ -10972,7 +10967,7 @@
         <v>384</v>
       </c>
       <c r="S157" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="T157" s="11"/>
       <c r="U157" s="7"/>
@@ -10995,35 +10990,35 @@
       <c r="G158" s="7"/>
       <c r="H158" s="7"/>
       <c r="I158" s="8">
-        <v>24266</v>
+        <v>24588</v>
       </c>
       <c r="J158" s="7">
         <v>99999</v>
       </c>
       <c r="K158" s="11"/>
       <c r="L158" s="18">
-        <v>67.566666600000005</v>
+        <v>64.05</v>
       </c>
       <c r="M158" s="18">
-        <v>133.4</v>
+        <v>141.8833333</v>
       </c>
       <c r="N158" s="33">
-        <v>138</v>
+        <v>589.71</v>
       </c>
       <c r="O158" s="20" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="P158" s="9" t="s">
         <v>387</v>
       </c>
       <c r="Q158" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="R158" s="10" t="s">
         <v>384</v>
       </c>
       <c r="S158" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="T158" s="11"/>
       <c r="U158" s="7"/>
@@ -11046,38 +11041,40 @@
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
       <c r="I159" s="8">
-        <v>24684</v>
+        <v>24691</v>
       </c>
       <c r="J159" s="7">
         <v>99999</v>
       </c>
       <c r="K159" s="11"/>
       <c r="L159" s="18">
-        <v>63.3333333</v>
+        <v>63.8333333</v>
       </c>
       <c r="M159" s="18">
-        <v>141.7333333</v>
+        <v>145.6</v>
       </c>
       <c r="N159" s="33">
-        <v>776.93</v>
+        <v>800.92</v>
       </c>
       <c r="O159" s="20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="P159" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="Q159" s="7"/>
+      <c r="Q159" s="7" t="s">
+        <v>560</v>
+      </c>
       <c r="R159" s="10" t="s">
         <v>384</v>
       </c>
       <c r="S159" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="T159" s="11"/>
       <c r="U159" s="7"/>
     </row>
-    <row r="160" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A160" s="7" t="s">
         <v>41</v>
       </c>
@@ -11095,35 +11092,35 @@
       <c r="G160" s="7"/>
       <c r="H160" s="7"/>
       <c r="I160" s="8">
-        <v>24382</v>
+        <v>24266</v>
       </c>
       <c r="J160" s="7">
         <v>99999</v>
       </c>
       <c r="K160" s="11"/>
       <c r="L160" s="18">
-        <v>66.45</v>
+        <v>67.566666600000005</v>
       </c>
       <c r="M160" s="18">
-        <v>143.2333333</v>
+        <v>133.4</v>
       </c>
       <c r="N160" s="33">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="O160" s="20" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="P160" s="9" t="s">
         <v>387</v>
       </c>
       <c r="Q160" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="R160" s="10" t="s">
         <v>384</v>
       </c>
       <c r="S160" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T160" s="11"/>
       <c r="U160" s="7"/>
@@ -11146,40 +11143,38 @@
       <c r="G161" s="7"/>
       <c r="H161" s="7"/>
       <c r="I161" s="8">
-        <v>24959</v>
+        <v>24684</v>
       </c>
       <c r="J161" s="7">
         <v>99999</v>
       </c>
       <c r="K161" s="11"/>
       <c r="L161" s="18">
-        <v>62.016666600000001</v>
+        <v>63.3333333</v>
       </c>
       <c r="M161" s="18">
-        <v>129.7166666</v>
+        <v>141.7333333</v>
       </c>
       <c r="N161" s="33">
-        <v>101</v>
+        <v>776.93</v>
       </c>
       <c r="O161" s="20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P161" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="Q161" s="7" t="s">
-        <v>547</v>
-      </c>
+      <c r="Q161" s="7"/>
       <c r="R161" s="10" t="s">
         <v>384</v>
       </c>
       <c r="S161" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="T161" s="11"/>
       <c r="U161" s="7"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A162" s="7" t="s">
         <v>41</v>
       </c>
@@ -11197,39 +11192,41 @@
       <c r="G162" s="7"/>
       <c r="H162" s="7"/>
       <c r="I162" s="8">
-        <v>24477</v>
+        <v>24382</v>
       </c>
       <c r="J162" s="7">
         <v>99999</v>
       </c>
       <c r="K162" s="11"/>
       <c r="L162" s="18">
-        <v>65.3</v>
+        <v>66.45</v>
       </c>
       <c r="M162" s="18">
-        <v>135.80000000000001</v>
+        <v>143.2333333</v>
       </c>
       <c r="N162" s="33">
-        <v>674.86</v>
+        <v>196</v>
       </c>
       <c r="O162" s="20" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="P162" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="Q162" s="7"/>
+      <c r="Q162" s="7" t="s">
+        <v>561</v>
+      </c>
       <c r="R162" s="10" t="s">
         <v>384</v>
       </c>
       <c r="S162" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="T162" s="11"/>
       <c r="U162" s="7"/>
     </row>
-    <row r="163" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A163" s="14" t="s">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A163" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B163" s="22" t="s">
@@ -11239,48 +11236,48 @@
         <v>162</v>
       </c>
       <c r="D163" s="28"/>
-      <c r="E163" s="14" t="s">
-        <v>576</v>
-      </c>
-      <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
-      <c r="H163" s="14"/>
+      <c r="E163" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
       <c r="I163" s="8">
-        <v>25428</v>
+        <v>24959</v>
       </c>
       <c r="J163" s="7">
         <v>99999</v>
       </c>
-      <c r="K163" s="15"/>
+      <c r="K163" s="11"/>
       <c r="L163" s="18">
-        <v>65.233333299999998</v>
+        <v>62.016666600000001</v>
       </c>
       <c r="M163" s="18">
-        <v>160.53333330000001</v>
+        <v>129.7166666</v>
       </c>
       <c r="N163" s="33">
-        <v>264</v>
+        <v>101</v>
       </c>
       <c r="O163" s="20" t="s">
-        <v>577</v>
+        <v>546</v>
       </c>
       <c r="P163" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="Q163" s="14" t="s">
-        <v>578</v>
+      <c r="Q163" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="R163" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="S163" s="14" t="s">
-        <v>579</v>
+      <c r="S163" s="7" t="s">
+        <v>556</v>
       </c>
       <c r="T163" s="11"/>
       <c r="U163" s="7"/>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A164" s="14" t="s">
+      <c r="A164" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B164" s="22" t="s">
@@ -11290,47 +11287,45 @@
         <v>163</v>
       </c>
       <c r="D164" s="28"/>
-      <c r="E164" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="F164" s="14"/>
-      <c r="G164" s="14"/>
-      <c r="H164" s="14"/>
+      <c r="E164" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
       <c r="I164" s="8">
-        <v>25700</v>
+        <v>24477</v>
       </c>
       <c r="J164" s="7">
         <v>99999</v>
       </c>
-      <c r="K164" s="15"/>
+      <c r="K164" s="11"/>
       <c r="L164" s="18">
-        <v>62.8</v>
+        <v>65.3</v>
       </c>
       <c r="M164" s="18">
-        <v>150.66666660000001</v>
+        <v>135.80000000000001</v>
       </c>
       <c r="N164" s="33">
-        <v>312.39999999999998</v>
+        <v>674.86</v>
       </c>
       <c r="O164" s="20" t="s">
-        <v>581</v>
+        <v>548</v>
       </c>
       <c r="P164" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="Q164" s="14" t="s">
-        <v>582</v>
-      </c>
+      <c r="Q164" s="7"/>
       <c r="R164" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="S164" s="14" t="s">
-        <v>583</v>
+      <c r="S164" s="7" t="s">
+        <v>557</v>
       </c>
       <c r="T164" s="11"/>
       <c r="U164" s="7"/>
     </row>
-    <row r="165" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A165" s="14" t="s">
         <v>41</v>
       </c>
@@ -11342,88 +11337,144 @@
       </c>
       <c r="D165" s="28"/>
       <c r="E165" s="14" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="F165" s="14"/>
       <c r="G165" s="14"/>
       <c r="H165" s="14"/>
       <c r="I165" s="8">
-        <v>24507</v>
+        <v>25428</v>
       </c>
       <c r="J165" s="7">
         <v>99999</v>
       </c>
       <c r="K165" s="15"/>
       <c r="L165" s="18">
-        <v>64.266666599999994</v>
+        <v>65.233333299999998</v>
       </c>
       <c r="M165" s="18">
-        <v>100.2333333</v>
+        <v>160.53333330000001</v>
       </c>
       <c r="N165" s="33">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="O165" s="20" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="P165" s="9" t="s">
         <v>387</v>
       </c>
       <c r="Q165" s="14" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="R165" s="10" t="s">
         <v>384</v>
       </c>
       <c r="S165" s="14" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="T165" s="11"/>
       <c r="U165" s="7"/>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A166" s="14"/>
-      <c r="B166" s="22"/>
-      <c r="C166" s="25"/>
+      <c r="A166" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B166" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="C166" s="25">
+        <v>165</v>
+      </c>
       <c r="D166" s="28"/>
-      <c r="E166" s="14"/>
+      <c r="E166" s="14" t="s">
+        <v>580</v>
+      </c>
       <c r="F166" s="14"/>
       <c r="G166" s="14"/>
       <c r="H166" s="14"/>
-      <c r="I166" s="8"/>
-      <c r="J166" s="14"/>
+      <c r="I166" s="8">
+        <v>25700</v>
+      </c>
+      <c r="J166" s="7">
+        <v>99999</v>
+      </c>
       <c r="K166" s="15"/>
-      <c r="L166" s="18"/>
-      <c r="M166" s="18"/>
-      <c r="N166" s="33"/>
-      <c r="O166" s="20"/>
-      <c r="P166" s="9"/>
-      <c r="Q166" s="14"/>
-      <c r="R166" s="10"/>
-      <c r="S166" s="14"/>
+      <c r="L166" s="18">
+        <v>62.8</v>
+      </c>
+      <c r="M166" s="18">
+        <v>150.66666660000001</v>
+      </c>
+      <c r="N166" s="33">
+        <v>312.39999999999998</v>
+      </c>
+      <c r="O166" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="P166" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q166" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="R166" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="S166" s="14" t="s">
+        <v>583</v>
+      </c>
       <c r="T166" s="11"/>
       <c r="U166" s="7"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A167" s="14"/>
-      <c r="B167" s="22"/>
-      <c r="C167" s="25"/>
+    <row r="167" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A167" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B167" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="C167" s="25">
+        <v>166</v>
+      </c>
       <c r="D167" s="28"/>
-      <c r="E167" s="14"/>
+      <c r="E167" s="14" t="s">
+        <v>584</v>
+      </c>
       <c r="F167" s="14"/>
       <c r="G167" s="14"/>
       <c r="H167" s="14"/>
-      <c r="I167" s="8"/>
-      <c r="J167" s="14"/>
+      <c r="I167" s="8">
+        <v>24507</v>
+      </c>
+      <c r="J167" s="7">
+        <v>99999</v>
+      </c>
       <c r="K167" s="15"/>
-      <c r="L167" s="18"/>
-      <c r="M167" s="18"/>
-      <c r="N167" s="33"/>
-      <c r="O167" s="20"/>
-      <c r="P167" s="9"/>
-      <c r="Q167" s="14"/>
-      <c r="R167" s="10"/>
-      <c r="S167" s="14"/>
+      <c r="L167" s="18">
+        <v>64.266666599999994</v>
+      </c>
+      <c r="M167" s="18">
+        <v>100.2333333</v>
+      </c>
+      <c r="N167" s="33">
+        <v>168</v>
+      </c>
+      <c r="O167" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="P167" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q167" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="R167" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="S167" s="14" t="s">
+        <v>585</v>
+      </c>
       <c r="T167" s="11"/>
       <c r="U167" s="7"/>
     </row>
@@ -11611,21 +11662,67 @@
       <c r="T175" s="11"/>
       <c r="U175" s="7"/>
     </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A176" s="14"/>
+      <c r="B176" s="22"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="28"/>
+      <c r="E176" s="14"/>
+      <c r="F176" s="14"/>
+      <c r="G176" s="14"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="8"/>
+      <c r="J176" s="14"/>
+      <c r="K176" s="15"/>
+      <c r="L176" s="18"/>
+      <c r="M176" s="18"/>
+      <c r="N176" s="33"/>
+      <c r="O176" s="20"/>
+      <c r="P176" s="9"/>
+      <c r="Q176" s="14"/>
+      <c r="R176" s="10"/>
+      <c r="S176" s="14"/>
+      <c r="T176" s="11"/>
+      <c r="U176" s="7"/>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A177" s="14"/>
+      <c r="B177" s="22"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="28"/>
+      <c r="E177" s="14"/>
+      <c r="F177" s="14"/>
+      <c r="G177" s="14"/>
+      <c r="H177" s="14"/>
+      <c r="I177" s="8"/>
+      <c r="J177" s="14"/>
+      <c r="K177" s="15"/>
+      <c r="L177" s="18"/>
+      <c r="M177" s="18"/>
+      <c r="N177" s="33"/>
+      <c r="O177" s="20"/>
+      <c r="P177" s="9"/>
+      <c r="Q177" s="14"/>
+      <c r="R177" s="10"/>
+      <c r="S177" s="14"/>
+      <c r="T177" s="11"/>
+      <c r="U177" s="7"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ezDplDYJP3KjCy3QD5EG196aMKyXibUtsYqX6RrkER02ERFNRQlnJK3yh2GZEqi7P2Df/r2dpFA2ncdJQGFRIw==" saltValue="BvHnJrw7dUOgaDTjf66itw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:U165" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U165">
-      <sortCondition ref="C1:C165"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EXX9TrVZVkGVeiLJu09c6j+vuKp09weCj9O1EHq4wEjZIgtRcfA4hLZBSFIwKEaA5HD/cB40HUPBLJW7CA83xw==" saltValue="HKaZ9lzNUjgwOPCUCS1rQw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A1:U167" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U167">
+      <sortCondition ref="C1:C167"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U162">
-    <sortCondition ref="C2:C162"/>
-    <sortCondition ref="B2:B162"/>
-    <sortCondition ref="E2:E162"/>
-    <sortCondition ref="F2:F162"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U164">
+    <sortCondition ref="C2:C164"/>
+    <sortCondition ref="B2:B164"/>
+    <sortCondition ref="E2:E164"/>
+    <sortCondition ref="F2:F164"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:U175">
+  <conditionalFormatting sqref="A2:U177">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>IF(MOD(ROW(), 2), 0, 1)</formula>
     </cfRule>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E303F43E-0455-41C3-BFFC-3A057BDAAB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FB61D4-261B-4AF3-BDFA-2E1EACB900B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -9844,7 +9844,7 @@
         <v>106.4042</v>
       </c>
       <c r="N135" s="34">
-        <v>542.1</v>
+        <v>260</v>
       </c>
       <c r="O135" s="20" t="s">
         <v>464</v>
@@ -10258,13 +10258,13 @@
       </c>
       <c r="K143" s="11"/>
       <c r="L143" s="17">
-        <v>28.442799999999998</v>
+        <v>28.461400000000001</v>
       </c>
       <c r="M143" s="17">
-        <v>117.97669999999999</v>
+        <v>117.9036</v>
       </c>
       <c r="N143" s="34">
-        <v>118.5</v>
+        <v>121.3</v>
       </c>
       <c r="O143" s="20" t="s">
         <v>631</v>
@@ -11709,7 +11709,7 @@
       <c r="U177" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EXX9TrVZVkGVeiLJu09c6j+vuKp09weCj9O1EHq4wEjZIgtRcfA4hLZBSFIwKEaA5HD/cB40HUPBLJW7CA83xw==" saltValue="HKaZ9lzNUjgwOPCUCS1rQw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8ZsLr6DtQiMl7DZprt1MUFFsYCBEmeRnrmK5XKs1Q8MXQ2bBfBCFTfeVtzK6eVTZRbYwCPvqDYZooJ+3h6n+Gw==" saltValue="e8cz6leaR1rM2yaZbM7JjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:U167" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U167">
       <sortCondition ref="C1:C167"/>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FB61D4-261B-4AF3-BDFA-2E1EACB900B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F21B50E-447C-445B-8266-392C0C4CAA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
   <sheets>
     <sheet name="固定站点" sheetId="1" r:id="rId1"/>
-    <sheet name="附加站点" sheetId="3" r:id="rId2"/>
+    <sheet name="附加自动站" sheetId="4" r:id="rId2"/>
+    <sheet name="附加国外站点" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">固定站点!$A$1:$U$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">固定站点!$A$1:$U$173</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="698">
   <si>
     <t>USAF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2442,6 +2443,258 @@
   </si>
   <si>
     <t>Буянт-Ухаа</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X2081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市/地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海拔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德令哈市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊克拉村哈拉湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度(同F列)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U6021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双湖县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普若岗日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安图县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长白山天池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌鲁木齐县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天山大西沟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6770</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可托海滑雪场3100山顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y5316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉木乃县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉木乃冰川站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福海县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红山嘴口岸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托勒海特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喀纳斯湖一道弯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y5315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6757</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可托海景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y8408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康埠神泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德尔比勒金牧场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y5826</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y5803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴音乌鲁乡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库都尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得耳布尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定居点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敖鲁古雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博乐市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛里木湖东岸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九寨沟漳扎长海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S9355</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿坝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九寨沟县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄山市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄山区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1823</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张家界市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永定区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张家界天门山景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博尔塔拉蒙古自治州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延边朝鲜族自治州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿坝藏族羌族自治州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2453,7 +2706,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0####"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2579,13 +2832,64 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2617,7 +2921,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2736,6 +3040,63 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3068,11 +3429,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U177"/>
+  <dimension ref="A1:U183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -10815,317 +11174,311 @@
       <c r="T154" s="11"/>
       <c r="U154" s="7"/>
     </row>
-    <row r="155" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A155" s="7" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B155" s="22" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C155" s="25">
         <v>154</v>
       </c>
       <c r="D155" s="28"/>
       <c r="E155" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
-      <c r="I155" s="8">
-        <v>31137</v>
-      </c>
-      <c r="J155" s="7">
-        <v>99999</v>
-      </c>
-      <c r="K155" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="I155" s="8"/>
+      <c r="J155" s="7"/>
+      <c r="K155" s="11" t="s">
+        <v>665</v>
+      </c>
       <c r="L155" s="18">
-        <v>56.283333300000002</v>
+        <v>48.721699999999998</v>
       </c>
       <c r="M155" s="18">
-        <v>131.1333333</v>
+        <v>87.030600000000007</v>
       </c>
       <c r="N155" s="33">
-        <v>850</v>
+        <v>1367</v>
       </c>
       <c r="O155" s="20" t="s">
-        <v>542</v>
+        <v>664</v>
       </c>
       <c r="P155" s="9" t="s">
         <v>387</v>
       </c>
       <c r="Q155" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="R155" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="S155" s="7" t="s">
-        <v>454</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="R155" s="10"/>
+      <c r="S155" s="7"/>
       <c r="T155" s="11" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="U155" s="7"/>
     </row>
     <row r="156" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A156" s="7" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B156" s="22" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C156" s="25">
         <v>155</v>
       </c>
       <c r="D156" s="28"/>
       <c r="E156" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>682</v>
+      </c>
       <c r="H156" s="7"/>
-      <c r="I156" s="8">
-        <v>24688</v>
-      </c>
-      <c r="J156" s="7">
-        <v>99999</v>
-      </c>
-      <c r="K156" s="11"/>
+      <c r="I156" s="8"/>
+      <c r="J156" s="7"/>
+      <c r="K156" s="11">
+        <v>51337</v>
+      </c>
       <c r="L156" s="18">
-        <v>63.25</v>
+        <v>44.602800000000002</v>
       </c>
       <c r="M156" s="18">
-        <v>143.15</v>
+        <v>81.387799999999999</v>
       </c>
       <c r="N156" s="33">
-        <v>741</v>
+        <v>2100</v>
       </c>
       <c r="O156" s="20" t="s">
-        <v>50</v>
+        <v>683</v>
       </c>
       <c r="P156" s="9" t="s">
         <v>387</v>
       </c>
       <c r="Q156" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="R156" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="S156" s="7" t="s">
-        <v>455</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="R156" s="10"/>
+      <c r="S156" s="7"/>
       <c r="T156" s="11" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="U156" s="7"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A157" s="7" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B157" s="22" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C157" s="25">
         <v>156</v>
       </c>
       <c r="D157" s="28"/>
       <c r="E157" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>651</v>
+      </c>
       <c r="H157" s="7"/>
-      <c r="I157" s="8">
-        <v>24585</v>
-      </c>
-      <c r="J157" s="7">
-        <v>99999</v>
-      </c>
-      <c r="K157" s="11"/>
+      <c r="I157" s="8"/>
+      <c r="J157" s="7"/>
+      <c r="K157" s="11">
+        <v>54287</v>
+      </c>
       <c r="L157" s="18">
-        <v>64.55</v>
+        <v>42.028300000000002</v>
       </c>
       <c r="M157" s="18">
-        <v>144.4</v>
+        <v>128.06780000000001</v>
       </c>
       <c r="N157" s="33">
-        <v>518.52</v>
+        <v>2620</v>
       </c>
       <c r="O157" s="20" t="s">
-        <v>540</v>
+        <v>652</v>
       </c>
       <c r="P157" s="9" t="s">
         <v>387</v>
       </c>
       <c r="Q157" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="R157" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="S157" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="T157" s="11"/>
+        <v>372</v>
+      </c>
+      <c r="R157" s="10"/>
+      <c r="S157" s="7"/>
+      <c r="T157" s="11" t="s">
+        <v>508</v>
+      </c>
       <c r="U157" s="7"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A158" s="7" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B158" s="22" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C158" s="25">
         <v>157</v>
       </c>
       <c r="D158" s="28"/>
       <c r="E158" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F158" s="7"/>
-      <c r="G158" s="7"/>
+        <v>133</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>687</v>
+      </c>
       <c r="H158" s="7"/>
-      <c r="I158" s="8">
-        <v>24588</v>
-      </c>
-      <c r="J158" s="7">
-        <v>99999</v>
-      </c>
-      <c r="K158" s="11"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="11" t="s">
+        <v>685</v>
+      </c>
       <c r="L158" s="18">
-        <v>64.05</v>
+        <v>33.043300000000002</v>
       </c>
       <c r="M158" s="18">
-        <v>141.8833333</v>
+        <v>103.9308</v>
       </c>
       <c r="N158" s="33">
-        <v>589.71</v>
+        <v>3099</v>
       </c>
       <c r="O158" s="20" t="s">
-        <v>541</v>
+        <v>684</v>
       </c>
       <c r="P158" s="9" t="s">
         <v>387</v>
       </c>
       <c r="Q158" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="R158" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="S158" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="T158" s="11"/>
+        <v>286</v>
+      </c>
+      <c r="R158" s="10"/>
+      <c r="S158" s="7"/>
+      <c r="T158" s="11" t="s">
+        <v>508</v>
+      </c>
       <c r="U158" s="7"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A159" s="7" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B159" s="22" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C159" s="25">
         <v>158</v>
       </c>
       <c r="D159" s="28"/>
       <c r="E159" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>693</v>
+      </c>
       <c r="H159" s="7"/>
-      <c r="I159" s="8">
-        <v>24691</v>
-      </c>
-      <c r="J159" s="7">
-        <v>99999</v>
-      </c>
-      <c r="K159" s="11"/>
+      <c r="I159" s="8"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="11" t="s">
+        <v>691</v>
+      </c>
       <c r="L159" s="18">
-        <v>63.8333333</v>
+        <v>29.041899999999998</v>
       </c>
       <c r="M159" s="18">
-        <v>145.6</v>
+        <v>110.4725</v>
       </c>
       <c r="N159" s="33">
-        <v>800.92</v>
+        <v>1443.4</v>
       </c>
       <c r="O159" s="20" t="s">
-        <v>543</v>
+        <v>694</v>
       </c>
       <c r="P159" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="Q159" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="R159" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="S159" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="T159" s="11"/>
+      <c r="Q159" s="7"/>
+      <c r="R159" s="10"/>
+      <c r="S159" s="7"/>
+      <c r="T159" s="11" t="s">
+        <v>508</v>
+      </c>
       <c r="U159" s="7"/>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A160" s="7" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B160" s="22" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C160" s="25">
         <v>159</v>
       </c>
       <c r="D160" s="28"/>
       <c r="E160" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F160" s="7"/>
-      <c r="G160" s="7"/>
+        <v>202</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>689</v>
+      </c>
       <c r="H160" s="7"/>
-      <c r="I160" s="8">
-        <v>24266</v>
-      </c>
-      <c r="J160" s="7">
-        <v>99999</v>
-      </c>
-      <c r="K160" s="11"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="11">
+        <v>58437</v>
+      </c>
       <c r="L160" s="18">
-        <v>67.566666600000005</v>
+        <v>30.134699999999999</v>
       </c>
       <c r="M160" s="18">
-        <v>133.4</v>
+        <v>118.16419999999999</v>
       </c>
       <c r="N160" s="33">
-        <v>138</v>
+        <v>1839.7</v>
       </c>
       <c r="O160" s="20" t="s">
-        <v>544</v>
+        <v>690</v>
       </c>
       <c r="P160" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="Q160" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="R160" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="S160" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="T160" s="11"/>
+      <c r="Q160" s="7"/>
+      <c r="R160" s="10"/>
+      <c r="S160" s="7"/>
+      <c r="T160" s="11" t="s">
+        <v>508</v>
+      </c>
       <c r="U160" s="7"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A161" s="7" t="s">
         <v>41</v>
       </c>
@@ -11143,35 +11496,39 @@
       <c r="G161" s="7"/>
       <c r="H161" s="7"/>
       <c r="I161" s="8">
-        <v>24684</v>
+        <v>31137</v>
       </c>
       <c r="J161" s="7">
         <v>99999</v>
       </c>
       <c r="K161" s="11"/>
       <c r="L161" s="18">
-        <v>63.3333333</v>
+        <v>56.283333300000002</v>
       </c>
       <c r="M161" s="18">
-        <v>141.7333333</v>
+        <v>131.1333333</v>
       </c>
       <c r="N161" s="33">
-        <v>776.93</v>
+        <v>850</v>
       </c>
       <c r="O161" s="20" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="P161" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="Q161" s="7"/>
+      <c r="Q161" s="7" t="s">
+        <v>324</v>
+      </c>
       <c r="R161" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S161" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="T161" s="11"/>
+        <v>454</v>
+      </c>
+      <c r="T161" s="11" t="s">
+        <v>479</v>
+      </c>
       <c r="U161" s="7"/>
     </row>
     <row r="162" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
@@ -11192,37 +11549,39 @@
       <c r="G162" s="7"/>
       <c r="H162" s="7"/>
       <c r="I162" s="8">
-        <v>24382</v>
+        <v>24688</v>
       </c>
       <c r="J162" s="7">
         <v>99999</v>
       </c>
       <c r="K162" s="11"/>
       <c r="L162" s="18">
-        <v>66.45</v>
+        <v>63.25</v>
       </c>
       <c r="M162" s="18">
-        <v>143.2333333</v>
+        <v>143.15</v>
       </c>
       <c r="N162" s="33">
-        <v>196</v>
+        <v>741</v>
       </c>
       <c r="O162" s="20" t="s">
-        <v>555</v>
+        <v>50</v>
       </c>
       <c r="P162" s="9" t="s">
         <v>387</v>
       </c>
       <c r="Q162" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="R162" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S162" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="T162" s="11"/>
+        <v>455</v>
+      </c>
+      <c r="T162" s="11" t="s">
+        <v>479</v>
+      </c>
       <c r="U162" s="7"/>
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.4">
@@ -11243,35 +11602,35 @@
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
       <c r="I163" s="8">
-        <v>24959</v>
+        <v>24585</v>
       </c>
       <c r="J163" s="7">
         <v>99999</v>
       </c>
       <c r="K163" s="11"/>
       <c r="L163" s="18">
-        <v>62.016666600000001</v>
+        <v>64.55</v>
       </c>
       <c r="M163" s="18">
-        <v>129.7166666</v>
+        <v>144.4</v>
       </c>
       <c r="N163" s="33">
-        <v>101</v>
+        <v>518.52</v>
       </c>
       <c r="O163" s="20" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="P163" s="9" t="s">
         <v>387</v>
       </c>
       <c r="Q163" s="7" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="R163" s="10" t="s">
         <v>384</v>
       </c>
       <c r="S163" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="T163" s="11"/>
       <c r="U163" s="7"/>
@@ -11294,39 +11653,41 @@
       <c r="G164" s="7"/>
       <c r="H164" s="7"/>
       <c r="I164" s="8">
-        <v>24477</v>
+        <v>24588</v>
       </c>
       <c r="J164" s="7">
         <v>99999</v>
       </c>
       <c r="K164" s="11"/>
       <c r="L164" s="18">
-        <v>65.3</v>
+        <v>64.05</v>
       </c>
       <c r="M164" s="18">
-        <v>135.80000000000001</v>
+        <v>141.8833333</v>
       </c>
       <c r="N164" s="33">
-        <v>674.86</v>
+        <v>589.71</v>
       </c>
       <c r="O164" s="20" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="P164" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="Q164" s="7"/>
+      <c r="Q164" s="7" t="s">
+        <v>558</v>
+      </c>
       <c r="R164" s="10" t="s">
         <v>384</v>
       </c>
       <c r="S164" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="T164" s="11"/>
       <c r="U164" s="7"/>
     </row>
-    <row r="165" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A165" s="14" t="s">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A165" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B165" s="22" t="s">
@@ -11336,48 +11697,48 @@
         <v>164</v>
       </c>
       <c r="D165" s="28"/>
-      <c r="E165" s="14" t="s">
-        <v>576</v>
-      </c>
-      <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
-      <c r="H165" s="14"/>
+      <c r="E165" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
       <c r="I165" s="8">
-        <v>25428</v>
+        <v>24691</v>
       </c>
       <c r="J165" s="7">
         <v>99999</v>
       </c>
-      <c r="K165" s="15"/>
+      <c r="K165" s="11"/>
       <c r="L165" s="18">
-        <v>65.233333299999998</v>
+        <v>63.8333333</v>
       </c>
       <c r="M165" s="18">
-        <v>160.53333330000001</v>
+        <v>145.6</v>
       </c>
       <c r="N165" s="33">
-        <v>264</v>
+        <v>800.92</v>
       </c>
       <c r="O165" s="20" t="s">
-        <v>577</v>
+        <v>543</v>
       </c>
       <c r="P165" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="Q165" s="14" t="s">
-        <v>578</v>
+      <c r="Q165" s="7" t="s">
+        <v>560</v>
       </c>
       <c r="R165" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="S165" s="14" t="s">
-        <v>579</v>
+      <c r="S165" s="7" t="s">
+        <v>551</v>
       </c>
       <c r="T165" s="11"/>
       <c r="U165" s="7"/>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A166" s="14" t="s">
+      <c r="A166" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B166" s="22" t="s">
@@ -11387,48 +11748,48 @@
         <v>165</v>
       </c>
       <c r="D166" s="28"/>
-      <c r="E166" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
-      <c r="H166" s="14"/>
+      <c r="E166" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
       <c r="I166" s="8">
-        <v>25700</v>
+        <v>24266</v>
       </c>
       <c r="J166" s="7">
         <v>99999</v>
       </c>
-      <c r="K166" s="15"/>
+      <c r="K166" s="11"/>
       <c r="L166" s="18">
-        <v>62.8</v>
+        <v>67.566666600000005</v>
       </c>
       <c r="M166" s="18">
-        <v>150.66666660000001</v>
+        <v>133.4</v>
       </c>
       <c r="N166" s="33">
-        <v>312.39999999999998</v>
+        <v>138</v>
       </c>
       <c r="O166" s="20" t="s">
-        <v>581</v>
+        <v>544</v>
       </c>
       <c r="P166" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="Q166" s="14" t="s">
-        <v>582</v>
+      <c r="Q166" s="7" t="s">
+        <v>559</v>
       </c>
       <c r="R166" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="S166" s="14" t="s">
-        <v>583</v>
+      <c r="S166" s="7" t="s">
+        <v>552</v>
       </c>
       <c r="T166" s="11"/>
       <c r="U166" s="7"/>
     </row>
-    <row r="167" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A167" s="14" t="s">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A167" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B167" s="22" t="s">
@@ -11438,181 +11799,345 @@
         <v>166</v>
       </c>
       <c r="D167" s="28"/>
-      <c r="E167" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
-      <c r="H167" s="14"/>
+      <c r="E167" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
       <c r="I167" s="8">
-        <v>24507</v>
+        <v>24684</v>
       </c>
       <c r="J167" s="7">
         <v>99999</v>
       </c>
-      <c r="K167" s="15"/>
+      <c r="K167" s="11"/>
       <c r="L167" s="18">
-        <v>64.266666599999994</v>
+        <v>63.3333333</v>
       </c>
       <c r="M167" s="18">
-        <v>100.2333333</v>
+        <v>141.7333333</v>
       </c>
       <c r="N167" s="33">
-        <v>168</v>
+        <v>776.93</v>
       </c>
       <c r="O167" s="20" t="s">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="P167" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="Q167" s="14" t="s">
-        <v>587</v>
-      </c>
+      <c r="Q167" s="7"/>
       <c r="R167" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="S167" s="14" t="s">
-        <v>585</v>
+      <c r="S167" s="7" t="s">
+        <v>553</v>
       </c>
       <c r="T167" s="11"/>
       <c r="U167" s="7"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A168" s="14"/>
-      <c r="B168" s="22"/>
-      <c r="C168" s="25"/>
+    <row r="168" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A168" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B168" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="C168" s="25">
+        <v>167</v>
+      </c>
       <c r="D168" s="28"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
-      <c r="H168" s="14"/>
-      <c r="I168" s="8"/>
-      <c r="J168" s="14"/>
-      <c r="K168" s="15"/>
-      <c r="L168" s="18"/>
-      <c r="M168" s="18"/>
-      <c r="N168" s="33"/>
-      <c r="O168" s="20"/>
-      <c r="P168" s="9"/>
-      <c r="Q168" s="14"/>
-      <c r="R168" s="10"/>
-      <c r="S168" s="14"/>
+      <c r="E168" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="8">
+        <v>24382</v>
+      </c>
+      <c r="J168" s="7">
+        <v>99999</v>
+      </c>
+      <c r="K168" s="11"/>
+      <c r="L168" s="18">
+        <v>66.45</v>
+      </c>
+      <c r="M168" s="18">
+        <v>143.2333333</v>
+      </c>
+      <c r="N168" s="33">
+        <v>196</v>
+      </c>
+      <c r="O168" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="P168" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q168" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="R168" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="S168" s="7" t="s">
+        <v>554</v>
+      </c>
       <c r="T168" s="11"/>
       <c r="U168" s="7"/>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A169" s="14"/>
-      <c r="B169" s="22"/>
-      <c r="C169" s="25"/>
+      <c r="A169" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B169" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="C169" s="25">
+        <v>168</v>
+      </c>
       <c r="D169" s="28"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="14"/>
-      <c r="G169" s="14"/>
-      <c r="H169" s="14"/>
-      <c r="I169" s="8"/>
-      <c r="J169" s="14"/>
-      <c r="K169" s="15"/>
-      <c r="L169" s="18"/>
-      <c r="M169" s="18"/>
-      <c r="N169" s="33"/>
-      <c r="O169" s="20"/>
-      <c r="P169" s="9"/>
-      <c r="Q169" s="14"/>
-      <c r="R169" s="10"/>
-      <c r="S169" s="14"/>
+      <c r="E169" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="8">
+        <v>24959</v>
+      </c>
+      <c r="J169" s="7">
+        <v>99999</v>
+      </c>
+      <c r="K169" s="11"/>
+      <c r="L169" s="18">
+        <v>62.016666600000001</v>
+      </c>
+      <c r="M169" s="18">
+        <v>129.7166666</v>
+      </c>
+      <c r="N169" s="33">
+        <v>101</v>
+      </c>
+      <c r="O169" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="P169" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q169" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="R169" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="S169" s="7" t="s">
+        <v>556</v>
+      </c>
       <c r="T169" s="11"/>
       <c r="U169" s="7"/>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A170" s="14"/>
-      <c r="B170" s="22"/>
-      <c r="C170" s="25"/>
+      <c r="A170" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B170" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="C170" s="25">
+        <v>169</v>
+      </c>
       <c r="D170" s="28"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="14"/>
-      <c r="G170" s="14"/>
-      <c r="H170" s="14"/>
-      <c r="I170" s="8"/>
-      <c r="J170" s="14"/>
-      <c r="K170" s="15"/>
-      <c r="L170" s="18"/>
-      <c r="M170" s="18"/>
-      <c r="N170" s="33"/>
-      <c r="O170" s="20"/>
-      <c r="P170" s="9"/>
-      <c r="Q170" s="14"/>
-      <c r="R170" s="10"/>
-      <c r="S170" s="14"/>
+      <c r="E170" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="8">
+        <v>24477</v>
+      </c>
+      <c r="J170" s="7">
+        <v>99999</v>
+      </c>
+      <c r="K170" s="11"/>
+      <c r="L170" s="18">
+        <v>65.3</v>
+      </c>
+      <c r="M170" s="18">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="N170" s="33">
+        <v>674.86</v>
+      </c>
+      <c r="O170" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="P170" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q170" s="7"/>
+      <c r="R170" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="S170" s="7" t="s">
+        <v>557</v>
+      </c>
       <c r="T170" s="11"/>
       <c r="U170" s="7"/>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A171" s="14"/>
-      <c r="B171" s="22"/>
-      <c r="C171" s="25"/>
+    <row r="171" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A171" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B171" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="C171" s="25">
+        <v>170</v>
+      </c>
       <c r="D171" s="28"/>
-      <c r="E171" s="14"/>
+      <c r="E171" s="14" t="s">
+        <v>576</v>
+      </c>
       <c r="F171" s="14"/>
       <c r="G171" s="14"/>
       <c r="H171" s="14"/>
-      <c r="I171" s="8"/>
-      <c r="J171" s="14"/>
+      <c r="I171" s="8">
+        <v>25428</v>
+      </c>
+      <c r="J171" s="7">
+        <v>99999</v>
+      </c>
       <c r="K171" s="15"/>
-      <c r="L171" s="18"/>
-      <c r="M171" s="18"/>
-      <c r="N171" s="33"/>
-      <c r="O171" s="20"/>
-      <c r="P171" s="9"/>
-      <c r="Q171" s="14"/>
-      <c r="R171" s="10"/>
-      <c r="S171" s="14"/>
+      <c r="L171" s="18">
+        <v>65.233333299999998</v>
+      </c>
+      <c r="M171" s="18">
+        <v>160.53333330000001</v>
+      </c>
+      <c r="N171" s="33">
+        <v>264</v>
+      </c>
+      <c r="O171" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="P171" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q171" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="R171" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="S171" s="14" t="s">
+        <v>579</v>
+      </c>
       <c r="T171" s="11"/>
       <c r="U171" s="7"/>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A172" s="14"/>
-      <c r="B172" s="22"/>
-      <c r="C172" s="25"/>
+      <c r="A172" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B172" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="C172" s="25">
+        <v>171</v>
+      </c>
       <c r="D172" s="28"/>
-      <c r="E172" s="14"/>
+      <c r="E172" s="14" t="s">
+        <v>580</v>
+      </c>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
       <c r="H172" s="14"/>
-      <c r="I172" s="8"/>
-      <c r="J172" s="14"/>
+      <c r="I172" s="8">
+        <v>25700</v>
+      </c>
+      <c r="J172" s="7">
+        <v>99999</v>
+      </c>
       <c r="K172" s="15"/>
-      <c r="L172" s="18"/>
-      <c r="M172" s="18"/>
-      <c r="N172" s="33"/>
-      <c r="O172" s="20"/>
-      <c r="P172" s="9"/>
-      <c r="Q172" s="14"/>
-      <c r="R172" s="10"/>
-      <c r="S172" s="14"/>
+      <c r="L172" s="18">
+        <v>62.8</v>
+      </c>
+      <c r="M172" s="18">
+        <v>150.66666660000001</v>
+      </c>
+      <c r="N172" s="33">
+        <v>312.39999999999998</v>
+      </c>
+      <c r="O172" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="P172" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q172" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="R172" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="S172" s="14" t="s">
+        <v>583</v>
+      </c>
       <c r="T172" s="11"/>
       <c r="U172" s="7"/>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A173" s="14"/>
-      <c r="B173" s="22"/>
-      <c r="C173" s="25"/>
+    <row r="173" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A173" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B173" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="C173" s="25">
+        <v>172</v>
+      </c>
       <c r="D173" s="28"/>
-      <c r="E173" s="14"/>
+      <c r="E173" s="14" t="s">
+        <v>584</v>
+      </c>
       <c r="F173" s="14"/>
       <c r="G173" s="14"/>
       <c r="H173" s="14"/>
-      <c r="I173" s="8"/>
-      <c r="J173" s="14"/>
+      <c r="I173" s="8">
+        <v>24507</v>
+      </c>
+      <c r="J173" s="7">
+        <v>99999</v>
+      </c>
       <c r="K173" s="15"/>
-      <c r="L173" s="18"/>
-      <c r="M173" s="18"/>
-      <c r="N173" s="33"/>
-      <c r="O173" s="20"/>
-      <c r="P173" s="9"/>
-      <c r="Q173" s="14"/>
-      <c r="R173" s="10"/>
-      <c r="S173" s="14"/>
+      <c r="L173" s="18">
+        <v>64.266666599999994</v>
+      </c>
+      <c r="M173" s="18">
+        <v>100.2333333</v>
+      </c>
+      <c r="N173" s="33">
+        <v>168</v>
+      </c>
+      <c r="O173" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="P173" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q173" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="R173" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="S173" s="14" t="s">
+        <v>585</v>
+      </c>
       <c r="T173" s="11"/>
       <c r="U173" s="7"/>
     </row>
@@ -11708,21 +12233,159 @@
       <c r="T177" s="11"/>
       <c r="U177" s="7"/>
     </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A178" s="14"/>
+      <c r="B178" s="22"/>
+      <c r="C178" s="25"/>
+      <c r="D178" s="28"/>
+      <c r="E178" s="14"/>
+      <c r="F178" s="14"/>
+      <c r="G178" s="14"/>
+      <c r="H178" s="14"/>
+      <c r="I178" s="8"/>
+      <c r="J178" s="14"/>
+      <c r="K178" s="15"/>
+      <c r="L178" s="18"/>
+      <c r="M178" s="18"/>
+      <c r="N178" s="33"/>
+      <c r="O178" s="20"/>
+      <c r="P178" s="9"/>
+      <c r="Q178" s="14"/>
+      <c r="R178" s="10"/>
+      <c r="S178" s="14"/>
+      <c r="T178" s="11"/>
+      <c r="U178" s="7"/>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A179" s="14"/>
+      <c r="B179" s="22"/>
+      <c r="C179" s="25"/>
+      <c r="D179" s="28"/>
+      <c r="E179" s="14"/>
+      <c r="F179" s="14"/>
+      <c r="G179" s="14"/>
+      <c r="H179" s="14"/>
+      <c r="I179" s="8"/>
+      <c r="J179" s="14"/>
+      <c r="K179" s="15"/>
+      <c r="L179" s="18"/>
+      <c r="M179" s="18"/>
+      <c r="N179" s="33"/>
+      <c r="O179" s="20"/>
+      <c r="P179" s="9"/>
+      <c r="Q179" s="14"/>
+      <c r="R179" s="10"/>
+      <c r="S179" s="14"/>
+      <c r="T179" s="11"/>
+      <c r="U179" s="7"/>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A180" s="14"/>
+      <c r="B180" s="22"/>
+      <c r="C180" s="25"/>
+      <c r="D180" s="28"/>
+      <c r="E180" s="14"/>
+      <c r="F180" s="14"/>
+      <c r="G180" s="14"/>
+      <c r="H180" s="14"/>
+      <c r="I180" s="8"/>
+      <c r="J180" s="14"/>
+      <c r="K180" s="15"/>
+      <c r="L180" s="18"/>
+      <c r="M180" s="18"/>
+      <c r="N180" s="33"/>
+      <c r="O180" s="20"/>
+      <c r="P180" s="9"/>
+      <c r="Q180" s="14"/>
+      <c r="R180" s="10"/>
+      <c r="S180" s="14"/>
+      <c r="T180" s="11"/>
+      <c r="U180" s="7"/>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A181" s="14"/>
+      <c r="B181" s="22"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="28"/>
+      <c r="E181" s="14"/>
+      <c r="F181" s="14"/>
+      <c r="G181" s="14"/>
+      <c r="H181" s="14"/>
+      <c r="I181" s="8"/>
+      <c r="J181" s="14"/>
+      <c r="K181" s="15"/>
+      <c r="L181" s="18"/>
+      <c r="M181" s="18"/>
+      <c r="N181" s="33"/>
+      <c r="O181" s="20"/>
+      <c r="P181" s="9"/>
+      <c r="Q181" s="14"/>
+      <c r="R181" s="10"/>
+      <c r="S181" s="14"/>
+      <c r="T181" s="11"/>
+      <c r="U181" s="7"/>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A182" s="14"/>
+      <c r="B182" s="22"/>
+      <c r="C182" s="25"/>
+      <c r="D182" s="28"/>
+      <c r="E182" s="14"/>
+      <c r="F182" s="14"/>
+      <c r="G182" s="14"/>
+      <c r="H182" s="14"/>
+      <c r="I182" s="8"/>
+      <c r="J182" s="14"/>
+      <c r="K182" s="15"/>
+      <c r="L182" s="18"/>
+      <c r="M182" s="18"/>
+      <c r="N182" s="33"/>
+      <c r="O182" s="20"/>
+      <c r="P182" s="9"/>
+      <c r="Q182" s="14"/>
+      <c r="R182" s="10"/>
+      <c r="S182" s="14"/>
+      <c r="T182" s="11"/>
+      <c r="U182" s="7"/>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A183" s="14"/>
+      <c r="B183" s="22"/>
+      <c r="C183" s="25"/>
+      <c r="D183" s="28"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="14"/>
+      <c r="G183" s="14"/>
+      <c r="H183" s="14"/>
+      <c r="I183" s="8"/>
+      <c r="J183" s="14"/>
+      <c r="K183" s="15"/>
+      <c r="L183" s="18"/>
+      <c r="M183" s="18"/>
+      <c r="N183" s="33"/>
+      <c r="O183" s="20"/>
+      <c r="P183" s="9"/>
+      <c r="Q183" s="14"/>
+      <c r="R183" s="10"/>
+      <c r="S183" s="14"/>
+      <c r="T183" s="11"/>
+      <c r="U183" s="7"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8ZsLr6DtQiMl7DZprt1MUFFsYCBEmeRnrmK5XKs1Q8MXQ2bBfBCFTfeVtzK6eVTZRbYwCPvqDYZooJ+3h6n+Gw==" saltValue="e8cz6leaR1rM2yaZbM7JjQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:U167" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U167">
-      <sortCondition ref="C1:C167"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FgzfYNDq6VKnVHytcpZkjcZCjaTKEU3+kLzDw6B7Wp2E+RmOmQ8e7P6bWMv6NSfJZn8ieDMUVwhRb6xJm8a9MQ==" saltValue="ZGCZ+dlwvqhXNTTwiOnbog==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A1:U173" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U173">
+      <sortCondition ref="C1:C173"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U164">
-    <sortCondition ref="C2:C164"/>
-    <sortCondition ref="B2:B164"/>
-    <sortCondition ref="E2:E164"/>
-    <sortCondition ref="F2:F164"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U170">
+    <sortCondition ref="C2:C170"/>
+    <sortCondition ref="B2:B170"/>
+    <sortCondition ref="E2:E170"/>
+    <sortCondition ref="F2:F170"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:U177">
+  <conditionalFormatting sqref="A2:U183">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>IF(MOD(ROW(), 2), 0, 1)</formula>
     </cfRule>
@@ -11733,6 +12396,802 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D00824-2C22-4F26-B982-1BC5BFD1F8BD}">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.59765625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" style="40"/>
+    <col min="3" max="4" width="16.59765625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" style="57" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" style="41"/>
+    <col min="7" max="7" width="10.59765625" style="41" customWidth="1"/>
+    <col min="8" max="8" width="20.59765625" style="54" customWidth="1"/>
+    <col min="9" max="9" width="9.06640625" style="54"/>
+    <col min="10" max="10" width="16.59765625" style="42" customWidth="1"/>
+    <col min="11" max="16384" width="9.06640625" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="48" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="47" t="s">
+        <v>635</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>638</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>640</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>639</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>636</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>646</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>642</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="45" t="s">
+        <v>637</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>641</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>643</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>644</v>
+      </c>
+      <c r="F2" s="51">
+        <v>38.183900000000001</v>
+      </c>
+      <c r="G2" s="51">
+        <v>97.593900000000005</v>
+      </c>
+      <c r="H2" s="53">
+        <f t="shared" ref="H2:H21" si="0">F2</f>
+        <v>38.183900000000001</v>
+      </c>
+      <c r="I2" s="53">
+        <v>4103</v>
+      </c>
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>648</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>649</v>
+      </c>
+      <c r="F3" s="51">
+        <v>33.8431</v>
+      </c>
+      <c r="G3" s="51">
+        <v>89.069199999999995</v>
+      </c>
+      <c r="H3" s="53">
+        <f t="shared" si="0"/>
+        <v>33.8431</v>
+      </c>
+      <c r="I3" s="53">
+        <v>5389.6</v>
+      </c>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="45">
+        <v>54287</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>650</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>651</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>652</v>
+      </c>
+      <c r="F4" s="51">
+        <v>42.028300000000002</v>
+      </c>
+      <c r="G4" s="51">
+        <v>128.06780000000001</v>
+      </c>
+      <c r="H4" s="53">
+        <f t="shared" si="0"/>
+        <v>42.028300000000002</v>
+      </c>
+      <c r="I4" s="53">
+        <v>2620</v>
+      </c>
+      <c r="J4" s="44"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="45">
+        <v>51468</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>653</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>654</v>
+      </c>
+      <c r="F5" s="51">
+        <v>43.113100000000003</v>
+      </c>
+      <c r="G5" s="51">
+        <v>86.843100000000007</v>
+      </c>
+      <c r="H5" s="53">
+        <f t="shared" si="0"/>
+        <v>43.113100000000003</v>
+      </c>
+      <c r="I5" s="53">
+        <v>3540.5</v>
+      </c>
+      <c r="J5" s="44"/>
+    </row>
+    <row r="6" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="45" t="s">
+        <v>655</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>656</v>
+      </c>
+      <c r="F6" s="51">
+        <v>47.168100000000003</v>
+      </c>
+      <c r="G6" s="51">
+        <v>90.090299999999999</v>
+      </c>
+      <c r="H6" s="53">
+        <f t="shared" si="0"/>
+        <v>47.168100000000003</v>
+      </c>
+      <c r="I6" s="53">
+        <v>3084</v>
+      </c>
+      <c r="J6" s="44"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="45" t="s">
+        <v>657</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>658</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>659</v>
+      </c>
+      <c r="F7" s="51">
+        <v>47.138100000000001</v>
+      </c>
+      <c r="G7" s="51">
+        <v>85.597499999999997</v>
+      </c>
+      <c r="H7" s="53">
+        <f t="shared" si="0"/>
+        <v>47.138100000000001</v>
+      </c>
+      <c r="I7" s="53">
+        <v>2914</v>
+      </c>
+      <c r="J7" s="44"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>661</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="F8" s="51">
+        <v>48.089700000000001</v>
+      </c>
+      <c r="G8" s="51">
+        <v>88.930300000000003</v>
+      </c>
+      <c r="H8" s="53">
+        <f t="shared" si="0"/>
+        <v>48.089700000000001</v>
+      </c>
+      <c r="I8" s="53">
+        <v>1956</v>
+      </c>
+      <c r="J8" s="44"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="45" t="s">
+        <v>665</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>664</v>
+      </c>
+      <c r="F9" s="51">
+        <v>48.721699999999998</v>
+      </c>
+      <c r="G9" s="51">
+        <v>87.030600000000007</v>
+      </c>
+      <c r="H9" s="53">
+        <f t="shared" si="0"/>
+        <v>48.721699999999998</v>
+      </c>
+      <c r="I9" s="53">
+        <v>1367</v>
+      </c>
+      <c r="J9" s="44"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="45" t="s">
+        <v>666</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>663</v>
+      </c>
+      <c r="F10" s="51">
+        <v>48.373899999999999</v>
+      </c>
+      <c r="G10" s="51">
+        <v>87.568600000000004</v>
+      </c>
+      <c r="H10" s="53">
+        <f t="shared" si="0"/>
+        <v>48.373899999999999</v>
+      </c>
+      <c r="I10" s="53">
+        <v>1734</v>
+      </c>
+      <c r="J10" s="44"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="45">
+        <v>51084</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>667</v>
+      </c>
+      <c r="F11" s="51">
+        <v>47.210599999999999</v>
+      </c>
+      <c r="G11" s="51">
+        <v>89.864699999999999</v>
+      </c>
+      <c r="H11" s="53">
+        <f t="shared" si="0"/>
+        <v>47.210599999999999</v>
+      </c>
+      <c r="I11" s="53">
+        <v>1224.5</v>
+      </c>
+      <c r="J11" s="44"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="45" t="s">
+        <v>668</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>669</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>670</v>
+      </c>
+      <c r="F12" s="51">
+        <v>42.716099999999997</v>
+      </c>
+      <c r="G12" s="51">
+        <v>84.128299999999996</v>
+      </c>
+      <c r="H12" s="53">
+        <f t="shared" si="0"/>
+        <v>42.716099999999997</v>
+      </c>
+      <c r="I12" s="53">
+        <v>2412</v>
+      </c>
+      <c r="J12" s="44"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="45" t="s">
+        <v>672</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>669</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>671</v>
+      </c>
+      <c r="F13" s="51">
+        <v>42.715600000000002</v>
+      </c>
+      <c r="G13" s="51">
+        <v>84.271699999999996</v>
+      </c>
+      <c r="H13" s="53">
+        <f t="shared" si="0"/>
+        <v>42.715600000000002</v>
+      </c>
+      <c r="I13" s="53">
+        <v>2404.3000000000002</v>
+      </c>
+      <c r="J13" s="44"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="45" t="s">
+        <v>673</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>669</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>674</v>
+      </c>
+      <c r="F14" s="51">
+        <v>42.831699999999998</v>
+      </c>
+      <c r="G14" s="51">
+        <v>84.348100000000002</v>
+      </c>
+      <c r="H14" s="53">
+        <f t="shared" si="0"/>
+        <v>42.831699999999998</v>
+      </c>
+      <c r="I14" s="53">
+        <v>2408</v>
+      </c>
+      <c r="J14" s="44"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="45">
+        <v>50531</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>675</v>
+      </c>
+      <c r="F15" s="51">
+        <v>50.004399999999997</v>
+      </c>
+      <c r="G15" s="51">
+        <v>121.55970000000001</v>
+      </c>
+      <c r="H15" s="53">
+        <f t="shared" si="0"/>
+        <v>50.004399999999997</v>
+      </c>
+      <c r="I15" s="53">
+        <v>817.4</v>
+      </c>
+      <c r="J15" s="44" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="45" t="s">
+        <v>678</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>676</v>
+      </c>
+      <c r="F16" s="51">
+        <v>50.995800000000003</v>
+      </c>
+      <c r="G16" s="51">
+        <v>121.0483</v>
+      </c>
+      <c r="H16" s="53">
+        <f t="shared" si="0"/>
+        <v>50.995800000000003</v>
+      </c>
+      <c r="I16" s="53">
+        <v>817.2</v>
+      </c>
+      <c r="J16" s="44" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="45" t="s">
+        <v>679</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>680</v>
+      </c>
+      <c r="F17" s="51">
+        <v>50.768099999999997</v>
+      </c>
+      <c r="G17" s="51">
+        <v>121.4786</v>
+      </c>
+      <c r="H17" s="53">
+        <f t="shared" si="0"/>
+        <v>50.768099999999997</v>
+      </c>
+      <c r="I17" s="53">
+        <v>704</v>
+      </c>
+      <c r="J17" s="44" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="45">
+        <v>51337</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>681</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>682</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>683</v>
+      </c>
+      <c r="F18" s="51">
+        <v>44.602800000000002</v>
+      </c>
+      <c r="G18" s="51">
+        <v>81.387799999999999</v>
+      </c>
+      <c r="H18" s="53">
+        <f t="shared" si="0"/>
+        <v>44.602800000000002</v>
+      </c>
+      <c r="I18" s="53">
+        <v>2100</v>
+      </c>
+      <c r="J18" s="44"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>684</v>
+      </c>
+      <c r="F19" s="51">
+        <v>33.043300000000002</v>
+      </c>
+      <c r="G19" s="51">
+        <v>103.9308</v>
+      </c>
+      <c r="H19" s="53">
+        <f t="shared" si="0"/>
+        <v>33.043300000000002</v>
+      </c>
+      <c r="I19" s="53">
+        <v>3099</v>
+      </c>
+      <c r="J19" s="44"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="45">
+        <v>58437</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>689</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>690</v>
+      </c>
+      <c r="F20" s="51">
+        <v>30.134699999999999</v>
+      </c>
+      <c r="G20" s="51">
+        <v>118.16419999999999</v>
+      </c>
+      <c r="H20" s="53">
+        <f t="shared" si="0"/>
+        <v>30.134699999999999</v>
+      </c>
+      <c r="I20" s="53">
+        <v>1839.7</v>
+      </c>
+      <c r="J20" s="44"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="45" t="s">
+        <v>691</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>692</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>693</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>694</v>
+      </c>
+      <c r="F21" s="51">
+        <v>29.041899999999998</v>
+      </c>
+      <c r="G21" s="51">
+        <v>110.4725</v>
+      </c>
+      <c r="H21" s="53">
+        <f t="shared" si="0"/>
+        <v>29.041899999999998</v>
+      </c>
+      <c r="I21" s="53">
+        <v>1443.4</v>
+      </c>
+      <c r="J21" s="44"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="45"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="44"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="45"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="44"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="45"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="44"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="45"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="44"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="45"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="44"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="45"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="44"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="45"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="44"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="45"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="44"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="45"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="44"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="mHBRN4hx8jE+A+Tjrb/jXacMOuYtpGSWDaKzuw3Iv9X9LRFQ67Rdb8DeoEf94S5HoISF35Hyk1teX2lj1/NQzA==" saltValue="BCPBNmpsh9PRMXC4n79uYA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A227A758-FB03-4CE8-A1BE-A7CE81438113}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V22"/>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F21B50E-447C-445B-8266-392C0C4CAA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC738880-D5B1-46B6-B4FC-B3286967FC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="附加国外站点" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">固定站点!$A$1:$U$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">固定站点!$A$1:$U$177</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="713">
   <si>
     <t>USAF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2696,6 +2696,63 @@
   <si>
     <t>阿坝藏族羌族自治州</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承德市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>围场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械林场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘孜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石渠县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德荣玛乡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忻州市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五台县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五台山中台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五台山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆</t>
+  </si>
+  <si>
+    <t>阿勒泰地区</t>
+  </si>
+  <si>
+    <t>富蕴县</t>
   </si>
 </sst>
 </file>
@@ -3429,9 +3486,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U183"/>
+  <dimension ref="A1:U187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -11137,44 +11196,44 @@
       </c>
       <c r="D154" s="28"/>
       <c r="E154" s="7" t="s">
-        <v>68</v>
+        <v>710</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>99</v>
+        <v>711</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H154" s="7" t="s">
-        <v>365</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="H154" s="7"/>
       <c r="I154" s="8"/>
       <c r="J154" s="7"/>
       <c r="K154" s="11" t="s">
-        <v>562</v>
+        <v>655</v>
       </c>
       <c r="L154" s="18">
-        <v>42.828800000000001</v>
+        <v>47.168100000000003</v>
       </c>
       <c r="M154" s="18">
-        <v>83.716099999999997</v>
+        <v>90.090299999999999</v>
       </c>
       <c r="N154" s="33">
-        <v>2465</v>
+        <v>3084</v>
       </c>
       <c r="O154" s="20" t="s">
-        <v>365</v>
+        <v>656</v>
       </c>
       <c r="P154" s="9"/>
       <c r="Q154" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="R154" s="10"/>
       <c r="S154" s="7"/>
-      <c r="T154" s="11"/>
+      <c r="T154" s="11" t="s">
+        <v>508</v>
+      </c>
       <c r="U154" s="7"/>
     </row>
-    <row r="155" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A155" s="7" t="s">
         <v>3</v>
       </c>
@@ -11189,45 +11248,41 @@
         <v>68</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>375</v>
+        <v>100</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="7"/>
       <c r="K155" s="11" t="s">
-        <v>665</v>
+        <v>562</v>
       </c>
       <c r="L155" s="18">
-        <v>48.721699999999998</v>
+        <v>42.828800000000001</v>
       </c>
       <c r="M155" s="18">
-        <v>87.030600000000007</v>
+        <v>83.716099999999997</v>
       </c>
       <c r="N155" s="33">
-        <v>1367</v>
+        <v>2465</v>
       </c>
       <c r="O155" s="20" t="s">
-        <v>664</v>
-      </c>
-      <c r="P155" s="9" t="s">
-        <v>387</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="P155" s="9"/>
       <c r="Q155" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="R155" s="10"/>
       <c r="S155" s="7"/>
-      <c r="T155" s="11" t="s">
-        <v>508</v>
-      </c>
+      <c r="T155" s="11"/>
       <c r="U155" s="7"/>
     </row>
-    <row r="156" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A156" s="7" t="s">
         <v>3</v>
       </c>
@@ -11239,46 +11294,40 @@
       </c>
       <c r="D156" s="28"/>
       <c r="E156" s="7" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="H156" s="7"/>
       <c r="I156" s="8"/>
       <c r="J156" s="7"/>
-      <c r="K156" s="11">
-        <v>51337</v>
+      <c r="K156" s="11" t="s">
+        <v>700</v>
       </c>
       <c r="L156" s="18">
-        <v>44.602800000000002</v>
+        <v>42.410299999999999</v>
       </c>
       <c r="M156" s="18">
-        <v>81.387799999999999</v>
+        <v>117.24939999999999</v>
       </c>
       <c r="N156" s="33">
-        <v>2100</v>
+        <v>1506.5</v>
       </c>
       <c r="O156" s="20" t="s">
-        <v>683</v>
-      </c>
-      <c r="P156" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q156" s="7" t="s">
-        <v>290</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="P156" s="9"/>
+      <c r="Q156" s="7"/>
       <c r="R156" s="10"/>
       <c r="S156" s="7"/>
-      <c r="T156" s="11" t="s">
-        <v>508</v>
-      </c>
+      <c r="T156" s="11"/>
       <c r="U156" s="7"/>
     </row>
-    <row r="157" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A157" s="7" t="s">
         <v>3</v>
       </c>
@@ -11290,37 +11339,35 @@
       </c>
       <c r="D157" s="28"/>
       <c r="E157" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>651</v>
+        <v>707</v>
       </c>
       <c r="H157" s="7"/>
       <c r="I157" s="8"/>
       <c r="J157" s="7"/>
       <c r="K157" s="11">
-        <v>54287</v>
+        <v>53589</v>
       </c>
       <c r="L157" s="18">
-        <v>42.028300000000002</v>
+        <v>39.049199999999999</v>
       </c>
       <c r="M157" s="18">
-        <v>128.06780000000001</v>
+        <v>113.5278</v>
       </c>
       <c r="N157" s="33">
-        <v>2620</v>
+        <v>2889</v>
       </c>
       <c r="O157" s="20" t="s">
-        <v>652</v>
-      </c>
-      <c r="P157" s="9" t="s">
-        <v>387</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="P157" s="9"/>
       <c r="Q157" s="7" t="s">
-        <v>372</v>
+        <v>709</v>
       </c>
       <c r="R157" s="10"/>
       <c r="S157" s="7"/>
@@ -11329,7 +11376,7 @@
       </c>
       <c r="U157" s="7"/>
     </row>
-    <row r="158" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A158" s="7" t="s">
         <v>3</v>
       </c>
@@ -11344,43 +11391,39 @@
         <v>133</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="H158" s="7"/>
       <c r="I158" s="8"/>
       <c r="J158" s="7"/>
       <c r="K158" s="11" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
       <c r="L158" s="18">
-        <v>33.043300000000002</v>
+        <v>33.0672</v>
       </c>
       <c r="M158" s="18">
-        <v>103.9308</v>
+        <v>97.971100000000007</v>
       </c>
       <c r="N158" s="33">
-        <v>3099</v>
+        <v>4186</v>
       </c>
       <c r="O158" s="20" t="s">
-        <v>684</v>
-      </c>
-      <c r="P158" s="9" t="s">
-        <v>387</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="P158" s="9"/>
       <c r="Q158" s="7" t="s">
         <v>286</v>
       </c>
       <c r="R158" s="10"/>
       <c r="S158" s="7"/>
-      <c r="T158" s="11" t="s">
-        <v>508</v>
-      </c>
+      <c r="T158" s="11"/>
       <c r="U158" s="7"/>
     </row>
-    <row r="159" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A159" s="7" t="s">
         <v>3</v>
       </c>
@@ -11392,31 +11435,31 @@
       </c>
       <c r="D159" s="28"/>
       <c r="E159" s="7" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="H159" s="7"/>
       <c r="I159" s="8"/>
       <c r="J159" s="7"/>
-      <c r="K159" s="11" t="s">
-        <v>691</v>
+      <c r="K159" s="11">
+        <v>58437</v>
       </c>
       <c r="L159" s="18">
-        <v>29.041899999999998</v>
+        <v>30.134699999999999</v>
       </c>
       <c r="M159" s="18">
-        <v>110.4725</v>
+        <v>118.16419999999999</v>
       </c>
       <c r="N159" s="33">
-        <v>1443.4</v>
+        <v>1839.7</v>
       </c>
       <c r="O159" s="20" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="P159" s="9" t="s">
         <v>387</v>
@@ -11429,7 +11472,7 @@
       </c>
       <c r="U159" s="7"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A160" s="7" t="s">
         <v>3</v>
       </c>
@@ -11441,36 +11484,38 @@
       </c>
       <c r="D160" s="28"/>
       <c r="E160" s="7" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>689</v>
+        <v>651</v>
       </c>
       <c r="H160" s="7"/>
       <c r="I160" s="8"/>
       <c r="J160" s="7"/>
       <c r="K160" s="11">
-        <v>58437</v>
+        <v>54287</v>
       </c>
       <c r="L160" s="18">
-        <v>30.134699999999999</v>
+        <v>42.028300000000002</v>
       </c>
       <c r="M160" s="18">
-        <v>118.16419999999999</v>
+        <v>128.06780000000001</v>
       </c>
       <c r="N160" s="33">
-        <v>1839.7</v>
+        <v>2620</v>
       </c>
       <c r="O160" s="20" t="s">
-        <v>690</v>
+        <v>652</v>
       </c>
       <c r="P160" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="Q160" s="7"/>
+      <c r="Q160" s="7" t="s">
+        <v>372</v>
+      </c>
       <c r="R160" s="10"/>
       <c r="S160" s="7"/>
       <c r="T160" s="11" t="s">
@@ -11478,215 +11523,211 @@
       </c>
       <c r="U160" s="7"/>
     </row>
-    <row r="161" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A161" s="7" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B161" s="22" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C161" s="25">
         <v>160</v>
       </c>
       <c r="D161" s="28"/>
       <c r="E161" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F161" s="7"/>
-      <c r="G161" s="7"/>
-      <c r="H161" s="7"/>
-      <c r="I161" s="8">
-        <v>31137</v>
-      </c>
-      <c r="J161" s="7">
-        <v>99999</v>
-      </c>
-      <c r="K161" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="I161" s="8"/>
+      <c r="J161" s="7"/>
+      <c r="K161" s="11" t="s">
+        <v>665</v>
+      </c>
       <c r="L161" s="18">
-        <v>56.283333300000002</v>
+        <v>48.721699999999998</v>
       </c>
       <c r="M161" s="18">
-        <v>131.1333333</v>
+        <v>87.030600000000007</v>
       </c>
       <c r="N161" s="33">
-        <v>850</v>
+        <v>1367</v>
       </c>
       <c r="O161" s="20" t="s">
-        <v>542</v>
+        <v>664</v>
       </c>
       <c r="P161" s="9" t="s">
         <v>387</v>
       </c>
       <c r="Q161" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="R161" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="S161" s="7" t="s">
-        <v>454</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="R161" s="10"/>
+      <c r="S161" s="7"/>
       <c r="T161" s="11" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="U161" s="7"/>
     </row>
     <row r="162" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A162" s="7" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B162" s="22" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C162" s="25">
         <v>161</v>
       </c>
       <c r="D162" s="28"/>
       <c r="E162" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F162" s="7"/>
-      <c r="G162" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>682</v>
+      </c>
       <c r="H162" s="7"/>
-      <c r="I162" s="8">
-        <v>24688</v>
-      </c>
-      <c r="J162" s="7">
-        <v>99999</v>
-      </c>
-      <c r="K162" s="11"/>
+      <c r="I162" s="8"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="11">
+        <v>51337</v>
+      </c>
       <c r="L162" s="18">
-        <v>63.25</v>
+        <v>44.602800000000002</v>
       </c>
       <c r="M162" s="18">
-        <v>143.15</v>
+        <v>81.387799999999999</v>
       </c>
       <c r="N162" s="33">
-        <v>741</v>
+        <v>2100</v>
       </c>
       <c r="O162" s="20" t="s">
-        <v>50</v>
+        <v>683</v>
       </c>
       <c r="P162" s="9" t="s">
         <v>387</v>
       </c>
       <c r="Q162" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="R162" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="S162" s="7" t="s">
-        <v>455</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="R162" s="10"/>
+      <c r="S162" s="7"/>
       <c r="T162" s="11" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="U162" s="7"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A163" s="7" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B163" s="22" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C163" s="25">
         <v>162</v>
       </c>
       <c r="D163" s="28"/>
       <c r="E163" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
+        <v>133</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>687</v>
+      </c>
       <c r="H163" s="7"/>
-      <c r="I163" s="8">
-        <v>24585</v>
-      </c>
-      <c r="J163" s="7">
-        <v>99999</v>
-      </c>
-      <c r="K163" s="11"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="7"/>
+      <c r="K163" s="11" t="s">
+        <v>685</v>
+      </c>
       <c r="L163" s="18">
-        <v>64.55</v>
+        <v>33.043300000000002</v>
       </c>
       <c r="M163" s="18">
-        <v>144.4</v>
+        <v>103.9308</v>
       </c>
       <c r="N163" s="33">
-        <v>518.52</v>
+        <v>3099</v>
       </c>
       <c r="O163" s="20" t="s">
-        <v>540</v>
+        <v>684</v>
       </c>
       <c r="P163" s="9" t="s">
         <v>387</v>
       </c>
       <c r="Q163" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="R163" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="S163" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="T163" s="11"/>
+        <v>286</v>
+      </c>
+      <c r="R163" s="10"/>
+      <c r="S163" s="7"/>
+      <c r="T163" s="11" t="s">
+        <v>508</v>
+      </c>
       <c r="U163" s="7"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A164" s="7" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B164" s="22" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C164" s="25">
         <v>163</v>
       </c>
       <c r="D164" s="28"/>
       <c r="E164" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F164" s="7"/>
-      <c r="G164" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>693</v>
+      </c>
       <c r="H164" s="7"/>
-      <c r="I164" s="8">
-        <v>24588</v>
-      </c>
-      <c r="J164" s="7">
-        <v>99999</v>
-      </c>
-      <c r="K164" s="11"/>
+      <c r="I164" s="8"/>
+      <c r="J164" s="7"/>
+      <c r="K164" s="11" t="s">
+        <v>691</v>
+      </c>
       <c r="L164" s="18">
-        <v>64.05</v>
+        <v>29.041899999999998</v>
       </c>
       <c r="M164" s="18">
-        <v>141.8833333</v>
+        <v>110.4725</v>
       </c>
       <c r="N164" s="33">
-        <v>589.71</v>
+        <v>1443.4</v>
       </c>
       <c r="O164" s="20" t="s">
-        <v>541</v>
+        <v>694</v>
       </c>
       <c r="P164" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="Q164" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="R164" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="S164" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="T164" s="11"/>
+      <c r="Q164" s="7"/>
+      <c r="R164" s="10"/>
+      <c r="S164" s="7"/>
+      <c r="T164" s="11" t="s">
+        <v>508</v>
+      </c>
       <c r="U164" s="7"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A165" s="7" t="s">
         <v>41</v>
       </c>
@@ -11704,40 +11745,42 @@
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
       <c r="I165" s="8">
-        <v>24691</v>
+        <v>31137</v>
       </c>
       <c r="J165" s="7">
         <v>99999</v>
       </c>
       <c r="K165" s="11"/>
       <c r="L165" s="18">
-        <v>63.8333333</v>
+        <v>56.283333300000002</v>
       </c>
       <c r="M165" s="18">
-        <v>145.6</v>
+        <v>131.1333333</v>
       </c>
       <c r="N165" s="33">
-        <v>800.92</v>
+        <v>850</v>
       </c>
       <c r="O165" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P165" s="9" t="s">
         <v>387</v>
       </c>
       <c r="Q165" s="7" t="s">
-        <v>560</v>
+        <v>324</v>
       </c>
       <c r="R165" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S165" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="T165" s="11"/>
+        <v>454</v>
+      </c>
+      <c r="T165" s="11" t="s">
+        <v>479</v>
+      </c>
       <c r="U165" s="7"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A166" s="7" t="s">
         <v>41</v>
       </c>
@@ -11755,37 +11798,39 @@
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
       <c r="I166" s="8">
-        <v>24266</v>
+        <v>24688</v>
       </c>
       <c r="J166" s="7">
         <v>99999</v>
       </c>
       <c r="K166" s="11"/>
       <c r="L166" s="18">
-        <v>67.566666600000005</v>
+        <v>63.25</v>
       </c>
       <c r="M166" s="18">
-        <v>133.4</v>
+        <v>143.15</v>
       </c>
       <c r="N166" s="33">
-        <v>138</v>
+        <v>741</v>
       </c>
       <c r="O166" s="20" t="s">
-        <v>544</v>
+        <v>50</v>
       </c>
       <c r="P166" s="9" t="s">
         <v>387</v>
       </c>
       <c r="Q166" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="R166" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S166" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="T166" s="11"/>
+        <v>455</v>
+      </c>
+      <c r="T166" s="11" t="s">
+        <v>479</v>
+      </c>
       <c r="U166" s="7"/>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.4">
@@ -11806,38 +11851,40 @@
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
       <c r="I167" s="8">
-        <v>24684</v>
+        <v>24585</v>
       </c>
       <c r="J167" s="7">
         <v>99999</v>
       </c>
       <c r="K167" s="11"/>
       <c r="L167" s="18">
-        <v>63.3333333</v>
+        <v>64.55</v>
       </c>
       <c r="M167" s="18">
-        <v>141.7333333</v>
+        <v>144.4</v>
       </c>
       <c r="N167" s="33">
-        <v>776.93</v>
+        <v>518.52</v>
       </c>
       <c r="O167" s="20" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="P167" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="Q167" s="7"/>
+      <c r="Q167" s="7" t="s">
+        <v>560</v>
+      </c>
       <c r="R167" s="10" t="s">
         <v>384</v>
       </c>
       <c r="S167" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="T167" s="11"/>
       <c r="U167" s="7"/>
     </row>
-    <row r="168" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A168" s="7" t="s">
         <v>41</v>
       </c>
@@ -11855,35 +11902,35 @@
       <c r="G168" s="7"/>
       <c r="H168" s="7"/>
       <c r="I168" s="8">
-        <v>24382</v>
+        <v>24588</v>
       </c>
       <c r="J168" s="7">
         <v>99999</v>
       </c>
       <c r="K168" s="11"/>
       <c r="L168" s="18">
-        <v>66.45</v>
+        <v>64.05</v>
       </c>
       <c r="M168" s="18">
-        <v>143.2333333</v>
+        <v>141.8833333</v>
       </c>
       <c r="N168" s="33">
-        <v>196</v>
+        <v>589.71</v>
       </c>
       <c r="O168" s="20" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="P168" s="9" t="s">
         <v>387</v>
       </c>
       <c r="Q168" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="R168" s="10" t="s">
         <v>384</v>
       </c>
       <c r="S168" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="T168" s="11"/>
       <c r="U168" s="7"/>
@@ -11906,35 +11953,35 @@
       <c r="G169" s="7"/>
       <c r="H169" s="7"/>
       <c r="I169" s="8">
-        <v>24959</v>
+        <v>24691</v>
       </c>
       <c r="J169" s="7">
         <v>99999</v>
       </c>
       <c r="K169" s="11"/>
       <c r="L169" s="18">
-        <v>62.016666600000001</v>
+        <v>63.8333333</v>
       </c>
       <c r="M169" s="18">
-        <v>129.7166666</v>
+        <v>145.6</v>
       </c>
       <c r="N169" s="33">
-        <v>101</v>
+        <v>800.92</v>
       </c>
       <c r="O169" s="20" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="P169" s="9" t="s">
         <v>387</v>
       </c>
       <c r="Q169" s="7" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="R169" s="10" t="s">
         <v>384</v>
       </c>
       <c r="S169" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="T169" s="11"/>
       <c r="U169" s="7"/>
@@ -11957,39 +12004,41 @@
       <c r="G170" s="7"/>
       <c r="H170" s="7"/>
       <c r="I170" s="8">
-        <v>24477</v>
+        <v>24266</v>
       </c>
       <c r="J170" s="7">
         <v>99999</v>
       </c>
       <c r="K170" s="11"/>
       <c r="L170" s="18">
-        <v>65.3</v>
+        <v>67.566666600000005</v>
       </c>
       <c r="M170" s="18">
-        <v>135.80000000000001</v>
+        <v>133.4</v>
       </c>
       <c r="N170" s="33">
-        <v>674.86</v>
+        <v>138</v>
       </c>
       <c r="O170" s="20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="P170" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="Q170" s="7"/>
+      <c r="Q170" s="7" t="s">
+        <v>559</v>
+      </c>
       <c r="R170" s="10" t="s">
         <v>384</v>
       </c>
       <c r="S170" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="T170" s="11"/>
       <c r="U170" s="7"/>
     </row>
-    <row r="171" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A171" s="14" t="s">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A171" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B171" s="22" t="s">
@@ -11999,48 +12048,46 @@
         <v>170</v>
       </c>
       <c r="D171" s="28"/>
-      <c r="E171" s="14" t="s">
-        <v>576</v>
-      </c>
-      <c r="F171" s="14"/>
-      <c r="G171" s="14"/>
-      <c r="H171" s="14"/>
+      <c r="E171" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
       <c r="I171" s="8">
-        <v>25428</v>
+        <v>24684</v>
       </c>
       <c r="J171" s="7">
         <v>99999</v>
       </c>
-      <c r="K171" s="15"/>
+      <c r="K171" s="11"/>
       <c r="L171" s="18">
-        <v>65.233333299999998</v>
+        <v>63.3333333</v>
       </c>
       <c r="M171" s="18">
-        <v>160.53333330000001</v>
+        <v>141.7333333</v>
       </c>
       <c r="N171" s="33">
-        <v>264</v>
+        <v>776.93</v>
       </c>
       <c r="O171" s="20" t="s">
-        <v>577</v>
+        <v>545</v>
       </c>
       <c r="P171" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="Q171" s="14" t="s">
-        <v>578</v>
-      </c>
+      <c r="Q171" s="7"/>
       <c r="R171" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="S171" s="14" t="s">
-        <v>579</v>
+      <c r="S171" s="7" t="s">
+        <v>553</v>
       </c>
       <c r="T171" s="11"/>
       <c r="U171" s="7"/>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A172" s="14" t="s">
+    <row r="172" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A172" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B172" s="22" t="s">
@@ -12050,48 +12097,48 @@
         <v>171</v>
       </c>
       <c r="D172" s="28"/>
-      <c r="E172" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="F172" s="14"/>
-      <c r="G172" s="14"/>
-      <c r="H172" s="14"/>
+      <c r="E172" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
       <c r="I172" s="8">
-        <v>25700</v>
+        <v>24382</v>
       </c>
       <c r="J172" s="7">
         <v>99999</v>
       </c>
-      <c r="K172" s="15"/>
+      <c r="K172" s="11"/>
       <c r="L172" s="18">
-        <v>62.8</v>
+        <v>66.45</v>
       </c>
       <c r="M172" s="18">
-        <v>150.66666660000001</v>
+        <v>143.2333333</v>
       </c>
       <c r="N172" s="33">
-        <v>312.39999999999998</v>
+        <v>196</v>
       </c>
       <c r="O172" s="20" t="s">
-        <v>581</v>
+        <v>555</v>
       </c>
       <c r="P172" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="Q172" s="14" t="s">
-        <v>582</v>
+      <c r="Q172" s="7" t="s">
+        <v>561</v>
       </c>
       <c r="R172" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="S172" s="14" t="s">
-        <v>583</v>
+      <c r="S172" s="7" t="s">
+        <v>554</v>
       </c>
       <c r="T172" s="11"/>
       <c r="U172" s="7"/>
     </row>
-    <row r="173" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A173" s="14" t="s">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A173" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B173" s="22" t="s">
@@ -12101,135 +12148,245 @@
         <v>172</v>
       </c>
       <c r="D173" s="28"/>
-      <c r="E173" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="F173" s="14"/>
-      <c r="G173" s="14"/>
-      <c r="H173" s="14"/>
+      <c r="E173" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
       <c r="I173" s="8">
-        <v>24507</v>
+        <v>24959</v>
       </c>
       <c r="J173" s="7">
         <v>99999</v>
       </c>
-      <c r="K173" s="15"/>
+      <c r="K173" s="11"/>
       <c r="L173" s="18">
-        <v>64.266666599999994</v>
+        <v>62.016666600000001</v>
       </c>
       <c r="M173" s="18">
-        <v>100.2333333</v>
+        <v>129.7166666</v>
       </c>
       <c r="N173" s="33">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="O173" s="20" t="s">
-        <v>586</v>
+        <v>546</v>
       </c>
       <c r="P173" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="Q173" s="14" t="s">
-        <v>587</v>
+      <c r="Q173" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="R173" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="S173" s="14" t="s">
-        <v>585</v>
+      <c r="S173" s="7" t="s">
+        <v>556</v>
       </c>
       <c r="T173" s="11"/>
       <c r="U173" s="7"/>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A174" s="14"/>
-      <c r="B174" s="22"/>
-      <c r="C174" s="25"/>
+      <c r="A174" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B174" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="C174" s="25">
+        <v>173</v>
+      </c>
       <c r="D174" s="28"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
-      <c r="G174" s="14"/>
-      <c r="H174" s="14"/>
-      <c r="I174" s="8"/>
-      <c r="J174" s="14"/>
-      <c r="K174" s="15"/>
-      <c r="L174" s="18"/>
-      <c r="M174" s="18"/>
-      <c r="N174" s="33"/>
-      <c r="O174" s="20"/>
-      <c r="P174" s="9"/>
-      <c r="Q174" s="14"/>
-      <c r="R174" s="10"/>
-      <c r="S174" s="14"/>
+      <c r="E174" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="8">
+        <v>24477</v>
+      </c>
+      <c r="J174" s="7">
+        <v>99999</v>
+      </c>
+      <c r="K174" s="11"/>
+      <c r="L174" s="18">
+        <v>65.3</v>
+      </c>
+      <c r="M174" s="18">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="N174" s="33">
+        <v>674.86</v>
+      </c>
+      <c r="O174" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="P174" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q174" s="7"/>
+      <c r="R174" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="S174" s="7" t="s">
+        <v>557</v>
+      </c>
       <c r="T174" s="11"/>
       <c r="U174" s="7"/>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A175" s="14"/>
-      <c r="B175" s="22"/>
-      <c r="C175" s="25"/>
+    <row r="175" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A175" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B175" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="C175" s="25">
+        <v>174</v>
+      </c>
       <c r="D175" s="28"/>
-      <c r="E175" s="14"/>
+      <c r="E175" s="14" t="s">
+        <v>576</v>
+      </c>
       <c r="F175" s="14"/>
       <c r="G175" s="14"/>
       <c r="H175" s="14"/>
-      <c r="I175" s="8"/>
-      <c r="J175" s="14"/>
+      <c r="I175" s="8">
+        <v>25428</v>
+      </c>
+      <c r="J175" s="7">
+        <v>99999</v>
+      </c>
       <c r="K175" s="15"/>
-      <c r="L175" s="18"/>
-      <c r="M175" s="18"/>
-      <c r="N175" s="33"/>
-      <c r="O175" s="20"/>
-      <c r="P175" s="9"/>
-      <c r="Q175" s="14"/>
-      <c r="R175" s="10"/>
-      <c r="S175" s="14"/>
+      <c r="L175" s="18">
+        <v>65.233333299999998</v>
+      </c>
+      <c r="M175" s="18">
+        <v>160.53333330000001</v>
+      </c>
+      <c r="N175" s="33">
+        <v>264</v>
+      </c>
+      <c r="O175" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="P175" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q175" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="R175" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="S175" s="14" t="s">
+        <v>579</v>
+      </c>
       <c r="T175" s="11"/>
       <c r="U175" s="7"/>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A176" s="14"/>
-      <c r="B176" s="22"/>
-      <c r="C176" s="25"/>
+      <c r="A176" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B176" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="C176" s="25">
+        <v>175</v>
+      </c>
       <c r="D176" s="28"/>
-      <c r="E176" s="14"/>
+      <c r="E176" s="14" t="s">
+        <v>580</v>
+      </c>
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
       <c r="H176" s="14"/>
-      <c r="I176" s="8"/>
-      <c r="J176" s="14"/>
+      <c r="I176" s="8">
+        <v>25700</v>
+      </c>
+      <c r="J176" s="7">
+        <v>99999</v>
+      </c>
       <c r="K176" s="15"/>
-      <c r="L176" s="18"/>
-      <c r="M176" s="18"/>
-      <c r="N176" s="33"/>
-      <c r="O176" s="20"/>
-      <c r="P176" s="9"/>
-      <c r="Q176" s="14"/>
-      <c r="R176" s="10"/>
-      <c r="S176" s="14"/>
+      <c r="L176" s="18">
+        <v>62.8</v>
+      </c>
+      <c r="M176" s="18">
+        <v>150.66666660000001</v>
+      </c>
+      <c r="N176" s="33">
+        <v>312.39999999999998</v>
+      </c>
+      <c r="O176" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="P176" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q176" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="R176" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="S176" s="14" t="s">
+        <v>583</v>
+      </c>
       <c r="T176" s="11"/>
       <c r="U176" s="7"/>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A177" s="14"/>
-      <c r="B177" s="22"/>
-      <c r="C177" s="25"/>
+    <row r="177" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A177" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B177" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="C177" s="25">
+        <v>176</v>
+      </c>
       <c r="D177" s="28"/>
-      <c r="E177" s="14"/>
+      <c r="E177" s="14" t="s">
+        <v>584</v>
+      </c>
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
       <c r="H177" s="14"/>
-      <c r="I177" s="8"/>
-      <c r="J177" s="14"/>
+      <c r="I177" s="8">
+        <v>24507</v>
+      </c>
+      <c r="J177" s="7">
+        <v>99999</v>
+      </c>
       <c r="K177" s="15"/>
-      <c r="L177" s="18"/>
-      <c r="M177" s="18"/>
-      <c r="N177" s="33"/>
-      <c r="O177" s="20"/>
-      <c r="P177" s="9"/>
-      <c r="Q177" s="14"/>
-      <c r="R177" s="10"/>
-      <c r="S177" s="14"/>
+      <c r="L177" s="18">
+        <v>64.266666599999994</v>
+      </c>
+      <c r="M177" s="18">
+        <v>100.2333333</v>
+      </c>
+      <c r="N177" s="33">
+        <v>168</v>
+      </c>
+      <c r="O177" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="P177" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q177" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="R177" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="S177" s="14" t="s">
+        <v>585</v>
+      </c>
       <c r="T177" s="11"/>
       <c r="U177" s="7"/>
     </row>
@@ -12371,21 +12528,113 @@
       <c r="T183" s="11"/>
       <c r="U183" s="7"/>
     </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A184" s="14"/>
+      <c r="B184" s="22"/>
+      <c r="C184" s="25"/>
+      <c r="D184" s="28"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="14"/>
+      <c r="G184" s="14"/>
+      <c r="H184" s="14"/>
+      <c r="I184" s="8"/>
+      <c r="J184" s="14"/>
+      <c r="K184" s="15"/>
+      <c r="L184" s="18"/>
+      <c r="M184" s="18"/>
+      <c r="N184" s="33"/>
+      <c r="O184" s="20"/>
+      <c r="P184" s="9"/>
+      <c r="Q184" s="14"/>
+      <c r="R184" s="10"/>
+      <c r="S184" s="14"/>
+      <c r="T184" s="11"/>
+      <c r="U184" s="7"/>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A185" s="14"/>
+      <c r="B185" s="22"/>
+      <c r="C185" s="25"/>
+      <c r="D185" s="28"/>
+      <c r="E185" s="14"/>
+      <c r="F185" s="14"/>
+      <c r="G185" s="14"/>
+      <c r="H185" s="14"/>
+      <c r="I185" s="8"/>
+      <c r="J185" s="14"/>
+      <c r="K185" s="15"/>
+      <c r="L185" s="18"/>
+      <c r="M185" s="18"/>
+      <c r="N185" s="33"/>
+      <c r="O185" s="20"/>
+      <c r="P185" s="9"/>
+      <c r="Q185" s="14"/>
+      <c r="R185" s="10"/>
+      <c r="S185" s="14"/>
+      <c r="T185" s="11"/>
+      <c r="U185" s="7"/>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A186" s="14"/>
+      <c r="B186" s="22"/>
+      <c r="C186" s="25"/>
+      <c r="D186" s="28"/>
+      <c r="E186" s="14"/>
+      <c r="F186" s="14"/>
+      <c r="G186" s="14"/>
+      <c r="H186" s="14"/>
+      <c r="I186" s="8"/>
+      <c r="J186" s="14"/>
+      <c r="K186" s="15"/>
+      <c r="L186" s="18"/>
+      <c r="M186" s="18"/>
+      <c r="N186" s="33"/>
+      <c r="O186" s="20"/>
+      <c r="P186" s="9"/>
+      <c r="Q186" s="14"/>
+      <c r="R186" s="10"/>
+      <c r="S186" s="14"/>
+      <c r="T186" s="11"/>
+      <c r="U186" s="7"/>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A187" s="14"/>
+      <c r="B187" s="22"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="28"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="14"/>
+      <c r="G187" s="14"/>
+      <c r="H187" s="14"/>
+      <c r="I187" s="8"/>
+      <c r="J187" s="14"/>
+      <c r="K187" s="15"/>
+      <c r="L187" s="18"/>
+      <c r="M187" s="18"/>
+      <c r="N187" s="33"/>
+      <c r="O187" s="20"/>
+      <c r="P187" s="9"/>
+      <c r="Q187" s="14"/>
+      <c r="R187" s="10"/>
+      <c r="S187" s="14"/>
+      <c r="T187" s="11"/>
+      <c r="U187" s="7"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FgzfYNDq6VKnVHytcpZkjcZCjaTKEU3+kLzDw6B7Wp2E+RmOmQ8e7P6bWMv6NSfJZn8ieDMUVwhRb6xJm8a9MQ==" saltValue="ZGCZ+dlwvqhXNTTwiOnbog==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:U173" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U173">
-      <sortCondition ref="C1:C173"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="V73yGKiwVt31MUT5/lcQYQa9fn++NNDKWsZU8+G/IEwXMkXGfK1adXXdwtu+KghuBNS49hOHJjAk0j0v2VaG8Q==" saltValue="DcqyCz/eVqJN5x0lGbVVYw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A1:U177" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U177">
+      <sortCondition ref="C1:C177"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U170">
-    <sortCondition ref="C2:C170"/>
-    <sortCondition ref="B2:B170"/>
-    <sortCondition ref="E2:E170"/>
-    <sortCondition ref="F2:F170"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U174">
+    <sortCondition ref="C2:C174"/>
+    <sortCondition ref="B2:B174"/>
+    <sortCondition ref="E2:E174"/>
+    <sortCondition ref="F2:F174"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:U183">
+  <conditionalFormatting sqref="A2:U187">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>IF(MOD(ROW(), 2), 0, 1)</formula>
     </cfRule>
@@ -12400,7 +12649,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC738880-D5B1-46B6-B4FC-B3286967FC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FA4495-6D77-420D-A340-F4B9FA1AA932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="714">
   <si>
     <t>USAF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2753,6 +2753,10 @@
   </si>
   <si>
     <t>富蕴县</t>
+  </si>
+  <si>
+    <t>Kuan_Shan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3489,7 +3493,7 @@
   <dimension ref="A1:U187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -11465,8 +11469,12 @@
         <v>387</v>
       </c>
       <c r="Q159" s="7"/>
-      <c r="R159" s="10"/>
-      <c r="S159" s="7"/>
+      <c r="R159" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="S159" s="7" t="s">
+        <v>713</v>
+      </c>
       <c r="T159" s="11" t="s">
         <v>508</v>
       </c>
@@ -12621,7 +12629,7 @@
       <c r="U187" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="V73yGKiwVt31MUT5/lcQYQa9fn++NNDKWsZU8+G/IEwXMkXGfK1adXXdwtu+KghuBNS49hOHJjAk0j0v2VaG8Q==" saltValue="DcqyCz/eVqJN5x0lGbVVYw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BhrkE5OkosAmHYlP72Ocx0gdzvr9UTp7kHvZlt3TgGjx/tKJ2K3XVg0W35JJ2IcokKns9kcU3eZELtNgf4FUzw==" saltValue="cCEMVZiolSABGVJL56RMLg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:U177" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U177">
       <sortCondition ref="C1:C177"/>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FA4495-6D77-420D-A340-F4B9FA1AA932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3411EAD-D40D-4638-8E25-26EF94B37E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
   <sheets>
     <sheet name="固定站点" sheetId="1" r:id="rId1"/>
@@ -3492,7 +3492,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -12656,9 +12656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D00824-2C22-4F26-B982-1BC5BFD1F8BD}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D66870B-220F-4822-88F6-B5AECC8C5EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97E6F44-BDCF-4924-91A6-181F436A7111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="721">
   <si>
     <t>USAF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2780,6 +2780,10 @@
   </si>
   <si>
     <t>阿木尔镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3516,7 +3520,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="N152" sqref="N152"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -11127,10 +11133,18 @@
       <c r="H152" s="7"/>
       <c r="I152" s="8"/>
       <c r="J152" s="7"/>
-      <c r="K152" s="11"/>
-      <c r="L152" s="18"/>
-      <c r="M152" s="18"/>
-      <c r="N152" s="33"/>
+      <c r="K152" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="L152" s="18">
+        <v>49.55</v>
+      </c>
+      <c r="M152" s="18">
+        <v>120.4833</v>
+      </c>
+      <c r="N152" s="33">
+        <v>689</v>
+      </c>
       <c r="O152" s="20" t="s">
         <v>366</v>
       </c>
@@ -12827,7 +12841,7 @@
       <c r="U191" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vtkv8NmfwJ/fMcuBjsU1pl8XROJ6zAzjF7M70saLX1/qY4DPNUAIcxPEKqK3mHbS+EbUu7r95iLBBMbG+puKJQ==" saltValue="M7vm0OhQVfnGpcAQo+DOxg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fbMvjDJrmSrxS68/yNe1kYXw6pok1hsCYfgldJ/SNKSIB3p7eBc8EizcAYJZ0lZzTHofOcJNcw2XQ08gfaNihg==" saltValue="FT7eeeIHivwdvgZa+YVtAA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:U181" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U181">
       <sortCondition ref="C1:C181"/>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6234BD38-543B-45DC-B24A-7317AF8A8455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA2C5EE-6A26-44C5-A3E1-821EFF0ED903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="附加国外站点" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">固定站点!$A$1:$U$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">固定站点!$A$1:$U$193</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="747">
   <si>
     <t>USAF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2868,6 +2868,26 @@
   </si>
   <si>
     <t>温都尔杭爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Цахир</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭爱山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臣赫尔曼达勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂尔浑图勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂尔浑河、图勒河</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3617,9 +3637,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U200"/>
+  <dimension ref="A1:U203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4854,7 +4876,7 @@
       <c r="N25" s="33">
         <v>2014</v>
       </c>
-      <c r="O25" s="13" t="s">
+      <c r="O25" s="20" t="s">
         <v>735</v>
       </c>
       <c r="P25" s="9"/>
@@ -4897,7 +4919,7 @@
       <c r="N26" s="33">
         <v>2448</v>
       </c>
-      <c r="O26" s="13" t="s">
+      <c r="O26" s="20" t="s">
         <v>726</v>
       </c>
       <c r="P26" s="9"/>
@@ -4926,7 +4948,7 @@
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
-      <c r="I27" s="13">
+      <c r="I27" s="60">
         <v>44277</v>
       </c>
       <c r="J27" s="58"/>
@@ -4942,7 +4964,7 @@
       <c r="N27" s="33">
         <v>2179</v>
       </c>
-      <c r="O27" s="13" t="s">
+      <c r="O27" s="20" t="s">
         <v>730</v>
       </c>
       <c r="P27" s="9"/>
@@ -5556,7 +5578,7 @@
       <c r="N41" s="33">
         <v>747</v>
       </c>
-      <c r="O41" s="13" t="s">
+      <c r="O41" s="20" t="s">
         <v>734</v>
       </c>
       <c r="P41" s="9"/>
@@ -5568,7 +5590,7 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42" s="58" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>387</v>
@@ -5578,7 +5600,7 @@
       </c>
       <c r="D42" s="28"/>
       <c r="E42" s="58" t="s">
-        <v>247</v>
+        <v>348</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -5586,23 +5608,23 @@
       <c r="I42" s="60"/>
       <c r="J42" s="58"/>
       <c r="K42" s="11">
-        <v>827</v>
+        <v>245</v>
       </c>
       <c r="L42" s="18">
-        <v>50.610586111111097</v>
+        <v>48.83522</v>
       </c>
       <c r="M42" s="18">
-        <v>92.402124999999998</v>
+        <v>104.806168</v>
       </c>
       <c r="N42" s="33">
-        <v>859</v>
-      </c>
-      <c r="O42" s="20" t="s">
-        <v>336</v>
+        <v>818</v>
+      </c>
+      <c r="O42" s="13" t="s">
+        <v>745</v>
       </c>
       <c r="P42" s="9"/>
       <c r="Q42" s="58" t="s">
-        <v>513</v>
+        <v>746</v>
       </c>
       <c r="R42" s="6"/>
       <c r="S42" s="58"/>
@@ -5629,23 +5651,23 @@
       <c r="I43" s="60"/>
       <c r="J43" s="58"/>
       <c r="K43" s="11">
-        <v>201</v>
-      </c>
-      <c r="L43" s="17">
-        <v>49.72889</v>
-      </c>
-      <c r="M43" s="17">
-        <v>93.268609999999995</v>
+        <v>827</v>
+      </c>
+      <c r="L43" s="18">
+        <v>50.610586111111097</v>
+      </c>
+      <c r="M43" s="18">
+        <v>92.402124999999998</v>
       </c>
       <c r="N43" s="33">
-        <v>1393</v>
+        <v>859</v>
       </c>
       <c r="O43" s="20" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="P43" s="9"/>
       <c r="Q43" s="58" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="R43" s="6"/>
       <c r="S43" s="58"/>
@@ -5654,7 +5676,7 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44" s="58" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>387</v>
@@ -5664,7 +5686,7 @@
       </c>
       <c r="D44" s="28"/>
       <c r="E44" s="58" t="s">
-        <v>358</v>
+        <v>247</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -5672,23 +5694,23 @@
       <c r="I44" s="60"/>
       <c r="J44" s="58"/>
       <c r="K44" s="11">
-        <v>215</v>
-      </c>
-      <c r="L44" s="18">
-        <v>49.104990000000001</v>
-      </c>
-      <c r="M44" s="18">
-        <v>91.726190000000003</v>
+        <v>201</v>
+      </c>
+      <c r="L44" s="17">
+        <v>49.72889</v>
+      </c>
+      <c r="M44" s="17">
+        <v>93.268609999999995</v>
       </c>
       <c r="N44" s="33">
-        <v>1593</v>
+        <v>1393</v>
       </c>
       <c r="O44" s="20" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="P44" s="9"/>
       <c r="Q44" s="58" t="s">
-        <v>360</v>
+        <v>511</v>
       </c>
       <c r="R44" s="6"/>
       <c r="S44" s="58"/>
@@ -5697,7 +5719,7 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45" s="58" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="B45" s="22" t="s">
         <v>387</v>
@@ -5707,7 +5729,7 @@
       </c>
       <c r="D45" s="28"/>
       <c r="E45" s="58" t="s">
-        <v>247</v>
+        <v>358</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -5715,23 +5737,23 @@
       <c r="I45" s="60"/>
       <c r="J45" s="58"/>
       <c r="K45" s="11">
-        <v>834</v>
+        <v>215</v>
       </c>
       <c r="L45" s="18">
-        <v>50.339719444444398</v>
+        <v>49.104990000000001</v>
       </c>
       <c r="M45" s="18">
-        <v>91.604813888888799</v>
+        <v>91.726190000000003</v>
       </c>
       <c r="N45" s="33">
-        <v>1142</v>
+        <v>1593</v>
       </c>
       <c r="O45" s="20" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="P45" s="9"/>
       <c r="Q45" s="58" t="s">
-        <v>513</v>
+        <v>360</v>
       </c>
       <c r="R45" s="6"/>
       <c r="S45" s="58"/>
@@ -5758,23 +5780,23 @@
       <c r="I46" s="60"/>
       <c r="J46" s="58"/>
       <c r="K46" s="11">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="L46" s="18">
-        <v>50.097880555555498</v>
+        <v>50.339719444444398</v>
       </c>
       <c r="M46" s="18">
-        <v>91.676269444444401</v>
+        <v>91.604813888888799</v>
       </c>
       <c r="N46" s="33">
-        <v>1212</v>
+        <v>1142</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P46" s="9"/>
       <c r="Q46" s="58" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="R46" s="6"/>
       <c r="S46" s="58"/>
@@ -5798,37 +5820,29 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
-      <c r="I47" s="60">
-        <v>44213</v>
-      </c>
-      <c r="J47" s="58">
-        <v>99999</v>
-      </c>
+      <c r="I47" s="60"/>
+      <c r="J47" s="58"/>
       <c r="K47" s="11">
-        <v>213</v>
-      </c>
-      <c r="L47" s="17">
-        <v>49.658639999999998</v>
-      </c>
-      <c r="M47" s="17">
-        <v>94.404060000000001</v>
+        <v>836</v>
+      </c>
+      <c r="L47" s="18">
+        <v>50.097880555555498</v>
+      </c>
+      <c r="M47" s="18">
+        <v>91.676269444444401</v>
       </c>
       <c r="N47" s="33">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="O47" s="20" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="P47" s="9"/>
       <c r="Q47" s="58" t="s">
-        <v>511</v>
-      </c>
-      <c r="R47" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="S47" s="58" t="s">
-        <v>562</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="R47" s="6"/>
+      <c r="S47" s="58"/>
       <c r="T47" s="11"/>
       <c r="U47" s="7"/>
     </row>
@@ -5849,29 +5863,37 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="58"/>
+      <c r="I48" s="60">
+        <v>44213</v>
+      </c>
+      <c r="J48" s="58">
+        <v>99999</v>
+      </c>
       <c r="K48" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L48" s="17">
-        <v>48.821666700000002</v>
+        <v>49.658639999999998</v>
       </c>
       <c r="M48" s="17">
-        <v>93.103059999999999</v>
+        <v>94.404060000000001</v>
       </c>
       <c r="N48" s="33">
-        <v>1045</v>
+        <v>1233</v>
       </c>
       <c r="O48" s="20" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="P48" s="9"/>
       <c r="Q48" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="R48" s="6"/>
-      <c r="S48" s="58"/>
+        <v>511</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="S48" s="58" t="s">
+        <v>562</v>
+      </c>
       <c r="T48" s="11"/>
       <c r="U48" s="7"/>
     </row>
@@ -5895,22 +5917,24 @@
       <c r="I49" s="60"/>
       <c r="J49" s="58"/>
       <c r="K49" s="11">
-        <v>829</v>
+        <v>216</v>
       </c>
       <c r="L49" s="17">
-        <v>49.313068770753802</v>
+        <v>48.821666700000002</v>
       </c>
       <c r="M49" s="17">
-        <v>95.449345497510905</v>
+        <v>93.103059999999999</v>
       </c>
       <c r="N49" s="33">
-        <v>1791</v>
-      </c>
-      <c r="O49" s="13" t="s">
-        <v>733</v>
+        <v>1045</v>
+      </c>
+      <c r="O49" s="20" t="s">
+        <v>325</v>
       </c>
       <c r="P49" s="9"/>
-      <c r="Q49" s="58"/>
+      <c r="Q49" s="58" t="s">
+        <v>352</v>
+      </c>
       <c r="R49" s="6"/>
       <c r="S49" s="58"/>
       <c r="T49" s="11"/>
@@ -5918,17 +5942,17 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A50" s="58" t="s">
-        <v>738</v>
+        <v>260</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>739</v>
+        <v>387</v>
       </c>
       <c r="C50" s="25">
         <v>49</v>
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="58" t="s">
-        <v>740</v>
+        <v>247</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -5936,19 +5960,19 @@
       <c r="I50" s="60"/>
       <c r="J50" s="58"/>
       <c r="K50" s="11">
-        <v>191</v>
+        <v>829</v>
       </c>
       <c r="L50" s="17">
-        <v>49.2708321</v>
+        <v>49.313068770753802</v>
       </c>
       <c r="M50" s="17">
-        <v>94.861114499999999</v>
+        <v>95.449345497510905</v>
       </c>
       <c r="N50" s="33">
-        <v>1868</v>
-      </c>
-      <c r="O50" s="13" t="s">
-        <v>741</v>
+        <v>1791</v>
+      </c>
+      <c r="O50" s="20" t="s">
+        <v>733</v>
       </c>
       <c r="P50" s="9"/>
       <c r="Q50" s="58"/>
@@ -5959,17 +5983,17 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A51" s="58" t="s">
-        <v>260</v>
+        <v>738</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>387</v>
+        <v>739</v>
       </c>
       <c r="C51" s="25">
         <v>50</v>
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="58" t="s">
-        <v>249</v>
+        <v>740</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -5977,24 +6001,22 @@
       <c r="I51" s="60"/>
       <c r="J51" s="58"/>
       <c r="K51" s="11">
-        <v>677</v>
-      </c>
-      <c r="L51" s="18">
-        <v>49.373166666666599</v>
-      </c>
-      <c r="M51" s="18">
-        <v>96.414816666666596</v>
+        <v>191</v>
+      </c>
+      <c r="L51" s="17">
+        <v>49.2708321</v>
+      </c>
+      <c r="M51" s="17">
+        <v>94.861114499999999</v>
       </c>
       <c r="N51" s="33">
-        <v>1858</v>
+        <v>1868</v>
       </c>
       <c r="O51" s="20" t="s">
-        <v>342</v>
+        <v>741</v>
       </c>
       <c r="P51" s="9"/>
-      <c r="Q51" s="58" t="s">
-        <v>356</v>
-      </c>
+      <c r="Q51" s="58"/>
       <c r="R51" s="6"/>
       <c r="S51" s="58"/>
       <c r="T51" s="11"/>
@@ -6020,23 +6042,23 @@
       <c r="I52" s="60"/>
       <c r="J52" s="58"/>
       <c r="K52" s="11">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="L52" s="18">
-        <v>48.721816666666598</v>
+        <v>49.373166666666599</v>
       </c>
       <c r="M52" s="18">
-        <v>98.794905555555502</v>
+        <v>96.414816666666596</v>
       </c>
       <c r="N52" s="33">
-        <v>1656</v>
+        <v>1858</v>
       </c>
       <c r="O52" s="20" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P52" s="9"/>
       <c r="Q52" s="58" t="s">
-        <v>271</v>
+        <v>356</v>
       </c>
       <c r="R52" s="6"/>
       <c r="S52" s="58"/>
@@ -6063,23 +6085,23 @@
       <c r="I53" s="60"/>
       <c r="J53" s="58"/>
       <c r="K53" s="11">
-        <v>220</v>
-      </c>
-      <c r="L53" s="17">
-        <v>48.870530000000002</v>
-      </c>
-      <c r="M53" s="17">
-        <v>96.961585999999997</v>
+        <v>680</v>
+      </c>
+      <c r="L53" s="18">
+        <v>48.721816666666598</v>
+      </c>
+      <c r="M53" s="18">
+        <v>98.794905555555502</v>
       </c>
       <c r="N53" s="33">
-        <v>1851</v>
+        <v>1656</v>
       </c>
       <c r="O53" s="20" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P53" s="9"/>
       <c r="Q53" s="58" t="s">
-        <v>357</v>
+        <v>271</v>
       </c>
       <c r="R53" s="6"/>
       <c r="S53" s="58"/>
@@ -6106,23 +6128,23 @@
       <c r="I54" s="60"/>
       <c r="J54" s="58"/>
       <c r="K54" s="11">
-        <v>683</v>
-      </c>
-      <c r="L54" s="18">
-        <v>48.589822222222203</v>
-      </c>
-      <c r="M54" s="18">
-        <v>95.435675000000003</v>
+        <v>220</v>
+      </c>
+      <c r="L54" s="17">
+        <v>48.870530000000002</v>
+      </c>
+      <c r="M54" s="17">
+        <v>96.961585999999997</v>
       </c>
       <c r="N54" s="33">
-        <v>1569</v>
+        <v>1851</v>
       </c>
       <c r="O54" s="20" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="P54" s="9"/>
       <c r="Q54" s="58" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="R54" s="6"/>
       <c r="S54" s="58"/>
@@ -6149,23 +6171,23 @@
       <c r="I55" s="60"/>
       <c r="J55" s="58"/>
       <c r="K55" s="11">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L55" s="18">
-        <v>48.982269444444398</v>
+        <v>48.589822222222203</v>
       </c>
       <c r="M55" s="18">
-        <v>96.544311111111099</v>
+        <v>95.435675000000003</v>
       </c>
       <c r="N55" s="33">
-        <v>1776</v>
+        <v>1569</v>
       </c>
       <c r="O55" s="20" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="P55" s="9"/>
       <c r="Q55" s="58" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R55" s="6"/>
       <c r="S55" s="58"/>
@@ -6192,22 +6214,24 @@
       <c r="I56" s="60"/>
       <c r="J56" s="58"/>
       <c r="K56" s="11">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="L56" s="18">
-        <v>48.511452777777698</v>
+        <v>48.982269444444398</v>
       </c>
       <c r="M56" s="18">
-        <v>94.292058333333301</v>
+        <v>96.544311111111099</v>
       </c>
       <c r="N56" s="33">
-        <v>1271</v>
+        <v>1776</v>
       </c>
       <c r="O56" s="20" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P56" s="9"/>
-      <c r="Q56" s="58"/>
+      <c r="Q56" s="58" t="s">
+        <v>356</v>
+      </c>
       <c r="R56" s="6"/>
       <c r="S56" s="58"/>
       <c r="T56" s="11"/>
@@ -6233,24 +6257,22 @@
       <c r="I57" s="60"/>
       <c r="J57" s="58"/>
       <c r="K57" s="11">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="L57" s="18">
-        <v>48.116247222222199</v>
+        <v>48.511452777777698</v>
       </c>
       <c r="M57" s="18">
-        <v>96.767511111111105</v>
+        <v>94.292058333333301</v>
       </c>
       <c r="N57" s="33">
-        <v>2113</v>
+        <v>1271</v>
       </c>
       <c r="O57" s="20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P57" s="9"/>
-      <c r="Q57" s="58" t="s">
-        <v>268</v>
-      </c>
+      <c r="Q57" s="58"/>
       <c r="R57" s="6"/>
       <c r="S57" s="58"/>
       <c r="T57" s="11"/>
@@ -6276,23 +6298,23 @@
       <c r="I58" s="60"/>
       <c r="J58" s="58"/>
       <c r="K58" s="11">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="L58" s="18">
-        <v>48.219799999999999</v>
+        <v>48.116247222222199</v>
       </c>
       <c r="M58" s="18">
-        <v>97.376130555555505</v>
+        <v>96.767511111111105</v>
       </c>
       <c r="N58" s="33">
-        <v>1963</v>
+        <v>2113</v>
       </c>
       <c r="O58" s="20" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="P58" s="9"/>
       <c r="Q58" s="58" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="R58" s="6"/>
       <c r="S58" s="58"/>
@@ -6319,30 +6341,30 @@
       <c r="I59" s="60"/>
       <c r="J59" s="58"/>
       <c r="K59" s="11">
-        <v>227</v>
-      </c>
-      <c r="L59" s="17">
-        <v>48.325195299999997</v>
-      </c>
-      <c r="M59" s="17">
-        <v>95.099440000000001</v>
+        <v>679</v>
+      </c>
+      <c r="L59" s="18">
+        <v>48.219799999999999</v>
+      </c>
+      <c r="M59" s="18">
+        <v>97.376130555555505</v>
       </c>
       <c r="N59" s="33">
-        <v>1777</v>
+        <v>1963</v>
       </c>
       <c r="O59" s="20" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="P59" s="9"/>
       <c r="Q59" s="58" t="s">
-        <v>354</v>
+        <v>271</v>
       </c>
       <c r="R59" s="6"/>
       <c r="S59" s="58"/>
       <c r="T59" s="11"/>
       <c r="U59" s="7"/>
     </row>
-    <row r="60" spans="1:21" s="38" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A60" s="58" t="s">
         <v>260</v>
       </c>
@@ -6352,38 +6374,38 @@
       <c r="C60" s="25">
         <v>59</v>
       </c>
-      <c r="D60" s="25"/>
+      <c r="D60" s="28"/>
       <c r="E60" s="58" t="s">
-        <v>614</v>
-      </c>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
+        <v>249</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
       <c r="I60" s="60"/>
       <c r="J60" s="58"/>
       <c r="K60" s="11">
-        <v>530</v>
+        <v>227</v>
       </c>
       <c r="L60" s="17">
-        <v>48.268963888888798</v>
+        <v>48.325195299999997</v>
       </c>
       <c r="M60" s="17">
-        <v>88.896519444444394</v>
+        <v>95.099440000000001</v>
       </c>
       <c r="N60" s="33">
-        <v>2233</v>
+        <v>1777</v>
       </c>
       <c r="O60" s="20" t="s">
-        <v>617</v>
+        <v>332</v>
       </c>
       <c r="P60" s="9"/>
       <c r="Q60" s="58" t="s">
-        <v>616</v>
+        <v>354</v>
       </c>
       <c r="R60" s="6"/>
       <c r="S60" s="58"/>
-      <c r="T60" s="36"/>
-      <c r="U60" s="37"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="7"/>
     </row>
     <row r="61" spans="1:21" s="38" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A61" s="58" t="s">
@@ -6397,7 +6419,7 @@
       </c>
       <c r="D61" s="25"/>
       <c r="E61" s="58" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
@@ -6405,23 +6427,23 @@
       <c r="I61" s="60"/>
       <c r="J61" s="58"/>
       <c r="K61" s="11">
-        <v>217</v>
+        <v>530</v>
       </c>
       <c r="L61" s="17">
-        <v>48.299144699999999</v>
+        <v>48.268963888888798</v>
       </c>
       <c r="M61" s="17">
-        <v>89.515169999999998</v>
+        <v>88.896519444444394</v>
       </c>
       <c r="N61" s="33">
-        <v>2147</v>
+        <v>2233</v>
       </c>
       <c r="O61" s="20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="P61" s="9"/>
       <c r="Q61" s="58" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="R61" s="6"/>
       <c r="S61" s="58"/>
@@ -6445,41 +6467,33 @@
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
       <c r="H62" s="37"/>
-      <c r="I62" s="13">
-        <v>44263</v>
-      </c>
-      <c r="J62" s="58">
-        <v>99999</v>
-      </c>
+      <c r="I62" s="60"/>
+      <c r="J62" s="58"/>
       <c r="K62" s="11">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="L62" s="17">
-        <v>46.930160000000001</v>
+        <v>48.299144699999999</v>
       </c>
       <c r="M62" s="17">
-        <v>91.081829999999997</v>
+        <v>89.515169999999998</v>
       </c>
       <c r="N62" s="33">
-        <v>1936</v>
-      </c>
-      <c r="O62" s="13" t="s">
-        <v>721</v>
+        <v>2147</v>
+      </c>
+      <c r="O62" s="20" t="s">
+        <v>618</v>
       </c>
       <c r="P62" s="9"/>
       <c r="Q62" s="58" t="s">
-        <v>722</v>
-      </c>
-      <c r="R62" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="S62" s="58" t="s">
-        <v>723</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="R62" s="6"/>
+      <c r="S62" s="58"/>
       <c r="T62" s="36"/>
       <c r="U62" s="37"/>
     </row>
-    <row r="63" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:21" s="38" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A63" s="58" t="s">
         <v>260</v>
       </c>
@@ -6491,34 +6505,42 @@
       </c>
       <c r="D63" s="25"/>
       <c r="E63" s="58" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F63" s="37"/>
       <c r="G63" s="37"/>
       <c r="H63" s="37"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="58"/>
+      <c r="I63" s="60">
+        <v>44263</v>
+      </c>
+      <c r="J63" s="58">
+        <v>99999</v>
+      </c>
       <c r="K63" s="11">
-        <v>507</v>
+        <v>263</v>
       </c>
       <c r="L63" s="17">
-        <v>48.045241666666598</v>
+        <v>46.930160000000001</v>
       </c>
       <c r="M63" s="17">
-        <v>100.511238888888</v>
+        <v>91.081829999999997</v>
       </c>
       <c r="N63" s="33">
-        <v>1933</v>
+        <v>1936</v>
       </c>
       <c r="O63" s="20" t="s">
-        <v>620</v>
+        <v>721</v>
       </c>
       <c r="P63" s="9"/>
       <c r="Q63" s="58" t="s">
-        <v>619</v>
-      </c>
-      <c r="R63" s="6"/>
-      <c r="S63" s="58"/>
+        <v>722</v>
+      </c>
+      <c r="R63" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="S63" s="58" t="s">
+        <v>723</v>
+      </c>
       <c r="T63" s="36"/>
       <c r="U63" s="37"/>
     </row>
@@ -6534,7 +6556,7 @@
       </c>
       <c r="D64" s="25"/>
       <c r="E64" s="58" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
@@ -6542,23 +6564,23 @@
       <c r="I64" s="60"/>
       <c r="J64" s="58"/>
       <c r="K64" s="11">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L64" s="17">
-        <v>47.850722222222203</v>
+        <v>48.045241666666598</v>
       </c>
       <c r="M64" s="17">
-        <v>99.427783333333295</v>
+        <v>100.511238888888</v>
       </c>
       <c r="N64" s="33">
-        <v>2140</v>
+        <v>1933</v>
       </c>
       <c r="O64" s="20" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="P64" s="9"/>
       <c r="Q64" s="58" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="R64" s="6"/>
       <c r="S64" s="58"/>
@@ -6585,23 +6607,23 @@
       <c r="I65" s="60"/>
       <c r="J65" s="58"/>
       <c r="K65" s="11">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="L65" s="17">
-        <v>48.103025000000002</v>
+        <v>47.850722222222203</v>
       </c>
       <c r="M65" s="17">
-        <v>102.560619444444</v>
+        <v>99.427783333333295</v>
       </c>
       <c r="N65" s="33">
-        <v>1300</v>
+        <v>2140</v>
       </c>
       <c r="O65" s="20" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="P65" s="9"/>
       <c r="Q65" s="58" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="R65" s="6"/>
       <c r="S65" s="58"/>
@@ -6628,23 +6650,23 @@
       <c r="I66" s="60"/>
       <c r="J66" s="58"/>
       <c r="K66" s="11">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="L66" s="17">
-        <v>47.535888888888799</v>
+        <v>48.103025000000002</v>
       </c>
       <c r="M66" s="17">
-        <v>100.22476111111099</v>
+        <v>102.560619444444</v>
       </c>
       <c r="N66" s="33">
-        <v>2036</v>
+        <v>1300</v>
       </c>
       <c r="O66" s="20" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="P66" s="9"/>
       <c r="Q66" s="58" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="R66" s="6"/>
       <c r="S66" s="58"/>
@@ -6668,37 +6690,29 @@
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
       <c r="H67" s="37"/>
-      <c r="I67" s="13">
-        <v>44229</v>
-      </c>
-      <c r="J67" s="58">
-        <v>99999</v>
-      </c>
+      <c r="I67" s="60"/>
+      <c r="J67" s="58"/>
       <c r="K67" s="11">
-        <v>229</v>
+        <v>515</v>
       </c>
       <c r="L67" s="17">
-        <v>48.153490217425698</v>
+        <v>47.535888888888799</v>
       </c>
       <c r="M67" s="17">
-        <v>99.884258213656807</v>
+        <v>100.22476111111099</v>
       </c>
       <c r="N67" s="33">
-        <v>2065</v>
-      </c>
-      <c r="O67" s="13" t="s">
-        <v>727</v>
+        <v>2036</v>
+      </c>
+      <c r="O67" s="20" t="s">
+        <v>629</v>
       </c>
       <c r="P67" s="9"/>
       <c r="Q67" s="58" t="s">
-        <v>728</v>
-      </c>
-      <c r="R67" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="S67" s="58" t="s">
-        <v>729</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="R67" s="6"/>
+      <c r="S67" s="58"/>
       <c r="T67" s="36"/>
       <c r="U67" s="37"/>
     </row>
@@ -6714,34 +6728,42 @@
       </c>
       <c r="D68" s="25"/>
       <c r="E68" s="58" t="s">
-        <v>714</v>
+        <v>622</v>
       </c>
       <c r="F68" s="37"/>
       <c r="G68" s="37"/>
       <c r="H68" s="37"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="58"/>
+      <c r="I68" s="60">
+        <v>44229</v>
+      </c>
+      <c r="J68" s="58">
+        <v>99999</v>
+      </c>
       <c r="K68" s="11">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="L68" s="17">
-        <v>46.498443600000002</v>
+        <v>48.153490217425698</v>
       </c>
       <c r="M68" s="17">
-        <v>104.112144</v>
+        <v>99.884258213656807</v>
       </c>
       <c r="N68" s="33">
-        <v>1628</v>
+        <v>2065</v>
       </c>
       <c r="O68" s="20" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
       <c r="P68" s="9"/>
       <c r="Q68" s="58" t="s">
-        <v>268</v>
-      </c>
-      <c r="R68" s="6"/>
-      <c r="S68" s="58"/>
+        <v>728</v>
+      </c>
+      <c r="R68" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="S68" s="58" t="s">
+        <v>729</v>
+      </c>
       <c r="T68" s="36"/>
       <c r="U68" s="37"/>
     </row>
@@ -6757,7 +6779,7 @@
       </c>
       <c r="D69" s="25"/>
       <c r="E69" s="58" t="s">
-        <v>714</v>
+        <v>622</v>
       </c>
       <c r="F69" s="37"/>
       <c r="G69" s="37"/>
@@ -6765,23 +6787,23 @@
       <c r="I69" s="60"/>
       <c r="J69" s="58"/>
       <c r="K69" s="11">
-        <v>719</v>
+        <v>517</v>
       </c>
       <c r="L69" s="17">
-        <v>46.464283673439702</v>
+        <v>48.102229073501398</v>
       </c>
       <c r="M69" s="17">
-        <v>102.26652531996599</v>
+        <v>99.133387708606804</v>
       </c>
       <c r="N69" s="33">
-        <v>2009</v>
+        <v>2117</v>
       </c>
       <c r="O69" s="13" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="P69" s="9"/>
       <c r="Q69" s="58" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="R69" s="6"/>
       <c r="S69" s="58"/>
@@ -6800,7 +6822,7 @@
       </c>
       <c r="D70" s="25"/>
       <c r="E70" s="58" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F70" s="37"/>
       <c r="G70" s="37"/>
@@ -6808,23 +6830,23 @@
       <c r="I70" s="60"/>
       <c r="J70" s="58"/>
       <c r="K70" s="11">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="L70" s="17">
-        <v>48.206306499999997</v>
+        <v>46.498443600000002</v>
       </c>
       <c r="M70" s="17">
-        <v>108.48658</v>
+        <v>104.112144</v>
       </c>
       <c r="N70" s="33">
-        <v>1432</v>
+        <v>1628</v>
       </c>
       <c r="O70" s="20" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="P70" s="9"/>
       <c r="Q70" s="58" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="R70" s="6"/>
       <c r="S70" s="58"/>
@@ -6843,7 +6865,7 @@
       </c>
       <c r="D71" s="25"/>
       <c r="E71" s="58" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F71" s="37"/>
       <c r="G71" s="37"/>
@@ -6851,183 +6873,155 @@
       <c r="I71" s="60"/>
       <c r="J71" s="58"/>
       <c r="K71" s="11">
-        <v>907</v>
+        <v>719</v>
       </c>
       <c r="L71" s="17">
-        <v>48.694516666666601</v>
+        <v>46.464283673439702</v>
       </c>
       <c r="M71" s="17">
-        <v>110.190194444444</v>
+        <v>102.26652531996599</v>
       </c>
       <c r="N71" s="33">
-        <v>1116</v>
+        <v>2009</v>
       </c>
       <c r="O71" s="20" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
       <c r="P71" s="9"/>
       <c r="Q71" s="58" t="s">
-        <v>270</v>
+        <v>737</v>
       </c>
       <c r="R71" s="6"/>
       <c r="S71" s="58"/>
       <c r="T71" s="36"/>
       <c r="U71" s="37"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>459</v>
+        <v>387</v>
       </c>
       <c r="C72" s="25">
         <v>71</v>
       </c>
-      <c r="D72" s="28">
-        <v>0</v>
-      </c>
+      <c r="D72" s="25"/>
       <c r="E72" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="60">
-        <v>31702</v>
-      </c>
-      <c r="J72" s="58">
-        <v>99999</v>
-      </c>
-      <c r="K72" s="11"/>
-      <c r="L72" s="18">
-        <v>49</v>
-      </c>
-      <c r="M72" s="18">
-        <v>131.08333329999999</v>
+        <v>713</v>
+      </c>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="60"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="11">
+        <v>250</v>
+      </c>
+      <c r="L72" s="17">
+        <v>48.206306499999997</v>
+      </c>
+      <c r="M72" s="17">
+        <v>108.48658</v>
       </c>
       <c r="N72" s="33">
-        <v>257</v>
+        <v>1432</v>
       </c>
       <c r="O72" s="20" t="s">
-        <v>236</v>
+        <v>717</v>
       </c>
       <c r="P72" s="9"/>
       <c r="Q72" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="R72" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="S72" s="58" t="s">
-        <v>440</v>
-      </c>
-      <c r="T72" s="11"/>
-      <c r="U72" s="7"/>
-    </row>
-    <row r="73" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+        <v>270</v>
+      </c>
+      <c r="R72" s="6"/>
+      <c r="S72" s="58"/>
+      <c r="T72" s="36"/>
+      <c r="U72" s="37"/>
+    </row>
+    <row r="73" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>459</v>
+        <v>387</v>
       </c>
       <c r="C73" s="25">
         <v>72</v>
       </c>
-      <c r="D73" s="28">
-        <v>0</v>
-      </c>
+      <c r="D73" s="25"/>
       <c r="E73" s="58" t="s">
-        <v>255</v>
-      </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="60">
-        <v>31532</v>
-      </c>
-      <c r="J73" s="58">
-        <v>99999</v>
-      </c>
-      <c r="K73" s="11"/>
-      <c r="L73" s="18">
-        <v>50.866666600000002</v>
-      </c>
-      <c r="M73" s="18">
-        <v>132.25</v>
+        <v>715</v>
+      </c>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="58"/>
+      <c r="K73" s="11">
+        <v>907</v>
+      </c>
+      <c r="L73" s="17">
+        <v>48.694516666666601</v>
+      </c>
+      <c r="M73" s="17">
+        <v>110.190194444444</v>
       </c>
       <c r="N73" s="33">
-        <v>272</v>
+        <v>1116</v>
       </c>
       <c r="O73" s="20" t="s">
-        <v>235</v>
+        <v>718</v>
       </c>
       <c r="P73" s="9"/>
       <c r="Q73" s="58" t="s">
-        <v>319</v>
-      </c>
-      <c r="R73" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="S73" s="58" t="s">
-        <v>441</v>
-      </c>
-      <c r="T73" s="11"/>
-      <c r="U73" s="7"/>
-    </row>
-    <row r="74" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+        <v>270</v>
+      </c>
+      <c r="R73" s="6"/>
+      <c r="S73" s="58"/>
+      <c r="T73" s="36"/>
+      <c r="U73" s="37"/>
+    </row>
+    <row r="74" spans="1:21" s="38" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>459</v>
+        <v>387</v>
       </c>
       <c r="C74" s="25">
         <v>73</v>
       </c>
-      <c r="D74" s="28">
-        <v>0</v>
-      </c>
+      <c r="D74" s="25"/>
       <c r="E74" s="58" t="s">
-        <v>255</v>
-      </c>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="60">
-        <v>31478</v>
-      </c>
-      <c r="J74" s="58">
-        <v>99999</v>
-      </c>
-      <c r="K74" s="11"/>
-      <c r="L74" s="18">
-        <v>52.266666600000001</v>
-      </c>
-      <c r="M74" s="18">
-        <v>133.9833333</v>
+        <v>715</v>
+      </c>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="60"/>
+      <c r="J74" s="58"/>
+      <c r="K74" s="11">
+        <v>918</v>
+      </c>
+      <c r="L74" s="17">
+        <v>47.744035304564498</v>
+      </c>
+      <c r="M74" s="17">
+        <v>109.053877218203</v>
       </c>
       <c r="N74" s="33">
-        <v>902</v>
-      </c>
-      <c r="O74" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="P74" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q74" s="58" t="s">
-        <v>520</v>
-      </c>
-      <c r="R74" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="S74" s="58" t="s">
-        <v>442</v>
-      </c>
-      <c r="T74" s="11"/>
-      <c r="U74" s="7"/>
+        <v>1431</v>
+      </c>
+      <c r="O74" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="58"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="58"/>
+      <c r="T74" s="36"/>
+      <c r="U74" s="37"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A75" s="58" t="s">
@@ -7043,39 +7037,39 @@
         <v>0</v>
       </c>
       <c r="E75" s="58" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
       <c r="I75" s="60">
-        <v>31329</v>
+        <v>31702</v>
       </c>
       <c r="J75" s="58">
         <v>99999</v>
       </c>
       <c r="K75" s="11"/>
       <c r="L75" s="18">
-        <v>53.066666699999999</v>
+        <v>49</v>
       </c>
       <c r="M75" s="18">
-        <v>132.93333329999999</v>
+        <v>131.08333329999999</v>
       </c>
       <c r="N75" s="33">
-        <v>543</v>
+        <v>257</v>
       </c>
       <c r="O75" s="20" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P75" s="9"/>
       <c r="Q75" s="58" t="s">
-        <v>515</v>
+        <v>318</v>
       </c>
       <c r="R75" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="S75" s="58" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="T75" s="11"/>
       <c r="U75" s="7"/>
@@ -7100,33 +7094,33 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="60">
-        <v>31348</v>
+        <v>31532</v>
       </c>
       <c r="J76" s="58">
         <v>99999</v>
       </c>
       <c r="K76" s="11"/>
       <c r="L76" s="18">
-        <v>53.05</v>
+        <v>50.866666600000002</v>
       </c>
       <c r="M76" s="18">
-        <v>136.03333330000001</v>
+        <v>132.25</v>
       </c>
       <c r="N76" s="33">
-        <v>153</v>
+        <v>272</v>
       </c>
       <c r="O76" s="20" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P76" s="9"/>
       <c r="Q76" s="58" t="s">
-        <v>520</v>
+        <v>319</v>
       </c>
       <c r="R76" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S76" s="58" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="T76" s="11"/>
       <c r="U76" s="7"/>
@@ -7145,49 +7139,51 @@
         <v>0</v>
       </c>
       <c r="E77" s="58" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
       <c r="I77" s="60">
-        <v>30673</v>
+        <v>31478</v>
       </c>
       <c r="J77" s="58">
         <v>99999</v>
       </c>
       <c r="K77" s="11"/>
       <c r="L77" s="18">
-        <v>53.75</v>
+        <v>52.266666600000001</v>
       </c>
       <c r="M77" s="18">
-        <v>119.7333333</v>
+        <v>133.9833333</v>
       </c>
       <c r="N77" s="33">
-        <v>625</v>
+        <v>902</v>
       </c>
       <c r="O77" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="P77" s="9"/>
+        <v>234</v>
+      </c>
+      <c r="P77" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="Q77" s="58" t="s">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="R77" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S77" s="58" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="T77" s="11"/>
       <c r="U77" s="7"/>
     </row>
-    <row r="78" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A78" s="58" t="s">
         <v>261</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>569</v>
+        <v>459</v>
       </c>
       <c r="C78" s="25">
         <v>77</v>
@@ -7196,52 +7192,46 @@
         <v>0</v>
       </c>
       <c r="E78" s="58" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="60">
-        <v>30565</v>
+        <v>31329</v>
       </c>
       <c r="J78" s="58">
         <v>99999</v>
       </c>
       <c r="K78" s="11"/>
       <c r="L78" s="18">
-        <v>54.45</v>
+        <v>53.066666699999999</v>
       </c>
       <c r="M78" s="18">
-        <v>116.517</v>
+        <v>132.93333329999999</v>
       </c>
       <c r="N78" s="33">
-        <v>686</v>
+        <v>543</v>
       </c>
       <c r="O78" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="P78" s="9" t="s">
-        <v>385</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="P78" s="9"/>
       <c r="Q78" s="58" t="s">
-        <v>323</v>
+        <v>515</v>
       </c>
       <c r="R78" s="6" t="s">
-        <v>571</v>
+        <v>382</v>
       </c>
       <c r="S78" s="58" t="s">
-        <v>572</v>
-      </c>
-      <c r="T78" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="U78" s="7" t="s">
-        <v>574</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="T78" s="11"/>
+      <c r="U78" s="7"/>
     </row>
     <row r="79" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A79" s="58" t="s">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="B79" s="22" t="s">
         <v>459</v>
@@ -7253,41 +7243,39 @@
         <v>0</v>
       </c>
       <c r="E79" s="58" t="s">
-        <v>152</v>
+        <v>255</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
       <c r="I79" s="60">
-        <v>30664</v>
+        <v>31348</v>
       </c>
       <c r="J79" s="58">
         <v>99999</v>
       </c>
       <c r="K79" s="11"/>
       <c r="L79" s="18">
-        <v>53.533333300000002</v>
+        <v>53.05</v>
       </c>
       <c r="M79" s="18">
-        <v>115.6166666</v>
+        <v>136.03333330000001</v>
       </c>
       <c r="N79" s="33">
-        <v>811</v>
+        <v>153</v>
       </c>
       <c r="O79" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="P79" s="9" t="s">
-        <v>386</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="P79" s="9"/>
       <c r="Q79" s="58" t="s">
-        <v>323</v>
+        <v>520</v>
       </c>
       <c r="R79" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S79" s="58" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="T79" s="11"/>
       <c r="U79" s="7"/>
@@ -7306,39 +7294,39 @@
         <v>0</v>
       </c>
       <c r="E80" s="58" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
       <c r="I80" s="60">
-        <v>30636</v>
+        <v>30673</v>
       </c>
       <c r="J80" s="58">
         <v>99999</v>
       </c>
       <c r="K80" s="11"/>
       <c r="L80" s="18">
-        <v>53.616666600000002</v>
+        <v>53.75</v>
       </c>
       <c r="M80" s="18">
-        <v>109.6333333</v>
+        <v>119.7333333</v>
       </c>
       <c r="N80" s="33">
-        <v>489</v>
+        <v>625</v>
       </c>
       <c r="O80" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P80" s="9"/>
       <c r="Q80" s="58" t="s">
-        <v>519</v>
+        <v>320</v>
       </c>
       <c r="R80" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S80" s="58" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="T80" s="11"/>
       <c r="U80" s="7"/>
@@ -7348,7 +7336,7 @@
         <v>261</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>459</v>
+        <v>569</v>
       </c>
       <c r="C81" s="25">
         <v>80</v>
@@ -7357,46 +7345,50 @@
         <v>0</v>
       </c>
       <c r="E81" s="58" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
       <c r="I81" s="60">
-        <v>30622</v>
+        <v>30565</v>
       </c>
       <c r="J81" s="58">
         <v>99999</v>
       </c>
       <c r="K81" s="11"/>
       <c r="L81" s="18">
-        <v>53.966666600000003</v>
+        <v>54.45</v>
       </c>
       <c r="M81" s="18">
-        <v>105.9</v>
+        <v>116.517</v>
       </c>
       <c r="N81" s="33">
-        <v>533</v>
+        <v>686</v>
       </c>
       <c r="O81" s="20" t="s">
-        <v>228</v>
+        <v>570</v>
       </c>
       <c r="P81" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q81" s="58" t="s">
-        <v>518</v>
+        <v>323</v>
       </c>
       <c r="R81" s="6" t="s">
-        <v>382</v>
+        <v>571</v>
       </c>
       <c r="S81" s="58" t="s">
-        <v>448</v>
-      </c>
-      <c r="T81" s="11"/>
-      <c r="U81" s="7"/>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.4">
+        <v>572</v>
+      </c>
+      <c r="T81" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="U81" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A82" s="58" t="s">
         <v>41</v>
       </c>
@@ -7410,44 +7402,46 @@
         <v>0</v>
       </c>
       <c r="E82" s="58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="60">
-        <v>36104</v>
+        <v>30664</v>
       </c>
       <c r="J82" s="58">
         <v>99999</v>
       </c>
       <c r="K82" s="11"/>
       <c r="L82" s="18">
-        <v>51.483333299999998</v>
+        <v>53.533333300000002</v>
       </c>
       <c r="M82" s="18">
-        <v>95.583333300000007</v>
+        <v>115.6166666</v>
       </c>
       <c r="N82" s="33">
-        <v>705.8</v>
+        <v>811</v>
       </c>
       <c r="O82" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="P82" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="P82" s="9" t="s">
+        <v>386</v>
+      </c>
       <c r="Q82" s="58" t="s">
-        <v>516</v>
+        <v>323</v>
       </c>
       <c r="R82" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S82" s="58" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="T82" s="11"/>
       <c r="U82" s="7"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A83" s="58" t="s">
         <v>261</v>
       </c>
@@ -7461,46 +7455,44 @@
         <v>0</v>
       </c>
       <c r="E83" s="58" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="60">
-        <v>36096</v>
+        <v>30636</v>
       </c>
       <c r="J83" s="58">
         <v>99999</v>
       </c>
       <c r="K83" s="11"/>
       <c r="L83" s="18">
-        <v>51.716666600000003</v>
+        <v>53.616666600000002</v>
       </c>
       <c r="M83" s="18">
-        <v>94.5</v>
+        <v>109.6333333</v>
       </c>
       <c r="N83" s="33">
-        <v>628</v>
+        <v>489</v>
       </c>
       <c r="O83" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="P83" s="9" t="s">
-        <v>385</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="P83" s="9"/>
       <c r="Q83" s="58" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="R83" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S83" s="58" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="T83" s="11"/>
       <c r="U83" s="7"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A84" s="58" t="s">
         <v>261</v>
       </c>
@@ -7514,46 +7506,48 @@
         <v>0</v>
       </c>
       <c r="E84" s="58" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
       <c r="I84" s="60">
-        <v>36307</v>
+        <v>30622</v>
       </c>
       <c r="J84" s="58">
         <v>99999</v>
       </c>
       <c r="K84" s="11"/>
       <c r="L84" s="18">
-        <v>50.25</v>
+        <v>53.966666600000003</v>
       </c>
       <c r="M84" s="18">
-        <v>95.166666599999999</v>
+        <v>105.9</v>
       </c>
       <c r="N84" s="33">
-        <v>1100</v>
+        <v>533</v>
       </c>
       <c r="O84" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="P84" s="9"/>
+        <v>228</v>
+      </c>
+      <c r="P84" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="Q84" s="58" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="R84" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S84" s="58" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="T84" s="11"/>
       <c r="U84" s="7"/>
     </row>
-    <row r="85" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A85" s="58" t="s">
-        <v>261</v>
+        <v>41</v>
       </c>
       <c r="B85" s="22" t="s">
         <v>459</v>
@@ -7565,46 +7559,44 @@
         <v>0</v>
       </c>
       <c r="E85" s="58" t="s">
-        <v>258</v>
+        <v>151</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
       <c r="I85" s="60">
-        <v>36259</v>
+        <v>36104</v>
       </c>
       <c r="J85" s="58">
         <v>99999</v>
       </c>
       <c r="K85" s="11"/>
       <c r="L85" s="18">
-        <v>50.016666600000001</v>
+        <v>51.483333299999998</v>
       </c>
       <c r="M85" s="18">
-        <v>88.683333300000001</v>
+        <v>95.583333300000007</v>
       </c>
       <c r="N85" s="33">
-        <v>1759</v>
+        <v>705.8</v>
       </c>
       <c r="O85" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="P85" s="9" t="s">
-        <v>385</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="P85" s="9"/>
       <c r="Q85" s="58" t="s">
-        <v>321</v>
+        <v>516</v>
       </c>
       <c r="R85" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S85" s="58" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="T85" s="11"/>
       <c r="U85" s="7"/>
     </row>
-    <row r="86" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A86" s="58" t="s">
         <v>261</v>
       </c>
@@ -7614,51 +7606,55 @@
       <c r="C86" s="25">
         <v>85</v>
       </c>
-      <c r="D86" s="28"/>
+      <c r="D86" s="28">
+        <v>0</v>
+      </c>
       <c r="E86" s="58" t="s">
-        <v>253</v>
-      </c>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
+        <v>257</v>
+      </c>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
       <c r="I86" s="60">
-        <v>30781</v>
+        <v>36096</v>
       </c>
       <c r="J86" s="58">
         <v>99999</v>
       </c>
       <c r="K86" s="11"/>
       <c r="L86" s="18">
-        <v>52.75</v>
+        <v>51.716666600000003</v>
       </c>
       <c r="M86" s="18">
-        <v>120.0333333</v>
+        <v>94.5</v>
       </c>
       <c r="N86" s="33">
-        <v>370</v>
+        <v>628</v>
       </c>
       <c r="O86" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="P86" s="9"/>
+        <v>237</v>
+      </c>
+      <c r="P86" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="Q86" s="58" t="s">
-        <v>373</v>
+        <v>517</v>
       </c>
       <c r="R86" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="S86" s="58" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="T86" s="11"/>
       <c r="U86" s="7"/>
     </row>
-    <row r="87" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A87" s="58" t="s">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C87" s="25">
         <v>86</v>
@@ -7667,47 +7663,49 @@
         <v>0</v>
       </c>
       <c r="E87" s="58" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="60">
-        <v>36535</v>
+        <v>36307</v>
       </c>
       <c r="J87" s="58">
         <v>99999</v>
       </c>
       <c r="K87" s="11"/>
       <c r="L87" s="18">
-        <v>48.75</v>
+        <v>50.25</v>
       </c>
       <c r="M87" s="18">
-        <v>82.366666600000002</v>
+        <v>95.166666599999999</v>
       </c>
       <c r="N87" s="33">
-        <v>512</v>
+        <v>1100</v>
       </c>
       <c r="O87" s="20" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="P87" s="9"/>
-      <c r="Q87" s="58"/>
+      <c r="Q87" s="58" t="s">
+        <v>510</v>
+      </c>
       <c r="R87" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S87" s="58" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="T87" s="11"/>
       <c r="U87" s="7"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A88" s="58" t="s">
-        <v>369</v>
+        <v>261</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C88" s="25">
         <v>87</v>
@@ -7716,104 +7714,100 @@
         <v>0</v>
       </c>
       <c r="E88" s="58" t="s">
-        <v>372</v>
+        <v>258</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
       <c r="I88" s="60">
-        <v>47005</v>
+        <v>36259</v>
       </c>
       <c r="J88" s="58">
         <v>99999</v>
       </c>
       <c r="K88" s="11"/>
       <c r="L88" s="18">
-        <v>41.816666599999998</v>
+        <v>50.016666600000001</v>
       </c>
       <c r="M88" s="18">
-        <v>128.30000000000001</v>
+        <v>88.683333300000001</v>
       </c>
       <c r="N88" s="33">
-        <v>1381</v>
+        <v>1759</v>
       </c>
       <c r="O88" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="P88" s="9"/>
+        <v>238</v>
+      </c>
+      <c r="P88" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="Q88" s="58" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="R88" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="S88" s="58" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="T88" s="11"/>
       <c r="U88" s="7"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A89" s="58" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C89" s="25">
         <v>88</v>
       </c>
-      <c r="D89" s="28">
-        <v>0</v>
-      </c>
+      <c r="D89" s="28"/>
       <c r="E89" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H89" s="7"/>
+        <v>253</v>
+      </c>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
       <c r="I89" s="60">
-        <v>54342</v>
+        <v>30781</v>
       </c>
       <c r="J89" s="58">
         <v>99999</v>
       </c>
       <c r="K89" s="11"/>
-      <c r="L89" s="17">
-        <v>41.732500000000002</v>
-      </c>
-      <c r="M89" s="17">
-        <v>123.51</v>
-      </c>
-      <c r="N89" s="34">
-        <v>51</v>
+      <c r="L89" s="18">
+        <v>52.75</v>
+      </c>
+      <c r="M89" s="18">
+        <v>120.0333333</v>
+      </c>
+      <c r="N89" s="33">
+        <v>370</v>
       </c>
       <c r="O89" s="20" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="P89" s="9"/>
       <c r="Q89" s="58" t="s">
-        <v>276</v>
+        <v>373</v>
       </c>
       <c r="R89" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="S89" s="58" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="T89" s="11"/>
       <c r="U89" s="7"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A90" s="58" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C90" s="25">
         <v>89</v>
@@ -7822,51 +7816,47 @@
         <v>0</v>
       </c>
       <c r="E90" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>85</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
       <c r="H90" s="7"/>
       <c r="I90" s="60">
-        <v>54252</v>
+        <v>36535</v>
       </c>
       <c r="J90" s="58">
         <v>99999</v>
       </c>
       <c r="K90" s="11"/>
-      <c r="L90" s="17">
-        <v>42.740299999999998</v>
-      </c>
-      <c r="M90" s="17">
-        <v>124.7406</v>
-      </c>
-      <c r="N90" s="34">
-        <v>196.1</v>
+      <c r="L90" s="18">
+        <v>48.75</v>
+      </c>
+      <c r="M90" s="18">
+        <v>82.366666600000002</v>
+      </c>
+      <c r="N90" s="33">
+        <v>512</v>
       </c>
       <c r="O90" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="P90" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q90" s="58" t="s">
-        <v>279</v>
-      </c>
-      <c r="R90" s="6"/>
-      <c r="S90" s="58"/>
+        <v>45</v>
+      </c>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="58"/>
+      <c r="R90" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S90" s="58" t="s">
+        <v>457</v>
+      </c>
       <c r="T90" s="11"/>
       <c r="U90" s="7"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A91" s="58" t="s">
-        <v>3</v>
+        <v>369</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C91" s="25">
         <v>90</v>
@@ -7875,43 +7865,39 @@
         <v>0</v>
       </c>
       <c r="E91" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>207</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
       <c r="H91" s="7"/>
       <c r="I91" s="60">
-        <v>54161</v>
+        <v>47005</v>
       </c>
       <c r="J91" s="58">
         <v>99999</v>
       </c>
       <c r="K91" s="11"/>
-      <c r="L91" s="17">
-        <v>43.891399999999997</v>
-      </c>
-      <c r="M91" s="17">
-        <v>125.2317</v>
-      </c>
-      <c r="N91" s="34">
-        <v>236.8</v>
+      <c r="L91" s="18">
+        <v>41.816666599999998</v>
+      </c>
+      <c r="M91" s="18">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="N91" s="33">
+        <v>1381</v>
       </c>
       <c r="O91" s="20" t="s">
-        <v>208</v>
+        <v>370</v>
       </c>
       <c r="P91" s="9"/>
       <c r="Q91" s="58" t="s">
-        <v>277</v>
+        <v>371</v>
       </c>
       <c r="R91" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="S91" s="58" t="s">
-        <v>398</v>
+        <v>458</v>
       </c>
       <c r="T91" s="11"/>
       <c r="U91" s="7"/>
@@ -7930,45 +7916,43 @@
         <v>0</v>
       </c>
       <c r="E92" s="58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="60">
-        <v>54273</v>
+        <v>54342</v>
       </c>
       <c r="J92" s="58">
         <v>99999</v>
       </c>
       <c r="K92" s="11"/>
       <c r="L92" s="17">
-        <v>42.978299999999997</v>
+        <v>41.732500000000002</v>
       </c>
       <c r="M92" s="17">
-        <v>126.7597</v>
+        <v>123.51</v>
       </c>
       <c r="N92" s="34">
-        <v>263.3</v>
+        <v>51</v>
       </c>
       <c r="O92" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="P92" s="9" t="s">
-        <v>385</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="P92" s="9"/>
       <c r="Q92" s="58" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="R92" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S92" s="58" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="T92" s="11"/>
       <c r="U92" s="7"/>
@@ -7987,46 +7971,42 @@
         <v>0</v>
       </c>
       <c r="E93" s="58" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="60">
-        <v>50953</v>
+        <v>54252</v>
       </c>
       <c r="J93" s="58">
         <v>99999</v>
       </c>
       <c r="K93" s="11"/>
       <c r="L93" s="17">
-        <v>45.934199999999997</v>
+        <v>42.740299999999998</v>
       </c>
       <c r="M93" s="17">
-        <v>126.58110000000001</v>
+        <v>124.7406</v>
       </c>
       <c r="N93" s="34">
-        <v>115</v>
+        <v>196.1</v>
       </c>
       <c r="O93" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P93" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q93" s="58" t="s">
-        <v>273</v>
-      </c>
-      <c r="R93" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="S93" s="58" t="s">
-        <v>400</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="R93" s="6"/>
+      <c r="S93" s="58"/>
       <c r="T93" s="11"/>
       <c r="U93" s="7"/>
     </row>
@@ -8044,46 +8024,48 @@
         <v>0</v>
       </c>
       <c r="E94" s="58" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="60">
-        <v>50673</v>
+        <v>54161</v>
       </c>
       <c r="J94" s="58">
         <v>99999</v>
       </c>
       <c r="K94" s="11"/>
       <c r="L94" s="17">
-        <v>48.887799999999999</v>
+        <v>43.891399999999997</v>
       </c>
       <c r="M94" s="17">
-        <v>130.4117</v>
+        <v>125.2317</v>
       </c>
       <c r="N94" s="34">
-        <v>90</v>
+        <v>236.8</v>
       </c>
       <c r="O94" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="P94" s="9" t="s">
-        <v>385</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="P94" s="9"/>
       <c r="Q94" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="R94" s="6"/>
-      <c r="S94" s="58"/>
+        <v>277</v>
+      </c>
+      <c r="R94" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S94" s="58" t="s">
+        <v>398</v>
+      </c>
       <c r="T94" s="11"/>
       <c r="U94" s="7"/>
     </row>
-    <row r="95" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A95" s="58" t="s">
         <v>3</v>
       </c>
@@ -8097,48 +8079,50 @@
         <v>0</v>
       </c>
       <c r="E95" s="58" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="60">
-        <v>50353</v>
+        <v>54273</v>
       </c>
       <c r="J95" s="58">
         <v>99999</v>
       </c>
       <c r="K95" s="11"/>
       <c r="L95" s="17">
-        <v>51.726100000000002</v>
+        <v>42.978299999999997</v>
       </c>
       <c r="M95" s="17">
-        <v>126.63890000000001</v>
+        <v>126.7597</v>
       </c>
       <c r="N95" s="34">
-        <v>173.9</v>
+        <v>263.3</v>
       </c>
       <c r="O95" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="P95" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="P95" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="Q95" s="58" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="R95" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S95" s="58" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="T95" s="11"/>
       <c r="U95" s="7"/>
     </row>
-    <row r="96" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A96" s="58" t="s">
         <v>3</v>
       </c>
@@ -8155,41 +8139,47 @@
         <v>54</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="60">
-        <v>50246</v>
+        <v>50953</v>
       </c>
       <c r="J96" s="58">
         <v>99999</v>
       </c>
       <c r="K96" s="11"/>
       <c r="L96" s="17">
-        <v>52.348100000000002</v>
+        <v>45.934199999999997</v>
       </c>
       <c r="M96" s="17">
-        <v>124.7169</v>
+        <v>126.58110000000001</v>
       </c>
       <c r="N96" s="34">
-        <v>359.4</v>
+        <v>115</v>
       </c>
       <c r="O96" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="P96" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="P96" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="Q96" s="58" t="s">
-        <v>280</v>
-      </c>
-      <c r="R96" s="6"/>
-      <c r="S96" s="58"/>
+        <v>273</v>
+      </c>
+      <c r="R96" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S96" s="58" t="s">
+        <v>400</v>
+      </c>
       <c r="T96" s="11"/>
       <c r="U96" s="7"/>
     </row>
-    <row r="97" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A97" s="58" t="s">
         <v>3</v>
       </c>
@@ -8206,34 +8196,36 @@
         <v>54</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="60">
-        <v>50247</v>
+        <v>50673</v>
       </c>
       <c r="J97" s="58">
         <v>99999</v>
       </c>
       <c r="K97" s="11"/>
       <c r="L97" s="17">
-        <v>52.036099999999998</v>
+        <v>48.887799999999999</v>
       </c>
       <c r="M97" s="17">
-        <v>123.5722</v>
+        <v>130.4117</v>
       </c>
       <c r="N97" s="34">
-        <v>514.5</v>
+        <v>90</v>
       </c>
       <c r="O97" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P97" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="P97" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="Q97" s="58" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="R97" s="6"/>
       <c r="S97" s="58"/>
@@ -8260,39 +8252,37 @@
         <v>53</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="60">
-        <v>50136</v>
+        <v>50353</v>
       </c>
       <c r="J98" s="58">
         <v>99999</v>
       </c>
       <c r="K98" s="11"/>
       <c r="L98" s="17">
-        <v>52.974400000000003</v>
+        <v>51.726100000000002</v>
       </c>
       <c r="M98" s="17">
-        <v>122.51309999999999</v>
+        <v>126.63890000000001</v>
       </c>
       <c r="N98" s="34">
-        <v>433.9</v>
+        <v>173.9</v>
       </c>
       <c r="O98" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="P98" s="9" t="s">
-        <v>385</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="P98" s="9"/>
       <c r="Q98" s="58" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="R98" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S98" s="58" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T98" s="11"/>
       <c r="U98" s="7"/>
@@ -8317,38 +8307,38 @@
         <v>53</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="60">
-        <v>50137</v>
+        <v>50246</v>
       </c>
       <c r="J99" s="58">
         <v>99999</v>
       </c>
       <c r="K99" s="11"/>
       <c r="L99" s="17">
-        <v>53.468899999999998</v>
+        <v>52.348100000000002</v>
       </c>
       <c r="M99" s="17">
-        <v>122.36190000000001</v>
+        <v>124.7169</v>
       </c>
       <c r="N99" s="34">
-        <v>291.60000000000002</v>
+        <v>359.4</v>
       </c>
       <c r="O99" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P99" s="9"/>
       <c r="Q99" s="58" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="R99" s="6"/>
       <c r="S99" s="58"/>
       <c r="T99" s="11"/>
       <c r="U99" s="7"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A100" s="58" t="s">
         <v>3</v>
       </c>
@@ -8362,46 +8352,44 @@
         <v>0</v>
       </c>
       <c r="E100" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="60">
-        <v>50431</v>
+        <v>50247</v>
       </c>
       <c r="J100" s="58">
         <v>99999</v>
       </c>
       <c r="K100" s="11"/>
       <c r="L100" s="17">
-        <v>50.782800000000002</v>
+        <v>52.036099999999998</v>
       </c>
       <c r="M100" s="17">
-        <v>121.51300000000001</v>
+        <v>123.5722</v>
       </c>
       <c r="N100" s="34">
-        <v>716.7</v>
+        <v>514.5</v>
       </c>
       <c r="O100" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="P100" s="9" t="s">
-        <v>385</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="P100" s="9"/>
       <c r="Q100" s="58" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="R100" s="6"/>
       <c r="S100" s="58"/>
       <c r="T100" s="11"/>
       <c r="U100" s="7"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A101" s="58" t="s">
         <v>3</v>
       </c>
@@ -8415,50 +8403,50 @@
         <v>0</v>
       </c>
       <c r="E101" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="60">
-        <v>50434</v>
+        <v>50136</v>
       </c>
       <c r="J101" s="58">
         <v>99999</v>
       </c>
       <c r="K101" s="11"/>
       <c r="L101" s="17">
-        <v>50.478099999999998</v>
+        <v>52.974400000000003</v>
       </c>
       <c r="M101" s="17">
-        <v>121.6867</v>
+        <v>122.51309999999999</v>
       </c>
       <c r="N101" s="34">
-        <v>734.8</v>
+        <v>433.9</v>
       </c>
       <c r="O101" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P101" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q101" s="58" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="R101" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S101" s="58" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="T101" s="11"/>
       <c r="U101" s="7"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A102" s="58" t="s">
         <v>3</v>
       </c>
@@ -8472,37 +8460,37 @@
         <v>0</v>
       </c>
       <c r="E102" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H102" s="7"/>
       <c r="I102" s="60">
-        <v>50425</v>
+        <v>50137</v>
       </c>
       <c r="J102" s="58">
         <v>99999</v>
       </c>
       <c r="K102" s="11"/>
       <c r="L102" s="17">
-        <v>50.236899999999999</v>
+        <v>53.468899999999998</v>
       </c>
       <c r="M102" s="17">
-        <v>120.16719999999999</v>
+        <v>122.36190000000001</v>
       </c>
       <c r="N102" s="34">
-        <v>581.4</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="O102" s="20" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="P102" s="9"/>
       <c r="Q102" s="58" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="R102" s="6"/>
       <c r="S102" s="58"/>
@@ -8519,7 +8507,9 @@
       <c r="C103" s="25">
         <v>102</v>
       </c>
-      <c r="D103" s="28"/>
+      <c r="D103" s="28">
+        <v>0</v>
+      </c>
       <c r="E103" s="58" t="s">
         <v>55</v>
       </c>
@@ -8527,31 +8517,33 @@
         <v>56</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="60">
-        <v>50524</v>
+        <v>50431</v>
       </c>
       <c r="J103" s="58">
         <v>99999</v>
       </c>
       <c r="K103" s="11"/>
       <c r="L103" s="17">
-        <v>49.3414</v>
+        <v>50.782800000000002</v>
       </c>
       <c r="M103" s="17">
-        <v>119.4569</v>
+        <v>121.51300000000001</v>
       </c>
       <c r="N103" s="34">
-        <v>597.4</v>
+        <v>716.7</v>
       </c>
       <c r="O103" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="P103" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="P103" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="Q103" s="58" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R103" s="6"/>
       <c r="S103" s="58"/>
@@ -8578,42 +8570,44 @@
         <v>56</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="60">
-        <v>50527</v>
+        <v>50434</v>
       </c>
       <c r="J104" s="58">
         <v>99999</v>
       </c>
       <c r="K104" s="11"/>
       <c r="L104" s="17">
-        <v>49.25</v>
+        <v>50.478099999999998</v>
       </c>
       <c r="M104" s="17">
-        <v>119.7003</v>
+        <v>121.6867</v>
       </c>
       <c r="N104" s="34">
-        <v>649.70000000000005</v>
+        <v>734.8</v>
       </c>
       <c r="O104" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="P104" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="P104" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="Q104" s="58" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="R104" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S104" s="58" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T104" s="11"/>
       <c r="U104" s="7"/>
     </row>
-    <row r="105" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105" s="58" t="s">
         <v>3</v>
       </c>
@@ -8623,7 +8617,9 @@
       <c r="C105" s="25">
         <v>104</v>
       </c>
-      <c r="D105" s="28"/>
+      <c r="D105" s="28">
+        <v>0</v>
+      </c>
       <c r="E105" s="58" t="s">
         <v>55</v>
       </c>
@@ -8631,31 +8627,31 @@
         <v>56</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="60">
-        <v>50525</v>
+        <v>50425</v>
       </c>
       <c r="J105" s="58">
         <v>99999</v>
       </c>
       <c r="K105" s="11"/>
       <c r="L105" s="17">
-        <v>49.132800000000003</v>
+        <v>50.236899999999999</v>
       </c>
       <c r="M105" s="17">
-        <v>119.7419</v>
+        <v>120.16719999999999</v>
       </c>
       <c r="N105" s="34">
-        <v>617.29999999999995</v>
+        <v>581.4</v>
       </c>
       <c r="O105" s="20" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="P105" s="9"/>
       <c r="Q105" s="58" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R105" s="6"/>
       <c r="S105" s="58"/>
@@ -8672,9 +8668,7 @@
       <c r="C106" s="25">
         <v>105</v>
       </c>
-      <c r="D106" s="28">
-        <v>0</v>
-      </c>
+      <c r="D106" s="28"/>
       <c r="E106" s="58" t="s">
         <v>55</v>
       </c>
@@ -8682,31 +8676,31 @@
         <v>56</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="60">
-        <v>50526</v>
+        <v>50524</v>
       </c>
       <c r="J106" s="58">
         <v>99999</v>
       </c>
       <c r="K106" s="11"/>
       <c r="L106" s="17">
-        <v>49.283099999999997</v>
+        <v>49.3414</v>
       </c>
       <c r="M106" s="17">
-        <v>120.6878</v>
+        <v>119.4569</v>
       </c>
       <c r="N106" s="34">
-        <v>654.9</v>
+        <v>597.4</v>
       </c>
       <c r="O106" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P106" s="9"/>
       <c r="Q106" s="58" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="R106" s="6"/>
       <c r="S106" s="58"/>
@@ -8730,45 +8724,45 @@
         <v>55</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="60">
-        <v>50727</v>
+        <v>50527</v>
       </c>
       <c r="J107" s="58">
         <v>99999</v>
       </c>
       <c r="K107" s="11"/>
       <c r="L107" s="17">
-        <v>47.180799999999998</v>
+        <v>49.25</v>
       </c>
       <c r="M107" s="17">
-        <v>119.9344</v>
+        <v>119.7003</v>
       </c>
       <c r="N107" s="34">
-        <v>997</v>
+        <v>649.70000000000005</v>
       </c>
       <c r="O107" s="20" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="P107" s="9"/>
       <c r="Q107" s="58" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="R107" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S107" s="58" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="T107" s="11"/>
       <c r="U107" s="7"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A108" s="58" t="s">
         <v>3</v>
       </c>
@@ -8778,42 +8772,40 @@
       <c r="C108" s="25">
         <v>107</v>
       </c>
-      <c r="D108" s="28">
-        <v>0</v>
-      </c>
+      <c r="D108" s="28"/>
       <c r="E108" s="58" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="60">
-        <v>53392</v>
+        <v>50525</v>
       </c>
       <c r="J108" s="58">
         <v>99999</v>
       </c>
       <c r="K108" s="11"/>
       <c r="L108" s="17">
-        <v>41.86</v>
+        <v>49.132800000000003</v>
       </c>
       <c r="M108" s="17">
-        <v>114.5603</v>
+        <v>119.7419</v>
       </c>
       <c r="N108" s="34">
-        <v>1434.5</v>
+        <v>617.29999999999995</v>
       </c>
       <c r="O108" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="P108" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q108" s="58"/>
+        <v>30</v>
+      </c>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="58" t="s">
+        <v>284</v>
+      </c>
       <c r="R108" s="6"/>
       <c r="S108" s="58"/>
       <c r="T108" s="11"/>
@@ -8833,46 +8825,44 @@
         <v>0</v>
       </c>
       <c r="E109" s="58" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="60">
-        <v>55294</v>
+        <v>50526</v>
       </c>
       <c r="J109" s="58">
         <v>99999</v>
       </c>
       <c r="K109" s="11"/>
       <c r="L109" s="17">
-        <v>32.269399999999997</v>
+        <v>49.283099999999997</v>
       </c>
       <c r="M109" s="17">
-        <v>91.679400000000001</v>
+        <v>120.6878</v>
       </c>
       <c r="N109" s="34">
-        <v>4686</v>
+        <v>654.9</v>
       </c>
       <c r="O109" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="P109" s="9" t="s">
-        <v>385</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="P109" s="9"/>
       <c r="Q109" s="58" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R109" s="6"/>
       <c r="S109" s="58"/>
       <c r="T109" s="11"/>
       <c r="U109" s="7"/>
     </row>
-    <row r="110" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A110" s="58" t="s">
         <v>3</v>
       </c>
@@ -8886,46 +8876,48 @@
         <v>0</v>
       </c>
       <c r="E110" s="58" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="60">
-        <v>56034</v>
+        <v>50727</v>
       </c>
       <c r="J110" s="58">
         <v>99999</v>
       </c>
       <c r="K110" s="11"/>
       <c r="L110" s="17">
-        <v>33.805300000000003</v>
+        <v>47.180799999999998</v>
       </c>
       <c r="M110" s="17">
-        <v>97.137799999999999</v>
+        <v>119.9344</v>
       </c>
       <c r="N110" s="34">
-        <v>4415.6000000000004</v>
+        <v>997</v>
       </c>
       <c r="O110" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="P110" s="9" t="s">
-        <v>385</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="P110" s="9"/>
       <c r="Q110" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="R110" s="6"/>
-      <c r="S110" s="58"/>
+        <v>278</v>
+      </c>
+      <c r="R110" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S110" s="58" t="s">
+        <v>405</v>
+      </c>
       <c r="T110" s="11"/>
       <c r="U110" s="7"/>
     </row>
-    <row r="111" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A111" s="58" t="s">
         <v>3</v>
       </c>
@@ -8939,50 +8931,44 @@
         <v>0</v>
       </c>
       <c r="E111" s="58" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>509</v>
+        <v>96</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="60">
-        <v>52908</v>
+        <v>53392</v>
       </c>
       <c r="J111" s="58">
         <v>99999</v>
       </c>
       <c r="K111" s="11"/>
       <c r="L111" s="17">
-        <v>35.215800000000002</v>
+        <v>41.86</v>
       </c>
       <c r="M111" s="17">
-        <v>93.080799999999996</v>
+        <v>114.5603</v>
       </c>
       <c r="N111" s="34">
-        <v>4612</v>
+        <v>1434.5</v>
       </c>
       <c r="O111" s="20" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="P111" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="Q111" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="R111" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="S111" s="58" t="s">
-        <v>406</v>
-      </c>
+      <c r="Q111" s="58"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="58"/>
       <c r="T111" s="11"/>
       <c r="U111" s="7"/>
     </row>
-    <row r="112" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A112" s="58" t="s">
         <v>3</v>
       </c>
@@ -8996,46 +8982,42 @@
         <v>0</v>
       </c>
       <c r="E112" s="58" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="60">
-        <v>52323</v>
+        <v>55294</v>
       </c>
       <c r="J112" s="58">
         <v>99999</v>
       </c>
       <c r="K112" s="11"/>
       <c r="L112" s="17">
-        <v>41.804699999999997</v>
+        <v>32.269399999999997</v>
       </c>
       <c r="M112" s="17">
-        <v>97.031899999999993</v>
+        <v>91.679400000000001</v>
       </c>
       <c r="N112" s="34">
-        <v>1773.7</v>
+        <v>4686</v>
       </c>
       <c r="O112" s="20" t="s">
-        <v>262</v>
+        <v>14</v>
       </c>
       <c r="P112" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q112" s="58" t="s">
-        <v>262</v>
-      </c>
-      <c r="R112" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="S112" s="58" t="s">
-        <v>407</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="R112" s="6"/>
+      <c r="S112" s="58"/>
       <c r="T112" s="11"/>
       <c r="U112" s="7"/>
     </row>
@@ -9053,46 +9035,46 @@
         <v>0</v>
       </c>
       <c r="E113" s="58" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="60">
-        <v>52101</v>
+        <v>56034</v>
       </c>
       <c r="J113" s="58">
         <v>99999</v>
       </c>
       <c r="K113" s="11"/>
       <c r="L113" s="17">
-        <v>43.594999999999999</v>
+        <v>33.805300000000003</v>
       </c>
       <c r="M113" s="17">
-        <v>93.045000000000002</v>
+        <v>97.137799999999999</v>
       </c>
       <c r="N113" s="34">
-        <v>1679.2</v>
+        <v>4415.6000000000004</v>
       </c>
       <c r="O113" s="20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P113" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q113" s="58" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R113" s="6"/>
       <c r="S113" s="58"/>
       <c r="T113" s="11"/>
       <c r="U113" s="7"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A114" s="58" t="s">
         <v>3</v>
       </c>
@@ -9106,46 +9088,50 @@
         <v>0</v>
       </c>
       <c r="E114" s="58" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>74</v>
+        <v>509</v>
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="60">
-        <v>51186</v>
+        <v>52908</v>
       </c>
       <c r="J114" s="58">
         <v>99999</v>
       </c>
       <c r="K114" s="11"/>
       <c r="L114" s="17">
-        <v>46.664999999999999</v>
+        <v>35.215800000000002</v>
       </c>
       <c r="M114" s="17">
-        <v>90.377799999999993</v>
+        <v>93.080799999999996</v>
       </c>
       <c r="N114" s="34">
-        <v>1219.0999999999999</v>
+        <v>4612</v>
       </c>
       <c r="O114" s="20" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="P114" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q114" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="R114" s="6"/>
-      <c r="S114" s="58"/>
+        <v>286</v>
+      </c>
+      <c r="R114" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S114" s="58" t="s">
+        <v>406</v>
+      </c>
       <c r="T114" s="11"/>
       <c r="U114" s="7"/>
     </row>
-    <row r="115" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A115" s="58" t="s">
         <v>3</v>
       </c>
@@ -9159,50 +9145,50 @@
         <v>0</v>
       </c>
       <c r="E115" s="58" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>73</v>
+        <v>263</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>104</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="H115" s="7"/>
       <c r="I115" s="60">
-        <v>51076</v>
+        <v>52323</v>
       </c>
       <c r="J115" s="58">
         <v>99999</v>
       </c>
       <c r="K115" s="11"/>
       <c r="L115" s="17">
-        <v>47.741100000000003</v>
+        <v>41.804699999999997</v>
       </c>
       <c r="M115" s="17">
-        <v>88.071100000000001</v>
+        <v>97.031899999999993</v>
       </c>
       <c r="N115" s="34">
-        <v>734.8</v>
+        <v>1773.7</v>
       </c>
       <c r="O115" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="P115" s="9"/>
+        <v>262</v>
+      </c>
+      <c r="P115" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="Q115" s="58" t="s">
-        <v>521</v>
+        <v>262</v>
       </c>
       <c r="R115" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S115" s="58" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T115" s="11"/>
-      <c r="U115" s="30"/>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="U115" s="7"/>
+    </row>
+    <row r="116" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A116" s="58" t="s">
         <v>3</v>
       </c>
@@ -9212,48 +9198,46 @@
       <c r="C116" s="25">
         <v>115</v>
       </c>
-      <c r="D116" s="28"/>
+      <c r="D116" s="28">
+        <v>0</v>
+      </c>
       <c r="E116" s="58" t="s">
         <v>68</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="60">
-        <v>51573</v>
+        <v>52101</v>
       </c>
       <c r="J116" s="58">
         <v>99999</v>
       </c>
       <c r="K116" s="11"/>
       <c r="L116" s="17">
-        <v>42.950299999999999</v>
+        <v>43.594999999999999</v>
       </c>
       <c r="M116" s="17">
-        <v>89.230800000000002</v>
+        <v>93.045000000000002</v>
       </c>
       <c r="N116" s="34">
-        <v>39</v>
+        <v>1679.2</v>
       </c>
       <c r="O116" s="20" t="s">
-        <v>389</v>
+        <v>12</v>
       </c>
       <c r="P116" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q116" s="58" t="s">
-        <v>289</v>
-      </c>
-      <c r="R116" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="S116" s="58" t="s">
-        <v>409</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="R116" s="6"/>
+      <c r="S116" s="58"/>
       <c r="T116" s="11"/>
       <c r="U116" s="7"/>
     </row>
@@ -9274,47 +9258,43 @@
         <v>68</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="60">
-        <v>51463</v>
+        <v>51186</v>
       </c>
       <c r="J117" s="58">
         <v>99999</v>
       </c>
       <c r="K117" s="11"/>
       <c r="L117" s="17">
-        <v>43.789200000000001</v>
+        <v>46.664999999999999</v>
       </c>
       <c r="M117" s="17">
-        <v>87.645799999999994</v>
+        <v>90.377799999999993</v>
       </c>
       <c r="N117" s="34">
-        <v>935</v>
+        <v>1219.0999999999999</v>
       </c>
       <c r="O117" s="20" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P117" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q117" s="58" t="s">
-        <v>290</v>
-      </c>
-      <c r="R117" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="S117" s="58" t="s">
-        <v>410</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="R117" s="6"/>
+      <c r="S117" s="58"/>
       <c r="T117" s="11"/>
       <c r="U117" s="7"/>
     </row>
-    <row r="118" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A118" s="58" t="s">
         <v>3</v>
       </c>
@@ -9331,47 +9311,47 @@
         <v>68</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H118" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="I118" s="60">
-        <v>51542</v>
+        <v>51076</v>
       </c>
       <c r="J118" s="58">
         <v>99999</v>
       </c>
       <c r="K118" s="11"/>
       <c r="L118" s="17">
-        <v>43.0336</v>
+        <v>47.741100000000003</v>
       </c>
       <c r="M118" s="17">
-        <v>84.149199999999993</v>
+        <v>88.071100000000001</v>
       </c>
       <c r="N118" s="34">
-        <v>2459.1</v>
+        <v>734.8</v>
       </c>
       <c r="O118" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="P118" s="9" t="s">
-        <v>385</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="P118" s="9"/>
       <c r="Q118" s="58" t="s">
-        <v>291</v>
+        <v>521</v>
       </c>
       <c r="R118" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S118" s="58" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="T118" s="11"/>
-      <c r="U118" s="7"/>
-    </row>
-    <row r="119" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="U118" s="30"/>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A119" s="58" t="s">
         <v>3</v>
       </c>
@@ -9381,44 +9361,48 @@
       <c r="C119" s="25">
         <v>118</v>
       </c>
-      <c r="D119" s="28">
-        <v>0</v>
-      </c>
+      <c r="D119" s="28"/>
       <c r="E119" s="58" t="s">
         <v>68</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="60">
-        <v>51437</v>
+        <v>51573</v>
       </c>
       <c r="J119" s="58">
         <v>99999</v>
       </c>
       <c r="K119" s="11"/>
       <c r="L119" s="17">
-        <v>43.1417</v>
+        <v>42.950299999999999</v>
       </c>
       <c r="M119" s="17">
-        <v>81.125600000000006</v>
+        <v>89.230800000000002</v>
       </c>
       <c r="N119" s="34">
-        <v>1850.8</v>
+        <v>39</v>
       </c>
       <c r="O119" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="P119" s="9"/>
+        <v>389</v>
+      </c>
+      <c r="P119" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="Q119" s="58" t="s">
-        <v>290</v>
-      </c>
-      <c r="R119" s="6"/>
-      <c r="S119" s="58"/>
+        <v>289</v>
+      </c>
+      <c r="R119" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S119" s="58" t="s">
+        <v>409</v>
+      </c>
       <c r="T119" s="11"/>
       <c r="U119" s="7"/>
     </row>
@@ -9436,50 +9420,50 @@
         <v>0</v>
       </c>
       <c r="E120" s="58" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H120" s="7"/>
       <c r="I120" s="60">
-        <v>53463</v>
+        <v>51463</v>
       </c>
       <c r="J120" s="58">
         <v>99999</v>
       </c>
       <c r="K120" s="11"/>
       <c r="L120" s="17">
-        <v>40.855800000000002</v>
+        <v>43.789200000000001</v>
       </c>
       <c r="M120" s="17">
-        <v>111.5714</v>
+        <v>87.645799999999994</v>
       </c>
       <c r="N120" s="34">
-        <v>1153.5</v>
+        <v>935</v>
       </c>
       <c r="O120" s="20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P120" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q120" s="58" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="R120" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S120" s="58" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="T120" s="11"/>
       <c r="U120" s="7"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A121" s="58" t="s">
         <v>3</v>
       </c>
@@ -9489,48 +9473,54 @@
       <c r="C121" s="25">
         <v>120</v>
       </c>
-      <c r="D121" s="28"/>
+      <c r="D121" s="28">
+        <v>0</v>
+      </c>
       <c r="E121" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="F121" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="G121" s="7" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="60">
-        <v>54511</v>
+        <v>51542</v>
       </c>
       <c r="J121" s="58">
         <v>99999</v>
       </c>
       <c r="K121" s="11"/>
       <c r="L121" s="17">
-        <v>39.806100000000001</v>
+        <v>43.0336</v>
       </c>
       <c r="M121" s="17">
-        <v>116.46939999999999</v>
+        <v>84.149199999999993</v>
       </c>
       <c r="N121" s="34">
-        <v>32.799999999999997</v>
+        <v>2459.1</v>
       </c>
       <c r="O121" s="20" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="P121" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="Q121" s="58"/>
+      <c r="Q121" s="58" t="s">
+        <v>291</v>
+      </c>
       <c r="R121" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S121" s="58" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="T121" s="11"/>
       <c r="U121" s="7"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A122" s="58" t="s">
         <v>3</v>
       </c>
@@ -9540,43 +9530,45 @@
       <c r="C122" s="25">
         <v>121</v>
       </c>
-      <c r="D122" s="28"/>
+      <c r="D122" s="28">
+        <v>0</v>
+      </c>
       <c r="E122" s="58" t="s">
-        <v>379</v>
-      </c>
-      <c r="F122" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="G122" s="7" t="s">
-        <v>380</v>
+        <v>70</v>
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="60">
-        <v>54517</v>
+        <v>51437</v>
       </c>
       <c r="J122" s="58">
         <v>99999</v>
       </c>
       <c r="K122" s="11"/>
       <c r="L122" s="17">
-        <v>39.0747</v>
+        <v>43.1417</v>
       </c>
       <c r="M122" s="17">
-        <v>117.20610000000001</v>
+        <v>81.125600000000006</v>
       </c>
       <c r="N122" s="34">
-        <v>2.2000000000000002</v>
+        <v>1850.8</v>
       </c>
       <c r="O122" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="P122" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q122" s="58"/>
+        <v>11</v>
+      </c>
+      <c r="P122" s="9"/>
+      <c r="Q122" s="58" t="s">
+        <v>290</v>
+      </c>
       <c r="R122" s="6"/>
       <c r="S122" s="58"/>
-      <c r="T122" s="11" t="s">
-        <v>527</v>
-      </c>
+      <c r="T122" s="11"/>
       <c r="U122" s="7"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.4">
@@ -9589,47 +9581,49 @@
       <c r="C123" s="25">
         <v>122</v>
       </c>
-      <c r="D123" s="28"/>
+      <c r="D123" s="28">
+        <v>0</v>
+      </c>
       <c r="E123" s="58" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c r="H123" s="7"/>
       <c r="I123" s="60">
-        <v>53614</v>
+        <v>53463</v>
       </c>
       <c r="J123" s="58">
         <v>99999</v>
       </c>
       <c r="K123" s="11"/>
       <c r="L123" s="17">
-        <v>38.471400000000003</v>
+        <v>40.855800000000002</v>
       </c>
       <c r="M123" s="17">
-        <v>106.20780000000001</v>
+        <v>111.5714</v>
       </c>
       <c r="N123" s="34">
-        <v>1111.5999999999999</v>
+        <v>1153.5</v>
       </c>
       <c r="O123" s="20" t="s">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="P123" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q123" s="58" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R123" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S123" s="58" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="T123" s="11"/>
       <c r="U123" s="7"/>
@@ -9646,33 +9640,31 @@
       </c>
       <c r="D124" s="28"/>
       <c r="E124" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>163</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="F124" s="7"/>
       <c r="G124" s="7" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="H124" s="7"/>
       <c r="I124" s="60">
-        <v>53698</v>
+        <v>54511</v>
       </c>
       <c r="J124" s="58">
         <v>99999</v>
       </c>
       <c r="K124" s="11"/>
       <c r="L124" s="17">
-        <v>38.0197</v>
+        <v>39.806100000000001</v>
       </c>
       <c r="M124" s="17">
-        <v>114.3989</v>
+        <v>116.46939999999999</v>
       </c>
       <c r="N124" s="34">
-        <v>89.3</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="O124" s="20" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="P124" s="9" t="s">
         <v>385</v>
@@ -9682,7 +9674,7 @@
         <v>382</v>
       </c>
       <c r="S124" s="58" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T124" s="11"/>
       <c r="U124" s="7"/>
@@ -9699,47 +9691,41 @@
       </c>
       <c r="D125" s="28"/>
       <c r="E125" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>154</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="F125" s="7"/>
       <c r="G125" s="7" t="s">
-        <v>155</v>
+        <v>380</v>
       </c>
       <c r="H125" s="7"/>
       <c r="I125" s="60">
-        <v>53772</v>
+        <v>54517</v>
       </c>
       <c r="J125" s="58">
         <v>99999</v>
       </c>
       <c r="K125" s="11"/>
       <c r="L125" s="17">
-        <v>37.620600000000003</v>
+        <v>39.0747</v>
       </c>
       <c r="M125" s="17">
-        <v>112.57640000000001</v>
+        <v>117.20610000000001</v>
       </c>
       <c r="N125" s="34">
-        <v>776.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O125" s="20" t="s">
-        <v>160</v>
+        <v>462</v>
       </c>
       <c r="P125" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="Q125" s="58" t="s">
-        <v>294</v>
-      </c>
-      <c r="R125" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="S125" s="58" t="s">
-        <v>416</v>
-      </c>
-      <c r="T125" s="11"/>
+      <c r="Q125" s="58"/>
+      <c r="R125" s="6"/>
+      <c r="S125" s="58"/>
+      <c r="T125" s="11" t="s">
+        <v>527</v>
+      </c>
       <c r="U125" s="7"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.4">
@@ -9754,45 +9740,45 @@
       </c>
       <c r="D126" s="28"/>
       <c r="E126" s="58" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="H126" s="7"/>
       <c r="I126" s="60">
-        <v>52866</v>
+        <v>53614</v>
       </c>
       <c r="J126" s="58">
         <v>99999</v>
       </c>
       <c r="K126" s="11"/>
       <c r="L126" s="17">
-        <v>36.664400000000001</v>
+        <v>38.471400000000003</v>
       </c>
       <c r="M126" s="17">
-        <v>101.73309999999999</v>
+        <v>106.20780000000001</v>
       </c>
       <c r="N126" s="34">
-        <v>2434.1999999999998</v>
+        <v>1111.5999999999999</v>
       </c>
       <c r="O126" s="20" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="P126" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q126" s="58" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R126" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S126" s="58" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="T126" s="11"/>
       <c r="U126" s="7"/>
@@ -9809,45 +9795,43 @@
       </c>
       <c r="D127" s="28"/>
       <c r="E127" s="58" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="H127" s="7"/>
       <c r="I127" s="60">
-        <v>54823</v>
+        <v>53698</v>
       </c>
       <c r="J127" s="58">
         <v>99999</v>
       </c>
       <c r="K127" s="11"/>
       <c r="L127" s="17">
-        <v>36.601900000000001</v>
+        <v>38.0197</v>
       </c>
       <c r="M127" s="17">
-        <v>117.0081</v>
+        <v>114.3989</v>
       </c>
       <c r="N127" s="34">
-        <v>170.3</v>
+        <v>89.3</v>
       </c>
       <c r="O127" s="20" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="P127" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="Q127" s="58" t="s">
-        <v>296</v>
-      </c>
+      <c r="Q127" s="58"/>
       <c r="R127" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S127" s="58" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="T127" s="11"/>
       <c r="U127" s="7"/>
@@ -9864,45 +9848,45 @@
       </c>
       <c r="D128" s="28"/>
       <c r="E128" s="58" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="H128" s="7"/>
       <c r="I128" s="60">
-        <v>57083</v>
+        <v>53772</v>
       </c>
       <c r="J128" s="58">
         <v>99999</v>
       </c>
       <c r="K128" s="11"/>
       <c r="L128" s="17">
-        <v>34.706400000000002</v>
+        <v>37.620600000000003</v>
       </c>
       <c r="M128" s="17">
-        <v>113.6628</v>
+        <v>112.57640000000001</v>
       </c>
       <c r="N128" s="34">
-        <v>110.4</v>
+        <v>776.3</v>
       </c>
       <c r="O128" s="20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P128" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q128" s="58" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="R128" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S128" s="58" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="T128" s="11"/>
       <c r="U128" s="7"/>
@@ -9919,49 +9903,47 @@
       </c>
       <c r="D129" s="28"/>
       <c r="E129" s="58" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="H129" s="7"/>
       <c r="I129" s="60">
-        <v>57131</v>
+        <v>52866</v>
       </c>
       <c r="J129" s="58">
         <v>99999</v>
       </c>
       <c r="K129" s="11"/>
       <c r="L129" s="17">
-        <v>34.433300000000003</v>
+        <v>36.664400000000001</v>
       </c>
       <c r="M129" s="17">
-        <v>108.9667</v>
+        <v>101.73309999999999</v>
       </c>
       <c r="N129" s="34">
-        <v>410</v>
+        <v>2434.1999999999998</v>
       </c>
       <c r="O129" s="20" t="s">
-        <v>465</v>
+        <v>172</v>
       </c>
       <c r="P129" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q129" s="58" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="R129" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S129" s="58" t="s">
-        <v>420</v>
-      </c>
-      <c r="T129" s="11" t="s">
-        <v>467</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="T129" s="11"/>
       <c r="U129" s="7"/>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.4">
@@ -9976,50 +9958,50 @@
       </c>
       <c r="D130" s="28"/>
       <c r="E130" s="58" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="H130" s="7"/>
       <c r="I130" s="60">
-        <v>57245</v>
+        <v>54823</v>
       </c>
       <c r="J130" s="58">
         <v>99999</v>
       </c>
       <c r="K130" s="11"/>
       <c r="L130" s="17">
-        <v>32.693100000000001</v>
+        <v>36.601900000000001</v>
       </c>
       <c r="M130" s="17">
-        <v>109.04170000000001</v>
+        <v>117.0081</v>
       </c>
       <c r="N130" s="34">
-        <v>290.8</v>
+        <v>170.3</v>
       </c>
       <c r="O130" s="20" t="s">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="P130" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q130" s="58" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="R130" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S130" s="58" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="T130" s="11"/>
       <c r="U130" s="7"/>
     </row>
-    <row r="131" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A131" s="58" t="s">
         <v>3</v>
       </c>
@@ -10031,48 +10013,48 @@
       </c>
       <c r="D131" s="28"/>
       <c r="E131" s="58" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="H131" s="7"/>
       <c r="I131" s="60">
-        <v>57687</v>
+        <v>57083</v>
       </c>
       <c r="J131" s="58">
         <v>99999</v>
       </c>
       <c r="K131" s="11"/>
       <c r="L131" s="17">
-        <v>28.108599999999999</v>
+        <v>34.706400000000002</v>
       </c>
       <c r="M131" s="17">
-        <v>112.7864</v>
+        <v>113.6628</v>
       </c>
       <c r="N131" s="34">
-        <v>114</v>
+        <v>110.4</v>
       </c>
       <c r="O131" s="20" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="P131" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q131" s="58" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="R131" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S131" s="58" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="T131" s="11"/>
-      <c r="U131" s="30"/>
+      <c r="U131" s="7"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A132" s="58" t="s">
@@ -10086,47 +10068,49 @@
       </c>
       <c r="D132" s="28"/>
       <c r="E132" s="58" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="H132" s="7"/>
       <c r="I132" s="60">
-        <v>58606</v>
+        <v>57131</v>
       </c>
       <c r="J132" s="58">
         <v>99999</v>
       </c>
       <c r="K132" s="11"/>
       <c r="L132" s="17">
-        <v>28.59</v>
+        <v>34.433300000000003</v>
       </c>
       <c r="M132" s="17">
-        <v>115.9014</v>
+        <v>108.9667</v>
       </c>
       <c r="N132" s="34">
-        <v>47.2</v>
+        <v>410</v>
       </c>
       <c r="O132" s="20" t="s">
-        <v>141</v>
+        <v>465</v>
       </c>
       <c r="P132" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q132" s="58" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="R132" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S132" s="58" t="s">
-        <v>423</v>
-      </c>
-      <c r="T132" s="11"/>
+        <v>420</v>
+      </c>
+      <c r="T132" s="11" t="s">
+        <v>467</v>
+      </c>
       <c r="U132" s="7"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.4">
@@ -10141,50 +10125,50 @@
       </c>
       <c r="D133" s="28"/>
       <c r="E133" s="58" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H133" s="7"/>
       <c r="I133" s="60">
-        <v>57494</v>
+        <v>57245</v>
       </c>
       <c r="J133" s="58">
         <v>99999</v>
       </c>
       <c r="K133" s="11"/>
       <c r="L133" s="17">
-        <v>30.597799999999999</v>
+        <v>32.693100000000001</v>
       </c>
       <c r="M133" s="17">
-        <v>114.0506</v>
+        <v>109.04170000000001</v>
       </c>
       <c r="N133" s="34">
-        <v>23.6</v>
+        <v>290.8</v>
       </c>
       <c r="O133" s="20" t="s">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="P133" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q133" s="58" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="R133" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S133" s="58" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="T133" s="11"/>
       <c r="U133" s="7"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A134" s="58" t="s">
         <v>3</v>
       </c>
@@ -10196,48 +10180,48 @@
       </c>
       <c r="D134" s="28"/>
       <c r="E134" s="58" t="s">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="H134" s="7"/>
       <c r="I134" s="60">
-        <v>58321</v>
+        <v>57687</v>
       </c>
       <c r="J134" s="58">
         <v>99999</v>
       </c>
       <c r="K134" s="11"/>
       <c r="L134" s="17">
-        <v>31.9556</v>
+        <v>28.108599999999999</v>
       </c>
       <c r="M134" s="17">
-        <v>117.05719999999999</v>
+        <v>112.7864</v>
       </c>
       <c r="N134" s="34">
-        <v>49.8</v>
+        <v>114</v>
       </c>
       <c r="O134" s="20" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="P134" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q134" s="58" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="R134" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S134" s="58" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="T134" s="11"/>
-      <c r="U134" s="7"/>
+      <c r="U134" s="30"/>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A135" s="58" t="s">
@@ -10251,45 +10235,45 @@
       </c>
       <c r="D135" s="28"/>
       <c r="E135" s="58" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H135" s="7"/>
       <c r="I135" s="60">
-        <v>58238</v>
+        <v>58606</v>
       </c>
       <c r="J135" s="58">
         <v>99999</v>
       </c>
       <c r="K135" s="11"/>
       <c r="L135" s="17">
-        <v>31.931699999999999</v>
+        <v>28.59</v>
       </c>
       <c r="M135" s="17">
-        <v>118.8997</v>
+        <v>115.9014</v>
       </c>
       <c r="N135" s="34">
-        <v>33.200000000000003</v>
+        <v>47.2</v>
       </c>
       <c r="O135" s="20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="P135" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q135" s="58" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R135" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S135" s="58" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="T135" s="11"/>
       <c r="U135" s="7"/>
@@ -10306,45 +10290,45 @@
       </c>
       <c r="D136" s="28"/>
       <c r="E136" s="58" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="H136" s="7"/>
       <c r="I136" s="60">
-        <v>58457</v>
+        <v>57494</v>
       </c>
       <c r="J136" s="58">
         <v>99999</v>
       </c>
       <c r="K136" s="11"/>
       <c r="L136" s="17">
-        <v>30.2258</v>
+        <v>30.597799999999999</v>
       </c>
       <c r="M136" s="17">
-        <v>120.1647</v>
+        <v>114.0506</v>
       </c>
       <c r="N136" s="34">
-        <v>42.1</v>
+        <v>23.6</v>
       </c>
       <c r="O136" s="20" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="P136" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q136" s="58" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="R136" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S136" s="58" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="T136" s="11"/>
       <c r="U136" s="7"/>
@@ -10361,45 +10345,45 @@
       </c>
       <c r="D137" s="28"/>
       <c r="E137" s="58" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H137" s="7"/>
       <c r="I137" s="60">
-        <v>58646</v>
+        <v>58321</v>
       </c>
       <c r="J137" s="58">
         <v>99999</v>
       </c>
       <c r="K137" s="11"/>
       <c r="L137" s="17">
-        <v>28.394400000000001</v>
+        <v>31.9556</v>
       </c>
       <c r="M137" s="17">
-        <v>119.85420000000001</v>
+        <v>117.05719999999999</v>
       </c>
       <c r="N137" s="34">
-        <v>144.5</v>
+        <v>49.8</v>
       </c>
       <c r="O137" s="20" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="P137" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q137" s="58" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="R137" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S137" s="58" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="T137" s="11"/>
       <c r="U137" s="7"/>
@@ -10416,45 +10400,45 @@
       </c>
       <c r="D138" s="28"/>
       <c r="E138" s="58" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c r="H138" s="7"/>
       <c r="I138" s="60">
-        <v>58847</v>
+        <v>58238</v>
       </c>
       <c r="J138" s="58">
         <v>99999</v>
       </c>
       <c r="K138" s="11"/>
       <c r="L138" s="17">
-        <v>26.077500000000001</v>
+        <v>31.931699999999999</v>
       </c>
       <c r="M138" s="17">
-        <v>119.2894</v>
+        <v>118.8997</v>
       </c>
       <c r="N138" s="34">
-        <v>84.1</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="O138" s="20" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="P138" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q138" s="58" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="R138" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S138" s="58" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="T138" s="11"/>
       <c r="U138" s="7"/>
@@ -10471,96 +10455,100 @@
       </c>
       <c r="D139" s="28"/>
       <c r="E139" s="58" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="H139" s="7"/>
       <c r="I139" s="60">
-        <v>59287</v>
+        <v>58457</v>
       </c>
       <c r="J139" s="58">
         <v>99999</v>
       </c>
       <c r="K139" s="11"/>
       <c r="L139" s="17">
-        <v>23.21</v>
+        <v>30.2258</v>
       </c>
       <c r="M139" s="17">
-        <v>113.48220000000001</v>
+        <v>120.1647</v>
       </c>
       <c r="N139" s="34">
-        <v>70.7</v>
+        <v>42.1</v>
       </c>
       <c r="O139" s="20" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="P139" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q139" s="58" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="R139" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S139" s="58" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="T139" s="11"/>
       <c r="U139" s="7"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A140" s="58" t="s">
-        <v>563</v>
+        <v>3</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>564</v>
+        <v>461</v>
       </c>
       <c r="C140" s="25">
         <v>139</v>
       </c>
       <c r="D140" s="28"/>
       <c r="E140" s="58" t="s">
-        <v>565</v>
+        <v>110</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>567</v>
+        <v>111</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="H140" s="7"/>
       <c r="I140" s="60">
-        <v>59758</v>
+        <v>58646</v>
       </c>
       <c r="J140" s="58">
         <v>99999</v>
       </c>
       <c r="K140" s="11"/>
       <c r="L140" s="17">
-        <v>19.9939</v>
+        <v>28.394400000000001</v>
       </c>
       <c r="M140" s="17">
-        <v>110.2469</v>
+        <v>119.85420000000001</v>
       </c>
       <c r="N140" s="34">
-        <v>63.5</v>
+        <v>144.5</v>
       </c>
       <c r="O140" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="P140" s="9"/>
-      <c r="Q140" s="58"/>
+        <v>32</v>
+      </c>
+      <c r="P140" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q140" s="58" t="s">
+        <v>304</v>
+      </c>
       <c r="R140" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S140" s="58" t="s">
-        <v>568</v>
+        <v>428</v>
       </c>
       <c r="T140" s="11"/>
       <c r="U140" s="7"/>
@@ -10577,43 +10565,45 @@
       </c>
       <c r="D141" s="28"/>
       <c r="E141" s="58" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H141" s="7"/>
       <c r="I141" s="60">
-        <v>59948</v>
+        <v>58847</v>
       </c>
       <c r="J141" s="58">
         <v>99999</v>
       </c>
       <c r="K141" s="11"/>
       <c r="L141" s="17">
-        <v>18.216699999999999</v>
+        <v>26.077500000000001</v>
       </c>
       <c r="M141" s="17">
-        <v>109.58329999999999</v>
+        <v>119.2894</v>
       </c>
       <c r="N141" s="34">
-        <v>419.4</v>
+        <v>84.1</v>
       </c>
       <c r="O141" s="20" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="P141" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="Q141" s="58"/>
+      <c r="Q141" s="58" t="s">
+        <v>305</v>
+      </c>
       <c r="R141" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S141" s="58" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="T141" s="11"/>
       <c r="U141" s="7"/>
@@ -10630,103 +10620,101 @@
       </c>
       <c r="D142" s="28"/>
       <c r="E142" s="58" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="H142" s="7"/>
       <c r="I142" s="60">
-        <v>59838</v>
+        <v>59287</v>
       </c>
       <c r="J142" s="58">
         <v>99999</v>
       </c>
       <c r="K142" s="11"/>
       <c r="L142" s="17">
-        <v>19.094200000000001</v>
+        <v>23.21</v>
       </c>
       <c r="M142" s="17">
-        <v>108.6217</v>
+        <v>113.48220000000001</v>
       </c>
       <c r="N142" s="34">
-        <v>6.1</v>
+        <v>70.7</v>
       </c>
       <c r="O142" s="20" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="P142" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="Q142" s="58"/>
+      <c r="Q142" s="58" t="s">
+        <v>306</v>
+      </c>
       <c r="R142" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S142" s="58" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="T142" s="11"/>
       <c r="U142" s="7"/>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A143" s="58" t="s">
-        <v>3</v>
+        <v>563</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>461</v>
+        <v>564</v>
       </c>
       <c r="C143" s="25">
         <v>142</v>
       </c>
       <c r="D143" s="28"/>
       <c r="E143" s="58" t="s">
-        <v>186</v>
+        <v>565</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>187</v>
+        <v>567</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="H143" s="7"/>
       <c r="I143" s="60">
-        <v>59431</v>
+        <v>59758</v>
       </c>
       <c r="J143" s="58">
         <v>99999</v>
       </c>
       <c r="K143" s="11"/>
       <c r="L143" s="17">
-        <v>22.783899999999999</v>
+        <v>19.9939</v>
       </c>
       <c r="M143" s="17">
-        <v>108.5472</v>
+        <v>110.2469</v>
       </c>
       <c r="N143" s="34">
-        <v>152.1</v>
+        <v>63.5</v>
       </c>
       <c r="O143" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="P143" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q143" s="58" t="s">
-        <v>307</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="P143" s="9"/>
+      <c r="Q143" s="58"/>
       <c r="R143" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S143" s="58" t="s">
-        <v>433</v>
+        <v>568</v>
       </c>
       <c r="T143" s="11"/>
       <c r="U143" s="7"/>
     </row>
-    <row r="144" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A144" s="58" t="s">
         <v>3</v>
       </c>
@@ -10738,45 +10726,43 @@
       </c>
       <c r="D144" s="28"/>
       <c r="E144" s="58" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="H144" s="7"/>
       <c r="I144" s="60">
-        <v>56966</v>
+        <v>59948</v>
       </c>
       <c r="J144" s="58">
         <v>99999</v>
       </c>
       <c r="K144" s="11"/>
       <c r="L144" s="17">
-        <v>23.632200000000001</v>
+        <v>18.216699999999999</v>
       </c>
       <c r="M144" s="17">
-        <v>101.9683</v>
+        <v>109.58329999999999</v>
       </c>
       <c r="N144" s="34">
-        <v>506.8</v>
+        <v>419.4</v>
       </c>
       <c r="O144" s="20" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="P144" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="Q144" s="58" t="s">
-        <v>34</v>
-      </c>
+      <c r="Q144" s="58"/>
       <c r="R144" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S144" s="58" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="T144" s="11"/>
       <c r="U144" s="7"/>
@@ -10793,45 +10779,43 @@
       </c>
       <c r="D145" s="28"/>
       <c r="E145" s="58" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="H145" s="7"/>
       <c r="I145" s="60">
-        <v>56778</v>
+        <v>59838</v>
       </c>
       <c r="J145" s="58">
         <v>99999</v>
       </c>
       <c r="K145" s="11"/>
       <c r="L145" s="17">
-        <v>25.0078</v>
+        <v>19.094200000000001</v>
       </c>
       <c r="M145" s="17">
-        <v>102.65309999999999</v>
+        <v>108.6217</v>
       </c>
       <c r="N145" s="34">
-        <v>1888.1</v>
+        <v>6.1</v>
       </c>
       <c r="O145" s="20" t="s">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="P145" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="Q145" s="58" t="s">
-        <v>308</v>
-      </c>
+      <c r="Q145" s="58"/>
       <c r="R145" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S145" s="58" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="T145" s="11"/>
       <c r="U145" s="7"/>
@@ -10848,45 +10832,45 @@
       </c>
       <c r="D146" s="28"/>
       <c r="E146" s="58" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="H146" s="7"/>
       <c r="I146" s="60">
-        <v>57816</v>
+        <v>59431</v>
       </c>
       <c r="J146" s="58">
         <v>99999</v>
       </c>
       <c r="K146" s="11"/>
       <c r="L146" s="17">
-        <v>26.589700000000001</v>
+        <v>22.783899999999999</v>
       </c>
       <c r="M146" s="17">
-        <v>106.72750000000001</v>
+        <v>108.5472</v>
       </c>
       <c r="N146" s="34">
-        <v>1227.3</v>
+        <v>152.1</v>
       </c>
       <c r="O146" s="20" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="P146" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q146" s="58" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="R146" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S146" s="58" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="T146" s="11"/>
       <c r="U146" s="7"/>
@@ -10903,43 +10887,45 @@
       </c>
       <c r="D147" s="28"/>
       <c r="E147" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="F147" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="G147" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H147" s="7"/>
       <c r="I147" s="60">
-        <v>57516</v>
+        <v>56966</v>
       </c>
       <c r="J147" s="58">
         <v>99999</v>
       </c>
       <c r="K147" s="11"/>
       <c r="L147" s="17">
-        <v>29.604700000000001</v>
+        <v>23.632200000000001</v>
       </c>
       <c r="M147" s="17">
-        <v>106.4042</v>
+        <v>101.9683</v>
       </c>
       <c r="N147" s="34">
-        <v>260</v>
+        <v>506.8</v>
       </c>
       <c r="O147" s="20" t="s">
-        <v>463</v>
+        <v>34</v>
       </c>
       <c r="P147" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q147" s="58" t="s">
-        <v>310</v>
+        <v>34</v>
       </c>
       <c r="R147" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S147" s="58" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="T147" s="11"/>
       <c r="U147" s="7"/>
@@ -10956,42 +10942,46 @@
       </c>
       <c r="D148" s="28"/>
       <c r="E148" s="58" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>528</v>
+        <v>176</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>529</v>
+        <v>177</v>
       </c>
       <c r="H148" s="7"/>
       <c r="I148" s="60">
-        <v>57413</v>
+        <v>56778</v>
       </c>
       <c r="J148" s="58">
         <v>99999</v>
       </c>
       <c r="K148" s="11"/>
       <c r="L148" s="17">
-        <v>30.856400000000001</v>
+        <v>25.0078</v>
       </c>
       <c r="M148" s="17">
-        <v>106.9983</v>
+        <v>102.65309999999999</v>
       </c>
       <c r="N148" s="34">
-        <v>305.7</v>
+        <v>1888.1</v>
       </c>
       <c r="O148" s="20" t="s">
-        <v>529</v>
+        <v>178</v>
       </c>
       <c r="P148" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q148" s="58" t="s">
-        <v>530</v>
-      </c>
-      <c r="R148" s="6"/>
-      <c r="S148" s="58"/>
+        <v>308</v>
+      </c>
+      <c r="R148" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S148" s="58" t="s">
+        <v>435</v>
+      </c>
       <c r="T148" s="11"/>
       <c r="U148" s="7"/>
     </row>
@@ -11007,52 +10997,50 @@
       </c>
       <c r="D149" s="28"/>
       <c r="E149" s="58" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="H149" s="7"/>
       <c r="I149" s="60">
-        <v>56187</v>
+        <v>57816</v>
       </c>
       <c r="J149" s="58">
         <v>99999</v>
       </c>
       <c r="K149" s="11"/>
       <c r="L149" s="17">
-        <v>30.748899999999999</v>
+        <v>26.589700000000001</v>
       </c>
       <c r="M149" s="17">
-        <v>103.861</v>
+        <v>106.72750000000001</v>
       </c>
       <c r="N149" s="34">
-        <v>547.70000000000005</v>
+        <v>1227.3</v>
       </c>
       <c r="O149" s="20" t="s">
-        <v>464</v>
+        <v>175</v>
       </c>
       <c r="P149" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q149" s="58" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R149" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S149" s="58" t="s">
-        <v>438</v>
-      </c>
-      <c r="T149" s="11" t="s">
-        <v>468</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="T149" s="11"/>
       <c r="U149" s="7"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A150" s="58" t="s">
         <v>3</v>
       </c>
@@ -11064,45 +11052,43 @@
       </c>
       <c r="D150" s="28"/>
       <c r="E150" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="F150" s="7" t="s">
-        <v>168</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="F150" s="7"/>
       <c r="G150" s="7" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="H150" s="7"/>
       <c r="I150" s="60">
-        <v>55591</v>
+        <v>57516</v>
       </c>
       <c r="J150" s="58">
         <v>99999</v>
       </c>
       <c r="K150" s="11"/>
       <c r="L150" s="17">
-        <v>29.6586</v>
+        <v>29.604700000000001</v>
       </c>
       <c r="M150" s="17">
-        <v>91.135300000000001</v>
+        <v>106.4042</v>
       </c>
       <c r="N150" s="34">
-        <v>3648.7</v>
+        <v>260</v>
       </c>
       <c r="O150" s="20" t="s">
-        <v>169</v>
+        <v>463</v>
       </c>
       <c r="P150" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q150" s="58" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="R150" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S150" s="58" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="T150" s="11"/>
       <c r="U150" s="7"/>
@@ -11119,39 +11105,39 @@
       </c>
       <c r="D151" s="28"/>
       <c r="E151" s="58" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>125</v>
+        <v>528</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>37</v>
+        <v>529</v>
       </c>
       <c r="H151" s="7"/>
       <c r="I151" s="60">
-        <v>52267</v>
+        <v>57413</v>
       </c>
       <c r="J151" s="58">
         <v>99999</v>
       </c>
       <c r="K151" s="11"/>
       <c r="L151" s="17">
-        <v>41.956899999999997</v>
+        <v>30.856400000000001</v>
       </c>
       <c r="M151" s="17">
-        <v>101.0611</v>
+        <v>106.9983</v>
       </c>
       <c r="N151" s="34">
-        <v>939</v>
+        <v>305.7</v>
       </c>
       <c r="O151" s="20" t="s">
-        <v>37</v>
+        <v>529</v>
       </c>
       <c r="P151" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q151" s="58" t="s">
-        <v>314</v>
+        <v>530</v>
       </c>
       <c r="R151" s="6"/>
       <c r="S151" s="58"/>
@@ -11168,45 +11154,51 @@
       <c r="C152" s="25">
         <v>151</v>
       </c>
-      <c r="D152" s="28">
-        <v>0</v>
-      </c>
+      <c r="D152" s="28"/>
       <c r="E152" s="58" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="H152" s="7"/>
       <c r="I152" s="60">
-        <v>53478</v>
+        <v>56187</v>
       </c>
       <c r="J152" s="58">
         <v>99999</v>
       </c>
       <c r="K152" s="11"/>
       <c r="L152" s="17">
-        <v>39.994199999999999</v>
+        <v>30.748899999999999</v>
       </c>
       <c r="M152" s="17">
-        <v>112.4603</v>
+        <v>103.861</v>
       </c>
       <c r="N152" s="34">
-        <v>1345.8</v>
+        <v>547.70000000000005</v>
       </c>
       <c r="O152" s="20" t="s">
-        <v>17</v>
+        <v>464</v>
       </c>
       <c r="P152" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="Q152" s="58"/>
-      <c r="R152" s="6"/>
-      <c r="S152" s="58"/>
-      <c r="T152" s="11"/>
+      <c r="Q152" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="R152" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S152" s="58" t="s">
+        <v>438</v>
+      </c>
+      <c r="T152" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="U152" s="7"/>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.4">
@@ -11221,40 +11213,46 @@
       </c>
       <c r="D153" s="28"/>
       <c r="E153" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="F153" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="G153" s="7" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="H153" s="7"/>
       <c r="I153" s="60">
-        <v>58367</v>
+        <v>55591</v>
       </c>
       <c r="J153" s="58">
         <v>99999</v>
       </c>
       <c r="K153" s="11"/>
       <c r="L153" s="17">
-        <v>31.1922</v>
+        <v>29.6586</v>
       </c>
       <c r="M153" s="17">
-        <v>121.43170000000001</v>
+        <v>91.135300000000001</v>
       </c>
       <c r="N153" s="34">
-        <v>2</v>
+        <v>3648.7</v>
       </c>
       <c r="O153" s="20" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="P153" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q153" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="R153" s="6"/>
-      <c r="S153" s="58"/>
+        <v>312</v>
+      </c>
+      <c r="R153" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S153" s="58" t="s">
+        <v>439</v>
+      </c>
       <c r="T153" s="11"/>
       <c r="U153" s="7"/>
     </row>
@@ -11270,39 +11268,39 @@
       </c>
       <c r="D154" s="28"/>
       <c r="E154" s="58" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H154" s="7"/>
       <c r="I154" s="60">
-        <v>58826</v>
+        <v>52267</v>
       </c>
       <c r="J154" s="58">
         <v>99999</v>
       </c>
       <c r="K154" s="11"/>
       <c r="L154" s="17">
-        <v>26.391100000000002</v>
+        <v>41.956899999999997</v>
       </c>
       <c r="M154" s="17">
-        <v>117.8069</v>
+        <v>101.0611</v>
       </c>
       <c r="N154" s="34">
-        <v>120.7</v>
+        <v>939</v>
       </c>
       <c r="O154" s="20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P154" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q154" s="58" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R154" s="6"/>
       <c r="S154" s="58"/>
@@ -11319,42 +11317,42 @@
       <c r="C155" s="25">
         <v>154</v>
       </c>
-      <c r="D155" s="28"/>
+      <c r="D155" s="28">
+        <v>0</v>
+      </c>
       <c r="E155" s="58" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>627</v>
+        <v>83</v>
       </c>
       <c r="H155" s="7"/>
       <c r="I155" s="60">
-        <v>58623</v>
+        <v>53478</v>
       </c>
       <c r="J155" s="58">
         <v>99999</v>
       </c>
       <c r="K155" s="11"/>
       <c r="L155" s="17">
-        <v>28.461400000000001</v>
+        <v>39.994199999999999</v>
       </c>
       <c r="M155" s="17">
-        <v>117.9036</v>
+        <v>112.4603</v>
       </c>
       <c r="N155" s="34">
-        <v>121.3</v>
+        <v>1345.8</v>
       </c>
       <c r="O155" s="20" t="s">
-        <v>630</v>
+        <v>17</v>
       </c>
       <c r="P155" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="Q155" s="58" t="s">
-        <v>316</v>
-      </c>
+      <c r="Q155" s="58"/>
       <c r="R155" s="6"/>
       <c r="S155" s="58"/>
       <c r="T155" s="11"/>
@@ -11372,39 +11370,37 @@
       </c>
       <c r="D156" s="28"/>
       <c r="E156" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>120</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="F156" s="7"/>
       <c r="G156" s="7" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="H156" s="7"/>
       <c r="I156" s="60">
-        <v>57778</v>
+        <v>58367</v>
       </c>
       <c r="J156" s="58">
         <v>99999</v>
       </c>
       <c r="K156" s="11"/>
       <c r="L156" s="17">
-        <v>27.052499999999998</v>
+        <v>31.1922</v>
       </c>
       <c r="M156" s="17">
-        <v>112.9847</v>
+        <v>121.43170000000001</v>
       </c>
       <c r="N156" s="34">
-        <v>109.4</v>
+        <v>2</v>
       </c>
       <c r="O156" s="20" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="P156" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q156" s="58" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="R156" s="6"/>
       <c r="S156" s="58"/>
@@ -11423,48 +11419,46 @@
       </c>
       <c r="D157" s="28"/>
       <c r="E157" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="F157" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="G157" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="H157" s="14"/>
+        <v>114</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H157" s="7"/>
       <c r="I157" s="60">
-        <v>52889</v>
+        <v>58826</v>
       </c>
       <c r="J157" s="58">
         <v>99999</v>
       </c>
       <c r="K157" s="11"/>
-      <c r="L157" s="18">
-        <v>36.043900000000001</v>
-      </c>
-      <c r="M157" s="18">
-        <v>103.87779999999999</v>
-      </c>
-      <c r="N157" s="33">
-        <v>1517.2</v>
+      <c r="L157" s="17">
+        <v>26.391100000000002</v>
+      </c>
+      <c r="M157" s="17">
+        <v>117.8069</v>
+      </c>
+      <c r="N157" s="34">
+        <v>120.7</v>
       </c>
       <c r="O157" s="20" t="s">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="P157" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q157" s="58" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="R157" s="6"/>
       <c r="S157" s="58"/>
-      <c r="T157" s="11" t="s">
-        <v>469</v>
-      </c>
+      <c r="T157" s="11"/>
       <c r="U157" s="7"/>
     </row>
-    <row r="158" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A158" s="58" t="s">
         <v>3</v>
       </c>
@@ -11476,46 +11470,46 @@
       </c>
       <c r="D158" s="28"/>
       <c r="E158" s="58" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>107</v>
+        <v>627</v>
       </c>
       <c r="H158" s="7"/>
       <c r="I158" s="60">
-        <v>50341</v>
+        <v>58623</v>
       </c>
       <c r="J158" s="58">
         <v>99999</v>
       </c>
       <c r="K158" s="11"/>
       <c r="L158" s="17">
-        <v>51.683300000000003</v>
+        <v>28.461400000000001</v>
       </c>
       <c r="M158" s="17">
-        <v>123.61669999999999</v>
-      </c>
-      <c r="N158" s="33">
-        <v>654</v>
+        <v>117.9036</v>
+      </c>
+      <c r="N158" s="34">
+        <v>121.3</v>
       </c>
       <c r="O158" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="P158" s="9"/>
+        <v>630</v>
+      </c>
+      <c r="P158" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="Q158" s="58" t="s">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="R158" s="6"/>
       <c r="S158" s="58"/>
-      <c r="T158" s="11" t="s">
-        <v>507</v>
-      </c>
+      <c r="T158" s="11"/>
       <c r="U158" s="7"/>
     </row>
-    <row r="159" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A159" s="58" t="s">
         <v>3</v>
       </c>
@@ -11527,35 +11521,39 @@
       </c>
       <c r="D159" s="28"/>
       <c r="E159" s="58" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="H159" s="7"/>
-      <c r="I159" s="60"/>
-      <c r="J159" s="58"/>
-      <c r="K159" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="L159" s="18">
-        <v>52.839700000000001</v>
-      </c>
-      <c r="M159" s="18">
-        <v>123.17140000000001</v>
-      </c>
-      <c r="N159" s="33">
-        <v>507.5</v>
+      <c r="I159" s="60">
+        <v>57778</v>
+      </c>
+      <c r="J159" s="58">
+        <v>99999</v>
+      </c>
+      <c r="K159" s="11"/>
+      <c r="L159" s="17">
+        <v>27.052499999999998</v>
+      </c>
+      <c r="M159" s="17">
+        <v>112.9847</v>
+      </c>
+      <c r="N159" s="34">
+        <v>109.4</v>
       </c>
       <c r="O159" s="20" t="s">
-        <v>719</v>
-      </c>
-      <c r="P159" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="P159" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="Q159" s="58" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="R159" s="6"/>
       <c r="S159" s="58"/>
@@ -11574,44 +11572,48 @@
       </c>
       <c r="D160" s="28"/>
       <c r="E160" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H160" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="I160" s="60"/>
-      <c r="J160" s="58"/>
-      <c r="K160" s="11" t="s">
-        <v>473</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="G160" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="H160" s="14"/>
+      <c r="I160" s="60">
+        <v>52889</v>
+      </c>
+      <c r="J160" s="58">
+        <v>99999</v>
+      </c>
+      <c r="K160" s="11"/>
       <c r="L160" s="18">
-        <v>51.3264</v>
+        <v>36.043900000000001</v>
       </c>
       <c r="M160" s="18">
-        <v>119.8869</v>
+        <v>103.87779999999999</v>
       </c>
       <c r="N160" s="33">
-        <v>496.2</v>
+        <v>1517.2</v>
       </c>
       <c r="O160" s="20" t="s">
-        <v>474</v>
-      </c>
-      <c r="P160" s="9"/>
+        <v>205</v>
+      </c>
+      <c r="P160" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="Q160" s="58" t="s">
-        <v>475</v>
+        <v>297</v>
       </c>
       <c r="R160" s="6"/>
       <c r="S160" s="58"/>
-      <c r="T160" s="11"/>
+      <c r="T160" s="11" t="s">
+        <v>469</v>
+      </c>
       <c r="U160" s="7"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A161" s="58" t="s">
         <v>3</v>
       </c>
@@ -11623,42 +11625,46 @@
       </c>
       <c r="D161" s="28"/>
       <c r="E161" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="H161" s="7"/>
-      <c r="I161" s="60"/>
-      <c r="J161" s="58"/>
-      <c r="K161" s="11" t="s">
-        <v>720</v>
-      </c>
-      <c r="L161" s="18">
-        <v>49.55</v>
-      </c>
-      <c r="M161" s="18">
-        <v>120.4833</v>
+      <c r="I161" s="60">
+        <v>50341</v>
+      </c>
+      <c r="J161" s="58">
+        <v>99999</v>
+      </c>
+      <c r="K161" s="11"/>
+      <c r="L161" s="17">
+        <v>51.683300000000003</v>
+      </c>
+      <c r="M161" s="17">
+        <v>123.61669999999999</v>
       </c>
       <c r="N161" s="33">
-        <v>689</v>
+        <v>654</v>
       </c>
       <c r="O161" s="20" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P161" s="9"/>
       <c r="Q161" s="58" t="s">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="R161" s="6"/>
       <c r="S161" s="58"/>
-      <c r="T161" s="11"/>
+      <c r="T161" s="11" t="s">
+        <v>507</v>
+      </c>
       <c r="U161" s="7"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A162" s="58" t="s">
         <v>3</v>
       </c>
@@ -11670,41 +11676,39 @@
       </c>
       <c r="D162" s="28"/>
       <c r="E162" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H162" s="7"/>
       <c r="I162" s="60"/>
       <c r="J162" s="58"/>
       <c r="K162" s="11" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="L162" s="18">
-        <v>52.6633</v>
+        <v>52.839700000000001</v>
       </c>
       <c r="M162" s="18">
-        <v>120.82470000000001</v>
+        <v>123.17140000000001</v>
       </c>
       <c r="N162" s="33">
-        <v>430</v>
+        <v>507.5</v>
       </c>
       <c r="O162" s="20" t="s">
-        <v>526</v>
+        <v>719</v>
       </c>
       <c r="P162" s="9"/>
       <c r="Q162" s="58" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="R162" s="6"/>
       <c r="S162" s="58"/>
-      <c r="T162" s="11" t="s">
-        <v>507</v>
-      </c>
+      <c r="T162" s="11"/>
       <c r="U162" s="7"/>
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.4">
@@ -11725,36 +11729,38 @@
         <v>56</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H163" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>476</v>
+      </c>
       <c r="I163" s="60"/>
       <c r="J163" s="58"/>
       <c r="K163" s="11" t="s">
-        <v>677</v>
+        <v>473</v>
       </c>
       <c r="L163" s="18">
-        <v>50.995800000000003</v>
+        <v>51.3264</v>
       </c>
       <c r="M163" s="18">
-        <v>121.0483</v>
+        <v>119.8869</v>
       </c>
       <c r="N163" s="33">
-        <v>817.2</v>
+        <v>496.2</v>
       </c>
       <c r="O163" s="20" t="s">
-        <v>675</v>
+        <v>474</v>
       </c>
       <c r="P163" s="9"/>
       <c r="Q163" s="58" t="s">
-        <v>278</v>
+        <v>475</v>
       </c>
       <c r="R163" s="6"/>
       <c r="S163" s="58"/>
       <c r="T163" s="11"/>
       <c r="U163" s="7"/>
     </row>
-    <row r="164" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A164" s="58" t="s">
         <v>3</v>
       </c>
@@ -11766,37 +11772,35 @@
       </c>
       <c r="D164" s="28"/>
       <c r="E164" s="58" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H164" s="7" t="s">
-        <v>378</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H164" s="7"/>
       <c r="I164" s="60"/>
       <c r="J164" s="58"/>
       <c r="K164" s="11" t="s">
-        <v>522</v>
+        <v>720</v>
       </c>
       <c r="L164" s="18">
-        <v>48.584200000000003</v>
+        <v>49.55</v>
       </c>
       <c r="M164" s="18">
-        <v>87.457800000000006</v>
+        <v>120.4833</v>
       </c>
       <c r="N164" s="33">
-        <v>1223</v>
+        <v>689</v>
       </c>
       <c r="O164" s="20" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="P164" s="9"/>
       <c r="Q164" s="58" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="R164" s="6"/>
       <c r="S164" s="58"/>
@@ -11815,41 +11819,41 @@
       </c>
       <c r="D165" s="28"/>
       <c r="E165" s="58" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H165" s="7" t="s">
-        <v>364</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="H165" s="7"/>
       <c r="I165" s="60"/>
       <c r="J165" s="58"/>
       <c r="K165" s="11" t="s">
-        <v>377</v>
+        <v>525</v>
       </c>
       <c r="L165" s="18">
-        <v>47.027200000000001</v>
+        <v>52.6633</v>
       </c>
       <c r="M165" s="18">
-        <v>89.797499999999999</v>
+        <v>120.82470000000001</v>
       </c>
       <c r="N165" s="33">
-        <v>1333</v>
+        <v>430</v>
       </c>
       <c r="O165" s="20" t="s">
-        <v>364</v>
+        <v>526</v>
       </c>
       <c r="P165" s="9"/>
       <c r="Q165" s="58" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="R165" s="6"/>
       <c r="S165" s="58"/>
-      <c r="T165" s="11"/>
+      <c r="T165" s="11" t="s">
+        <v>507</v>
+      </c>
       <c r="U165" s="7"/>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.4">
@@ -11864,44 +11868,42 @@
       </c>
       <c r="D166" s="28"/>
       <c r="E166" s="58" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H166" s="7"/>
       <c r="I166" s="60"/>
       <c r="J166" s="58"/>
       <c r="K166" s="11" t="s">
-        <v>523</v>
+        <v>677</v>
       </c>
       <c r="L166" s="18">
-        <v>46.801099999999998</v>
+        <v>50.995800000000003</v>
       </c>
       <c r="M166" s="18">
-        <v>90.88</v>
+        <v>121.0483</v>
       </c>
       <c r="N166" s="33">
-        <v>2640</v>
+        <v>817.2</v>
       </c>
       <c r="O166" s="20" t="s">
-        <v>524</v>
+        <v>675</v>
       </c>
       <c r="P166" s="9"/>
       <c r="Q166" s="58" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="R166" s="6"/>
       <c r="S166" s="58"/>
-      <c r="T166" s="11" t="s">
-        <v>507</v>
-      </c>
+      <c r="T166" s="11"/>
       <c r="U166" s="7"/>
     </row>
-    <row r="167" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A167" s="58" t="s">
         <v>3</v>
       </c>
@@ -11913,31 +11915,33 @@
       </c>
       <c r="D167" s="28"/>
       <c r="E167" s="58" t="s">
-        <v>709</v>
+        <v>68</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>710</v>
+        <v>73</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="H167" s="7"/>
+        <v>374</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>378</v>
+      </c>
       <c r="I167" s="60"/>
       <c r="J167" s="58"/>
       <c r="K167" s="11" t="s">
-        <v>654</v>
+        <v>522</v>
       </c>
       <c r="L167" s="18">
-        <v>47.168100000000003</v>
+        <v>48.584200000000003</v>
       </c>
       <c r="M167" s="18">
-        <v>90.090299999999999</v>
+        <v>87.457800000000006</v>
       </c>
       <c r="N167" s="33">
-        <v>3084</v>
+        <v>1223</v>
       </c>
       <c r="O167" s="20" t="s">
-        <v>655</v>
+        <v>375</v>
       </c>
       <c r="P167" s="9"/>
       <c r="Q167" s="58" t="s">
@@ -11945,12 +11949,10 @@
       </c>
       <c r="R167" s="6"/>
       <c r="S167" s="58"/>
-      <c r="T167" s="11" t="s">
-        <v>507</v>
-      </c>
+      <c r="T167" s="11"/>
       <c r="U167" s="7"/>
     </row>
-    <row r="168" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A168" s="58" t="s">
         <v>3</v>
       </c>
@@ -11965,34 +11967,34 @@
         <v>68</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>100</v>
+        <v>363</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I168" s="60"/>
       <c r="J168" s="58"/>
       <c r="K168" s="11" t="s">
-        <v>561</v>
+        <v>377</v>
       </c>
       <c r="L168" s="18">
-        <v>42.828800000000001</v>
+        <v>47.027200000000001</v>
       </c>
       <c r="M168" s="18">
-        <v>83.716099999999997</v>
+        <v>89.797499999999999</v>
       </c>
       <c r="N168" s="33">
-        <v>2465</v>
+        <v>1333</v>
       </c>
       <c r="O168" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P168" s="9"/>
       <c r="Q168" s="58" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="R168" s="6"/>
       <c r="S168" s="58"/>
@@ -12011,40 +12013,44 @@
       </c>
       <c r="D169" s="28"/>
       <c r="E169" s="58" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>697</v>
+        <v>73</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>698</v>
+        <v>74</v>
       </c>
       <c r="H169" s="7"/>
       <c r="I169" s="60"/>
       <c r="J169" s="58"/>
       <c r="K169" s="11" t="s">
-        <v>699</v>
+        <v>523</v>
       </c>
       <c r="L169" s="18">
-        <v>42.410299999999999</v>
+        <v>46.801099999999998</v>
       </c>
       <c r="M169" s="18">
-        <v>117.24939999999999</v>
+        <v>90.88</v>
       </c>
       <c r="N169" s="33">
-        <v>1506.5</v>
+        <v>2640</v>
       </c>
       <c r="O169" s="20" t="s">
-        <v>700</v>
+        <v>524</v>
       </c>
       <c r="P169" s="9"/>
-      <c r="Q169" s="58"/>
+      <c r="Q169" s="58" t="s">
+        <v>288</v>
+      </c>
       <c r="R169" s="6"/>
       <c r="S169" s="58"/>
-      <c r="T169" s="11"/>
+      <c r="T169" s="11" t="s">
+        <v>507</v>
+      </c>
       <c r="U169" s="7"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A170" s="58" t="s">
         <v>3</v>
       </c>
@@ -12056,35 +12062,35 @@
       </c>
       <c r="D170" s="28"/>
       <c r="E170" s="58" t="s">
-        <v>91</v>
+        <v>709</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="H170" s="7"/>
       <c r="I170" s="60"/>
       <c r="J170" s="58"/>
-      <c r="K170" s="11">
-        <v>53589</v>
+      <c r="K170" s="11" t="s">
+        <v>654</v>
       </c>
       <c r="L170" s="18">
-        <v>39.049199999999999</v>
+        <v>47.168100000000003</v>
       </c>
       <c r="M170" s="18">
-        <v>113.5278</v>
+        <v>90.090299999999999</v>
       </c>
       <c r="N170" s="33">
-        <v>2889</v>
+        <v>3084</v>
       </c>
       <c r="O170" s="20" t="s">
-        <v>707</v>
+        <v>655</v>
       </c>
       <c r="P170" s="9"/>
       <c r="Q170" s="58" t="s">
-        <v>708</v>
+        <v>288</v>
       </c>
       <c r="R170" s="6"/>
       <c r="S170" s="58"/>
@@ -12093,7 +12099,7 @@
       </c>
       <c r="U170" s="7"/>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A171" s="58" t="s">
         <v>3</v>
       </c>
@@ -12105,35 +12111,37 @@
       </c>
       <c r="D171" s="28"/>
       <c r="E171" s="58" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>701</v>
+        <v>99</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="H171" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="H171" s="7" t="s">
+        <v>365</v>
+      </c>
       <c r="I171" s="60"/>
       <c r="J171" s="58"/>
       <c r="K171" s="11" t="s">
-        <v>703</v>
+        <v>561</v>
       </c>
       <c r="L171" s="18">
-        <v>33.0672</v>
+        <v>42.828800000000001</v>
       </c>
       <c r="M171" s="18">
-        <v>97.971100000000007</v>
+        <v>83.716099999999997</v>
       </c>
       <c r="N171" s="33">
-        <v>4186</v>
+        <v>2465</v>
       </c>
       <c r="O171" s="20" t="s">
-        <v>704</v>
+        <v>365</v>
       </c>
       <c r="P171" s="9"/>
       <c r="Q171" s="58" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="R171" s="6"/>
       <c r="S171" s="58"/>
@@ -12152,48 +12160,40 @@
       </c>
       <c r="D172" s="28"/>
       <c r="E172" s="58" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="H172" s="7"/>
       <c r="I172" s="60"/>
       <c r="J172" s="58"/>
-      <c r="K172" s="11">
-        <v>58437</v>
+      <c r="K172" s="11" t="s">
+        <v>699</v>
       </c>
       <c r="L172" s="18">
-        <v>30.134699999999999</v>
+        <v>42.410299999999999</v>
       </c>
       <c r="M172" s="18">
-        <v>118.16419999999999</v>
+        <v>117.24939999999999</v>
       </c>
       <c r="N172" s="33">
-        <v>1839.7</v>
+        <v>1506.5</v>
       </c>
       <c r="O172" s="20" t="s">
-        <v>689</v>
-      </c>
-      <c r="P172" s="9" t="s">
-        <v>386</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="P172" s="9"/>
       <c r="Q172" s="58"/>
-      <c r="R172" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="S172" s="58" t="s">
-        <v>712</v>
-      </c>
-      <c r="T172" s="11" t="s">
-        <v>507</v>
-      </c>
+      <c r="R172" s="6"/>
+      <c r="S172" s="58"/>
+      <c r="T172" s="11"/>
       <c r="U172" s="7"/>
     </row>
-    <row r="173" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A173" s="58" t="s">
         <v>3</v>
       </c>
@@ -12205,37 +12205,35 @@
       </c>
       <c r="D173" s="28"/>
       <c r="E173" s="58" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>650</v>
+        <v>706</v>
       </c>
       <c r="H173" s="7"/>
       <c r="I173" s="60"/>
       <c r="J173" s="58"/>
       <c r="K173" s="11">
-        <v>54287</v>
+        <v>53589</v>
       </c>
       <c r="L173" s="18">
-        <v>42.028300000000002</v>
+        <v>39.049199999999999</v>
       </c>
       <c r="M173" s="18">
-        <v>128.06780000000001</v>
+        <v>113.5278</v>
       </c>
       <c r="N173" s="33">
-        <v>2620</v>
+        <v>2889</v>
       </c>
       <c r="O173" s="20" t="s">
-        <v>651</v>
-      </c>
-      <c r="P173" s="9" t="s">
-        <v>386</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="P173" s="9"/>
       <c r="Q173" s="58" t="s">
-        <v>371</v>
+        <v>708</v>
       </c>
       <c r="R173" s="6"/>
       <c r="S173" s="58"/>
@@ -12244,7 +12242,7 @@
       </c>
       <c r="U173" s="7"/>
     </row>
-    <row r="174" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A174" s="58" t="s">
         <v>3</v>
       </c>
@@ -12256,48 +12254,42 @@
       </c>
       <c r="D174" s="28"/>
       <c r="E174" s="58" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>73</v>
+        <v>701</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H174" s="7" t="s">
-        <v>378</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="H174" s="7"/>
       <c r="I174" s="60"/>
       <c r="J174" s="58"/>
       <c r="K174" s="11" t="s">
-        <v>664</v>
+        <v>703</v>
       </c>
       <c r="L174" s="18">
-        <v>48.721699999999998</v>
+        <v>33.0672</v>
       </c>
       <c r="M174" s="18">
-        <v>87.030600000000007</v>
+        <v>97.971100000000007</v>
       </c>
       <c r="N174" s="33">
-        <v>1367</v>
+        <v>4186</v>
       </c>
       <c r="O174" s="20" t="s">
-        <v>663</v>
-      </c>
-      <c r="P174" s="9" t="s">
-        <v>386</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="P174" s="9"/>
       <c r="Q174" s="58" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="R174" s="6"/>
       <c r="S174" s="58"/>
-      <c r="T174" s="11" t="s">
-        <v>507</v>
-      </c>
+      <c r="T174" s="11"/>
       <c r="U174" s="7"/>
     </row>
-    <row r="175" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A175" s="58" t="s">
         <v>3</v>
       </c>
@@ -12309,40 +12301,42 @@
       </c>
       <c r="D175" s="28"/>
       <c r="E175" s="58" t="s">
-        <v>68</v>
+        <v>202</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="H175" s="7"/>
       <c r="I175" s="60"/>
       <c r="J175" s="58"/>
       <c r="K175" s="11">
-        <v>51337</v>
+        <v>58437</v>
       </c>
       <c r="L175" s="18">
-        <v>44.602800000000002</v>
+        <v>30.134699999999999</v>
       </c>
       <c r="M175" s="18">
-        <v>81.387799999999999</v>
+        <v>118.16419999999999</v>
       </c>
       <c r="N175" s="33">
-        <v>2100</v>
+        <v>1839.7</v>
       </c>
       <c r="O175" s="20" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="P175" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="Q175" s="58" t="s">
-        <v>290</v>
-      </c>
-      <c r="R175" s="6"/>
-      <c r="S175" s="58"/>
+      <c r="Q175" s="58"/>
+      <c r="R175" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="S175" s="58" t="s">
+        <v>712</v>
+      </c>
       <c r="T175" s="11" t="s">
         <v>507</v>
       </c>
@@ -12360,37 +12354,37 @@
       </c>
       <c r="D176" s="28"/>
       <c r="E176" s="58" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>686</v>
+        <v>650</v>
       </c>
       <c r="H176" s="7"/>
       <c r="I176" s="60"/>
       <c r="J176" s="58"/>
-      <c r="K176" s="11" t="s">
-        <v>684</v>
+      <c r="K176" s="11">
+        <v>54287</v>
       </c>
       <c r="L176" s="18">
-        <v>33.043300000000002</v>
+        <v>42.028300000000002</v>
       </c>
       <c r="M176" s="18">
-        <v>103.9308</v>
+        <v>128.06780000000001</v>
       </c>
       <c r="N176" s="33">
-        <v>3099</v>
+        <v>2620</v>
       </c>
       <c r="O176" s="20" t="s">
-        <v>683</v>
+        <v>651</v>
       </c>
       <c r="P176" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q176" s="58" t="s">
-        <v>286</v>
+        <v>371</v>
       </c>
       <c r="R176" s="6"/>
       <c r="S176" s="58"/>
@@ -12399,7 +12393,7 @@
       </c>
       <c r="U176" s="7"/>
     </row>
-    <row r="177" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A177" s="58" t="s">
         <v>3</v>
       </c>
@@ -12411,36 +12405,40 @@
       </c>
       <c r="D177" s="28"/>
       <c r="E177" s="58" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>691</v>
+        <v>73</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="H177" s="7"/>
+        <v>374</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>378</v>
+      </c>
       <c r="I177" s="60"/>
       <c r="J177" s="58"/>
       <c r="K177" s="11" t="s">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="L177" s="18">
-        <v>29.041899999999998</v>
+        <v>48.721699999999998</v>
       </c>
       <c r="M177" s="18">
-        <v>110.4725</v>
+        <v>87.030600000000007</v>
       </c>
       <c r="N177" s="33">
-        <v>1443.4</v>
+        <v>1367</v>
       </c>
       <c r="O177" s="20" t="s">
-        <v>693</v>
+        <v>663</v>
       </c>
       <c r="P177" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="Q177" s="58"/>
+      <c r="Q177" s="58" t="s">
+        <v>288</v>
+      </c>
       <c r="R177" s="6"/>
       <c r="S177" s="58"/>
       <c r="T177" s="11" t="s">
@@ -12450,162 +12448,156 @@
     </row>
     <row r="178" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A178" s="58" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B178" s="22" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="C178" s="25">
         <v>177</v>
       </c>
       <c r="D178" s="28"/>
       <c r="E178" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="F178" s="7"/>
-      <c r="G178" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="F178" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="G178" s="7" t="s">
+        <v>681</v>
+      </c>
       <c r="H178" s="7"/>
-      <c r="I178" s="60">
-        <v>31137</v>
-      </c>
-      <c r="J178" s="58">
-        <v>99999</v>
-      </c>
-      <c r="K178" s="11"/>
+      <c r="I178" s="60"/>
+      <c r="J178" s="58"/>
+      <c r="K178" s="11">
+        <v>51337</v>
+      </c>
       <c r="L178" s="18">
-        <v>56.283333300000002</v>
+        <v>44.602800000000002</v>
       </c>
       <c r="M178" s="18">
-        <v>131.1333333</v>
+        <v>81.387799999999999</v>
       </c>
       <c r="N178" s="33">
-        <v>850</v>
+        <v>2100</v>
       </c>
       <c r="O178" s="20" t="s">
-        <v>541</v>
+        <v>682</v>
       </c>
       <c r="P178" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q178" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="R178" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="S178" s="58" t="s">
-        <v>453</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="R178" s="6"/>
+      <c r="S178" s="58"/>
       <c r="T178" s="11" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="U178" s="7"/>
     </row>
     <row r="179" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A179" s="58" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B179" s="22" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="C179" s="25">
         <v>178</v>
       </c>
       <c r="D179" s="28"/>
       <c r="E179" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="F179" s="7"/>
-      <c r="G179" s="7"/>
+        <v>133</v>
+      </c>
+      <c r="F179" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>686</v>
+      </c>
       <c r="H179" s="7"/>
-      <c r="I179" s="60">
-        <v>24688</v>
-      </c>
-      <c r="J179" s="58">
-        <v>99999</v>
-      </c>
-      <c r="K179" s="11"/>
+      <c r="I179" s="60"/>
+      <c r="J179" s="58"/>
+      <c r="K179" s="11" t="s">
+        <v>684</v>
+      </c>
       <c r="L179" s="18">
-        <v>63.25</v>
+        <v>33.043300000000002</v>
       </c>
       <c r="M179" s="18">
-        <v>143.15</v>
+        <v>103.9308</v>
       </c>
       <c r="N179" s="33">
-        <v>741</v>
+        <v>3099</v>
       </c>
       <c r="O179" s="20" t="s">
-        <v>50</v>
+        <v>683</v>
       </c>
       <c r="P179" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q179" s="58" t="s">
-        <v>557</v>
-      </c>
-      <c r="R179" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="S179" s="58" t="s">
-        <v>454</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="R179" s="6"/>
+      <c r="S179" s="58"/>
       <c r="T179" s="11" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="U179" s="7"/>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A180" s="58" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B180" s="22" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="C180" s="25">
         <v>179</v>
       </c>
       <c r="D180" s="28"/>
       <c r="E180" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="F180" s="7"/>
-      <c r="G180" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="F180" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>692</v>
+      </c>
       <c r="H180" s="7"/>
-      <c r="I180" s="60">
-        <v>24585</v>
-      </c>
-      <c r="J180" s="58">
-        <v>99999</v>
-      </c>
-      <c r="K180" s="11"/>
+      <c r="I180" s="60"/>
+      <c r="J180" s="58"/>
+      <c r="K180" s="11" t="s">
+        <v>690</v>
+      </c>
       <c r="L180" s="18">
-        <v>64.55</v>
+        <v>29.041899999999998</v>
       </c>
       <c r="M180" s="18">
-        <v>144.4</v>
+        <v>110.4725</v>
       </c>
       <c r="N180" s="33">
-        <v>518.52</v>
+        <v>1443.4</v>
       </c>
       <c r="O180" s="20" t="s">
-        <v>539</v>
+        <v>693</v>
       </c>
       <c r="P180" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="Q180" s="58" t="s">
-        <v>559</v>
-      </c>
-      <c r="R180" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="S180" s="58" t="s">
-        <v>548</v>
-      </c>
-      <c r="T180" s="11"/>
+      <c r="Q180" s="58"/>
+      <c r="R180" s="6"/>
+      <c r="S180" s="58"/>
+      <c r="T180" s="11" t="s">
+        <v>507</v>
+      </c>
       <c r="U180" s="7"/>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A181" s="58" t="s">
         <v>41</v>
       </c>
@@ -12623,40 +12615,42 @@
       <c r="G181" s="7"/>
       <c r="H181" s="7"/>
       <c r="I181" s="60">
-        <v>24588</v>
+        <v>31137</v>
       </c>
       <c r="J181" s="58">
         <v>99999</v>
       </c>
       <c r="K181" s="11"/>
       <c r="L181" s="18">
-        <v>64.05</v>
+        <v>56.283333300000002</v>
       </c>
       <c r="M181" s="18">
-        <v>141.8833333</v>
+        <v>131.1333333</v>
       </c>
       <c r="N181" s="33">
-        <v>589.71</v>
+        <v>850</v>
       </c>
       <c r="O181" s="20" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P181" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q181" s="58" t="s">
-        <v>557</v>
+        <v>324</v>
       </c>
       <c r="R181" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="S181" s="58" t="s">
-        <v>549</v>
-      </c>
-      <c r="T181" s="11"/>
+        <v>453</v>
+      </c>
+      <c r="T181" s="11" t="s">
+        <v>478</v>
+      </c>
       <c r="U181" s="7"/>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A182" s="58" t="s">
         <v>41</v>
       </c>
@@ -12674,37 +12668,39 @@
       <c r="G182" s="7"/>
       <c r="H182" s="7"/>
       <c r="I182" s="60">
-        <v>24691</v>
+        <v>24688</v>
       </c>
       <c r="J182" s="58">
         <v>99999</v>
       </c>
       <c r="K182" s="11"/>
       <c r="L182" s="18">
-        <v>63.8333333</v>
+        <v>63.25</v>
       </c>
       <c r="M182" s="18">
-        <v>145.6</v>
+        <v>143.15</v>
       </c>
       <c r="N182" s="33">
-        <v>800.92</v>
+        <v>741</v>
       </c>
       <c r="O182" s="20" t="s">
-        <v>542</v>
+        <v>50</v>
       </c>
       <c r="P182" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q182" s="58" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="R182" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="S182" s="58" t="s">
-        <v>550</v>
-      </c>
-      <c r="T182" s="11"/>
+        <v>454</v>
+      </c>
+      <c r="T182" s="11" t="s">
+        <v>478</v>
+      </c>
       <c r="U182" s="7"/>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.4">
@@ -12725,35 +12721,35 @@
       <c r="G183" s="7"/>
       <c r="H183" s="7"/>
       <c r="I183" s="60">
-        <v>24266</v>
+        <v>24585</v>
       </c>
       <c r="J183" s="58">
         <v>99999</v>
       </c>
       <c r="K183" s="11"/>
       <c r="L183" s="18">
-        <v>67.566666600000005</v>
+        <v>64.55</v>
       </c>
       <c r="M183" s="18">
-        <v>133.4</v>
+        <v>144.4</v>
       </c>
       <c r="N183" s="33">
-        <v>138</v>
+        <v>518.52</v>
       </c>
       <c r="O183" s="20" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="P183" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q183" s="58" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="R183" s="6" t="s">
         <v>383</v>
       </c>
       <c r="S183" s="58" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="T183" s="11"/>
       <c r="U183" s="7"/>
@@ -12776,38 +12772,40 @@
       <c r="G184" s="7"/>
       <c r="H184" s="7"/>
       <c r="I184" s="60">
-        <v>24684</v>
+        <v>24588</v>
       </c>
       <c r="J184" s="58">
         <v>99999</v>
       </c>
       <c r="K184" s="11"/>
       <c r="L184" s="18">
-        <v>63.3333333</v>
+        <v>64.05</v>
       </c>
       <c r="M184" s="18">
-        <v>141.7333333</v>
+        <v>141.8833333</v>
       </c>
       <c r="N184" s="33">
-        <v>776.93</v>
+        <v>589.71</v>
       </c>
       <c r="O184" s="20" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="P184" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="Q184" s="58"/>
+      <c r="Q184" s="58" t="s">
+        <v>557</v>
+      </c>
       <c r="R184" s="6" t="s">
         <v>383</v>
       </c>
       <c r="S184" s="58" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="T184" s="11"/>
       <c r="U184" s="7"/>
     </row>
-    <row r="185" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A185" s="58" t="s">
         <v>41</v>
       </c>
@@ -12825,35 +12823,35 @@
       <c r="G185" s="7"/>
       <c r="H185" s="7"/>
       <c r="I185" s="60">
-        <v>24382</v>
+        <v>24691</v>
       </c>
       <c r="J185" s="58">
         <v>99999</v>
       </c>
       <c r="K185" s="11"/>
       <c r="L185" s="18">
-        <v>66.45</v>
+        <v>63.8333333</v>
       </c>
       <c r="M185" s="18">
-        <v>143.2333333</v>
+        <v>145.6</v>
       </c>
       <c r="N185" s="33">
-        <v>196</v>
+        <v>800.92</v>
       </c>
       <c r="O185" s="20" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="P185" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q185" s="58" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="R185" s="6" t="s">
         <v>383</v>
       </c>
       <c r="S185" s="58" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="T185" s="11"/>
       <c r="U185" s="7"/>
@@ -12876,35 +12874,35 @@
       <c r="G186" s="7"/>
       <c r="H186" s="7"/>
       <c r="I186" s="60">
-        <v>24959</v>
+        <v>24266</v>
       </c>
       <c r="J186" s="58">
         <v>99999</v>
       </c>
       <c r="K186" s="11"/>
       <c r="L186" s="18">
-        <v>62.016666600000001</v>
+        <v>67.566666600000005</v>
       </c>
       <c r="M186" s="18">
-        <v>129.7166666</v>
+        <v>133.4</v>
       </c>
       <c r="N186" s="33">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="O186" s="20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="P186" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q186" s="58" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="R186" s="6" t="s">
         <v>383</v>
       </c>
       <c r="S186" s="58" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="T186" s="11"/>
       <c r="U186" s="7"/>
@@ -12927,23 +12925,23 @@
       <c r="G187" s="7"/>
       <c r="H187" s="7"/>
       <c r="I187" s="60">
-        <v>24477</v>
+        <v>24684</v>
       </c>
       <c r="J187" s="58">
         <v>99999</v>
       </c>
       <c r="K187" s="11"/>
       <c r="L187" s="18">
-        <v>65.3</v>
+        <v>63.3333333</v>
       </c>
       <c r="M187" s="18">
-        <v>135.80000000000001</v>
+        <v>141.7333333</v>
       </c>
       <c r="N187" s="33">
-        <v>674.86</v>
+        <v>776.93</v>
       </c>
       <c r="O187" s="20" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="P187" s="9" t="s">
         <v>386</v>
@@ -12953,7 +12951,7 @@
         <v>383</v>
       </c>
       <c r="S187" s="58" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="T187" s="11"/>
       <c r="U187" s="7"/>
@@ -12970,41 +12968,41 @@
       </c>
       <c r="D188" s="28"/>
       <c r="E188" s="58" t="s">
-        <v>575</v>
-      </c>
-      <c r="F188" s="14"/>
-      <c r="G188" s="14"/>
-      <c r="H188" s="14"/>
+        <v>153</v>
+      </c>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
+      <c r="H188" s="7"/>
       <c r="I188" s="60">
-        <v>25428</v>
+        <v>24382</v>
       </c>
       <c r="J188" s="58">
         <v>99999</v>
       </c>
       <c r="K188" s="11"/>
       <c r="L188" s="18">
-        <v>65.233333299999998</v>
+        <v>66.45</v>
       </c>
       <c r="M188" s="18">
-        <v>160.53333330000001</v>
+        <v>143.2333333</v>
       </c>
       <c r="N188" s="33">
-        <v>264</v>
+        <v>196</v>
       </c>
       <c r="O188" s="20" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
       <c r="P188" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q188" s="58" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="R188" s="6" t="s">
         <v>383</v>
       </c>
       <c r="S188" s="58" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="T188" s="11"/>
       <c r="U188" s="7"/>
@@ -13021,46 +13019,46 @@
       </c>
       <c r="D189" s="28"/>
       <c r="E189" s="58" t="s">
-        <v>579</v>
-      </c>
-      <c r="F189" s="14"/>
-      <c r="G189" s="14"/>
-      <c r="H189" s="14"/>
+        <v>153</v>
+      </c>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
       <c r="I189" s="60">
-        <v>25700</v>
+        <v>24959</v>
       </c>
       <c r="J189" s="58">
         <v>99999</v>
       </c>
       <c r="K189" s="11"/>
       <c r="L189" s="18">
-        <v>62.8</v>
+        <v>62.016666600000001</v>
       </c>
       <c r="M189" s="18">
-        <v>150.66666660000001</v>
+        <v>129.7166666</v>
       </c>
       <c r="N189" s="33">
-        <v>312.39999999999998</v>
+        <v>101</v>
       </c>
       <c r="O189" s="20" t="s">
-        <v>580</v>
+        <v>545</v>
       </c>
       <c r="P189" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q189" s="58" t="s">
-        <v>581</v>
+        <v>546</v>
       </c>
       <c r="R189" s="6" t="s">
         <v>383</v>
       </c>
       <c r="S189" s="58" t="s">
-        <v>582</v>
+        <v>555</v>
       </c>
       <c r="T189" s="11"/>
       <c r="U189" s="7"/>
     </row>
-    <row r="190" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A190" s="58" t="s">
         <v>41</v>
       </c>
@@ -13072,111 +13070,193 @@
       </c>
       <c r="D190" s="28"/>
       <c r="E190" s="58" t="s">
-        <v>583</v>
-      </c>
-      <c r="F190" s="14"/>
-      <c r="G190" s="14"/>
-      <c r="H190" s="14"/>
+        <v>153</v>
+      </c>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
       <c r="I190" s="60">
-        <v>24507</v>
+        <v>24477</v>
       </c>
       <c r="J190" s="58">
         <v>99999</v>
       </c>
       <c r="K190" s="11"/>
       <c r="L190" s="18">
-        <v>64.266666599999994</v>
+        <v>65.3</v>
       </c>
       <c r="M190" s="18">
-        <v>100.2333333</v>
+        <v>135.80000000000001</v>
       </c>
       <c r="N190" s="33">
-        <v>168</v>
+        <v>674.86</v>
       </c>
       <c r="O190" s="20" t="s">
-        <v>585</v>
+        <v>547</v>
       </c>
       <c r="P190" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="Q190" s="58" t="s">
-        <v>586</v>
-      </c>
+      <c r="Q190" s="58"/>
       <c r="R190" s="6" t="s">
         <v>383</v>
       </c>
       <c r="S190" s="58" t="s">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="T190" s="11"/>
       <c r="U190" s="7"/>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A191" s="58"/>
-      <c r="B191" s="22"/>
-      <c r="C191" s="25"/>
+    <row r="191" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A191" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B191" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="C191" s="25">
+        <v>190</v>
+      </c>
       <c r="D191" s="28"/>
-      <c r="E191" s="58"/>
+      <c r="E191" s="58" t="s">
+        <v>575</v>
+      </c>
       <c r="F191" s="14"/>
       <c r="G191" s="14"/>
       <c r="H191" s="14"/>
-      <c r="I191" s="60"/>
-      <c r="J191" s="58"/>
+      <c r="I191" s="60">
+        <v>25428</v>
+      </c>
+      <c r="J191" s="58">
+        <v>99999</v>
+      </c>
       <c r="K191" s="11"/>
-      <c r="L191" s="18"/>
-      <c r="M191" s="18"/>
-      <c r="N191" s="33"/>
-      <c r="O191" s="20"/>
-      <c r="P191" s="9"/>
-      <c r="Q191" s="58"/>
-      <c r="R191" s="6"/>
-      <c r="S191" s="58"/>
+      <c r="L191" s="18">
+        <v>65.233333299999998</v>
+      </c>
+      <c r="M191" s="18">
+        <v>160.53333330000001</v>
+      </c>
+      <c r="N191" s="33">
+        <v>264</v>
+      </c>
+      <c r="O191" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="P191" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q191" s="58" t="s">
+        <v>577</v>
+      </c>
+      <c r="R191" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="S191" s="58" t="s">
+        <v>578</v>
+      </c>
       <c r="T191" s="11"/>
       <c r="U191" s="7"/>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A192" s="58"/>
-      <c r="B192" s="22"/>
-      <c r="C192" s="25"/>
+      <c r="A192" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B192" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="C192" s="25">
+        <v>191</v>
+      </c>
       <c r="D192" s="28"/>
-      <c r="E192" s="58"/>
+      <c r="E192" s="58" t="s">
+        <v>579</v>
+      </c>
       <c r="F192" s="14"/>
       <c r="G192" s="14"/>
       <c r="H192" s="14"/>
-      <c r="I192" s="60"/>
-      <c r="J192" s="58"/>
+      <c r="I192" s="60">
+        <v>25700</v>
+      </c>
+      <c r="J192" s="58">
+        <v>99999</v>
+      </c>
       <c r="K192" s="11"/>
-      <c r="L192" s="18"/>
-      <c r="M192" s="18"/>
-      <c r="N192" s="33"/>
-      <c r="O192" s="20"/>
-      <c r="P192" s="9"/>
-      <c r="Q192" s="58"/>
-      <c r="R192" s="6"/>
-      <c r="S192" s="58"/>
+      <c r="L192" s="18">
+        <v>62.8</v>
+      </c>
+      <c r="M192" s="18">
+        <v>150.66666660000001</v>
+      </c>
+      <c r="N192" s="33">
+        <v>312.39999999999998</v>
+      </c>
+      <c r="O192" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="P192" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q192" s="58" t="s">
+        <v>581</v>
+      </c>
+      <c r="R192" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="S192" s="58" t="s">
+        <v>582</v>
+      </c>
       <c r="T192" s="11"/>
       <c r="U192" s="7"/>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A193" s="58"/>
-      <c r="B193" s="22"/>
-      <c r="C193" s="25"/>
+    <row r="193" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A193" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B193" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="C193" s="25">
+        <v>192</v>
+      </c>
       <c r="D193" s="28"/>
-      <c r="E193" s="58"/>
+      <c r="E193" s="58" t="s">
+        <v>583</v>
+      </c>
       <c r="F193" s="14"/>
       <c r="G193" s="14"/>
       <c r="H193" s="14"/>
-      <c r="I193" s="60"/>
-      <c r="J193" s="58"/>
+      <c r="I193" s="60">
+        <v>24507</v>
+      </c>
+      <c r="J193" s="58">
+        <v>99999</v>
+      </c>
       <c r="K193" s="11"/>
-      <c r="L193" s="18"/>
-      <c r="M193" s="18"/>
-      <c r="N193" s="33"/>
-      <c r="O193" s="20"/>
-      <c r="P193" s="9"/>
-      <c r="Q193" s="58"/>
-      <c r="R193" s="6"/>
-      <c r="S193" s="58"/>
+      <c r="L193" s="18">
+        <v>64.266666599999994</v>
+      </c>
+      <c r="M193" s="18">
+        <v>100.2333333</v>
+      </c>
+      <c r="N193" s="33">
+        <v>168</v>
+      </c>
+      <c r="O193" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="P193" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q193" s="58" t="s">
+        <v>586</v>
+      </c>
+      <c r="R193" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="S193" s="58" t="s">
+        <v>584</v>
+      </c>
       <c r="T193" s="11"/>
       <c r="U193" s="7"/>
     </row>
@@ -13341,21 +13421,90 @@
       <c r="T200" s="11"/>
       <c r="U200" s="7"/>
     </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A201" s="58"/>
+      <c r="B201" s="22"/>
+      <c r="C201" s="25"/>
+      <c r="D201" s="28"/>
+      <c r="E201" s="58"/>
+      <c r="F201" s="14"/>
+      <c r="G201" s="14"/>
+      <c r="H201" s="14"/>
+      <c r="I201" s="60"/>
+      <c r="J201" s="58"/>
+      <c r="K201" s="11"/>
+      <c r="L201" s="18"/>
+      <c r="M201" s="18"/>
+      <c r="N201" s="33"/>
+      <c r="O201" s="20"/>
+      <c r="P201" s="9"/>
+      <c r="Q201" s="58"/>
+      <c r="R201" s="6"/>
+      <c r="S201" s="58"/>
+      <c r="T201" s="11"/>
+      <c r="U201" s="7"/>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A202" s="58"/>
+      <c r="B202" s="22"/>
+      <c r="C202" s="25"/>
+      <c r="D202" s="28"/>
+      <c r="E202" s="58"/>
+      <c r="F202" s="14"/>
+      <c r="G202" s="14"/>
+      <c r="H202" s="14"/>
+      <c r="I202" s="60"/>
+      <c r="J202" s="58"/>
+      <c r="K202" s="11"/>
+      <c r="L202" s="18"/>
+      <c r="M202" s="18"/>
+      <c r="N202" s="33"/>
+      <c r="O202" s="20"/>
+      <c r="P202" s="9"/>
+      <c r="Q202" s="58"/>
+      <c r="R202" s="6"/>
+      <c r="S202" s="58"/>
+      <c r="T202" s="11"/>
+      <c r="U202" s="7"/>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A203" s="58"/>
+      <c r="B203" s="22"/>
+      <c r="C203" s="25"/>
+      <c r="D203" s="28"/>
+      <c r="E203" s="58"/>
+      <c r="F203" s="14"/>
+      <c r="G203" s="14"/>
+      <c r="H203" s="14"/>
+      <c r="I203" s="60"/>
+      <c r="J203" s="58"/>
+      <c r="K203" s="11"/>
+      <c r="L203" s="18"/>
+      <c r="M203" s="18"/>
+      <c r="N203" s="33"/>
+      <c r="O203" s="20"/>
+      <c r="P203" s="9"/>
+      <c r="Q203" s="58"/>
+      <c r="R203" s="6"/>
+      <c r="S203" s="58"/>
+      <c r="T203" s="11"/>
+      <c r="U203" s="7"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xEo1ecoyaY6UnzTgK/U/+7YBGTMuoM0jYR6JdssiGpCY7uFRlut5+H7znh3a9lcGpdW5A68DYiNwv/hWsSh+dA==" saltValue="I8PacKAZu0N3Dbv0H61tlg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:U190" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U190">
-      <sortCondition ref="C1:C190"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sfUykf2hTguVVhZ3i5J7bqmQRkLr2fBpBW51yw0M1vNtpVPz7T+1dRwxonuAWRJ9E9Ni44MO3HY1U3eKkmaHxw==" saltValue="FUwo7lPGCKIxOK+/eoIZ1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A1:U193" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U193">
+      <sortCondition ref="C1:C193"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U187">
-    <sortCondition ref="C2:C187"/>
-    <sortCondition ref="B2:B187"/>
-    <sortCondition ref="E2:E187"/>
-    <sortCondition ref="F2:F187"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U190">
+    <sortCondition ref="C2:C190"/>
+    <sortCondition ref="B2:B190"/>
+    <sortCondition ref="E2:E190"/>
+    <sortCondition ref="F2:F190"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:U200">
+  <conditionalFormatting sqref="A2:U203">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>IF(MOD(ROW(), 2), 0, 1)</formula>
     </cfRule>

--- a/气象/站点信息.xlsx
+++ b/气象/站点信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA2C5EE-6A26-44C5-A3E1-821EFF0ED903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176B2B1A-BBA6-4477-A249-6D8D277D6E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{844553AA-A2A2-41AF-B6A7-7782726BF58F}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="附加国外站点" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">固定站点!$A$1:$U$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">固定站点!$A$1:$U$194</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="749">
   <si>
     <t>USAF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2888,6 +2888,14 @@
   </si>
   <si>
     <t>鄂尔浑河、图勒河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马尔卡湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Markakol_Lake</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3637,11 +3645,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7531F2B-D4AE-4446-8336-B6EC017A9375}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U203"/>
+  <dimension ref="A1:U204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -7851,9 +7857,9 @@
       <c r="T90" s="11"/>
       <c r="U90" s="7"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A91" s="58" t="s">
-        <v>369</v>
+        <v>44</v>
       </c>
       <c r="B91" s="22" t="s">
         <v>460</v>
@@ -7861,53 +7867,51 @@
       <c r="C91" s="25">
         <v>90</v>
       </c>
-      <c r="D91" s="28">
-        <v>0</v>
-      </c>
+      <c r="D91" s="28"/>
       <c r="E91" s="58" t="s">
-        <v>372</v>
+        <v>220</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
       <c r="I91" s="60">
-        <v>47005</v>
+        <v>36566</v>
       </c>
       <c r="J91" s="58">
         <v>99999</v>
       </c>
       <c r="K91" s="11"/>
       <c r="L91" s="18">
-        <v>41.816666599999998</v>
+        <v>48.791186111111102</v>
       </c>
       <c r="M91" s="18">
-        <v>128.30000000000001</v>
+        <v>86.025625000000005</v>
       </c>
       <c r="N91" s="33">
-        <v>1381</v>
+        <v>1481</v>
       </c>
       <c r="O91" s="20" t="s">
-        <v>370</v>
+        <v>747</v>
       </c>
       <c r="P91" s="9"/>
       <c r="Q91" s="58" t="s">
-        <v>371</v>
+        <v>747</v>
       </c>
       <c r="R91" s="6" t="s">
         <v>383</v>
       </c>
       <c r="S91" s="58" t="s">
-        <v>458</v>
+        <v>748</v>
       </c>
       <c r="T91" s="11"/>
       <c r="U91" s="7"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A92" s="58" t="s">
-        <v>3</v>
+        <v>369</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C92" s="25">
         <v>91</v>
@@ -7916,43 +7920,39 @@
         <v>0</v>
       </c>
       <c r="E92" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>209</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
       <c r="H92" s="7"/>
       <c r="I92" s="60">
-        <v>54342</v>
+        <v>47005</v>
       </c>
       <c r="J92" s="58">
         <v>99999</v>
       </c>
       <c r="K92" s="11"/>
-      <c r="L92" s="17">
-        <v>41.732500000000002</v>
-      </c>
-      <c r="M92" s="17">
-        <v>123.51</v>
-      </c>
-      <c r="N92" s="34">
-        <v>51</v>
+      <c r="L92" s="18">
+        <v>41.816666599999998</v>
+      </c>
+      <c r="M92" s="18">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="N92" s="33">
+        <v>1381</v>
       </c>
       <c r="O92" s="20" t="s">
-        <v>210</v>
+        <v>370</v>
       </c>
       <c r="P92" s="9"/>
       <c r="Q92" s="58" t="s">
-        <v>276</v>
+        <v>371</v>
       </c>
       <c r="R92" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="S92" s="58" t="s">
-        <v>397</v>
+        <v>458</v>
       </c>
       <c r="T92" s="11"/>
       <c r="U92" s="7"/>
@@ -7974,39 +7974,41 @@
         <v>90</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="60">
-        <v>54252</v>
+        <v>54342</v>
       </c>
       <c r="J93" s="58">
         <v>99999</v>
       </c>
       <c r="K93" s="11"/>
       <c r="L93" s="17">
-        <v>42.740299999999998</v>
+        <v>41.732500000000002</v>
       </c>
       <c r="M93" s="17">
-        <v>124.7406</v>
+        <v>123.51</v>
       </c>
       <c r="N93" s="34">
-        <v>196.1</v>
+        <v>51</v>
       </c>
       <c r="O93" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="P93" s="9" t="s">
-        <v>385</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="P93" s="9"/>
       <c r="Q93" s="58" t="s">
-        <v>279</v>
-      </c>
-      <c r="R93" s="6"/>
-      <c r="S93" s="58"/>
+        <v>276</v>
+      </c>
+      <c r="R93" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S93" s="58" t="s">
+        <v>397</v>
+      </c>
       <c r="T93" s="11"/>
       <c r="U93" s="7"/>
     </row>
@@ -8024,44 +8026,42 @@
         <v>0</v>
       </c>
       <c r="E94" s="58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>207</v>
+        <v>85</v>
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="60">
-        <v>54161</v>
+        <v>54252</v>
       </c>
       <c r="J94" s="58">
         <v>99999</v>
       </c>
       <c r="K94" s="11"/>
       <c r="L94" s="17">
-        <v>43.891399999999997</v>
+        <v>42.740299999999998</v>
       </c>
       <c r="M94" s="17">
-        <v>125.2317</v>
+        <v>124.7406</v>
       </c>
       <c r="N94" s="34">
-        <v>236.8</v>
+        <v>196.1</v>
       </c>
       <c r="O94" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="P94" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="P94" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="Q94" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="R94" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="S94" s="58" t="s">
-        <v>398</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="R94" s="6"/>
+      <c r="S94" s="58"/>
       <c r="T94" s="11"/>
       <c r="U94" s="7"/>
     </row>
@@ -8082,42 +8082,40 @@
         <v>89</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="60">
-        <v>54273</v>
+        <v>54161</v>
       </c>
       <c r="J95" s="58">
         <v>99999</v>
       </c>
       <c r="K95" s="11"/>
       <c r="L95" s="17">
-        <v>42.978299999999997</v>
+        <v>43.891399999999997</v>
       </c>
       <c r="M95" s="17">
-        <v>126.7597</v>
+        <v>125.2317</v>
       </c>
       <c r="N95" s="34">
-        <v>263.3</v>
+        <v>236.8</v>
       </c>
       <c r="O95" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="P95" s="9" t="s">
-        <v>385</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="P95" s="9"/>
       <c r="Q95" s="58" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="R95" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S95" s="58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="T95" s="11"/>
       <c r="U95" s="7"/>
@@ -8136,45 +8134,45 @@
         <v>0</v>
       </c>
       <c r="E96" s="58" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="60">
-        <v>50953</v>
+        <v>54273</v>
       </c>
       <c r="J96" s="58">
         <v>99999</v>
       </c>
       <c r="K96" s="11"/>
       <c r="L96" s="17">
-        <v>45.934199999999997</v>
+        <v>42.978299999999997</v>
       </c>
       <c r="M96" s="17">
-        <v>126.58110000000001</v>
+        <v>126.7597</v>
       </c>
       <c r="N96" s="34">
-        <v>115</v>
+        <v>263.3</v>
       </c>
       <c r="O96" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P96" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q96" s="58" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R96" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S96" s="58" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="T96" s="11"/>
       <c r="U96" s="7"/>
@@ -8196,43 +8194,47 @@
         <v>54</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="60">
-        <v>50673</v>
+        <v>50953</v>
       </c>
       <c r="J97" s="58">
         <v>99999</v>
       </c>
       <c r="K97" s="11"/>
       <c r="L97" s="17">
-        <v>48.887799999999999</v>
+        <v>45.934199999999997</v>
       </c>
       <c r="M97" s="17">
-        <v>130.4117</v>
+        <v>126.58110000000001</v>
       </c>
       <c r="N97" s="34">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="O97" s="20" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P97" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q97" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="R97" s="6"/>
-      <c r="S97" s="58"/>
+        <v>273</v>
+      </c>
+      <c r="R97" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S97" s="58" t="s">
+        <v>400</v>
+      </c>
       <c r="T97" s="11"/>
       <c r="U97" s="7"/>
     </row>
-    <row r="98" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98" s="58" t="s">
         <v>3</v>
       </c>
@@ -8249,41 +8251,39 @@
         <v>54</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="60">
-        <v>50353</v>
+        <v>50673</v>
       </c>
       <c r="J98" s="58">
         <v>99999</v>
       </c>
       <c r="K98" s="11"/>
       <c r="L98" s="17">
-        <v>51.726100000000002</v>
+        <v>48.887799999999999</v>
       </c>
       <c r="M98" s="17">
-        <v>126.63890000000001</v>
+        <v>130.4117</v>
       </c>
       <c r="N98" s="34">
-        <v>173.9</v>
+        <v>90</v>
       </c>
       <c r="O98" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="P98" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="P98" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="Q98" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="R98" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="S98" s="58" t="s">
-        <v>401</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="R98" s="6"/>
+      <c r="S98" s="58"/>
       <c r="T98" s="11"/>
       <c r="U98" s="7"/>
     </row>
@@ -8307,34 +8307,38 @@
         <v>53</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="60">
-        <v>50246</v>
+        <v>50353</v>
       </c>
       <c r="J99" s="58">
         <v>99999</v>
       </c>
       <c r="K99" s="11"/>
       <c r="L99" s="17">
-        <v>52.348100000000002</v>
+        <v>51.726100000000002</v>
       </c>
       <c r="M99" s="17">
-        <v>124.7169</v>
+        <v>126.63890000000001</v>
       </c>
       <c r="N99" s="34">
-        <v>359.4</v>
+        <v>173.9</v>
       </c>
       <c r="O99" s="20" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="P99" s="9"/>
       <c r="Q99" s="58" t="s">
-        <v>280</v>
-      </c>
-      <c r="R99" s="6"/>
-      <c r="S99" s="58"/>
+        <v>275</v>
+      </c>
+      <c r="R99" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S99" s="58" t="s">
+        <v>401</v>
+      </c>
       <c r="T99" s="11"/>
       <c r="U99" s="7"/>
     </row>
@@ -8358,31 +8362,31 @@
         <v>53</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="60">
-        <v>50247</v>
+        <v>50246</v>
       </c>
       <c r="J100" s="58">
         <v>99999</v>
       </c>
       <c r="K100" s="11"/>
       <c r="L100" s="17">
-        <v>52.036099999999998</v>
+        <v>52.348100000000002</v>
       </c>
       <c r="M100" s="17">
-        <v>123.5722</v>
+        <v>124.7169</v>
       </c>
       <c r="N100" s="34">
-        <v>514.5</v>
+        <v>359.4</v>
       </c>
       <c r="O100" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P100" s="9"/>
       <c r="Q100" s="58" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="R100" s="6"/>
       <c r="S100" s="58"/>
@@ -8409,40 +8413,34 @@
         <v>53</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="60">
-        <v>50136</v>
+        <v>50247</v>
       </c>
       <c r="J101" s="58">
         <v>99999</v>
       </c>
       <c r="K101" s="11"/>
       <c r="L101" s="17">
-        <v>52.974400000000003</v>
+        <v>52.036099999999998</v>
       </c>
       <c r="M101" s="17">
-        <v>122.51309999999999</v>
+        <v>123.5722</v>
       </c>
       <c r="N101" s="34">
-        <v>433.9</v>
+        <v>514.5</v>
       </c>
       <c r="O101" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="9" t="s">
-        <v>385</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="P101" s="9"/>
       <c r="Q101" s="58" t="s">
-        <v>281</v>
-      </c>
-      <c r="R101" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="S101" s="58" t="s">
-        <v>402</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="R101" s="6"/>
+      <c r="S101" s="58"/>
       <c r="T101" s="11"/>
       <c r="U101" s="7"/>
     </row>
@@ -8470,34 +8468,40 @@
       </c>
       <c r="H102" s="7"/>
       <c r="I102" s="60">
-        <v>50137</v>
+        <v>50136</v>
       </c>
       <c r="J102" s="58">
         <v>99999</v>
       </c>
       <c r="K102" s="11"/>
       <c r="L102" s="17">
-        <v>53.468899999999998</v>
+        <v>52.974400000000003</v>
       </c>
       <c r="M102" s="17">
-        <v>122.36190000000001</v>
+        <v>122.51309999999999</v>
       </c>
       <c r="N102" s="34">
-        <v>291.60000000000002</v>
+        <v>433.9</v>
       </c>
       <c r="O102" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="P102" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="P102" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="Q102" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="R102" s="6"/>
-      <c r="S102" s="58"/>
+        <v>281</v>
+      </c>
+      <c r="R102" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S102" s="58" t="s">
+        <v>402</v>
+      </c>
       <c r="T102" s="11"/>
       <c r="U102" s="7"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A103" s="58" t="s">
         <v>3</v>
       </c>
@@ -8511,39 +8515,37 @@
         <v>0</v>
       </c>
       <c r="E103" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="60">
-        <v>50431</v>
+        <v>50137</v>
       </c>
       <c r="J103" s="58">
         <v>99999</v>
       </c>
       <c r="K103" s="11"/>
       <c r="L103" s="17">
-        <v>50.782800000000002</v>
+        <v>53.468899999999998</v>
       </c>
       <c r="M103" s="17">
-        <v>121.51300000000001</v>
+        <v>122.36190000000001</v>
       </c>
       <c r="N103" s="34">
-        <v>716.7</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="O103" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="P103" s="9" t="s">
-        <v>385</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="P103" s="9"/>
       <c r="Q103" s="58" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="R103" s="6"/>
       <c r="S103" s="58"/>
@@ -8570,40 +8572,36 @@
         <v>56</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="60">
-        <v>50434</v>
+        <v>50431</v>
       </c>
       <c r="J104" s="58">
         <v>99999</v>
       </c>
       <c r="K104" s="11"/>
       <c r="L104" s="17">
-        <v>50.478099999999998</v>
+        <v>50.782800000000002</v>
       </c>
       <c r="M104" s="17">
-        <v>121.6867</v>
+        <v>121.51300000000001</v>
       </c>
       <c r="N104" s="34">
-        <v>734.8</v>
+        <v>716.7</v>
       </c>
       <c r="O104" s="20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P104" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q104" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="R104" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="S104" s="58" t="s">
-        <v>403</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="R104" s="6"/>
+      <c r="S104" s="58"/>
       <c r="T104" s="11"/>
       <c r="U104" s="7"/>
     </row>
@@ -8627,34 +8625,40 @@
         <v>56</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="60">
-        <v>50425</v>
+        <v>50434</v>
       </c>
       <c r="J105" s="58">
         <v>99999</v>
       </c>
       <c r="K105" s="11"/>
       <c r="L105" s="17">
-        <v>50.236899999999999</v>
+        <v>50.478099999999998</v>
       </c>
       <c r="M105" s="17">
-        <v>120.16719999999999</v>
+        <v>121.6867</v>
       </c>
       <c r="N105" s="34">
-        <v>581.4</v>
+        <v>734.8</v>
       </c>
       <c r="O105" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="P105" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="P105" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="Q105" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="R105" s="6"/>
-      <c r="S105" s="58"/>
+        <v>278</v>
+      </c>
+      <c r="R105" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S105" s="58" t="s">
+        <v>403</v>
+      </c>
       <c r="T105" s="11"/>
       <c r="U105" s="7"/>
     </row>
@@ -8668,7 +8672,9 @@
       <c r="C106" s="25">
         <v>105</v>
       </c>
-      <c r="D106" s="28"/>
+      <c r="D106" s="28">
+        <v>0</v>
+      </c>
       <c r="E106" s="58" t="s">
         <v>55</v>
       </c>
@@ -8676,31 +8682,31 @@
         <v>56</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="60">
-        <v>50524</v>
+        <v>50425</v>
       </c>
       <c r="J106" s="58">
         <v>99999</v>
       </c>
       <c r="K106" s="11"/>
       <c r="L106" s="17">
-        <v>49.3414</v>
+        <v>50.236899999999999</v>
       </c>
       <c r="M106" s="17">
-        <v>119.4569</v>
+        <v>120.16719999999999</v>
       </c>
       <c r="N106" s="34">
-        <v>597.4</v>
+        <v>581.4</v>
       </c>
       <c r="O106" s="20" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="P106" s="9"/>
       <c r="Q106" s="58" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R106" s="6"/>
       <c r="S106" s="58"/>
@@ -8717,9 +8723,7 @@
       <c r="C107" s="25">
         <v>106</v>
       </c>
-      <c r="D107" s="28">
-        <v>0</v>
-      </c>
+      <c r="D107" s="28"/>
       <c r="E107" s="58" t="s">
         <v>55</v>
       </c>
@@ -8727,42 +8731,38 @@
         <v>56</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="60">
-        <v>50527</v>
+        <v>50524</v>
       </c>
       <c r="J107" s="58">
         <v>99999</v>
       </c>
       <c r="K107" s="11"/>
       <c r="L107" s="17">
-        <v>49.25</v>
+        <v>49.3414</v>
       </c>
       <c r="M107" s="17">
-        <v>119.7003</v>
+        <v>119.4569</v>
       </c>
       <c r="N107" s="34">
-        <v>649.70000000000005</v>
+        <v>597.4</v>
       </c>
       <c r="O107" s="20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P107" s="9"/>
       <c r="Q107" s="58" t="s">
-        <v>284</v>
-      </c>
-      <c r="R107" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="S107" s="58" t="s">
-        <v>404</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="R107" s="6"/>
+      <c r="S107" s="58"/>
       <c r="T107" s="11"/>
       <c r="U107" s="7"/>
     </row>
-    <row r="108" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A108" s="58" t="s">
         <v>3</v>
       </c>
@@ -8772,7 +8772,9 @@
       <c r="C108" s="25">
         <v>107</v>
       </c>
-      <c r="D108" s="28"/>
+      <c r="D108" s="28">
+        <v>0</v>
+      </c>
       <c r="E108" s="58" t="s">
         <v>55</v>
       </c>
@@ -8780,38 +8782,42 @@
         <v>56</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="60">
-        <v>50525</v>
+        <v>50527</v>
       </c>
       <c r="J108" s="58">
         <v>99999</v>
       </c>
       <c r="K108" s="11"/>
       <c r="L108" s="17">
-        <v>49.132800000000003</v>
+        <v>49.25</v>
       </c>
       <c r="M108" s="17">
-        <v>119.7419</v>
+        <v>119.7003</v>
       </c>
       <c r="N108" s="34">
-        <v>617.29999999999995</v>
+        <v>649.70000000000005</v>
       </c>
       <c r="O108" s="20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P108" s="9"/>
       <c r="Q108" s="58" t="s">
         <v>284</v>
       </c>
-      <c r="R108" s="6"/>
-      <c r="S108" s="58"/>
+      <c r="R108" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S108" s="58" t="s">
+        <v>404</v>
+      </c>
       <c r="T108" s="11"/>
       <c r="U108" s="7"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A109" s="58" t="s">
         <v>3</v>
       </c>
@@ -8821,9 +8827,7 @@
       <c r="C109" s="25">
         <v>108</v>
       </c>
-      <c r="D109" s="28">
-        <v>0</v>
-      </c>
+      <c r="D109" s="28"/>
       <c r="E109" s="58" t="s">
         <v>55</v>
       </c>
@@ -8831,31 +8835,31 @@
         <v>56</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="60">
-        <v>50526</v>
+        <v>50525</v>
       </c>
       <c r="J109" s="58">
         <v>99999</v>
       </c>
       <c r="K109" s="11"/>
       <c r="L109" s="17">
-        <v>49.283099999999997</v>
+        <v>49.132800000000003</v>
       </c>
       <c r="M109" s="17">
-        <v>120.6878</v>
+        <v>119.7419</v>
       </c>
       <c r="N109" s="34">
-        <v>654.9</v>
+        <v>617.29999999999995</v>
       </c>
       <c r="O109" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P109" s="9"/>
       <c r="Q109" s="58" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R109" s="6"/>
       <c r="S109" s="58"/>
@@ -8879,41 +8883,37 @@
         <v>55</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="60">
-        <v>50727</v>
+        <v>50526</v>
       </c>
       <c r="J110" s="58">
         <v>99999</v>
       </c>
       <c r="K110" s="11"/>
       <c r="L110" s="17">
-        <v>47.180799999999998</v>
+        <v>49.283099999999997</v>
       </c>
       <c r="M110" s="17">
-        <v>119.9344</v>
+        <v>120.6878</v>
       </c>
       <c r="N110" s="34">
-        <v>997</v>
+        <v>654.9</v>
       </c>
       <c r="O110" s="20" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="P110" s="9"/>
       <c r="Q110" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="R110" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="S110" s="58" t="s">
-        <v>405</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="R110" s="6"/>
+      <c r="S110" s="58"/>
       <c r="T110" s="11"/>
       <c r="U110" s="7"/>
     </row>
@@ -8931,40 +8931,44 @@
         <v>0</v>
       </c>
       <c r="E111" s="58" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="60">
-        <v>53392</v>
+        <v>50727</v>
       </c>
       <c r="J111" s="58">
         <v>99999</v>
       </c>
       <c r="K111" s="11"/>
       <c r="L111" s="17">
-        <v>41.86</v>
+        <v>47.180799999999998</v>
       </c>
       <c r="M111" s="17">
-        <v>114.5603</v>
+        <v>119.9344</v>
       </c>
       <c r="N111" s="34">
-        <v>1434.5</v>
+        <v>997</v>
       </c>
       <c r="O111" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="P111" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q111" s="58"/>
-      <c r="R111" s="6"/>
-      <c r="S111" s="58"/>
+        <v>8</v>
+      </c>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="58" t="s">
+        <v>278</v>
+      </c>
+      <c r="R111" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S111" s="58" t="s">
+        <v>405</v>
+      </c>
       <c r="T111" s="11"/>
       <c r="U111" s="7"/>
     </row>
@@ -8982,46 +8986,44 @@
         <v>0</v>
       </c>
       <c r="E112" s="58" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="60">
-        <v>55294</v>
+        <v>53392</v>
       </c>
       <c r="J112" s="58">
         <v>99999</v>
       </c>
       <c r="K112" s="11"/>
       <c r="L112" s="17">
-        <v>32.269399999999997</v>
+        <v>41.86</v>
       </c>
       <c r="M112" s="17">
-        <v>91.679400000000001</v>
+        <v>114.5603</v>
       </c>
       <c r="N112" s="34">
-        <v>4686</v>
+        <v>1434.5</v>
       </c>
       <c r="O112" s="20" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P112" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="Q112" s="58" t="s">
-        <v>286</v>
-      </c>
+      <c r="Q112" s="58"/>
       <c r="R112" s="6"/>
       <c r="S112" s="58"/>
       <c r="T112" s="11"/>
       <c r="U112" s="7"/>
     </row>
-    <row r="113" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A113" s="58" t="s">
         <v>3</v>
       </c>
@@ -9035,33 +9037,33 @@
         <v>0</v>
       </c>
       <c r="E113" s="58" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="60">
-        <v>56034</v>
+        <v>55294</v>
       </c>
       <c r="J113" s="58">
         <v>99999</v>
       </c>
       <c r="K113" s="11"/>
       <c r="L113" s="17">
-        <v>33.805300000000003</v>
+        <v>32.269399999999997</v>
       </c>
       <c r="M113" s="17">
-        <v>97.137799999999999</v>
+        <v>91.679400000000001</v>
       </c>
       <c r="N113" s="34">
-        <v>4415.6000000000004</v>
+        <v>4686</v>
       </c>
       <c r="O113" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P113" s="9" t="s">
         <v>385</v>
@@ -9094,27 +9096,27 @@
         <v>78</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>509</v>
+        <v>79</v>
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="60">
-        <v>52908</v>
+        <v>56034</v>
       </c>
       <c r="J114" s="58">
         <v>99999</v>
       </c>
       <c r="K114" s="11"/>
       <c r="L114" s="17">
-        <v>35.215800000000002</v>
+        <v>33.805300000000003</v>
       </c>
       <c r="M114" s="17">
-        <v>93.080799999999996</v>
+        <v>97.137799999999999</v>
       </c>
       <c r="N114" s="34">
-        <v>4612</v>
+        <v>4415.6000000000004</v>
       </c>
       <c r="O114" s="20" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="P114" s="9" t="s">
         <v>385</v>
@@ -9122,12 +9124,8 @@
       <c r="Q114" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="R114" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="S114" s="58" t="s">
-        <v>406</v>
-      </c>
+      <c r="R114" s="6"/>
+      <c r="S114" s="58"/>
       <c r="T114" s="11"/>
       <c r="U114" s="7"/>
     </row>
@@ -9145,45 +9143,45 @@
         <v>0</v>
       </c>
       <c r="E115" s="58" t="s">
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>264</v>
+        <v>509</v>
       </c>
       <c r="H115" s="7"/>
       <c r="I115" s="60">
-        <v>52323</v>
+        <v>52908</v>
       </c>
       <c r="J115" s="58">
         <v>99999</v>
       </c>
       <c r="K115" s="11"/>
       <c r="L115" s="17">
-        <v>41.804699999999997</v>
+        <v>35.215800000000002</v>
       </c>
       <c r="M115" s="17">
-        <v>97.031899999999993</v>
+        <v>93.080799999999996</v>
       </c>
       <c r="N115" s="34">
-        <v>1773.7</v>
+        <v>4612</v>
       </c>
       <c r="O115" s="20" t="s">
-        <v>262</v>
+        <v>49</v>
       </c>
       <c r="P115" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q115" s="58" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="R115" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S115" s="58" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T115" s="11"/>
       <c r="U115" s="7"/>
@@ -9202,46 +9200,50 @@
         <v>0</v>
       </c>
       <c r="E116" s="58" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="60">
-        <v>52101</v>
+        <v>52323</v>
       </c>
       <c r="J116" s="58">
         <v>99999</v>
       </c>
       <c r="K116" s="11"/>
       <c r="L116" s="17">
-        <v>43.594999999999999</v>
+        <v>41.804699999999997</v>
       </c>
       <c r="M116" s="17">
-        <v>93.045000000000002</v>
+        <v>97.031899999999993</v>
       </c>
       <c r="N116" s="34">
-        <v>1679.2</v>
+        <v>1773.7</v>
       </c>
       <c r="O116" s="20" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="P116" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q116" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="R116" s="6"/>
-      <c r="S116" s="58"/>
+        <v>262</v>
+      </c>
+      <c r="R116" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S116" s="58" t="s">
+        <v>407</v>
+      </c>
       <c r="T116" s="11"/>
       <c r="U116" s="7"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A117" s="58" t="s">
         <v>3</v>
       </c>
@@ -9258,43 +9260,43 @@
         <v>68</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="60">
-        <v>51186</v>
+        <v>52101</v>
       </c>
       <c r="J117" s="58">
         <v>99999</v>
       </c>
       <c r="K117" s="11"/>
       <c r="L117" s="17">
-        <v>46.664999999999999</v>
+        <v>43.594999999999999</v>
       </c>
       <c r="M117" s="17">
-        <v>90.377799999999993</v>
+        <v>93.045000000000002</v>
       </c>
       <c r="N117" s="34">
-        <v>1219.0999999999999</v>
+        <v>1679.2</v>
       </c>
       <c r="O117" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P117" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q117" s="58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R117" s="6"/>
       <c r="S117" s="58"/>
       <c r="T117" s="11"/>
       <c r="U117" s="7"/>
     </row>
-    <row r="118" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A118" s="58" t="s">
         <v>3</v>
       </c>
@@ -9314,44 +9316,40 @@
         <v>73</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>104</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="H118" s="7"/>
       <c r="I118" s="60">
-        <v>51076</v>
+        <v>51186</v>
       </c>
       <c r="J118" s="58">
         <v>99999</v>
       </c>
       <c r="K118" s="11"/>
       <c r="L118" s="17">
-        <v>47.741100000000003</v>
+        <v>46.664999999999999</v>
       </c>
       <c r="M118" s="17">
-        <v>88.071100000000001</v>
+        <v>90.377799999999993</v>
       </c>
       <c r="N118" s="34">
-        <v>734.8</v>
+        <v>1219.0999999999999</v>
       </c>
       <c r="O118" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="P118" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="P118" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="Q118" s="58" t="s">
-        <v>521</v>
-      </c>
-      <c r="R118" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="S118" s="58" t="s">
-        <v>408</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="R118" s="6"/>
+      <c r="S118" s="58"/>
       <c r="T118" s="11"/>
-      <c r="U118" s="30"/>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="U118" s="7"/>
+    </row>
+    <row r="119" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A119" s="58" t="s">
         <v>3</v>
       </c>
@@ -9361,50 +9359,52 @@
       <c r="C119" s="25">
         <v>118</v>
       </c>
-      <c r="D119" s="28"/>
+      <c r="D119" s="28">
+        <v>0</v>
+      </c>
       <c r="E119" s="58" t="s">
         <v>68</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H119" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="I119" s="60">
-        <v>51573</v>
+        <v>51076</v>
       </c>
       <c r="J119" s="58">
         <v>99999</v>
       </c>
       <c r="K119" s="11"/>
       <c r="L119" s="17">
-        <v>42.950299999999999</v>
+        <v>47.741100000000003</v>
       </c>
       <c r="M119" s="17">
-        <v>89.230800000000002</v>
+        <v>88.071100000000001</v>
       </c>
       <c r="N119" s="34">
-        <v>39</v>
+        <v>734.8</v>
       </c>
       <c r="O119" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="P119" s="9" t="s">
-        <v>385</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="P119" s="9"/>
       <c r="Q119" s="58" t="s">
-        <v>289</v>
+        <v>521</v>
       </c>
       <c r="R119" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S119" s="58" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="T119" s="11"/>
-      <c r="U119" s="7"/>
+      <c r="U119" s="30"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A120" s="58" t="s">
@@ -9416,54 +9416,52 @@
       <c r="C120" s="25">
         <v>119</v>
       </c>
-      <c r="D120" s="28">
-        <v>0</v>
-      </c>
+      <c r="D120" s="28"/>
       <c r="E120" s="58" t="s">
         <v>68</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H120" s="7"/>
       <c r="I120" s="60">
-        <v>51463</v>
+        <v>51573</v>
       </c>
       <c r="J120" s="58">
         <v>99999</v>
       </c>
       <c r="K120" s="11"/>
       <c r="L120" s="17">
-        <v>43.789200000000001</v>
+        <v>42.950299999999999</v>
       </c>
       <c r="M120" s="17">
-        <v>87.645799999999994</v>
+        <v>89.230800000000002</v>
       </c>
       <c r="N120" s="34">
-        <v>935</v>
+        <v>39</v>
       </c>
       <c r="O120" s="20" t="s">
-        <v>24</v>
+        <v>389</v>
       </c>
       <c r="P120" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q120" s="58" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R120" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S120" s="58" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="T120" s="11"/>
       <c r="U120" s="7"/>
     </row>
-    <row r="121" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A121" s="58" t="s">
         <v>3</v>
       </c>
@@ -9480,42 +9478,42 @@
         <v>68</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="60">
-        <v>51542</v>
+        <v>51463</v>
       </c>
       <c r="J121" s="58">
         <v>99999</v>
       </c>
       <c r="K121" s="11"/>
       <c r="L121" s="17">
-        <v>43.0336</v>
+        <v>43.789200000000001</v>
       </c>
       <c r="M121" s="17">
-        <v>84.149199999999993</v>
+        <v>87.645799999999994</v>
       </c>
       <c r="N121" s="34">
-        <v>2459.1</v>
+        <v>935</v>
       </c>
       <c r="O121" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P121" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q121" s="58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R121" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S121" s="58" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="T121" s="11"/>
       <c r="U121" s="7"/>
@@ -9537,41 +9535,47 @@
         <v>68</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="60">
-        <v>51437</v>
+        <v>51542</v>
       </c>
       <c r="J122" s="58">
         <v>99999</v>
       </c>
       <c r="K122" s="11"/>
       <c r="L122" s="17">
-        <v>43.1417</v>
+        <v>43.0336</v>
       </c>
       <c r="M122" s="17">
-        <v>81.125600000000006</v>
+        <v>84.149199999999993</v>
       </c>
       <c r="N122" s="34">
-        <v>1850.8</v>
+        <v>2459.1</v>
       </c>
       <c r="O122" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="P122" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="P122" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="Q122" s="58" t="s">
-        <v>290</v>
-      </c>
-      <c r="R122" s="6"/>
-      <c r="S122" s="58"/>
+        <v>291</v>
+      </c>
+      <c r="R122" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S122" s="58" t="s">
+        <v>411</v>
+      </c>
       <c r="T122" s="11"/>
       <c r="U122" s="7"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A123" s="58" t="s">
         <v>3</v>
       </c>
@@ -9585,46 +9589,40 @@
         <v>0</v>
       </c>
       <c r="E123" s="58" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="H123" s="7"/>
       <c r="I123" s="60">
-        <v>53463</v>
+        <v>51437</v>
       </c>
       <c r="J123" s="58">
         <v>99999</v>
       </c>
       <c r="K123" s="11"/>
       <c r="L123" s="17">
-        <v>40.855800000000002</v>
+        <v>43.1417</v>
       </c>
       <c r="M123" s="17">
-        <v>111.5714</v>
+        <v>81.125600000000006</v>
       </c>
       <c r="N123" s="34">
-        <v>1153.5</v>
+        <v>1850.8</v>
       </c>
       <c r="O123" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P123" s="9" t="s">
-        <v>385</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="P123" s="9"/>
       <c r="Q123" s="58" t="s">
-        <v>292</v>
-      </c>
-      <c r="R123" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="S123" s="58" t="s">
-        <v>412</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="R123" s="6"/>
+      <c r="S123" s="58"/>
       <c r="T123" s="11"/>
       <c r="U123" s="7"/>
     </row>
@@ -9638,43 +9636,49 @@
       <c r="C124" s="25">
         <v>123</v>
       </c>
-      <c r="D124" s="28"/>
+      <c r="D124" s="28">
+        <v>0</v>
+      </c>
       <c r="E124" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="F124" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="G124" s="7" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="H124" s="7"/>
       <c r="I124" s="60">
-        <v>54511</v>
+        <v>53463</v>
       </c>
       <c r="J124" s="58">
         <v>99999</v>
       </c>
       <c r="K124" s="11"/>
       <c r="L124" s="17">
-        <v>39.806100000000001</v>
+        <v>40.855800000000002</v>
       </c>
       <c r="M124" s="17">
-        <v>116.46939999999999</v>
+        <v>111.5714</v>
       </c>
       <c r="N124" s="34">
-        <v>32.799999999999997</v>
+        <v>1153.5</v>
       </c>
       <c r="O124" s="20" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="P124" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="Q124" s="58"/>
+      <c r="Q124" s="58" t="s">
+        <v>292</v>
+      </c>
       <c r="R124" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S124" s="58" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="T124" s="11"/>
       <c r="U124" s="7"/>
@@ -9691,41 +9695,43 @@
       </c>
       <c r="D125" s="28"/>
       <c r="E125" s="58" t="s">
-        <v>379</v>
+        <v>179</v>
       </c>
       <c r="F125" s="7"/>
       <c r="G125" s="7" t="s">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="H125" s="7"/>
       <c r="I125" s="60">
-        <v>54517</v>
+        <v>54511</v>
       </c>
       <c r="J125" s="58">
         <v>99999</v>
       </c>
       <c r="K125" s="11"/>
       <c r="L125" s="17">
-        <v>39.0747</v>
+        <v>39.806100000000001</v>
       </c>
       <c r="M125" s="17">
-        <v>117.20610000000001</v>
+        <v>116.46939999999999</v>
       </c>
       <c r="N125" s="34">
-        <v>2.2000000000000002</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="O125" s="20" t="s">
-        <v>462</v>
+        <v>181</v>
       </c>
       <c r="P125" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q125" s="58"/>
-      <c r="R125" s="6"/>
-      <c r="S125" s="58"/>
-      <c r="T125" s="11" t="s">
-        <v>527</v>
-      </c>
+      <c r="R125" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S125" s="58" t="s">
+        <v>413</v>
+      </c>
+      <c r="T125" s="11"/>
       <c r="U125" s="7"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.4">
@@ -9740,47 +9746,41 @@
       </c>
       <c r="D126" s="28"/>
       <c r="E126" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>195</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="F126" s="7"/>
       <c r="G126" s="7" t="s">
-        <v>219</v>
+        <v>380</v>
       </c>
       <c r="H126" s="7"/>
       <c r="I126" s="60">
-        <v>53614</v>
+        <v>54517</v>
       </c>
       <c r="J126" s="58">
         <v>99999</v>
       </c>
       <c r="K126" s="11"/>
       <c r="L126" s="17">
-        <v>38.471400000000003</v>
+        <v>39.0747</v>
       </c>
       <c r="M126" s="17">
-        <v>106.20780000000001</v>
+        <v>117.20610000000001</v>
       </c>
       <c r="N126" s="34">
-        <v>1111.5999999999999</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O126" s="20" t="s">
-        <v>206</v>
+        <v>462</v>
       </c>
       <c r="P126" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="Q126" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="R126" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="S126" s="58" t="s">
-        <v>414</v>
-      </c>
-      <c r="T126" s="11"/>
+      <c r="Q126" s="58"/>
+      <c r="R126" s="6"/>
+      <c r="S126" s="58"/>
+      <c r="T126" s="11" t="s">
+        <v>527</v>
+      </c>
       <c r="U126" s="7"/>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.4">
@@ -9795,43 +9795,45 @@
       </c>
       <c r="D127" s="28"/>
       <c r="E127" s="58" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="H127" s="7"/>
       <c r="I127" s="60">
-        <v>53698</v>
+        <v>53614</v>
       </c>
       <c r="J127" s="58">
         <v>99999</v>
       </c>
       <c r="K127" s="11"/>
       <c r="L127" s="17">
-        <v>38.0197</v>
+        <v>38.471400000000003</v>
       </c>
       <c r="M127" s="17">
-        <v>114.3989</v>
+        <v>106.20780000000001</v>
       </c>
       <c r="N127" s="34">
-        <v>89.3</v>
+        <v>1111.5999999999999</v>
       </c>
       <c r="O127" s="20" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="P127" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="Q127" s="58"/>
+      <c r="Q127" s="58" t="s">
+        <v>293</v>
+      </c>
       <c r="R127" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S127" s="58" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="T127" s="11"/>
       <c r="U127" s="7"/>
@@ -9848,45 +9850,43 @@
       </c>
       <c r="D128" s="28"/>
       <c r="E128" s="58" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="H128" s="7"/>
       <c r="I128" s="60">
-        <v>53772</v>
+        <v>53698</v>
       </c>
       <c r="J128" s="58">
         <v>99999</v>
       </c>
       <c r="K128" s="11"/>
       <c r="L128" s="17">
-        <v>37.620600000000003</v>
+        <v>38.0197</v>
       </c>
       <c r="M128" s="17">
-        <v>112.57640000000001</v>
+        <v>114.3989</v>
       </c>
       <c r="N128" s="34">
-        <v>776.3</v>
+        <v>89.3</v>
       </c>
       <c r="O128" s="20" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P128" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="Q128" s="58" t="s">
-        <v>294</v>
-      </c>
+      <c r="Q128" s="58"/>
       <c r="R128" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S128" s="58" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T128" s="11"/>
       <c r="U128" s="7"/>
@@ -9903,45 +9903,45 @@
       </c>
       <c r="D129" s="28"/>
       <c r="E129" s="58" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="H129" s="7"/>
       <c r="I129" s="60">
-        <v>52866</v>
+        <v>53772</v>
       </c>
       <c r="J129" s="58">
         <v>99999</v>
       </c>
       <c r="K129" s="11"/>
       <c r="L129" s="17">
-        <v>36.664400000000001</v>
+        <v>37.620600000000003</v>
       </c>
       <c r="M129" s="17">
-        <v>101.73309999999999</v>
+        <v>112.57640000000001</v>
       </c>
       <c r="N129" s="34">
-        <v>2434.1999999999998</v>
+        <v>776.3</v>
       </c>
       <c r="O129" s="20" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="P129" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q129" s="58" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R129" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S129" s="58" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="T129" s="11"/>
       <c r="U129" s="7"/>
@@ -9958,45 +9958,45 @@
       </c>
       <c r="D130" s="28"/>
       <c r="E130" s="58" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="H130" s="7"/>
       <c r="I130" s="60">
-        <v>54823</v>
+        <v>52866</v>
       </c>
       <c r="J130" s="58">
         <v>99999</v>
       </c>
       <c r="K130" s="11"/>
       <c r="L130" s="17">
-        <v>36.601900000000001</v>
+        <v>36.664400000000001</v>
       </c>
       <c r="M130" s="17">
-        <v>117.0081</v>
+        <v>101.73309999999999</v>
       </c>
       <c r="N130" s="34">
-        <v>170.3</v>
+        <v>2434.1999999999998</v>
       </c>
       <c r="O130" s="20" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="P130" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q130" s="58" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R130" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S130" s="58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="T130" s="11"/>
       <c r="U130" s="7"/>
@@ -10013,45 +10013,45 @@
       </c>
       <c r="D131" s="28"/>
       <c r="E131" s="58" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="H131" s="7"/>
       <c r="I131" s="60">
-        <v>57083</v>
+        <v>54823</v>
       </c>
       <c r="J131" s="58">
         <v>99999</v>
       </c>
       <c r="K131" s="11"/>
       <c r="L131" s="17">
-        <v>34.706400000000002</v>
+        <v>36.601900000000001</v>
       </c>
       <c r="M131" s="17">
-        <v>113.6628</v>
+        <v>117.0081</v>
       </c>
       <c r="N131" s="34">
-        <v>110.4</v>
+        <v>170.3</v>
       </c>
       <c r="O131" s="20" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="P131" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q131" s="58" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R131" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S131" s="58" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="T131" s="11"/>
       <c r="U131" s="7"/>
@@ -10068,49 +10068,47 @@
       </c>
       <c r="D132" s="28"/>
       <c r="E132" s="58" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H132" s="7"/>
       <c r="I132" s="60">
-        <v>57131</v>
+        <v>57083</v>
       </c>
       <c r="J132" s="58">
         <v>99999</v>
       </c>
       <c r="K132" s="11"/>
       <c r="L132" s="17">
-        <v>34.433300000000003</v>
+        <v>34.706400000000002</v>
       </c>
       <c r="M132" s="17">
-        <v>108.9667</v>
+        <v>113.6628</v>
       </c>
       <c r="N132" s="34">
-        <v>410</v>
+        <v>110.4</v>
       </c>
       <c r="O132" s="20" t="s">
-        <v>465</v>
+        <v>159</v>
       </c>
       <c r="P132" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q132" s="58" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R132" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S132" s="58" t="s">
-        <v>420</v>
-      </c>
-      <c r="T132" s="11" t="s">
-        <v>467</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="T132" s="11"/>
       <c r="U132" s="7"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.4">
@@ -10128,47 +10126,49 @@
         <v>128</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="H133" s="7"/>
       <c r="I133" s="60">
-        <v>57245</v>
+        <v>57131</v>
       </c>
       <c r="J133" s="58">
         <v>99999</v>
       </c>
       <c r="K133" s="11"/>
       <c r="L133" s="17">
-        <v>32.693100000000001</v>
+        <v>34.433300000000003</v>
       </c>
       <c r="M133" s="17">
-        <v>109.04170000000001</v>
+        <v>108.9667</v>
       </c>
       <c r="N133" s="34">
-        <v>290.8</v>
+        <v>410</v>
       </c>
       <c r="O133" s="20" t="s">
-        <v>38</v>
+        <v>465</v>
       </c>
       <c r="P133" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q133" s="58" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="R133" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S133" s="58" t="s">
-        <v>421</v>
-      </c>
-      <c r="T133" s="11"/>
+        <v>420</v>
+      </c>
+      <c r="T133" s="11" t="s">
+        <v>467</v>
+      </c>
       <c r="U133" s="7"/>
     </row>
-    <row r="134" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A134" s="58" t="s">
         <v>3</v>
       </c>
@@ -10180,50 +10180,50 @@
       </c>
       <c r="D134" s="28"/>
       <c r="E134" s="58" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="H134" s="7"/>
       <c r="I134" s="60">
-        <v>57687</v>
+        <v>57245</v>
       </c>
       <c r="J134" s="58">
         <v>99999</v>
       </c>
       <c r="K134" s="11"/>
       <c r="L134" s="17">
-        <v>28.108599999999999</v>
+        <v>32.693100000000001</v>
       </c>
       <c r="M134" s="17">
-        <v>112.7864</v>
+        <v>109.04170000000001</v>
       </c>
       <c r="N134" s="34">
-        <v>114</v>
+        <v>290.8</v>
       </c>
       <c r="O134" s="20" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="P134" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q134" s="58" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="R134" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S134" s="58" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="T134" s="11"/>
-      <c r="U134" s="30"/>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="U134" s="7"/>
+    </row>
+    <row r="135" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A135" s="58" t="s">
         <v>3</v>
       </c>
@@ -10235,48 +10235,48 @@
       </c>
       <c r="D135" s="28"/>
       <c r="E135" s="58" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H135" s="7"/>
       <c r="I135" s="60">
-        <v>58606</v>
+        <v>57687</v>
       </c>
       <c r="J135" s="58">
         <v>99999</v>
       </c>
       <c r="K135" s="11"/>
       <c r="L135" s="17">
-        <v>28.59</v>
+        <v>28.108599999999999</v>
       </c>
       <c r="M135" s="17">
-        <v>115.9014</v>
+        <v>112.7864</v>
       </c>
       <c r="N135" s="34">
-        <v>47.2</v>
+        <v>114</v>
       </c>
       <c r="O135" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P135" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q135" s="58" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R135" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S135" s="58" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="T135" s="11"/>
-      <c r="U135" s="7"/>
+      <c r="U135" s="30"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A136" s="58" t="s">
@@ -10290,45 +10290,45 @@
       </c>
       <c r="D136" s="28"/>
       <c r="E136" s="58" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H136" s="7"/>
       <c r="I136" s="60">
-        <v>57494</v>
+        <v>58606</v>
       </c>
       <c r="J136" s="58">
         <v>99999</v>
       </c>
       <c r="K136" s="11"/>
       <c r="L136" s="17">
-        <v>30.597799999999999</v>
+        <v>28.59</v>
       </c>
       <c r="M136" s="17">
-        <v>114.0506</v>
+        <v>115.9014</v>
       </c>
       <c r="N136" s="34">
-        <v>23.6</v>
+        <v>47.2</v>
       </c>
       <c r="O136" s="20" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="P136" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q136" s="58" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R136" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S136" s="58" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="T136" s="11"/>
       <c r="U136" s="7"/>
@@ -10345,45 +10345,45 @@
       </c>
       <c r="D137" s="28"/>
       <c r="E137" s="58" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="H137" s="7"/>
       <c r="I137" s="60">
-        <v>58321</v>
+        <v>57494</v>
       </c>
       <c r="J137" s="58">
         <v>99999</v>
       </c>
       <c r="K137" s="11"/>
       <c r="L137" s="17">
-        <v>31.9556</v>
+        <v>30.597799999999999</v>
       </c>
       <c r="M137" s="17">
-        <v>117.05719999999999</v>
+        <v>114.0506</v>
       </c>
       <c r="N137" s="34">
-        <v>49.8</v>
+        <v>23.6</v>
       </c>
       <c r="O137" s="20" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="P137" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q137" s="58" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R137" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S137" s="58" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T137" s="11"/>
       <c r="U137" s="7"/>
@@ -10400,45 +10400,45 @@
       </c>
       <c r="D138" s="28"/>
       <c r="E138" s="58" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="H138" s="7"/>
       <c r="I138" s="60">
-        <v>58238</v>
+        <v>58321</v>
       </c>
       <c r="J138" s="58">
         <v>99999</v>
       </c>
       <c r="K138" s="11"/>
       <c r="L138" s="17">
-        <v>31.931699999999999</v>
+        <v>31.9556</v>
       </c>
       <c r="M138" s="17">
-        <v>118.8997</v>
+        <v>117.05719999999999</v>
       </c>
       <c r="N138" s="34">
-        <v>33.200000000000003</v>
+        <v>49.8</v>
       </c>
       <c r="O138" s="20" t="s">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c r="P138" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q138" s="58" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R138" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S138" s="58" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="T138" s="11"/>
       <c r="U138" s="7"/>
@@ -10455,45 +10455,45 @@
       </c>
       <c r="D139" s="28"/>
       <c r="E139" s="58" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>215</v>
+        <v>147</v>
       </c>
       <c r="H139" s="7"/>
       <c r="I139" s="60">
-        <v>58457</v>
+        <v>58238</v>
       </c>
       <c r="J139" s="58">
         <v>99999</v>
       </c>
       <c r="K139" s="11"/>
       <c r="L139" s="17">
-        <v>30.2258</v>
+        <v>31.931699999999999</v>
       </c>
       <c r="M139" s="17">
-        <v>120.1647</v>
+        <v>118.8997</v>
       </c>
       <c r="N139" s="34">
-        <v>42.1</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="O139" s="20" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="P139" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q139" s="58" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="R139" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S139" s="58" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="T139" s="11"/>
       <c r="U139" s="7"/>
@@ -10513,42 +10513,42 @@
         <v>110</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H140" s="7"/>
       <c r="I140" s="60">
-        <v>58646</v>
+        <v>58457</v>
       </c>
       <c r="J140" s="58">
         <v>99999</v>
       </c>
       <c r="K140" s="11"/>
       <c r="L140" s="17">
-        <v>28.394400000000001</v>
+        <v>30.2258</v>
       </c>
       <c r="M140" s="17">
-        <v>119.85420000000001</v>
+        <v>120.1647</v>
       </c>
       <c r="N140" s="34">
-        <v>144.5</v>
+        <v>42.1</v>
       </c>
       <c r="O140" s="20" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="P140" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q140" s="58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R140" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S140" s="58" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="T140" s="11"/>
       <c r="U140" s="7"/>
@@ -10565,45 +10565,45 @@
       </c>
       <c r="D141" s="28"/>
       <c r="E141" s="58" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H141" s="7"/>
       <c r="I141" s="60">
-        <v>58847</v>
+        <v>58646</v>
       </c>
       <c r="J141" s="58">
         <v>99999</v>
       </c>
       <c r="K141" s="11"/>
       <c r="L141" s="17">
-        <v>26.077500000000001</v>
+        <v>28.394400000000001</v>
       </c>
       <c r="M141" s="17">
-        <v>119.2894</v>
+        <v>119.85420000000001</v>
       </c>
       <c r="N141" s="34">
-        <v>84.1</v>
+        <v>144.5</v>
       </c>
       <c r="O141" s="20" t="s">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="P141" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q141" s="58" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R141" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S141" s="58" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="T141" s="11"/>
       <c r="U141" s="7"/>
@@ -10620,149 +10620,151 @@
       </c>
       <c r="D142" s="28"/>
       <c r="E142" s="58" t="s">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="H142" s="7"/>
       <c r="I142" s="60">
-        <v>59287</v>
+        <v>58847</v>
       </c>
       <c r="J142" s="58">
         <v>99999</v>
       </c>
       <c r="K142" s="11"/>
       <c r="L142" s="17">
-        <v>23.21</v>
+        <v>26.077500000000001</v>
       </c>
       <c r="M142" s="17">
-        <v>113.48220000000001</v>
+        <v>119.2894</v>
       </c>
       <c r="N142" s="34">
-        <v>70.7</v>
+        <v>84.1</v>
       </c>
       <c r="O142" s="20" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="P142" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q142" s="58" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R142" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S142" s="58" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="T142" s="11"/>
       <c r="U142" s="7"/>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A143" s="58" t="s">
-        <v>563</v>
+        <v>3</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>564</v>
+        <v>461</v>
       </c>
       <c r="C143" s="25">
         <v>142</v>
       </c>
       <c r="D143" s="28"/>
       <c r="E143" s="58" t="s">
-        <v>565</v>
+        <v>182</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>567</v>
+        <v>183</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="H143" s="7"/>
       <c r="I143" s="60">
-        <v>59758</v>
+        <v>59287</v>
       </c>
       <c r="J143" s="58">
         <v>99999</v>
       </c>
       <c r="K143" s="11"/>
       <c r="L143" s="17">
-        <v>19.9939</v>
+        <v>23.21</v>
       </c>
       <c r="M143" s="17">
-        <v>110.2469</v>
+        <v>113.48220000000001</v>
       </c>
       <c r="N143" s="34">
-        <v>63.5</v>
+        <v>70.7</v>
       </c>
       <c r="O143" s="20" t="s">
-        <v>566</v>
-      </c>
-      <c r="P143" s="9"/>
-      <c r="Q143" s="58"/>
+        <v>185</v>
+      </c>
+      <c r="P143" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q143" s="58" t="s">
+        <v>306</v>
+      </c>
       <c r="R143" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S143" s="58" t="s">
-        <v>568</v>
+        <v>430</v>
       </c>
       <c r="T143" s="11"/>
       <c r="U143" s="7"/>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A144" s="58" t="s">
-        <v>3</v>
+        <v>563</v>
       </c>
       <c r="B144" s="22" t="s">
-        <v>461</v>
+        <v>564</v>
       </c>
       <c r="C144" s="25">
         <v>143</v>
       </c>
       <c r="D144" s="28"/>
       <c r="E144" s="58" t="s">
-        <v>122</v>
+        <v>565</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>166</v>
+        <v>567</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="H144" s="7"/>
       <c r="I144" s="60">
-        <v>59948</v>
+        <v>59758</v>
       </c>
       <c r="J144" s="58">
         <v>99999</v>
       </c>
       <c r="K144" s="11"/>
       <c r="L144" s="17">
-        <v>18.216699999999999</v>
+        <v>19.9939</v>
       </c>
       <c r="M144" s="17">
-        <v>109.58329999999999</v>
+        <v>110.2469</v>
       </c>
       <c r="N144" s="34">
-        <v>419.4</v>
+        <v>63.5</v>
       </c>
       <c r="O144" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="P144" s="9" t="s">
-        <v>385</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="P144" s="9"/>
       <c r="Q144" s="58"/>
       <c r="R144" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S144" s="58" t="s">
-        <v>431</v>
+        <v>568</v>
       </c>
       <c r="T144" s="11"/>
       <c r="U144" s="7"/>
@@ -10782,30 +10784,30 @@
         <v>122</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="H145" s="7"/>
       <c r="I145" s="60">
-        <v>59838</v>
+        <v>59948</v>
       </c>
       <c r="J145" s="58">
         <v>99999</v>
       </c>
       <c r="K145" s="11"/>
       <c r="L145" s="17">
-        <v>19.094200000000001</v>
+        <v>18.216699999999999</v>
       </c>
       <c r="M145" s="17">
-        <v>108.6217</v>
+        <v>109.58329999999999</v>
       </c>
       <c r="N145" s="34">
-        <v>6.1</v>
+        <v>419.4</v>
       </c>
       <c r="O145" s="20" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="P145" s="9" t="s">
         <v>385</v>
@@ -10815,7 +10817,7 @@
         <v>382</v>
       </c>
       <c r="S145" s="58" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="T145" s="11"/>
       <c r="U145" s="7"/>
@@ -10832,50 +10834,48 @@
       </c>
       <c r="D146" s="28"/>
       <c r="E146" s="58" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="H146" s="7"/>
       <c r="I146" s="60">
-        <v>59431</v>
+        <v>59838</v>
       </c>
       <c r="J146" s="58">
         <v>99999</v>
       </c>
       <c r="K146" s="11"/>
       <c r="L146" s="17">
-        <v>22.783899999999999</v>
+        <v>19.094200000000001</v>
       </c>
       <c r="M146" s="17">
-        <v>108.5472</v>
+        <v>108.6217</v>
       </c>
       <c r="N146" s="34">
-        <v>152.1</v>
+        <v>6.1</v>
       </c>
       <c r="O146" s="20" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
       <c r="P146" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="Q146" s="58" t="s">
-        <v>307</v>
-      </c>
+      <c r="Q146" s="58"/>
       <c r="R146" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S146" s="58" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="T146" s="11"/>
       <c r="U146" s="7"/>
     </row>
-    <row r="147" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A147" s="58" t="s">
         <v>3</v>
       </c>
@@ -10887,50 +10887,50 @@
       </c>
       <c r="D147" s="28"/>
       <c r="E147" s="58" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="H147" s="7"/>
       <c r="I147" s="60">
-        <v>56966</v>
+        <v>59431</v>
       </c>
       <c r="J147" s="58">
         <v>99999</v>
       </c>
       <c r="K147" s="11"/>
       <c r="L147" s="17">
-        <v>23.632200000000001</v>
+        <v>22.783899999999999</v>
       </c>
       <c r="M147" s="17">
-        <v>101.9683</v>
+        <v>108.5472</v>
       </c>
       <c r="N147" s="34">
-        <v>506.8</v>
+        <v>152.1</v>
       </c>
       <c r="O147" s="20" t="s">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="P147" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q147" s="58" t="s">
-        <v>34</v>
+        <v>307</v>
       </c>
       <c r="R147" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S147" s="58" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="T147" s="11"/>
       <c r="U147" s="7"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A148" s="58" t="s">
         <v>3</v>
       </c>
@@ -10945,42 +10945,42 @@
         <v>116</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="H148" s="7"/>
       <c r="I148" s="60">
-        <v>56778</v>
+        <v>56966</v>
       </c>
       <c r="J148" s="58">
         <v>99999</v>
       </c>
       <c r="K148" s="11"/>
       <c r="L148" s="17">
-        <v>25.0078</v>
+        <v>23.632200000000001</v>
       </c>
       <c r="M148" s="17">
-        <v>102.65309999999999</v>
+        <v>101.9683</v>
       </c>
       <c r="N148" s="34">
-        <v>1888.1</v>
+        <v>506.8</v>
       </c>
       <c r="O148" s="20" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="P148" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q148" s="58" t="s">
-        <v>308</v>
+        <v>34</v>
       </c>
       <c r="R148" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S148" s="58" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T148" s="11"/>
       <c r="U148" s="7"/>
@@ -10997,50 +10997,50 @@
       </c>
       <c r="D149" s="28"/>
       <c r="E149" s="58" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="H149" s="7"/>
       <c r="I149" s="60">
-        <v>57816</v>
+        <v>56778</v>
       </c>
       <c r="J149" s="58">
         <v>99999</v>
       </c>
       <c r="K149" s="11"/>
       <c r="L149" s="17">
-        <v>26.589700000000001</v>
+        <v>25.0078</v>
       </c>
       <c r="M149" s="17">
-        <v>106.72750000000001</v>
+        <v>102.65309999999999</v>
       </c>
       <c r="N149" s="34">
-        <v>1227.3</v>
+        <v>1888.1</v>
       </c>
       <c r="O149" s="20" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P149" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q149" s="58" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R149" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S149" s="58" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="T149" s="11"/>
       <c r="U149" s="7"/>
     </row>
-    <row r="150" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A150" s="58" t="s">
         <v>3</v>
       </c>
@@ -11052,48 +11052,50 @@
       </c>
       <c r="D150" s="28"/>
       <c r="E150" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="F150" s="7"/>
+        <v>173</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="G150" s="7" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="H150" s="7"/>
       <c r="I150" s="60">
-        <v>57516</v>
+        <v>57816</v>
       </c>
       <c r="J150" s="58">
         <v>99999</v>
       </c>
       <c r="K150" s="11"/>
       <c r="L150" s="17">
-        <v>29.604700000000001</v>
+        <v>26.589700000000001</v>
       </c>
       <c r="M150" s="17">
-        <v>106.4042</v>
+        <v>106.72750000000001</v>
       </c>
       <c r="N150" s="34">
-        <v>260</v>
+        <v>1227.3</v>
       </c>
       <c r="O150" s="20" t="s">
-        <v>463</v>
+        <v>175</v>
       </c>
       <c r="P150" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q150" s="58" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R150" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S150" s="58" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="T150" s="11"/>
       <c r="U150" s="7"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A151" s="58" t="s">
         <v>3</v>
       </c>
@@ -11105,42 +11107,44 @@
       </c>
       <c r="D151" s="28"/>
       <c r="E151" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>528</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="F151" s="7"/>
       <c r="G151" s="7" t="s">
-        <v>529</v>
+        <v>127</v>
       </c>
       <c r="H151" s="7"/>
       <c r="I151" s="60">
-        <v>57413</v>
+        <v>57516</v>
       </c>
       <c r="J151" s="58">
         <v>99999</v>
       </c>
       <c r="K151" s="11"/>
       <c r="L151" s="17">
-        <v>30.856400000000001</v>
+        <v>29.604700000000001</v>
       </c>
       <c r="M151" s="17">
-        <v>106.9983</v>
+        <v>106.4042</v>
       </c>
       <c r="N151" s="34">
-        <v>305.7</v>
+        <v>260</v>
       </c>
       <c r="O151" s="20" t="s">
-        <v>529</v>
+        <v>463</v>
       </c>
       <c r="P151" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q151" s="58" t="s">
-        <v>530</v>
-      </c>
-      <c r="R151" s="6"/>
-      <c r="S151" s="58"/>
+        <v>310</v>
+      </c>
+      <c r="R151" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S151" s="58" t="s">
+        <v>437</v>
+      </c>
       <c r="T151" s="11"/>
       <c r="U151" s="7"/>
     </row>
@@ -11159,46 +11163,40 @@
         <v>133</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>134</v>
+        <v>528</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>135</v>
+        <v>529</v>
       </c>
       <c r="H152" s="7"/>
       <c r="I152" s="60">
-        <v>56187</v>
+        <v>57413</v>
       </c>
       <c r="J152" s="58">
         <v>99999</v>
       </c>
       <c r="K152" s="11"/>
       <c r="L152" s="17">
-        <v>30.748899999999999</v>
+        <v>30.856400000000001</v>
       </c>
       <c r="M152" s="17">
-        <v>103.861</v>
+        <v>106.9983</v>
       </c>
       <c r="N152" s="34">
-        <v>547.70000000000005</v>
+        <v>305.7</v>
       </c>
       <c r="O152" s="20" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="P152" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q152" s="58" t="s">
-        <v>311</v>
-      </c>
-      <c r="R152" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="S152" s="58" t="s">
-        <v>438</v>
-      </c>
-      <c r="T152" s="11" t="s">
-        <v>468</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="R152" s="6"/>
+      <c r="S152" s="58"/>
+      <c r="T152" s="11"/>
       <c r="U152" s="7"/>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.4">
@@ -11213,47 +11211,49 @@
       </c>
       <c r="D153" s="28"/>
       <c r="E153" s="58" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c r="H153" s="7"/>
       <c r="I153" s="60">
-        <v>55591</v>
+        <v>56187</v>
       </c>
       <c r="J153" s="58">
         <v>99999</v>
       </c>
       <c r="K153" s="11"/>
       <c r="L153" s="17">
-        <v>29.6586</v>
+        <v>30.748899999999999</v>
       </c>
       <c r="M153" s="17">
-        <v>91.135300000000001</v>
+        <v>103.861</v>
       </c>
       <c r="N153" s="34">
-        <v>3648.7</v>
+        <v>547.70000000000005</v>
       </c>
       <c r="O153" s="20" t="s">
-        <v>169</v>
+        <v>464</v>
       </c>
       <c r="P153" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q153" s="58" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R153" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S153" s="58" t="s">
-        <v>439</v>
-      </c>
-      <c r="T153" s="11"/>
+        <v>438</v>
+      </c>
+      <c r="T153" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="U153" s="7"/>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.4">
@@ -11268,42 +11268,46 @@
       </c>
       <c r="D154" s="28"/>
       <c r="E154" s="58" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="H154" s="7"/>
       <c r="I154" s="60">
-        <v>52267</v>
+        <v>55591</v>
       </c>
       <c r="J154" s="58">
         <v>99999</v>
       </c>
       <c r="K154" s="11"/>
       <c r="L154" s="17">
-        <v>41.956899999999997</v>
+        <v>29.6586</v>
       </c>
       <c r="M154" s="17">
-        <v>101.0611</v>
+        <v>91.135300000000001</v>
       </c>
       <c r="N154" s="34">
-        <v>939</v>
+        <v>3648.7</v>
       </c>
       <c r="O154" s="20" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="P154" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q154" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="R154" s="6"/>
-      <c r="S154" s="58"/>
+        <v>312</v>
+      </c>
+      <c r="R154" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S154" s="58" t="s">
+        <v>439</v>
+      </c>
       <c r="T154" s="11"/>
       <c r="U154" s="7"/>
     </row>
@@ -11317,42 +11321,42 @@
       <c r="C155" s="25">
         <v>154</v>
       </c>
-      <c r="D155" s="28">
-        <v>0</v>
-      </c>
+      <c r="D155" s="28"/>
       <c r="E155" s="58" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="H155" s="7"/>
       <c r="I155" s="60">
-        <v>53478</v>
+        <v>52267</v>
       </c>
       <c r="J155" s="58">
         <v>99999</v>
       </c>
       <c r="K155" s="11"/>
       <c r="L155" s="17">
-        <v>39.994199999999999</v>
+        <v>41.956899999999997</v>
       </c>
       <c r="M155" s="17">
-        <v>112.4603</v>
+        <v>101.0611</v>
       </c>
       <c r="N155" s="34">
-        <v>1345.8</v>
+        <v>939</v>
       </c>
       <c r="O155" s="20" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="P155" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="Q155" s="58"/>
+      <c r="Q155" s="58" t="s">
+        <v>314</v>
+      </c>
       <c r="R155" s="6"/>
       <c r="S155" s="58"/>
       <c r="T155" s="11"/>
@@ -11368,40 +11372,42 @@
       <c r="C156" s="25">
         <v>155</v>
       </c>
-      <c r="D156" s="28"/>
+      <c r="D156" s="28">
+        <v>0</v>
+      </c>
       <c r="E156" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="F156" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="G156" s="7" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="H156" s="7"/>
       <c r="I156" s="60">
-        <v>58367</v>
+        <v>53478</v>
       </c>
       <c r="J156" s="58">
         <v>99999</v>
       </c>
       <c r="K156" s="11"/>
       <c r="L156" s="17">
-        <v>31.1922</v>
+        <v>39.994199999999999</v>
       </c>
       <c r="M156" s="17">
-        <v>121.43170000000001</v>
+        <v>112.4603</v>
       </c>
       <c r="N156" s="34">
-        <v>2</v>
+        <v>1345.8</v>
       </c>
       <c r="O156" s="20" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="P156" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="Q156" s="58" t="s">
-        <v>301</v>
-      </c>
+      <c r="Q156" s="58"/>
       <c r="R156" s="6"/>
       <c r="S156" s="58"/>
       <c r="T156" s="11"/>
@@ -11419,39 +11425,37 @@
       </c>
       <c r="D157" s="28"/>
       <c r="E157" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="F157" s="7" t="s">
-        <v>115</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="F157" s="7"/>
       <c r="G157" s="7" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="H157" s="7"/>
       <c r="I157" s="60">
-        <v>58826</v>
+        <v>58367</v>
       </c>
       <c r="J157" s="58">
         <v>99999</v>
       </c>
       <c r="K157" s="11"/>
       <c r="L157" s="17">
-        <v>26.391100000000002</v>
+        <v>31.1922</v>
       </c>
       <c r="M157" s="17">
-        <v>117.8069</v>
+        <v>121.43170000000001</v>
       </c>
       <c r="N157" s="34">
-        <v>120.7</v>
+        <v>2</v>
       </c>
       <c r="O157" s="20" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="P157" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q157" s="58" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="R157" s="6"/>
       <c r="S157" s="58"/>
@@ -11470,39 +11474,39 @@
       </c>
       <c r="D158" s="28"/>
       <c r="E158" s="58" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>627</v>
+        <v>33</v>
       </c>
       <c r="H158" s="7"/>
       <c r="I158" s="60">
-        <v>58623</v>
+        <v>58826</v>
       </c>
       <c r="J158" s="58">
         <v>99999</v>
       </c>
       <c r="K158" s="11"/>
       <c r="L158" s="17">
-        <v>28.461400000000001</v>
+        <v>26.391100000000002</v>
       </c>
       <c r="M158" s="17">
-        <v>117.9036</v>
+        <v>117.8069</v>
       </c>
       <c r="N158" s="34">
-        <v>121.3</v>
+        <v>120.7</v>
       </c>
       <c r="O158" s="20" t="s">
-        <v>630</v>
+        <v>33</v>
       </c>
       <c r="P158" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q158" s="58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="R158" s="6"/>
       <c r="S158" s="58"/>
@@ -11521,39 +11525,39 @@
       </c>
       <c r="D159" s="28"/>
       <c r="E159" s="58" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>121</v>
+        <v>627</v>
       </c>
       <c r="H159" s="7"/>
       <c r="I159" s="60">
-        <v>57778</v>
+        <v>58623</v>
       </c>
       <c r="J159" s="58">
         <v>99999</v>
       </c>
       <c r="K159" s="11"/>
       <c r="L159" s="17">
-        <v>27.052499999999998</v>
+        <v>28.461400000000001</v>
       </c>
       <c r="M159" s="17">
-        <v>112.9847</v>
+        <v>117.9036</v>
       </c>
       <c r="N159" s="34">
-        <v>109.4</v>
+        <v>121.3</v>
       </c>
       <c r="O159" s="20" t="s">
-        <v>35</v>
+        <v>630</v>
       </c>
       <c r="P159" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q159" s="58" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="R159" s="6"/>
       <c r="S159" s="58"/>
@@ -11572,48 +11576,46 @@
       </c>
       <c r="D160" s="28"/>
       <c r="E160" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="F160" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="G160" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="H160" s="14"/>
+        <v>119</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H160" s="7"/>
       <c r="I160" s="60">
-        <v>52889</v>
+        <v>57778</v>
       </c>
       <c r="J160" s="58">
         <v>99999</v>
       </c>
       <c r="K160" s="11"/>
-      <c r="L160" s="18">
-        <v>36.043900000000001</v>
-      </c>
-      <c r="M160" s="18">
-        <v>103.87779999999999</v>
-      </c>
-      <c r="N160" s="33">
-        <v>1517.2</v>
+      <c r="L160" s="17">
+        <v>27.052499999999998</v>
+      </c>
+      <c r="M160" s="17">
+        <v>112.9847</v>
+      </c>
+      <c r="N160" s="34">
+        <v>109.4</v>
       </c>
       <c r="O160" s="20" t="s">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="P160" s="9" t="s">
         <v>385</v>
       </c>
       <c r="Q160" s="58" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="R160" s="6"/>
       <c r="S160" s="58"/>
-      <c r="T160" s="11" t="s">
-        <v>469</v>
-      </c>
+      <c r="T160" s="11"/>
       <c r="U160" s="7"/>
     </row>
-    <row r="161" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A161" s="58" t="s">
         <v>3</v>
       </c>
@@ -11625,42 +11627,44 @@
       </c>
       <c r="D161" s="28"/>
       <c r="E161" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="F161" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G161" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H161" s="7"/>
+        <v>192</v>
+      </c>
+      <c r="F161" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="G161" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="H161" s="14"/>
       <c r="I161" s="60">
-        <v>50341</v>
+        <v>52889</v>
       </c>
       <c r="J161" s="58">
         <v>99999</v>
       </c>
       <c r="K161" s="11"/>
-      <c r="L161" s="17">
-        <v>51.683300000000003</v>
-      </c>
-      <c r="M161" s="17">
-        <v>123.61669999999999</v>
+      <c r="L161" s="18">
+        <v>36.043900000000001</v>
+      </c>
+      <c r="M161" s="18">
+        <v>103.87779999999999</v>
       </c>
       <c r="N161" s="33">
-        <v>654</v>
+        <v>1517.2</v>
       </c>
       <c r="O161" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="P161" s="9"/>
+        <v>205</v>
+      </c>
+      <c r="P161" s="9" t="s">
+        <v>385</v>
+      </c>
       <c r="Q161" s="58" t="s">
-        <v>368</v>
+        <v>297</v>
       </c>
       <c r="R161" s="6"/>
       <c r="S161" s="58"/>
       <c r="T161" s="11" t="s">
-        <v>507</v>
+        <v>469</v>
       </c>
       <c r="U161" s="7"/>
     </row>
@@ -11682,36 +11686,40 @@
         <v>53</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="H162" s="7"/>
-      <c r="I162" s="60"/>
-      <c r="J162" s="58"/>
-      <c r="K162" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="L162" s="18">
-        <v>52.839700000000001</v>
-      </c>
-      <c r="M162" s="18">
-        <v>123.17140000000001</v>
+      <c r="I162" s="60">
+        <v>50341</v>
+      </c>
+      <c r="J162" s="58">
+        <v>99999</v>
+      </c>
+      <c r="K162" s="11"/>
+      <c r="L162" s="17">
+        <v>51.683300000000003</v>
+      </c>
+      <c r="M162" s="17">
+        <v>123.61669999999999</v>
       </c>
       <c r="N162" s="33">
-        <v>507.5</v>
+        <v>654</v>
       </c>
       <c r="O162" s="20" t="s">
-        <v>719</v>
+        <v>367</v>
       </c>
       <c r="P162" s="9"/>
       <c r="Q162" s="58" t="s">
-        <v>281</v>
+        <v>368</v>
       </c>
       <c r="R162" s="6"/>
       <c r="S162" s="58"/>
-      <c r="T162" s="11"/>
+      <c r="T162" s="11" t="s">
+        <v>507</v>
+      </c>
       <c r="U162" s="7"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A163" s="58" t="s">
         <v>3</v>
       </c>
@@ -11723,37 +11731,35 @@
       </c>
       <c r="D163" s="28"/>
       <c r="E163" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H163" s="7" t="s">
-        <v>476</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H163" s="7"/>
       <c r="I163" s="60"/>
       <c r="J163" s="58"/>
       <c r="K163" s="11" t="s">
-        <v>473</v>
+        <v>506</v>
       </c>
       <c r="L163" s="18">
-        <v>51.3264</v>
+        <v>52.839700000000001</v>
       </c>
       <c r="M163" s="18">
-        <v>119.8869</v>
+        <v>123.17140000000001</v>
       </c>
       <c r="N163" s="33">
-        <v>496.2</v>
+        <v>507.5</v>
       </c>
       <c r="O163" s="20" t="s">
-        <v>474</v>
+        <v>719</v>
       </c>
       <c r="P163" s="9"/>
       <c r="Q163" s="58" t="s">
-        <v>475</v>
+        <v>281</v>
       </c>
       <c r="R163" s="6"/>
       <c r="S163" s="58"/>
@@ -11778,29 +11784,31 @@
         <v>56</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H164" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="H164" s="7" t="s">
+        <v>476</v>
+      </c>
       <c r="I164" s="60"/>
       <c r="J164" s="58"/>
       <c r="K164" s="11" t="s">
-        <v>720</v>
+        <v>473</v>
       </c>
       <c r="L164" s="18">
-        <v>49.55</v>
+        <v>51.3264</v>
       </c>
       <c r="M164" s="18">
-        <v>120.4833</v>
+        <v>119.8869</v>
       </c>
       <c r="N164" s="33">
-        <v>689</v>
+        <v>496.2</v>
       </c>
       <c r="O164" s="20" t="s">
-        <v>366</v>
+        <v>474</v>
       </c>
       <c r="P164" s="9"/>
       <c r="Q164" s="58" t="s">
-        <v>278</v>
+        <v>475</v>
       </c>
       <c r="R164" s="6"/>
       <c r="S164" s="58"/>
@@ -11825,25 +11833,25 @@
         <v>56</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="H165" s="7"/>
       <c r="I165" s="60"/>
       <c r="J165" s="58"/>
       <c r="K165" s="11" t="s">
-        <v>525</v>
+        <v>720</v>
       </c>
       <c r="L165" s="18">
-        <v>52.6633</v>
+        <v>49.55</v>
       </c>
       <c r="M165" s="18">
-        <v>120.82470000000001</v>
+        <v>120.4833</v>
       </c>
       <c r="N165" s="33">
-        <v>430</v>
+        <v>689</v>
       </c>
       <c r="O165" s="20" t="s">
-        <v>526</v>
+        <v>366</v>
       </c>
       <c r="P165" s="9"/>
       <c r="Q165" s="58" t="s">
@@ -11851,9 +11859,7 @@
       </c>
       <c r="R165" s="6"/>
       <c r="S165" s="58"/>
-      <c r="T165" s="11" t="s">
-        <v>507</v>
-      </c>
+      <c r="T165" s="11"/>
       <c r="U165" s="7"/>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.4">
@@ -11874,25 +11880,25 @@
         <v>56</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H166" s="7"/>
       <c r="I166" s="60"/>
       <c r="J166" s="58"/>
       <c r="K166" s="11" t="s">
-        <v>677</v>
+        <v>525</v>
       </c>
       <c r="L166" s="18">
-        <v>50.995800000000003</v>
+        <v>52.6633</v>
       </c>
       <c r="M166" s="18">
-        <v>121.0483</v>
+        <v>120.82470000000001</v>
       </c>
       <c r="N166" s="33">
-        <v>817.2</v>
+        <v>430</v>
       </c>
       <c r="O166" s="20" t="s">
-        <v>675</v>
+        <v>526</v>
       </c>
       <c r="P166" s="9"/>
       <c r="Q166" s="58" t="s">
@@ -11900,10 +11906,12 @@
       </c>
       <c r="R166" s="6"/>
       <c r="S166" s="58"/>
-      <c r="T166" s="11"/>
+      <c r="T166" s="11" t="s">
+        <v>507</v>
+      </c>
       <c r="U166" s="7"/>
     </row>
-    <row r="167" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A167" s="58" t="s">
         <v>3</v>
       </c>
@@ -11915,44 +11923,42 @@
       </c>
       <c r="D167" s="28"/>
       <c r="E167" s="58" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H167" s="7" t="s">
-        <v>378</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H167" s="7"/>
       <c r="I167" s="60"/>
       <c r="J167" s="58"/>
       <c r="K167" s="11" t="s">
-        <v>522</v>
+        <v>677</v>
       </c>
       <c r="L167" s="18">
-        <v>48.584200000000003</v>
+        <v>50.995800000000003</v>
       </c>
       <c r="M167" s="18">
-        <v>87.457800000000006</v>
+        <v>121.0483</v>
       </c>
       <c r="N167" s="33">
-        <v>1223</v>
+        <v>817.2</v>
       </c>
       <c r="O167" s="20" t="s">
-        <v>375</v>
+        <v>675</v>
       </c>
       <c r="P167" s="9"/>
       <c r="Q167" s="58" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="R167" s="6"/>
       <c r="S167" s="58"/>
       <c r="T167" s="11"/>
       <c r="U167" s="7"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A168" s="58" t="s">
         <v>3</v>
       </c>
@@ -11970,27 +11976,27 @@
         <v>73</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="I168" s="60"/>
       <c r="J168" s="58"/>
       <c r="K168" s="11" t="s">
-        <v>377</v>
+        <v>522</v>
       </c>
       <c r="L168" s="18">
-        <v>47.027200000000001</v>
+        <v>48.584200000000003</v>
       </c>
       <c r="M168" s="18">
-        <v>89.797499999999999</v>
+        <v>87.457800000000006</v>
       </c>
       <c r="N168" s="33">
-        <v>1333</v>
+        <v>1223</v>
       </c>
       <c r="O168" s="20" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="P168" s="9"/>
       <c r="Q168" s="58" t="s">
@@ -12019,25 +12025,27 @@
         <v>73</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H169" s="7"/>
+        <v>363</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>364</v>
+      </c>
       <c r="I169" s="60"/>
       <c r="J169" s="58"/>
       <c r="K169" s="11" t="s">
-        <v>523</v>
+        <v>377</v>
       </c>
       <c r="L169" s="18">
-        <v>46.801099999999998</v>
+        <v>47.027200000000001</v>
       </c>
       <c r="M169" s="18">
-        <v>90.88</v>
+        <v>89.797499999999999</v>
       </c>
       <c r="N169" s="33">
-        <v>2640</v>
+        <v>1333</v>
       </c>
       <c r="O169" s="20" t="s">
-        <v>524</v>
+        <v>364</v>
       </c>
       <c r="P169" s="9"/>
       <c r="Q169" s="58" t="s">
@@ -12045,12 +12053,10 @@
       </c>
       <c r="R169" s="6"/>
       <c r="S169" s="58"/>
-      <c r="T169" s="11" t="s">
-        <v>507</v>
-      </c>
+      <c r="T169" s="11"/>
       <c r="U169" s="7"/>
     </row>
-    <row r="170" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A170" s="58" t="s">
         <v>3</v>
       </c>
@@ -12062,31 +12068,31 @@
       </c>
       <c r="D170" s="28"/>
       <c r="E170" s="58" t="s">
-        <v>709</v>
+        <v>68</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>710</v>
+        <v>73</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>711</v>
+        <v>74</v>
       </c>
       <c r="H170" s="7"/>
       <c r="I170" s="60"/>
       <c r="J170" s="58"/>
       <c r="K170" s="11" t="s">
-        <v>654</v>
+        <v>523</v>
       </c>
       <c r="L170" s="18">
-        <v>47.168100000000003</v>
+        <v>46.801099999999998</v>
       </c>
       <c r="M170" s="18">
-        <v>90.090299999999999</v>
+        <v>90.88</v>
       </c>
       <c r="N170" s="33">
-        <v>3084</v>
+        <v>2640</v>
       </c>
       <c r="O170" s="20" t="s">
-        <v>655</v>
+        <v>524</v>
       </c>
       <c r="P170" s="9"/>
       <c r="Q170" s="58" t="s">
@@ -12111,44 +12117,44 @@
       </c>
       <c r="D171" s="28"/>
       <c r="E171" s="58" t="s">
-        <v>68</v>
+        <v>709</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>99</v>
+        <v>710</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H171" s="7" t="s">
-        <v>365</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="H171" s="7"/>
       <c r="I171" s="60"/>
       <c r="J171" s="58"/>
       <c r="K171" s="11" t="s">
-        <v>561</v>
+        <v>654</v>
       </c>
       <c r="L171" s="18">
-        <v>42.828800000000001</v>
+        <v>47.168100000000003</v>
       </c>
       <c r="M171" s="18">
-        <v>83.716099999999997</v>
+        <v>90.090299999999999</v>
       </c>
       <c r="N171" s="33">
-        <v>2465</v>
+        <v>3084</v>
       </c>
       <c r="O171" s="20" t="s">
-        <v>365</v>
+        <v>655</v>
       </c>
       <c r="P171" s="9"/>
       <c r="Q171" s="58" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="R171" s="6"/>
       <c r="S171" s="58"/>
-      <c r="T171" s="11"/>
+      <c r="T171" s="11" t="s">
+        <v>507</v>
+      </c>
       <c r="U171" s="7"/>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A172" s="58" t="s">
         <v>3</v>
       </c>
@@ -12160,34 +12166,38 @@
       </c>
       <c r="D172" s="28"/>
       <c r="E172" s="58" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>697</v>
+        <v>99</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="H172" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="H172" s="7" t="s">
+        <v>365</v>
+      </c>
       <c r="I172" s="60"/>
       <c r="J172" s="58"/>
       <c r="K172" s="11" t="s">
-        <v>699</v>
+        <v>561</v>
       </c>
       <c r="L172" s="18">
-        <v>42.410299999999999</v>
+        <v>42.828800000000001</v>
       </c>
       <c r="M172" s="18">
-        <v>117.24939999999999</v>
+        <v>83.716099999999997</v>
       </c>
       <c r="N172" s="33">
-        <v>1506.5</v>
+        <v>2465</v>
       </c>
       <c r="O172" s="20" t="s">
-        <v>700</v>
+        <v>365</v>
       </c>
       <c r="P172" s="9"/>
-      <c r="Q172" s="58"/>
+      <c r="Q172" s="58" t="s">
+        <v>291</v>
+      </c>
       <c r="R172" s="6"/>
       <c r="S172" s="58"/>
       <c r="T172" s="11"/>
@@ -12205,41 +12215,37 @@
       </c>
       <c r="D173" s="28"/>
       <c r="E173" s="58" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="H173" s="7"/>
       <c r="I173" s="60"/>
       <c r="J173" s="58"/>
-      <c r="K173" s="11">
-        <v>53589</v>
+      <c r="K173" s="11" t="s">
+        <v>699</v>
       </c>
       <c r="L173" s="18">
-        <v>39.049199999999999</v>
+        <v>42.410299999999999</v>
       </c>
       <c r="M173" s="18">
-        <v>113.5278</v>
+        <v>117.24939999999999</v>
       </c>
       <c r="N173" s="33">
-        <v>2889</v>
+        <v>1506.5</v>
       </c>
       <c r="O173" s="20" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="P173" s="9"/>
-      <c r="Q173" s="58" t="s">
-        <v>708</v>
-      </c>
+      <c r="Q173" s="58"/>
       <c r="R173" s="6"/>
       <c r="S173" s="58"/>
-      <c r="T173" s="11" t="s">
-        <v>507</v>
-      </c>
+      <c r="T173" s="11"/>
       <c r="U173" s="7"/>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.4">
@@ -12254,39 +12260,41 @@
       </c>
       <c r="D174" s="28"/>
       <c r="E174" s="58" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="H174" s="7"/>
       <c r="I174" s="60"/>
       <c r="J174" s="58"/>
-      <c r="K174" s="11" t="s">
-        <v>703</v>
+      <c r="K174" s="11">
+        <v>53589</v>
       </c>
       <c r="L174" s="18">
-        <v>33.0672</v>
+        <v>39.049199999999999</v>
       </c>
       <c r="M174" s="18">
-        <v>97.971100000000007</v>
+        <v>113.5278</v>
       </c>
       <c r="N174" s="33">
-        <v>4186</v>
+        <v>2889</v>
       </c>
       <c r="O174" s="20" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="P174" s="9"/>
       <c r="Q174" s="58" t="s">
-        <v>286</v>
+        <v>708</v>
       </c>
       <c r="R174" s="6"/>
       <c r="S174" s="58"/>
-      <c r="T174" s="11"/>
+      <c r="T174" s="11" t="s">
+        <v>507</v>
+      </c>
       <c r="U174" s="7"/>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.4">
@@ -12301,48 +12309,42 @@
       </c>
       <c r="D175" s="28"/>
       <c r="E175" s="58" t="s">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>688</v>
+        <v>702</v>
       </c>
       <c r="H175" s="7"/>
       <c r="I175" s="60"/>
       <c r="J175" s="58"/>
-      <c r="K175" s="11">
-        <v>58437</v>
+      <c r="K175" s="11" t="s">
+        <v>703</v>
       </c>
       <c r="L175" s="18">
-        <v>30.134699999999999</v>
+        <v>33.0672</v>
       </c>
       <c r="M175" s="18">
-        <v>118.16419999999999</v>
+        <v>97.971100000000007</v>
       </c>
       <c r="N175" s="33">
-        <v>1839.7</v>
+        <v>4186</v>
       </c>
       <c r="O175" s="20" t="s">
-        <v>689</v>
-      </c>
-      <c r="P175" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q175" s="58"/>
-      <c r="R175" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="S175" s="58" t="s">
-        <v>712</v>
-      </c>
-      <c r="T175" s="11" t="s">
-        <v>507</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="P175" s="9"/>
+      <c r="Q175" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="R175" s="6"/>
+      <c r="S175" s="58"/>
+      <c r="T175" s="11"/>
       <c r="U175" s="7"/>
     </row>
-    <row r="176" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A176" s="58" t="s">
         <v>3</v>
       </c>
@@ -12354,46 +12356,48 @@
       </c>
       <c r="D176" s="28"/>
       <c r="E176" s="58" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>650</v>
+        <v>688</v>
       </c>
       <c r="H176" s="7"/>
       <c r="I176" s="60"/>
       <c r="J176" s="58"/>
       <c r="K176" s="11">
-        <v>54287</v>
+        <v>58437</v>
       </c>
       <c r="L176" s="18">
-        <v>42.028300000000002</v>
+        <v>30.134699999999999</v>
       </c>
       <c r="M176" s="18">
-        <v>128.06780000000001</v>
+        <v>118.16419999999999</v>
       </c>
       <c r="N176" s="33">
-        <v>2620</v>
+        <v>1839.7</v>
       </c>
       <c r="O176" s="20" t="s">
-        <v>651</v>
+        <v>689</v>
       </c>
       <c r="P176" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="Q176" s="58" t="s">
-        <v>371</v>
-      </c>
-      <c r="R176" s="6"/>
-      <c r="S176" s="58"/>
+      <c r="Q176" s="58"/>
+      <c r="R176" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="S176" s="58" t="s">
+        <v>712</v>
+      </c>
       <c r="T176" s="11" t="s">
         <v>507</v>
       </c>
       <c r="U176" s="7"/>
     </row>
-    <row r="177" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A177" s="58" t="s">
         <v>3</v>
       </c>
@@ -12405,39 +12409,37 @@
       </c>
       <c r="D177" s="28"/>
       <c r="E177" s="58" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>73</v>
+        <v>695</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H177" s="7" t="s">
-        <v>378</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="H177" s="7"/>
       <c r="I177" s="60"/>
       <c r="J177" s="58"/>
-      <c r="K177" s="11" t="s">
-        <v>664</v>
+      <c r="K177" s="11">
+        <v>54287</v>
       </c>
       <c r="L177" s="18">
-        <v>48.721699999999998</v>
+        <v>42.028300000000002</v>
       </c>
       <c r="M177" s="18">
-        <v>87.030600000000007</v>
+        <v>128.06780000000001</v>
       </c>
       <c r="N177" s="33">
-        <v>1367</v>
+        <v>2620</v>
       </c>
       <c r="O177" s="20" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="P177" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q177" s="58" t="s">
-        <v>288</v>
+        <v>371</v>
       </c>
       <c r="R177" s="6"/>
       <c r="S177" s="58"/>
@@ -12446,7 +12448,7 @@
       </c>
       <c r="U177" s="7"/>
     </row>
-    <row r="178" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A178" s="58" t="s">
         <v>3</v>
       </c>
@@ -12461,34 +12463,36 @@
         <v>68</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>694</v>
+        <v>73</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="H178" s="7"/>
+        <v>374</v>
+      </c>
+      <c r="H178" s="7" t="s">
+        <v>378</v>
+      </c>
       <c r="I178" s="60"/>
       <c r="J178" s="58"/>
-      <c r="K178" s="11">
-        <v>51337</v>
+      <c r="K178" s="11" t="s">
+        <v>664</v>
       </c>
       <c r="L178" s="18">
-        <v>44.602800000000002</v>
+        <v>48.721699999999998</v>
       </c>
       <c r="M178" s="18">
-        <v>81.387799999999999</v>
+        <v>87.030600000000007</v>
       </c>
       <c r="N178" s="33">
-        <v>2100</v>
+        <v>1367</v>
       </c>
       <c r="O178" s="20" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="P178" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q178" s="58" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R178" s="6"/>
       <c r="S178" s="58"/>
@@ -12509,37 +12513,37 @@
       </c>
       <c r="D179" s="28"/>
       <c r="E179" s="58" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H179" s="7"/>
       <c r="I179" s="60"/>
       <c r="J179" s="58"/>
-      <c r="K179" s="11" t="s">
-        <v>684</v>
+      <c r="K179" s="11">
+        <v>51337</v>
       </c>
       <c r="L179" s="18">
-        <v>33.043300000000002</v>
+        <v>44.602800000000002</v>
       </c>
       <c r="M179" s="18">
-        <v>103.9308</v>
+        <v>81.387799999999999</v>
       </c>
       <c r="N179" s="33">
-        <v>3099</v>
+        <v>2100</v>
       </c>
       <c r="O179" s="20" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P179" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q179" s="58" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="R179" s="6"/>
       <c r="S179" s="58"/>
@@ -12560,36 +12564,38 @@
       </c>
       <c r="D180" s="28"/>
       <c r="E180" s="58" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="H180" s="7"/>
       <c r="I180" s="60"/>
       <c r="J180" s="58"/>
       <c r="K180" s="11" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="L180" s="18">
-        <v>29.041899999999998</v>
+        <v>33.043300000000002</v>
       </c>
       <c r="M180" s="18">
-        <v>110.4725</v>
+        <v>103.9308</v>
       </c>
       <c r="N180" s="33">
-        <v>1443.4</v>
+        <v>3099</v>
       </c>
       <c r="O180" s="20" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="P180" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="Q180" s="58"/>
+      <c r="Q180" s="58" t="s">
+        <v>286</v>
+      </c>
       <c r="R180" s="6"/>
       <c r="S180" s="58"/>
       <c r="T180" s="11" t="s">
@@ -12599,54 +12605,50 @@
     </row>
     <row r="181" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A181" s="58" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B181" s="22" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="C181" s="25">
         <v>180</v>
       </c>
       <c r="D181" s="28"/>
       <c r="E181" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="F181" s="7"/>
-      <c r="G181" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>692</v>
+      </c>
       <c r="H181" s="7"/>
-      <c r="I181" s="60">
-        <v>31137</v>
-      </c>
-      <c r="J181" s="58">
-        <v>99999</v>
-      </c>
-      <c r="K181" s="11"/>
+      <c r="I181" s="60"/>
+      <c r="J181" s="58"/>
+      <c r="K181" s="11" t="s">
+        <v>690</v>
+      </c>
       <c r="L181" s="18">
-        <v>56.283333300000002</v>
+        <v>29.041899999999998</v>
       </c>
       <c r="M181" s="18">
-        <v>131.1333333</v>
+        <v>110.4725</v>
       </c>
       <c r="N181" s="33">
-        <v>850</v>
+        <v>1443.4</v>
       </c>
       <c r="O181" s="20" t="s">
-        <v>541</v>
+        <v>693</v>
       </c>
       <c r="P181" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="Q181" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="R181" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="S181" s="58" t="s">
-        <v>453</v>
-      </c>
+      <c r="Q181" s="58"/>
+      <c r="R181" s="6"/>
+      <c r="S181" s="58"/>
       <c r="T181" s="11" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="U181" s="7"/>
     </row>
@@ -12668,42 +12670,42 @@
       <c r="G182" s="7"/>
       <c r="H182" s="7"/>
       <c r="I182" s="60">
-        <v>24688</v>
+        <v>31137</v>
       </c>
       <c r="J182" s="58">
         <v>99999</v>
       </c>
       <c r="K182" s="11"/>
       <c r="L182" s="18">
-        <v>63.25</v>
+        <v>56.283333300000002</v>
       </c>
       <c r="M182" s="18">
-        <v>143.15</v>
+        <v>131.1333333</v>
       </c>
       <c r="N182" s="33">
-        <v>741</v>
+        <v>850</v>
       </c>
       <c r="O182" s="20" t="s">
-        <v>50</v>
+        <v>541</v>
       </c>
       <c r="P182" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q182" s="58" t="s">
-        <v>557</v>
+        <v>324</v>
       </c>
       <c r="R182" s="6" t="s">
         <v>382</v>
       </c>
       <c r="S182" s="58" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T182" s="11" t="s">
         <v>478</v>
       </c>
       <c r="U182" s="7"/>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A183" s="58" t="s">
         <v>41</v>
       </c>
@@ -12721,37 +12723,39 @@
       <c r="G183" s="7"/>
       <c r="H183" s="7"/>
       <c r="I183" s="60">
-        <v>24585</v>
+        <v>24688</v>
       </c>
       <c r="J183" s="58">
         <v>99999</v>
       </c>
       <c r="K183" s="11"/>
       <c r="L183" s="18">
-        <v>64.55</v>
+        <v>63.25</v>
       </c>
       <c r="M183" s="18">
-        <v>144.4</v>
+        <v>143.15</v>
       </c>
       <c r="N183" s="33">
-        <v>518.52</v>
+        <v>741</v>
       </c>
       <c r="O183" s="20" t="s">
-        <v>539</v>
+        <v>50</v>
       </c>
       <c r="P183" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q183" s="58" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="R183" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="S183" s="58" t="s">
-        <v>548</v>
-      </c>
-      <c r="T183" s="11"/>
+        <v>454</v>
+      </c>
+      <c r="T183" s="11" t="s">
+        <v>478</v>
+      </c>
       <c r="U183" s="7"/>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.4">
@@ -12772,35 +12776,35 @@
       <c r="G184" s="7"/>
       <c r="H184" s="7"/>
       <c r="I184" s="60">
-        <v>24588</v>
+        <v>24585</v>
       </c>
       <c r="J184" s="58">
         <v>99999</v>
       </c>
       <c r="K184" s="11"/>
       <c r="L184" s="18">
-        <v>64.05</v>
+        <v>64.55</v>
       </c>
       <c r="M184" s="18">
-        <v>141.8833333</v>
+        <v>144.4</v>
       </c>
       <c r="N184" s="33">
-        <v>589.71</v>
+        <v>518.52</v>
       </c>
       <c r="O184" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="P184" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q184" s="58" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="R184" s="6" t="s">
         <v>383</v>
       </c>
       <c r="S184" s="58" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="T184" s="11"/>
       <c r="U184" s="7"/>
@@ -12823,35 +12827,35 @@
       <c r="G185" s="7"/>
       <c r="H185" s="7"/>
       <c r="I185" s="60">
-        <v>24691</v>
+        <v>24588</v>
       </c>
       <c r="J185" s="58">
         <v>99999</v>
       </c>
       <c r="K185" s="11"/>
       <c r="L185" s="18">
-        <v>63.8333333</v>
+        <v>64.05</v>
       </c>
       <c r="M185" s="18">
-        <v>145.6</v>
+        <v>141.8833333</v>
       </c>
       <c r="N185" s="33">
-        <v>800.92</v>
+        <v>589.71</v>
       </c>
       <c r="O185" s="20" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="P185" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q185" s="58" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="R185" s="6" t="s">
         <v>383</v>
       </c>
       <c r="S185" s="58" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="T185" s="11"/>
       <c r="U185" s="7"/>
@@ -12874,35 +12878,35 @@
       <c r="G186" s="7"/>
       <c r="H186" s="7"/>
       <c r="I186" s="60">
-        <v>24266</v>
+        <v>24691</v>
       </c>
       <c r="J186" s="58">
         <v>99999</v>
       </c>
       <c r="K186" s="11"/>
       <c r="L186" s="18">
-        <v>67.566666600000005</v>
+        <v>63.8333333</v>
       </c>
       <c r="M186" s="18">
-        <v>133.4</v>
+        <v>145.6</v>
       </c>
       <c r="N186" s="33">
-        <v>138</v>
+        <v>800.92</v>
       </c>
       <c r="O186" s="20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P186" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q186" s="58" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="R186" s="6" t="s">
         <v>383</v>
       </c>
       <c r="S186" s="58" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T186" s="11"/>
       <c r="U186" s="7"/>
@@ -12925,38 +12929,40 @@
       <c r="G187" s="7"/>
       <c r="H187" s="7"/>
       <c r="I187" s="60">
-        <v>24684</v>
+        <v>24266</v>
       </c>
       <c r="J187" s="58">
         <v>99999</v>
       </c>
       <c r="K187" s="11"/>
       <c r="L187" s="18">
-        <v>63.3333333</v>
+        <v>67.566666600000005</v>
       </c>
       <c r="M187" s="18">
-        <v>141.7333333</v>
+        <v>133.4</v>
       </c>
       <c r="N187" s="33">
-        <v>776.93</v>
+        <v>138</v>
       </c>
       <c r="O187" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="P187" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="Q187" s="58"/>
+      <c r="Q187" s="58" t="s">
+        <v>558</v>
+      </c>
       <c r="R187" s="6" t="s">
         <v>383</v>
       </c>
       <c r="S187" s="58" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="T187" s="11"/>
       <c r="U187" s="7"/>
     </row>
-    <row r="188" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A188" s="58" t="s">
         <v>41</v>
       </c>
@@ -12974,40 +12980,38 @@
       <c r="G188" s="7"/>
       <c r="H188" s="7"/>
       <c r="I188" s="60">
-        <v>24382</v>
+        <v>24684</v>
       </c>
       <c r="J188" s="58">
         <v>99999</v>
       </c>
       <c r="K188" s="11"/>
       <c r="L188" s="18">
-        <v>66.45</v>
+        <v>63.3333333</v>
       </c>
       <c r="M188" s="18">
-        <v>143.2333333</v>
+        <v>141.7333333</v>
       </c>
       <c r="N188" s="33">
-        <v>196</v>
+        <v>776.93</v>
       </c>
       <c r="O188" s="20" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="P188" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="Q188" s="58" t="s">
-        <v>560</v>
-      </c>
+      <c r="Q188" s="58"/>
       <c r="R188" s="6" t="s">
         <v>383</v>
       </c>
       <c r="S188" s="58" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="T188" s="11"/>
       <c r="U188" s="7"/>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A189" s="58" t="s">
         <v>41</v>
       </c>
@@ -13025,35 +13029,35 @@
       <c r="G189" s="7"/>
       <c r="H189" s="7"/>
       <c r="I189" s="60">
-        <v>24959</v>
+        <v>24382</v>
       </c>
       <c r="J189" s="58">
         <v>99999</v>
       </c>
       <c r="K189" s="11"/>
       <c r="L189" s="18">
-        <v>62.016666600000001</v>
+        <v>66.45</v>
       </c>
       <c r="M189" s="18">
-        <v>129.7166666</v>
+        <v>143.2333333</v>
       </c>
       <c r="N189" s="33">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="O189" s="20" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="P189" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q189" s="58" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="R189" s="6" t="s">
         <v>383</v>
       </c>
       <c r="S189" s="58" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="T189" s="11"/>
       <c r="U189" s="7"/>
@@ -13076,38 +13080,40 @@
       <c r="G190" s="7"/>
       <c r="H190" s="7"/>
       <c r="I190" s="60">
-        <v>24477</v>
+        <v>24959</v>
       </c>
       <c r="J190" s="58">
         <v>99999</v>
       </c>
       <c r="K190" s="11"/>
       <c r="L190" s="18">
-        <v>65.3</v>
+        <v>62.016666600000001</v>
       </c>
       <c r="M190" s="18">
-        <v>135.80000000000001</v>
+        <v>129.7166666</v>
       </c>
       <c r="N190" s="33">
-        <v>674.86</v>
+        <v>101</v>
       </c>
       <c r="O190" s="20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="P190" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="Q190" s="58"/>
+      <c r="Q190" s="58" t="s">
+        <v>546</v>
+      </c>
       <c r="R190" s="6" t="s">
         <v>383</v>
       </c>
       <c r="S190" s="58" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="T190" s="11"/>
       <c r="U190" s="7"/>
     </row>
-    <row r="191" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A191" s="58" t="s">
         <v>41</v>
       </c>
@@ -13119,46 +13125,44 @@
       </c>
       <c r="D191" s="28"/>
       <c r="E191" s="58" t="s">
-        <v>575</v>
-      </c>
-      <c r="F191" s="14"/>
-      <c r="G191" s="14"/>
-      <c r="H191" s="14"/>
+        <v>153</v>
+      </c>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
       <c r="I191" s="60">
-        <v>25428</v>
+        <v>24477</v>
       </c>
       <c r="J191" s="58">
         <v>99999</v>
       </c>
       <c r="K191" s="11"/>
       <c r="L191" s="18">
-        <v>65.233333299999998</v>
+        <v>65.3</v>
       </c>
       <c r="M191" s="18">
-        <v>160.53333330000001</v>
+        <v>135.80000000000001</v>
       </c>
       <c r="N191" s="33">
-        <v>264</v>
+        <v>674.86</v>
       </c>
       <c r="O191" s="20" t="s">
-        <v>576</v>
+        <v>547</v>
       </c>
       <c r="P191" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="Q191" s="58" t="s">
-        <v>577</v>
-      </c>
+      <c r="Q191" s="58"/>
       <c r="R191" s="6" t="s">
         <v>383</v>
       </c>
       <c r="S191" s="58" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="T191" s="11"/>
       <c r="U191" s="7"/>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A192" s="58" t="s">
         <v>41</v>
       </c>
@@ -13170,46 +13174,46 @@
       </c>
       <c r="D192" s="28"/>
       <c r="E192" s="58" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F192" s="14"/>
       <c r="G192" s="14"/>
       <c r="H192" s="14"/>
       <c r="I192" s="60">
-        <v>25700</v>
+        <v>25428</v>
       </c>
       <c r="J192" s="58">
         <v>99999</v>
       </c>
       <c r="K192" s="11"/>
       <c r="L192" s="18">
-        <v>62.8</v>
+        <v>65.233333299999998</v>
       </c>
       <c r="M192" s="18">
-        <v>150.66666660000001</v>
+        <v>160.53333330000001</v>
       </c>
       <c r="N192" s="33">
-        <v>312.39999999999998</v>
+        <v>264</v>
       </c>
       <c r="O192" s="20" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="P192" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q192" s="58" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="R192" s="6" t="s">
         <v>383</v>
       </c>
       <c r="S192" s="58" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="T192" s="11"/>
       <c r="U192" s="7"/>
     </row>
-    <row r="193" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A193" s="58" t="s">
         <v>41</v>
       </c>
@@ -13221,65 +13225,93 @@
       </c>
       <c r="D193" s="28"/>
       <c r="E193" s="58" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F193" s="14"/>
       <c r="G193" s="14"/>
       <c r="H193" s="14"/>
       <c r="I193" s="60">
-        <v>24507</v>
+        <v>25700</v>
       </c>
       <c r="J193" s="58">
         <v>99999</v>
       </c>
       <c r="K193" s="11"/>
       <c r="L193" s="18">
-        <v>64.266666599999994</v>
+        <v>62.8</v>
       </c>
       <c r="M193" s="18">
-        <v>100.2333333</v>
+        <v>150.66666660000001</v>
       </c>
       <c r="N193" s="33">
-        <v>168</v>
+        <v>312.39999999999998</v>
       </c>
       <c r="O193" s="20" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="P193" s="9" t="s">
         <v>386</v>
       </c>
       <c r="Q193" s="58" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="R193" s="6" t="s">
         <v>383</v>
       </c>
       <c r="S193" s="58" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="T193" s="11"/>
       <c r="U193" s="7"/>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A194" s="58"/>
-      <c r="B194" s="22"/>
-      <c r="C194" s="25"/>
+    <row r="194" spans="1:21" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A194" s="58" t="s